--- a/QuantLibXL/Data2/XLS/AUD_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD_Market.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="289">
   <si>
     <t>Currency</t>
   </si>
@@ -1005,6 +1005,9 @@
   <si>
     <t>BBSWSwap</t>
   </si>
+  <si>
+    <t>AUCASH=RBAA</t>
+  </si>
 </sst>
 </file>
 
@@ -1736,7 +1739,7 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="481">
+  <cellXfs count="485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2645,15 +2648,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="11" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="5" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="5" fillId="11" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="169" fontId="9" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="5"/>
@@ -2890,94 +2901,94 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:41</v>
         <stp/>
-        <stp>{383FA10F-C291-4F35-AA76-324B10A28BF5}</stp>
+        <stp>{850BD516-1539-4D6A-B140-F4694F619401}</stp>
+        <tr r="S4" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:03:39</v>
+        <stp/>
+        <stp>{A0360F30-B8BC-4495-A37F-03C4B9815554}</stp>
+        <tr r="M6" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:03:40</v>
+        <stp/>
+        <stp>{4A4E257F-44E2-457E-BE65-7165A0049356}</stp>
+        <tr r="N4" s="16"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:03:39</v>
+        <stp/>
+        <stp>{4388CEA3-60DC-46E8-9EEF-11B34B6E06EE}</stp>
+        <tr r="J4" s="15"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:03:40</v>
+        <stp/>
+        <stp>{B8636B24-7453-46A2-85B6-7956CC431686}</stp>
+        <tr r="S4" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:05:18</v>
+        <stp/>
+        <stp>{B814BEA5-FFC5-4321-9E13-BB8A6EF452FB}</stp>
+        <tr r="O5" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:03:40</v>
+        <stp/>
+        <stp>{1E5D719A-EC42-4FDC-947B-A473BCB820CA}</stp>
+        <tr r="S4" s="11"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:03:41</v>
+        <stp/>
+        <stp>{1E1F187F-3B79-4E8E-9DD7-6D36CDAF6C89}</stp>
+        <tr r="O4" s="65"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:03:39</v>
+        <stp/>
+        <stp>{C2A622C4-57B0-4013-92F7-F1B0E9403A24}</stp>
+        <tr r="M6" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:03:41</v>
+        <stp/>
+        <stp>{CA7F57AD-A9F9-404E-B523-ED078065018D}</stp>
         <tr r="O4" s="23"/>
       </tp>
       <tp t="s">
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:40</v>
         <stp/>
-        <stp>{B20B2E3D-2271-43A1-B113-420471C1F6D3}</stp>
-        <tr r="S4" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:08:05</v>
-        <stp/>
-        <stp>{34EFC9B1-84D5-49EF-81BA-1FFD42455324}</stp>
-        <tr r="J4" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:08:05</v>
-        <stp/>
-        <stp>{BD8782BF-28ED-443E-92A7-0C6BD21C20B3}</stp>
-        <tr r="N4" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:08:05</v>
-        <stp/>
-        <stp>{377FD7EA-301B-4CAC-823F-10400977D079}</stp>
-        <tr r="O5" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:08:05</v>
-        <stp/>
-        <stp>{0DF380C3-757A-43C6-A5E8-33BD3E3630AF}</stp>
-        <tr r="S4" s="11"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:08:05</v>
-        <stp/>
-        <stp>{16BE4D43-6EEF-487D-9E4B-BD449D210609}</stp>
-        <tr r="M6" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:08:05</v>
-        <stp/>
-        <stp>{D1C5EE4F-CF71-4E30-A87B-F2399A68533A}</stp>
+        <stp>{50A54615-67DB-42A2-9DF9-E844E43F9797}</stp>
         <tr r="U5" s="64"/>
       </tp>
       <tp t="s">
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:41</v>
         <stp/>
-        <stp>{434C2B1D-5695-4AE2-B260-4ACB8AA229B7}</stp>
+        <stp>{EE037C15-4B7D-4380-822D-BABC5E254960}</stp>
+        <tr r="S4" s="26"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:03:40</v>
+        <stp/>
+        <stp>{41234496-C265-4568-863A-DAED6A751ED4}</stp>
         <tr r="O4" s="22"/>
       </tp>
       <tp t="s">
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:39</v>
         <stp/>
-        <stp>{7ECDA28A-B08E-4A46-BA99-0024BC2F6226}</stp>
-        <tr r="K5" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:08:05</v>
-        <stp/>
-        <stp>{0BEF0059-B448-4F17-8163-5A42A8B078AA}</stp>
-        <tr r="S4" s="26"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:08:05</v>
-        <stp/>
-        <stp>{F7C9E520-3E9D-46D3-A237-5778B2544AA9}</stp>
+        <stp>{0FF42878-7927-41BF-A8B5-8BFAFFC22E79}</stp>
         <tr r="O5" s="17"/>
       </tp>
       <tp t="s">
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:40</v>
         <stp/>
-        <stp>{26DC19A7-96EF-4960-9F89-3C421B159AA0}</stp>
-        <tr r="S4" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:08:05</v>
-        <stp/>
-        <stp>{1998C8FD-11BA-4FEA-9604-844C4793138F}</stp>
-        <tr r="O4" s="65"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 12:08:05</v>
-        <stp/>
-        <stp>{2E0FAD90-6A41-4F43-98C1-A4C5BE6159D5}</stp>
-        <tr r="M6" s="8"/>
+        <stp>{C23E955F-4855-4E78-9A72-AED4DB162356}</stp>
+        <tr r="K5" s="6"/>
       </tp>
     </main>
   </volType>
@@ -3345,7 +3356,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="276">
-        <v>41807.504421296297</v>
+        <v>41807.752210648148</v>
       </c>
       <c r="E5" s="263"/>
       <c r="G5" s="5"/>
@@ -3382,7 +3393,7 @@
       </c>
       <c r="D7" s="273">
         <f>_xll.ohTrigger(Deposits!R3,FRA!X3,Futures3M!Z4,FuturesHWConvAdj!Q3,Swaps1M!Y3,Swap3M!AC3,Swap6M!AC3,BasisSwap1M3M!AA3,BasisSwap3M6M!AA3,OIS!Y3)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" s="263"/>
       <c r="G7" s="5"/>
@@ -3816,10 +3827,10 @@
         <v>163</v>
       </c>
       <c r="J4" s="240"/>
-      <c r="K4" s="476" t="s">
+      <c r="K4" s="483" t="s">
         <v>205</v>
       </c>
-      <c r="L4" s="477"/>
+      <c r="L4" s="484"/>
       <c r="M4" s="240"/>
       <c r="N4" s="176" t="s">
         <v>192</v>
@@ -4159,7 +4170,7 @@
       <c r="N4" s="122"/>
       <c r="O4" s="144" t="str">
         <f>_xll.RData(O5:O18,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:41</v>
       </c>
       <c r="P4" s="198" t="s">
         <v>163</v>
@@ -5231,7 +5242,7 @@
       <c r="R4" s="122"/>
       <c r="S4" s="144" t="str">
         <f>_xll.RData(S5:S42,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:40</v>
       </c>
       <c r="T4" s="198" t="s">
         <v>163</v>
@@ -5409,7 +5420,7 @@
       </c>
       <c r="AC6" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F6,AB6/100,Trigger)</f>
-        <v>-1.7500000000000154E-4</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="136"/>
       <c r="AE6" s="12"/>
@@ -5717,7 +5728,7 @@
       </c>
       <c r="AC10" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F10,AB10/100,Trigger)</f>
-        <v>-4.5000000000000248E-4</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="136"/>
       <c r="AE10" s="12"/>
@@ -5794,7 +5805,7 @@
       </c>
       <c r="AC11" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/100,Trigger)</f>
-        <v>-5.7499999999999565E-4</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="136"/>
       <c r="AE11" s="12"/>
@@ -8377,7 +8388,7 @@
       <c r="R4" s="122"/>
       <c r="S4" s="144" t="str">
         <f>_xll.RData(S5:S42,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:41</v>
       </c>
       <c r="T4" s="198" t="s">
         <v>163</v>
@@ -9016,7 +9027,7 @@
       </c>
       <c r="AC12" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/100,Trigger)</f>
-        <v>-5.9999999999999637E-4</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="136"/>
       <c r="AE12" s="12"/>
@@ -9093,7 +9104,7 @@
       </c>
       <c r="AC13" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/100,Trigger)</f>
-        <v>-5.7499999999999218E-4</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="136"/>
       <c r="AE13" s="12"/>
@@ -9170,7 +9181,7 @@
       </c>
       <c r="AC14" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/100,Trigger)</f>
-        <v>-5.4999999999999494E-4</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="136"/>
       <c r="AE14" s="12"/>
@@ -9247,7 +9258,7 @@
       </c>
       <c r="AC15" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/100,Trigger)</f>
-        <v>-5.0000000000000044E-4</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="136"/>
       <c r="AE15" s="12"/>
@@ -9324,7 +9335,7 @@
       </c>
       <c r="AC16" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/100,Trigger)</f>
-        <v>-4.2499999999999483E-4</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="136"/>
       <c r="AE16" s="12"/>
@@ -9401,7 +9412,7 @@
       </c>
       <c r="AC17" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/100,Trigger)</f>
-        <v>-4.2499999999999483E-4</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="136"/>
       <c r="AE17" s="12"/>
@@ -9478,7 +9489,7 @@
       </c>
       <c r="AC18" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/100,Trigger)</f>
-        <v>-4.0000000000000452E-4</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="136"/>
       <c r="AE18" s="12"/>
@@ -9632,7 +9643,7 @@
       </c>
       <c r="AC20" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/100,Trigger)</f>
-        <v>-4.2500000000000177E-4</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="136"/>
       <c r="AE20" s="12"/>
@@ -9863,7 +9874,7 @@
       </c>
       <c r="AC23" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/100,Trigger)</f>
-        <v>-4.750000000000032E-4</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="136"/>
       <c r="AE23" s="12"/>
@@ -10248,7 +10259,7 @@
       </c>
       <c r="AC28" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F28,AB28/100,Trigger)</f>
-        <v>-3.9999999999999758E-4</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="136"/>
       <c r="AE28" s="12"/>
@@ -10633,7 +10644,7 @@
       </c>
       <c r="AC33" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/100,Trigger)</f>
-        <v>-3.9999999999999758E-4</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="136"/>
       <c r="AE33" s="12"/>
@@ -11018,7 +11029,7 @@
       </c>
       <c r="AC38" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F38,AB38/100,Trigger)</f>
-        <v>-4.0000000000000452E-4</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="136"/>
       <c r="AE38" s="12"/>
@@ -11172,7 +11183,7 @@
       </c>
       <c r="AC40" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F40,AB40/100,Trigger)</f>
-        <v>-3.9999999999999758E-4</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="136"/>
       <c r="AE40" s="12"/>
@@ -11513,7 +11524,7 @@
       <c r="R4" s="122"/>
       <c r="S4" s="144" t="str">
         <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:40</v>
       </c>
       <c r="T4" s="198" t="s">
         <v>163</v>
@@ -14299,7 +14310,7 @@
       <c r="R4" s="122"/>
       <c r="S4" s="144" t="str">
         <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:41</v>
       </c>
       <c r="T4" s="198" t="s">
         <v>163</v>
@@ -14818,7 +14829,7 @@
       </c>
       <c r="AA11" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F11,Z11/10000,Trigger)</f>
-        <v>3.749999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="136"/>
       <c r="AC11" s="12"/>
@@ -14889,7 +14900,7 @@
       </c>
       <c r="AA12" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F12,Z12/10000,Trigger)</f>
-        <v>3.749999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="136"/>
       <c r="AC12" s="12"/>
@@ -14960,7 +14971,7 @@
       </c>
       <c r="AA13" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F13,Z13/10000,Trigger)</f>
-        <v>3.749999999999999E-5</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="136"/>
       <c r="AC13" s="12"/>
@@ -15102,7 +15113,7 @@
       </c>
       <c r="AA15" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F15,Z15/10000,Trigger)</f>
-        <v>3.7500000000000098E-5</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="136"/>
       <c r="AC15" s="12"/>
@@ -15315,7 +15326,7 @@
       </c>
       <c r="AA18" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F18,Z18/10000,Trigger)</f>
-        <v>3.7500000000000098E-5</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="136"/>
       <c r="AC18" s="12"/>
@@ -15457,7 +15468,7 @@
       </c>
       <c r="AA20" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F20,Z20/10000,Trigger)</f>
-        <v>2.4999999999999957E-5</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="136"/>
       <c r="AC20" s="12"/>
@@ -15670,7 +15681,7 @@
       </c>
       <c r="AA23" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F23,Z23/10000,Trigger)</f>
-        <v>2.4999999999999957E-5</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="136"/>
       <c r="AC23" s="12"/>
@@ -17242,7 +17253,7 @@
       <c r="J5" s="404"/>
       <c r="K5" s="380" t="str">
         <f>_xll.RData(K6:K12,L5:M5,"RTFEED:IDN",,,L6)</f>
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:40</v>
       </c>
       <c r="L5" s="381" t="s">
         <v>228</v>
@@ -17358,7 +17369,7 @@
       </c>
       <c r="H7" s="378" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E7)</f>
-        <v>qlLibor - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="I7" s="378" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -17425,7 +17436,7 @@
       </c>
       <c r="H8" s="378" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E8)</f>
-        <v>qlLibor - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="I8" s="378" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -17492,7 +17503,7 @@
       </c>
       <c r="H9" s="378" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E9)</f>
-        <v>qlLibor - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="I9" s="378" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -17559,7 +17570,7 @@
       </c>
       <c r="H10" s="378" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E10)</f>
-        <v>qlLibor - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="I10" s="378" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -17626,7 +17637,7 @@
       </c>
       <c r="H11" s="378" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E11)</f>
-        <v>qlLibor - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="I11" s="378" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -17693,7 +17704,7 @@
       </c>
       <c r="H12" s="378" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E12)</f>
-        <v>qlLibor - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="I12" s="378" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -18015,7 +18026,7 @@
       </c>
       <c r="M6" s="320" t="str">
         <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:39</v>
       </c>
       <c r="N6" s="320" t="s">
         <v>228</v>
@@ -18066,7 +18077,7 @@
       </c>
       <c r="G7" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F7)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H7" s="21"/>
       <c r="J7" s="280"/>
@@ -18137,7 +18148,7 @@
       </c>
       <c r="G8" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F8)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H8" s="21"/>
       <c r="J8" s="280"/>
@@ -18208,7 +18219,7 @@
       </c>
       <c r="G9" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F9)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H9" s="21"/>
       <c r="J9" s="280"/>
@@ -18279,7 +18290,7 @@
       </c>
       <c r="G10" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F10)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H10" s="21"/>
       <c r="J10" s="280"/>
@@ -18350,7 +18361,7 @@
       </c>
       <c r="G11" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F11)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H11" s="21"/>
       <c r="J11" s="280"/>
@@ -18421,7 +18432,7 @@
       </c>
       <c r="G12" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F12)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H12" s="21"/>
       <c r="J12" s="280"/>
@@ -18492,7 +18503,7 @@
       </c>
       <c r="G13" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F13)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H13" s="21"/>
       <c r="J13" s="280"/>
@@ -18563,7 +18574,7 @@
       </c>
       <c r="G14" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F14)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H14" s="21"/>
       <c r="J14" s="280"/>
@@ -18634,7 +18645,7 @@
       </c>
       <c r="G15" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F15)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H15" s="21"/>
       <c r="J15" s="280"/>
@@ -18705,7 +18716,7 @@
       </c>
       <c r="G16" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F16)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H16" s="21"/>
       <c r="J16" s="280"/>
@@ -18776,7 +18787,7 @@
       </c>
       <c r="G17" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F17)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H17" s="21"/>
       <c r="J17" s="280"/>
@@ -18847,7 +18858,7 @@
       </c>
       <c r="G18" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F18)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H18" s="21"/>
       <c r="J18" s="280"/>
@@ -18918,7 +18929,7 @@
       </c>
       <c r="G19" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F19)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H19" s="21"/>
       <c r="J19" s="280"/>
@@ -18989,7 +19000,7 @@
       </c>
       <c r="G20" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F20)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H20" s="21"/>
       <c r="J20" s="280"/>
@@ -19060,7 +19071,7 @@
       </c>
       <c r="G21" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F21)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H21" s="21"/>
       <c r="J21" s="280"/>
@@ -19131,7 +19142,7 @@
       </c>
       <c r="G22" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F22)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H22" s="21"/>
       <c r="J22" s="280"/>
@@ -19169,7 +19180,7 @@
       </c>
       <c r="G23" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F23)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H23" s="21"/>
       <c r="J23" s="280"/>
@@ -19207,7 +19218,7 @@
       </c>
       <c r="G24" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F24)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H24" s="21"/>
       <c r="J24" s="280"/>
@@ -19251,7 +19262,7 @@
       </c>
       <c r="G25" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F25)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H25" s="21"/>
       <c r="J25" s="280"/>
@@ -19295,7 +19306,7 @@
       </c>
       <c r="G26" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F26)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H26" s="21"/>
       <c r="J26" s="280"/>
@@ -19339,7 +19350,7 @@
       </c>
       <c r="G27" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F27)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H27" s="21"/>
       <c r="J27" s="280"/>
@@ -19383,7 +19394,7 @@
       </c>
       <c r="G28" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F28)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H28" s="21"/>
       <c r="J28" s="280"/>
@@ -19427,7 +19438,7 @@
       </c>
       <c r="G29" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F29)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H29" s="21"/>
       <c r="J29" s="280"/>
@@ -19471,7 +19482,7 @@
       </c>
       <c r="G30" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F30)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H30" s="21"/>
       <c r="J30" s="280"/>
@@ -19515,7 +19526,7 @@
       </c>
       <c r="G31" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F31)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H31" s="21"/>
     </row>
@@ -19537,7 +19548,7 @@
       </c>
       <c r="G32" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F32)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H32" s="21"/>
     </row>
@@ -19559,7 +19570,7 @@
       </c>
       <c r="G33" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F33)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H33" s="21"/>
     </row>
@@ -19581,7 +19592,7 @@
       </c>
       <c r="G34" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F34)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H34" s="21"/>
     </row>
@@ -19603,7 +19614,7 @@
       </c>
       <c r="G35" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F35)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H35" s="21"/>
     </row>
@@ -19625,7 +19636,7 @@
       </c>
       <c r="G36" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F36)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H36" s="21"/>
     </row>
@@ -19647,7 +19658,7 @@
       </c>
       <c r="G37" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F37)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H37" s="21"/>
     </row>
@@ -19669,7 +19680,7 @@
       </c>
       <c r="G38" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F38)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H38" s="21"/>
     </row>
@@ -19691,7 +19702,7 @@
       </c>
       <c r="G39" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F39)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H39" s="21"/>
     </row>
@@ -19713,7 +19724,7 @@
       </c>
       <c r="G40" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F40)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H40" s="21"/>
     </row>
@@ -19735,7 +19746,7 @@
       </c>
       <c r="G41" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F41)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H41" s="21"/>
     </row>
@@ -19757,7 +19768,7 @@
       </c>
       <c r="G42" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F42)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H42" s="21"/>
     </row>
@@ -19779,7 +19790,7 @@
       </c>
       <c r="G43" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F43)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H43" s="21"/>
     </row>
@@ -19801,7 +19812,7 @@
       </c>
       <c r="G44" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F44)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H44" s="21"/>
     </row>
@@ -19823,7 +19834,7 @@
       </c>
       <c r="G45" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F45)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H45" s="21"/>
     </row>
@@ -19845,7 +19856,7 @@
       </c>
       <c r="G46" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F46)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H46" s="21"/>
     </row>
@@ -19867,7 +19878,7 @@
       </c>
       <c r="G47" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F47)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H47" s="21"/>
     </row>
@@ -19889,7 +19900,7 @@
       </c>
       <c r="G48" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F48)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H48" s="21"/>
     </row>
@@ -19911,7 +19922,7 @@
       </c>
       <c r="G49" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F49)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H49" s="21"/>
     </row>
@@ -19933,7 +19944,7 @@
       </c>
       <c r="G50" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F50)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H50" s="21"/>
     </row>
@@ -19955,7 +19966,7 @@
       </c>
       <c r="G51" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F51)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H51" s="21"/>
     </row>
@@ -19977,7 +19988,7 @@
       </c>
       <c r="G52" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F52)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H52" s="21"/>
     </row>
@@ -19999,7 +20010,7 @@
       </c>
       <c r="G53" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F53)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H53" s="21"/>
     </row>
@@ -20021,7 +20032,7 @@
       </c>
       <c r="G54" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F54)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H54" s="21"/>
     </row>
@@ -20043,7 +20054,7 @@
       </c>
       <c r="G55" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F55)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H55" s="21"/>
     </row>
@@ -20065,7 +20076,7 @@
       </c>
       <c r="G56" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F56)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H56" s="21"/>
     </row>
@@ -20087,7 +20098,7 @@
       </c>
       <c r="G57" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F57)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H57" s="21"/>
     </row>
@@ -20109,7 +20120,7 @@
       </c>
       <c r="G58" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F58)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H58" s="21"/>
     </row>
@@ -20131,7 +20142,7 @@
       </c>
       <c r="G59" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F59)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H59" s="21"/>
     </row>
@@ -20153,7 +20164,7 @@
       </c>
       <c r="G60" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F60)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H60" s="21"/>
     </row>
@@ -20175,7 +20186,7 @@
       </c>
       <c r="G61" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F61)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H61" s="21"/>
     </row>
@@ -20197,7 +20208,7 @@
       </c>
       <c r="G62" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F62)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H62" s="21"/>
     </row>
@@ -20219,7 +20230,7 @@
       </c>
       <c r="G63" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F63)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H63" s="21"/>
     </row>
@@ -20241,7 +20252,7 @@
       </c>
       <c r="G64" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F64)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H64" s="21"/>
     </row>
@@ -20263,7 +20274,7 @@
       </c>
       <c r="G65" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F65)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H65" s="21"/>
     </row>
@@ -20285,7 +20296,7 @@
       </c>
       <c r="G66" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F66)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H66" s="21"/>
     </row>
@@ -20562,7 +20573,7 @@
       </c>
       <c r="M6" s="320" t="str">
         <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:39</v>
       </c>
       <c r="N6" s="320" t="s">
         <v>228</v>
@@ -20613,7 +20624,7 @@
       </c>
       <c r="G7" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F7)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H7" s="21"/>
       <c r="J7" s="280"/>
@@ -20684,7 +20695,7 @@
       </c>
       <c r="G8" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F8)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H8" s="21"/>
       <c r="J8" s="280"/>
@@ -20755,7 +20766,7 @@
       </c>
       <c r="G9" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F9)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H9" s="21"/>
       <c r="J9" s="280"/>
@@ -20826,7 +20837,7 @@
       </c>
       <c r="G10" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F10)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H10" s="21"/>
       <c r="J10" s="280"/>
@@ -20897,7 +20908,7 @@
       </c>
       <c r="G11" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F11)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H11" s="21"/>
       <c r="J11" s="280"/>
@@ -20968,7 +20979,7 @@
       </c>
       <c r="G12" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F12)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H12" s="21"/>
       <c r="J12" s="280"/>
@@ -21039,7 +21050,7 @@
       </c>
       <c r="G13" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F13)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H13" s="21"/>
       <c r="J13" s="280"/>
@@ -21110,7 +21121,7 @@
       </c>
       <c r="G14" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F14)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H14" s="21"/>
       <c r="J14" s="280"/>
@@ -21181,7 +21192,7 @@
       </c>
       <c r="G15" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F15)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H15" s="21"/>
       <c r="J15" s="280"/>
@@ -21252,7 +21263,7 @@
       </c>
       <c r="G16" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F16)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H16" s="21"/>
       <c r="J16" s="280"/>
@@ -21323,7 +21334,7 @@
       </c>
       <c r="G17" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F17)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H17" s="21"/>
       <c r="J17" s="280"/>
@@ -21394,7 +21405,7 @@
       </c>
       <c r="G18" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F18)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H18" s="21"/>
       <c r="J18" s="280"/>
@@ -21465,7 +21476,7 @@
       </c>
       <c r="G19" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F19)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H19" s="21"/>
       <c r="J19" s="280"/>
@@ -21536,7 +21547,7 @@
       </c>
       <c r="G20" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F20)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H20" s="21"/>
       <c r="J20" s="280"/>
@@ -21607,7 +21618,7 @@
       </c>
       <c r="G21" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F21)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H21" s="21"/>
       <c r="J21" s="280"/>
@@ -21678,7 +21689,7 @@
       </c>
       <c r="G22" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F22)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H22" s="21"/>
       <c r="J22" s="280"/>
@@ -21716,7 +21727,7 @@
       </c>
       <c r="G23" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F23)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H23" s="21"/>
       <c r="J23" s="280"/>
@@ -21754,7 +21765,7 @@
       </c>
       <c r="G24" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F24)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H24" s="21"/>
       <c r="J24" s="280"/>
@@ -21798,7 +21809,7 @@
       </c>
       <c r="G25" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F25)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H25" s="21"/>
       <c r="J25" s="280"/>
@@ -21842,7 +21853,7 @@
       </c>
       <c r="G26" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F26)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H26" s="21"/>
       <c r="J26" s="280"/>
@@ -21886,7 +21897,7 @@
       </c>
       <c r="G27" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F27)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H27" s="21"/>
       <c r="J27" s="280"/>
@@ -21930,7 +21941,7 @@
       </c>
       <c r="G28" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F28)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H28" s="21"/>
       <c r="J28" s="280"/>
@@ -21974,7 +21985,7 @@
       </c>
       <c r="G29" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F29)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H29" s="21"/>
       <c r="J29" s="280"/>
@@ -22018,7 +22029,7 @@
       </c>
       <c r="G30" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F30)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H30" s="21"/>
       <c r="J30" s="280"/>
@@ -22062,7 +22073,7 @@
       </c>
       <c r="G31" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F31)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H31" s="21"/>
     </row>
@@ -22084,7 +22095,7 @@
       </c>
       <c r="G32" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F32)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H32" s="21"/>
     </row>
@@ -22106,7 +22117,7 @@
       </c>
       <c r="G33" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F33)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H33" s="21"/>
     </row>
@@ -22128,7 +22139,7 @@
       </c>
       <c r="G34" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F34)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H34" s="21"/>
     </row>
@@ -22150,7 +22161,7 @@
       </c>
       <c r="G35" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F35)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H35" s="21"/>
     </row>
@@ -22172,7 +22183,7 @@
       </c>
       <c r="G36" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F36)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H36" s="21"/>
     </row>
@@ -22194,7 +22205,7 @@
       </c>
       <c r="G37" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F37)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H37" s="21"/>
     </row>
@@ -22216,7 +22227,7 @@
       </c>
       <c r="G38" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F38)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H38" s="21"/>
     </row>
@@ -22238,7 +22249,7 @@
       </c>
       <c r="G39" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F39)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H39" s="21"/>
     </row>
@@ -22260,7 +22271,7 @@
       </c>
       <c r="G40" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F40)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H40" s="21"/>
     </row>
@@ -22282,7 +22293,7 @@
       </c>
       <c r="G41" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F41)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H41" s="21"/>
     </row>
@@ -22304,7 +22315,7 @@
       </c>
       <c r="G42" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F42)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H42" s="21"/>
     </row>
@@ -22326,7 +22337,7 @@
       </c>
       <c r="G43" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F43)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H43" s="21"/>
     </row>
@@ -22348,7 +22359,7 @@
       </c>
       <c r="G44" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F44)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H44" s="21"/>
     </row>
@@ -22370,7 +22381,7 @@
       </c>
       <c r="G45" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F45)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H45" s="21"/>
     </row>
@@ -22392,7 +22403,7 @@
       </c>
       <c r="G46" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F46)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H46" s="21"/>
     </row>
@@ -22414,7 +22425,7 @@
       </c>
       <c r="G47" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F47)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H47" s="21"/>
     </row>
@@ -22436,7 +22447,7 @@
       </c>
       <c r="G48" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F48)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H48" s="21"/>
     </row>
@@ -22458,7 +22469,7 @@
       </c>
       <c r="G49" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F49)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H49" s="21"/>
     </row>
@@ -22480,7 +22491,7 @@
       </c>
       <c r="G50" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F50)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H50" s="21"/>
     </row>
@@ -22502,7 +22513,7 @@
       </c>
       <c r="G51" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F51)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H51" s="21"/>
     </row>
@@ -22524,7 +22535,7 @@
       </c>
       <c r="G52" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F52)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H52" s="21"/>
     </row>
@@ -22546,7 +22557,7 @@
       </c>
       <c r="G53" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F53)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H53" s="21"/>
     </row>
@@ -22568,7 +22579,7 @@
       </c>
       <c r="G54" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F54)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H54" s="21"/>
     </row>
@@ -22590,7 +22601,7 @@
       </c>
       <c r="G55" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F55)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H55" s="21"/>
     </row>
@@ -22612,7 +22623,7 @@
       </c>
       <c r="G56" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F56)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H56" s="21"/>
     </row>
@@ -22634,7 +22645,7 @@
       </c>
       <c r="G57" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F57)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H57" s="21"/>
     </row>
@@ -22656,7 +22667,7 @@
       </c>
       <c r="G58" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F58)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H58" s="21"/>
     </row>
@@ -22678,7 +22689,7 @@
       </c>
       <c r="G59" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F59)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H59" s="21"/>
     </row>
@@ -22700,7 +22711,7 @@
       </c>
       <c r="G60" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F60)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H60" s="21"/>
     </row>
@@ -22722,7 +22733,7 @@
       </c>
       <c r="G61" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F61)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H61" s="21"/>
     </row>
@@ -22744,7 +22755,7 @@
       </c>
       <c r="G62" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F62)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H62" s="21"/>
     </row>
@@ -22766,7 +22777,7 @@
       </c>
       <c r="G63" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F63)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H63" s="21"/>
     </row>
@@ -22788,7 +22799,7 @@
       </c>
       <c r="G64" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F64)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H64" s="21"/>
     </row>
@@ -22810,7 +22821,7 @@
       </c>
       <c r="G65" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F65)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H65" s="21"/>
     </row>
@@ -22832,7 +22843,7 @@
       </c>
       <c r="G66" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F66)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H66" s="21"/>
     </row>
@@ -23108,8 +23119,8 @@
         <v>245</v>
       </c>
       <c r="U5" s="381" t="str">
-        <f>_xll.RData(U7:U14,V5:W5,"RTFEED:IDN",,,V7)</f>
-        <v>Paused at 12:08:05</v>
+        <f>_xll.RData(U6:U14,V5:W5,"RTFEED:IDN",,,V6)</f>
+        <v>Updated at 18:03:40</v>
       </c>
       <c r="V5" s="381" t="s">
         <v>228</v>
@@ -23170,11 +23181,11 @@
       </c>
       <c r="N6" s="455" t="str">
         <f>_xll.qlOvernightIndex(L6,,D6,Currency,Calendar,K6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AONIA#0001</v>
+        <v>AONIA#0000</v>
       </c>
       <c r="O6" s="455" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C6&amp;"LastFixing_Quote",N6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWONLastFixing_Quote#0002</v>
+        <v>AudBBSWONLastFixing_Quote#0000</v>
       </c>
       <c r="P6" s="456"/>
       <c r="Q6" s="375"/>
@@ -23185,25 +23196,25 @@
       </c>
       <c r="T6" s="458" t="str">
         <f>N6</f>
-        <v>AONIA#0001</v>
+        <v>AONIA#0000</v>
       </c>
       <c r="U6" s="459" t="str">
-        <f t="shared" ref="U6:U13" si="3">"AU"&amp;S6&amp;"BBC"&amp;"="&amp;"ICAA"</f>
-        <v>AUONBBC=ICAA</v>
+        <f>"AU"&amp;"CASH"&amp;"="&amp;"RBAA"</f>
+        <v>AUCASH=RBAA</v>
       </c>
       <c r="V6" s="459">
-        <v>41805</v>
+        <v>41807</v>
       </c>
       <c r="W6" s="460">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X6" s="459" t="b">
-        <f t="shared" ref="X6:X14" si="4">IF(AND(ISNUMBER($W6),$W6&lt;&gt;0%),TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="459" t="e">
+        <f t="shared" ref="X6:X14" si="3">IF(AND(ISNUMBER($W6),$W6&lt;&gt;0%),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="459" t="b">
         <f>IF(W6,_xll.qlIndexAddFixings(T6,V6,W6/100,TRUE),NA())</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="461" t="e">
         <f>_xll.qlQuoteValue(O6)</f>
@@ -23245,7 +23256,7 @@
         <v>267</v>
       </c>
       <c r="L7" s="428" t="str">
-        <f t="shared" ref="L7:L14" si="5">PROPER(Currency)&amp;FamilyName&amp;C7</f>
+        <f t="shared" ref="L7:L14" si="4">PROPER(Currency)&amp;FamilyName&amp;C7</f>
         <v>AudBBSW1M</v>
       </c>
       <c r="M7" s="374" t="str">
@@ -23254,11 +23265,11 @@
       </c>
       <c r="N7" s="374" t="str">
         <f>_xll.qlIborIndex(L7,FamilyName,C7,D7,Currency,E7,F7,J7,K7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1M#0001</v>
+        <v>AudBBSW1M#0000</v>
       </c>
       <c r="O7" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C7&amp;"LastFixing_Quote",N7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1MLastFixing_Quote#0001</v>
+        <v>AudBBSW1MLastFixing_Quote#0000</v>
       </c>
       <c r="P7" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N7)</f>
@@ -23272,10 +23283,10 @@
       </c>
       <c r="T7" s="389" t="str">
         <f>N7</f>
-        <v>AudBBSW1M#0001</v>
+        <v>AudBBSW1M#0000</v>
       </c>
       <c r="U7" s="387" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U7:U13" si="5">"AU"&amp;S7&amp;"BBC"&amp;"="&amp;"ICAA"</f>
         <v>AU1MBBC=ICAA</v>
       </c>
       <c r="V7" s="387">
@@ -23285,7 +23296,7 @@
         <v>2.66</v>
       </c>
       <c r="X7" s="387" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y7" s="387" t="b">
@@ -23332,17 +23343,17 @@
         <v>267</v>
       </c>
       <c r="L8" s="428" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AudBBSW2M</v>
       </c>
       <c r="M8" s="374"/>
       <c r="N8" s="374" t="str">
         <f>_xll.qlIborIndex(L8,FamilyName,C8,D8,Currency,E8,F8,J8,K8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW2M#0002</v>
+        <v>AudBBSW2M#0000</v>
       </c>
       <c r="O8" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C8&amp;"LastFixing_Quote",N8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW2MLastFixing_Quote#0002</v>
+        <v>AudBBSW2MLastFixing_Quote#0000</v>
       </c>
       <c r="P8" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N8)</f>
@@ -23356,10 +23367,10 @@
       </c>
       <c r="T8" s="389" t="str">
         <f t="shared" ref="T8:T14" si="6">N8</f>
-        <v>AudBBSW2M#0002</v>
+        <v>AudBBSW2M#0000</v>
       </c>
       <c r="U8" s="387" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>AU2MBBC=ICAA</v>
       </c>
       <c r="V8" s="387">
@@ -23369,7 +23380,7 @@
         <v>2.67</v>
       </c>
       <c r="X8" s="387" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y8" s="387" t="b">
@@ -23416,7 +23427,7 @@
         <v>267</v>
       </c>
       <c r="L9" s="428" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AudBBSW3M</v>
       </c>
       <c r="M9" s="374" t="str">
@@ -23425,11 +23436,11 @@
       </c>
       <c r="N9" s="374" t="str">
         <f>_xll.qlIborIndex(L9,FamilyName,C9,D9,Currency,E9,F9,J9,K9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW3M#0001</v>
+        <v>AudBBSW3M#0000</v>
       </c>
       <c r="O9" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C9&amp;"LastFixing_Quote",N9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW3MLastFixing_Quote#0001</v>
+        <v>AudBBSW3MLastFixing_Quote#0000</v>
       </c>
       <c r="P9" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N9)</f>
@@ -23443,10 +23454,10 @@
       </c>
       <c r="T9" s="389" t="str">
         <f t="shared" si="6"/>
-        <v>AudBBSW3M#0001</v>
+        <v>AudBBSW3M#0000</v>
       </c>
       <c r="U9" s="387" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>AU3MBBC=ICAA</v>
       </c>
       <c r="V9" s="387">
@@ -23456,16 +23467,16 @@
         <v>2.69</v>
       </c>
       <c r="X9" s="387" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y9" s="387" t="b">
         <f>IF(W9,_xll.qlIndexAddFixings(T9,V9,W9/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="Z9" s="436">
+      <c r="Z9" s="436" t="e">
         <f>_xll.qlQuoteValue(O9)</f>
-        <v>2.69E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA9" s="376"/>
     </row>
@@ -23503,17 +23514,17 @@
         <v>267</v>
       </c>
       <c r="L10" s="428" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AudBBSW4M</v>
       </c>
       <c r="M10" s="374"/>
       <c r="N10" s="374" t="str">
         <f>_xll.qlIborIndex(L10,FamilyName,C10,D10,Currency,E10,F10,J10,K10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW4M#0002</v>
+        <v>AudBBSW4M#0000</v>
       </c>
       <c r="O10" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C10&amp;"LastFixing_Quote",N10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW4MLastFixing_Quote#0002</v>
+        <v>AudBBSW4MLastFixing_Quote#0000</v>
       </c>
       <c r="P10" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N10)</f>
@@ -23527,10 +23538,10 @@
       </c>
       <c r="T10" s="389" t="str">
         <f t="shared" si="6"/>
-        <v>AudBBSW4M#0002</v>
+        <v>AudBBSW4M#0000</v>
       </c>
       <c r="U10" s="387" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>AU4MBBC=ICAA</v>
       </c>
       <c r="V10" s="387">
@@ -23540,7 +23551,7 @@
         <v>2.7</v>
       </c>
       <c r="X10" s="387" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y10" s="387" t="b">
@@ -23587,17 +23598,17 @@
         <v>267</v>
       </c>
       <c r="L11" s="428" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AudBBSW5M</v>
       </c>
       <c r="M11" s="374"/>
       <c r="N11" s="374" t="str">
         <f>_xll.qlIborIndex(L11,FamilyName,C11,D11,Currency,E11,F11,J11,K11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW5M#0002</v>
+        <v>AudBBSW5M#0000</v>
       </c>
       <c r="O11" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C11&amp;"LastFixing_Quote",N11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW5MLastFixing_Quote#0002</v>
+        <v>AudBBSW5MLastFixing_Quote#0000</v>
       </c>
       <c r="P11" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N11)</f>
@@ -23611,10 +23622,10 @@
       </c>
       <c r="T11" s="389" t="str">
         <f t="shared" si="6"/>
-        <v>AudBBSW5M#0002</v>
+        <v>AudBBSW5M#0000</v>
       </c>
       <c r="U11" s="387" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>AU5MBBC=ICAA</v>
       </c>
       <c r="V11" s="387">
@@ -23624,7 +23635,7 @@
         <v>2.7</v>
       </c>
       <c r="X11" s="387" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y11" s="387" t="b">
@@ -23671,7 +23682,7 @@
         <v>267</v>
       </c>
       <c r="L12" s="428" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AudBBSW6M</v>
       </c>
       <c r="M12" s="374" t="str">
@@ -23680,11 +23691,11 @@
       </c>
       <c r="N12" s="374" t="str">
         <f>_xll.qlIborIndex(L12,FamilyName,C12,D12,Currency,E12,F12,J12,K12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW6M#0001</v>
+        <v>AudBBSW6M#0000</v>
       </c>
       <c r="O12" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C12&amp;"LastFixing_Quote",N12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW6MLastFixing_Quote#0001</v>
+        <v>AudBBSW6MLastFixing_Quote#0000</v>
       </c>
       <c r="P12" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N12)</f>
@@ -23698,10 +23709,10 @@
       </c>
       <c r="T12" s="389" t="str">
         <f t="shared" si="6"/>
-        <v>AudBBSW6M#0001</v>
+        <v>AudBBSW6M#0000</v>
       </c>
       <c r="U12" s="387" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>AU6MBBC=ICAA</v>
       </c>
       <c r="V12" s="387">
@@ -23711,7 +23722,7 @@
         <v>2.71</v>
       </c>
       <c r="X12" s="387" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y12" s="387" t="b">
@@ -23758,17 +23769,17 @@
         <v>267</v>
       </c>
       <c r="L13" s="428" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AudBBSW9M</v>
       </c>
       <c r="M13" s="374"/>
       <c r="N13" s="374" t="str">
         <f>_xll.qlIborIndex(L13,FamilyName,C13,D13,Currency,E13,F13,J13,K13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW9M#0002</v>
+        <v>AudBBSW9M#0000</v>
       </c>
       <c r="O13" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C13&amp;"LastFixing_Quote",N13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW9MLastFixing_Quote#0002</v>
+        <v>AudBBSW9MLastFixing_Quote#0000</v>
       </c>
       <c r="P13" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N13)</f>
@@ -23782,10 +23793,10 @@
       </c>
       <c r="T13" s="389" t="str">
         <f t="shared" si="6"/>
-        <v>AudBBSW9M#0002</v>
+        <v>AudBBSW9M#0000</v>
       </c>
       <c r="U13" s="387" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>AU9MBBC=ICAA</v>
       </c>
       <c r="V13" s="387">
@@ -23795,7 +23806,7 @@
         <v>2.73</v>
       </c>
       <c r="X13" s="387" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y13" s="387" t="b">
@@ -23842,17 +23853,17 @@
         <v>267</v>
       </c>
       <c r="L14" s="428" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>AudBBSW1Y</v>
       </c>
       <c r="M14" s="374"/>
       <c r="N14" s="374" t="str">
         <f>_xll.qlIborIndex(L14,FamilyName,C14,D14,Currency,E14,F14,J14,K14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1Y#0002</v>
+        <v>AudBBSW1Y#0000</v>
       </c>
       <c r="O14" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C14&amp;"LastFixing_Quote",N14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1YLastFixing_Quote#0002</v>
+        <v>AudBBSW1YLastFixing_Quote#0000</v>
       </c>
       <c r="P14" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N14)</f>
@@ -23866,7 +23877,7 @@
       </c>
       <c r="T14" s="430" t="str">
         <f t="shared" si="6"/>
-        <v>AudBBSW1Y#0002</v>
+        <v>AudBBSW1Y#0000</v>
       </c>
       <c r="U14" s="431" t="str">
         <f>"AU"&amp;S14&amp;"BBC"&amp;"="&amp;"ICAA"</f>
@@ -23879,7 +23890,7 @@
         <v>2.74</v>
       </c>
       <c r="X14" s="431" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y14" s="431" t="b">
@@ -24010,8 +24021,8 @@
         <v>90</v>
       </c>
       <c r="F5" s="414" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;"3M"</f>
-        <v>AudBBSW3M</v>
+        <f>BBSW!N9</f>
+        <v>AudBBSW3M#0000</v>
       </c>
       <c r="G5" s="375"/>
       <c r="H5" s="376"/>
@@ -24059,7 +24070,7 @@
       </c>
       <c r="F8" s="420" t="str">
         <f>_xll.qlSwapIndex($E8,FixingType,C8,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc1Y#0016</v>
+        <v>AudBBSWSwapForBasisCalc1Y#0000</v>
       </c>
       <c r="G8" s="417" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -24081,7 +24092,7 @@
       </c>
       <c r="F9" s="420" t="str">
         <f>_xll.qlSwapIndex($E9,FixingType,C9,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc2Y#0004</v>
+        <v>AudBBSWSwapForBasisCalc2Y#0000</v>
       </c>
       <c r="G9" s="417" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -24103,7 +24114,7 @@
       </c>
       <c r="F10" s="420" t="str">
         <f>_xll.qlSwapIndex($E10,FixingType,C10,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc3Y#0004</v>
+        <v>AudBBSWSwapForBasisCalc3Y#0000</v>
       </c>
       <c r="G10" s="417" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -24125,7 +24136,7 @@
       </c>
       <c r="F11" s="420" t="str">
         <f>_xll.qlSwapIndex($E11,FixingType,C11,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc4Y#0004</v>
+        <v>AudBBSWSwapForBasisCalc4Y#0000</v>
       </c>
       <c r="G11" s="417" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -24134,13 +24145,13 @@
       <c r="H11" s="421"/>
     </row>
     <row r="12" spans="2:8" s="366" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="478"/>
-      <c r="C12" s="479"/>
-      <c r="D12" s="479"/>
-      <c r="E12" s="479"/>
-      <c r="F12" s="479"/>
-      <c r="G12" s="479"/>
-      <c r="H12" s="480"/>
+      <c r="B12" s="476"/>
+      <c r="C12" s="477"/>
+      <c r="D12" s="477"/>
+      <c r="E12" s="477"/>
+      <c r="F12" s="477"/>
+      <c r="G12" s="477"/>
+      <c r="H12" s="478"/>
     </row>
     <row r="13" spans="2:8" s="366" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="422"/>
@@ -24802,7 +24813,7 @@
       <c r="N4" s="87"/>
       <c r="O4" s="230" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:40</v>
       </c>
       <c r="P4" s="227" t="s">
         <v>163</v>
@@ -25300,7 +25311,7 @@
       </c>
       <c r="Y11" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F11,X11/100,Trigger)</f>
-        <v>-4.000000000000184E-5</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="136"/>
     </row>
@@ -25367,7 +25378,7 @@
       </c>
       <c r="Y12" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F12,X12/100,Trigger)</f>
-        <v>-5.0000000000001432E-5</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="136"/>
     </row>
@@ -25434,7 +25445,7 @@
       </c>
       <c r="Y13" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F13,X13/100,Trigger)</f>
-        <v>-1.0999999999999552E-4</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="136"/>
     </row>
@@ -25635,7 +25646,7 @@
       </c>
       <c r="Y16" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F16,X16/100,Trigger)</f>
-        <v>-1.3499999999999623E-4</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="136"/>
     </row>
@@ -25836,7 +25847,7 @@
       </c>
       <c r="Y19" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F19,X19/100,Trigger)</f>
-        <v>-1.7500000000000154E-4</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="136"/>
     </row>
@@ -26238,7 +26249,7 @@
       </c>
       <c r="Y25" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F25,X25/100,Trigger)</f>
-        <v>-3.0000000000000165E-4</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="136"/>
     </row>
@@ -26640,7 +26651,7 @@
       </c>
       <c r="Y31" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
-        <v>-4.0000000000000105E-4</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="136"/>
     </row>
@@ -26908,7 +26919,7 @@
       </c>
       <c r="Y35" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>-5.9999999999999984E-4</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="136"/>
     </row>
@@ -28739,7 +28750,7 @@
       <c r="N4" s="87"/>
       <c r="O4" s="230" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:41</v>
       </c>
       <c r="P4" s="227" t="s">
         <v>163</v>
@@ -29832,7 +29843,7 @@
       </c>
       <c r="Y19" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F19,X19/100,Trigger)</f>
-        <v>-1.5000000000000083E-4</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="136"/>
     </row>
@@ -30258,7 +30269,7 @@
       </c>
       <c r="Y25" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F25,X25/100,Trigger)</f>
-        <v>-2.9999999999999818E-4</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="136"/>
     </row>
@@ -30684,7 +30695,7 @@
       </c>
       <c r="Y31" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
-        <v>-4.0000000000000105E-4</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="136"/>
     </row>
@@ -30968,7 +30979,7 @@
       </c>
       <c r="Y35" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>-4.9999999999999697E-4</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="136"/>
     </row>
@@ -31252,7 +31263,7 @@
       </c>
       <c r="Y39" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F39,X39/100,Trigger)</f>
-        <v>-6.499999999999978E-4</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="136"/>
     </row>
@@ -31536,7 +31547,7 @@
       </c>
       <c r="Y43" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F43,X43/100,Trigger)</f>
-        <v>-6.3000000000000556E-4</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="136"/>
     </row>
@@ -31607,7 +31618,7 @@
       </c>
       <c r="Y44" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F44,X44/100,Trigger)</f>
-        <v>-6.0000000000000331E-4</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="136"/>
     </row>
@@ -31678,7 +31689,7 @@
       </c>
       <c r="Y45" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F45,X45/100,Trigger)</f>
-        <v>-5.5000000000000188E-4</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="136"/>
     </row>
@@ -31749,7 +31760,7 @@
       </c>
       <c r="Y46" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F46,X46/100,Trigger)</f>
-        <v>-5.3000000000000269E-4</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="136"/>
     </row>
@@ -31820,7 +31831,7 @@
       </c>
       <c r="Y47" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F47,X47/100,Trigger)</f>
-        <v>-4.8000000000000126E-4</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="136"/>
     </row>
@@ -31891,7 +31902,7 @@
       </c>
       <c r="Y48" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F48,X48/100,Trigger)</f>
-        <v>-4.4999999999999901E-4</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="136"/>
     </row>
@@ -31962,7 +31973,7 @@
       </c>
       <c r="Y49" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F49,X49/100,Trigger)</f>
-        <v>-4.699999999999982E-4</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="136"/>
     </row>
@@ -32033,7 +32044,7 @@
       </c>
       <c r="Y50" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F50,X50/100,Trigger)</f>
-        <v>-5.0000000000000738E-4</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="136"/>
     </row>
@@ -32104,7 +32115,7 @@
       </c>
       <c r="Y51" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F51,X51/100,Trigger)</f>
-        <v>-4.0000000000001146E-4</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="136"/>
     </row>
@@ -32175,7 +32186,7 @@
       </c>
       <c r="Y52" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F52,X52/100,Trigger)</f>
-        <v>-4.0000000000001146E-4</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="136"/>
     </row>
@@ -32317,7 +32328,7 @@
       </c>
       <c r="Y54" s="146">
         <f>_xll.qlSimpleQuoteSetValue(F54,X54/100,Trigger)</f>
-        <v>-4.300000000000137E-4</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="136"/>
     </row>
@@ -32768,9 +32779,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -32885,8 +32894,8 @@
       <c r="H4" s="85"/>
       <c r="I4" s="175"/>
       <c r="J4" s="144" t="str">
-        <f>_xll.RData(J5:J22,K4:L4,,ReutersRtMode,,K5)</f>
-        <v>Paused at 12:08:05</v>
+        <f>_xll.RData(J6:J22,K4:L4,,ReutersRtMode,,K6)</f>
+        <v>Updated at 18:03:39</v>
       </c>
       <c r="K4" s="144" t="s">
         <v>163</v>
@@ -32946,35 +32955,36 @@
       </c>
       <c r="F5" s="71"/>
       <c r="H5" s="85"/>
-      <c r="I5" s="170" t="s">
+      <c r="I5" s="479" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="169" t="str">
-        <f t="array" ref="J5:J22">Currency&amp;VLOOKUP(Contributor,ContributorTable,2,FALSE)&amp;I5:I22&amp;VLOOKUP(Contributor,ContributorTable,3,FALSE)&amp;"="&amp;VLOOKUP(Contributor,ContributorTable,4,FALSE)</f>
-        <v>AUDOND=TTKL</v>
-      </c>
-      <c r="K5" s="191" t="s">
-        <v>174</v>
-      </c>
-      <c r="L5" s="168" t="s">
-        <v>174</v>
-      </c>
-      <c r="M5" s="168" t="e">
-        <f>_xll.qlMidEquivalent(K5,L5)</f>
-        <v>#NUM!</v>
+      <c r="J5" s="480" t="s">
+        <v>288</v>
+      </c>
+      <c r="K5" s="481" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="482" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M5" s="482">
+        <f>BBSW!W6</f>
+        <v>2.5</v>
       </c>
       <c r="N5" s="149"/>
-      <c r="O5" s="167" t="e">
-        <v>#NUM!</v>
+      <c r="O5" s="167">
+        <v>2.5</v>
       </c>
       <c r="P5" s="149"/>
-      <c r="Q5" s="216" t="e">
+      <c r="Q5" s="216">
         <f t="array" ref="Q5:Q22">QuoteLive</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R5" s="165" t="e">
+        <v>2.5</v>
+      </c>
+      <c r="R5" s="165">
         <f>_xll.qlSimpleQuoteSetValue(D5,Q5/100,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="S5" s="136"/>
       <c r="T5" s="12"/>
@@ -33014,31 +33024,32 @@
       </c>
       <c r="F6" s="71"/>
       <c r="H6" s="85"/>
-      <c r="I6" s="153" t="s">
+      <c r="I6" s="170" t="s">
         <v>181</v>
       </c>
-      <c r="J6" s="152" t="str">
+      <c r="J6" s="169" t="str">
+        <f t="array" ref="J6:J22">Currency&amp;VLOOKUP(Contributor,ContributorTable,2,FALSE)&amp;I6:I22&amp;VLOOKUP(Contributor,ContributorTable,3,FALSE)&amp;"="&amp;VLOOKUP(Contributor,ContributorTable,4,FALSE)</f>
         <v>AUDTND=TTKL</v>
       </c>
-      <c r="K6" s="191">
+      <c r="K6" s="195">
         <v>2.5</v>
       </c>
-      <c r="L6" s="151">
+      <c r="L6" s="168">
         <v>2.75</v>
       </c>
-      <c r="M6" s="151">
+      <c r="M6" s="168">
         <f>_xll.qlMidEquivalent(K6,L6)</f>
         <v>2.625</v>
       </c>
       <c r="N6" s="149"/>
-      <c r="O6" s="189">
+      <c r="O6" s="193">
         <v>2.625</v>
       </c>
       <c r="P6" s="149"/>
-      <c r="Q6" s="209">
+      <c r="Q6" s="216">
         <v>2.625</v>
       </c>
-      <c r="R6" s="146">
+      <c r="R6" s="165">
         <f>_xll.qlSimpleQuoteSetValue(D6,Q6/100,Trigger)</f>
         <v>0</v>
       </c>
@@ -34263,7 +34274,7 @@
       <c r="M4" s="122"/>
       <c r="N4" s="144" t="str">
         <f>_xll.RData(N5:N19,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:40</v>
       </c>
       <c r="O4" s="198" t="s">
         <v>163</v>
@@ -34363,7 +34374,7 @@
       </c>
       <c r="X5" s="165">
         <f>_xll.qlSimpleQuoteSetValue(E5,W5/100,Trigger)</f>
-        <v>5.0000000000001432E-5</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="136"/>
       <c r="Z5" s="12"/>
@@ -34507,7 +34518,7 @@
       </c>
       <c r="X7" s="146">
         <f>_xll.qlSimpleQuoteSetValue(E7,W7/100,Trigger)</f>
-        <v>-1.4999999999999389E-4</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="136"/>
       <c r="Z7" s="12"/>
@@ -34579,7 +34590,7 @@
       </c>
       <c r="X8" s="146">
         <f>_xll.qlSimpleQuoteSetValue(E8,W8/100,Trigger)</f>
-        <v>-9.9999999999995925E-5</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="136"/>
       <c r="Z8" s="12"/>
@@ -34651,7 +34662,7 @@
       </c>
       <c r="X9" s="146">
         <f>_xll.qlSimpleQuoteSetValue(E9,W9/100,Trigger)</f>
-        <v>-1.9999999999999532E-4</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="136"/>
       <c r="Z9" s="12"/>
@@ -34723,7 +34734,7 @@
       </c>
       <c r="X10" s="159">
         <f>_xll.qlSimpleQuoteSetValue(E10,W10/100,Trigger)</f>
-        <v>-1.9999999999999879E-4</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="136"/>
       <c r="Z10" s="12"/>
@@ -34796,7 +34807,7 @@
       </c>
       <c r="X11" s="165">
         <f>_xll.qlSimpleQuoteSetValue(E11,W11/100,Trigger)</f>
-        <v>9.9999999999999395E-5</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="136"/>
       <c r="Z11" s="12"/>
@@ -35161,7 +35172,7 @@
       </c>
       <c r="X16" s="146">
         <f>_xll.qlSimpleQuoteSetValue(E16,W16/100,Trigger)</f>
-        <v>-9.9999999999999395E-5</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="136"/>
       <c r="Z16" s="12"/>
@@ -35659,7 +35670,7 @@
       </c>
       <c r="O5" s="144" t="str">
         <f>_xll.RData(O6:O17,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:03:39</v>
       </c>
       <c r="P5" s="198" t="s">
         <v>196</v>
@@ -35904,12 +35915,12 @@
         <f t="shared" ref="AM7:AM18" si="2">Currency&amp;"FUT"&amp;$AN$4&amp;$AK7&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>AUDFUT1MM4ConvAdj_Quote</v>
       </c>
-      <c r="AN7" s="139" t="str">
+      <c r="AN7" s="139" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM7,IborIndex,$AK7,$AL7,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MM4ConvAdj_Quote#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO7" s="46" t="str">
-        <f>_xll.ohRangeRetrieveError(AN7)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(AN7)</f>
         <v/>
       </c>
       <c r="AP7" s="223"/>
@@ -36009,12 +36020,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MN4ConvAdj_Quote</v>
       </c>
-      <c r="AN8" s="139" t="str">
+      <c r="AN8" s="139" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM8,IborIndex,$AK8,$AL8,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MN4ConvAdj_Quote#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO8" s="46" t="str">
-        <f>_xll.ohRangeRetrieveError(AN8)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(AN8)</f>
         <v/>
       </c>
       <c r="AP8" s="223"/>
@@ -36114,12 +36125,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MQ4ConvAdj_Quote</v>
       </c>
-      <c r="AN9" s="139" t="str">
+      <c r="AN9" s="139" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM9,IborIndex,$AK9,$AL9,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MQ4ConvAdj_Quote#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO9" s="46" t="str">
-        <f>_xll.ohRangeRetrieveError(AN9)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(AN9)</f>
         <v/>
       </c>
       <c r="AP9" s="223"/>
@@ -36220,12 +36231,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MU4ConvAdj_Quote</v>
       </c>
-      <c r="AN10" s="139" t="str">
+      <c r="AN10" s="139" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM10,IborIndex,$AK10,$AL10,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MU4ConvAdj_Quote#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO10" s="46" t="str">
-        <f>_xll.ohRangeRetrieveError(AN10)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(AN10)</f>
         <v/>
       </c>
       <c r="AP10" s="223"/>
@@ -36325,12 +36336,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MV4ConvAdj_Quote</v>
       </c>
-      <c r="AN11" s="139" t="str">
+      <c r="AN11" s="139" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM11,IborIndex,$AK11,$AL11,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MV4ConvAdj_Quote#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO11" s="46" t="str">
-        <f>_xll.ohRangeRetrieveError(AN11)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(AN11)</f>
         <v/>
       </c>
       <c r="AP11" s="223"/>
@@ -36430,12 +36441,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MX4ConvAdj_Quote</v>
       </c>
-      <c r="AN12" s="139" t="str">
+      <c r="AN12" s="139" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM12,IborIndex,$AK12,$AL12,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MX4ConvAdj_Quote#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO12" s="46" t="str">
-        <f>_xll.ohRangeRetrieveError(AN12)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(AN12)</f>
         <v/>
       </c>
       <c r="AP12" s="223"/>
@@ -36535,12 +36546,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MZ4ConvAdj_Quote</v>
       </c>
-      <c r="AN13" s="139" t="str">
+      <c r="AN13" s="139" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM13,IborIndex,$AK13,$AL13,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MZ4ConvAdj_Quote#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO13" s="46" t="str">
-        <f>_xll.ohRangeRetrieveError(AN13)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(AN13)</f>
         <v/>
       </c>
       <c r="AP13" s="223"/>
@@ -36640,12 +36651,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MF5ConvAdj_Quote</v>
       </c>
-      <c r="AN14" s="139" t="str">
+      <c r="AN14" s="139" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM14,IborIndex,$AK14,$AL14,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MF5ConvAdj_Quote#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO14" s="46" t="str">
-        <f>_xll.ohRangeRetrieveError(AN14)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(AN14)</f>
         <v/>
       </c>
       <c r="AP14" s="223"/>
@@ -36745,12 +36756,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MG5ConvAdj_Quote</v>
       </c>
-      <c r="AN15" s="139" t="str">
+      <c r="AN15" s="139" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM15,IborIndex,$AK15,$AL15,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MG5ConvAdj_Quote#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO15" s="46" t="str">
-        <f>_xll.ohRangeRetrieveError(AN15)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(AN15)</f>
         <v/>
       </c>
       <c r="AP15" s="223"/>
@@ -36850,12 +36861,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MH5ConvAdj_Quote</v>
       </c>
-      <c r="AN16" s="139" t="str">
+      <c r="AN16" s="139" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM16,IborIndex,$AK16,$AL16,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MH5ConvAdj_Quote#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO16" s="46" t="str">
-        <f>_xll.ohRangeRetrieveError(AN16)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(AN16)</f>
         <v/>
       </c>
       <c r="AP16" s="223"/>
@@ -36955,12 +36966,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MJ5ConvAdj_Quote</v>
       </c>
-      <c r="AN17" s="139" t="str">
+      <c r="AN17" s="139" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM17,IborIndex,$AK17,$AL17,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MJ5ConvAdj_Quote#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO17" s="46" t="str">
-        <f>_xll.ohRangeRetrieveError(AN17)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(AN17)</f>
         <v/>
       </c>
       <c r="AP17" s="223"/>
@@ -37015,12 +37026,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MK5ConvAdj_Quote</v>
       </c>
-      <c r="AN18" s="139" t="str">
+      <c r="AN18" s="139" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM18,IborIndex,$AK18,$AL18,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MK5ConvAdj_Quote#0001</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO18" s="46" t="str">
-        <f>_xll.ohRangeRetrieveError(AN18)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(AN18)</f>
         <v/>
       </c>
       <c r="AP18" s="223"/>
@@ -37059,7 +37070,9 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AH4" sqref="AH4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -37214,9 +37227,9 @@
       <c r="AG4" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="AH4" s="142" t="e">
-        <f>Libor!E10</f>
-        <v>#NUM!</v>
+      <c r="AH4" s="142" t="str">
+        <f>BBSW!N9</f>
+        <v>AudBBSW3M#0000</v>
       </c>
       <c r="AI4" s="141" t="s">
         <v>17</v>
@@ -37262,7 +37275,7 @@
       </c>
       <c r="O5" s="230" t="str">
         <f>_xll.RData(O6:O47,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Paused at 12:08:05</v>
+        <v>Updated at 18:05:18</v>
       </c>
       <c r="P5" s="227" t="s">
         <v>196</v>
@@ -37412,12 +37425,12 @@
         <f t="shared" ref="AG6:AG47" si="1">Currency&amp;"FUT"&amp;$AI$4&amp;$AF6&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>AUDFUT3MM4ConvAdj_Quote</v>
       </c>
-      <c r="AH6" s="139" t="e">
+      <c r="AH6" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG6,IborIndex,AF6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(Z6),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MM4ConvAdj_Quote#0000</v>
       </c>
       <c r="AI6" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH6)</f>
+        <f>_xll.ohRangeRetrieveError(AH6)</f>
         <v/>
       </c>
       <c r="AJ6" s="21"/>
@@ -37509,12 +37522,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MN4ConvAdj_Quote</v>
       </c>
-      <c r="AH7" s="139" t="e">
+      <c r="AH7" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG7,IborIndex,AF7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(Z7),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MN4ConvAdj_Quote#0000</v>
       </c>
       <c r="AI7" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH7)</f>
+        <f>_xll.ohRangeRetrieveError(AH7)</f>
         <v/>
       </c>
       <c r="AJ7" s="21"/>
@@ -37606,12 +37619,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MQ4ConvAdj_Quote</v>
       </c>
-      <c r="AH8" s="139" t="e">
+      <c r="AH8" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG8,IborIndex,AF8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(Z8),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MQ4ConvAdj_Quote#0000</v>
       </c>
       <c r="AI8" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH8)</f>
+        <f>_xll.ohRangeRetrieveError(AH8)</f>
         <v/>
       </c>
       <c r="AJ8" s="21"/>
@@ -37703,12 +37716,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MU4ConvAdj_Quote</v>
       </c>
-      <c r="AH9" s="139" t="e">
+      <c r="AH9" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG9,IborIndex,AF9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(Z9),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MU4ConvAdj_Quote#0000</v>
       </c>
       <c r="AI9" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH9)</f>
+        <f>_xll.ohRangeRetrieveError(AH9)</f>
         <v/>
       </c>
       <c r="AJ9" s="21"/>
@@ -37801,12 +37814,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MV4ConvAdj_Quote</v>
       </c>
-      <c r="AH10" s="139" t="e">
+      <c r="AH10" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG10,IborIndex,AF10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(Z10),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MV4ConvAdj_Quote#0000</v>
       </c>
       <c r="AI10" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH10)</f>
+        <f>_xll.ohRangeRetrieveError(AH10)</f>
         <v/>
       </c>
       <c r="AJ10" s="21"/>
@@ -37898,12 +37911,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MX4ConvAdj_Quote</v>
       </c>
-      <c r="AH11" s="139" t="e">
+      <c r="AH11" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG11,IborIndex,AF11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(Z11),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MX4ConvAdj_Quote#0000</v>
       </c>
       <c r="AI11" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH11)</f>
+        <f>_xll.ohRangeRetrieveError(AH11)</f>
         <v/>
       </c>
       <c r="AJ11" s="21"/>
@@ -37958,7 +37971,7 @@
         <v>97.34</v>
       </c>
       <c r="S12" s="147">
-        <v>97.33</v>
+        <v>97.34</v>
       </c>
       <c r="T12" s="147">
         <v>97.33</v>
@@ -37977,7 +37990,7 @@
       </c>
       <c r="Z12" s="151">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12,Trigger)</f>
-        <v>2.0000000000010232E-2</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="21"/>
       <c r="AB12" s="12"/>
@@ -37995,12 +38008,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MZ4ConvAdj_Quote</v>
       </c>
-      <c r="AH12" s="139" t="e">
+      <c r="AH12" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG12,IborIndex,AF12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(Z12),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MZ4ConvAdj_Quote#0000</v>
       </c>
       <c r="AI12" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH12)</f>
+        <f>_xll.ohRangeRetrieveError(AH12)</f>
         <v/>
       </c>
       <c r="AJ12" s="21"/>
@@ -38092,12 +38105,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MF5ConvAdj_Quote</v>
       </c>
-      <c r="AH13" s="139" t="e">
+      <c r="AH13" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG13,IborIndex,AF13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(Z13),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MF5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI13" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH13)</f>
+        <f>_xll.ohRangeRetrieveError(AH13)</f>
         <v/>
       </c>
       <c r="AJ13" s="21"/>
@@ -38189,12 +38202,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MG5ConvAdj_Quote</v>
       </c>
-      <c r="AH14" s="139" t="e">
+      <c r="AH14" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG14,IborIndex,AF14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(Z14),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MG5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI14" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH14)</f>
+        <f>_xll.ohRangeRetrieveError(AH14)</f>
         <v/>
       </c>
       <c r="AJ14" s="21"/>
@@ -38249,7 +38262,7 @@
         <v>97.3</v>
       </c>
       <c r="S15" s="147">
-        <v>97.3</v>
+        <v>97.29</v>
       </c>
       <c r="T15" s="147">
         <v>97.29</v>
@@ -38268,7 +38281,7 @@
       </c>
       <c r="Z15" s="151">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15,Trigger)</f>
-        <v>3.0000000000001137E-2</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="AA15" s="21"/>
       <c r="AB15" s="12"/>
@@ -38286,12 +38299,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MH5ConvAdj_Quote</v>
       </c>
-      <c r="AH15" s="139" t="e">
+      <c r="AH15" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG15,IborIndex,AF15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(Z15),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MH5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI15" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH15)</f>
+        <f>_xll.ohRangeRetrieveError(AH15)</f>
         <v/>
       </c>
       <c r="AJ15" s="21"/>
@@ -38383,12 +38396,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MJ5ConvAdj_Quote</v>
       </c>
-      <c r="AH16" s="139" t="e">
+      <c r="AH16" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG16,IborIndex,AF16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(Z16),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MJ5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI16" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH16)</f>
+        <f>_xll.ohRangeRetrieveError(AH16)</f>
         <v/>
       </c>
       <c r="AJ16" s="21"/>
@@ -38480,12 +38493,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MK5ConvAdj_Quote</v>
       </c>
-      <c r="AH17" s="139" t="e">
+      <c r="AH17" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG17,IborIndex,AF17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(Z17),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MK5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI17" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH17)</f>
+        <f>_xll.ohRangeRetrieveError(AH17)</f>
         <v/>
       </c>
       <c r="AJ17" s="21"/>
@@ -38559,7 +38572,7 @@
       </c>
       <c r="Z18" s="151">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18,Trigger)</f>
-        <v>1.9999999999996021E-2</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="21"/>
       <c r="AB18" s="12"/>
@@ -38577,12 +38590,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MM5ConvAdj_Quote</v>
       </c>
-      <c r="AH18" s="139" t="e">
+      <c r="AH18" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG18,IborIndex,AF18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(Z18),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MM5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI18" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH18)</f>
+        <f>_xll.ohRangeRetrieveError(AH18)</f>
         <v/>
       </c>
       <c r="AJ18" s="21"/>
@@ -38656,7 +38669,7 @@
       </c>
       <c r="Z19" s="151">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19,Trigger)</f>
-        <v>2.4999999999991473E-2</v>
+        <v>4.9999999999954525E-3</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="12"/>
@@ -38674,12 +38687,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MU5ConvAdj_Quote</v>
       </c>
-      <c r="AH19" s="139" t="e">
+      <c r="AH19" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG19,IborIndex,AF19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(Z19),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MU5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI19" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH19)</f>
+        <f>_xll.ohRangeRetrieveError(AH19)</f>
         <v/>
       </c>
       <c r="AJ19" s="21"/>
@@ -38728,20 +38741,20 @@
         <v>42348</v>
       </c>
       <c r="Q20" s="147">
+        <v>96.99</v>
+      </c>
+      <c r="R20" s="147">
         <v>97</v>
       </c>
-      <c r="R20" s="147">
-        <v>97.01</v>
-      </c>
       <c r="S20" s="147">
-        <v>97</v>
+        <v>96.99</v>
       </c>
       <c r="T20" s="147">
         <v>97</v>
       </c>
       <c r="U20" s="151">
         <f>_xll.qlMidSafe($Q20,$R20)</f>
-        <v>97.004999999999995</v>
+        <v>96.995000000000005</v>
       </c>
       <c r="V20" s="149"/>
       <c r="W20" s="210">
@@ -38749,11 +38762,11 @@
       </c>
       <c r="X20" s="149"/>
       <c r="Y20" s="209">
-        <v>97.004999999999995</v>
+        <v>96.995000000000005</v>
       </c>
       <c r="Z20" s="151">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20,Trigger)</f>
-        <v>2.5000000000005684E-2</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="21"/>
       <c r="AB20" s="12"/>
@@ -38771,12 +38784,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MZ5ConvAdj_Quote</v>
       </c>
-      <c r="AH20" s="139" t="e">
+      <c r="AH20" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG20,IborIndex,AF20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(Z20),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MZ5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI20" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH20)</f>
+        <f>_xll.ohRangeRetrieveError(AH20)</f>
         <v/>
       </c>
       <c r="AJ20" s="21"/>
@@ -38831,7 +38844,7 @@
         <v>96.91</v>
       </c>
       <c r="S21" s="147">
-        <v>96.91</v>
+        <v>96.9</v>
       </c>
       <c r="T21" s="147">
         <v>96.92</v>
@@ -38850,7 +38863,7 @@
       </c>
       <c r="Z21" s="151">
         <f>_xll.qlSimpleQuoteSetValue(F21,Y21,Trigger)</f>
-        <v>2.5000000000005684E-2</v>
+        <v>4.9999999999954525E-3</v>
       </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="12"/>
@@ -38868,12 +38881,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MH6ConvAdj_Quote</v>
       </c>
-      <c r="AH21" s="139" t="e">
+      <c r="AH21" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG21,IborIndex,AF21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(Z21),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MH6ConvAdj_Quote#0000</v>
       </c>
       <c r="AI21" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH21)</f>
+        <f>_xll.ohRangeRetrieveError(AH21)</f>
         <v/>
       </c>
       <c r="AJ21" s="21"/>
@@ -38922,10 +38935,10 @@
         <v>42530</v>
       </c>
       <c r="Q22" s="147">
+        <v>96.8</v>
+      </c>
+      <c r="R22" s="147">
         <v>96.81</v>
-      </c>
-      <c r="R22" s="147">
-        <v>96.82</v>
       </c>
       <c r="S22" s="147">
         <v>96.81</v>
@@ -38935,7 +38948,7 @@
       </c>
       <c r="U22" s="151">
         <f>_xll.qlMidSafe($Q22,$R22)</f>
-        <v>96.814999999999998</v>
+        <v>96.805000000000007</v>
       </c>
       <c r="V22" s="149"/>
       <c r="W22" s="210">
@@ -38943,11 +38956,11 @@
       </c>
       <c r="X22" s="149"/>
       <c r="Y22" s="209">
-        <v>96.814999999999998</v>
+        <v>96.805000000000007</v>
       </c>
       <c r="Z22" s="151">
         <f>_xll.qlSimpleQuoteSetValue(F22,Y22,Trigger)</f>
-        <v>3.0000000000001137E-2</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="21"/>
       <c r="AB22" s="12"/>
@@ -38965,12 +38978,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MM6ConvAdj_Quote</v>
       </c>
-      <c r="AH22" s="139" t="e">
+      <c r="AH22" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG22,IborIndex,AF22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(Z22),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MM6ConvAdj_Quote#0000</v>
       </c>
       <c r="AI22" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH22)</f>
+        <f>_xll.ohRangeRetrieveError(AH22)</f>
         <v/>
       </c>
       <c r="AJ22" s="21"/>
@@ -39022,7 +39035,7 @@
         <v>96.71</v>
       </c>
       <c r="R23" s="147">
-        <v>96.74</v>
+        <v>96.73</v>
       </c>
       <c r="S23" s="147">
         <v>0</v>
@@ -39032,7 +39045,7 @@
       </c>
       <c r="U23" s="151">
         <f>_xll.qlMidSafe($Q23,$R23)</f>
-        <v>96.724999999999994</v>
+        <v>96.72</v>
       </c>
       <c r="V23" s="149"/>
       <c r="W23" s="210">
@@ -39040,11 +39053,11 @@
       </c>
       <c r="X23" s="149"/>
       <c r="Y23" s="209">
-        <v>96.724999999999994</v>
+        <v>96.72</v>
       </c>
       <c r="Z23" s="151">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23,Trigger)</f>
-        <v>3.4999999999996589E-2</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="21"/>
       <c r="AB23" s="12"/>
@@ -39062,12 +39075,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MU6ConvAdj_Quote</v>
       </c>
-      <c r="AH23" s="139" t="e">
+      <c r="AH23" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG23,IborIndex,AF23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(Z23),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MU6ConvAdj_Quote#0000</v>
       </c>
       <c r="AI23" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH23)</f>
+        <f>_xll.ohRangeRetrieveError(AH23)</f>
         <v/>
       </c>
       <c r="AJ23" s="21"/>
@@ -39141,7 +39154,7 @@
       </c>
       <c r="Z24" s="151">
         <f>_xll.qlSimpleQuoteSetValue(F24,Y24,Trigger)</f>
-        <v>3.4999999999996589E-2</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="21"/>
       <c r="AB24" s="12"/>
@@ -39159,12 +39172,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MZ6ConvAdj_Quote</v>
       </c>
-      <c r="AH24" s="139" t="e">
+      <c r="AH24" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG24,IborIndex,AF24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(Z24),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MZ6ConvAdj_Quote#0000</v>
       </c>
       <c r="AI24" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH24)</f>
+        <f>_xll.ohRangeRetrieveError(AH24)</f>
         <v/>
       </c>
       <c r="AJ24" s="21"/>
@@ -39238,7 +39251,7 @@
       </c>
       <c r="Z25" s="151">
         <f>_xll.qlSimpleQuoteSetValue(F25,Y25,Trigger)</f>
-        <v>4.5000000000001705E-2</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="21"/>
       <c r="AB25" s="12"/>
@@ -39256,12 +39269,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MH7ConvAdj_Quote</v>
       </c>
-      <c r="AH25" s="139" t="e">
+      <c r="AH25" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG25,IborIndex,AF25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(Z25),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MH7ConvAdj_Quote#0000</v>
       </c>
       <c r="AI25" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH25)</f>
+        <f>_xll.ohRangeRetrieveError(AH25)</f>
         <v/>
       </c>
       <c r="AJ25" s="21"/>
@@ -39335,7 +39348,7 @@
       </c>
       <c r="Z26" s="151">
         <f>_xll.qlSimpleQuoteSetValue(F26,Y26,Trigger)</f>
-        <v>4.5000000000015916E-2</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="21"/>
       <c r="AB26" s="12"/>
@@ -39353,12 +39366,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MM7ConvAdj_Quote</v>
       </c>
-      <c r="AH26" s="139" t="e">
+      <c r="AH26" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG26,IborIndex,AF26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(Z26),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MM7ConvAdj_Quote#0000</v>
       </c>
       <c r="AI26" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH26)</f>
+        <f>_xll.ohRangeRetrieveError(AH26)</f>
         <v/>
       </c>
       <c r="AJ26" s="21"/>
@@ -39450,12 +39463,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MU7ConvAdj_Quote</v>
       </c>
-      <c r="AH27" s="139" t="e">
+      <c r="AH27" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG27,IborIndex,AF27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(Z27),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MU7ConvAdj_Quote#0000</v>
       </c>
       <c r="AI27" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH27)</f>
+        <f>_xll.ohRangeRetrieveError(AH27)</f>
         <v/>
       </c>
       <c r="AJ27" s="21"/>
@@ -39547,12 +39560,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MZ7ConvAdj_Quote</v>
       </c>
-      <c r="AH28" s="139" t="e">
+      <c r="AH28" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG28,IborIndex,AF28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(Z28),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MZ7ConvAdj_Quote#0000</v>
       </c>
       <c r="AI28" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH28)</f>
+        <f>_xll.ohRangeRetrieveError(AH28)</f>
         <v/>
       </c>
       <c r="AJ28" s="21"/>
@@ -39644,12 +39657,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MH8ConvAdj_Quote</v>
       </c>
-      <c r="AH29" s="139" t="e">
+      <c r="AH29" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG29,IborIndex,AF29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(Z29),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MH8ConvAdj_Quote#0000</v>
       </c>
       <c r="AI29" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH29)</f>
+        <f>_xll.ohRangeRetrieveError(AH29)</f>
         <v/>
       </c>
       <c r="AJ29" s="21"/>
@@ -39741,12 +39754,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MM8ConvAdj_Quote</v>
       </c>
-      <c r="AH30" s="139" t="e">
+      <c r="AH30" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG30,IborIndex,AF30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(Z30),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MM8ConvAdj_Quote#0000</v>
       </c>
       <c r="AI30" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH30)</f>
+        <f>_xll.ohRangeRetrieveError(AH30)</f>
         <v/>
       </c>
       <c r="AJ30" s="21"/>
@@ -39838,12 +39851,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MU8ConvAdj_Quote</v>
       </c>
-      <c r="AH31" s="139" t="e">
+      <c r="AH31" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG31,IborIndex,AF31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(Z31),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MU8ConvAdj_Quote#0000</v>
       </c>
       <c r="AI31" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH31)</f>
+        <f>_xll.ohRangeRetrieveError(AH31)</f>
         <v/>
       </c>
       <c r="AJ31" s="21"/>
@@ -39935,12 +39948,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MZ8ConvAdj_Quote</v>
       </c>
-      <c r="AH32" s="139" t="e">
+      <c r="AH32" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG32,IborIndex,AF32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(Z32),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MZ8ConvAdj_Quote#0000</v>
       </c>
       <c r="AI32" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH32)</f>
+        <f>_xll.ohRangeRetrieveError(AH32)</f>
         <v/>
       </c>
       <c r="AJ32" s="21"/>
@@ -40032,12 +40045,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MH9ConvAdj_Quote</v>
       </c>
-      <c r="AH33" s="139" t="e">
+      <c r="AH33" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG33,IborIndex,AF33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(Z33),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MH9ConvAdj_Quote#0000</v>
       </c>
       <c r="AI33" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH33)</f>
+        <f>_xll.ohRangeRetrieveError(AH33)</f>
         <v/>
       </c>
       <c r="AJ33" s="21"/>
@@ -40129,12 +40142,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MM9ConvAdj_Quote</v>
       </c>
-      <c r="AH34" s="139" t="e">
+      <c r="AH34" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG34,IborIndex,AF34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(Z34),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MM9ConvAdj_Quote#0000</v>
       </c>
       <c r="AI34" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH34)</f>
+        <f>_xll.ohRangeRetrieveError(AH34)</f>
         <v/>
       </c>
       <c r="AJ34" s="21"/>
@@ -40226,12 +40239,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MU9ConvAdj_Quote</v>
       </c>
-      <c r="AH35" s="139" t="e">
+      <c r="AH35" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG35,IborIndex,AF35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(Z35),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MU9ConvAdj_Quote#0000</v>
       </c>
       <c r="AI35" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH35)</f>
+        <f>_xll.ohRangeRetrieveError(AH35)</f>
         <v/>
       </c>
       <c r="AJ35" s="21"/>
@@ -40323,12 +40336,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MZ9ConvAdj_Quote</v>
       </c>
-      <c r="AH36" s="139" t="e">
+      <c r="AH36" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG36,IborIndex,AF36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(Z36),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MZ9ConvAdj_Quote#0000</v>
       </c>
       <c r="AI36" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH36)</f>
+        <f>_xll.ohRangeRetrieveError(AH36)</f>
         <v/>
       </c>
       <c r="AJ36" s="21"/>
@@ -40420,12 +40433,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MH0ConvAdj_Quote</v>
       </c>
-      <c r="AH37" s="139" t="e">
+      <c r="AH37" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG37,IborIndex,AF37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(Z37),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MH0ConvAdj_Quote#0000</v>
       </c>
       <c r="AI37" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH37)</f>
+        <f>_xll.ohRangeRetrieveError(AH37)</f>
         <v/>
       </c>
       <c r="AJ37" s="21"/>
@@ -40517,12 +40530,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MM0ConvAdj_Quote</v>
       </c>
-      <c r="AH38" s="139" t="e">
+      <c r="AH38" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG38,IborIndex,AF38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(Z38),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MM0ConvAdj_Quote#0000</v>
       </c>
       <c r="AI38" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH38)</f>
+        <f>_xll.ohRangeRetrieveError(AH38)</f>
         <v/>
       </c>
       <c r="AJ38" s="21"/>
@@ -40614,12 +40627,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MU0ConvAdj_Quote</v>
       </c>
-      <c r="AH39" s="139" t="e">
+      <c r="AH39" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG39,IborIndex,AF39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(Z39),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MU0ConvAdj_Quote#0000</v>
       </c>
       <c r="AI39" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH39)</f>
+        <f>_xll.ohRangeRetrieveError(AH39)</f>
         <v/>
       </c>
       <c r="AJ39" s="21"/>
@@ -40711,12 +40724,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MZ0ConvAdj_Quote</v>
       </c>
-      <c r="AH40" s="139" t="e">
+      <c r="AH40" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG40,IborIndex,AF40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(Z40),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MZ0ConvAdj_Quote#0000</v>
       </c>
       <c r="AI40" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH40)</f>
+        <f>_xll.ohRangeRetrieveError(AH40)</f>
         <v/>
       </c>
       <c r="AJ40" s="21"/>
@@ -40808,12 +40821,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MH1ConvAdj_Quote</v>
       </c>
-      <c r="AH41" s="139" t="e">
+      <c r="AH41" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG41,IborIndex,AF41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(Z41),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MH1ConvAdj_Quote#0000</v>
       </c>
       <c r="AI41" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH41)</f>
+        <f>_xll.ohRangeRetrieveError(AH41)</f>
         <v/>
       </c>
       <c r="AJ41" s="21"/>
@@ -40905,12 +40918,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MM1ConvAdj_Quote</v>
       </c>
-      <c r="AH42" s="139" t="e">
+      <c r="AH42" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG42,IborIndex,AF42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(Z42),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MM1ConvAdj_Quote#0000</v>
       </c>
       <c r="AI42" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH42)</f>
+        <f>_xll.ohRangeRetrieveError(AH42)</f>
         <v/>
       </c>
       <c r="AJ42" s="21"/>
@@ -41002,12 +41015,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MU1ConvAdj_Quote</v>
       </c>
-      <c r="AH43" s="139" t="e">
+      <c r="AH43" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG43,IborIndex,AF43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(Z43),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MU1ConvAdj_Quote#0000</v>
       </c>
       <c r="AI43" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH43)</f>
+        <f>_xll.ohRangeRetrieveError(AH43)</f>
         <v/>
       </c>
       <c r="AJ43" s="21"/>
@@ -41099,12 +41112,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MZ1ConvAdj_Quote</v>
       </c>
-      <c r="AH44" s="139" t="e">
+      <c r="AH44" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG44,IborIndex,AF44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(Z44),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MZ1ConvAdj_Quote#0000</v>
       </c>
       <c r="AI44" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH44)</f>
+        <f>_xll.ohRangeRetrieveError(AH44)</f>
         <v/>
       </c>
       <c r="AJ44" s="21"/>
@@ -41196,12 +41209,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MH2ConvAdj_Quote</v>
       </c>
-      <c r="AH45" s="139" t="e">
+      <c r="AH45" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG45,IborIndex,AF45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(Z45),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MH2ConvAdj_Quote#0000</v>
       </c>
       <c r="AI45" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH45)</f>
+        <f>_xll.ohRangeRetrieveError(AH45)</f>
         <v/>
       </c>
       <c r="AJ45" s="21"/>
@@ -41293,12 +41306,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MM2ConvAdj_Quote</v>
       </c>
-      <c r="AH46" s="139" t="e">
+      <c r="AH46" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG46,IborIndex,AF46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(Z46),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MM2ConvAdj_Quote#0000</v>
       </c>
       <c r="AI46" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH46)</f>
+        <f>_xll.ohRangeRetrieveError(AH46)</f>
         <v/>
       </c>
       <c r="AJ46" s="21"/>
@@ -41390,12 +41403,12 @@
         <f t="shared" si="1"/>
         <v>AUDFUT3MU2ConvAdj_Quote</v>
       </c>
-      <c r="AH47" s="139" t="e">
+      <c r="AH47" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG47,IborIndex,AF47,F47,Volatility,MeanReversion,Permanent,AND(ISERROR(Z47),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>#VALUE!</v>
+        <v>AUDFUT3MU2ConvAdj_Quote#0000</v>
       </c>
       <c r="AI47" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AH47)</f>
+        <f>_xll.ohRangeRetrieveError(AH47)</f>
         <v/>
       </c>
       <c r="AJ47" s="21"/>

--- a/QuantLibXL/Data2/XLS/AUD_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD_Market.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmazzocchi\quantlib\QuantLibXL\Data2\XLS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="15210" windowHeight="8355" tabRatio="879"/>
   </bookViews>
@@ -135,7 +140,7 @@
     <definedName name="Volatility" localSheetId="7">Futures1M!$AM$2</definedName>
     <definedName name="Volatility" localSheetId="8">Futures3M!$AH$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1029,7 +1034,7 @@
     <numFmt numFmtId="176" formatCode="ddd\,\ dd\-mmm\-yyyy\ h:mm:ss"/>
     <numFmt numFmtId="177" formatCode="ddd\,\ dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1194,6 +1199,13 @@
       <color rgb="FFFF0000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1721,7 +1733,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -1738,6 +1750,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="485">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2571,14 +2584,12 @@
     <xf numFmtId="170" fontId="24" fillId="0" borderId="16" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="24" fillId="0" borderId="15" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="24" fillId="0" borderId="15" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="170" fontId="26" fillId="0" borderId="18" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="26" fillId="0" borderId="16" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="17" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2621,9 +2632,6 @@
     <xf numFmtId="170" fontId="24" fillId="11" borderId="18" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="24" fillId="11" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="24" fillId="11" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="26" fillId="11" borderId="17" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="170" fontId="28" fillId="0" borderId="14" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2665,8 +2673,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="174" fontId="26" fillId="11" borderId="17" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="17" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="24" fillId="0" borderId="12" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="5"/>
     <cellStyle name="Migliaia_AZIONI" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2675,6 +2692,7 @@
     <cellStyle name="Normal 3" xfId="11"/>
     <cellStyle name="Normal_SwaptionATMVols" xfId="2"/>
     <cellStyle name="Normale_AZIONI" xfId="7"/>
+    <cellStyle name="Percent" xfId="14" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="4"/>
     <cellStyle name="Percent 3" xfId="10"/>
     <cellStyle name="Percent 4" xfId="12"/>
@@ -2892,107 +2910,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>Updated at 18:03:41</v>
-        <stp/>
-        <stp>{850BD516-1539-4D6A-B140-F4694F619401}</stp>
-        <tr r="S4" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:03:39</v>
-        <stp/>
-        <stp>{A0360F30-B8BC-4495-A37F-03C4B9815554}</stp>
-        <tr r="M6" s="8"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:03:40</v>
-        <stp/>
-        <stp>{4A4E257F-44E2-457E-BE65-7165A0049356}</stp>
-        <tr r="N4" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:03:39</v>
-        <stp/>
-        <stp>{4388CEA3-60DC-46E8-9EEF-11B34B6E06EE}</stp>
-        <tr r="J4" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:03:40</v>
-        <stp/>
-        <stp>{B8636B24-7453-46A2-85B6-7956CC431686}</stp>
-        <tr r="S4" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:05:18</v>
-        <stp/>
-        <stp>{B814BEA5-FFC5-4321-9E13-BB8A6EF452FB}</stp>
-        <tr r="O5" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:03:40</v>
-        <stp/>
-        <stp>{1E5D719A-EC42-4FDC-947B-A473BCB820CA}</stp>
-        <tr r="S4" s="11"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:03:41</v>
-        <stp/>
-        <stp>{1E1F187F-3B79-4E8E-9DD7-6D36CDAF6C89}</stp>
-        <tr r="O4" s="65"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:03:39</v>
-        <stp/>
-        <stp>{C2A622C4-57B0-4013-92F7-F1B0E9403A24}</stp>
-        <tr r="M6" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:03:41</v>
-        <stp/>
-        <stp>{CA7F57AD-A9F9-404E-B523-ED078065018D}</stp>
-        <tr r="O4" s="23"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:03:40</v>
-        <stp/>
-        <stp>{50A54615-67DB-42A2-9DF9-E844E43F9797}</stp>
-        <tr r="U5" s="64"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:03:41</v>
-        <stp/>
-        <stp>{EE037C15-4B7D-4380-822D-BABC5E254960}</stp>
-        <tr r="S4" s="26"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:03:40</v>
-        <stp/>
-        <stp>{41234496-C265-4568-863A-DAED6A751ED4}</stp>
-        <tr r="O4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:03:39</v>
-        <stp/>
-        <stp>{0FF42878-7927-41BF-A8B5-8BFAFFC22E79}</stp>
-        <tr r="O5" s="17"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:03:40</v>
-        <stp/>
-        <stp>{C23E955F-4855-4E78-9A72-AED4DB162356}</stp>
-        <tr r="K5" s="6"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3038,7 +2960,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3073,7 +2995,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3305,16 +3227,16 @@
     <row r="1" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="356" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Mar  3 2014 10:58:57</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="449" t="s">
+      <c r="B2" s="447" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="451"/>
+      <c r="C2" s="448"/>
+      <c r="D2" s="448"/>
+      <c r="E2" s="449"/>
       <c r="G2" s="397" t="s">
         <v>7</v>
       </c>
@@ -3356,7 +3278,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="276">
-        <v>41807.752210648148</v>
+        <v>41807.836840277778</v>
       </c>
       <c r="E5" s="263"/>
       <c r="G5" s="5"/>
@@ -3393,7 +3315,7 @@
       </c>
       <c r="D7" s="273">
         <f>_xll.ohTrigger(Deposits!R3,FRA!X3,Futures3M!Z4,FuturesHWConvAdj!Q3,Swaps1M!Y3,Swap3M!AC3,Swap6M!AC3,BasisSwap1M3M!AA3,BasisSwap3M6M!AA3,OIS!Y3)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" s="263"/>
       <c r="G7" s="5"/>
@@ -3819,18 +3741,18 @@
       </c>
       <c r="E4" s="113"/>
       <c r="G4" s="181"/>
-      <c r="H4" s="222" t="str">
-        <f>_xll.RData(H5,I4,"RTFEED:IDN",ReutersRtMode,,I5)</f>
-        <v>#N/A</v>
+      <c r="H4" s="222" t="e">
+        <f ca="1">_xll.RData(H5,I4,"RTFEED:IDN",ReutersRtMode,,I5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I4" s="249" t="s">
         <v>163</v>
       </c>
       <c r="J4" s="240"/>
-      <c r="K4" s="483" t="s">
+      <c r="K4" s="480" t="s">
         <v>205</v>
       </c>
-      <c r="L4" s="484"/>
+      <c r="L4" s="481"/>
       <c r="M4" s="240"/>
       <c r="N4" s="176" t="s">
         <v>192</v>
@@ -3856,7 +3778,7 @@
       </c>
       <c r="C5" s="114" t="str">
         <f>_xll.qlSimpleQuote(B5,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDHW_Volatility_Quote#0000</v>
+        <v>AUDHW_Volatility_Quote#0001</v>
       </c>
       <c r="D5" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(C5)</f>
@@ -3886,9 +3808,9 @@
         <f t="array" ref="P5:P6">QuoteLive</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="244">
+      <c r="Q5" s="244" t="e">
         <f>_xll.qlSimpleQuoteSetValue(C5,P5,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R5" s="21"/>
       <c r="S5" s="12"/>
@@ -3910,7 +3832,7 @@
       </c>
       <c r="C6" s="114" t="str">
         <f>_xll.qlSimpleQuote(B6,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDHW_MeanReversion_Quote#0000</v>
+        <v>AUDHW_MeanReversion_Quote#0001</v>
       </c>
       <c r="D6" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(C6)</f>
@@ -3935,9 +3857,9 @@
       <c r="P6" s="354">
         <v>0.03</v>
       </c>
-      <c r="Q6" s="236">
+      <c r="Q6" s="236" t="e">
         <f>_xll.qlSimpleQuoteSetValue(C6,P6,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R6" s="21"/>
       <c r="S6" s="12"/>
@@ -4168,9 +4090,9 @@
       <c r="L4" s="122"/>
       <c r="M4" s="122"/>
       <c r="N4" s="122"/>
-      <c r="O4" s="144" t="str">
-        <f>_xll.RData(O5:O18,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 18:03:41</v>
+      <c r="O4" s="144" t="e">
+        <f ca="1">_xll.RData(O5:O18,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P4" s="198" t="s">
         <v>163</v>
@@ -4216,7 +4138,7 @@
       </c>
       <c r="F5" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD2X1S_Quote#0000</v>
+        <v>AUD2X1S_Quote#0001</v>
       </c>
       <c r="G5" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -4284,7 +4206,7 @@
       </c>
       <c r="F6" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3X1S_Quote#0000</v>
+        <v>AUD3X1S_Quote#0001</v>
       </c>
       <c r="G6" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -4350,7 +4272,7 @@
       </c>
       <c r="F7" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD4X1S_Quote#0000</v>
+        <v>AUD4X1S_Quote#0001</v>
       </c>
       <c r="G7" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -4416,7 +4338,7 @@
       </c>
       <c r="F8" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD5X1S_Quote#0000</v>
+        <v>AUD5X1S_Quote#0001</v>
       </c>
       <c r="G8" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -4482,7 +4404,7 @@
       </c>
       <c r="F9" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD6X1S_Quote#0000</v>
+        <v>AUD6X1S_Quote#0001</v>
       </c>
       <c r="G9" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -4548,7 +4470,7 @@
       </c>
       <c r="F10" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD7X1S_Quote#0000</v>
+        <v>AUD7X1S_Quote#0001</v>
       </c>
       <c r="G10" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -4614,7 +4536,7 @@
       </c>
       <c r="F11" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD8X1S_Quote#0000</v>
+        <v>AUD8X1S_Quote#0001</v>
       </c>
       <c r="G11" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -4680,7 +4602,7 @@
       </c>
       <c r="F12" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD9X1S_Quote#0000</v>
+        <v>AUD9X1S_Quote#0001</v>
       </c>
       <c r="G12" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -4746,7 +4668,7 @@
       </c>
       <c r="F13" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD10X1S_Quote#0000</v>
+        <v>AUD10X1S_Quote#0001</v>
       </c>
       <c r="G13" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -4812,7 +4734,7 @@
       </c>
       <c r="F14" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD11X1S_Quote#0000</v>
+        <v>AUD11X1S_Quote#0001</v>
       </c>
       <c r="G14" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -4878,7 +4800,7 @@
       </c>
       <c r="F15" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD12X1S_Quote#0000</v>
+        <v>AUD12X1S_Quote#0001</v>
       </c>
       <c r="G15" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -5240,9 +5162,9 @@
       <c r="P4" s="122"/>
       <c r="Q4" s="122"/>
       <c r="R4" s="122"/>
-      <c r="S4" s="144" t="str">
-        <f>_xll.RData(S5:S42,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Updated at 18:03:40</v>
+      <c r="S4" s="144" t="e">
+        <f ca="1">_xll.RData(S5:S42,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T4" s="198" t="s">
         <v>163</v>
@@ -5370,7 +5292,7 @@
       </c>
       <c r="F6" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB1Y_Quote#0000</v>
+        <v>AUDQM3AB1Y_Quote#0001</v>
       </c>
       <c r="G6" s="15" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -5418,9 +5340,9 @@
       <c r="AB6" s="209">
         <v>2.6825000000000001</v>
       </c>
-      <c r="AC6" s="146">
+      <c r="AC6" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F6,AB6/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD6" s="136"/>
       <c r="AE6" s="12"/>
@@ -5447,7 +5369,7 @@
       </c>
       <c r="F7" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB15M_Quote#0000</v>
+        <v>AUDQM3AB15M_Quote#0001</v>
       </c>
       <c r="G7" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -5524,7 +5446,7 @@
       </c>
       <c r="F8" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB18M_Quote#0000</v>
+        <v>AUDQM3AB18M_Quote#0001</v>
       </c>
       <c r="G8" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -5601,7 +5523,7 @@
       </c>
       <c r="F9" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB21M_Quote#0000</v>
+        <v>AUDQM3AB21M_Quote#0001</v>
       </c>
       <c r="G9" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -5678,7 +5600,7 @@
       </c>
       <c r="F10" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB2Y_Quote#0000</v>
+        <v>AUDQM3AB2Y_Quote#0001</v>
       </c>
       <c r="G10" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -5726,9 +5648,9 @@
       <c r="AB10" s="209">
         <v>2.8099999999999996</v>
       </c>
-      <c r="AC10" s="146">
+      <c r="AC10" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,AB10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD10" s="136"/>
       <c r="AE10" s="12"/>
@@ -5755,7 +5677,7 @@
       </c>
       <c r="F11" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB3Y_Quote#0000</v>
+        <v>AUDQM3AB3Y_Quote#0001</v>
       </c>
       <c r="G11" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -5803,9 +5725,9 @@
       <c r="AB11" s="209">
         <v>2.9575</v>
       </c>
-      <c r="AC11" s="146">
+      <c r="AC11" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,AB11/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD11" s="136"/>
       <c r="AE11" s="12"/>
@@ -5832,7 +5754,7 @@
       </c>
       <c r="F12" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB4Y_Quote#0000</v>
+        <v>AUDQM3AB4Y_Quote#0001</v>
       </c>
       <c r="G12" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -5909,7 +5831,7 @@
       </c>
       <c r="F13" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB5Y_Quote#0000</v>
+        <v>AUDQM3AB5Y_Quote#0001</v>
       </c>
       <c r="G13" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -5986,7 +5908,7 @@
       </c>
       <c r="F14" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB6Y_Quote#0000</v>
+        <v>AUDQM3AB6Y_Quote#0001</v>
       </c>
       <c r="G14" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -6063,7 +5985,7 @@
       </c>
       <c r="F15" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB7Y_Quote#0000</v>
+        <v>AUDQM3AB7Y_Quote#0001</v>
       </c>
       <c r="G15" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -6140,7 +6062,7 @@
       </c>
       <c r="F16" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB8Y_Quote#0000</v>
+        <v>AUDQM3AB8Y_Quote#0001</v>
       </c>
       <c r="G16" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -6217,7 +6139,7 @@
       </c>
       <c r="F17" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB9Y_Quote#0000</v>
+        <v>AUDQM3AB9Y_Quote#0001</v>
       </c>
       <c r="G17" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -6294,7 +6216,7 @@
       </c>
       <c r="F18" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB10Y_Quote#0000</v>
+        <v>AUDQM3AB10Y_Quote#0001</v>
       </c>
       <c r="G18" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -6371,7 +6293,7 @@
       </c>
       <c r="F19" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB11Y_Quote#0000</v>
+        <v>AUDQM3AB11Y_Quote#0001</v>
       </c>
       <c r="G19" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -6448,7 +6370,7 @@
       </c>
       <c r="F20" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB12Y_Quote#0000</v>
+        <v>AUDQM3AB12Y_Quote#0001</v>
       </c>
       <c r="G20" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -6525,7 +6447,7 @@
       </c>
       <c r="F21" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB13Y_Quote#0000</v>
+        <v>AUDQM3AB13Y_Quote#0001</v>
       </c>
       <c r="G21" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -6602,7 +6524,7 @@
       </c>
       <c r="F22" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB14Y_Quote#0000</v>
+        <v>AUDQM3AB14Y_Quote#0001</v>
       </c>
       <c r="G22" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -6679,7 +6601,7 @@
       </c>
       <c r="F23" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB15Y_Quote#0000</v>
+        <v>AUDQM3AB15Y_Quote#0001</v>
       </c>
       <c r="G23" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -6756,7 +6678,7 @@
       </c>
       <c r="F24" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB16Y_Quote#0000</v>
+        <v>AUDQM3AB16Y_Quote#0001</v>
       </c>
       <c r="G24" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -6833,7 +6755,7 @@
       </c>
       <c r="F25" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB17Y_Quote#0000</v>
+        <v>AUDQM3AB17Y_Quote#0001</v>
       </c>
       <c r="G25" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -6910,7 +6832,7 @@
       </c>
       <c r="F26" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB18Y_Quote#0000</v>
+        <v>AUDQM3AB18Y_Quote#0001</v>
       </c>
       <c r="G26" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -6987,7 +6909,7 @@
       </c>
       <c r="F27" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB19Y_Quote#0000</v>
+        <v>AUDQM3AB19Y_Quote#0001</v>
       </c>
       <c r="G27" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -7064,7 +6986,7 @@
       </c>
       <c r="F28" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB20Y_Quote#0000</v>
+        <v>AUDQM3AB20Y_Quote#0001</v>
       </c>
       <c r="G28" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -7141,7 +7063,7 @@
       </c>
       <c r="F29" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB21Y_Quote#0000</v>
+        <v>AUDQM3AB21Y_Quote#0001</v>
       </c>
       <c r="G29" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -7218,7 +7140,7 @@
       </c>
       <c r="F30" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB22Y_Quote#0000</v>
+        <v>AUDQM3AB22Y_Quote#0001</v>
       </c>
       <c r="G30" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -7295,7 +7217,7 @@
       </c>
       <c r="F31" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB23Y_Quote#0000</v>
+        <v>AUDQM3AB23Y_Quote#0001</v>
       </c>
       <c r="G31" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -7372,7 +7294,7 @@
       </c>
       <c r="F32" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB24Y_Quote#0000</v>
+        <v>AUDQM3AB24Y_Quote#0001</v>
       </c>
       <c r="G32" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -7449,7 +7371,7 @@
       </c>
       <c r="F33" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB25Y_Quote#0000</v>
+        <v>AUDQM3AB25Y_Quote#0001</v>
       </c>
       <c r="G33" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -7526,7 +7448,7 @@
       </c>
       <c r="F34" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB26Y_Quote#0000</v>
+        <v>AUDQM3AB26Y_Quote#0001</v>
       </c>
       <c r="G34" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -7603,7 +7525,7 @@
       </c>
       <c r="F35" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB27Y_Quote#0000</v>
+        <v>AUDQM3AB27Y_Quote#0001</v>
       </c>
       <c r="G35" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -7680,7 +7602,7 @@
       </c>
       <c r="F36" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB28Y_Quote#0000</v>
+        <v>AUDQM3AB28Y_Quote#0001</v>
       </c>
       <c r="G36" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -7757,7 +7679,7 @@
       </c>
       <c r="F37" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB29Y_Quote#0000</v>
+        <v>AUDQM3AB29Y_Quote#0001</v>
       </c>
       <c r="G37" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -7834,7 +7756,7 @@
       </c>
       <c r="F38" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB30Y_Quote#0000</v>
+        <v>AUDQM3AB30Y_Quote#0001</v>
       </c>
       <c r="G38" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -7911,7 +7833,7 @@
       </c>
       <c r="F39" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB35Y_Quote#0000</v>
+        <v>AUDQM3AB35Y_Quote#0001</v>
       </c>
       <c r="G39" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -7988,7 +7910,7 @@
       </c>
       <c r="F40" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB40Y_Quote#0000</v>
+        <v>AUDQM3AB40Y_Quote#0001</v>
       </c>
       <c r="G40" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -8065,7 +7987,7 @@
       </c>
       <c r="F41" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB50Y_Quote#0000</v>
+        <v>AUDQM3AB50Y_Quote#0001</v>
       </c>
       <c r="G41" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -8142,7 +8064,7 @@
       </c>
       <c r="F42" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C42&amp;$D42&amp;$B42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB60Y_Quote#0000</v>
+        <v>AUDQM3AB60Y_Quote#0001</v>
       </c>
       <c r="G42" s="117" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -8372,7 +8294,7 @@
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
     </row>
-    <row r="4" spans="1:36" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="135"/>
       <c r="B4" s="127"/>
       <c r="C4" s="127"/>
@@ -8386,9 +8308,9 @@
       <c r="P4" s="122"/>
       <c r="Q4" s="122"/>
       <c r="R4" s="122"/>
-      <c r="S4" s="144" t="str">
-        <f>_xll.RData(S5:S42,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Updated at 18:03:41</v>
+      <c r="S4" s="144" t="e">
+        <f ca="1">_xll.RData(S5:S42,T4:W4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T4" s="198" t="s">
         <v>163</v>
@@ -8515,7 +8437,7 @@
       </c>
       <c r="F6" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB1Y_Quote#0000</v>
+        <v>AUDSM6AB1Y_Quote#0001</v>
       </c>
       <c r="G6" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -8592,7 +8514,7 @@
       </c>
       <c r="F7" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB15M_Quote#0000</v>
+        <v>AUDSM6AB15M_Quote#0001</v>
       </c>
       <c r="G7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -8669,7 +8591,7 @@
       </c>
       <c r="F8" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB18M_Quote#0000</v>
+        <v>AUDSM6AB18M_Quote#0001</v>
       </c>
       <c r="G8" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -8746,7 +8668,7 @@
       </c>
       <c r="F9" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB21M_Quote#0000</v>
+        <v>AUDSM6AB21M_Quote#0001</v>
       </c>
       <c r="G9" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -8823,7 +8745,7 @@
       </c>
       <c r="F10" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB2Y_Quote#0000</v>
+        <v>AUDSM6AB2Y_Quote#0001</v>
       </c>
       <c r="G10" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -8900,7 +8822,7 @@
       </c>
       <c r="F11" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB3Y_Quote#0000</v>
+        <v>AUDSM6AB3Y_Quote#0001</v>
       </c>
       <c r="G11" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -8977,7 +8899,7 @@
       </c>
       <c r="F12" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB4Y_Quote#0000</v>
+        <v>AUDSM6AB4Y_Quote#0001</v>
       </c>
       <c r="G12" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -9025,9 +8947,9 @@
       <c r="AB12" s="209">
         <v>3.2050000000000001</v>
       </c>
-      <c r="AC12" s="146">
+      <c r="AC12" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,AB12/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD12" s="136"/>
       <c r="AE12" s="12"/>
@@ -9054,7 +8976,7 @@
       </c>
       <c r="F13" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB5Y_Quote#0000</v>
+        <v>AUDSM6AB5Y_Quote#0001</v>
       </c>
       <c r="G13" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -9102,9 +9024,9 @@
       <c r="AB13" s="209">
         <v>3.3775000000000004</v>
       </c>
-      <c r="AC13" s="146">
+      <c r="AC13" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F13,AB13/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD13" s="136"/>
       <c r="AE13" s="12"/>
@@ -9131,7 +9053,7 @@
       </c>
       <c r="F14" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB6Y_Quote#0000</v>
+        <v>AUDSM6AB6Y_Quote#0001</v>
       </c>
       <c r="G14" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -9179,9 +9101,9 @@
       <c r="AB14" s="209">
         <v>3.5449999999999999</v>
       </c>
-      <c r="AC14" s="146">
+      <c r="AC14" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F14,AB14/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD14" s="136"/>
       <c r="AE14" s="12"/>
@@ -9208,7 +9130,7 @@
       </c>
       <c r="F15" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB7Y_Quote#0000</v>
+        <v>AUDSM6AB7Y_Quote#0001</v>
       </c>
       <c r="G15" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -9256,9 +9178,9 @@
       <c r="AB15" s="209">
         <v>3.6950000000000003</v>
       </c>
-      <c r="AC15" s="146">
+      <c r="AC15" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,AB15/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD15" s="136"/>
       <c r="AE15" s="12"/>
@@ -9285,7 +9207,7 @@
       </c>
       <c r="F16" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB8Y_Quote#0000</v>
+        <v>AUDSM6AB8Y_Quote#0001</v>
       </c>
       <c r="G16" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -9333,9 +9255,9 @@
       <c r="AB16" s="209">
         <v>3.8250000000000002</v>
       </c>
-      <c r="AC16" s="146">
+      <c r="AC16" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F16,AB16/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD16" s="136"/>
       <c r="AE16" s="12"/>
@@ -9362,7 +9284,7 @@
       </c>
       <c r="F17" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB9Y_Quote#0000</v>
+        <v>AUDSM6AB9Y_Quote#0001</v>
       </c>
       <c r="G17" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -9410,9 +9332,9 @@
       <c r="AB17" s="209">
         <v>3.9325000000000001</v>
       </c>
-      <c r="AC17" s="146">
+      <c r="AC17" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F17,AB17/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD17" s="136"/>
       <c r="AE17" s="12"/>
@@ -9439,7 +9361,7 @@
       </c>
       <c r="F18" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB10Y_Quote#0000</v>
+        <v>AUDSM6AB10Y_Quote#0001</v>
       </c>
       <c r="G18" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -9487,9 +9409,9 @@
       <c r="AB18" s="209">
         <v>4.0299999999999994</v>
       </c>
-      <c r="AC18" s="146">
+      <c r="AC18" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,AB18/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD18" s="136"/>
       <c r="AE18" s="12"/>
@@ -9516,7 +9438,7 @@
       </c>
       <c r="F19" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB11Y_Quote#0000</v>
+        <v>AUDSM6AB11Y_Quote#0001</v>
       </c>
       <c r="G19" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -9593,7 +9515,7 @@
       </c>
       <c r="F20" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB12Y_Quote#0000</v>
+        <v>AUDSM6AB12Y_Quote#0001</v>
       </c>
       <c r="G20" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -9641,9 +9563,9 @@
       <c r="AB20" s="209">
         <v>4.1875</v>
       </c>
-      <c r="AC20" s="146">
+      <c r="AC20" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,AB20/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD20" s="136"/>
       <c r="AE20" s="12"/>
@@ -9670,7 +9592,7 @@
       </c>
       <c r="F21" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB13Y_Quote#0000</v>
+        <v>AUDSM6AB13Y_Quote#0001</v>
       </c>
       <c r="G21" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -9747,7 +9669,7 @@
       </c>
       <c r="F22" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB14Y_Quote#0000</v>
+        <v>AUDSM6AB14Y_Quote#0001</v>
       </c>
       <c r="G22" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -9824,7 +9746,7 @@
       </c>
       <c r="F23" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB15Y_Quote#0000</v>
+        <v>AUDSM6AB15Y_Quote#0001</v>
       </c>
       <c r="G23" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -9872,9 +9794,9 @@
       <c r="AB23" s="209">
         <v>4.335</v>
       </c>
-      <c r="AC23" s="146">
+      <c r="AC23" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F23,AB23/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD23" s="136"/>
       <c r="AE23" s="12"/>
@@ -9901,7 +9823,7 @@
       </c>
       <c r="F24" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB16Y_Quote#0000</v>
+        <v>AUDSM6AB16Y_Quote#0001</v>
       </c>
       <c r="G24" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -9978,7 +9900,7 @@
       </c>
       <c r="F25" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB17Y_Quote#0000</v>
+        <v>AUDSM6AB17Y_Quote#0001</v>
       </c>
       <c r="G25" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -10055,7 +9977,7 @@
       </c>
       <c r="F26" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB18Y_Quote#0000</v>
+        <v>AUDSM6AB18Y_Quote#0001</v>
       </c>
       <c r="G26" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -10132,7 +10054,7 @@
       </c>
       <c r="F27" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB19Y_Quote#0000</v>
+        <v>AUDSM6AB19Y_Quote#0001</v>
       </c>
       <c r="G27" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -10209,7 +10131,7 @@
       </c>
       <c r="F28" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB20Y_Quote#0000</v>
+        <v>AUDSM6AB20Y_Quote#0001</v>
       </c>
       <c r="G28" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -10257,9 +10179,9 @@
       <c r="AB28" s="209">
         <v>4.4574999999999996</v>
       </c>
-      <c r="AC28" s="146">
+      <c r="AC28" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F28,AB28/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD28" s="136"/>
       <c r="AE28" s="12"/>
@@ -10286,7 +10208,7 @@
       </c>
       <c r="F29" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB21Y_Quote#0000</v>
+        <v>AUDSM6AB21Y_Quote#0001</v>
       </c>
       <c r="G29" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -10363,7 +10285,7 @@
       </c>
       <c r="F30" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB22Y_Quote#0000</v>
+        <v>AUDSM6AB22Y_Quote#0001</v>
       </c>
       <c r="G30" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -10440,7 +10362,7 @@
       </c>
       <c r="F31" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB23Y_Quote#0000</v>
+        <v>AUDSM6AB23Y_Quote#0001</v>
       </c>
       <c r="G31" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -10517,7 +10439,7 @@
       </c>
       <c r="F32" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB24Y_Quote#0000</v>
+        <v>AUDSM6AB24Y_Quote#0001</v>
       </c>
       <c r="G32" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -10594,7 +10516,7 @@
       </c>
       <c r="F33" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB25Y_Quote#0000</v>
+        <v>AUDSM6AB25Y_Quote#0001</v>
       </c>
       <c r="G33" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -10642,9 +10564,9 @@
       <c r="AB33" s="209">
         <v>4.4924999999999997</v>
       </c>
-      <c r="AC33" s="146">
+      <c r="AC33" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F33,AB33/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD33" s="136"/>
       <c r="AE33" s="12"/>
@@ -10671,7 +10593,7 @@
       </c>
       <c r="F34" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB26Y_Quote#0000</v>
+        <v>AUDSM6AB26Y_Quote#0001</v>
       </c>
       <c r="G34" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -10748,7 +10670,7 @@
       </c>
       <c r="F35" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB27Y_Quote#0000</v>
+        <v>AUDSM6AB27Y_Quote#0001</v>
       </c>
       <c r="G35" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -10825,7 +10747,7 @@
       </c>
       <c r="F36" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB28Y_Quote#0000</v>
+        <v>AUDSM6AB28Y_Quote#0001</v>
       </c>
       <c r="G36" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -10902,7 +10824,7 @@
       </c>
       <c r="F37" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB29Y_Quote#0000</v>
+        <v>AUDSM6AB29Y_Quote#0001</v>
       </c>
       <c r="G37" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -10979,7 +10901,7 @@
       </c>
       <c r="F38" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB30Y_Quote#0000</v>
+        <v>AUDSM6AB30Y_Quote#0001</v>
       </c>
       <c r="G38" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -11027,9 +10949,9 @@
       <c r="AB38" s="209">
         <v>4.5</v>
       </c>
-      <c r="AC38" s="146">
+      <c r="AC38" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F38,AB38/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD38" s="136"/>
       <c r="AE38" s="12"/>
@@ -11056,7 +10978,7 @@
       </c>
       <c r="F39" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB35Y_Quote#0000</v>
+        <v>AUDSM6AB35Y_Quote#0001</v>
       </c>
       <c r="G39" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -11133,7 +11055,7 @@
       </c>
       <c r="F40" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB40Y_Quote#0000</v>
+        <v>AUDSM6AB40Y_Quote#0001</v>
       </c>
       <c r="G40" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -11181,9 +11103,9 @@
       <c r="AB40" s="209">
         <v>4.46</v>
       </c>
-      <c r="AC40" s="146">
+      <c r="AC40" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F40,AB40/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AD40" s="136"/>
       <c r="AE40" s="12"/>
@@ -11210,7 +11132,7 @@
       </c>
       <c r="F41" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB50Y_Quote#0000</v>
+        <v>AUDSM6AB50Y_Quote#0001</v>
       </c>
       <c r="G41" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -11287,7 +11209,7 @@
       </c>
       <c r="F42" s="47" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C42&amp;$D42&amp;$B42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB60Y_Quote#0000</v>
+        <v>AUDSM6AB60Y_Quote#0001</v>
       </c>
       <c r="G42" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -11522,9 +11444,9 @@
       <c r="P4" s="122"/>
       <c r="Q4" s="122"/>
       <c r="R4" s="122"/>
-      <c r="S4" s="144" t="str">
-        <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Updated at 18:03:40</v>
+      <c r="S4" s="144" t="e">
+        <f ca="1">_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T4" s="198" t="s">
         <v>163</v>
@@ -11565,7 +11487,7 @@
       </c>
       <c r="F5" s="47" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR6M_Quote#0000</v>
+        <v>AUD1BR3BR6M_Quote#0001</v>
       </c>
       <c r="G5" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -11613,9 +11535,9 @@
         <f t="array" ref="Z5:Z42">QuoteLive</f>
         <v>4.5</v>
       </c>
-      <c r="AA5" s="146">
+      <c r="AA5" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F5,Z5/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB5" s="136"/>
       <c r="AC5" s="12"/>
@@ -11642,7 +11564,7 @@
       </c>
       <c r="F6" s="47" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR1Y_Quote#0000</v>
+        <v>AUD1BR3BR1Y_Quote#0001</v>
       </c>
       <c r="G6" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -11688,9 +11610,9 @@
       <c r="Z6" s="349">
         <v>5.25</v>
       </c>
-      <c r="AA6" s="146">
+      <c r="AA6" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F6,Z6/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB6" s="136"/>
       <c r="AC6" s="12"/>
@@ -11717,7 +11639,7 @@
       </c>
       <c r="F7" s="47" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR15M_Quote#0000</v>
+        <v>AUD1BR3BR15M_Quote#0001</v>
       </c>
       <c r="G7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -11788,7 +11710,7 @@
       </c>
       <c r="F8" s="47" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR18M_Quote#0000</v>
+        <v>AUD1BR3BR18M_Quote#0001</v>
       </c>
       <c r="G8" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -11859,7 +11781,7 @@
       </c>
       <c r="F9" s="47" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR21M_Quote#0000</v>
+        <v>AUD1BR3BR21M_Quote#0001</v>
       </c>
       <c r="G9" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -11928,7 +11850,7 @@
       </c>
       <c r="F10" s="47" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR2Y_Quote#0000</v>
+        <v>AUD1BR3BR2Y_Quote#0001</v>
       </c>
       <c r="G10" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -11970,9 +11892,9 @@
       <c r="Z10" s="349">
         <v>6.25</v>
       </c>
-      <c r="AA10" s="146">
+      <c r="AA10" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,Z10/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB10" s="136"/>
     </row>
@@ -11995,7 +11917,7 @@
       </c>
       <c r="F11" s="47" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR3Y_Quote#0000</v>
+        <v>AUD1BR3BR3Y_Quote#0001</v>
       </c>
       <c r="G11" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -12037,9 +11959,9 @@
       <c r="Z11" s="349">
         <v>6.625</v>
       </c>
-      <c r="AA11" s="146">
+      <c r="AA11" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,Z11/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB11" s="136"/>
     </row>
@@ -12062,7 +11984,7 @@
       </c>
       <c r="F12" s="47" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR4Y_Quote#0000</v>
+        <v>AUD1BR3BR4Y_Quote#0001</v>
       </c>
       <c r="G12" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -12104,9 +12026,9 @@
       <c r="Z12" s="349">
         <v>7.125</v>
       </c>
-      <c r="AA12" s="146">
+      <c r="AA12" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,Z12/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB12" s="136"/>
     </row>
@@ -12129,7 +12051,7 @@
       </c>
       <c r="F13" s="47" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR5Y_Quote#0000</v>
+        <v>AUD1BR3BR5Y_Quote#0001</v>
       </c>
       <c r="G13" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -12171,9 +12093,9 @@
       <c r="Z13" s="349">
         <v>7.375</v>
       </c>
-      <c r="AA13" s="146">
+      <c r="AA13" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F13,Z13/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB13" s="136"/>
     </row>
@@ -12196,7 +12118,7 @@
       </c>
       <c r="F14" s="47" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR6Y_Quote#0000</v>
+        <v>AUD1BR3BR6Y_Quote#0001</v>
       </c>
       <c r="G14" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -12263,7 +12185,7 @@
       </c>
       <c r="F15" s="47" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR7Y_Quote#0000</v>
+        <v>AUD1BR3BR7Y_Quote#0001</v>
       </c>
       <c r="G15" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -12305,9 +12227,9 @@
       <c r="Z15" s="349">
         <v>7.625</v>
       </c>
-      <c r="AA15" s="146">
+      <c r="AA15" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,Z15/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB15" s="136"/>
     </row>
@@ -12330,7 +12252,7 @@
       </c>
       <c r="F16" s="47" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR8Y_Quote#0000</v>
+        <v>AUD1BR3BR8Y_Quote#0001</v>
       </c>
       <c r="G16" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -12397,7 +12319,7 @@
       </c>
       <c r="F17" s="47" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR9Y_Quote#0000</v>
+        <v>AUD1BR3BR9Y_Quote#0001</v>
       </c>
       <c r="G17" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -12464,7 +12386,7 @@
       </c>
       <c r="F18" s="47" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR10Y_Quote#0000</v>
+        <v>AUD1BR3BR10Y_Quote#0001</v>
       </c>
       <c r="G18" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -12506,9 +12428,9 @@
       <c r="Z18" s="349">
         <v>7.625</v>
       </c>
-      <c r="AA18" s="146">
+      <c r="AA18" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,Z18/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB18" s="136"/>
       <c r="AF18"/>
@@ -12532,7 +12454,7 @@
       </c>
       <c r="F19" s="47" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR11Y_Quote#0000</v>
+        <v>AUD1BR3BR11Y_Quote#0001</v>
       </c>
       <c r="G19" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -12599,7 +12521,7 @@
       </c>
       <c r="F20" s="47" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR12Y_Quote#0000</v>
+        <v>AUD1BR3BR12Y_Quote#0001</v>
       </c>
       <c r="G20" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -12641,9 +12563,9 @@
       <c r="Z20" s="349">
         <v>7.625</v>
       </c>
-      <c r="AA20" s="146">
+      <c r="AA20" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,Z20/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB20" s="136"/>
     </row>
@@ -12666,7 +12588,7 @@
       </c>
       <c r="F21" s="47" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR13Y_Quote#0000</v>
+        <v>AUD1BR3BR13Y_Quote#0001</v>
       </c>
       <c r="G21" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -12733,7 +12655,7 @@
       </c>
       <c r="F22" s="47" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR14Y_Quote#0000</v>
+        <v>AUD1BR3BR14Y_Quote#0001</v>
       </c>
       <c r="G22" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -12800,7 +12722,7 @@
       </c>
       <c r="F23" s="47" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR15Y_Quote#0000</v>
+        <v>AUD1BR3BR15Y_Quote#0001</v>
       </c>
       <c r="G23" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -12842,9 +12764,9 @@
       <c r="Z23" s="349">
         <v>7.875</v>
       </c>
-      <c r="AA23" s="146">
+      <c r="AA23" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F23,Z23/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB23" s="136"/>
     </row>
@@ -12867,7 +12789,7 @@
       </c>
       <c r="F24" s="47" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR16Y_Quote#0000</v>
+        <v>AUD1BR3BR16Y_Quote#0001</v>
       </c>
       <c r="G24" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -12934,7 +12856,7 @@
       </c>
       <c r="F25" s="47" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR17Y_Quote#0000</v>
+        <v>AUD1BR3BR17Y_Quote#0001</v>
       </c>
       <c r="G25" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -13001,7 +12923,7 @@
       </c>
       <c r="F26" s="47" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR18Y_Quote#0000</v>
+        <v>AUD1BR3BR18Y_Quote#0001</v>
       </c>
       <c r="G26" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -13068,7 +12990,7 @@
       </c>
       <c r="F27" s="47" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR19Y_Quote#0000</v>
+        <v>AUD1BR3BR19Y_Quote#0001</v>
       </c>
       <c r="G27" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -13135,7 +13057,7 @@
       </c>
       <c r="F28" s="47" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR20Y_Quote#0000</v>
+        <v>AUD1BR3BR20Y_Quote#0001</v>
       </c>
       <c r="G28" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -13177,9 +13099,9 @@
       <c r="Z28" s="349">
         <v>7.5</v>
       </c>
-      <c r="AA28" s="146">
+      <c r="AA28" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F28,Z28/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB28" s="136"/>
     </row>
@@ -13202,7 +13124,7 @@
       </c>
       <c r="F29" s="47" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR21Y_Quote#0000</v>
+        <v>AUD1BR3BR21Y_Quote#0001</v>
       </c>
       <c r="G29" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -13269,7 +13191,7 @@
       </c>
       <c r="F30" s="47" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR22Y_Quote#0000</v>
+        <v>AUD1BR3BR22Y_Quote#0001</v>
       </c>
       <c r="G30" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -13336,7 +13258,7 @@
       </c>
       <c r="F31" s="47" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR23Y_Quote#0000</v>
+        <v>AUD1BR3BR23Y_Quote#0001</v>
       </c>
       <c r="G31" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -13403,7 +13325,7 @@
       </c>
       <c r="F32" s="47" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR24Y_Quote#0000</v>
+        <v>AUD1BR3BR24Y_Quote#0001</v>
       </c>
       <c r="G32" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -13470,7 +13392,7 @@
       </c>
       <c r="F33" s="47" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR25Y_Quote#0000</v>
+        <v>AUD1BR3BR25Y_Quote#0001</v>
       </c>
       <c r="G33" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -13512,9 +13434,9 @@
       <c r="Z33" s="349">
         <v>6</v>
       </c>
-      <c r="AA33" s="146">
+      <c r="AA33" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F33,Z33/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB33" s="136"/>
     </row>
@@ -13537,7 +13459,7 @@
       </c>
       <c r="F34" s="47" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR26Y_Quote#0000</v>
+        <v>AUD1BR3BR26Y_Quote#0001</v>
       </c>
       <c r="G34" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -13604,7 +13526,7 @@
       </c>
       <c r="F35" s="47" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR27Y_Quote#0000</v>
+        <v>AUD1BR3BR27Y_Quote#0001</v>
       </c>
       <c r="G35" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -13671,7 +13593,7 @@
       </c>
       <c r="F36" s="47" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR28Y_Quote#0000</v>
+        <v>AUD1BR3BR28Y_Quote#0001</v>
       </c>
       <c r="G36" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -13738,7 +13660,7 @@
       </c>
       <c r="F37" s="47" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR29Y_Quote#0000</v>
+        <v>AUD1BR3BR29Y_Quote#0001</v>
       </c>
       <c r="G37" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -13805,7 +13727,7 @@
       </c>
       <c r="F38" s="47" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR30Y_Quote#0000</v>
+        <v>AUD1BR3BR30Y_Quote#0001</v>
       </c>
       <c r="G38" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -13847,9 +13769,9 @@
       <c r="Z38" s="349">
         <v>5.75</v>
       </c>
-      <c r="AA38" s="146">
+      <c r="AA38" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F38,Z38/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB38" s="136"/>
     </row>
@@ -13872,7 +13794,7 @@
       </c>
       <c r="F39" s="47" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR35Y_Quote#0000</v>
+        <v>AUD1BR3BR35Y_Quote#0001</v>
       </c>
       <c r="G39" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -13939,7 +13861,7 @@
       </c>
       <c r="F40" s="47" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR40Y_Quote#0000</v>
+        <v>AUD1BR3BR40Y_Quote#0001</v>
       </c>
       <c r="G40" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -14006,7 +13928,7 @@
       </c>
       <c r="F41" s="47" t="str">
         <f>_xll.qlSimpleQuote(E41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR50Y_Quote#0000</v>
+        <v>AUD1BR3BR50Y_Quote#0001</v>
       </c>
       <c r="G41" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -14073,7 +13995,7 @@
       </c>
       <c r="F42" s="47" t="str">
         <f>_xll.qlSimpleQuote(E42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR60Y_Quote#0000</v>
+        <v>AUD1BR3BR60Y_Quote#0001</v>
       </c>
       <c r="G42" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -14103,7 +14025,7 @@
       <c r="U42" s="254" t="s">
         <v>174</v>
       </c>
-      <c r="V42" s="448" t="e">
+      <c r="V42" s="446" t="e">
         <f>_xll.qlMidEquivalent(T42,U42)</f>
         <v>#NUM!</v>
       </c>
@@ -14308,9 +14230,9 @@
       <c r="P4" s="122"/>
       <c r="Q4" s="122"/>
       <c r="R4" s="122"/>
-      <c r="S4" s="144" t="str">
-        <f>_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
-        <v>Updated at 18:03:41</v>
+      <c r="S4" s="144" t="e">
+        <f ca="1">_xll.RData(S5:S42,T4:U4,"RTFEED:IDN",ReutersRtMode,,T5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="T4" s="198" t="s">
         <v>163</v>
@@ -14357,7 +14279,7 @@
       </c>
       <c r="F5" s="47" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR6M_Quote#0000</v>
+        <v>AUD3BR6BR6M_Quote#0001</v>
       </c>
       <c r="G5" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -14401,9 +14323,9 @@
         <f t="array" ref="Z5:Z42">QuoteLive</f>
         <v>3.625</v>
       </c>
-      <c r="AA5" s="146">
+      <c r="AA5" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F5,Z5/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB5" s="136"/>
       <c r="AC5" s="12"/>
@@ -14430,7 +14352,7 @@
       </c>
       <c r="F6" s="47" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR1Y_Quote#0000</v>
+        <v>AUD3BR6BR1Y_Quote#0001</v>
       </c>
       <c r="G6" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -14472,9 +14394,9 @@
       <c r="Z6" s="349">
         <v>5</v>
       </c>
-      <c r="AA6" s="146">
+      <c r="AA6" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F6,Z6/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB6" s="136"/>
       <c r="AC6" s="12"/>
@@ -14501,7 +14423,7 @@
       </c>
       <c r="F7" s="47" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR15M_Quote#0000</v>
+        <v>AUD3BR6BR15M_Quote#0001</v>
       </c>
       <c r="G7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -14572,7 +14494,7 @@
       </c>
       <c r="F8" s="47" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR18M_Quote#0000</v>
+        <v>AUD3BR6BR18M_Quote#0001</v>
       </c>
       <c r="G8" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -14643,7 +14565,7 @@
       </c>
       <c r="F9" s="47" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR21M_Quote#0000</v>
+        <v>AUD3BR6BR21M_Quote#0001</v>
       </c>
       <c r="G9" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -14714,7 +14636,7 @@
       </c>
       <c r="F10" s="47" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR2Y_Quote#0000</v>
+        <v>AUD3BR6BR2Y_Quote#0001</v>
       </c>
       <c r="G10" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -14756,9 +14678,9 @@
       <c r="Z10" s="349">
         <v>5.875</v>
       </c>
-      <c r="AA10" s="146">
+      <c r="AA10" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,Z10/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB10" s="136"/>
       <c r="AC10" s="12"/>
@@ -14785,7 +14707,7 @@
       </c>
       <c r="F11" s="47" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR3Y_Quote#0000</v>
+        <v>AUD3BR6BR3Y_Quote#0001</v>
       </c>
       <c r="G11" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -14827,9 +14749,9 @@
       <c r="Z11" s="349">
         <v>6.75</v>
       </c>
-      <c r="AA11" s="146">
+      <c r="AA11" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,Z11/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB11" s="136"/>
       <c r="AC11" s="12"/>
@@ -14856,7 +14778,7 @@
       </c>
       <c r="F12" s="47" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR4Y_Quote#0000</v>
+        <v>AUD3BR6BR4Y_Quote#0001</v>
       </c>
       <c r="G12" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -14898,9 +14820,9 @@
       <c r="Z12" s="349">
         <v>7.25</v>
       </c>
-      <c r="AA12" s="146">
+      <c r="AA12" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,Z12/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB12" s="136"/>
       <c r="AC12" s="12"/>
@@ -14927,7 +14849,7 @@
       </c>
       <c r="F13" s="47" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR5Y_Quote#0000</v>
+        <v>AUD3BR6BR5Y_Quote#0001</v>
       </c>
       <c r="G13" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -14969,9 +14891,9 @@
       <c r="Z13" s="349">
         <v>7.5</v>
       </c>
-      <c r="AA13" s="146">
+      <c r="AA13" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F13,Z13/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB13" s="136"/>
       <c r="AC13" s="12"/>
@@ -14998,7 +14920,7 @@
       </c>
       <c r="F14" s="47" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR6Y_Quote#0000</v>
+        <v>AUD3BR6BR6Y_Quote#0001</v>
       </c>
       <c r="G14" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -15069,7 +14991,7 @@
       </c>
       <c r="F15" s="47" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR7Y_Quote#0000</v>
+        <v>AUD3BR6BR7Y_Quote#0001</v>
       </c>
       <c r="G15" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -15111,9 +15033,9 @@
       <c r="Z15" s="349">
         <v>7.625</v>
       </c>
-      <c r="AA15" s="146">
+      <c r="AA15" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,Z15/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB15" s="136"/>
       <c r="AC15" s="12"/>
@@ -15140,7 +15062,7 @@
       </c>
       <c r="F16" s="47" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR8Y_Quote#0000</v>
+        <v>AUD3BR6BR8Y_Quote#0001</v>
       </c>
       <c r="G16" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -15211,7 +15133,7 @@
       </c>
       <c r="F17" s="47" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR9Y_Quote#0000</v>
+        <v>AUD3BR6BR9Y_Quote#0001</v>
       </c>
       <c r="G17" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -15282,7 +15204,7 @@
       </c>
       <c r="F18" s="47" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR10Y_Quote#0000</v>
+        <v>AUD3BR6BR10Y_Quote#0001</v>
       </c>
       <c r="G18" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -15324,9 +15246,9 @@
       <c r="Z18" s="349">
         <v>7.625</v>
       </c>
-      <c r="AA18" s="146">
+      <c r="AA18" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,Z18/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB18" s="136"/>
       <c r="AC18" s="12"/>
@@ -15353,7 +15275,7 @@
       </c>
       <c r="F19" s="47" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR11Y_Quote#0000</v>
+        <v>AUD3BR6BR11Y_Quote#0001</v>
       </c>
       <c r="G19" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -15424,7 +15346,7 @@
       </c>
       <c r="F20" s="47" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR12Y_Quote#0000</v>
+        <v>AUD3BR6BR12Y_Quote#0001</v>
       </c>
       <c r="G20" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -15466,9 +15388,9 @@
       <c r="Z20" s="349">
         <v>7</v>
       </c>
-      <c r="AA20" s="146">
+      <c r="AA20" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,Z20/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB20" s="136"/>
       <c r="AC20" s="12"/>
@@ -15495,7 +15417,7 @@
       </c>
       <c r="F21" s="47" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR13Y_Quote#0000</v>
+        <v>AUD3BR6BR13Y_Quote#0001</v>
       </c>
       <c r="G21" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -15566,7 +15488,7 @@
       </c>
       <c r="F22" s="47" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR14Y_Quote#0000</v>
+        <v>AUD3BR6BR14Y_Quote#0001</v>
       </c>
       <c r="G22" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -15637,7 +15559,7 @@
       </c>
       <c r="F23" s="47" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR15Y_Quote#0000</v>
+        <v>AUD3BR6BR15Y_Quote#0001</v>
       </c>
       <c r="G23" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -15679,9 +15601,9 @@
       <c r="Z23" s="349">
         <v>6.125</v>
       </c>
-      <c r="AA23" s="146">
+      <c r="AA23" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F23,Z23/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB23" s="136"/>
       <c r="AC23" s="12"/>
@@ -15708,7 +15630,7 @@
       </c>
       <c r="F24" s="47" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR16Y_Quote#0000</v>
+        <v>AUD3BR6BR16Y_Quote#0001</v>
       </c>
       <c r="G24" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -15779,7 +15701,7 @@
       </c>
       <c r="F25" s="47" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR17Y_Quote#0000</v>
+        <v>AUD3BR6BR17Y_Quote#0001</v>
       </c>
       <c r="G25" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -15850,7 +15772,7 @@
       </c>
       <c r="F26" s="47" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR18Y_Quote#0000</v>
+        <v>AUD3BR6BR18Y_Quote#0001</v>
       </c>
       <c r="G26" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -15921,7 +15843,7 @@
       </c>
       <c r="F27" s="47" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR19Y_Quote#0000</v>
+        <v>AUD3BR6BR19Y_Quote#0001</v>
       </c>
       <c r="G27" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -15992,7 +15914,7 @@
       </c>
       <c r="F28" s="47" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR20Y_Quote#0000</v>
+        <v>AUD3BR6BR20Y_Quote#0001</v>
       </c>
       <c r="G28" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -16034,9 +15956,9 @@
       <c r="Z28" s="349">
         <v>4.75</v>
       </c>
-      <c r="AA28" s="146">
+      <c r="AA28" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F28,Z28/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB28" s="136"/>
       <c r="AC28" s="12"/>
@@ -16063,7 +15985,7 @@
       </c>
       <c r="F29" s="47" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR21Y_Quote#0000</v>
+        <v>AUD3BR6BR21Y_Quote#0001</v>
       </c>
       <c r="G29" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -16134,7 +16056,7 @@
       </c>
       <c r="F30" s="47" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR22Y_Quote#0000</v>
+        <v>AUD3BR6BR22Y_Quote#0001</v>
       </c>
       <c r="G30" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -16205,7 +16127,7 @@
       </c>
       <c r="F31" s="47" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR23Y_Quote#0000</v>
+        <v>AUD3BR6BR23Y_Quote#0001</v>
       </c>
       <c r="G31" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -16276,7 +16198,7 @@
       </c>
       <c r="F32" s="47" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR24Y_Quote#0000</v>
+        <v>AUD3BR6BR24Y_Quote#0001</v>
       </c>
       <c r="G32" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -16347,7 +16269,7 @@
       </c>
       <c r="F33" s="47" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR25Y_Quote#0000</v>
+        <v>AUD3BR6BR25Y_Quote#0001</v>
       </c>
       <c r="G33" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -16389,9 +16311,9 @@
       <c r="Z33" s="349">
         <v>3.75</v>
       </c>
-      <c r="AA33" s="146">
+      <c r="AA33" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F33,Z33/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB33" s="136"/>
       <c r="AC33" s="12"/>
@@ -16418,7 +16340,7 @@
       </c>
       <c r="F34" s="47" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR26Y_Quote#0000</v>
+        <v>AUD3BR6BR26Y_Quote#0001</v>
       </c>
       <c r="G34" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -16489,7 +16411,7 @@
       </c>
       <c r="F35" s="47" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR27Y_Quote#0000</v>
+        <v>AUD3BR6BR27Y_Quote#0001</v>
       </c>
       <c r="G35" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -16560,7 +16482,7 @@
       </c>
       <c r="F36" s="47" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR28Y_Quote#0000</v>
+        <v>AUD3BR6BR28Y_Quote#0001</v>
       </c>
       <c r="G36" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -16631,7 +16553,7 @@
       </c>
       <c r="F37" s="47" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR29Y_Quote#0000</v>
+        <v>AUD3BR6BR29Y_Quote#0001</v>
       </c>
       <c r="G37" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -16702,7 +16624,7 @@
       </c>
       <c r="F38" s="47" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR30Y_Quote#0000</v>
+        <v>AUD3BR6BR30Y_Quote#0001</v>
       </c>
       <c r="G38" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -16744,9 +16666,9 @@
       <c r="Z38" s="349">
         <v>2.75</v>
       </c>
-      <c r="AA38" s="146">
+      <c r="AA38" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F38,Z38/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AB38" s="136"/>
       <c r="AC38" s="12"/>
@@ -16773,7 +16695,7 @@
       </c>
       <c r="F39" s="47" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR35Y_Quote#0000</v>
+        <v>AUD3BR6BR35Y_Quote#0001</v>
       </c>
       <c r="G39" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -16844,7 +16766,7 @@
       </c>
       <c r="F40" s="47" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR40Y_Quote#0000</v>
+        <v>AUD3BR6BR40Y_Quote#0001</v>
       </c>
       <c r="G40" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -16915,7 +16837,7 @@
       </c>
       <c r="F41" s="47" t="str">
         <f>_xll.qlSimpleQuote(E41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR50Y_Quote#0000</v>
+        <v>AUD3BR6BR50Y_Quote#0001</v>
       </c>
       <c r="G41" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -16986,7 +16908,7 @@
       </c>
       <c r="F42" s="47" t="str">
         <f>_xll.qlSimpleQuote(E42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR60Y_Quote#0000</v>
+        <v>AUD3BR6BR60Y_Quote#0001</v>
       </c>
       <c r="G42" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -17016,7 +16938,7 @@
       <c r="U42" s="254" t="s">
         <v>174</v>
       </c>
-      <c r="V42" s="448" t="e">
+      <c r="V42" s="446" t="e">
         <f>_xll.qlMidEquivalent(T42,U42)</f>
         <v>#NUM!</v>
       </c>
@@ -17251,9 +17173,9 @@
         <v>Error Message LastFixing_Quote</v>
       </c>
       <c r="J5" s="404"/>
-      <c r="K5" s="380" t="str">
-        <f>_xll.RData(K6:K12,L5:M5,"RTFEED:IDN",,,L6)</f>
-        <v>Updated at 18:03:40</v>
+      <c r="K5" s="380" t="e">
+        <f ca="1">_xll.RData(K6:K12,L5:M5,"RTFEED:IDN",,,L6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L5" s="381" t="s">
         <v>228</v>
@@ -17313,7 +17235,7 @@
         <f t="shared" ref="K6:K12" si="1">Currency&amp;C6&amp;$K$4&amp;"="</f>
         <v>AUDONFSR=</v>
       </c>
-      <c r="L6" s="438" t="s">
+      <c r="L6" s="436" t="s">
         <v>174</v>
       </c>
       <c r="M6" s="388" t="s">
@@ -17369,7 +17291,7 @@
       </c>
       <c r="H7" s="378" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E7)</f>
-        <v/>
+        <v>qlLibor - Unhandled currency AUD</v>
       </c>
       <c r="I7" s="378" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -17380,7 +17302,7 @@
         <f t="shared" si="1"/>
         <v>AUDSWFSR=</v>
       </c>
-      <c r="L7" s="438">
+      <c r="L7" s="436">
         <v>41428</v>
       </c>
       <c r="M7" s="388">
@@ -17436,7 +17358,7 @@
       </c>
       <c r="H8" s="378" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E8)</f>
-        <v/>
+        <v>qlLibor - Unhandled currency AUD</v>
       </c>
       <c r="I8" s="378" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -17447,7 +17369,7 @@
         <f t="shared" si="1"/>
         <v>AUD1MFSR=</v>
       </c>
-      <c r="L8" s="438">
+      <c r="L8" s="436">
         <v>41428</v>
       </c>
       <c r="M8" s="388">
@@ -17503,7 +17425,7 @@
       </c>
       <c r="H9" s="378" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E9)</f>
-        <v/>
+        <v>qlLibor - Unhandled currency AUD</v>
       </c>
       <c r="I9" s="378" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -17514,7 +17436,7 @@
         <f t="shared" si="1"/>
         <v>AUD2MFSR=</v>
       </c>
-      <c r="L9" s="438">
+      <c r="L9" s="436">
         <v>41428</v>
       </c>
       <c r="M9" s="388">
@@ -17570,7 +17492,7 @@
       </c>
       <c r="H10" s="378" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E10)</f>
-        <v/>
+        <v>qlLibor - Unhandled currency AUD</v>
       </c>
       <c r="I10" s="378" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -17581,7 +17503,7 @@
         <f t="shared" si="1"/>
         <v>AUD3MFSR=</v>
       </c>
-      <c r="L10" s="438">
+      <c r="L10" s="436">
         <v>41428</v>
       </c>
       <c r="M10" s="388">
@@ -17637,7 +17559,7 @@
       </c>
       <c r="H11" s="378" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E11)</f>
-        <v/>
+        <v>qlLibor - Unhandled currency AUD</v>
       </c>
       <c r="I11" s="378" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -17648,7 +17570,7 @@
         <f t="shared" si="1"/>
         <v>AUD6MFSR=</v>
       </c>
-      <c r="L11" s="438">
+      <c r="L11" s="436">
         <v>41428</v>
       </c>
       <c r="M11" s="388">
@@ -17704,7 +17626,7 @@
       </c>
       <c r="H12" s="378" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E12)</f>
-        <v/>
+        <v>qlLibor - Unhandled currency AUD</v>
       </c>
       <c r="I12" s="378" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -17715,7 +17637,7 @@
         <f t="shared" si="1"/>
         <v>AUD1YFSR=</v>
       </c>
-      <c r="L12" s="438">
+      <c r="L12" s="436">
         <v>41428</v>
       </c>
       <c r="M12" s="388">
@@ -18024,9 +17946,9 @@
       <c r="L6" s="321" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="320" t="str">
-        <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Updated at 18:03:39</v>
+      <c r="M6" s="320" t="e">
+        <f ca="1">_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="320" t="s">
         <v>228</v>
@@ -18077,7 +17999,7 @@
       </c>
       <c r="G7" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F7)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H7" s="21"/>
       <c r="J7" s="280"/>
@@ -18148,7 +18070,7 @@
       </c>
       <c r="G8" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F8)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H8" s="21"/>
       <c r="J8" s="280"/>
@@ -18219,7 +18141,7 @@
       </c>
       <c r="G9" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F9)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H9" s="21"/>
       <c r="J9" s="280"/>
@@ -18290,7 +18212,7 @@
       </c>
       <c r="G10" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F10)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H10" s="21"/>
       <c r="J10" s="280"/>
@@ -18361,7 +18283,7 @@
       </c>
       <c r="G11" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F11)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H11" s="21"/>
       <c r="J11" s="280"/>
@@ -18432,7 +18354,7 @@
       </c>
       <c r="G12" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F12)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H12" s="21"/>
       <c r="J12" s="280"/>
@@ -18503,7 +18425,7 @@
       </c>
       <c r="G13" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F13)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H13" s="21"/>
       <c r="J13" s="280"/>
@@ -18574,7 +18496,7 @@
       </c>
       <c r="G14" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F14)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H14" s="21"/>
       <c r="J14" s="280"/>
@@ -18645,7 +18567,7 @@
       </c>
       <c r="G15" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F15)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H15" s="21"/>
       <c r="J15" s="280"/>
@@ -18716,7 +18638,7 @@
       </c>
       <c r="G16" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F16)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H16" s="21"/>
       <c r="J16" s="280"/>
@@ -18787,7 +18709,7 @@
       </c>
       <c r="G17" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F17)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H17" s="21"/>
       <c r="J17" s="280"/>
@@ -18858,7 +18780,7 @@
       </c>
       <c r="G18" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F18)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H18" s="21"/>
       <c r="J18" s="280"/>
@@ -18929,7 +18851,7 @@
       </c>
       <c r="G19" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F19)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H19" s="21"/>
       <c r="J19" s="280"/>
@@ -19000,7 +18922,7 @@
       </c>
       <c r="G20" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F20)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H20" s="21"/>
       <c r="J20" s="280"/>
@@ -19071,7 +18993,7 @@
       </c>
       <c r="G21" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F21)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H21" s="21"/>
       <c r="J21" s="280"/>
@@ -19142,7 +19064,7 @@
       </c>
       <c r="G22" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F22)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H22" s="21"/>
       <c r="J22" s="280"/>
@@ -19180,7 +19102,7 @@
       </c>
       <c r="G23" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F23)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H23" s="21"/>
       <c r="J23" s="280"/>
@@ -19218,7 +19140,7 @@
       </c>
       <c r="G24" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F24)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H24" s="21"/>
       <c r="J24" s="280"/>
@@ -19262,7 +19184,7 @@
       </c>
       <c r="G25" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F25)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H25" s="21"/>
       <c r="J25" s="280"/>
@@ -19306,7 +19228,7 @@
       </c>
       <c r="G26" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F26)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H26" s="21"/>
       <c r="J26" s="280"/>
@@ -19350,7 +19272,7 @@
       </c>
       <c r="G27" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F27)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H27" s="21"/>
       <c r="J27" s="280"/>
@@ -19394,7 +19316,7 @@
       </c>
       <c r="G28" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F28)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H28" s="21"/>
       <c r="J28" s="280"/>
@@ -19438,7 +19360,7 @@
       </c>
       <c r="G29" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F29)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H29" s="21"/>
       <c r="J29" s="280"/>
@@ -19482,7 +19404,7 @@
       </c>
       <c r="G30" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F30)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H30" s="21"/>
       <c r="J30" s="280"/>
@@ -19526,7 +19448,7 @@
       </c>
       <c r="G31" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F31)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H31" s="21"/>
     </row>
@@ -19548,7 +19470,7 @@
       </c>
       <c r="G32" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F32)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H32" s="21"/>
     </row>
@@ -19570,7 +19492,7 @@
       </c>
       <c r="G33" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F33)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H33" s="21"/>
     </row>
@@ -19592,7 +19514,7 @@
       </c>
       <c r="G34" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F34)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H34" s="21"/>
     </row>
@@ -19614,7 +19536,7 @@
       </c>
       <c r="G35" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F35)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H35" s="21"/>
     </row>
@@ -19636,7 +19558,7 @@
       </c>
       <c r="G36" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F36)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H36" s="21"/>
     </row>
@@ -19658,7 +19580,7 @@
       </c>
       <c r="G37" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F37)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H37" s="21"/>
     </row>
@@ -19680,7 +19602,7 @@
       </c>
       <c r="G38" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F38)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H38" s="21"/>
     </row>
@@ -19702,7 +19624,7 @@
       </c>
       <c r="G39" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F39)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H39" s="21"/>
     </row>
@@ -19724,7 +19646,7 @@
       </c>
       <c r="G40" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F40)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H40" s="21"/>
     </row>
@@ -19746,7 +19668,7 @@
       </c>
       <c r="G41" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F41)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H41" s="21"/>
     </row>
@@ -19768,7 +19690,7 @@
       </c>
       <c r="G42" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F42)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H42" s="21"/>
     </row>
@@ -19790,7 +19712,7 @@
       </c>
       <c r="G43" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F43)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H43" s="21"/>
     </row>
@@ -19812,7 +19734,7 @@
       </c>
       <c r="G44" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F44)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H44" s="21"/>
     </row>
@@ -19834,7 +19756,7 @@
       </c>
       <c r="G45" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F45)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H45" s="21"/>
     </row>
@@ -19856,7 +19778,7 @@
       </c>
       <c r="G46" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F46)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H46" s="21"/>
     </row>
@@ -19878,7 +19800,7 @@
       </c>
       <c r="G47" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F47)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H47" s="21"/>
     </row>
@@ -19900,7 +19822,7 @@
       </c>
       <c r="G48" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F48)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H48" s="21"/>
     </row>
@@ -19922,7 +19844,7 @@
       </c>
       <c r="G49" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F49)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H49" s="21"/>
     </row>
@@ -19944,7 +19866,7 @@
       </c>
       <c r="G50" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F50)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H50" s="21"/>
     </row>
@@ -19966,7 +19888,7 @@
       </c>
       <c r="G51" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F51)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H51" s="21"/>
     </row>
@@ -19988,7 +19910,7 @@
       </c>
       <c r="G52" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F52)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H52" s="21"/>
     </row>
@@ -20010,7 +19932,7 @@
       </c>
       <c r="G53" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F53)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H53" s="21"/>
     </row>
@@ -20032,7 +19954,7 @@
       </c>
       <c r="G54" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F54)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H54" s="21"/>
     </row>
@@ -20054,7 +19976,7 @@
       </c>
       <c r="G55" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F55)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H55" s="21"/>
     </row>
@@ -20076,7 +19998,7 @@
       </c>
       <c r="G56" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F56)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H56" s="21"/>
     </row>
@@ -20098,7 +20020,7 @@
       </c>
       <c r="G57" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F57)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H57" s="21"/>
     </row>
@@ -20120,7 +20042,7 @@
       </c>
       <c r="G58" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F58)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H58" s="21"/>
     </row>
@@ -20142,7 +20064,7 @@
       </c>
       <c r="G59" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F59)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H59" s="21"/>
     </row>
@@ -20164,7 +20086,7 @@
       </c>
       <c r="G60" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F60)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H60" s="21"/>
     </row>
@@ -20186,7 +20108,7 @@
       </c>
       <c r="G61" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F61)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H61" s="21"/>
     </row>
@@ -20208,7 +20130,7 @@
       </c>
       <c r="G62" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F62)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H62" s="21"/>
     </row>
@@ -20230,7 +20152,7 @@
       </c>
       <c r="G63" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F63)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H63" s="21"/>
     </row>
@@ -20252,7 +20174,7 @@
       </c>
       <c r="G64" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F64)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H64" s="21"/>
     </row>
@@ -20274,7 +20196,7 @@
       </c>
       <c r="G65" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F65)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H65" s="21"/>
     </row>
@@ -20296,7 +20218,7 @@
       </c>
       <c r="G66" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F66)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H66" s="21"/>
     </row>
@@ -20571,9 +20493,9 @@
       <c r="L6" s="321" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="320" t="str">
-        <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Updated at 18:03:39</v>
+      <c r="M6" s="320" t="e">
+        <f ca="1">_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="320" t="s">
         <v>228</v>
@@ -20624,7 +20546,7 @@
       </c>
       <c r="G7" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F7)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H7" s="21"/>
       <c r="J7" s="280"/>
@@ -20695,7 +20617,7 @@
       </c>
       <c r="G8" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F8)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H8" s="21"/>
       <c r="J8" s="280"/>
@@ -20766,7 +20688,7 @@
       </c>
       <c r="G9" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F9)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H9" s="21"/>
       <c r="J9" s="280"/>
@@ -20837,7 +20759,7 @@
       </c>
       <c r="G10" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F10)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H10" s="21"/>
       <c r="J10" s="280"/>
@@ -20908,7 +20830,7 @@
       </c>
       <c r="G11" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F11)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H11" s="21"/>
       <c r="J11" s="280"/>
@@ -20979,7 +20901,7 @@
       </c>
       <c r="G12" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F12)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H12" s="21"/>
       <c r="J12" s="280"/>
@@ -21050,7 +20972,7 @@
       </c>
       <c r="G13" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F13)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H13" s="21"/>
       <c r="J13" s="280"/>
@@ -21121,7 +21043,7 @@
       </c>
       <c r="G14" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F14)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H14" s="21"/>
       <c r="J14" s="280"/>
@@ -21192,7 +21114,7 @@
       </c>
       <c r="G15" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F15)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H15" s="21"/>
       <c r="J15" s="280"/>
@@ -21263,7 +21185,7 @@
       </c>
       <c r="G16" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F16)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H16" s="21"/>
       <c r="J16" s="280"/>
@@ -21334,7 +21256,7 @@
       </c>
       <c r="G17" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F17)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H17" s="21"/>
       <c r="J17" s="280"/>
@@ -21405,7 +21327,7 @@
       </c>
       <c r="G18" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F18)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H18" s="21"/>
       <c r="J18" s="280"/>
@@ -21476,7 +21398,7 @@
       </c>
       <c r="G19" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F19)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H19" s="21"/>
       <c r="J19" s="280"/>
@@ -21547,7 +21469,7 @@
       </c>
       <c r="G20" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F20)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H20" s="21"/>
       <c r="J20" s="280"/>
@@ -21618,7 +21540,7 @@
       </c>
       <c r="G21" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F21)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H21" s="21"/>
       <c r="J21" s="280"/>
@@ -21689,7 +21611,7 @@
       </c>
       <c r="G22" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F22)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H22" s="21"/>
       <c r="J22" s="280"/>
@@ -21727,7 +21649,7 @@
       </c>
       <c r="G23" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F23)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H23" s="21"/>
       <c r="J23" s="280"/>
@@ -21765,7 +21687,7 @@
       </c>
       <c r="G24" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F24)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H24" s="21"/>
       <c r="J24" s="280"/>
@@ -21809,7 +21731,7 @@
       </c>
       <c r="G25" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F25)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H25" s="21"/>
       <c r="J25" s="280"/>
@@ -21853,7 +21775,7 @@
       </c>
       <c r="G26" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F26)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H26" s="21"/>
       <c r="J26" s="280"/>
@@ -21897,7 +21819,7 @@
       </c>
       <c r="G27" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F27)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H27" s="21"/>
       <c r="J27" s="280"/>
@@ -21941,7 +21863,7 @@
       </c>
       <c r="G28" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F28)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H28" s="21"/>
       <c r="J28" s="280"/>
@@ -21985,7 +21907,7 @@
       </c>
       <c r="G29" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F29)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H29" s="21"/>
       <c r="J29" s="280"/>
@@ -22029,7 +21951,7 @@
       </c>
       <c r="G30" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F30)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H30" s="21"/>
       <c r="J30" s="280"/>
@@ -22073,7 +21995,7 @@
       </c>
       <c r="G31" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F31)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H31" s="21"/>
     </row>
@@ -22095,7 +22017,7 @@
       </c>
       <c r="G32" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F32)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H32" s="21"/>
     </row>
@@ -22117,7 +22039,7 @@
       </c>
       <c r="G33" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F33)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H33" s="21"/>
     </row>
@@ -22139,7 +22061,7 @@
       </c>
       <c r="G34" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F34)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H34" s="21"/>
     </row>
@@ -22161,7 +22083,7 @@
       </c>
       <c r="G35" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F35)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H35" s="21"/>
     </row>
@@ -22183,7 +22105,7 @@
       </c>
       <c r="G36" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F36)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H36" s="21"/>
     </row>
@@ -22205,7 +22127,7 @@
       </c>
       <c r="G37" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F37)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H37" s="21"/>
     </row>
@@ -22227,7 +22149,7 @@
       </c>
       <c r="G38" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F38)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H38" s="21"/>
     </row>
@@ -22249,7 +22171,7 @@
       </c>
       <c r="G39" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F39)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H39" s="21"/>
     </row>
@@ -22271,7 +22193,7 @@
       </c>
       <c r="G40" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F40)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H40" s="21"/>
     </row>
@@ -22293,7 +22215,7 @@
       </c>
       <c r="G41" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F41)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H41" s="21"/>
     </row>
@@ -22315,7 +22237,7 @@
       </c>
       <c r="G42" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F42)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H42" s="21"/>
     </row>
@@ -22337,7 +22259,7 @@
       </c>
       <c r="G43" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F43)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H43" s="21"/>
     </row>
@@ -22359,7 +22281,7 @@
       </c>
       <c r="G44" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F44)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H44" s="21"/>
     </row>
@@ -22381,7 +22303,7 @@
       </c>
       <c r="G45" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F45)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H45" s="21"/>
     </row>
@@ -22403,7 +22325,7 @@
       </c>
       <c r="G46" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F46)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H46" s="21"/>
     </row>
@@ -22425,7 +22347,7 @@
       </c>
       <c r="G47" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F47)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H47" s="21"/>
     </row>
@@ -22447,7 +22369,7 @@
       </c>
       <c r="G48" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F48)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H48" s="21"/>
     </row>
@@ -22469,7 +22391,7 @@
       </c>
       <c r="G49" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F49)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H49" s="21"/>
     </row>
@@ -22491,7 +22413,7 @@
       </c>
       <c r="G50" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F50)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H50" s="21"/>
     </row>
@@ -22513,7 +22435,7 @@
       </c>
       <c r="G51" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F51)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H51" s="21"/>
     </row>
@@ -22535,7 +22457,7 @@
       </c>
       <c r="G52" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F52)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H52" s="21"/>
     </row>
@@ -22557,7 +22479,7 @@
       </c>
       <c r="G53" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F53)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H53" s="21"/>
     </row>
@@ -22579,7 +22501,7 @@
       </c>
       <c r="G54" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F54)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H54" s="21"/>
     </row>
@@ -22601,7 +22523,7 @@
       </c>
       <c r="G55" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F55)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H55" s="21"/>
     </row>
@@ -22623,7 +22545,7 @@
       </c>
       <c r="G56" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F56)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H56" s="21"/>
     </row>
@@ -22645,7 +22567,7 @@
       </c>
       <c r="G57" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F57)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H57" s="21"/>
     </row>
@@ -22667,7 +22589,7 @@
       </c>
       <c r="G58" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F58)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H58" s="21"/>
     </row>
@@ -22689,7 +22611,7 @@
       </c>
       <c r="G59" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F59)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H59" s="21"/>
     </row>
@@ -22711,7 +22633,7 @@
       </c>
       <c r="G60" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F60)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H60" s="21"/>
     </row>
@@ -22733,7 +22655,7 @@
       </c>
       <c r="G61" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F61)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H61" s="21"/>
     </row>
@@ -22755,7 +22677,7 @@
       </c>
       <c r="G62" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F62)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H62" s="21"/>
     </row>
@@ -22777,7 +22699,7 @@
       </c>
       <c r="G63" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F63)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H63" s="21"/>
     </row>
@@ -22799,7 +22721,7 @@
       </c>
       <c r="G64" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F64)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H64" s="21"/>
     </row>
@@ -22821,7 +22743,7 @@
       </c>
       <c r="G65" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F65)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H65" s="21"/>
     </row>
@@ -22843,7 +22765,7 @@
       </c>
       <c r="G66" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F66)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H66" s="21"/>
     </row>
@@ -22955,7 +22877,8 @@
     <col min="19" max="19" width="6" style="395" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.140625" style="395" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.28515625" style="395" customWidth="1"/>
-    <col min="22" max="23" width="15.140625" style="395" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="395" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" style="395" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.140625" style="395" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="395" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" style="395" bestFit="1" customWidth="1"/>
@@ -23118,14 +23041,14 @@
       <c r="T5" s="380" t="s">
         <v>245</v>
       </c>
-      <c r="U5" s="381" t="str">
-        <f>_xll.RData(U6:U14,V5:W5,"RTFEED:IDN",,,V6)</f>
-        <v>Updated at 18:03:40</v>
+      <c r="U5" s="381" t="e">
+        <f ca="1">_xll.RData(U6:U14,V5:W5,"RTFEED:IDN",,,V6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="V5" s="381" t="s">
         <v>228</v>
       </c>
-      <c r="W5" s="462" t="s">
+      <c r="W5" s="459" t="s">
         <v>286</v>
       </c>
       <c r="X5" s="381" t="s">
@@ -23141,84 +23064,84 @@
     </row>
     <row r="6" spans="2:31" s="366" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="371"/>
-      <c r="C6" s="452" t="s">
+      <c r="C6" s="450" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="453">
+      <c r="D6" s="451">
         <v>0</v>
       </c>
-      <c r="E6" s="453" t="str">
+      <c r="E6" s="451" t="str">
         <f t="shared" ref="E6:E14" si="1">Calendar</f>
         <v>Australia</v>
       </c>
-      <c r="F6" s="453" t="s">
+      <c r="F6" s="451" t="s">
         <v>264</v>
       </c>
-      <c r="G6" s="454" t="str">
+      <c r="G6" s="452" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
         <v/>
       </c>
-      <c r="H6" s="454" t="str">
+      <c r="H6" s="452" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
         <v/>
       </c>
-      <c r="I6" s="454" t="str">
+      <c r="I6" s="452" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
         <v/>
       </c>
-      <c r="J6" s="453" t="b">
+      <c r="J6" s="451" t="b">
         <v>1</v>
       </c>
-      <c r="K6" s="453" t="s">
+      <c r="K6" s="451" t="s">
         <v>267</v>
       </c>
-      <c r="L6" s="453" t="s">
+      <c r="L6" s="451" t="s">
         <v>285</v>
       </c>
-      <c r="M6" s="455" t="str">
+      <c r="M6" s="453" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDON#0000</v>
-      </c>
-      <c r="N6" s="455" t="str">
+        <v>AUDON#0001</v>
+      </c>
+      <c r="N6" s="453" t="str">
         <f>_xll.qlOvernightIndex(L6,,D6,Currency,Calendar,K6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AONIA#0000</v>
-      </c>
-      <c r="O6" s="455" t="str">
+        <v>AONIA#0001</v>
+      </c>
+      <c r="O6" s="453" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C6&amp;"LastFixing_Quote",N6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWONLastFixing_Quote#0000</v>
-      </c>
-      <c r="P6" s="456"/>
+        <v>AudBBSWONLastFixing_Quote#0001</v>
+      </c>
+      <c r="P6" s="454"/>
       <c r="Q6" s="375"/>
       <c r="R6" s="375"/>
-      <c r="S6" s="457" t="str">
+      <c r="S6" s="455" t="str">
         <f t="shared" ref="S6:S14" si="2">C6</f>
         <v>ON</v>
       </c>
-      <c r="T6" s="458" t="str">
+      <c r="T6" s="456" t="str">
         <f>N6</f>
-        <v>AONIA#0000</v>
-      </c>
-      <c r="U6" s="459" t="str">
+        <v>AONIA#0001</v>
+      </c>
+      <c r="U6" s="457" t="str">
         <f>"AU"&amp;"CASH"&amp;"="&amp;"RBAA"</f>
         <v>AUCASH=RBAA</v>
       </c>
-      <c r="V6" s="459">
+      <c r="V6" s="457">
         <v>41807</v>
       </c>
-      <c r="W6" s="460">
+      <c r="W6" s="458">
         <v>2.5</v>
       </c>
-      <c r="X6" s="459" t="b">
+      <c r="X6" s="457" t="b">
         <f t="shared" ref="X6:X14" si="3">IF(AND(ISNUMBER($W6),$W6&lt;&gt;0%),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="Y6" s="459" t="b">
+      <c r="Y6" s="457" t="b">
         <f>IF(W6,_xll.qlIndexAddFixings(T6,V6,W6/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="Z6" s="461" t="e">
+      <c r="Z6" s="482">
         <f>_xll.qlQuoteValue(O6)</f>
-        <v>#NUM!</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AA6" s="376"/>
     </row>
@@ -23234,7 +23157,7 @@
         <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
-      <c r="F7" s="437" t="s">
+      <c r="F7" s="435" t="s">
         <v>264</v>
       </c>
       <c r="G7" s="378" t="str">
@@ -23261,15 +23184,15 @@
       </c>
       <c r="M7" s="374" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1M#0000</v>
+        <v>AUD1M#0001</v>
       </c>
       <c r="N7" s="374" t="str">
-        <f>_xll.qlIborIndex(L7,FamilyName,C7,D7,Currency,E7,F7,J7,K7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1M#0000</v>
+        <f>_xll.qlIborIndex(L7,FamilyName,C7,D7,Currency,E7,F7,J7,K7,M7,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>AudBBSW1M#0002</v>
       </c>
       <c r="O7" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C7&amp;"LastFixing_Quote",N7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1MLastFixing_Quote#0000</v>
+        <v>AudBBSW1MLastFixing_Quote#0002</v>
       </c>
       <c r="P7" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N7)</f>
@@ -23277,13 +23200,13 @@
       </c>
       <c r="Q7" s="375"/>
       <c r="R7" s="375"/>
-      <c r="S7" s="434" t="str">
+      <c r="S7" s="433" t="str">
         <f t="shared" si="2"/>
         <v>1M</v>
       </c>
       <c r="T7" s="389" t="str">
         <f>N7</f>
-        <v>AudBBSW1M#0000</v>
+        <v>AudBBSW1M#0002</v>
       </c>
       <c r="U7" s="387" t="str">
         <f t="shared" ref="U7:U13" si="5">"AU"&amp;S7&amp;"BBC"&amp;"="&amp;"ICAA"</f>
@@ -23303,7 +23226,7 @@
         <f>IF(W7,_xll.qlIndexAddFixings(T7,V7,W7/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="Z7" s="436">
+      <c r="Z7" s="483">
         <f>_xll.qlQuoteValue(O7)</f>
         <v>2.6600000000000002E-2</v>
       </c>
@@ -23321,7 +23244,7 @@
         <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
-      <c r="F8" s="437" t="s">
+      <c r="F8" s="435" t="s">
         <v>264</v>
       </c>
       <c r="G8" s="378" t="str">
@@ -23348,12 +23271,12 @@
       </c>
       <c r="M8" s="374"/>
       <c r="N8" s="374" t="str">
-        <f>_xll.qlIborIndex(L8,FamilyName,C8,D8,Currency,E8,F8,J8,K8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW2M#0000</v>
+        <f>_xll.qlIborIndex(L8,FamilyName,C8,D8,Currency,E8,F8,J8,K8,M8,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>AudBBSW2M#0005</v>
       </c>
       <c r="O8" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C8&amp;"LastFixing_Quote",N8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW2MLastFixing_Quote#0000</v>
+        <v>AudBBSW2MLastFixing_Quote#0005</v>
       </c>
       <c r="P8" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N8)</f>
@@ -23361,13 +23284,13 @@
       </c>
       <c r="Q8" s="375"/>
       <c r="R8" s="375"/>
-      <c r="S8" s="434" t="str">
+      <c r="S8" s="433" t="str">
         <f t="shared" si="2"/>
         <v>2M</v>
       </c>
       <c r="T8" s="389" t="str">
         <f t="shared" ref="T8:T14" si="6">N8</f>
-        <v>AudBBSW2M#0000</v>
+        <v>AudBBSW2M#0005</v>
       </c>
       <c r="U8" s="387" t="str">
         <f t="shared" si="5"/>
@@ -23387,7 +23310,7 @@
         <f>IF(W8,_xll.qlIndexAddFixings(T8,V8,W8/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="Z8" s="436">
+      <c r="Z8" s="483">
         <f>_xll.qlQuoteValue(O8)</f>
         <v>2.6699999999999998E-2</v>
       </c>
@@ -23405,7 +23328,7 @@
         <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
-      <c r="F9" s="437" t="s">
+      <c r="F9" s="435" t="s">
         <v>264</v>
       </c>
       <c r="G9" s="378" t="str">
@@ -23432,15 +23355,15 @@
       </c>
       <c r="M9" s="374" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3M#0000</v>
+        <v>AUD3M#0001</v>
       </c>
       <c r="N9" s="374" t="str">
-        <f>_xll.qlIborIndex(L9,FamilyName,C9,D9,Currency,E9,F9,J9,K9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW3M#0000</v>
+        <f>_xll.qlIborIndex(L9,FamilyName,C9,D9,Currency,E9,F9,J9,K9,M9,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>AudBBSW3M#0019</v>
       </c>
       <c r="O9" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C9&amp;"LastFixing_Quote",N9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW3MLastFixing_Quote#0000</v>
+        <v>AudBBSW3MLastFixing_Quote#0005</v>
       </c>
       <c r="P9" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N9)</f>
@@ -23448,13 +23371,13 @@
       </c>
       <c r="Q9" s="375"/>
       <c r="R9" s="375"/>
-      <c r="S9" s="434" t="str">
+      <c r="S9" s="433" t="str">
         <f t="shared" si="2"/>
         <v>3M</v>
       </c>
       <c r="T9" s="389" t="str">
         <f t="shared" si="6"/>
-        <v>AudBBSW3M#0000</v>
+        <v>AudBBSW3M#0019</v>
       </c>
       <c r="U9" s="387" t="str">
         <f t="shared" si="5"/>
@@ -23474,9 +23397,9 @@
         <f>IF(W9,_xll.qlIndexAddFixings(T9,V9,W9/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="Z9" s="436" t="e">
+      <c r="Z9" s="483">
         <f>_xll.qlQuoteValue(O9)</f>
-        <v>#NUM!</v>
+        <v>2.69E-2</v>
       </c>
       <c r="AA9" s="376"/>
     </row>
@@ -23492,7 +23415,7 @@
         <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
-      <c r="F10" s="437" t="s">
+      <c r="F10" s="435" t="s">
         <v>264</v>
       </c>
       <c r="G10" s="378" t="str">
@@ -23519,12 +23442,12 @@
       </c>
       <c r="M10" s="374"/>
       <c r="N10" s="374" t="str">
-        <f>_xll.qlIborIndex(L10,FamilyName,C10,D10,Currency,E10,F10,J10,K10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW4M#0000</v>
+        <f>_xll.qlIborIndex(L10,FamilyName,C10,D10,Currency,E10,F10,J10,K10,M10,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>AudBBSW4M#0004</v>
       </c>
       <c r="O10" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C10&amp;"LastFixing_Quote",N10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW4MLastFixing_Quote#0000</v>
+        <v>AudBBSW4MLastFixing_Quote#0004</v>
       </c>
       <c r="P10" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N10)</f>
@@ -23532,13 +23455,13 @@
       </c>
       <c r="Q10" s="375"/>
       <c r="R10" s="375"/>
-      <c r="S10" s="434" t="str">
+      <c r="S10" s="433" t="str">
         <f t="shared" si="2"/>
         <v>4M</v>
       </c>
       <c r="T10" s="389" t="str">
         <f t="shared" si="6"/>
-        <v>AudBBSW4M#0000</v>
+        <v>AudBBSW4M#0004</v>
       </c>
       <c r="U10" s="387" t="str">
         <f t="shared" si="5"/>
@@ -23558,7 +23481,7 @@
         <f>IF(W10,_xll.qlIndexAddFixings(T10,V10,W10/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="Z10" s="436">
+      <c r="Z10" s="483">
         <f>_xll.qlQuoteValue(O10)</f>
         <v>2.7000000000000003E-2</v>
       </c>
@@ -23576,7 +23499,7 @@
         <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
-      <c r="F11" s="437" t="s">
+      <c r="F11" s="435" t="s">
         <v>264</v>
       </c>
       <c r="G11" s="378" t="str">
@@ -23603,12 +23526,12 @@
       </c>
       <c r="M11" s="374"/>
       <c r="N11" s="374" t="str">
-        <f>_xll.qlIborIndex(L11,FamilyName,C11,D11,Currency,E11,F11,J11,K11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW5M#0000</v>
+        <f>_xll.qlIborIndex(L11,FamilyName,C11,D11,Currency,E11,F11,J11,K11,M11,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>AudBBSW5M#0004</v>
       </c>
       <c r="O11" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C11&amp;"LastFixing_Quote",N11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW5MLastFixing_Quote#0000</v>
+        <v>AudBBSW5MLastFixing_Quote#0004</v>
       </c>
       <c r="P11" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N11)</f>
@@ -23616,13 +23539,13 @@
       </c>
       <c r="Q11" s="375"/>
       <c r="R11" s="375"/>
-      <c r="S11" s="434" t="str">
+      <c r="S11" s="433" t="str">
         <f t="shared" si="2"/>
         <v>5M</v>
       </c>
       <c r="T11" s="389" t="str">
         <f t="shared" si="6"/>
-        <v>AudBBSW5M#0000</v>
+        <v>AudBBSW5M#0004</v>
       </c>
       <c r="U11" s="387" t="str">
         <f t="shared" si="5"/>
@@ -23642,7 +23565,7 @@
         <f>IF(W11,_xll.qlIndexAddFixings(T11,V11,W11/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="Z11" s="436">
+      <c r="Z11" s="483">
         <f>_xll.qlQuoteValue(O11)</f>
         <v>2.7000000000000003E-2</v>
       </c>
@@ -23660,7 +23583,7 @@
         <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
-      <c r="F12" s="437" t="s">
+      <c r="F12" s="435" t="s">
         <v>264</v>
       </c>
       <c r="G12" s="378" t="str">
@@ -23687,15 +23610,15 @@
       </c>
       <c r="M12" s="374" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD6M#0000</v>
+        <v>AUD6M#0001</v>
       </c>
       <c r="N12" s="374" t="str">
-        <f>_xll.qlIborIndex(L12,FamilyName,C12,D12,Currency,E12,F12,J12,K12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW6M#0000</v>
+        <f>_xll.qlIborIndex(L12,FamilyName,C12,D12,Currency,E12,F12,J12,K12,M12,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>AudBBSW6M#0004</v>
       </c>
       <c r="O12" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C12&amp;"LastFixing_Quote",N12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW6MLastFixing_Quote#0000</v>
+        <v>AudBBSW6MLastFixing_Quote#0004</v>
       </c>
       <c r="P12" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N12)</f>
@@ -23703,13 +23626,13 @@
       </c>
       <c r="Q12" s="375"/>
       <c r="R12" s="375"/>
-      <c r="S12" s="434" t="str">
+      <c r="S12" s="433" t="str">
         <f t="shared" si="2"/>
         <v>6M</v>
       </c>
       <c r="T12" s="389" t="str">
         <f t="shared" si="6"/>
-        <v>AudBBSW6M#0000</v>
+        <v>AudBBSW6M#0004</v>
       </c>
       <c r="U12" s="387" t="str">
         <f t="shared" si="5"/>
@@ -23729,7 +23652,7 @@
         <f>IF(W12,_xll.qlIndexAddFixings(T12,V12,W12/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="Z12" s="436">
+      <c r="Z12" s="483">
         <f>_xll.qlQuoteValue(O12)</f>
         <v>2.7099999999999999E-2</v>
       </c>
@@ -23747,7 +23670,7 @@
         <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
-      <c r="F13" s="437" t="s">
+      <c r="F13" s="435" t="s">
         <v>264</v>
       </c>
       <c r="G13" s="378" t="str">
@@ -23774,12 +23697,12 @@
       </c>
       <c r="M13" s="374"/>
       <c r="N13" s="374" t="str">
-        <f>_xll.qlIborIndex(L13,FamilyName,C13,D13,Currency,E13,F13,J13,K13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW9M#0000</v>
+        <f>_xll.qlIborIndex(L13,FamilyName,C13,D13,Currency,E13,F13,J13,K13,M13,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>AudBBSW9M#0004</v>
       </c>
       <c r="O13" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C13&amp;"LastFixing_Quote",N13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW9MLastFixing_Quote#0000</v>
+        <v>AudBBSW9MLastFixing_Quote#0004</v>
       </c>
       <c r="P13" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N13)</f>
@@ -23787,13 +23710,13 @@
       </c>
       <c r="Q13" s="375"/>
       <c r="R13" s="375"/>
-      <c r="S13" s="434" t="str">
+      <c r="S13" s="433" t="str">
         <f t="shared" si="2"/>
         <v>9M</v>
       </c>
       <c r="T13" s="389" t="str">
         <f t="shared" si="6"/>
-        <v>AudBBSW9M#0000</v>
+        <v>AudBBSW9M#0004</v>
       </c>
       <c r="U13" s="387" t="str">
         <f t="shared" si="5"/>
@@ -23813,7 +23736,7 @@
         <f>IF(W13,_xll.qlIndexAddFixings(T13,V13,W13/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="Z13" s="436">
+      <c r="Z13" s="483">
         <f>_xll.qlQuoteValue(O13)</f>
         <v>2.7300000000000001E-2</v>
       </c>
@@ -23831,7 +23754,7 @@
         <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
-      <c r="F14" s="437" t="s">
+      <c r="F14" s="435" t="s">
         <v>264</v>
       </c>
       <c r="G14" s="378" t="str">
@@ -23858,12 +23781,12 @@
       </c>
       <c r="M14" s="374"/>
       <c r="N14" s="374" t="str">
-        <f>_xll.qlIborIndex(L14,FamilyName,C14,D14,Currency,E14,F14,J14,K14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1Y#0000</v>
+        <f>_xll.qlIborIndex(L14,FamilyName,C14,D14,Currency,E14,F14,J14,K14,M14,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>AudBBSW1Y#0004</v>
       </c>
       <c r="O14" s="374" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C14&amp;"LastFixing_Quote",N14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1YLastFixing_Quote#0000</v>
+        <v>AudBBSW1YLastFixing_Quote#0004</v>
       </c>
       <c r="P14" s="374" t="str">
         <f>_xll.ohRangeRetrieveError(N14)</f>
@@ -23871,13 +23794,13 @@
       </c>
       <c r="Q14" s="375"/>
       <c r="R14" s="375"/>
-      <c r="S14" s="435" t="str">
+      <c r="S14" s="434" t="str">
         <f t="shared" si="2"/>
         <v>1Y</v>
       </c>
       <c r="T14" s="430" t="str">
         <f t="shared" si="6"/>
-        <v>AudBBSW1Y#0000</v>
+        <v>AudBBSW1Y#0004</v>
       </c>
       <c r="U14" s="431" t="str">
         <f>"AU"&amp;S14&amp;"BBC"&amp;"="&amp;"ICAA"</f>
@@ -23897,7 +23820,7 @@
         <f>IF(W14,_xll.qlIndexAddFixings(T14,V14,W14/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="Z14" s="433">
+      <c r="Z14" s="484">
         <f>_xll.qlQuoteValue(O14)</f>
         <v>2.7400000000000001E-2</v>
       </c>
@@ -24021,8 +23944,8 @@
         <v>90</v>
       </c>
       <c r="F5" s="414" t="str">
-        <f>BBSW!N9</f>
-        <v>AudBBSW3M#0000</v>
+        <f>Currency&amp;FamilyName&amp;"3M"</f>
+        <v>AUDBBSW3M</v>
       </c>
       <c r="G5" s="375"/>
       <c r="H5" s="376"/>
@@ -24069,8 +23992,8 @@
         <v>AudBBSWSwapForBasisCalc1Y</v>
       </c>
       <c r="F8" s="420" t="str">
-        <f>_xll.qlSwapIndex($E8,FixingType,C8,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc1Y#0000</v>
+        <f>_xll.qlSwapIndex($E8,FixingType,C8,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!N9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>AudBBSWSwapForBasisCalc1Y#0041</v>
       </c>
       <c r="G8" s="417" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -24092,7 +24015,7 @@
       </c>
       <c r="F9" s="420" t="str">
         <f>_xll.qlSwapIndex($E9,FixingType,C9,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc2Y#0000</v>
+        <v>AudBBSWSwapForBasisCalc2Y#0002</v>
       </c>
       <c r="G9" s="417" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -24114,7 +24037,7 @@
       </c>
       <c r="F10" s="420" t="str">
         <f>_xll.qlSwapIndex($E10,FixingType,C10,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc3Y#0000</v>
+        <v>AudBBSWSwapForBasisCalc3Y#0002</v>
       </c>
       <c r="G10" s="417" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -24136,7 +24059,7 @@
       </c>
       <c r="F11" s="420" t="str">
         <f>_xll.qlSwapIndex($E11,FixingType,C11,1,Currency,Calendar,"3M","mf","act/365 (fixed)",$F$5,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc4Y#0000</v>
+        <v>AudBBSWSwapForBasisCalc4Y#0002</v>
       </c>
       <c r="G11" s="417" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -24145,13 +24068,13 @@
       <c r="H11" s="421"/>
     </row>
     <row r="12" spans="2:8" s="366" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="476"/>
-      <c r="C12" s="477"/>
-      <c r="D12" s="477"/>
-      <c r="E12" s="477"/>
-      <c r="F12" s="477"/>
-      <c r="G12" s="477"/>
-      <c r="H12" s="478"/>
+      <c r="B12" s="473"/>
+      <c r="C12" s="474"/>
+      <c r="D12" s="474"/>
+      <c r="E12" s="474"/>
+      <c r="F12" s="474"/>
+      <c r="G12" s="474"/>
+      <c r="H12" s="475"/>
     </row>
     <row r="13" spans="2:8" s="366" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="422"/>
@@ -24811,9 +24734,9 @@
       <c r="L4" s="87"/>
       <c r="M4" s="87"/>
       <c r="N4" s="87"/>
-      <c r="O4" s="230" t="str">
-        <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 18:03:40</v>
+      <c r="O4" s="230" t="e">
+        <f ca="1">_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P4" s="227" t="s">
         <v>163</v>
@@ -24858,7 +24781,7 @@
       </c>
       <c r="F5" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B5&amp;$C5&amp;$D5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOISSW_Quote#0000</v>
+        <v>AUDOISSW_Quote#0001</v>
       </c>
       <c r="G5" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -24906,9 +24829,9 @@
         <f t="array" ref="X5:X58">QuoteLive</f>
         <v>2.5</v>
       </c>
-      <c r="Y5" s="165">
+      <c r="Y5" s="165" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F5,X5/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z5" s="136"/>
     </row>
@@ -24927,7 +24850,7 @@
       </c>
       <c r="F6" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B6&amp;$C6&amp;$D6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS2W_Quote#0000</v>
+        <v>AUDOIS2W_Quote#0001</v>
       </c>
       <c r="G6" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -24994,7 +24917,7 @@
       </c>
       <c r="F7" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B7&amp;$C7&amp;$D7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS3W_Quote#0000</v>
+        <v>AUDOIS3W_Quote#0001</v>
       </c>
       <c r="G7" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -25061,7 +24984,7 @@
       </c>
       <c r="F8" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B8&amp;$C8&amp;$D8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS1M_Quote#0000</v>
+        <v>AUDOIS1M_Quote#0001</v>
       </c>
       <c r="G8" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -25107,9 +25030,9 @@
       <c r="X8" s="209">
         <v>2.4990000000000001</v>
       </c>
-      <c r="Y8" s="146">
+      <c r="Y8" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F8,X8/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z8" s="136"/>
       <c r="AB8"/>
@@ -25129,7 +25052,7 @@
       </c>
       <c r="F9" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B9&amp;$C9&amp;$D9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS2M_Quote#0000</v>
+        <v>AUDOIS2M_Quote#0001</v>
       </c>
       <c r="G9" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -25175,9 +25098,9 @@
       <c r="X9" s="209">
         <v>2.4975000000000001</v>
       </c>
-      <c r="Y9" s="146">
+      <c r="Y9" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F9,X9/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z9" s="136"/>
     </row>
@@ -25196,7 +25119,7 @@
       </c>
       <c r="F10" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B10&amp;$C10&amp;$D10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS3M_Quote#0000</v>
+        <v>AUDOIS3M_Quote#0001</v>
       </c>
       <c r="G10" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -25242,9 +25165,9 @@
       <c r="X10" s="209">
         <v>2.4950000000000001</v>
       </c>
-      <c r="Y10" s="146">
+      <c r="Y10" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,X10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z10" s="136"/>
     </row>
@@ -25263,7 +25186,7 @@
       </c>
       <c r="F11" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B11&amp;$C11&amp;$D11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS4M_Quote#0000</v>
+        <v>AUDOIS4M_Quote#0001</v>
       </c>
       <c r="G11" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -25309,9 +25232,9 @@
       <c r="X11" s="209">
         <v>2.496</v>
       </c>
-      <c r="Y11" s="146">
+      <c r="Y11" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,X11/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z11" s="136"/>
     </row>
@@ -25330,7 +25253,7 @@
       </c>
       <c r="F12" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B12&amp;$C12&amp;$D12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS5M_Quote#0000</v>
+        <v>AUDOIS5M_Quote#0001</v>
       </c>
       <c r="G12" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -25376,9 +25299,9 @@
       <c r="X12" s="209">
         <v>2.4950000000000001</v>
       </c>
-      <c r="Y12" s="146">
+      <c r="Y12" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,X12/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z12" s="136"/>
     </row>
@@ -25397,7 +25320,7 @@
       </c>
       <c r="F13" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B13&amp;$C13&amp;$D13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS6M_Quote#0000</v>
+        <v>AUDOIS6M_Quote#0001</v>
       </c>
       <c r="G13" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -25443,9 +25366,9 @@
       <c r="X13" s="209">
         <v>2.4925000000000002</v>
       </c>
-      <c r="Y13" s="146">
+      <c r="Y13" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F13,X13/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z13" s="136"/>
     </row>
@@ -25464,7 +25387,7 @@
       </c>
       <c r="F14" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B14&amp;$C14&amp;$D14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS7M_Quote#0000</v>
+        <v>AUDOIS7M_Quote#0001</v>
       </c>
       <c r="G14" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -25531,7 +25454,7 @@
       </c>
       <c r="F15" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B15&amp;$C15&amp;$D15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS8M_Quote#0000</v>
+        <v>AUDOIS8M_Quote#0001</v>
       </c>
       <c r="G15" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -25598,7 +25521,7 @@
       </c>
       <c r="F16" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B16&amp;$C16&amp;$D16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS9M_Quote#0000</v>
+        <v>AUDOIS9M_Quote#0001</v>
       </c>
       <c r="G16" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -25644,9 +25567,9 @@
       <c r="X16" s="209">
         <v>2.5015000000000001</v>
       </c>
-      <c r="Y16" s="146">
+      <c r="Y16" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F16,X16/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z16" s="136"/>
     </row>
@@ -25665,7 +25588,7 @@
       </c>
       <c r="F17" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B17&amp;$C17&amp;$D17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS10M_Quote#0000</v>
+        <v>AUDOIS10M_Quote#0001</v>
       </c>
       <c r="G17" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -25732,7 +25655,7 @@
       </c>
       <c r="F18" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B18&amp;$C18&amp;$D18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS11M_Quote#0000</v>
+        <v>AUDOIS11M_Quote#0001</v>
       </c>
       <c r="G18" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -25799,7 +25722,7 @@
       </c>
       <c r="F19" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B19&amp;$C19&amp;$D19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS12M_Quote#0000</v>
+        <v>AUDOIS12M_Quote#0001</v>
       </c>
       <c r="G19" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -25845,9 +25768,9 @@
       <c r="X19" s="209">
         <v>2.52</v>
       </c>
-      <c r="Y19" s="146">
+      <c r="Y19" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F19,X19/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z19" s="136"/>
     </row>
@@ -25866,7 +25789,7 @@
       </c>
       <c r="F20" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B20&amp;$C20&amp;$D20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS13M_Quote#0000</v>
+        <v>AUDOIS13M_Quote#0001</v>
       </c>
       <c r="G20" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -25933,7 +25856,7 @@
       </c>
       <c r="F21" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B21&amp;$C21&amp;$D21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS14M_Quote#0000</v>
+        <v>AUDOIS14M_Quote#0001</v>
       </c>
       <c r="G21" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -26000,7 +25923,7 @@
       </c>
       <c r="F22" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B22&amp;$C22&amp;$D22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS15M_Quote#0000</v>
+        <v>AUDOIS15M_Quote#0001</v>
       </c>
       <c r="G22" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -26067,7 +25990,7 @@
       </c>
       <c r="F23" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B23&amp;$C23&amp;$D23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS16M_Quote#0000</v>
+        <v>AUDOIS16M_Quote#0001</v>
       </c>
       <c r="G23" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -26134,7 +26057,7 @@
       </c>
       <c r="F24" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B24&amp;$C24&amp;$D24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS17M_Quote#0000</v>
+        <v>AUDOIS17M_Quote#0001</v>
       </c>
       <c r="G24" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -26201,7 +26124,7 @@
       </c>
       <c r="F25" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B25&amp;$C25&amp;$D25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS18M_Quote#0000</v>
+        <v>AUDOIS18M_Quote#0001</v>
       </c>
       <c r="G25" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -26247,9 +26170,9 @@
       <c r="X25" s="209">
         <v>2.59</v>
       </c>
-      <c r="Y25" s="146">
+      <c r="Y25" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F25,X25/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z25" s="136"/>
     </row>
@@ -26268,7 +26191,7 @@
       </c>
       <c r="F26" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B26&amp;$C26&amp;$D26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS19M_Quote#0000</v>
+        <v>AUDOIS19M_Quote#0001</v>
       </c>
       <c r="G26" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -26335,7 +26258,7 @@
       </c>
       <c r="F27" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B27&amp;$C27&amp;$D27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS20M_Quote#0000</v>
+        <v>AUDOIS20M_Quote#0001</v>
       </c>
       <c r="G27" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -26402,7 +26325,7 @@
       </c>
       <c r="F28" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B28&amp;$C28&amp;$D28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS21M_Quote#0000</v>
+        <v>AUDOIS21M_Quote#0001</v>
       </c>
       <c r="G28" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -26469,7 +26392,7 @@
       </c>
       <c r="F29" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B29&amp;$C29&amp;$D29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS22M_Quote#0000</v>
+        <v>AUDOIS22M_Quote#0001</v>
       </c>
       <c r="G29" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -26536,7 +26459,7 @@
       </c>
       <c r="F30" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B30&amp;$C30&amp;$D30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS23M_Quote#0000</v>
+        <v>AUDOIS23M_Quote#0001</v>
       </c>
       <c r="G30" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -26603,7 +26526,7 @@
       </c>
       <c r="F31" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B31&amp;$C31&amp;$D31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS2Y_Quote#0000</v>
+        <v>AUDOIS2Y_Quote#0001</v>
       </c>
       <c r="G31" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -26649,9 +26572,9 @@
       <c r="X31" s="209">
         <v>2.6850000000000001</v>
       </c>
-      <c r="Y31" s="146">
+      <c r="Y31" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z31" s="136"/>
     </row>
@@ -26670,7 +26593,7 @@
       </c>
       <c r="F32" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B32&amp;$C32&amp;$D32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS27M_Quote#0000</v>
+        <v>AUDOIS27M_Quote#0001</v>
       </c>
       <c r="G32" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -26737,7 +26660,7 @@
       </c>
       <c r="F33" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B33&amp;$C33&amp;$D33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS30M_Quote#0000</v>
+        <v>AUDOIS30M_Quote#0001</v>
       </c>
       <c r="G33" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -26804,7 +26727,7 @@
       </c>
       <c r="F34" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B34&amp;$C34&amp;$D34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS33M_Quote#0000</v>
+        <v>AUDOIS33M_Quote#0001</v>
       </c>
       <c r="G34" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -26871,7 +26794,7 @@
       </c>
       <c r="F35" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B35&amp;$C35&amp;$D35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS3Y_Quote#0000</v>
+        <v>AUDOIS3Y_Quote#0001</v>
       </c>
       <c r="G35" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -26917,9 +26840,9 @@
       <c r="X35" s="209">
         <v>2.895</v>
       </c>
-      <c r="Y35" s="146">
+      <c r="Y35" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z35" s="136"/>
     </row>
@@ -26938,7 +26861,7 @@
       </c>
       <c r="F36" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B36&amp;$C36&amp;$D36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS39M_Quote#0000</v>
+        <v>AUDOIS39M_Quote#0001</v>
       </c>
       <c r="G36" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -27005,7 +26928,7 @@
       </c>
       <c r="F37" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B37&amp;$C37&amp;$D37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS42M_Quote#0000</v>
+        <v>AUDOIS42M_Quote#0001</v>
       </c>
       <c r="G37" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -27072,7 +26995,7 @@
       </c>
       <c r="F38" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B38&amp;$C38&amp;$D38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS45M_Quote#0000</v>
+        <v>AUDOIS45M_Quote#0001</v>
       </c>
       <c r="G38" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -27139,7 +27062,7 @@
       </c>
       <c r="F39" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B39&amp;$C39&amp;$D39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS4Y_Quote#0000</v>
+        <v>AUDOIS4Y_Quote#0001</v>
       </c>
       <c r="G39" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -27206,7 +27129,7 @@
       </c>
       <c r="F40" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B40&amp;$C40&amp;$D40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS51M_Quote#0000</v>
+        <v>AUDOIS51M_Quote#0001</v>
       </c>
       <c r="G40" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -27273,7 +27196,7 @@
       </c>
       <c r="F41" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B41&amp;$C41&amp;$D41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS54M_Quote#0000</v>
+        <v>AUDOIS54M_Quote#0001</v>
       </c>
       <c r="G41" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -27340,7 +27263,7 @@
       </c>
       <c r="F42" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B42&amp;$C42&amp;$D42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS57M_Quote#0000</v>
+        <v>AUDOIS57M_Quote#0001</v>
       </c>
       <c r="G42" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -27407,7 +27330,7 @@
       </c>
       <c r="F43" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B43&amp;$C43&amp;$D43&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS5Y_Quote#0000</v>
+        <v>AUDOIS5Y_Quote#0001</v>
       </c>
       <c r="G43" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -27474,7 +27397,7 @@
       </c>
       <c r="F44" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B44&amp;$C44&amp;$D44&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS6Y_Quote#0000</v>
+        <v>AUDOIS6Y_Quote#0001</v>
       </c>
       <c r="G44" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -27541,7 +27464,7 @@
       </c>
       <c r="F45" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B45&amp;$C45&amp;$D45&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS7Y_Quote#0000</v>
+        <v>AUDOIS7Y_Quote#0001</v>
       </c>
       <c r="G45" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -27608,7 +27531,7 @@
       </c>
       <c r="F46" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B46&amp;$C46&amp;$D46&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS8Y_Quote#0000</v>
+        <v>AUDOIS8Y_Quote#0001</v>
       </c>
       <c r="G46" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -27675,7 +27598,7 @@
       </c>
       <c r="F47" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B47&amp;$C47&amp;$D47&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS9Y_Quote#0000</v>
+        <v>AUDOIS9Y_Quote#0001</v>
       </c>
       <c r="G47" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -27742,7 +27665,7 @@
       </c>
       <c r="F48" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B48&amp;$C48&amp;$D48&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS10Y_Quote#0000</v>
+        <v>AUDOIS10Y_Quote#0001</v>
       </c>
       <c r="G48" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -27809,7 +27732,7 @@
       </c>
       <c r="F49" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B49&amp;$C49&amp;$D49&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS12Y_Quote#0000</v>
+        <v>AUDOIS12Y_Quote#0001</v>
       </c>
       <c r="G49" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -27876,7 +27799,7 @@
       </c>
       <c r="F50" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B50&amp;$C50&amp;$D50&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS15Y_Quote#0000</v>
+        <v>AUDOIS15Y_Quote#0001</v>
       </c>
       <c r="G50" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -27943,7 +27866,7 @@
       </c>
       <c r="F51" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B51&amp;$C51&amp;$D51&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS20Y_Quote#0000</v>
+        <v>AUDOIS20Y_Quote#0001</v>
       </c>
       <c r="G51" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -28010,7 +27933,7 @@
       </c>
       <c r="F52" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B52&amp;$C52&amp;$D52&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS25Y_Quote#0000</v>
+        <v>AUDOIS25Y_Quote#0001</v>
       </c>
       <c r="G52" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -28077,7 +28000,7 @@
       </c>
       <c r="F53" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B53&amp;$C53&amp;$D53&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS27Y_Quote#0000</v>
+        <v>AUDOIS27Y_Quote#0001</v>
       </c>
       <c r="G53" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -28144,7 +28067,7 @@
       </c>
       <c r="F54" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B54&amp;$C54&amp;$D54&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS30Y_Quote#0000</v>
+        <v>AUDOIS30Y_Quote#0001</v>
       </c>
       <c r="G54" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -28211,7 +28134,7 @@
       </c>
       <c r="F55" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B55&amp;$C55&amp;$D55&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS35Y_Quote#0000</v>
+        <v>AUDOIS35Y_Quote#0001</v>
       </c>
       <c r="G55" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -28278,7 +28201,7 @@
       </c>
       <c r="F56" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B56&amp;$C56&amp;$D56&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS40Y_Quote#0000</v>
+        <v>AUDOIS40Y_Quote#0001</v>
       </c>
       <c r="G56" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -28345,7 +28268,7 @@
       </c>
       <c r="F57" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B57&amp;$C57&amp;$D57&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS45Y_Quote#0000</v>
+        <v>AUDOIS45Y_Quote#0001</v>
       </c>
       <c r="G57" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -28412,7 +28335,7 @@
       </c>
       <c r="F58" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B58&amp;$C58&amp;$D58&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS50Y_Quote#0000</v>
+        <v>AUDOIS50Y_Quote#0001</v>
       </c>
       <c r="G58" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -28748,9 +28671,9 @@
       <c r="L4" s="87"/>
       <c r="M4" s="87"/>
       <c r="N4" s="87"/>
-      <c r="O4" s="230" t="str">
-        <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 18:03:41</v>
+      <c r="O4" s="230" t="e">
+        <f ca="1">_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P4" s="227" t="s">
         <v>163</v>
@@ -28797,7 +28720,7 @@
       </c>
       <c r="F5" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B5&amp;$C5&amp;$D5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOISSW_Quote#0000</v>
+        <v>AUDMTOISSW_Quote#0001</v>
       </c>
       <c r="G5" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -28870,7 +28793,7 @@
       </c>
       <c r="F6" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B6&amp;$C6&amp;$D6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS2W_Quote#0000</v>
+        <v>AUDMTOIS2W_Quote#0001</v>
       </c>
       <c r="G6" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -28941,7 +28864,7 @@
       </c>
       <c r="F7" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B7&amp;$C7&amp;$D7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS3W_Quote#0000</v>
+        <v>AUDMTOIS3W_Quote#0001</v>
       </c>
       <c r="G7" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -29012,7 +28935,7 @@
       </c>
       <c r="F8" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B8&amp;$C8&amp;$D8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS1M_Quote#0000</v>
+        <v>AUDMTOIS1M_Quote#0001</v>
       </c>
       <c r="G8" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -29083,7 +29006,7 @@
       </c>
       <c r="F9" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B9&amp;$C9&amp;$D9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS2M_Quote#0000</v>
+        <v>AUDMTOIS2M_Quote#0001</v>
       </c>
       <c r="G9" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -29154,7 +29077,7 @@
       </c>
       <c r="F10" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B10&amp;$C10&amp;$D10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS3M_Quote#0000</v>
+        <v>AUDMTOIS3M_Quote#0001</v>
       </c>
       <c r="G10" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -29225,7 +29148,7 @@
       </c>
       <c r="F11" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B11&amp;$C11&amp;$D11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS4M_Quote#0000</v>
+        <v>AUDMTOIS4M_Quote#0001</v>
       </c>
       <c r="G11" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -29296,7 +29219,7 @@
       </c>
       <c r="F12" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B12&amp;$C12&amp;$D12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS5M_Quote#0000</v>
+        <v>AUDMTOIS5M_Quote#0001</v>
       </c>
       <c r="G12" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -29367,7 +29290,7 @@
       </c>
       <c r="F13" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B13&amp;$C13&amp;$D13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS6M_Quote#0000</v>
+        <v>AUDMTOIS6M_Quote#0001</v>
       </c>
       <c r="G13" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -29438,7 +29361,7 @@
       </c>
       <c r="F14" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B14&amp;$C14&amp;$D14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS7M_Quote#0000</v>
+        <v>AUDMTOIS7M_Quote#0001</v>
       </c>
       <c r="G14" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -29509,7 +29432,7 @@
       </c>
       <c r="F15" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B15&amp;$C15&amp;$D15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS8M_Quote#0000</v>
+        <v>AUDMTOIS8M_Quote#0001</v>
       </c>
       <c r="G15" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -29580,7 +29503,7 @@
       </c>
       <c r="F16" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B16&amp;$C16&amp;$D16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS9M_Quote#0000</v>
+        <v>AUDMTOIS9M_Quote#0001</v>
       </c>
       <c r="G16" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -29651,7 +29574,7 @@
       </c>
       <c r="F17" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B17&amp;$C17&amp;$D17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS10M_Quote#0000</v>
+        <v>AUDMTOIS10M_Quote#0001</v>
       </c>
       <c r="G17" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -29722,7 +29645,7 @@
       </c>
       <c r="F18" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B18&amp;$C18&amp;$D18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS11M_Quote#0000</v>
+        <v>AUDMTOIS11M_Quote#0001</v>
       </c>
       <c r="G18" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -29793,7 +29716,7 @@
       </c>
       <c r="F19" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B19&amp;$C19&amp;$D19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS1Y_Quote#0000</v>
+        <v>AUDMTOIS1Y_Quote#0001</v>
       </c>
       <c r="G19" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -29841,9 +29764,9 @@
       <c r="X19" s="209">
         <v>2.5249999999999999</v>
       </c>
-      <c r="Y19" s="146">
+      <c r="Y19" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F19,X19/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z19" s="136"/>
     </row>
@@ -29864,7 +29787,7 @@
       </c>
       <c r="F20" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B20&amp;$C20&amp;$D20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS13M_Quote#0000</v>
+        <v>AUDMTOIS13M_Quote#0001</v>
       </c>
       <c r="G20" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -29935,7 +29858,7 @@
       </c>
       <c r="F21" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B21&amp;$C21&amp;$D21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS14M_Quote#0000</v>
+        <v>AUDMTOIS14M_Quote#0001</v>
       </c>
       <c r="G21" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -30006,7 +29929,7 @@
       </c>
       <c r="F22" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B22&amp;$C22&amp;$D22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS15M_Quote#0000</v>
+        <v>AUDMTOIS15M_Quote#0001</v>
       </c>
       <c r="G22" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -30077,7 +30000,7 @@
       </c>
       <c r="F23" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B23&amp;$C23&amp;$D23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS16M_Quote#0000</v>
+        <v>AUDMTOIS16M_Quote#0001</v>
       </c>
       <c r="G23" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -30148,7 +30071,7 @@
       </c>
       <c r="F24" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B24&amp;$C24&amp;$D24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS17M_Quote#0000</v>
+        <v>AUDMTOIS17M_Quote#0001</v>
       </c>
       <c r="G24" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -30219,7 +30142,7 @@
       </c>
       <c r="F25" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B25&amp;$C25&amp;$D25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS18M_Quote#0000</v>
+        <v>AUDMTOIS18M_Quote#0001</v>
       </c>
       <c r="G25" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -30267,9 +30190,9 @@
       <c r="X25" s="209">
         <v>2.5700000000000003</v>
       </c>
-      <c r="Y25" s="146">
+      <c r="Y25" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F25,X25/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z25" s="136"/>
     </row>
@@ -30290,7 +30213,7 @@
       </c>
       <c r="F26" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B26&amp;$C26&amp;$D26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS19M_Quote#0000</v>
+        <v>AUDMTOIS19M_Quote#0001</v>
       </c>
       <c r="G26" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -30361,7 +30284,7 @@
       </c>
       <c r="F27" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B27&amp;$C27&amp;$D27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS20M_Quote#0000</v>
+        <v>AUDMTOIS20M_Quote#0001</v>
       </c>
       <c r="G27" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -30432,7 +30355,7 @@
       </c>
       <c r="F28" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B28&amp;$C28&amp;$D28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS21M_Quote#0000</v>
+        <v>AUDMTOIS21M_Quote#0001</v>
       </c>
       <c r="G28" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -30503,7 +30426,7 @@
       </c>
       <c r="F29" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B29&amp;$C29&amp;$D29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS22M_Quote#0000</v>
+        <v>AUDMTOIS22M_Quote#0001</v>
       </c>
       <c r="G29" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -30574,7 +30497,7 @@
       </c>
       <c r="F30" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B30&amp;$C30&amp;$D30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS23M_Quote#0000</v>
+        <v>AUDMTOIS23M_Quote#0001</v>
       </c>
       <c r="G30" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -30645,7 +30568,7 @@
       </c>
       <c r="F31" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B31&amp;$C31&amp;$D31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS2Y_Quote#0000</v>
+        <v>AUDMTOIS2Y_Quote#0001</v>
       </c>
       <c r="G31" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -30693,9 +30616,9 @@
       <c r="X31" s="209">
         <v>2.65</v>
       </c>
-      <c r="Y31" s="146">
+      <c r="Y31" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z31" s="136"/>
     </row>
@@ -30716,7 +30639,7 @@
       </c>
       <c r="F32" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B32&amp;$C32&amp;$D32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS27M_Quote#0000</v>
+        <v>AUDMTOIS27M_Quote#0001</v>
       </c>
       <c r="G32" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -30787,7 +30710,7 @@
       </c>
       <c r="F33" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B33&amp;$C33&amp;$D33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS30M_Quote#0000</v>
+        <v>AUDMTOIS30M_Quote#0001</v>
       </c>
       <c r="G33" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -30858,7 +30781,7 @@
       </c>
       <c r="F34" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B34&amp;$C34&amp;$D34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS33M_Quote#0000</v>
+        <v>AUDMTOIS33M_Quote#0001</v>
       </c>
       <c r="G34" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -30929,7 +30852,7 @@
       </c>
       <c r="F35" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B35&amp;$C35&amp;$D35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS3Y_Quote#0000</v>
+        <v>AUDMTOIS3Y_Quote#0001</v>
       </c>
       <c r="G35" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -30977,9 +30900,9 @@
       <c r="X35" s="209">
         <v>2.8200000000000003</v>
       </c>
-      <c r="Y35" s="146">
+      <c r="Y35" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z35" s="136"/>
     </row>
@@ -31000,7 +30923,7 @@
       </c>
       <c r="F36" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B36&amp;$C36&amp;$D36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS39M_Quote#0000</v>
+        <v>AUDMTOIS39M_Quote#0001</v>
       </c>
       <c r="G36" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -31071,7 +30994,7 @@
       </c>
       <c r="F37" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B37&amp;$C37&amp;$D37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS42M_Quote#0000</v>
+        <v>AUDMTOIS42M_Quote#0001</v>
       </c>
       <c r="G37" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -31142,7 +31065,7 @@
       </c>
       <c r="F38" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B38&amp;$C38&amp;$D38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS45M_Quote#0000</v>
+        <v>AUDMTOIS45M_Quote#0001</v>
       </c>
       <c r="G38" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -31213,7 +31136,7 @@
       </c>
       <c r="F39" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B39&amp;$C39&amp;$D39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS4Y_Quote#0000</v>
+        <v>AUDMTOIS4Y_Quote#0001</v>
       </c>
       <c r="G39" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -31261,9 +31184,9 @@
       <c r="X39" s="209">
         <v>2.9430000000000001</v>
       </c>
-      <c r="Y39" s="146">
+      <c r="Y39" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F39,X39/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z39" s="136"/>
     </row>
@@ -31284,7 +31207,7 @@
       </c>
       <c r="F40" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B40&amp;$C40&amp;$D40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS51M_Quote#0000</v>
+        <v>AUDMTOIS51M_Quote#0001</v>
       </c>
       <c r="G40" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -31355,7 +31278,7 @@
       </c>
       <c r="F41" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B41&amp;$C41&amp;$D41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS54M_Quote#0000</v>
+        <v>AUDMTOIS54M_Quote#0001</v>
       </c>
       <c r="G41" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -31426,7 +31349,7 @@
       </c>
       <c r="F42" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B42&amp;$C42&amp;$D42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS57M_Quote#0000</v>
+        <v>AUDMTOIS57M_Quote#0001</v>
       </c>
       <c r="G42" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -31497,7 +31420,7 @@
       </c>
       <c r="F43" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B43&amp;$C43&amp;$D43&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS5Y_Quote#0000</v>
+        <v>AUDMTOIS5Y_Quote#0001</v>
       </c>
       <c r="G43" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -31545,9 +31468,9 @@
       <c r="X43" s="209">
         <v>3.1</v>
       </c>
-      <c r="Y43" s="146">
+      <c r="Y43" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F43,X43/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z43" s="136"/>
     </row>
@@ -31568,7 +31491,7 @@
       </c>
       <c r="F44" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B44&amp;$C44&amp;$D44&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS6Y_Quote#0000</v>
+        <v>AUDMTOIS6Y_Quote#0001</v>
       </c>
       <c r="G44" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -31616,9 +31539,9 @@
       <c r="X44" s="209">
         <v>3.2549999999999999</v>
       </c>
-      <c r="Y44" s="146">
+      <c r="Y44" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F44,X44/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z44" s="136"/>
     </row>
@@ -31639,7 +31562,7 @@
       </c>
       <c r="F45" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B45&amp;$C45&amp;$D45&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS7Y_Quote#0000</v>
+        <v>AUDMTOIS7Y_Quote#0001</v>
       </c>
       <c r="G45" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -31687,9 +31610,9 @@
       <c r="X45" s="209">
         <v>3.41</v>
       </c>
-      <c r="Y45" s="146">
+      <c r="Y45" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F45,X45/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z45" s="136"/>
     </row>
@@ -31710,7 +31633,7 @@
       </c>
       <c r="F46" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B46&amp;$C46&amp;$D46&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS8Y_Quote#0000</v>
+        <v>AUDMTOIS8Y_Quote#0001</v>
       </c>
       <c r="G46" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -31758,9 +31681,9 @@
       <c r="X46" s="209">
         <v>3.5150000000000001</v>
       </c>
-      <c r="Y46" s="146">
+      <c r="Y46" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F46,X46/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z46" s="136"/>
     </row>
@@ -31781,7 +31704,7 @@
       </c>
       <c r="F47" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B47&amp;$C47&amp;$D47&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS9Y_Quote#0000</v>
+        <v>AUDMTOIS9Y_Quote#0001</v>
       </c>
       <c r="G47" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -31829,9 +31752,9 @@
       <c r="X47" s="209">
         <v>3.62</v>
       </c>
-      <c r="Y47" s="146">
+      <c r="Y47" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F47,X47/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z47" s="136"/>
     </row>
@@ -31852,7 +31775,7 @@
       </c>
       <c r="F48" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B48&amp;$C48&amp;$D48&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS10Y_Quote#0000</v>
+        <v>AUDMTOIS10Y_Quote#0001</v>
       </c>
       <c r="G48" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -31900,9 +31823,9 @@
       <c r="X48" s="209">
         <v>3.7250000000000001</v>
       </c>
-      <c r="Y48" s="146">
+      <c r="Y48" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F48,X48/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z48" s="136"/>
     </row>
@@ -31923,7 +31846,7 @@
       </c>
       <c r="F49" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B49&amp;$C49&amp;$D49&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS12Y_Quote#0000</v>
+        <v>AUDMTOIS12Y_Quote#0001</v>
       </c>
       <c r="G49" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -31971,9 +31894,9 @@
       <c r="X49" s="209">
         <v>3.8730000000000002</v>
       </c>
-      <c r="Y49" s="146">
+      <c r="Y49" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F49,X49/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z49" s="136"/>
     </row>
@@ -31994,7 +31917,7 @@
       </c>
       <c r="F50" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B50&amp;$C50&amp;$D50&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS15Y_Quote#0000</v>
+        <v>AUDMTOIS15Y_Quote#0001</v>
       </c>
       <c r="G50" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -32042,9 +31965,9 @@
       <c r="X50" s="209">
         <v>4.01</v>
       </c>
-      <c r="Y50" s="146">
+      <c r="Y50" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F50,X50/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z50" s="136"/>
     </row>
@@ -32065,7 +31988,7 @@
       </c>
       <c r="F51" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B51&amp;$C51&amp;$D51&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS20Y_Quote#0000</v>
+        <v>AUDMTOIS20Y_Quote#0001</v>
       </c>
       <c r="G51" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -32113,9 +32036,9 @@
       <c r="X51" s="209">
         <v>4.1479999999999997</v>
       </c>
-      <c r="Y51" s="146">
+      <c r="Y51" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F51,X51/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z51" s="136"/>
     </row>
@@ -32136,7 +32059,7 @@
       </c>
       <c r="F52" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B52&amp;$C52&amp;$D52&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS25Y_Quote#0000</v>
+        <v>AUDMTOIS25Y_Quote#0001</v>
       </c>
       <c r="G52" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -32184,9 +32107,9 @@
       <c r="X52" s="209">
         <v>4.2029999999999994</v>
       </c>
-      <c r="Y52" s="146">
+      <c r="Y52" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F52,X52/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z52" s="136"/>
     </row>
@@ -32207,7 +32130,7 @@
       </c>
       <c r="F53" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B53&amp;$C53&amp;$D53&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS27Y_Quote#0000</v>
+        <v>AUDMTOIS27Y_Quote#0001</v>
       </c>
       <c r="G53" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -32278,7 +32201,7 @@
       </c>
       <c r="F54" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B54&amp;$C54&amp;$D54&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS30Y_Quote#0000</v>
+        <v>AUDMTOIS30Y_Quote#0001</v>
       </c>
       <c r="G54" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -32326,9 +32249,9 @@
       <c r="X54" s="209">
         <v>4.2249999999999996</v>
       </c>
-      <c r="Y54" s="146">
+      <c r="Y54" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F54,X54/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z54" s="136"/>
     </row>
@@ -32349,7 +32272,7 @@
       </c>
       <c r="F55" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B55&amp;$C55&amp;$D55&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS35Y_Quote#0000</v>
+        <v>AUDMTOIS35Y_Quote#0001</v>
       </c>
       <c r="G55" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -32420,7 +32343,7 @@
       </c>
       <c r="F56" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B56&amp;$C56&amp;$D56&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS40Y_Quote#0000</v>
+        <v>AUDMTOIS40Y_Quote#0001</v>
       </c>
       <c r="G56" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -32491,7 +32414,7 @@
       </c>
       <c r="F57" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B57&amp;$C57&amp;$D57&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS45Y_Quote#0000</v>
+        <v>AUDMTOIS45Y_Quote#0001</v>
       </c>
       <c r="G57" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -32562,7 +32485,7 @@
       </c>
       <c r="F58" s="137" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B58&amp;$C58&amp;$D58&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS50Y_Quote#0000</v>
+        <v>AUDMTOIS50Y_Quote#0001</v>
       </c>
       <c r="G58" s="22" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -32893,9 +32816,9 @@
       <c r="F4" s="71"/>
       <c r="H4" s="85"/>
       <c r="I4" s="175"/>
-      <c r="J4" s="144" t="str">
-        <f>_xll.RData(J6:J22,K4:L4,,ReutersRtMode,,K6)</f>
-        <v>Updated at 18:03:39</v>
+      <c r="J4" s="144" t="e">
+        <f ca="1">_xll.RData(J6:J22,K4:L4,,ReutersRtMode,,K6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K4" s="144" t="s">
         <v>163</v>
@@ -32947,7 +32870,7 @@
       </c>
       <c r="D5" s="73" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOND_Quote#0000</v>
+        <v>AUDOND_Quote#0001</v>
       </c>
       <c r="E5" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -32955,21 +32878,21 @@
       </c>
       <c r="F5" s="71"/>
       <c r="H5" s="85"/>
-      <c r="I5" s="479" t="s">
+      <c r="I5" s="476" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="480" t="s">
+      <c r="J5" s="477" t="s">
         <v>288</v>
       </c>
-      <c r="K5" s="481" t="e">
+      <c r="K5" s="478" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="L5" s="482" t="e">
+      <c r="L5" s="479" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="M5" s="482">
+      <c r="M5" s="479">
         <f>BBSW!W6</f>
         <v>2.5</v>
       </c>
@@ -32982,9 +32905,9 @@
         <f t="array" ref="Q5:Q22">QuoteLive</f>
         <v>2.5</v>
       </c>
-      <c r="R5" s="165">
+      <c r="R5" s="165" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D5,Q5/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S5" s="136"/>
       <c r="T5" s="12"/>
@@ -33016,7 +32939,7 @@
       </c>
       <c r="D6" s="73" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDTND_Quote#0000</v>
+        <v>AUDTND_Quote#0001</v>
       </c>
       <c r="E6" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -33049,9 +32972,9 @@
       <c r="Q6" s="216">
         <v>2.625</v>
       </c>
-      <c r="R6" s="165">
+      <c r="R6" s="165" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D6,Q6/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S6" s="136"/>
       <c r="T6" s="12"/>
@@ -33078,7 +33001,7 @@
       </c>
       <c r="D7" s="73" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSND_Quote#0000</v>
+        <v>AUDSND_Quote#0001</v>
       </c>
       <c r="E7" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -33110,9 +33033,9 @@
       <c r="Q7" s="209">
         <v>2.625</v>
       </c>
-      <c r="R7" s="146">
+      <c r="R7" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D7,Q7/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S7" s="136"/>
       <c r="T7" s="12"/>
@@ -33139,7 +33062,7 @@
       </c>
       <c r="D8" s="73" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSWD_Quote#0000</v>
+        <v>AUDSWD_Quote#0001</v>
       </c>
       <c r="E8" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -33171,9 +33094,9 @@
       <c r="Q8" s="209">
         <v>2.625</v>
       </c>
-      <c r="R8" s="146">
+      <c r="R8" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D8,Q8/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S8" s="136"/>
       <c r="T8" s="12"/>
@@ -33202,7 +33125,7 @@
       </c>
       <c r="D9" s="73" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD2WD_Quote#0000</v>
+        <v>AUD2WD_Quote#0001</v>
       </c>
       <c r="E9" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -33234,9 +33157,9 @@
       <c r="Q9" s="209">
         <v>2.625</v>
       </c>
-      <c r="R9" s="146">
+      <c r="R9" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D9,Q9/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S9" s="136"/>
       <c r="T9" s="12"/>
@@ -33265,7 +33188,7 @@
       </c>
       <c r="D10" s="73" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3WD_Quote#0000</v>
+        <v>AUD3WD_Quote#0001</v>
       </c>
       <c r="E10" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -33297,9 +33220,9 @@
       <c r="Q10" s="209">
         <v>2.625</v>
       </c>
-      <c r="R10" s="146">
+      <c r="R10" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D10,Q10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S10" s="136"/>
       <c r="T10" s="12"/>
@@ -33328,7 +33251,7 @@
       </c>
       <c r="D11" s="73" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1MD_Quote#0000</v>
+        <v>AUD1MD_Quote#0001</v>
       </c>
       <c r="E11" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -33360,9 +33283,9 @@
       <c r="Q11" s="209">
         <v>2.625</v>
       </c>
-      <c r="R11" s="146">
+      <c r="R11" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D11,Q11/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S11" s="136"/>
       <c r="T11" s="12"/>
@@ -33391,7 +33314,7 @@
       </c>
       <c r="D12" s="73" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD2MD_Quote#0000</v>
+        <v>AUD2MD_Quote#0001</v>
       </c>
       <c r="E12" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -33423,9 +33346,9 @@
       <c r="Q12" s="209">
         <v>2.625</v>
       </c>
-      <c r="R12" s="146">
+      <c r="R12" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D12,Q12/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S12" s="136"/>
       <c r="T12" s="12"/>
@@ -33454,7 +33377,7 @@
       </c>
       <c r="D13" s="73" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3MD_Quote#0000</v>
+        <v>AUD3MD_Quote#0001</v>
       </c>
       <c r="E13" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -33486,9 +33409,9 @@
       <c r="Q13" s="209">
         <v>2.6749999999999998</v>
       </c>
-      <c r="R13" s="146">
+      <c r="R13" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D13,Q13/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S13" s="136"/>
       <c r="T13" s="12"/>
@@ -33517,7 +33440,7 @@
       </c>
       <c r="D14" s="73" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD4MD_Quote#0000</v>
+        <v>AUD4MD_Quote#0001</v>
       </c>
       <c r="E14" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -33549,9 +33472,9 @@
       <c r="Q14" s="209">
         <v>2.7250000000000001</v>
       </c>
-      <c r="R14" s="146">
+      <c r="R14" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D14,Q14/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S14" s="136"/>
       <c r="T14" s="12"/>
@@ -33572,7 +33495,7 @@
       </c>
       <c r="D15" s="73" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD5MD_Quote#0000</v>
+        <v>AUD5MD_Quote#0001</v>
       </c>
       <c r="E15" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -33604,9 +33527,9 @@
       <c r="Q15" s="209">
         <v>2.7250000000000001</v>
       </c>
-      <c r="R15" s="146">
+      <c r="R15" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D15,Q15/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S15" s="136"/>
       <c r="T15" s="12"/>
@@ -33627,7 +33550,7 @@
       </c>
       <c r="D16" s="73" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD6MD_Quote#0000</v>
+        <v>AUD6MD_Quote#0001</v>
       </c>
       <c r="E16" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -33659,9 +33582,9 @@
       <c r="Q16" s="209">
         <v>2.7250000000000001</v>
       </c>
-      <c r="R16" s="146">
+      <c r="R16" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D16,Q16/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S16" s="136"/>
       <c r="T16" s="12"/>
@@ -33682,7 +33605,7 @@
       </c>
       <c r="D17" s="73" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD7MD_Quote#0000</v>
+        <v>AUD7MD_Quote#0001</v>
       </c>
       <c r="E17" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -33714,9 +33637,9 @@
       <c r="Q17" s="209">
         <v>2.8250000000000002</v>
       </c>
-      <c r="R17" s="146">
+      <c r="R17" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D17,Q17/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S17" s="136"/>
       <c r="T17" s="12"/>
@@ -33737,7 +33660,7 @@
       </c>
       <c r="D18" s="73" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD8MD_Quote#0000</v>
+        <v>AUD8MD_Quote#0001</v>
       </c>
       <c r="E18" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -33769,9 +33692,9 @@
       <c r="Q18" s="209">
         <v>2.8250000000000002</v>
       </c>
-      <c r="R18" s="146">
+      <c r="R18" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D18,Q18/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S18" s="136"/>
       <c r="T18" s="12"/>
@@ -33792,7 +33715,7 @@
       </c>
       <c r="D19" s="73" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD9MD_Quote#0000</v>
+        <v>AUD9MD_Quote#0001</v>
       </c>
       <c r="E19" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -33824,9 +33747,9 @@
       <c r="Q19" s="209">
         <v>2.8250000000000002</v>
       </c>
-      <c r="R19" s="146">
+      <c r="R19" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D19,Q19/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S19" s="136"/>
       <c r="T19" s="12"/>
@@ -33847,7 +33770,7 @@
       </c>
       <c r="D20" s="73" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD10MD_Quote#0000</v>
+        <v>AUD10MD_Quote#0001</v>
       </c>
       <c r="E20" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -33879,9 +33802,9 @@
       <c r="Q20" s="209">
         <v>2.875</v>
       </c>
-      <c r="R20" s="146">
+      <c r="R20" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D20,Q20/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S20" s="136"/>
       <c r="T20" s="12"/>
@@ -33902,7 +33825,7 @@
       </c>
       <c r="D21" s="73" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD11MD_Quote#0000</v>
+        <v>AUD11MD_Quote#0001</v>
       </c>
       <c r="E21" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -33934,9 +33857,9 @@
       <c r="Q21" s="209">
         <v>2.9249999999999998</v>
       </c>
-      <c r="R21" s="146">
+      <c r="R21" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D21,Q21/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S21" s="136"/>
       <c r="T21" s="12"/>
@@ -33957,7 +33880,7 @@
       </c>
       <c r="D22" s="73" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1YD_Quote#0000</v>
+        <v>AUD1YD_Quote#0001</v>
       </c>
       <c r="E22" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -33989,9 +33912,9 @@
       <c r="Q22" s="202">
         <v>2.9750000000000001</v>
       </c>
-      <c r="R22" s="159">
+      <c r="R22" s="159" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D22,Q22/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S22" s="136"/>
       <c r="T22" s="12"/>
@@ -34166,13 +34089,13 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="116"/>
-      <c r="B1" s="471"/>
-      <c r="C1" s="471"/>
-      <c r="D1" s="472"/>
-      <c r="E1" s="473"/>
-      <c r="F1" s="472"/>
+      <c r="B1" s="468"/>
+      <c r="C1" s="468"/>
+      <c r="D1" s="469"/>
+      <c r="E1" s="470"/>
+      <c r="F1" s="469"/>
       <c r="G1" s="21"/>
-      <c r="I1" s="474"/>
+      <c r="I1" s="471"/>
       <c r="J1" s="127"/>
       <c r="K1" s="127"/>
       <c r="L1" s="127"/>
@@ -34194,13 +34117,13 @@
     </row>
     <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="85"/>
-      <c r="B2" s="471"/>
-      <c r="C2" s="471"/>
-      <c r="D2" s="472"/>
-      <c r="E2" s="473"/>
-      <c r="F2" s="472"/>
+      <c r="B2" s="468"/>
+      <c r="C2" s="468"/>
+      <c r="D2" s="469"/>
+      <c r="E2" s="470"/>
+      <c r="F2" s="469"/>
       <c r="G2" s="21"/>
-      <c r="I2" s="474"/>
+      <c r="I2" s="471"/>
       <c r="J2" s="12"/>
       <c r="K2" s="88"/>
       <c r="L2" s="88"/>
@@ -34224,13 +34147,13 @@
     </row>
     <row r="3" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="85"/>
-      <c r="B3" s="471"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="472"/>
-      <c r="E3" s="473"/>
-      <c r="F3" s="472"/>
+      <c r="B3" s="468"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="470"/>
+      <c r="F3" s="469"/>
       <c r="G3" s="21"/>
-      <c r="I3" s="474"/>
+      <c r="I3" s="471"/>
       <c r="J3" s="88"/>
       <c r="K3" s="88"/>
       <c r="L3" s="149"/>
@@ -34255,26 +34178,26 @@
     </row>
     <row r="4" spans="1:27" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="85"/>
-      <c r="B4" s="446"/>
-      <c r="C4" s="439"/>
-      <c r="D4" s="469" t="str">
+      <c r="B4" s="444"/>
+      <c r="C4" s="437"/>
+      <c r="D4" s="466" t="str">
         <f>Currency&amp;"_010_"&amp;"FRA.xml"</f>
         <v>AUD_010_FRA.xml</v>
       </c>
-      <c r="E4" s="470" t="str">
+      <c r="E4" s="467" t="str">
         <f>IF(Serialize,_xll.ohObjectSave(E3:E19,SerializationPath&amp;D4,FileOverwrite,Serialize),"---")</f>
         <v>---</v>
       </c>
-      <c r="F4" s="447"/>
+      <c r="F4" s="445"/>
       <c r="G4" s="21"/>
-      <c r="I4" s="475"/>
+      <c r="I4" s="472"/>
       <c r="J4" s="122"/>
       <c r="K4" s="122"/>
       <c r="L4" s="96"/>
       <c r="M4" s="122"/>
-      <c r="N4" s="144" t="str">
-        <f>_xll.RData(N5:N19,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Updated at 18:03:40</v>
+      <c r="N4" s="144" t="e">
+        <f ca="1">_xll.RData(N5:N19,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O4" s="198" t="s">
         <v>163</v>
@@ -34308,7 +34231,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="85"/>
-      <c r="B5" s="442">
+      <c r="B5" s="440">
         <v>1</v>
       </c>
       <c r="C5" s="84" t="s">
@@ -34320,14 +34243,14 @@
       </c>
       <c r="E5" s="84" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1x4F_Quote#0000</v>
-      </c>
-      <c r="F5" s="443" t="str">
+        <v>AUD1x4F_Quote#0001</v>
+      </c>
+      <c r="F5" s="441" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
         <v/>
       </c>
       <c r="G5" s="21"/>
-      <c r="I5" s="475"/>
+      <c r="I5" s="472"/>
       <c r="J5" s="192">
         <f t="shared" ref="J5:J19" si="1">B5</f>
         <v>1</v>
@@ -34372,9 +34295,9 @@
         <f t="array" ref="W5:W19">QuoteLive</f>
         <v>2.68</v>
       </c>
-      <c r="X5" s="165">
+      <c r="X5" s="165" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E5,W5/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y5" s="136"/>
       <c r="Z5" s="12"/>
@@ -34382,7 +34305,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="85"/>
-      <c r="B6" s="440">
+      <c r="B6" s="438">
         <v>2</v>
       </c>
       <c r="C6" s="73" t="s">
@@ -34394,14 +34317,14 @@
       </c>
       <c r="E6" s="73" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD2x5F_Quote#0000</v>
-      </c>
-      <c r="F6" s="441" t="str">
+        <v>AUD2x5F_Quote#0001</v>
+      </c>
+      <c r="F6" s="439" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
         <v/>
       </c>
       <c r="G6" s="21"/>
-      <c r="I6" s="475"/>
+      <c r="I6" s="472"/>
       <c r="J6" s="192">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -34444,9 +34367,9 @@
       <c r="W6" s="209">
         <v>2.67</v>
       </c>
-      <c r="X6" s="146">
+      <c r="X6" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E6,W6/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y6" s="136"/>
       <c r="Z6" s="12"/>
@@ -34454,7 +34377,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="85"/>
-      <c r="B7" s="440">
+      <c r="B7" s="438">
         <v>3</v>
       </c>
       <c r="C7" s="73" t="s">
@@ -34466,14 +34389,14 @@
       </c>
       <c r="E7" s="73" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3x6F_Quote#0000</v>
-      </c>
-      <c r="F7" s="441" t="str">
+        <v>AUD3x6F_Quote#0001</v>
+      </c>
+      <c r="F7" s="439" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
         <v/>
       </c>
       <c r="G7" s="21"/>
-      <c r="I7" s="475"/>
+      <c r="I7" s="472"/>
       <c r="J7" s="192">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -34516,9 +34439,9 @@
       <c r="W7" s="209">
         <v>2.6550000000000002</v>
       </c>
-      <c r="X7" s="146">
+      <c r="X7" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E7,W7/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y7" s="136"/>
       <c r="Z7" s="12"/>
@@ -34526,7 +34449,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="85"/>
-      <c r="B8" s="440">
+      <c r="B8" s="438">
         <v>4</v>
       </c>
       <c r="C8" s="73" t="s">
@@ -34538,14 +34461,14 @@
       </c>
       <c r="E8" s="73" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD4x7F_Quote#0000</v>
-      </c>
-      <c r="F8" s="441" t="str">
+        <v>AUD4x7F_Quote#0001</v>
+      </c>
+      <c r="F8" s="439" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
         <v/>
       </c>
       <c r="G8" s="21"/>
-      <c r="I8" s="475"/>
+      <c r="I8" s="472"/>
       <c r="J8" s="192">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -34588,9 +34511,9 @@
       <c r="W8" s="209">
         <v>2.6550000000000002</v>
       </c>
-      <c r="X8" s="146">
+      <c r="X8" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E8,W8/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y8" s="136"/>
       <c r="Z8" s="12"/>
@@ -34598,7 +34521,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="85"/>
-      <c r="B9" s="440">
+      <c r="B9" s="438">
         <v>5</v>
       </c>
       <c r="C9" s="73" t="s">
@@ -34610,14 +34533,14 @@
       </c>
       <c r="E9" s="73" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD5x8F_Quote#0000</v>
-      </c>
-      <c r="F9" s="441" t="str">
+        <v>AUD5x8F_Quote#0001</v>
+      </c>
+      <c r="F9" s="439" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
         <v/>
       </c>
       <c r="G9" s="21"/>
-      <c r="I9" s="475"/>
+      <c r="I9" s="472"/>
       <c r="J9" s="192">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -34660,9 +34583,9 @@
       <c r="W9" s="209">
         <v>2.6550000000000002</v>
       </c>
-      <c r="X9" s="146">
+      <c r="X9" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E9,W9/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y9" s="136"/>
       <c r="Z9" s="12"/>
@@ -34670,7 +34593,7 @@
     </row>
     <row r="10" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="85"/>
-      <c r="B10" s="444">
+      <c r="B10" s="442">
         <v>6</v>
       </c>
       <c r="C10" s="86" t="s">
@@ -34682,14 +34605,14 @@
       </c>
       <c r="E10" s="86" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD6x9F_Quote#0000</v>
-      </c>
-      <c r="F10" s="445" t="str">
+        <v>AUD6x9F_Quote#0001</v>
+      </c>
+      <c r="F10" s="443" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
         <v/>
       </c>
       <c r="G10" s="21"/>
-      <c r="I10" s="475"/>
+      <c r="I10" s="472"/>
       <c r="J10" s="188">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -34732,9 +34655,9 @@
       <c r="W10" s="202">
         <v>2.665</v>
       </c>
-      <c r="X10" s="159">
+      <c r="X10" s="159" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E10,W10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y10" s="136"/>
       <c r="Z10" s="12"/>
@@ -34742,27 +34665,27 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="85"/>
-      <c r="B11" s="446">
+      <c r="B11" s="444">
         <v>1</v>
       </c>
-      <c r="C11" s="439" t="str">
+      <c r="C11" s="437" t="str">
         <f t="shared" ref="C11:C19" si="4">"x"&amp;B11+6&amp;"F"</f>
         <v>x7F</v>
       </c>
-      <c r="D11" s="439" t="str">
+      <c r="D11" s="437" t="str">
         <f t="shared" si="0"/>
         <v>AUD1x7F_Quote</v>
       </c>
-      <c r="E11" s="439" t="str">
+      <c r="E11" s="437" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1x7F_Quote#0000</v>
-      </c>
-      <c r="F11" s="447" t="str">
+        <v>AUD1x7F_Quote#0001</v>
+      </c>
+      <c r="F11" s="445" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
         <v/>
       </c>
       <c r="G11" s="21"/>
-      <c r="I11" s="475"/>
+      <c r="I11" s="472"/>
       <c r="J11" s="196">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -34805,9 +34728,9 @@
       <c r="W11" s="216">
         <v>2.69</v>
       </c>
-      <c r="X11" s="165">
+      <c r="X11" s="165" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E11,W11/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y11" s="136"/>
       <c r="Z11" s="12"/>
@@ -34815,7 +34738,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="85"/>
-      <c r="B12" s="440">
+      <c r="B12" s="438">
         <v>2</v>
       </c>
       <c r="C12" s="73" t="str">
@@ -34828,14 +34751,14 @@
       </c>
       <c r="E12" s="73" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD2x8F_Quote#0000</v>
-      </c>
-      <c r="F12" s="441" t="str">
+        <v>AUD2x8F_Quote#0001</v>
+      </c>
+      <c r="F12" s="439" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
         <v/>
       </c>
       <c r="G12" s="21"/>
-      <c r="I12" s="475"/>
+      <c r="I12" s="472"/>
       <c r="J12" s="192">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -34878,9 +34801,9 @@
       <c r="W12" s="209">
         <v>2.68</v>
       </c>
-      <c r="X12" s="146">
+      <c r="X12" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E12,W12/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y12" s="136"/>
       <c r="Z12" s="12"/>
@@ -34888,7 +34811,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="85"/>
-      <c r="B13" s="440">
+      <c r="B13" s="438">
         <v>3</v>
       </c>
       <c r="C13" s="73" t="str">
@@ -34901,14 +34824,14 @@
       </c>
       <c r="E13" s="73" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3x9F_Quote#0000</v>
-      </c>
-      <c r="F13" s="441" t="str">
+        <v>AUD3x9F_Quote#0001</v>
+      </c>
+      <c r="F13" s="439" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
         <v/>
       </c>
       <c r="G13" s="21"/>
-      <c r="I13" s="475"/>
+      <c r="I13" s="472"/>
       <c r="J13" s="192">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -34951,9 +34874,9 @@
       <c r="W13" s="209">
         <v>2.69</v>
       </c>
-      <c r="X13" s="146">
+      <c r="X13" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E13,W13/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y13" s="136"/>
       <c r="Z13" s="12"/>
@@ -34961,7 +34884,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="85"/>
-      <c r="B14" s="440">
+      <c r="B14" s="438">
         <v>4</v>
       </c>
       <c r="C14" s="73" t="str">
@@ -34974,14 +34897,14 @@
       </c>
       <c r="E14" s="73" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD4x10F_Quote#0000</v>
-      </c>
-      <c r="F14" s="441" t="str">
+        <v>AUD4x10F_Quote#0001</v>
+      </c>
+      <c r="F14" s="439" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
         <v/>
       </c>
       <c r="G14" s="21"/>
-      <c r="I14" s="475"/>
+      <c r="I14" s="472"/>
       <c r="J14" s="192">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -35024,9 +34947,9 @@
       <c r="W14" s="209">
         <v>2.7</v>
       </c>
-      <c r="X14" s="146">
+      <c r="X14" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E14,W14/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y14" s="136"/>
       <c r="Z14" s="12"/>
@@ -35034,7 +34957,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="85"/>
-      <c r="B15" s="440">
+      <c r="B15" s="438">
         <v>5</v>
       </c>
       <c r="C15" s="73" t="str">
@@ -35047,14 +34970,14 @@
       </c>
       <c r="E15" s="73" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD5x11F_Quote#0000</v>
-      </c>
-      <c r="F15" s="441" t="str">
+        <v>AUD5x11F_Quote#0001</v>
+      </c>
+      <c r="F15" s="439" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
         <v/>
       </c>
       <c r="G15" s="21"/>
-      <c r="I15" s="475"/>
+      <c r="I15" s="472"/>
       <c r="J15" s="192">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -35097,9 +35020,9 @@
       <c r="W15" s="209">
         <v>2.71</v>
       </c>
-      <c r="X15" s="146">
+      <c r="X15" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E15,W15/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y15" s="136"/>
       <c r="Z15" s="12"/>
@@ -35107,7 +35030,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="85"/>
-      <c r="B16" s="440">
+      <c r="B16" s="438">
         <v>6</v>
       </c>
       <c r="C16" s="73" t="str">
@@ -35120,14 +35043,14 @@
       </c>
       <c r="E16" s="73" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD6x12F_Quote#0000</v>
-      </c>
-      <c r="F16" s="441" t="str">
+        <v>AUD6x12F_Quote#0001</v>
+      </c>
+      <c r="F16" s="439" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
         <v/>
       </c>
       <c r="G16" s="21"/>
-      <c r="I16" s="475"/>
+      <c r="I16" s="472"/>
       <c r="J16" s="192">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -35170,9 +35093,9 @@
       <c r="W16" s="209">
         <v>2.72</v>
       </c>
-      <c r="X16" s="146">
+      <c r="X16" s="146" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E16,W16/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y16" s="136"/>
       <c r="Z16" s="12"/>
@@ -35180,7 +35103,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="85"/>
-      <c r="B17" s="440">
+      <c r="B17" s="438">
         <v>9</v>
       </c>
       <c r="C17" s="73" t="str">
@@ -35193,14 +35116,14 @@
       </c>
       <c r="E17" s="73" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD9x15F_Quote#0000</v>
-      </c>
-      <c r="F17" s="441" t="str">
+        <v>AUD9x15F_Quote#0001</v>
+      </c>
+      <c r="F17" s="439" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
         <v/>
       </c>
       <c r="G17" s="21"/>
-      <c r="I17" s="475"/>
+      <c r="I17" s="472"/>
       <c r="J17" s="192">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -35253,7 +35176,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="85"/>
-      <c r="B18" s="440">
+      <c r="B18" s="438">
         <v>12</v>
       </c>
       <c r="C18" s="73" t="str">
@@ -35266,14 +35189,14 @@
       </c>
       <c r="E18" s="73" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD12x18F_Quote#0000</v>
-      </c>
-      <c r="F18" s="441" t="str">
+        <v>AUD12x18F_Quote#0001</v>
+      </c>
+      <c r="F18" s="439" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
         <v/>
       </c>
       <c r="G18" s="21"/>
-      <c r="I18" s="475"/>
+      <c r="I18" s="472"/>
       <c r="J18" s="192">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -35326,7 +35249,7 @@
     </row>
     <row r="19" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="85"/>
-      <c r="B19" s="444">
+      <c r="B19" s="442">
         <v>18</v>
       </c>
       <c r="C19" s="86" t="str">
@@ -35339,14 +35262,14 @@
       </c>
       <c r="E19" s="86" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD18x24F_Quote#0000</v>
-      </c>
-      <c r="F19" s="445" t="str">
+        <v>AUD18x24F_Quote#0001</v>
+      </c>
+      <c r="F19" s="443" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
         <v/>
       </c>
       <c r="G19" s="21"/>
-      <c r="I19" s="475"/>
+      <c r="I19" s="472"/>
       <c r="J19" s="188">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -35398,30 +35321,30 @@
       <c r="AA19" s="183"/>
     </row>
     <row r="20" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="463"/>
-      <c r="B20" s="464"/>
-      <c r="C20" s="464"/>
-      <c r="D20" s="465"/>
-      <c r="E20" s="464"/>
-      <c r="F20" s="466"/>
-      <c r="G20" s="467"/>
-      <c r="I20" s="468"/>
-      <c r="J20" s="463"/>
-      <c r="K20" s="463"/>
-      <c r="L20" s="463"/>
-      <c r="M20" s="463"/>
-      <c r="N20" s="463"/>
-      <c r="O20" s="463"/>
-      <c r="P20" s="463"/>
-      <c r="Q20" s="463"/>
-      <c r="R20" s="463"/>
-      <c r="S20" s="463"/>
-      <c r="T20" s="463"/>
-      <c r="U20" s="463"/>
-      <c r="V20" s="463"/>
-      <c r="W20" s="463"/>
-      <c r="X20" s="463"/>
-      <c r="Y20" s="467"/>
+      <c r="A20" s="460"/>
+      <c r="B20" s="461"/>
+      <c r="C20" s="461"/>
+      <c r="D20" s="462"/>
+      <c r="E20" s="461"/>
+      <c r="F20" s="463"/>
+      <c r="G20" s="464"/>
+      <c r="I20" s="465"/>
+      <c r="J20" s="460"/>
+      <c r="K20" s="460"/>
+      <c r="L20" s="460"/>
+      <c r="M20" s="460"/>
+      <c r="N20" s="460"/>
+      <c r="O20" s="460"/>
+      <c r="P20" s="460"/>
+      <c r="Q20" s="460"/>
+      <c r="R20" s="460"/>
+      <c r="S20" s="460"/>
+      <c r="T20" s="460"/>
+      <c r="U20" s="460"/>
+      <c r="V20" s="460"/>
+      <c r="W20" s="460"/>
+      <c r="X20" s="460"/>
+      <c r="Y20" s="464"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="X5:X19">
@@ -35668,9 +35591,9 @@
       <c r="N5" s="198" t="s">
         <v>197</v>
       </c>
-      <c r="O5" s="144" t="str">
-        <f>_xll.RData(O6:O17,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Updated at 18:03:39</v>
+      <c r="O5" s="144" t="e">
+        <f ca="1">_xll.RData(O6:O17,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P5" s="198" t="s">
         <v>196</v>
@@ -35728,7 +35651,7 @@
       </c>
       <c r="F6" s="100" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MM4_Quote#0000</v>
+        <v>AUDFUT1MM4_Quote#0001</v>
       </c>
       <c r="G6" s="99" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -35836,7 +35759,7 @@
       </c>
       <c r="F7" s="93" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MN4_Quote#0000</v>
+        <v>AUDFUT1MN4_Quote#0001</v>
       </c>
       <c r="G7" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -35915,12 +35838,12 @@
         <f t="shared" ref="AM7:AM18" si="2">Currency&amp;"FUT"&amp;$AN$4&amp;$AK7&amp;"ConvAdj"&amp;QuoteSuffix</f>
         <v>AUDFUT1MM4ConvAdj_Quote</v>
       </c>
-      <c r="AN7" s="139" t="e">
+      <c r="AN7" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM7,IborIndex,$AK7,$AL7,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>AUDFUT1MM4ConvAdj_Quote#0000</v>
       </c>
       <c r="AO7" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AN7)</f>
+        <f>_xll.ohRangeRetrieveError(AN7)</f>
         <v/>
       </c>
       <c r="AP7" s="223"/>
@@ -35942,7 +35865,7 @@
       </c>
       <c r="F8" s="93" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MQ4_Quote#0000</v>
+        <v>AUDFUT1MQ4_Quote#0001</v>
       </c>
       <c r="G8" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -36020,12 +35943,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MN4ConvAdj_Quote</v>
       </c>
-      <c r="AN8" s="139" t="e">
+      <c r="AN8" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM8,IborIndex,$AK8,$AL8,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>AUDFUT1MN4ConvAdj_Quote#0000</v>
       </c>
       <c r="AO8" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AN8)</f>
+        <f>_xll.ohRangeRetrieveError(AN8)</f>
         <v/>
       </c>
       <c r="AP8" s="223"/>
@@ -36047,7 +35970,7 @@
       </c>
       <c r="F9" s="93" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MU4_Quote#0000</v>
+        <v>AUDFUT1MU4_Quote#0001</v>
       </c>
       <c r="G9" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -36125,12 +36048,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MQ4ConvAdj_Quote</v>
       </c>
-      <c r="AN9" s="139" t="e">
+      <c r="AN9" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM9,IborIndex,$AK9,$AL9,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>AUDFUT1MQ4ConvAdj_Quote#0000</v>
       </c>
       <c r="AO9" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AN9)</f>
+        <f>_xll.ohRangeRetrieveError(AN9)</f>
         <v/>
       </c>
       <c r="AP9" s="223"/>
@@ -36153,7 +36076,7 @@
       </c>
       <c r="F10" s="93" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MV4_Quote#0000</v>
+        <v>AUDFUT1MV4_Quote#0001</v>
       </c>
       <c r="G10" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -36231,12 +36154,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MU4ConvAdj_Quote</v>
       </c>
-      <c r="AN10" s="139" t="e">
+      <c r="AN10" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM10,IborIndex,$AK10,$AL10,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>AUDFUT1MU4ConvAdj_Quote#0000</v>
       </c>
       <c r="AO10" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AN10)</f>
+        <f>_xll.ohRangeRetrieveError(AN10)</f>
         <v/>
       </c>
       <c r="AP10" s="223"/>
@@ -36258,7 +36181,7 @@
       </c>
       <c r="F11" s="93" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MX4_Quote#0000</v>
+        <v>AUDFUT1MX4_Quote#0001</v>
       </c>
       <c r="G11" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -36336,12 +36259,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MV4ConvAdj_Quote</v>
       </c>
-      <c r="AN11" s="139" t="e">
+      <c r="AN11" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM11,IborIndex,$AK11,$AL11,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>AUDFUT1MV4ConvAdj_Quote#0000</v>
       </c>
       <c r="AO11" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AN11)</f>
+        <f>_xll.ohRangeRetrieveError(AN11)</f>
         <v/>
       </c>
       <c r="AP11" s="223"/>
@@ -36363,7 +36286,7 @@
       </c>
       <c r="F12" s="93" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MZ4_Quote#0000</v>
+        <v>AUDFUT1MZ4_Quote#0001</v>
       </c>
       <c r="G12" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -36441,12 +36364,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MX4ConvAdj_Quote</v>
       </c>
-      <c r="AN12" s="139" t="e">
+      <c r="AN12" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM12,IborIndex,$AK12,$AL12,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>AUDFUT1MX4ConvAdj_Quote#0000</v>
       </c>
       <c r="AO12" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AN12)</f>
+        <f>_xll.ohRangeRetrieveError(AN12)</f>
         <v/>
       </c>
       <c r="AP12" s="223"/>
@@ -36468,7 +36391,7 @@
       </c>
       <c r="F13" s="93" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MF5_Quote#0000</v>
+        <v>AUDFUT1MF5_Quote#0001</v>
       </c>
       <c r="G13" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -36546,12 +36469,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MZ4ConvAdj_Quote</v>
       </c>
-      <c r="AN13" s="139" t="e">
+      <c r="AN13" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM13,IborIndex,$AK13,$AL13,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>AUDFUT1MZ4ConvAdj_Quote#0000</v>
       </c>
       <c r="AO13" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AN13)</f>
+        <f>_xll.ohRangeRetrieveError(AN13)</f>
         <v/>
       </c>
       <c r="AP13" s="223"/>
@@ -36573,7 +36496,7 @@
       </c>
       <c r="F14" s="93" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MG5_Quote#0000</v>
+        <v>AUDFUT1MG5_Quote#0001</v>
       </c>
       <c r="G14" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -36651,12 +36574,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MF5ConvAdj_Quote</v>
       </c>
-      <c r="AN14" s="139" t="e">
+      <c r="AN14" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM14,IborIndex,$AK14,$AL14,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>AUDFUT1MF5ConvAdj_Quote#0000</v>
       </c>
       <c r="AO14" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AN14)</f>
+        <f>_xll.ohRangeRetrieveError(AN14)</f>
         <v/>
       </c>
       <c r="AP14" s="223"/>
@@ -36678,7 +36601,7 @@
       </c>
       <c r="F15" s="93" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MH5_Quote#0000</v>
+        <v>AUDFUT1MH5_Quote#0001</v>
       </c>
       <c r="G15" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -36756,12 +36679,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MG5ConvAdj_Quote</v>
       </c>
-      <c r="AN15" s="139" t="e">
+      <c r="AN15" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM15,IborIndex,$AK15,$AL15,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>AUDFUT1MG5ConvAdj_Quote#0000</v>
       </c>
       <c r="AO15" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AN15)</f>
+        <f>_xll.ohRangeRetrieveError(AN15)</f>
         <v/>
       </c>
       <c r="AP15" s="223"/>
@@ -36783,7 +36706,7 @@
       </c>
       <c r="F16" s="93" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MJ5_Quote#0000</v>
+        <v>AUDFUT1MJ5_Quote#0001</v>
       </c>
       <c r="G16" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -36861,12 +36784,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MH5ConvAdj_Quote</v>
       </c>
-      <c r="AN16" s="139" t="e">
+      <c r="AN16" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM16,IborIndex,$AK16,$AL16,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>AUDFUT1MH5ConvAdj_Quote#0000</v>
       </c>
       <c r="AO16" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AN16)</f>
+        <f>_xll.ohRangeRetrieveError(AN16)</f>
         <v/>
       </c>
       <c r="AP16" s="223"/>
@@ -36888,7 +36811,7 @@
       </c>
       <c r="F17" s="93" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MK5_Quote#0000</v>
+        <v>AUDFUT1MK5_Quote#0001</v>
       </c>
       <c r="G17" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -36966,12 +36889,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MJ5ConvAdj_Quote</v>
       </c>
-      <c r="AN17" s="139" t="e">
+      <c r="AN17" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM17,IborIndex,$AK17,$AL17,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>AUDFUT1MJ5ConvAdj_Quote#0000</v>
       </c>
       <c r="AO17" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AN17)</f>
+        <f>_xll.ohRangeRetrieveError(AN17)</f>
         <v/>
       </c>
       <c r="AP17" s="223"/>
@@ -37026,12 +36949,12 @@
         <f t="shared" si="2"/>
         <v>AUDFUT1MK5ConvAdj_Quote</v>
       </c>
-      <c r="AN18" s="139" t="e">
+      <c r="AN18" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM18,IborIndex,$AK18,$AL18,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>#NUM!</v>
+        <v>AUDFUT1MK5ConvAdj_Quote#0000</v>
       </c>
       <c r="AO18" s="46" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(AN18)</f>
+        <f>_xll.ohRangeRetrieveError(AN18)</f>
         <v/>
       </c>
       <c r="AP18" s="223"/>
@@ -37154,7 +37077,7 @@
       </c>
       <c r="AH2" s="142" t="str">
         <f>FuturesHWConvAdj!C5</f>
-        <v>AUDHW_Volatility_Quote#0000</v>
+        <v>AUDHW_Volatility_Quote#0001</v>
       </c>
       <c r="AJ2" s="21"/>
     </row>
@@ -37184,7 +37107,7 @@
       </c>
       <c r="AH3" s="142" t="str">
         <f>FuturesHWConvAdj!C6</f>
-        <v>AUDHW_MeanReversion_Quote#0000</v>
+        <v>AUDHW_MeanReversion_Quote#0001</v>
       </c>
       <c r="AJ3" s="21"/>
     </row>
@@ -37229,7 +37152,7 @@
       </c>
       <c r="AH4" s="142" t="str">
         <f>BBSW!N9</f>
-        <v>AudBBSW3M#0000</v>
+        <v>AudBBSW3M#0019</v>
       </c>
       <c r="AI4" s="141" t="s">
         <v>17</v>
@@ -37273,9 +37196,9 @@
       <c r="N5" s="227" t="s">
         <v>197</v>
       </c>
-      <c r="O5" s="230" t="str">
-        <f>_xll.RData(O6:O47,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Updated at 18:05:18</v>
+      <c r="O5" s="230" t="e">
+        <f ca="1">_xll.RData(O6:O47,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P5" s="227" t="s">
         <v>196</v>
@@ -37350,7 +37273,7 @@
       </c>
       <c r="F6" s="100" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM4_Quote#0000</v>
+        <v>AUDFUT3MM4_Quote#0001</v>
       </c>
       <c r="G6" s="99" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -37427,7 +37350,7 @@
       </c>
       <c r="AH6" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG6,IborIndex,AF6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(Z6),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM4ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MM4ConvAdj_Quote#0006</v>
       </c>
       <c r="AI6" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH6)</f>
@@ -37452,7 +37375,7 @@
       </c>
       <c r="F7" s="93" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MN4_Quote#0000</v>
+        <v>AUDFUT3MN4_Quote#0001</v>
       </c>
       <c r="G7" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -37524,7 +37447,7 @@
       </c>
       <c r="AH7" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG7,IborIndex,AF7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(Z7),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>AUDFUT3MN4ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MN4ConvAdj_Quote#0006</v>
       </c>
       <c r="AI7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH7)</f>
@@ -37549,7 +37472,7 @@
       </c>
       <c r="F8" s="93" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MQ4_Quote#0000</v>
+        <v>AUDFUT3MQ4_Quote#0001</v>
       </c>
       <c r="G8" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -37621,7 +37544,7 @@
       </c>
       <c r="AH8" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG8,IborIndex,AF8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(Z8),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>AUDFUT3MQ4ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MQ4ConvAdj_Quote#0006</v>
       </c>
       <c r="AI8" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH8)</f>
@@ -37646,7 +37569,7 @@
       </c>
       <c r="F9" s="93" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU4_Quote#0000</v>
+        <v>AUDFUT3MU4_Quote#0001</v>
       </c>
       <c r="G9" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -37696,9 +37619,9 @@
       <c r="Y9" s="209">
         <v>97.335000000000008</v>
       </c>
-      <c r="Z9" s="151">
+      <c r="Z9" s="151" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F9,Y9,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA9" s="21"/>
       <c r="AB9" s="12"/>
@@ -37718,7 +37641,7 @@
       </c>
       <c r="AH9" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG9,IborIndex,AF9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(Z9),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU4ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MU4ConvAdj_Quote#0006</v>
       </c>
       <c r="AI9" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH9)</f>
@@ -37743,7 +37666,7 @@
       </c>
       <c r="F10" s="93" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MV4_Quote#0000</v>
+        <v>AUDFUT3MV4_Quote#0001</v>
       </c>
       <c r="G10" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -37816,7 +37739,7 @@
       </c>
       <c r="AH10" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG10,IborIndex,AF10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(Z10),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>AUDFUT3MV4ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MV4ConvAdj_Quote#0006</v>
       </c>
       <c r="AI10" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH10)</f>
@@ -37841,7 +37764,7 @@
       </c>
       <c r="F11" s="93" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MX4_Quote#0000</v>
+        <v>AUDFUT3MX4_Quote#0001</v>
       </c>
       <c r="G11" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -37913,7 +37836,7 @@
       </c>
       <c r="AH11" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG11,IborIndex,AF11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(Z11),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>AUDFUT3MX4ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MX4ConvAdj_Quote#0006</v>
       </c>
       <c r="AI11" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH11)</f>
@@ -37938,7 +37861,7 @@
       </c>
       <c r="F12" s="93" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ4_Quote#0000</v>
+        <v>AUDFUT3MZ4_Quote#0001</v>
       </c>
       <c r="G12" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -37988,9 +37911,9 @@
       <c r="Y12" s="209">
         <v>97.335000000000008</v>
       </c>
-      <c r="Z12" s="151">
+      <c r="Z12" s="151" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA12" s="21"/>
       <c r="AB12" s="12"/>
@@ -38010,7 +37933,7 @@
       </c>
       <c r="AH12" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG12,IborIndex,AF12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(Z12),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ4ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MZ4ConvAdj_Quote#0006</v>
       </c>
       <c r="AI12" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH12)</f>
@@ -38035,7 +37958,7 @@
       </c>
       <c r="F13" s="93" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MF5_Quote#0000</v>
+        <v>AUDFUT3MF5_Quote#0001</v>
       </c>
       <c r="G13" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -38107,7 +38030,7 @@
       </c>
       <c r="AH13" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG13,IborIndex,AF13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(Z13),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>AUDFUT3MF5ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MF5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI13" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH13)</f>
@@ -38132,7 +38055,7 @@
       </c>
       <c r="F14" s="93" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MG5_Quote#0000</v>
+        <v>AUDFUT3MG5_Quote#0001</v>
       </c>
       <c r="G14" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -38204,7 +38127,7 @@
       </c>
       <c r="AH14" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG14,IborIndex,AF14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(Z14),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>AUDFUT3MG5ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MG5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI14" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH14)</f>
@@ -38229,7 +38152,7 @@
       </c>
       <c r="F15" s="93" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH5_Quote#0000</v>
+        <v>AUDFUT3MH5_Quote#0001</v>
       </c>
       <c r="G15" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -38279,9 +38202,9 @@
       <c r="Y15" s="209">
         <v>97.295000000000002</v>
       </c>
-      <c r="Z15" s="151">
+      <c r="Z15" s="151" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15,Trigger)</f>
-        <v>1.0000000000005116E-2</v>
+        <v>#N/A</v>
       </c>
       <c r="AA15" s="21"/>
       <c r="AB15" s="12"/>
@@ -38301,7 +38224,7 @@
       </c>
       <c r="AH15" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG15,IborIndex,AF15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(Z15),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH5ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MH5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI15" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH15)</f>
@@ -38326,7 +38249,7 @@
       </c>
       <c r="F16" s="93" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MJ5_Quote#0000</v>
+        <v>AUDFUT3MJ5_Quote#0001</v>
       </c>
       <c r="G16" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -38398,7 +38321,7 @@
       </c>
       <c r="AH16" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG16,IborIndex,AF16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(Z16),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>AUDFUT3MJ5ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MJ5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI16" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH16)</f>
@@ -38423,7 +38346,7 @@
       </c>
       <c r="F17" s="93" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MK5_Quote#0000</v>
+        <v>AUDFUT3MK5_Quote#0001</v>
       </c>
       <c r="G17" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -38495,7 +38418,7 @@
       </c>
       <c r="AH17" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG17,IborIndex,AF17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(Z17),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>AUDFUT3MK5ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MK5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI17" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH17)</f>
@@ -38520,7 +38443,7 @@
       </c>
       <c r="F18" s="93" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM5_Quote#0000</v>
+        <v>AUDFUT3MM5_Quote#0001</v>
       </c>
       <c r="G18" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -38570,9 +38493,9 @@
       <c r="Y18" s="209">
         <v>97.204999999999998</v>
       </c>
-      <c r="Z18" s="151">
+      <c r="Z18" s="151" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA18" s="21"/>
       <c r="AB18" s="12"/>
@@ -38592,7 +38515,7 @@
       </c>
       <c r="AH18" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG18,IborIndex,AF18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(Z18),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM5ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MM5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI18" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH18)</f>
@@ -38617,7 +38540,7 @@
       </c>
       <c r="F19" s="93" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU5_Quote#0000</v>
+        <v>AUDFUT3MU5_Quote#0001</v>
       </c>
       <c r="G19" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -38667,9 +38590,9 @@
       <c r="Y19" s="209">
         <v>97.10499999999999</v>
       </c>
-      <c r="Z19" s="151">
+      <c r="Z19" s="151" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19,Trigger)</f>
-        <v>4.9999999999954525E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="12"/>
@@ -38689,7 +38612,7 @@
       </c>
       <c r="AH19" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG19,IborIndex,AF19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(Z19),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU5ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MU5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI19" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH19)</f>
@@ -38714,7 +38637,7 @@
       </c>
       <c r="F20" s="93" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ5_Quote#0000</v>
+        <v>AUDFUT3MZ5_Quote#0001</v>
       </c>
       <c r="G20" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -38764,9 +38687,9 @@
       <c r="Y20" s="209">
         <v>96.995000000000005</v>
       </c>
-      <c r="Z20" s="151">
+      <c r="Z20" s="151" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA20" s="21"/>
       <c r="AB20" s="12"/>
@@ -38786,7 +38709,7 @@
       </c>
       <c r="AH20" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG20,IborIndex,AF20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(Z20),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ5ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MZ5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI20" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH20)</f>
@@ -38811,7 +38734,7 @@
       </c>
       <c r="F21" s="93" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH6_Quote#0000</v>
+        <v>AUDFUT3MH6_Quote#0001</v>
       </c>
       <c r="G21" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -38861,9 +38784,9 @@
       <c r="Y21" s="209">
         <v>96.905000000000001</v>
       </c>
-      <c r="Z21" s="151">
+      <c r="Z21" s="151" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F21,Y21,Trigger)</f>
-        <v>4.9999999999954525E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="12"/>
@@ -38883,7 +38806,7 @@
       </c>
       <c r="AH21" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG21,IborIndex,AF21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(Z21),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH6ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MH6ConvAdj_Quote#0006</v>
       </c>
       <c r="AI21" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH21)</f>
@@ -38908,7 +38831,7 @@
       </c>
       <c r="F22" s="93" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM6_Quote#0000</v>
+        <v>AUDFUT3MM6_Quote#0001</v>
       </c>
       <c r="G22" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -38958,9 +38881,9 @@
       <c r="Y22" s="209">
         <v>96.805000000000007</v>
       </c>
-      <c r="Z22" s="151">
+      <c r="Z22" s="151" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F22,Y22,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA22" s="21"/>
       <c r="AB22" s="12"/>
@@ -38980,7 +38903,7 @@
       </c>
       <c r="AH22" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG22,IborIndex,AF22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(Z22),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM6ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MM6ConvAdj_Quote#0006</v>
       </c>
       <c r="AI22" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH22)</f>
@@ -39005,7 +38928,7 @@
       </c>
       <c r="F23" s="93" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU6_Quote#0000</v>
+        <v>AUDFUT3MU6_Quote#0001</v>
       </c>
       <c r="G23" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -39055,9 +38978,9 @@
       <c r="Y23" s="209">
         <v>96.72</v>
       </c>
-      <c r="Z23" s="151">
+      <c r="Z23" s="151" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA23" s="21"/>
       <c r="AB23" s="12"/>
@@ -39077,7 +39000,7 @@
       </c>
       <c r="AH23" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG23,IborIndex,AF23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(Z23),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU6ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MU6ConvAdj_Quote#0006</v>
       </c>
       <c r="AI23" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH23)</f>
@@ -39102,7 +39025,7 @@
       </c>
       <c r="F24" s="93" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ6_Quote#0000</v>
+        <v>AUDFUT3MZ6_Quote#0001</v>
       </c>
       <c r="G24" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -39152,9 +39075,9 @@
       <c r="Y24" s="209">
         <v>96.63</v>
       </c>
-      <c r="Z24" s="151">
+      <c r="Z24" s="151" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F24,Y24,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA24" s="21"/>
       <c r="AB24" s="12"/>
@@ -39174,7 +39097,7 @@
       </c>
       <c r="AH24" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG24,IborIndex,AF24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(Z24),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ6ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MZ6ConvAdj_Quote#0006</v>
       </c>
       <c r="AI24" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH24)</f>
@@ -39199,7 +39122,7 @@
       </c>
       <c r="F25" s="93" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH7_Quote#0000</v>
+        <v>AUDFUT3MH7_Quote#0001</v>
       </c>
       <c r="G25" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -39249,9 +39172,9 @@
       <c r="Y25" s="209">
         <v>96.53</v>
       </c>
-      <c r="Z25" s="151">
+      <c r="Z25" s="151" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F25,Y25,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA25" s="21"/>
       <c r="AB25" s="12"/>
@@ -39271,7 +39194,7 @@
       </c>
       <c r="AH25" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG25,IborIndex,AF25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(Z25),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH7ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MH7ConvAdj_Quote#0006</v>
       </c>
       <c r="AI25" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH25)</f>
@@ -39296,7 +39219,7 @@
       </c>
       <c r="F26" s="93" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM7_Quote#0000</v>
+        <v>AUDFUT3MM7_Quote#0001</v>
       </c>
       <c r="G26" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -39346,9 +39269,9 @@
       <c r="Y26" s="209">
         <v>96.43</v>
       </c>
-      <c r="Z26" s="151">
+      <c r="Z26" s="151" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F26,Y26,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA26" s="21"/>
       <c r="AB26" s="12"/>
@@ -39368,7 +39291,7 @@
       </c>
       <c r="AH26" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG26,IborIndex,AF26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(Z26),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM7ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MM7ConvAdj_Quote#0006</v>
       </c>
       <c r="AI26" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH26)</f>
@@ -39393,7 +39316,7 @@
       </c>
       <c r="F27" s="93" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU7_Quote#0000</v>
+        <v>AUDFUT3MU7_Quote#0001</v>
       </c>
       <c r="G27" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -39465,7 +39388,7 @@
       </c>
       <c r="AH27" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG27,IborIndex,AF27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(Z27),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU7ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MU7ConvAdj_Quote#0006</v>
       </c>
       <c r="AI27" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH27)</f>
@@ -39490,7 +39413,7 @@
       </c>
       <c r="F28" s="93" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ7_Quote#0000</v>
+        <v>AUDFUT3MZ7_Quote#0001</v>
       </c>
       <c r="G28" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -39562,7 +39485,7 @@
       </c>
       <c r="AH28" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG28,IborIndex,AF28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(Z28),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ7ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MZ7ConvAdj_Quote#0006</v>
       </c>
       <c r="AI28" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH28)</f>
@@ -39587,7 +39510,7 @@
       </c>
       <c r="F29" s="93" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH8_Quote#0000</v>
+        <v>AUDFUT3MH8_Quote#0001</v>
       </c>
       <c r="G29" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -39659,7 +39582,7 @@
       </c>
       <c r="AH29" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG29,IborIndex,AF29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(Z29),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH8ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MH8ConvAdj_Quote#0006</v>
       </c>
       <c r="AI29" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH29)</f>
@@ -39684,7 +39607,7 @@
       </c>
       <c r="F30" s="93" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM8_Quote#0000</v>
+        <v>AUDFUT3MM8_Quote#0001</v>
       </c>
       <c r="G30" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -39756,7 +39679,7 @@
       </c>
       <c r="AH30" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG30,IborIndex,AF30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(Z30),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM8ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MM8ConvAdj_Quote#0006</v>
       </c>
       <c r="AI30" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH30)</f>
@@ -39781,7 +39704,7 @@
       </c>
       <c r="F31" s="93" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU8_Quote#0000</v>
+        <v>AUDFUT3MU8_Quote#0001</v>
       </c>
       <c r="G31" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -39853,7 +39776,7 @@
       </c>
       <c r="AH31" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG31,IborIndex,AF31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(Z31),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU8ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MU8ConvAdj_Quote#0006</v>
       </c>
       <c r="AI31" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH31)</f>
@@ -39878,7 +39801,7 @@
       </c>
       <c r="F32" s="93" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ8_Quote#0000</v>
+        <v>AUDFUT3MZ8_Quote#0001</v>
       </c>
       <c r="G32" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -39950,7 +39873,7 @@
       </c>
       <c r="AH32" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG32,IborIndex,AF32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(Z32),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ8ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MZ8ConvAdj_Quote#0006</v>
       </c>
       <c r="AI32" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH32)</f>
@@ -39975,7 +39898,7 @@
       </c>
       <c r="F33" s="93" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH9_Quote#0000</v>
+        <v>AUDFUT3MH9_Quote#0001</v>
       </c>
       <c r="G33" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -40047,7 +39970,7 @@
       </c>
       <c r="AH33" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG33,IborIndex,AF33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(Z33),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH9ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MH9ConvAdj_Quote#0006</v>
       </c>
       <c r="AI33" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH33)</f>
@@ -40072,7 +39995,7 @@
       </c>
       <c r="F34" s="93" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM9_Quote#0000</v>
+        <v>AUDFUT3MM9_Quote#0001</v>
       </c>
       <c r="G34" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -40144,7 +40067,7 @@
       </c>
       <c r="AH34" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG34,IborIndex,AF34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(Z34),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM9ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MM9ConvAdj_Quote#0006</v>
       </c>
       <c r="AI34" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH34)</f>
@@ -40169,7 +40092,7 @@
       </c>
       <c r="F35" s="93" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU9_Quote#0000</v>
+        <v>AUDFUT3MU9_Quote#0001</v>
       </c>
       <c r="G35" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -40241,7 +40164,7 @@
       </c>
       <c r="AH35" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG35,IborIndex,AF35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(Z35),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU9ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MU9ConvAdj_Quote#0006</v>
       </c>
       <c r="AI35" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH35)</f>
@@ -40266,7 +40189,7 @@
       </c>
       <c r="F36" s="93" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ9_Quote#0000</v>
+        <v>AUDFUT3MZ9_Quote#0001</v>
       </c>
       <c r="G36" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -40338,7 +40261,7 @@
       </c>
       <c r="AH36" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG36,IborIndex,AF36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(Z36),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ9ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MZ9ConvAdj_Quote#0006</v>
       </c>
       <c r="AI36" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH36)</f>
@@ -40363,7 +40286,7 @@
       </c>
       <c r="F37" s="93" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH0_Quote#0000</v>
+        <v>AUDFUT3MH0_Quote#0001</v>
       </c>
       <c r="G37" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -40435,7 +40358,7 @@
       </c>
       <c r="AH37" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG37,IborIndex,AF37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(Z37),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH0ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MH0ConvAdj_Quote#0006</v>
       </c>
       <c r="AI37" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH37)</f>
@@ -40460,7 +40383,7 @@
       </c>
       <c r="F38" s="93" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM0_Quote#0000</v>
+        <v>AUDFUT3MM0_Quote#0001</v>
       </c>
       <c r="G38" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -40532,7 +40455,7 @@
       </c>
       <c r="AH38" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG38,IborIndex,AF38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(Z38),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM0ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MM0ConvAdj_Quote#0006</v>
       </c>
       <c r="AI38" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH38)</f>
@@ -40557,7 +40480,7 @@
       </c>
       <c r="F39" s="93" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU0_Quote#0000</v>
+        <v>AUDFUT3MU0_Quote#0001</v>
       </c>
       <c r="G39" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -40629,7 +40552,7 @@
       </c>
       <c r="AH39" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG39,IborIndex,AF39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(Z39),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU0ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MU0ConvAdj_Quote#0006</v>
       </c>
       <c r="AI39" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH39)</f>
@@ -40654,7 +40577,7 @@
       </c>
       <c r="F40" s="93" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ0_Quote#0000</v>
+        <v>AUDFUT3MZ0_Quote#0001</v>
       </c>
       <c r="G40" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -40726,7 +40649,7 @@
       </c>
       <c r="AH40" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG40,IborIndex,AF40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(Z40),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ0ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MZ0ConvAdj_Quote#0006</v>
       </c>
       <c r="AI40" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH40)</f>
@@ -40751,7 +40674,7 @@
       </c>
       <c r="F41" s="93" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH1_Quote#0000</v>
+        <v>AUDFUT3MH1_Quote#0001</v>
       </c>
       <c r="G41" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -40823,7 +40746,7 @@
       </c>
       <c r="AH41" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG41,IborIndex,AF41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(Z41),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH1ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MH1ConvAdj_Quote#0006</v>
       </c>
       <c r="AI41" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH41)</f>
@@ -40848,7 +40771,7 @@
       </c>
       <c r="F42" s="93" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM1_Quote#0000</v>
+        <v>AUDFUT3MM1_Quote#0001</v>
       </c>
       <c r="G42" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -40920,7 +40843,7 @@
       </c>
       <c r="AH42" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG42,IborIndex,AF42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(Z42),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM1ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MM1ConvAdj_Quote#0006</v>
       </c>
       <c r="AI42" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH42)</f>
@@ -40945,7 +40868,7 @@
       </c>
       <c r="F43" s="93" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU1_Quote#0000</v>
+        <v>AUDFUT3MU1_Quote#0001</v>
       </c>
       <c r="G43" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -41017,7 +40940,7 @@
       </c>
       <c r="AH43" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG43,IborIndex,AF43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(Z43),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU1ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MU1ConvAdj_Quote#0006</v>
       </c>
       <c r="AI43" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH43)</f>
@@ -41042,7 +40965,7 @@
       </c>
       <c r="F44" s="93" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ1_Quote#0000</v>
+        <v>AUDFUT3MZ1_Quote#0001</v>
       </c>
       <c r="G44" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -41114,7 +41037,7 @@
       </c>
       <c r="AH44" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG44,IborIndex,AF44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(Z44),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ1ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MZ1ConvAdj_Quote#0006</v>
       </c>
       <c r="AI44" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH44)</f>
@@ -41139,7 +41062,7 @@
       </c>
       <c r="F45" s="93" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH2_Quote#0000</v>
+        <v>AUDFUT3MH2_Quote#0001</v>
       </c>
       <c r="G45" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -41211,7 +41134,7 @@
       </c>
       <c r="AH45" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG45,IborIndex,AF45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(Z45),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH2ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MH2ConvAdj_Quote#0006</v>
       </c>
       <c r="AI45" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH45)</f>
@@ -41236,7 +41159,7 @@
       </c>
       <c r="F46" s="93" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM2_Quote#0000</v>
+        <v>AUDFUT3MM2_Quote#0001</v>
       </c>
       <c r="G46" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -41308,7 +41231,7 @@
       </c>
       <c r="AH46" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG46,IborIndex,AF46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(Z46),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM2ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MM2ConvAdj_Quote#0006</v>
       </c>
       <c r="AI46" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH46)</f>
@@ -41333,7 +41256,7 @@
       </c>
       <c r="F47" s="93" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU2_Quote#0000</v>
+        <v>AUDFUT3MU2_Quote#0001</v>
       </c>
       <c r="G47" s="72" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -41405,7 +41328,7 @@
       </c>
       <c r="AH47" s="139" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG47,IborIndex,AF47,F47,Volatility,MeanReversion,Permanent,AND(ISERROR(Z47),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU2ConvAdj_Quote#0000</v>
+        <v>AUDFUT3MU2ConvAdj_Quote#0006</v>
       </c>
       <c r="AI47" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH47)</f>

--- a/QuantLibXL/Data2/XLS/AUD_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD_Market.xlsx
@@ -3004,94 +3004,94 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 09:22:05</v>
+        <v>Updated at 14:39:37</v>
         <stp/>
-        <stp>{534982F6-9A1D-4A33-AF4F-24B22E23CE2E}</stp>
+        <stp>{09939762-717F-4E52-8CA9-E01C5A190F44}</stp>
+        <tr r="Q5" s="64"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:39:37</v>
+        <stp/>
+        <stp>{15A485A5-D4A3-4BF9-B80C-46968DCFA27F}</stp>
+        <tr r="J4" s="15"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:39:37</v>
+        <stp/>
+        <stp>{74C01410-1083-4AA7-8982-988459EE4A5C}</stp>
+        <tr r="O4" s="22"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:39:37</v>
+        <stp/>
+        <stp>{82101283-110D-46E0-AA52-5C8992E5B81A}</stp>
+        <tr r="O4" s="65"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:39:37</v>
+        <stp/>
+        <stp>{21B68B08-9BB4-4406-AEFD-3378F608CF4D}</stp>
+        <tr r="M6" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:39:37</v>
+        <stp/>
+        <stp>{84AC724C-F7F8-44D7-ABD9-1CA95A8955ED}</stp>
+        <tr r="P4" s="26"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:43:55</v>
+        <stp/>
+        <stp>{ED9B07FC-64B9-44E1-B3C9-EDA1965C2BEB}</stp>
         <tr r="O5" s="18"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:12:36</v>
+        <v>Updated at 14:39:37</v>
         <stp/>
-        <stp>{EF4295A3-0C82-4563-B203-DA800B87B628}</stp>
-        <tr r="M6" s="8"/>
+        <stp>{8D242C0F-DE49-44FC-B7BB-5A4724F52C4E}</stp>
+        <tr r="P4" s="12"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:13:49</v>
+        <v>Updated at 14:39:37</v>
         <stp/>
-        <stp>{B0E7D24A-87B9-4824-A966-31BBE4098D7D}</stp>
+        <stp>{5C84809A-5C72-4B3F-97E0-1950531F3D6D}</stp>
+        <tr r="P4" s="11"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:39:37</v>
+        <stp/>
+        <stp>{5C95C3D6-BCDA-453A-8647-DD456780D1D0}</stp>
         <tr r="N4" s="16"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:12:37</v>
+        <v>Updated at 14:39:37</v>
         <stp/>
-        <stp>{3CDC4104-3031-42D9-AA83-65D54D56FE53}</stp>
-        <tr r="P4" s="12"/>
+        <stp>{70814F26-090B-4581-9718-A944317E20FB}</stp>
+        <tr r="M6" s="7"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:12:36</v>
+        <v>Updated at 14:39:37</v>
         <stp/>
-        <stp>{56D88654-7792-4A3C-B9A6-8A31E801DFC2}</stp>
+        <stp>{D9C2CEA5-9B24-4A1E-BB72-9E478F22C49D}</stp>
+        <tr r="P4" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:39:37</v>
+        <stp/>
+        <stp>{BF659609-C77B-4E32-B82F-0163199DC53E}</stp>
+        <tr r="K5" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:39:37</v>
+        <stp/>
+        <stp>{318D5ACC-3EED-4C21-B8DC-7718BE198A6F}</stp>
         <tr r="O5" s="17"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:12:37</v>
+        <v>Updated at 14:39:37</v>
         <stp/>
-        <stp>{97F50E87-E0B0-45C2-833C-F99E5598352B}</stp>
-        <tr r="Q5" s="64"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:12:37</v>
-        <stp/>
-        <stp>{3825F087-3EFE-495F-A41B-EEDBBEA83842}</stp>
-        <tr r="P4" s="26"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:12:37</v>
-        <stp/>
-        <stp>{6CA0902C-D22D-4404-B96A-0695AA324A07}</stp>
-        <tr r="K5" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:12:37</v>
-        <stp/>
-        <stp>{1F6E3E7D-DB5A-443A-991B-05DB8A1D0727}</stp>
-        <tr r="P4" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:12:38</v>
-        <stp/>
-        <stp>{868E78B6-88BF-4EF8-BC28-B0389D52919D}</stp>
+        <stp>{4D291D04-57B0-4E5B-8F75-8F91B21421AE}</stp>
         <tr r="O4" s="23"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:21:40</v>
-        <stp/>
-        <stp>{5714431D-FFD0-4D96-AB33-E06298353416}</stp>
-        <tr r="J4" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:12:38</v>
-        <stp/>
-        <stp>{16DEB325-BC40-4025-8E48-0CE7B5FBDDD5}</stp>
-        <tr r="P4" s="11"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:12:37</v>
-        <stp/>
-        <stp>{D6A33BAA-F9C2-4958-B2EE-B97E480E900C}</stp>
-        <tr r="O4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:12:36</v>
-        <stp/>
-        <stp>{144CF197-FC60-46BF-A402-487A987F2648}</stp>
-        <tr r="M6" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:12:38</v>
-        <stp/>
-        <stp>{66625AB5-BF72-4DFD-8408-335B0B4FB1C2}</stp>
-        <tr r="O4" s="65"/>
       </tp>
     </main>
   </volType>
@@ -3459,7 +3459,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="266">
-        <v>41808.383472222224</v>
+        <v>41808.610439814816</v>
       </c>
       <c r="E5" s="253"/>
       <c r="G5" s="5"/>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="D7" s="263">
         <f>_xll.ohTrigger(Deposits!R3,FRA!X3,Futures3M!Z4,FuturesHWConvAdj!Q3,Swaps1M!Y3,Swap3M!Z3,Swap6M!Z3,BasisSwap1M3M!X3,BasisSwap3M6M!X3,OIS!Y3)</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E7" s="253"/>
       <c r="G7" s="5"/>
@@ -4287,7 +4287,7 @@
       <c r="N4" s="115"/>
       <c r="O4" s="134" t="str">
         <f>_xll.RData(O5:O18,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 09:12:38</v>
+        <v>Updated at 14:39:37</v>
       </c>
       <c r="P4" s="188" t="s">
         <v>162</v>
@@ -5393,7 +5393,7 @@
       <c r="O4" s="115"/>
       <c r="P4" s="497" t="str">
         <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 09:12:37</v>
+        <v>Updated at 14:39:37</v>
       </c>
       <c r="Q4" s="188" t="s">
         <v>162</v>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="Z6" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>2.4999999999997247E-5</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="126"/>
       <c r="AB6" s="12"/>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="Z10" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>1.0000000000000633E-4</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="126"/>
       <c r="AB10" s="12"/>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="Z11" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
-        <v>2.5000000000000022E-4</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="126"/>
       <c r="AB11" s="12"/>
@@ -8574,7 +8574,7 @@
       <c r="O4" s="115"/>
       <c r="P4" s="134" t="str">
         <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 09:12:37</v>
+        <v>Updated at 14:39:37</v>
       </c>
       <c r="Q4" s="188" t="s">
         <v>162</v>
@@ -9218,7 +9218,7 @@
       </c>
       <c r="Z12" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>3.0000000000000165E-4</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="126"/>
       <c r="AB12" s="12"/>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="Z13" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>3.2499999999999196E-4</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="126"/>
       <c r="AB13" s="12"/>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="Z14" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14/100,Trigger)</f>
-        <v>3.4999999999999615E-4</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="126"/>
       <c r="AB14" s="12"/>
@@ -9449,7 +9449,7 @@
       </c>
       <c r="Z15" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15/100,Trigger)</f>
-        <v>4.2499999999999483E-4</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="126"/>
       <c r="AB15" s="12"/>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="Z16" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>4.4999999999999901E-4</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="126"/>
       <c r="AB16" s="12"/>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="Z17" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17/100,Trigger)</f>
-        <v>4.750000000000032E-4</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="126"/>
       <c r="AB17" s="12"/>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="Z18" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18/100,Trigger)</f>
-        <v>5.0000000000000738E-4</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="126"/>
       <c r="AB18" s="12"/>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="Z20" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20/100,Trigger)</f>
-        <v>5.2499999999999769E-4</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="126"/>
       <c r="AB20" s="12"/>
@@ -10065,7 +10065,7 @@
       </c>
       <c r="Z23" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23/100,Trigger)</f>
-        <v>5.4999999999999494E-4</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="126"/>
       <c r="AB23" s="12"/>
@@ -10450,7 +10450,7 @@
       </c>
       <c r="Z28" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28/100,Trigger)</f>
-        <v>5.0000000000000738E-4</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="126"/>
       <c r="AB28" s="12"/>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="Z33" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F33,Y33/100,Trigger)</f>
-        <v>5.0000000000000738E-4</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="126"/>
       <c r="AB33" s="12"/>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="Z38" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F38,Y38/100,Trigger)</f>
-        <v>5.0000000000000044E-4</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="126"/>
       <c r="AB38" s="12"/>
@@ -11374,7 +11374,7 @@
       </c>
       <c r="Z40" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F40,Y40/100,Trigger)</f>
-        <v>5.0000000000000044E-4</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="126"/>
       <c r="AB40" s="12"/>
@@ -11730,7 +11730,7 @@
       <c r="O4" s="115"/>
       <c r="P4" s="134" t="str">
         <f>_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 09:12:38</v>
+        <v>Updated at 14:39:37</v>
       </c>
       <c r="Q4" s="188" t="s">
         <v>162</v>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="X6" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/10000,Trigger)</f>
-        <v>2.5000000000000066E-5</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="126"/>
       <c r="Z6" s="12"/>
@@ -12168,7 +12168,7 @@
       </c>
       <c r="X10" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/10000,Trigger)</f>
-        <v>2.4999999999999957E-5</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="126"/>
     </row>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="X11" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F11,W11/10000,Trigger)</f>
-        <v>1.2500000000000033E-5</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="126"/>
     </row>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="X12" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
-        <v>1.2499999999999924E-5</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="126"/>
     </row>
@@ -12369,7 +12369,7 @@
       </c>
       <c r="X13" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/10000,Trigger)</f>
-        <v>1.2500000000000033E-5</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="126"/>
     </row>
@@ -14521,7 +14521,7 @@
       <c r="O4" s="115"/>
       <c r="P4" s="134" t="str">
         <f>_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 09:12:37</v>
+        <v>Updated at 14:39:37</v>
       </c>
       <c r="Q4" s="188" t="s">
         <v>162</v>
@@ -15111,7 +15111,7 @@
       </c>
       <c r="X12" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
-        <v>-1.2499999999999924E-5</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="126"/>
       <c r="Z12" s="12"/>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="X15" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/10000,Trigger)</f>
-        <v>-1.2500000000000033E-5</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="126"/>
       <c r="Z15" s="12"/>
@@ -15537,7 +15537,7 @@
       </c>
       <c r="X18" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F18,W18/10000,Trigger)</f>
-        <v>-1.2500000000000033E-5</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="126"/>
       <c r="Z18" s="12"/>
@@ -15892,7 +15892,7 @@
       </c>
       <c r="X23" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F23,W23/10000,Trigger)</f>
-        <v>-1.2500000000000033E-5</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="126"/>
       <c r="Z23" s="12"/>
@@ -17464,7 +17464,7 @@
       <c r="J5" s="393"/>
       <c r="K5" s="369" t="str">
         <f>_xll.RData(K6:K12,L5:M5,"RTFEED:IDN",,,L6)</f>
-        <v>Updated at 09:12:37</v>
+        <v>Updated at 14:39:37</v>
       </c>
       <c r="L5" s="370" t="s">
         <v>227</v>
@@ -17580,7 +17580,7 @@
       </c>
       <c r="H7" s="367" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E7)</f>
-        <v>qlLibor - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="I7" s="367" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -17647,7 +17647,7 @@
       </c>
       <c r="H8" s="367" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E8)</f>
-        <v>qlLibor - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="I8" s="367" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -17714,7 +17714,7 @@
       </c>
       <c r="H9" s="367" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E9)</f>
-        <v>qlLibor - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="I9" s="367" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="H10" s="367" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E10)</f>
-        <v>qlLibor - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="I10" s="367" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -17848,7 +17848,7 @@
       </c>
       <c r="H11" s="367" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E11)</f>
-        <v>qlLibor - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="I11" s="367" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -17915,7 +17915,7 @@
       </c>
       <c r="H12" s="367" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E12)</f>
-        <v>qlLibor - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="I12" s="367" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -18237,7 +18237,7 @@
       </c>
       <c r="M6" s="310" t="str">
         <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Updated at 09:12:36</v>
+        <v>Updated at 14:39:37</v>
       </c>
       <c r="N6" s="310" t="s">
         <v>227</v>
@@ -18288,7 +18288,7 @@
       </c>
       <c r="G7" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F7)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H7" s="21"/>
       <c r="J7" s="270"/>
@@ -18359,7 +18359,7 @@
       </c>
       <c r="G8" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F8)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H8" s="21"/>
       <c r="J8" s="270"/>
@@ -18430,7 +18430,7 @@
       </c>
       <c r="G9" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F9)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H9" s="21"/>
       <c r="J9" s="270"/>
@@ -18501,7 +18501,7 @@
       </c>
       <c r="G10" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F10)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H10" s="21"/>
       <c r="J10" s="270"/>
@@ -18572,7 +18572,7 @@
       </c>
       <c r="G11" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F11)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H11" s="21"/>
       <c r="J11" s="270"/>
@@ -18643,7 +18643,7 @@
       </c>
       <c r="G12" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F12)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H12" s="21"/>
       <c r="J12" s="270"/>
@@ -18714,7 +18714,7 @@
       </c>
       <c r="G13" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F13)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H13" s="21"/>
       <c r="J13" s="270"/>
@@ -18785,7 +18785,7 @@
       </c>
       <c r="G14" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F14)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H14" s="21"/>
       <c r="J14" s="270"/>
@@ -18856,7 +18856,7 @@
       </c>
       <c r="G15" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F15)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H15" s="21"/>
       <c r="J15" s="270"/>
@@ -18927,7 +18927,7 @@
       </c>
       <c r="G16" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F16)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H16" s="21"/>
       <c r="J16" s="270"/>
@@ -18998,7 +18998,7 @@
       </c>
       <c r="G17" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F17)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H17" s="21"/>
       <c r="J17" s="270"/>
@@ -19069,7 +19069,7 @@
       </c>
       <c r="G18" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F18)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H18" s="21"/>
       <c r="J18" s="270"/>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="G19" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F19)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H19" s="21"/>
       <c r="J19" s="270"/>
@@ -19211,7 +19211,7 @@
       </c>
       <c r="G20" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F20)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H20" s="21"/>
       <c r="J20" s="270"/>
@@ -19282,7 +19282,7 @@
       </c>
       <c r="G21" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F21)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H21" s="21"/>
       <c r="J21" s="270"/>
@@ -19353,7 +19353,7 @@
       </c>
       <c r="G22" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F22)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H22" s="21"/>
       <c r="J22" s="270"/>
@@ -19391,7 +19391,7 @@
       </c>
       <c r="G23" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F23)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H23" s="21"/>
       <c r="J23" s="270"/>
@@ -19429,7 +19429,7 @@
       </c>
       <c r="G24" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F24)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H24" s="21"/>
       <c r="J24" s="270"/>
@@ -19473,7 +19473,7 @@
       </c>
       <c r="G25" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F25)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H25" s="21"/>
       <c r="J25" s="270"/>
@@ -19517,7 +19517,7 @@
       </c>
       <c r="G26" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F26)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H26" s="21"/>
       <c r="J26" s="270"/>
@@ -19561,7 +19561,7 @@
       </c>
       <c r="G27" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F27)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H27" s="21"/>
       <c r="J27" s="270"/>
@@ -19605,7 +19605,7 @@
       </c>
       <c r="G28" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F28)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H28" s="21"/>
       <c r="J28" s="270"/>
@@ -19649,7 +19649,7 @@
       </c>
       <c r="G29" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F29)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H29" s="21"/>
       <c r="J29" s="270"/>
@@ -19693,7 +19693,7 @@
       </c>
       <c r="G30" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F30)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H30" s="21"/>
       <c r="J30" s="270"/>
@@ -19737,7 +19737,7 @@
       </c>
       <c r="G31" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F31)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H31" s="21"/>
     </row>
@@ -19759,7 +19759,7 @@
       </c>
       <c r="G32" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F32)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H32" s="21"/>
     </row>
@@ -19781,7 +19781,7 @@
       </c>
       <c r="G33" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F33)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H33" s="21"/>
     </row>
@@ -19803,7 +19803,7 @@
       </c>
       <c r="G34" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F34)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H34" s="21"/>
     </row>
@@ -19825,7 +19825,7 @@
       </c>
       <c r="G35" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F35)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H35" s="21"/>
     </row>
@@ -19847,7 +19847,7 @@
       </c>
       <c r="G36" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F36)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H36" s="21"/>
     </row>
@@ -19869,7 +19869,7 @@
       </c>
       <c r="G37" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F37)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H37" s="21"/>
     </row>
@@ -19891,7 +19891,7 @@
       </c>
       <c r="G38" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F38)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H38" s="21"/>
     </row>
@@ -19913,7 +19913,7 @@
       </c>
       <c r="G39" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F39)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H39" s="21"/>
     </row>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="G40" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F40)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H40" s="21"/>
     </row>
@@ -19957,7 +19957,7 @@
       </c>
       <c r="G41" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F41)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H41" s="21"/>
     </row>
@@ -19979,7 +19979,7 @@
       </c>
       <c r="G42" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F42)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H42" s="21"/>
     </row>
@@ -20001,7 +20001,7 @@
       </c>
       <c r="G43" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F43)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H43" s="21"/>
     </row>
@@ -20023,7 +20023,7 @@
       </c>
       <c r="G44" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F44)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H44" s="21"/>
     </row>
@@ -20045,7 +20045,7 @@
       </c>
       <c r="G45" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F45)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H45" s="21"/>
     </row>
@@ -20067,7 +20067,7 @@
       </c>
       <c r="G46" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F46)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H46" s="21"/>
     </row>
@@ -20089,7 +20089,7 @@
       </c>
       <c r="G47" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F47)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H47" s="21"/>
     </row>
@@ -20111,7 +20111,7 @@
       </c>
       <c r="G48" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F48)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H48" s="21"/>
     </row>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="G49" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F49)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H49" s="21"/>
     </row>
@@ -20155,7 +20155,7 @@
       </c>
       <c r="G50" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F50)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H50" s="21"/>
     </row>
@@ -20177,7 +20177,7 @@
       </c>
       <c r="G51" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F51)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H51" s="21"/>
     </row>
@@ -20199,7 +20199,7 @@
       </c>
       <c r="G52" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F52)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H52" s="21"/>
     </row>
@@ -20221,7 +20221,7 @@
       </c>
       <c r="G53" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F53)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H53" s="21"/>
     </row>
@@ -20243,7 +20243,7 @@
       </c>
       <c r="G54" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F54)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H54" s="21"/>
     </row>
@@ -20265,7 +20265,7 @@
       </c>
       <c r="G55" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F55)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H55" s="21"/>
     </row>
@@ -20287,7 +20287,7 @@
       </c>
       <c r="G56" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F56)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H56" s="21"/>
     </row>
@@ -20309,7 +20309,7 @@
       </c>
       <c r="G57" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F57)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H57" s="21"/>
     </row>
@@ -20331,7 +20331,7 @@
       </c>
       <c r="G58" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F58)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H58" s="21"/>
     </row>
@@ -20353,7 +20353,7 @@
       </c>
       <c r="G59" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F59)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H59" s="21"/>
     </row>
@@ -20375,7 +20375,7 @@
       </c>
       <c r="G60" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F60)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H60" s="21"/>
     </row>
@@ -20397,7 +20397,7 @@
       </c>
       <c r="G61" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F61)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H61" s="21"/>
     </row>
@@ -20419,7 +20419,7 @@
       </c>
       <c r="G62" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F62)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H62" s="21"/>
     </row>
@@ -20441,7 +20441,7 @@
       </c>
       <c r="G63" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F63)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H63" s="21"/>
     </row>
@@ -20463,7 +20463,7 @@
       </c>
       <c r="G64" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F64)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H64" s="21"/>
     </row>
@@ -20485,7 +20485,7 @@
       </c>
       <c r="G65" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F65)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H65" s="21"/>
     </row>
@@ -20507,7 +20507,7 @@
       </c>
       <c r="G66" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F66)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H66" s="21"/>
     </row>
@@ -20784,7 +20784,7 @@
       </c>
       <c r="M6" s="310" t="str">
         <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Updated at 09:12:36</v>
+        <v>Updated at 14:39:37</v>
       </c>
       <c r="N6" s="310" t="s">
         <v>227</v>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="G7" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F7)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H7" s="21"/>
       <c r="J7" s="270"/>
@@ -20906,7 +20906,7 @@
       </c>
       <c r="G8" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F8)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H8" s="21"/>
       <c r="J8" s="270"/>
@@ -20977,7 +20977,7 @@
       </c>
       <c r="G9" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F9)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H9" s="21"/>
       <c r="J9" s="270"/>
@@ -21048,7 +21048,7 @@
       </c>
       <c r="G10" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F10)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H10" s="21"/>
       <c r="J10" s="270"/>
@@ -21119,7 +21119,7 @@
       </c>
       <c r="G11" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F11)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H11" s="21"/>
       <c r="J11" s="270"/>
@@ -21190,7 +21190,7 @@
       </c>
       <c r="G12" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F12)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H12" s="21"/>
       <c r="J12" s="270"/>
@@ -21261,7 +21261,7 @@
       </c>
       <c r="G13" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F13)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H13" s="21"/>
       <c r="J13" s="270"/>
@@ -21332,7 +21332,7 @@
       </c>
       <c r="G14" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F14)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H14" s="21"/>
       <c r="J14" s="270"/>
@@ -21403,7 +21403,7 @@
       </c>
       <c r="G15" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F15)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H15" s="21"/>
       <c r="J15" s="270"/>
@@ -21474,7 +21474,7 @@
       </c>
       <c r="G16" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F16)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H16" s="21"/>
       <c r="J16" s="270"/>
@@ -21545,7 +21545,7 @@
       </c>
       <c r="G17" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F17)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H17" s="21"/>
       <c r="J17" s="270"/>
@@ -21616,7 +21616,7 @@
       </c>
       <c r="G18" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F18)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H18" s="21"/>
       <c r="J18" s="270"/>
@@ -21687,7 +21687,7 @@
       </c>
       <c r="G19" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F19)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H19" s="21"/>
       <c r="J19" s="270"/>
@@ -21758,7 +21758,7 @@
       </c>
       <c r="G20" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F20)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H20" s="21"/>
       <c r="J20" s="270"/>
@@ -21829,7 +21829,7 @@
       </c>
       <c r="G21" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F21)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H21" s="21"/>
       <c r="J21" s="270"/>
@@ -21900,7 +21900,7 @@
       </c>
       <c r="G22" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F22)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H22" s="21"/>
       <c r="J22" s="270"/>
@@ -21938,7 +21938,7 @@
       </c>
       <c r="G23" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F23)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H23" s="21"/>
       <c r="J23" s="270"/>
@@ -21976,7 +21976,7 @@
       </c>
       <c r="G24" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F24)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H24" s="21"/>
       <c r="J24" s="270"/>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="G25" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F25)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H25" s="21"/>
       <c r="J25" s="270"/>
@@ -22064,7 +22064,7 @@
       </c>
       <c r="G26" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F26)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H26" s="21"/>
       <c r="J26" s="270"/>
@@ -22108,7 +22108,7 @@
       </c>
       <c r="G27" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F27)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H27" s="21"/>
       <c r="J27" s="270"/>
@@ -22152,7 +22152,7 @@
       </c>
       <c r="G28" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F28)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H28" s="21"/>
       <c r="J28" s="270"/>
@@ -22196,7 +22196,7 @@
       </c>
       <c r="G29" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F29)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H29" s="21"/>
       <c r="J29" s="270"/>
@@ -22240,7 +22240,7 @@
       </c>
       <c r="G30" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F30)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H30" s="21"/>
       <c r="J30" s="270"/>
@@ -22284,7 +22284,7 @@
       </c>
       <c r="G31" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F31)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H31" s="21"/>
     </row>
@@ -22306,7 +22306,7 @@
       </c>
       <c r="G32" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F32)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H32" s="21"/>
     </row>
@@ -22328,7 +22328,7 @@
       </c>
       <c r="G33" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F33)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H33" s="21"/>
     </row>
@@ -22350,7 +22350,7 @@
       </c>
       <c r="G34" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F34)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H34" s="21"/>
     </row>
@@ -22372,7 +22372,7 @@
       </c>
       <c r="G35" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F35)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H35" s="21"/>
     </row>
@@ -22394,7 +22394,7 @@
       </c>
       <c r="G36" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F36)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H36" s="21"/>
     </row>
@@ -22416,7 +22416,7 @@
       </c>
       <c r="G37" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F37)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H37" s="21"/>
     </row>
@@ -22438,7 +22438,7 @@
       </c>
       <c r="G38" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F38)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H38" s="21"/>
     </row>
@@ -22460,7 +22460,7 @@
       </c>
       <c r="G39" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F39)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H39" s="21"/>
     </row>
@@ -22482,7 +22482,7 @@
       </c>
       <c r="G40" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F40)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H40" s="21"/>
     </row>
@@ -22504,7 +22504,7 @@
       </c>
       <c r="G41" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F41)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H41" s="21"/>
     </row>
@@ -22526,7 +22526,7 @@
       </c>
       <c r="G42" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F42)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H42" s="21"/>
     </row>
@@ -22548,7 +22548,7 @@
       </c>
       <c r="G43" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F43)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H43" s="21"/>
     </row>
@@ -22570,7 +22570,7 @@
       </c>
       <c r="G44" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F44)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H44" s="21"/>
     </row>
@@ -22592,7 +22592,7 @@
       </c>
       <c r="G45" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F45)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H45" s="21"/>
     </row>
@@ -22614,7 +22614,7 @@
       </c>
       <c r="G46" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F46)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H46" s="21"/>
     </row>
@@ -22636,7 +22636,7 @@
       </c>
       <c r="G47" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F47)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H47" s="21"/>
     </row>
@@ -22658,7 +22658,7 @@
       </c>
       <c r="G48" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F48)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H48" s="21"/>
     </row>
@@ -22680,7 +22680,7 @@
       </c>
       <c r="G49" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F49)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H49" s="21"/>
     </row>
@@ -22702,7 +22702,7 @@
       </c>
       <c r="G50" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F50)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H50" s="21"/>
     </row>
@@ -22724,7 +22724,7 @@
       </c>
       <c r="G51" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F51)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H51" s="21"/>
     </row>
@@ -22746,7 +22746,7 @@
       </c>
       <c r="G52" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F52)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H52" s="21"/>
     </row>
@@ -22768,7 +22768,7 @@
       </c>
       <c r="G53" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F53)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H53" s="21"/>
     </row>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="G54" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F54)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H54" s="21"/>
     </row>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="G55" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F55)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H55" s="21"/>
     </row>
@@ -22834,7 +22834,7 @@
       </c>
       <c r="G56" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F56)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H56" s="21"/>
     </row>
@@ -22856,7 +22856,7 @@
       </c>
       <c r="G57" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F57)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H57" s="21"/>
     </row>
@@ -22878,7 +22878,7 @@
       </c>
       <c r="G58" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F58)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H58" s="21"/>
     </row>
@@ -22900,7 +22900,7 @@
       </c>
       <c r="G59" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F59)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H59" s="21"/>
     </row>
@@ -22922,7 +22922,7 @@
       </c>
       <c r="G60" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F60)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H60" s="21"/>
     </row>
@@ -22944,7 +22944,7 @@
       </c>
       <c r="G61" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F61)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H61" s="21"/>
     </row>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="G62" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F62)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H62" s="21"/>
     </row>
@@ -22988,7 +22988,7 @@
       </c>
       <c r="G63" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F63)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H63" s="21"/>
     </row>
@@ -23010,7 +23010,7 @@
       </c>
       <c r="G64" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F64)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H64" s="21"/>
     </row>
@@ -23032,7 +23032,7 @@
       </c>
       <c r="G65" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F65)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H65" s="21"/>
     </row>
@@ -23054,7 +23054,7 @@
       </c>
       <c r="G66" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F66)</f>
-        <v>qlLiborSwap - Unhandled currency AUD</v>
+        <v/>
       </c>
       <c r="H66" s="21"/>
     </row>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="Q5" s="370" t="str">
         <f>_xll.RData(Q6:Q14,R5:S5,"RTFEED:IDN",,,R6)</f>
-        <v>Updated at 09:12:37</v>
+        <v>Updated at 14:39:37</v>
       </c>
       <c r="R5" s="370" t="s">
         <v>227</v>
@@ -23535,7 +23535,7 @@
       </c>
       <c r="V8" s="458">
         <f>_xll.qlQuoteValue(L8)</f>
-        <v>2.6699999999999998E-2</v>
+        <v>2.69E-2</v>
       </c>
       <c r="W8" s="365"/>
     </row>
@@ -23609,7 +23609,7 @@
       </c>
       <c r="V9" s="458">
         <f>_xll.qlQuoteValue(L9)</f>
-        <v>2.69E-2</v>
+        <v>2.7000000000000003E-2</v>
       </c>
       <c r="W9" s="365"/>
     </row>
@@ -23751,7 +23751,7 @@
       </c>
       <c r="V11" s="458">
         <f>_xll.qlQuoteValue(L11)</f>
-        <v>2.7000000000000003E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="W11" s="365"/>
     </row>
@@ -23823,9 +23823,9 @@
         <f>IF(S12,_xll.qlIndexAddFixings(P12,R12,S12/100,TRUE),NA())</f>
         <v>1</v>
       </c>
-      <c r="V12" s="458" t="e">
+      <c r="V12" s="458">
         <f>_xll.qlQuoteValue(L12)</f>
-        <v>#NUM!</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="W12" s="365"/>
     </row>
@@ -24083,8 +24083,8 @@
         <v>AudBBSWSwapForBasisCalc1Y</v>
       </c>
       <c r="F4" s="406" t="str">
-        <f>_xll.qlSwapIndex($E4,FixingType,C4,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!K9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWswapForBasisCalc1Y#0004</v>
+        <f>_xll.qlSwapIndex($E4,FixingType,C4,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>AudBBSWSwapForBasisCalc1Y#0012</v>
       </c>
       <c r="G4" s="403" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -24105,8 +24105,8 @@
         <v>AudBBSWSwapForBasisCalc2Y</v>
       </c>
       <c r="F5" s="406" t="str">
-        <f>_xll.qlSwapIndex($E5,FixingType,C5,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!K10,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWswapForBasisCalc2Y#0008</v>
+        <f>_xll.qlSwapIndex($E5,FixingType,C5,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>AudBBSWSwapForBasisCalc2Y#0003</v>
       </c>
       <c r="G5" s="403" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -24127,8 +24127,8 @@
         <v>AudBBSWSwapForBasisCalc3Y</v>
       </c>
       <c r="F6" s="406" t="str">
-        <f>_xll.qlSwapIndex($E6,FixingType,C6,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!K11,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWswapForBasisCalc3Y#0008</v>
+        <f>_xll.qlSwapIndex($E6,FixingType,C6,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>AudBBSWSwapForBasisCalc3Y#0003</v>
       </c>
       <c r="G6" s="403" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -24149,8 +24149,8 @@
         <v>AudBBSWSwapForBasisCalc4Y</v>
       </c>
       <c r="F7" s="406" t="str">
-        <f>_xll.qlSwapIndex($E7,FixingType,C7,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!K12,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWswapForBasisCalc4Y#0008</v>
+        <f>_xll.qlSwapIndex($E7,FixingType,C7,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>AudBBSWSwapForBasisCalc4Y#0003</v>
       </c>
       <c r="G7" s="403" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -24878,7 +24878,7 @@
       <c r="N4" s="82"/>
       <c r="O4" s="220" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 09:12:37</v>
+        <v>Updated at 14:39:37</v>
       </c>
       <c r="P4" s="217" t="s">
         <v>162</v>
@@ -25174,7 +25174,7 @@
       </c>
       <c r="Y8" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F8,X8/100,Trigger)</f>
-        <v>9.9999999999995925E-6</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="126"/>
       <c r="AB8"/>
@@ -25376,7 +25376,7 @@
       </c>
       <c r="Y11" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F11,X11/100,Trigger)</f>
-        <v>-2.5000000000000716E-5</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="126"/>
     </row>
@@ -25443,7 +25443,7 @@
       </c>
       <c r="Y12" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F12,X12/100,Trigger)</f>
-        <v>-2.4999999999997247E-5</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="126"/>
     </row>
@@ -25711,7 +25711,7 @@
       </c>
       <c r="Y16" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F16,X16/100,Trigger)</f>
-        <v>-1.4999999999997654E-5</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="126"/>
     </row>
@@ -25912,7 +25912,7 @@
       </c>
       <c r="Y19" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F19,X19/100,Trigger)</f>
-        <v>3.4999999999996839E-5</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="126"/>
     </row>
@@ -26314,7 +26314,7 @@
       </c>
       <c r="Y25" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F25,X25/100,Trigger)</f>
-        <v>4.9999999999997963E-5</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="126"/>
     </row>
@@ -26716,7 +26716,7 @@
       </c>
       <c r="Y31" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
-        <v>5.0000000000001432E-5</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="126"/>
     </row>
@@ -26984,7 +26984,7 @@
       </c>
       <c r="Y35" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>1.5000000000000083E-4</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="126"/>
     </row>
@@ -28832,7 +28832,7 @@
       <c r="N4" s="82"/>
       <c r="O4" s="220" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 09:12:38</v>
+        <v>Updated at 14:39:37</v>
       </c>
       <c r="P4" s="217" t="s">
         <v>162</v>
@@ -30351,7 +30351,7 @@
       </c>
       <c r="Y25" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F25,X25/100,Trigger)</f>
-        <v>4.9999999999997963E-5</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="126"/>
     </row>
@@ -30777,7 +30777,7 @@
       </c>
       <c r="Y31" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
-        <v>5.0000000000004902E-5</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="126"/>
     </row>
@@ -31061,7 +31061,7 @@
       </c>
       <c r="Y35" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>9.9999999999999395E-5</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="126"/>
     </row>
@@ -31345,7 +31345,7 @@
       </c>
       <c r="Y39" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F39,X39/100,Trigger)</f>
-        <v>2.9999999999999818E-4</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="126"/>
     </row>
@@ -31629,7 +31629,7 @@
       </c>
       <c r="Y43" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F43,X43/100,Trigger)</f>
-        <v>3.2999999999999696E-4</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="126"/>
     </row>
@@ -31700,7 +31700,7 @@
       </c>
       <c r="Y44" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F44,X44/100,Trigger)</f>
-        <v>3.8000000000000533E-4</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="126"/>
     </row>
@@ -31771,7 +31771,7 @@
       </c>
       <c r="Y45" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F45,X45/100,Trigger)</f>
-        <v>4.3000000000000677E-4</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="126"/>
     </row>
@@ -31842,7 +31842,7 @@
       </c>
       <c r="Y46" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F46,X46/100,Trigger)</f>
-        <v>4.4999999999999901E-4</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="126"/>
     </row>
@@ -31913,7 +31913,7 @@
       </c>
       <c r="Y47" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F47,X47/100,Trigger)</f>
-        <v>4.9999999999999351E-4</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="126"/>
     </row>
@@ -31984,7 +31984,7 @@
       </c>
       <c r="Y48" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F48,X48/100,Trigger)</f>
-        <v>5.3000000000000269E-4</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="126"/>
     </row>
@@ -32055,7 +32055,7 @@
       </c>
       <c r="Y49" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F49,X49/100,Trigger)</f>
-        <v>5.5000000000000188E-4</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="126"/>
     </row>
@@ -32126,7 +32126,7 @@
       </c>
       <c r="Y50" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F50,X50/100,Trigger)</f>
-        <v>5.7999999999999718E-4</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="126"/>
     </row>
@@ -32197,7 +32197,7 @@
       </c>
       <c r="Y51" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F51,X51/100,Trigger)</f>
-        <v>5.0000000000000738E-4</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="126"/>
     </row>
@@ -32268,7 +32268,7 @@
       </c>
       <c r="Y52" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F52,X52/100,Trigger)</f>
-        <v>5.0000000000000738E-4</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="126"/>
     </row>
@@ -32410,7 +32410,7 @@
       </c>
       <c r="Y54" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F54,X54/100,Trigger)</f>
-        <v>5.3000000000000963E-4</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="126"/>
     </row>
@@ -32962,7 +32962,7 @@
       <c r="Q3" s="169"/>
       <c r="R3" s="168">
         <f>_xll.ohTrigger(R5:R18)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" s="126"/>
       <c r="T3" s="12"/>
@@ -32992,7 +32992,7 @@
       <c r="I4" s="165"/>
       <c r="J4" s="134" t="str">
         <f>_xll.RData(J6:J22,K4:L4,,ReutersRtMode,,K6)</f>
-        <v>Updated at 09:21:40</v>
+        <v>Updated at 14:39:37</v>
       </c>
       <c r="K4" s="134" t="s">
         <v>162</v>
@@ -34371,7 +34371,7 @@
       <c r="M4" s="59"/>
       <c r="N4" s="473" t="str">
         <f>_xll.RData(N5:N19,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Updated at 09:13:49</v>
+        <v>Updated at 14:39:37</v>
       </c>
       <c r="O4" s="166" t="s">
         <v>162</v>
@@ -34471,7 +34471,7 @@
       </c>
       <c r="X5" s="155">
         <f>_xll.qlSimpleQuoteSetValue(E5,W5/100,Trigger)</f>
-        <v>4.9999999999997963E-5</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="126"/>
       <c r="Z5" s="12"/>
@@ -34543,7 +34543,7 @@
       </c>
       <c r="X6" s="136">
         <f>_xll.qlSimpleQuoteSetValue(E6,W6/100,Trigger)</f>
-        <v>-4.9999999999997963E-5</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="126"/>
       <c r="Z6" s="12"/>
@@ -34831,7 +34831,7 @@
       </c>
       <c r="X10" s="136">
         <f>_xll.qlSimpleQuoteSetValue(E10,W10/100,Trigger)</f>
-        <v>4.9999999999997963E-5</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="126"/>
       <c r="Z10" s="12"/>
@@ -34904,7 +34904,7 @@
       </c>
       <c r="X11" s="477">
         <f>_xll.qlSimpleQuoteSetValue(E11,W11/100,Trigger)</f>
-        <v>-9.9999999999999395E-5</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="126"/>
       <c r="Z11" s="12"/>
@@ -35050,7 +35050,7 @@
       </c>
       <c r="X13" s="136">
         <f>_xll.qlSimpleQuoteSetValue(E13,W13/100,Trigger)</f>
-        <v>-9.9999999999999395E-5</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="126"/>
       <c r="Z13" s="12"/>
@@ -35123,7 +35123,7 @@
       </c>
       <c r="X14" s="136">
         <f>_xll.qlSimpleQuoteSetValue(E14,W14/100,Trigger)</f>
-        <v>-2.0000000000000226E-4</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="126"/>
       <c r="Z14" s="12"/>
@@ -35196,7 +35196,7 @@
       </c>
       <c r="X15" s="136">
         <f>_xll.qlSimpleQuoteSetValue(E15,W15/100,Trigger)</f>
-        <v>-1.9999999999999879E-4</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="126"/>
       <c r="Z15" s="12"/>
@@ -35269,7 +35269,7 @@
       </c>
       <c r="X16" s="136">
         <f>_xll.qlSimpleQuoteSetValue(E16,W16/100,Trigger)</f>
-        <v>-1.9999999999999879E-4</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="126"/>
       <c r="Z16" s="12"/>
@@ -35794,7 +35794,7 @@
       </c>
       <c r="O5" s="134" t="str">
         <f>_xll.RData(O6:O17,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Updated at 09:12:36</v>
+        <v>Updated at 14:39:37</v>
       </c>
       <c r="P5" s="188" t="s">
         <v>195</v>
@@ -36045,7 +36045,7 @@
       </c>
       <c r="AO7" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN7)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MM4_Quote'</v>
+        <v/>
       </c>
       <c r="AP7" s="213"/>
     </row>
@@ -36150,7 +36150,7 @@
       </c>
       <c r="AO8" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN8)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MN4_Quote'</v>
+        <v/>
       </c>
       <c r="AP8" s="213"/>
     </row>
@@ -36255,7 +36255,7 @@
       </c>
       <c r="AO9" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN9)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MQ4_Quote'</v>
+        <v/>
       </c>
       <c r="AP9" s="213"/>
       <c r="AQ9" s="341"/>
@@ -36361,7 +36361,7 @@
       </c>
       <c r="AO10" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN10)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MU4_Quote'</v>
+        <v/>
       </c>
       <c r="AP10" s="213"/>
     </row>
@@ -36466,7 +36466,7 @@
       </c>
       <c r="AO11" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN11)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MV4_Quote'</v>
+        <v/>
       </c>
       <c r="AP11" s="213"/>
     </row>
@@ -36571,7 +36571,7 @@
       </c>
       <c r="AO12" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN12)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MX4_Quote'</v>
+        <v/>
       </c>
       <c r="AP12" s="213"/>
     </row>
@@ -36676,7 +36676,7 @@
       </c>
       <c r="AO13" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN13)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MZ4_Quote'</v>
+        <v/>
       </c>
       <c r="AP13" s="213"/>
     </row>
@@ -36781,7 +36781,7 @@
       </c>
       <c r="AO14" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN14)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MF5_Quote'</v>
+        <v/>
       </c>
       <c r="AP14" s="213"/>
     </row>
@@ -36886,7 +36886,7 @@
       </c>
       <c r="AO15" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN15)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MG5_Quote'</v>
+        <v/>
       </c>
       <c r="AP15" s="213"/>
     </row>
@@ -36991,7 +36991,7 @@
       </c>
       <c r="AO16" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN16)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MH5_Quote'</v>
+        <v/>
       </c>
       <c r="AP16" s="213"/>
     </row>
@@ -37096,7 +37096,7 @@
       </c>
       <c r="AO17" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN17)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MJ5_Quote'</v>
+        <v/>
       </c>
       <c r="AP17" s="213"/>
     </row>
@@ -37156,7 +37156,7 @@
       </c>
       <c r="AO18" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN18)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MK5_Quote'</v>
+        <v/>
       </c>
       <c r="AP18" s="213"/>
     </row>
@@ -37381,7 +37381,7 @@
       <c r="Y4" s="83"/>
       <c r="Z4" s="168">
         <f>_xll.ohTrigger(Z6:Z47)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AA4" s="213"/>
       <c r="AB4" s="12"/>
@@ -37440,7 +37440,7 @@
       </c>
       <c r="O5" s="220" t="str">
         <f>_xll.RData(O6:O47,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Updated at 09:22:05</v>
+        <v>Updated at 14:43:55</v>
       </c>
       <c r="P5" s="217" t="s">
         <v>195</v>
@@ -37592,7 +37592,7 @@
       </c>
       <c r="AH6" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG6,IborIndex,AF6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(Z6),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM4ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MM4ConvAdj_Quote#0001</v>
       </c>
       <c r="AI6" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH6)</f>
@@ -37689,7 +37689,7 @@
       </c>
       <c r="AH7" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG7,IborIndex,AF7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(Z7),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>AUDFUT3MN4ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MN4ConvAdj_Quote#0001</v>
       </c>
       <c r="AI7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH7)</f>
@@ -37786,7 +37786,7 @@
       </c>
       <c r="AH8" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG8,IborIndex,AF8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(Z8),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>AUDFUT3MQ4ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MQ4ConvAdj_Quote#0001</v>
       </c>
       <c r="AI8" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH8)</f>
@@ -37844,7 +37844,7 @@
         <v>97.34</v>
       </c>
       <c r="S9" s="137">
-        <v>0</v>
+        <v>97.33</v>
       </c>
       <c r="T9" s="137">
         <v>97.34</v>
@@ -37883,7 +37883,7 @@
       </c>
       <c r="AH9" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG9,IborIndex,AF9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(Z9),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU4ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MU4ConvAdj_Quote#0001</v>
       </c>
       <c r="AI9" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH9)</f>
@@ -37981,7 +37981,7 @@
       </c>
       <c r="AH10" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG10,IborIndex,AF10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(Z10),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>AUDFUT3MV4ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MV4ConvAdj_Quote#0001</v>
       </c>
       <c r="AI10" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH10)</f>
@@ -38078,7 +38078,7 @@
       </c>
       <c r="AH11" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG11,IborIndex,AF11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(Z11),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>AUDFUT3MX4ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MX4ConvAdj_Quote#0001</v>
       </c>
       <c r="AI11" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH11)</f>
@@ -38130,20 +38130,20 @@
         <v>41984</v>
       </c>
       <c r="Q12" s="137">
-        <v>97.33</v>
+        <v>97.34</v>
       </c>
       <c r="R12" s="137">
-        <v>97.34</v>
+        <v>97.35</v>
       </c>
       <c r="S12" s="137">
-        <v>0</v>
+        <v>97.35</v>
       </c>
       <c r="T12" s="137">
         <v>97.33</v>
       </c>
       <c r="U12" s="141">
         <f>_xll.qlMidSafe($Q12,$R12)</f>
-        <v>97.335000000000008</v>
+        <v>97.344999999999999</v>
       </c>
       <c r="V12" s="139"/>
       <c r="W12" s="200">
@@ -38151,11 +38151,11 @@
       </c>
       <c r="X12" s="139"/>
       <c r="Y12" s="199">
-        <v>97.335000000000008</v>
+        <v>97.344999999999999</v>
       </c>
       <c r="Z12" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999909051E-3</v>
       </c>
       <c r="AA12" s="21"/>
       <c r="AB12" s="12"/>
@@ -38175,7 +38175,7 @@
       </c>
       <c r="AH12" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG12,IborIndex,AF12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(Z12),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ4ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MZ4ConvAdj_Quote#0001</v>
       </c>
       <c r="AI12" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH12)</f>
@@ -38272,7 +38272,7 @@
       </c>
       <c r="AH13" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG13,IborIndex,AF13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(Z13),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>AUDFUT3MF5ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MF5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI13" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH13)</f>
@@ -38369,7 +38369,7 @@
       </c>
       <c r="AH14" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG14,IborIndex,AF14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(Z14),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>AUDFUT3MG5ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MG5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI14" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH14)</f>
@@ -38421,20 +38421,20 @@
         <v>42075</v>
       </c>
       <c r="Q15" s="137">
-        <v>97.29</v>
+        <v>97.3</v>
       </c>
       <c r="R15" s="137">
-        <v>97.3</v>
+        <v>97.31</v>
       </c>
       <c r="S15" s="137">
-        <v>97.29</v>
+        <v>97.31</v>
       </c>
       <c r="T15" s="137">
         <v>97.3</v>
       </c>
       <c r="U15" s="141">
         <f>_xll.qlMidSafe($Q15,$R15)</f>
-        <v>97.295000000000002</v>
+        <v>97.305000000000007</v>
       </c>
       <c r="V15" s="139"/>
       <c r="W15" s="200">
@@ -38442,11 +38442,11 @@
       </c>
       <c r="X15" s="139"/>
       <c r="Y15" s="199">
-        <v>97.295000000000002</v>
+        <v>97.305000000000007</v>
       </c>
       <c r="Z15" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="AA15" s="21"/>
       <c r="AB15" s="12"/>
@@ -38466,7 +38466,7 @@
       </c>
       <c r="AH15" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG15,IborIndex,AF15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(Z15),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH5ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MH5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI15" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH15)</f>
@@ -38563,7 +38563,7 @@
       </c>
       <c r="AH16" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG16,IborIndex,AF16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(Z16),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>AUDFUT3MJ5ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MJ5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI16" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH16)</f>
@@ -38660,7 +38660,7 @@
       </c>
       <c r="AH17" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG17,IborIndex,AF17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(Z17),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>AUDFUT3MK5ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MK5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI17" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH17)</f>
@@ -38757,7 +38757,7 @@
       </c>
       <c r="AH18" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG18,IborIndex,AF18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(Z18),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM5ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MM5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI18" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH18)</f>
@@ -38809,20 +38809,20 @@
         <v>42257</v>
       </c>
       <c r="Q19" s="137">
-        <v>97.1</v>
+        <v>97.11</v>
       </c>
       <c r="R19" s="137">
+        <v>97.12</v>
+      </c>
+      <c r="S19" s="137">
         <v>97.11</v>
-      </c>
-      <c r="S19" s="137">
-        <v>0</v>
       </c>
       <c r="T19" s="137">
         <v>97.11</v>
       </c>
       <c r="U19" s="141">
         <f>_xll.qlMidSafe($Q19,$R19)</f>
-        <v>97.10499999999999</v>
+        <v>97.115000000000009</v>
       </c>
       <c r="V19" s="139"/>
       <c r="W19" s="200">
@@ -38830,11 +38830,11 @@
       </c>
       <c r="X19" s="139"/>
       <c r="Y19" s="199">
-        <v>97.10499999999999</v>
+        <v>97.115000000000009</v>
       </c>
       <c r="Z19" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19,Trigger)</f>
-        <v>0</v>
+        <v>1.0000000000019327E-2</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="12"/>
@@ -38854,7 +38854,7 @@
       </c>
       <c r="AH19" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG19,IborIndex,AF19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(Z19),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU5ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MU5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI19" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH19)</f>
@@ -38906,20 +38906,20 @@
         <v>42348</v>
       </c>
       <c r="Q20" s="137">
-        <v>96.99</v>
+        <v>97</v>
       </c>
       <c r="R20" s="137">
-        <v>97</v>
+        <v>97.01</v>
       </c>
       <c r="S20" s="137">
-        <v>0</v>
+        <v>97.01</v>
       </c>
       <c r="T20" s="137">
         <v>97</v>
       </c>
       <c r="U20" s="141">
         <f>_xll.qlMidSafe($Q20,$R20)</f>
-        <v>96.995000000000005</v>
+        <v>97.004999999999995</v>
       </c>
       <c r="V20" s="139"/>
       <c r="W20" s="200">
@@ -38927,11 +38927,11 @@
       </c>
       <c r="X20" s="139"/>
       <c r="Y20" s="199">
-        <v>96.995000000000005</v>
+        <v>97.004999999999995</v>
       </c>
       <c r="Z20" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999909051E-3</v>
       </c>
       <c r="AA20" s="21"/>
       <c r="AB20" s="12"/>
@@ -38951,7 +38951,7 @@
       </c>
       <c r="AH20" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG20,IborIndex,AF20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(Z20),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ5ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MZ5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI20" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH20)</f>
@@ -39003,20 +39003,20 @@
         <v>42439</v>
       </c>
       <c r="Q21" s="137">
-        <v>96.89</v>
+        <v>96.9</v>
       </c>
       <c r="R21" s="137">
-        <v>96.9</v>
+        <v>96.92</v>
       </c>
       <c r="S21" s="137">
-        <v>0</v>
+        <v>96.91</v>
       </c>
       <c r="T21" s="137">
         <v>96.9</v>
       </c>
       <c r="U21" s="141">
         <f>_xll.qlMidSafe($Q21,$R21)</f>
-        <v>96.89500000000001</v>
+        <v>96.91</v>
       </c>
       <c r="V21" s="139"/>
       <c r="W21" s="200">
@@ -39024,11 +39024,11 @@
       </c>
       <c r="X21" s="139"/>
       <c r="Y21" s="199">
-        <v>96.89500000000001</v>
+        <v>96.91</v>
       </c>
       <c r="Z21" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F21,Y21,Trigger)</f>
-        <v>0</v>
+        <v>1.4999999999986358E-2</v>
       </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="12"/>
@@ -39048,7 +39048,7 @@
       </c>
       <c r="AH21" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG21,IborIndex,AF21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(Z21),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH6ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MH6ConvAdj_Quote#0001</v>
       </c>
       <c r="AI21" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH21)</f>
@@ -39100,20 +39100,20 @@
         <v>42530</v>
       </c>
       <c r="Q22" s="137">
-        <v>96.79</v>
+        <v>96.81</v>
       </c>
       <c r="R22" s="137">
+        <v>96.83</v>
+      </c>
+      <c r="S22" s="137">
         <v>96.81</v>
-      </c>
-      <c r="S22" s="137">
-        <v>0</v>
       </c>
       <c r="T22" s="137">
         <v>96.8</v>
       </c>
       <c r="U22" s="141">
         <f>_xll.qlMidSafe($Q22,$R22)</f>
-        <v>96.800000000000011</v>
+        <v>96.82</v>
       </c>
       <c r="V22" s="139"/>
       <c r="W22" s="200">
@@ -39121,11 +39121,11 @@
       </c>
       <c r="X22" s="139"/>
       <c r="Y22" s="199">
-        <v>96.800000000000011</v>
+        <v>96.82</v>
       </c>
       <c r="Z22" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F22,Y22,Trigger)</f>
-        <v>0</v>
+        <v>1.999999999998181E-2</v>
       </c>
       <c r="AA22" s="21"/>
       <c r="AB22" s="12"/>
@@ -39145,7 +39145,7 @@
       </c>
       <c r="AH22" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG22,IborIndex,AF22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(Z22),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM6ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MM6ConvAdj_Quote#0001</v>
       </c>
       <c r="AI22" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH22)</f>
@@ -39197,7 +39197,7 @@
         <v>42621</v>
       </c>
       <c r="Q23" s="137">
-        <v>96.69</v>
+        <v>96.71</v>
       </c>
       <c r="R23" s="137">
         <v>96.73</v>
@@ -39210,7 +39210,7 @@
       </c>
       <c r="U23" s="141">
         <f>_xll.qlMidSafe($Q23,$R23)</f>
-        <v>96.710000000000008</v>
+        <v>96.72</v>
       </c>
       <c r="V23" s="139"/>
       <c r="W23" s="200">
@@ -39218,11 +39218,11 @@
       </c>
       <c r="X23" s="139"/>
       <c r="Y23" s="199">
-        <v>96.710000000000008</v>
+        <v>96.72</v>
       </c>
       <c r="Z23" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999909051E-3</v>
       </c>
       <c r="AA23" s="21"/>
       <c r="AB23" s="12"/>
@@ -39242,7 +39242,7 @@
       </c>
       <c r="AH23" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG23,IborIndex,AF23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(Z23),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU6ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MU6ConvAdj_Quote#0001</v>
       </c>
       <c r="AI23" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH23)</f>
@@ -39294,10 +39294,10 @@
         <v>42712</v>
       </c>
       <c r="Q24" s="137">
-        <v>96.58</v>
+        <v>96.61</v>
       </c>
       <c r="R24" s="137">
-        <v>96.63</v>
+        <v>96.64</v>
       </c>
       <c r="S24" s="137">
         <v>0</v>
@@ -39307,7 +39307,7 @@
       </c>
       <c r="U24" s="141">
         <f>_xll.qlMidSafe($Q24,$R24)</f>
-        <v>96.60499999999999</v>
+        <v>96.625</v>
       </c>
       <c r="V24" s="139"/>
       <c r="W24" s="200">
@@ -39315,11 +39315,11 @@
       </c>
       <c r="X24" s="139"/>
       <c r="Y24" s="199">
-        <v>96.60499999999999</v>
+        <v>96.625</v>
       </c>
       <c r="Z24" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F24,Y24,Trigger)</f>
-        <v>-5.0000000000096634E-3</v>
+        <v>2.0000000000010232E-2</v>
       </c>
       <c r="AA24" s="21"/>
       <c r="AB24" s="12"/>
@@ -39339,7 +39339,7 @@
       </c>
       <c r="AH24" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG24,IborIndex,AF24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(Z24),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ6ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MZ6ConvAdj_Quote#0001</v>
       </c>
       <c r="AI24" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH24)</f>
@@ -39391,7 +39391,7 @@
         <v>42803</v>
       </c>
       <c r="Q25" s="137">
-        <v>96.46</v>
+        <v>96.51</v>
       </c>
       <c r="R25" s="137">
         <v>96.55</v>
@@ -39404,7 +39404,7 @@
       </c>
       <c r="U25" s="141">
         <f>_xll.qlMidSafe($Q25,$R25)</f>
-        <v>96.504999999999995</v>
+        <v>96.53</v>
       </c>
       <c r="V25" s="139"/>
       <c r="W25" s="200">
@@ -39412,11 +39412,11 @@
       </c>
       <c r="X25" s="139"/>
       <c r="Y25" s="199">
-        <v>96.504999999999995</v>
+        <v>96.53</v>
       </c>
       <c r="Z25" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F25,Y25,Trigger)</f>
-        <v>-4.9999999999954525E-3</v>
+        <v>2.5000000000005684E-2</v>
       </c>
       <c r="AA25" s="21"/>
       <c r="AB25" s="12"/>
@@ -39436,7 +39436,7 @@
       </c>
       <c r="AH25" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG25,IborIndex,AF25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(Z25),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH7ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MH7ConvAdj_Quote#0001</v>
       </c>
       <c r="AI25" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH25)</f>
@@ -39491,7 +39491,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="137">
-        <v>0</v>
+        <v>96.49</v>
       </c>
       <c r="S26" s="137">
         <v>0</v>
@@ -39533,7 +39533,7 @@
       </c>
       <c r="AH26" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG26,IborIndex,AF26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(Z26),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM7ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MM7ConvAdj_Quote#0001</v>
       </c>
       <c r="AI26" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH26)</f>
@@ -39630,7 +39630,7 @@
       </c>
       <c r="AH27" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG27,IborIndex,AF27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(Z27),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU7ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MU7ConvAdj_Quote#0001</v>
       </c>
       <c r="AI27" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH27)</f>
@@ -39727,7 +39727,7 @@
       </c>
       <c r="AH28" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG28,IborIndex,AF28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(Z28),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ7ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MZ7ConvAdj_Quote#0001</v>
       </c>
       <c r="AI28" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH28)</f>
@@ -39824,7 +39824,7 @@
       </c>
       <c r="AH29" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG29,IborIndex,AF29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(Z29),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH8ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MH8ConvAdj_Quote#0001</v>
       </c>
       <c r="AI29" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH29)</f>
@@ -39921,7 +39921,7 @@
       </c>
       <c r="AH30" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG30,IborIndex,AF30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(Z30),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM8ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MM8ConvAdj_Quote#0001</v>
       </c>
       <c r="AI30" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH30)</f>
@@ -40018,7 +40018,7 @@
       </c>
       <c r="AH31" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG31,IborIndex,AF31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(Z31),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU8ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MU8ConvAdj_Quote#0001</v>
       </c>
       <c r="AI31" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH31)</f>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="AH32" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG32,IborIndex,AF32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(Z32),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ8ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MZ8ConvAdj_Quote#0001</v>
       </c>
       <c r="AI32" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH32)</f>
@@ -40212,7 +40212,7 @@
       </c>
       <c r="AH33" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG33,IborIndex,AF33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(Z33),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH9ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MH9ConvAdj_Quote#0001</v>
       </c>
       <c r="AI33" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH33)</f>
@@ -40309,7 +40309,7 @@
       </c>
       <c r="AH34" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG34,IborIndex,AF34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(Z34),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM9ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MM9ConvAdj_Quote#0001</v>
       </c>
       <c r="AI34" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH34)</f>
@@ -40406,7 +40406,7 @@
       </c>
       <c r="AH35" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG35,IborIndex,AF35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(Z35),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU9ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MU9ConvAdj_Quote#0001</v>
       </c>
       <c r="AI35" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH35)</f>
@@ -40503,7 +40503,7 @@
       </c>
       <c r="AH36" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG36,IborIndex,AF36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(Z36),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ9ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MZ9ConvAdj_Quote#0001</v>
       </c>
       <c r="AI36" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH36)</f>
@@ -40600,7 +40600,7 @@
       </c>
       <c r="AH37" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG37,IborIndex,AF37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(Z37),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH0ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MH0ConvAdj_Quote#0001</v>
       </c>
       <c r="AI37" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH37)</f>
@@ -40697,7 +40697,7 @@
       </c>
       <c r="AH38" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG38,IborIndex,AF38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(Z38),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM0ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MM0ConvAdj_Quote#0001</v>
       </c>
       <c r="AI38" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH38)</f>
@@ -40794,7 +40794,7 @@
       </c>
       <c r="AH39" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG39,IborIndex,AF39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(Z39),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU0ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MU0ConvAdj_Quote#0001</v>
       </c>
       <c r="AI39" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH39)</f>
@@ -40891,7 +40891,7 @@
       </c>
       <c r="AH40" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG40,IborIndex,AF40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(Z40),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ0ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MZ0ConvAdj_Quote#0001</v>
       </c>
       <c r="AI40" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH40)</f>
@@ -40988,7 +40988,7 @@
       </c>
       <c r="AH41" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG41,IborIndex,AF41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(Z41),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH1ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MH1ConvAdj_Quote#0001</v>
       </c>
       <c r="AI41" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH41)</f>
@@ -41085,7 +41085,7 @@
       </c>
       <c r="AH42" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG42,IborIndex,AF42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(Z42),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM1ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MM1ConvAdj_Quote#0001</v>
       </c>
       <c r="AI42" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH42)</f>
@@ -41182,7 +41182,7 @@
       </c>
       <c r="AH43" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG43,IborIndex,AF43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(Z43),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU1ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MU1ConvAdj_Quote#0001</v>
       </c>
       <c r="AI43" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH43)</f>
@@ -41279,7 +41279,7 @@
       </c>
       <c r="AH44" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG44,IborIndex,AF44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(Z44),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ1ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MZ1ConvAdj_Quote#0001</v>
       </c>
       <c r="AI44" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH44)</f>
@@ -41376,7 +41376,7 @@
       </c>
       <c r="AH45" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG45,IborIndex,AF45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(Z45),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH2ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MH2ConvAdj_Quote#0001</v>
       </c>
       <c r="AI45" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH45)</f>
@@ -41473,7 +41473,7 @@
       </c>
       <c r="AH46" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG46,IborIndex,AF46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(Z46),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM2ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MM2ConvAdj_Quote#0001</v>
       </c>
       <c r="AI46" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH46)</f>
@@ -41570,7 +41570,7 @@
       </c>
       <c r="AH47" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG47,IborIndex,AF47,F47,Volatility,MeanReversion,Permanent,AND(ISERROR(Z47),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU2ConvAdj_Quote#0013</v>
+        <v>AUDFUT3MU2ConvAdj_Quote#0001</v>
       </c>
       <c r="AI47" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH47)</f>

--- a/QuantLibXL/Data2/XLS/AUD_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD_Market.xlsx
@@ -3004,94 +3004,94 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:47</v>
         <stp/>
-        <stp>{09939762-717F-4E52-8CA9-E01C5A190F44}</stp>
+        <stp>{4F080267-A2DE-4034-9BFA-EB6DAF78F6BE}</stp>
+        <tr r="O5" s="17"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:08:48</v>
+        <stp/>
+        <stp>{9CA386A3-0D90-4B10-B43E-B5E013B1CB43}</stp>
+        <tr r="K5" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:08:49</v>
+        <stp/>
+        <stp>{9D4D69EB-BD55-424D-A532-DFEA03E8F376}</stp>
+        <tr r="O4" s="22"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:08:47</v>
+        <stp/>
+        <stp>{770F8C37-CF6C-4EC9-B8CF-EF3A5A700E85}</stp>
+        <tr r="M6" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:08:49</v>
+        <stp/>
+        <stp>{55907EA5-63D1-4184-9591-85645854CBE7}</stp>
+        <tr r="N4" s="16"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:08:48</v>
+        <stp/>
+        <stp>{A509BBFC-EA50-4FD9-8AD0-E0863866154E}</stp>
+        <tr r="P4" s="11"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:08:49</v>
+        <stp/>
+        <stp>{21D0A4B3-C595-4F9B-8B54-0CF50B9B28ED}</stp>
+        <tr r="O4" s="23"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:08:48</v>
+        <stp/>
+        <stp>{C38382BD-3D11-42CC-A30D-97D970759534}</stp>
+        <tr r="P4" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:08:47</v>
+        <stp/>
+        <stp>{F3A5206A-4887-4994-B2C3-A5B7C8A074E2}</stp>
+        <tr r="M6" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:13:10</v>
+        <stp/>
+        <stp>{353FA217-E300-4313-BC57-C657829F5B3C}</stp>
+        <tr r="O5" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:08:49</v>
+        <stp/>
+        <stp>{22154068-A8A9-4A53-B2CF-CB3116AF9B2F}</stp>
+        <tr r="O4" s="65"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:08:47</v>
+        <stp/>
+        <stp>{98CD1062-EF6E-4EDB-9657-14B19C233D48}</stp>
+        <tr r="J4" s="15"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:08:48</v>
+        <stp/>
+        <stp>{B891AFD9-0300-43E4-9B9C-A10F353F3AA7}</stp>
+        <tr r="P4" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:08:48</v>
+        <stp/>
+        <stp>{0D5B596C-3BEF-4B5B-AD9F-3589E8CE4419}</stp>
         <tr r="Q5" s="64"/>
       </tp>
       <tp t="s">
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:49</v>
         <stp/>
-        <stp>{15A485A5-D4A3-4BF9-B80C-46968DCFA27F}</stp>
-        <tr r="J4" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:39:37</v>
-        <stp/>
-        <stp>{74C01410-1083-4AA7-8982-988459EE4A5C}</stp>
-        <tr r="O4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:39:37</v>
-        <stp/>
-        <stp>{82101283-110D-46E0-AA52-5C8992E5B81A}</stp>
-        <tr r="O4" s="65"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:39:37</v>
-        <stp/>
-        <stp>{21B68B08-9BB4-4406-AEFD-3378F608CF4D}</stp>
-        <tr r="M6" s="8"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:39:37</v>
-        <stp/>
-        <stp>{84AC724C-F7F8-44D7-ABD9-1CA95A8955ED}</stp>
+        <stp>{086F9DDC-276A-4295-9825-A4F470DA4C81}</stp>
         <tr r="P4" s="26"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:43:55</v>
-        <stp/>
-        <stp>{ED9B07FC-64B9-44E1-B3C9-EDA1965C2BEB}</stp>
-        <tr r="O5" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:39:37</v>
-        <stp/>
-        <stp>{8D242C0F-DE49-44FC-B7BB-5A4724F52C4E}</stp>
-        <tr r="P4" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:39:37</v>
-        <stp/>
-        <stp>{5C84809A-5C72-4B3F-97E0-1950531F3D6D}</stp>
-        <tr r="P4" s="11"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:39:37</v>
-        <stp/>
-        <stp>{5C95C3D6-BCDA-453A-8647-DD456780D1D0}</stp>
-        <tr r="N4" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:39:37</v>
-        <stp/>
-        <stp>{70814F26-090B-4581-9718-A944317E20FB}</stp>
-        <tr r="M6" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:39:37</v>
-        <stp/>
-        <stp>{D9C2CEA5-9B24-4A1E-BB72-9E478F22C49D}</stp>
-        <tr r="P4" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:39:37</v>
-        <stp/>
-        <stp>{BF659609-C77B-4E32-B82F-0163199DC53E}</stp>
-        <tr r="K5" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:39:37</v>
-        <stp/>
-        <stp>{318D5ACC-3EED-4C21-B8DC-7718BE198A6F}</stp>
-        <tr r="O5" s="17"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:39:37</v>
-        <stp/>
-        <stp>{4D291D04-57B0-4E5B-8F75-8F91B21421AE}</stp>
-        <tr r="O4" s="23"/>
       </tp>
     </main>
   </volType>
@@ -3459,7 +3459,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="266">
-        <v>41808.610439814816</v>
+        <v>41809.380694444444</v>
       </c>
       <c r="E5" s="253"/>
       <c r="G5" s="5"/>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="D7" s="263">
         <f>_xll.ohTrigger(Deposits!R3,FRA!X3,Futures3M!Z4,FuturesHWConvAdj!Q3,Swaps1M!Y3,Swap3M!Z3,Swap6M!Z3,BasisSwap1M3M!X3,BasisSwap3M6M!X3,OIS!Y3)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E7" s="253"/>
       <c r="G7" s="5"/>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="I10" s="397">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41808</v>
+        <v>41809</v>
       </c>
       <c r="J10" s="330"/>
     </row>
@@ -3746,7 +3746,7 @@
         <v>208</v>
       </c>
       <c r="D22" s="349">
-        <v>41795.654097222221</v>
+        <v>41809.384120370371</v>
       </c>
       <c r="E22" s="21"/>
       <c r="G22" s="3"/>
@@ -4287,7 +4287,7 @@
       <c r="N4" s="115"/>
       <c r="O4" s="134" t="str">
         <f>_xll.RData(O5:O18,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:49</v>
       </c>
       <c r="P4" s="188" t="s">
         <v>162</v>
@@ -4371,8 +4371,8 @@
         <v>#NUM!</v>
       </c>
       <c r="U5" s="139"/>
-      <c r="V5" s="140">
-        <v>0.151</v>
+      <c r="V5" s="140" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W5" s="139"/>
       <c r="X5" s="199" t="e">
@@ -4438,8 +4438,8 @@
         <v>#NUM!</v>
       </c>
       <c r="U6" s="139"/>
-      <c r="V6" s="140">
-        <v>0.151</v>
+      <c r="V6" s="140" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W6" s="139"/>
       <c r="X6" s="199" t="e">
@@ -4504,8 +4504,8 @@
         <v>#NUM!</v>
       </c>
       <c r="U7" s="139"/>
-      <c r="V7" s="140">
-        <v>0.15</v>
+      <c r="V7" s="140" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W7" s="139"/>
       <c r="X7" s="199" t="e">
@@ -4570,8 +4570,8 @@
         <v>#NUM!</v>
       </c>
       <c r="U8" s="139"/>
-      <c r="V8" s="140">
-        <v>0.151</v>
+      <c r="V8" s="140" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W8" s="139"/>
       <c r="X8" s="199" t="e">
@@ -4636,8 +4636,8 @@
         <v>#NUM!</v>
       </c>
       <c r="U9" s="139"/>
-      <c r="V9" s="140">
-        <v>0.152</v>
+      <c r="V9" s="140" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W9" s="139"/>
       <c r="X9" s="199" t="e">
@@ -4702,8 +4702,8 @@
         <v>#NUM!</v>
       </c>
       <c r="U10" s="139"/>
-      <c r="V10" s="140">
-        <v>0.153</v>
+      <c r="V10" s="140" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W10" s="139"/>
       <c r="X10" s="199" t="e">
@@ -4768,8 +4768,8 @@
         <v>#NUM!</v>
       </c>
       <c r="U11" s="139"/>
-      <c r="V11" s="140">
-        <v>0.154</v>
+      <c r="V11" s="140" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W11" s="139"/>
       <c r="X11" s="199" t="e">
@@ -4834,8 +4834,8 @@
         <v>#NUM!</v>
       </c>
       <c r="U12" s="139"/>
-      <c r="V12" s="140">
-        <v>0.157</v>
+      <c r="V12" s="140" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W12" s="139"/>
       <c r="X12" s="199" t="e">
@@ -4900,8 +4900,8 @@
         <v>#NUM!</v>
       </c>
       <c r="U13" s="139"/>
-      <c r="V13" s="140">
-        <v>0.16200000000000001</v>
+      <c r="V13" s="140" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W13" s="139"/>
       <c r="X13" s="199" t="e">
@@ -4966,8 +4966,8 @@
         <v>#NUM!</v>
       </c>
       <c r="U14" s="139"/>
-      <c r="V14" s="140">
-        <v>0.16799999999999998</v>
+      <c r="V14" s="140" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W14" s="139"/>
       <c r="X14" s="199" t="e">
@@ -5032,8 +5032,8 @@
         <v>#NUM!</v>
       </c>
       <c r="U15" s="139"/>
-      <c r="V15" s="140">
-        <v>0.17699999999999999</v>
+      <c r="V15" s="140" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W15" s="139"/>
       <c r="X15" s="199" t="e">
@@ -5085,8 +5085,8 @@
         <v>#NUM!</v>
       </c>
       <c r="U16" s="139"/>
-      <c r="V16" s="140">
-        <v>0.22</v>
+      <c r="V16" s="140" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W16" s="139"/>
       <c r="X16" s="199" t="e">
@@ -5129,8 +5129,8 @@
         <v>#NUM!</v>
       </c>
       <c r="U17" s="139"/>
-      <c r="V17" s="140">
-        <v>0.27900000000000003</v>
+      <c r="V17" s="140" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W17" s="139"/>
       <c r="X17" s="199" t="e">
@@ -5173,8 +5173,8 @@
         <v>#NUM!</v>
       </c>
       <c r="U18" s="139"/>
-      <c r="V18" s="151">
-        <v>0.439</v>
+      <c r="V18" s="151" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="W18" s="139"/>
       <c r="X18" s="192" t="e">
@@ -5393,7 +5393,7 @@
       <c r="O4" s="115"/>
       <c r="P4" s="497" t="str">
         <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:48</v>
       </c>
       <c r="Q4" s="188" t="s">
         <v>162</v>
@@ -5550,10 +5550,10 @@
         <v>AUDQM3AB1Y=ICAA</v>
       </c>
       <c r="Q6" s="137">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="R6" s="137">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="S6" s="137">
         <v>0</v>
@@ -5563,19 +5563,19 @@
       </c>
       <c r="U6" s="141">
         <f>_xll.qlMidSafe($Q6,$R6)</f>
-        <v>2.6850000000000001</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="V6" s="139"/>
       <c r="W6" s="140">
-        <v>2.7075</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="X6" s="139"/>
       <c r="Y6" s="199">
-        <v>2.6850000000000001</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="Z6" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999999395E-5</v>
       </c>
       <c r="AA6" s="126"/>
       <c r="AB6" s="12"/>
@@ -5858,10 +5858,10 @@
         <v>AUDQM3AB2Y=ICAA</v>
       </c>
       <c r="Q10" s="137">
-        <v>2.79</v>
+        <v>2.7549999999999999</v>
       </c>
       <c r="R10" s="137">
-        <v>2.85</v>
+        <v>2.8149999999999999</v>
       </c>
       <c r="S10" s="137">
         <v>0</v>
@@ -5871,19 +5871,19 @@
       </c>
       <c r="U10" s="141">
         <f>_xll.qlMidSafe($Q10,$R10)</f>
-        <v>2.8200000000000003</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="V10" s="139"/>
       <c r="W10" s="140">
-        <v>2.8525</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="X10" s="139"/>
       <c r="Y10" s="199">
-        <v>2.8200000000000003</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="Z10" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>0</v>
+        <v>-3.5000000000000309E-4</v>
       </c>
       <c r="AA10" s="126"/>
       <c r="AB10" s="12"/>
@@ -5935,10 +5935,10 @@
         <v>AUDQM3AB3Y=ICAA</v>
       </c>
       <c r="Q11" s="137">
-        <v>2.9525000000000001</v>
+        <v>2.9049999999999998</v>
       </c>
       <c r="R11" s="137">
-        <v>3.0125000000000002</v>
+        <v>2.9649999999999999</v>
       </c>
       <c r="S11" s="137">
         <v>0</v>
@@ -5948,19 +5948,19 @@
       </c>
       <c r="U11" s="141">
         <f>_xll.qlMidSafe($Q11,$R11)</f>
-        <v>2.9824999999999999</v>
+        <v>2.9349999999999996</v>
       </c>
       <c r="V11" s="139"/>
       <c r="W11" s="140">
-        <v>3.0350000000000001</v>
+        <v>2.9349999999999996</v>
       </c>
       <c r="X11" s="139"/>
       <c r="Y11" s="199">
-        <v>2.9824999999999999</v>
+        <v>2.9349999999999996</v>
       </c>
       <c r="Z11" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.750000000000032E-4</v>
       </c>
       <c r="AA11" s="126"/>
       <c r="AB11" s="12"/>
@@ -8574,7 +8574,7 @@
       <c r="O4" s="115"/>
       <c r="P4" s="134" t="str">
         <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:49</v>
       </c>
       <c r="Q4" s="188" t="s">
         <v>162</v>
@@ -9193,10 +9193,10 @@
         <v>AUDSM6AB4Y=ICAA</v>
       </c>
       <c r="Q12" s="137">
-        <v>3.2050000000000001</v>
+        <v>3.1524999999999999</v>
       </c>
       <c r="R12" s="137">
-        <v>3.2650000000000001</v>
+        <v>3.2124999999999999</v>
       </c>
       <c r="S12" s="137">
         <v>0</v>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="U12" s="141">
         <f>_xll.qlMidEquivalent($Q12,$R12,$S12,$T12)</f>
-        <v>3.2350000000000003</v>
+        <v>3.1825000000000001</v>
       </c>
       <c r="V12" s="139"/>
       <c r="W12" s="140">
@@ -9214,11 +9214,11 @@
       </c>
       <c r="X12" s="139"/>
       <c r="Y12" s="199">
-        <v>3.2350000000000003</v>
+        <v>3.1825000000000001</v>
       </c>
       <c r="Z12" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.2500000000000463E-4</v>
       </c>
       <c r="AA12" s="126"/>
       <c r="AB12" s="12"/>
@@ -9270,10 +9270,10 @@
         <v>AUDSM6AB5Y=ICAA</v>
       </c>
       <c r="Q13" s="137">
-        <v>3.38</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="R13" s="137">
-        <v>3.44</v>
+        <v>3.3849999999999998</v>
       </c>
       <c r="S13" s="137">
         <v>0</v>
@@ -9283,7 +9283,7 @@
       </c>
       <c r="U13" s="141">
         <f>_xll.qlMidEquivalent($Q13,$R13,$S13,$T13)</f>
-        <v>3.41</v>
+        <v>3.355</v>
       </c>
       <c r="V13" s="139"/>
       <c r="W13" s="140">
@@ -9291,11 +9291,11 @@
       </c>
       <c r="X13" s="139"/>
       <c r="Y13" s="199">
-        <v>3.41</v>
+        <v>3.355</v>
       </c>
       <c r="Z13" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.5000000000000188E-4</v>
       </c>
       <c r="AA13" s="126"/>
       <c r="AB13" s="12"/>
@@ -9347,10 +9347,10 @@
         <v>AUDSM6AB6Y=ICAA</v>
       </c>
       <c r="Q14" s="137">
-        <v>3.55</v>
+        <v>3.4975000000000001</v>
       </c>
       <c r="R14" s="137">
-        <v>3.61</v>
+        <v>3.5575000000000001</v>
       </c>
       <c r="S14" s="137">
         <v>0</v>
@@ -9360,7 +9360,7 @@
       </c>
       <c r="U14" s="141">
         <f>_xll.qlMidEquivalent($Q14,$R14,$S14,$T14)</f>
-        <v>3.58</v>
+        <v>3.5274999999999999</v>
       </c>
       <c r="V14" s="139"/>
       <c r="W14" s="140">
@@ -9368,11 +9368,11 @@
       </c>
       <c r="X14" s="139"/>
       <c r="Y14" s="199">
-        <v>3.58</v>
+        <v>3.5274999999999999</v>
       </c>
       <c r="Z14" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.2499999999999769E-4</v>
       </c>
       <c r="AA14" s="126"/>
       <c r="AB14" s="12"/>
@@ -9424,10 +9424,10 @@
         <v>AUDSM6AB7Y=ICAA</v>
       </c>
       <c r="Q15" s="137">
-        <v>3.7075</v>
+        <v>3.65</v>
       </c>
       <c r="R15" s="137">
-        <v>3.7675000000000001</v>
+        <v>3.71</v>
       </c>
       <c r="S15" s="137">
         <v>0</v>
@@ -9437,7 +9437,7 @@
       </c>
       <c r="U15" s="141">
         <f>_xll.qlMidEquivalent($Q15,$R15,$S15,$T15)</f>
-        <v>3.7374999999999998</v>
+        <v>3.6799999999999997</v>
       </c>
       <c r="V15" s="139"/>
       <c r="W15" s="140">
@@ -9445,11 +9445,11 @@
       </c>
       <c r="X15" s="139"/>
       <c r="Y15" s="199">
-        <v>3.7374999999999998</v>
+        <v>3.6799999999999997</v>
       </c>
       <c r="Z15" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.7499999999999912E-4</v>
       </c>
       <c r="AA15" s="126"/>
       <c r="AB15" s="12"/>
@@ -9501,10 +9501,10 @@
         <v>AUDSM6AB8Y=ICAA</v>
       </c>
       <c r="Q16" s="137">
-        <v>3.84</v>
+        <v>3.7825000000000002</v>
       </c>
       <c r="R16" s="137">
-        <v>3.9</v>
+        <v>3.8424999999999998</v>
       </c>
       <c r="S16" s="137">
         <v>0</v>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="U16" s="141">
         <f>_xll.qlMidEquivalent($Q16,$R16,$S16,$T16)</f>
-        <v>3.87</v>
+        <v>3.8125</v>
       </c>
       <c r="V16" s="139"/>
       <c r="W16" s="140">
@@ -9522,11 +9522,11 @@
       </c>
       <c r="X16" s="139"/>
       <c r="Y16" s="199">
-        <v>3.87</v>
+        <v>3.8125</v>
       </c>
       <c r="Z16" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.7499999999999912E-4</v>
       </c>
       <c r="AA16" s="126"/>
       <c r="AB16" s="12"/>
@@ -9578,10 +9578,10 @@
         <v>AUDSM6AB9Y=ICAA</v>
       </c>
       <c r="Q17" s="137">
-        <v>3.95</v>
+        <v>3.8925000000000001</v>
       </c>
       <c r="R17" s="137">
-        <v>4.01</v>
+        <v>3.9525000000000001</v>
       </c>
       <c r="S17" s="137">
         <v>0</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="U17" s="141">
         <f>_xll.qlMidEquivalent($Q17,$R17,$S17,$T17)</f>
-        <v>3.98</v>
+        <v>3.9225000000000003</v>
       </c>
       <c r="V17" s="139"/>
       <c r="W17" s="140">
@@ -9599,11 +9599,11 @@
       </c>
       <c r="X17" s="139"/>
       <c r="Y17" s="199">
-        <v>3.98</v>
+        <v>3.9225000000000003</v>
       </c>
       <c r="Z17" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.7499999999999912E-4</v>
       </c>
       <c r="AA17" s="126"/>
       <c r="AB17" s="12"/>
@@ -9655,10 +9655,10 @@
         <v>AUDSM6AB10Y=ICAA</v>
       </c>
       <c r="Q18" s="137">
+        <v>3.99</v>
+      </c>
+      <c r="R18" s="137">
         <v>4.05</v>
-      </c>
-      <c r="R18" s="137">
-        <v>4.1100000000000003</v>
       </c>
       <c r="S18" s="137">
         <v>0</v>
@@ -9668,7 +9668,7 @@
       </c>
       <c r="U18" s="141">
         <f>_xll.qlMidEquivalent($Q18,$R18,$S18,$T18)</f>
-        <v>4.08</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="V18" s="139"/>
       <c r="W18" s="140">
@@ -9676,11 +9676,11 @@
       </c>
       <c r="X18" s="139"/>
       <c r="Y18" s="199">
-        <v>4.08</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="Z18" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18/100,Trigger)</f>
-        <v>0</v>
+        <v>-6.0000000000001025E-4</v>
       </c>
       <c r="AA18" s="126"/>
       <c r="AB18" s="12"/>
@@ -9809,10 +9809,10 @@
         <v>AUDSM6AB12Y=ICAA</v>
       </c>
       <c r="Q20" s="137">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="R20" s="137">
         <v>4.21</v>
-      </c>
-      <c r="R20" s="137">
-        <v>4.2699999999999996</v>
       </c>
       <c r="S20" s="137">
         <v>0</v>
@@ -9822,7 +9822,7 @@
       </c>
       <c r="U20" s="141">
         <f>_xll.qlMidEquivalent($Q20,$R20,$S20,$T20)</f>
-        <v>4.24</v>
+        <v>4.18</v>
       </c>
       <c r="V20" s="139"/>
       <c r="W20" s="140">
@@ -9830,11 +9830,11 @@
       </c>
       <c r="X20" s="139"/>
       <c r="Y20" s="199">
-        <v>4.24</v>
+        <v>4.18</v>
       </c>
       <c r="Z20" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20/100,Trigger)</f>
-        <v>0</v>
+        <v>-6.0000000000000331E-4</v>
       </c>
       <c r="AA20" s="126"/>
       <c r="AB20" s="12"/>
@@ -10040,10 +10040,10 @@
         <v>AUDSM6AB15Y=ICAA</v>
       </c>
       <c r="Q23" s="137">
-        <v>4.3499999999999996</v>
+        <v>4.29</v>
       </c>
       <c r="R23" s="137">
-        <v>4.43</v>
+        <v>4.37</v>
       </c>
       <c r="S23" s="137">
         <v>0</v>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="U23" s="141">
         <f>_xll.qlMidEquivalent($Q23,$R23,$S23,$T23)</f>
-        <v>4.3899999999999997</v>
+        <v>4.33</v>
       </c>
       <c r="V23" s="139"/>
       <c r="W23" s="140">
@@ -10061,11 +10061,11 @@
       </c>
       <c r="X23" s="139"/>
       <c r="Y23" s="199">
-        <v>4.3899999999999997</v>
+        <v>4.33</v>
       </c>
       <c r="Z23" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.9999999999999637E-4</v>
       </c>
       <c r="AA23" s="126"/>
       <c r="AB23" s="12"/>
@@ -10425,10 +10425,10 @@
         <v>AUDSM6AB20Y=ICAA</v>
       </c>
       <c r="Q28" s="137">
-        <v>4.4675000000000002</v>
+        <v>4.4074999999999998</v>
       </c>
       <c r="R28" s="137">
-        <v>4.5475000000000003</v>
+        <v>4.4874999999999998</v>
       </c>
       <c r="S28" s="137">
         <v>0</v>
@@ -10438,7 +10438,7 @@
       </c>
       <c r="U28" s="141">
         <f>_xll.qlMidEquivalent($Q28,$R28,$S28,$T28)</f>
-        <v>4.5075000000000003</v>
+        <v>4.4474999999999998</v>
       </c>
       <c r="V28" s="139"/>
       <c r="W28" s="140">
@@ -10446,11 +10446,11 @@
       </c>
       <c r="X28" s="139"/>
       <c r="Y28" s="199">
-        <v>4.5075000000000003</v>
+        <v>4.4474999999999998</v>
       </c>
       <c r="Z28" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28/100,Trigger)</f>
-        <v>0</v>
+        <v>-6.0000000000000331E-4</v>
       </c>
       <c r="AA28" s="126"/>
       <c r="AB28" s="12"/>
@@ -10810,10 +10810,10 @@
         <v>AUDSM6AB25Y=ICAA</v>
       </c>
       <c r="Q33" s="137">
-        <v>4.5025000000000004</v>
+        <v>4.4424999999999999</v>
       </c>
       <c r="R33" s="137">
-        <v>4.5824999999999996</v>
+        <v>4.5225</v>
       </c>
       <c r="S33" s="137">
         <v>0</v>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="U33" s="141">
         <f>_xll.qlMidEquivalent($Q33,$R33,$S33,$T33)</f>
-        <v>4.5425000000000004</v>
+        <v>4.4824999999999999</v>
       </c>
       <c r="V33" s="139"/>
       <c r="W33" s="140">
@@ -10831,11 +10831,11 @@
       </c>
       <c r="X33" s="139"/>
       <c r="Y33" s="199">
-        <v>4.5425000000000004</v>
+        <v>4.4824999999999999</v>
       </c>
       <c r="Z33" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F33,Y33/100,Trigger)</f>
-        <v>0</v>
+        <v>-6.0000000000001025E-4</v>
       </c>
       <c r="AA33" s="126"/>
       <c r="AB33" s="12"/>
@@ -11195,10 +11195,10 @@
         <v>AUDSM6AB30Y=ICAA</v>
       </c>
       <c r="Q38" s="137">
-        <v>4.51</v>
+        <v>4.45</v>
       </c>
       <c r="R38" s="137">
-        <v>4.59</v>
+        <v>4.53</v>
       </c>
       <c r="S38" s="137">
         <v>0</v>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="U38" s="141">
         <f>_xll.qlMidEquivalent($Q38,$R38,$S38,$T38)</f>
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="V38" s="139"/>
       <c r="W38" s="140">
@@ -11216,11 +11216,11 @@
       </c>
       <c r="X38" s="139"/>
       <c r="Y38" s="199">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="Z38" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F38,Y38/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.9999999999999637E-4</v>
       </c>
       <c r="AA38" s="126"/>
       <c r="AB38" s="12"/>
@@ -11349,10 +11349,10 @@
         <v>AUDSM6AB40Y=ICAA</v>
       </c>
       <c r="Q40" s="137">
-        <v>4.47</v>
+        <v>4.41</v>
       </c>
       <c r="R40" s="137">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="S40" s="137">
         <v>0</v>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="U40" s="141">
         <f>_xll.qlMidEquivalent($Q40,$R40,$S40,$T40)</f>
-        <v>4.51</v>
+        <v>4.45</v>
       </c>
       <c r="V40" s="139"/>
       <c r="W40" s="140">
@@ -11370,11 +11370,11 @@
       </c>
       <c r="X40" s="139"/>
       <c r="Y40" s="199">
-        <v>4.51</v>
+        <v>4.45</v>
       </c>
       <c r="Z40" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F40,Y40/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.9999999999999637E-4</v>
       </c>
       <c r="AA40" s="126"/>
       <c r="AB40" s="12"/>
@@ -11730,7 +11730,7 @@
       <c r="O4" s="115"/>
       <c r="P4" s="134" t="str">
         <f>_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:48</v>
       </c>
       <c r="Q4" s="188" t="s">
         <v>162</v>
@@ -11798,27 +11798,27 @@
         <v>AUBR3AB6M=ICAA</v>
       </c>
       <c r="Q5" s="246">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R5" s="246">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="S5" s="499">
         <f>_xll.qlMidEquivalent(Q5,R5)</f>
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="T5" s="139"/>
       <c r="U5" s="245">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="V5" s="139"/>
       <c r="W5" s="339">
         <f t="array" ref="W5:W42">QuoteLive</f>
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X5" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F5,W5/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000000011E-5</v>
       </c>
       <c r="Y5" s="126"/>
       <c r="Z5" s="12"/>
@@ -11882,7 +11882,7 @@
       </c>
       <c r="T6" s="139"/>
       <c r="U6" s="245">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="V6" s="139"/>
       <c r="W6" s="339">
@@ -11952,8 +11952,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T7" s="139"/>
-      <c r="U7" s="245">
-        <v>5.5733697798405197</v>
+      <c r="U7" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V7" s="139"/>
       <c r="W7" s="339" t="e">
@@ -12024,8 +12024,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T8" s="139"/>
-      <c r="U8" s="245">
-        <v>5.8498645596810395</v>
+      <c r="U8" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V8" s="139"/>
       <c r="W8" s="339" t="e">
@@ -12092,8 +12092,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T9" s="139"/>
-      <c r="U9" s="245">
-        <v>6.0764270596810395</v>
+      <c r="U9" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V9" s="139"/>
       <c r="W9" s="339" t="e">
@@ -12160,7 +12160,7 @@
       </c>
       <c r="T10" s="139"/>
       <c r="U10" s="245">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="V10" s="139"/>
       <c r="W10" s="339">
@@ -12227,7 +12227,7 @@
       </c>
       <c r="T11" s="139"/>
       <c r="U11" s="245">
-        <v>6.625</v>
+        <v>6.75</v>
       </c>
       <c r="V11" s="139"/>
       <c r="W11" s="339">
@@ -12294,7 +12294,7 @@
       </c>
       <c r="T12" s="139"/>
       <c r="U12" s="245">
-        <v>7.125</v>
+        <v>7.25</v>
       </c>
       <c r="V12" s="139"/>
       <c r="W12" s="339">
@@ -12361,7 +12361,7 @@
       </c>
       <c r="T13" s="139"/>
       <c r="U13" s="245">
-        <v>7.375</v>
+        <v>7.5</v>
       </c>
       <c r="V13" s="139"/>
       <c r="W13" s="339">
@@ -12427,8 +12427,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T14" s="139"/>
-      <c r="U14" s="245">
-        <v>7.5401194384918018</v>
+      <c r="U14" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V14" s="139"/>
       <c r="W14" s="339" t="e">
@@ -12561,8 +12561,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T16" s="139"/>
-      <c r="U16" s="245">
-        <v>7.625</v>
+      <c r="U16" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V16" s="139"/>
       <c r="W16" s="339" t="e">
@@ -12628,8 +12628,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T17" s="139"/>
-      <c r="U17" s="245">
-        <v>7.625</v>
+      <c r="U17" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V17" s="139"/>
       <c r="W17" s="339" t="e">
@@ -12763,8 +12763,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T19" s="139"/>
-      <c r="U19" s="245">
-        <v>7.625</v>
+      <c r="U19" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V19" s="139"/>
       <c r="W19" s="339" t="e">
@@ -12897,8 +12897,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T21" s="139"/>
-      <c r="U21" s="245">
-        <v>7.6746633663892929</v>
+      <c r="U21" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V21" s="139"/>
       <c r="W21" s="339" t="e">
@@ -12964,8 +12964,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T22" s="139"/>
-      <c r="U22" s="245">
-        <v>7.7798822883341412</v>
+      <c r="U22" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V22" s="139"/>
       <c r="W22" s="339" t="e">
@@ -13098,8 +13098,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T24" s="139"/>
-      <c r="U24" s="245">
-        <v>7.9190347599295281</v>
+      <c r="U24" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V24" s="139"/>
       <c r="W24" s="339" t="e">
@@ -13165,8 +13165,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T25" s="139"/>
-      <c r="U25" s="245">
-        <v>7.9102864582907646</v>
+      <c r="U25" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V25" s="139"/>
       <c r="W25" s="339" t="e">
@@ -13232,8 +13232,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T26" s="139"/>
-      <c r="U26" s="245">
-        <v>7.842020776687237</v>
+      <c r="U26" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V26" s="139"/>
       <c r="W26" s="339" t="e">
@@ -13299,8 +13299,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T27" s="139"/>
-      <c r="U27" s="245">
-        <v>7.7075033967224726</v>
+      <c r="U27" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V27" s="139"/>
       <c r="W27" s="339" t="e">
@@ -13433,8 +13433,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T29" s="139"/>
-      <c r="U29" s="245">
-        <v>7.2104056461439026</v>
+      <c r="U29" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V29" s="139"/>
       <c r="W29" s="339" t="e">
@@ -13500,8 +13500,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T30" s="139"/>
-      <c r="U30" s="245">
-        <v>6.8667063519118905</v>
+      <c r="U30" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V30" s="139"/>
       <c r="W30" s="339" t="e">
@@ -13567,8 +13567,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T31" s="139"/>
-      <c r="U31" s="245">
-        <v>6.5178042346079277</v>
+      <c r="U31" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V31" s="139"/>
       <c r="W31" s="339" t="e">
@@ -13634,8 +13634,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T32" s="139"/>
-      <c r="U32" s="245">
-        <v>6.2126014115359762</v>
+      <c r="U32" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V32" s="139"/>
       <c r="W32" s="339" t="e">
@@ -13768,8 +13768,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T34" s="139"/>
-      <c r="U34" s="245">
-        <v>5.8780000000000001</v>
+      <c r="U34" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V34" s="139"/>
       <c r="W34" s="339" t="e">
@@ -13835,8 +13835,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T35" s="139"/>
-      <c r="U35" s="245">
-        <v>5.8040000000000003</v>
+      <c r="U35" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V35" s="139"/>
       <c r="W35" s="339" t="e">
@@ -13902,8 +13902,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T36" s="139"/>
-      <c r="U36" s="245">
-        <v>5.766</v>
+      <c r="U36" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V36" s="139"/>
       <c r="W36" s="339" t="e">
@@ -13969,8 +13969,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T37" s="139"/>
-      <c r="U37" s="245">
-        <v>5.7519999999999998</v>
+      <c r="U37" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V37" s="139"/>
       <c r="W37" s="339" t="e">
@@ -14103,8 +14103,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T39" s="139"/>
-      <c r="U39" s="245">
-        <v>5.75</v>
+      <c r="U39" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V39" s="139"/>
       <c r="W39" s="339" t="e">
@@ -14170,8 +14170,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T40" s="139"/>
-      <c r="U40" s="245">
-        <v>5.75</v>
+      <c r="U40" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V40" s="139"/>
       <c r="W40" s="339" t="e">
@@ -14237,8 +14237,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T41" s="139"/>
-      <c r="U41" s="245">
-        <v>5.75</v>
+      <c r="U41" s="245" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V41" s="139"/>
       <c r="W41" s="339" t="e">
@@ -14304,8 +14304,8 @@
         <v>#NUM!</v>
       </c>
       <c r="T42" s="139"/>
-      <c r="U42" s="243">
-        <v>5.75</v>
+      <c r="U42" s="243" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="V42" s="139"/>
       <c r="W42" s="340" t="e">
@@ -14521,7 +14521,7 @@
       <c r="O4" s="115"/>
       <c r="P4" s="134" t="str">
         <f>_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:48</v>
       </c>
       <c r="Q4" s="188" t="s">
         <v>162</v>
@@ -15032,7 +15032,7 @@
       </c>
       <c r="T11" s="139"/>
       <c r="U11" s="245">
-        <v>6.375</v>
+        <v>6.75</v>
       </c>
       <c r="V11" s="139"/>
       <c r="W11" s="339">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="T12" s="139"/>
       <c r="U12" s="245">
-        <v>6.875</v>
+        <v>7.125</v>
       </c>
       <c r="V12" s="139"/>
       <c r="W12" s="339">
@@ -15163,26 +15163,26 @@
         <v>AUBR6AB5Y=ICAA</v>
       </c>
       <c r="Q13" s="246">
-        <v>6.5</v>
+        <v>6.375</v>
       </c>
       <c r="R13" s="246">
-        <v>8.5</v>
+        <v>8.375</v>
       </c>
       <c r="S13" s="237">
         <f>_xll.qlMidEquivalent(Q13,R13)</f>
-        <v>7.5</v>
+        <v>7.375</v>
       </c>
       <c r="T13" s="139"/>
       <c r="U13" s="245">
-        <v>7.125</v>
+        <v>7.375</v>
       </c>
       <c r="V13" s="139"/>
       <c r="W13" s="339">
-        <v>7.5</v>
+        <v>7.375</v>
       </c>
       <c r="X13" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.2500000000000033E-5</v>
       </c>
       <c r="Y13" s="126"/>
       <c r="Z13" s="12"/>
@@ -15316,7 +15316,7 @@
       </c>
       <c r="T15" s="139"/>
       <c r="U15" s="245">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="V15" s="139"/>
       <c r="W15" s="339">
@@ -15529,7 +15529,7 @@
       </c>
       <c r="T18" s="139"/>
       <c r="U18" s="245">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="V18" s="139"/>
       <c r="W18" s="339">
@@ -15671,7 +15671,7 @@
       </c>
       <c r="T20" s="139"/>
       <c r="U20" s="245">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="V20" s="139"/>
       <c r="W20" s="339">
@@ -15884,7 +15884,7 @@
       </c>
       <c r="T23" s="139"/>
       <c r="U23" s="245">
-        <v>5.875</v>
+        <v>6</v>
       </c>
       <c r="V23" s="139"/>
       <c r="W23" s="339">
@@ -17464,7 +17464,7 @@
       <c r="J5" s="393"/>
       <c r="K5" s="369" t="str">
         <f>_xll.RData(K6:K12,L5:M5,"RTFEED:IDN",,,L6)</f>
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:48</v>
       </c>
       <c r="L5" s="370" t="s">
         <v>227</v>
@@ -17580,7 +17580,7 @@
       </c>
       <c r="H7" s="367" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E7)</f>
-        <v/>
+        <v>qlLibor - Unhandled currency AUD</v>
       </c>
       <c r="I7" s="367" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -17647,7 +17647,7 @@
       </c>
       <c r="H8" s="367" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E8)</f>
-        <v/>
+        <v>qlLibor - Unhandled currency AUD</v>
       </c>
       <c r="I8" s="367" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -17714,7 +17714,7 @@
       </c>
       <c r="H9" s="367" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E9)</f>
-        <v/>
+        <v>qlLibor - Unhandled currency AUD</v>
       </c>
       <c r="I9" s="367" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -17781,7 +17781,7 @@
       </c>
       <c r="H10" s="367" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E10)</f>
-        <v/>
+        <v>qlLibor - Unhandled currency AUD</v>
       </c>
       <c r="I10" s="367" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -17848,7 +17848,7 @@
       </c>
       <c r="H11" s="367" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E11)</f>
-        <v/>
+        <v>qlLibor - Unhandled currency AUD</v>
       </c>
       <c r="I11" s="367" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -17915,7 +17915,7 @@
       </c>
       <c r="H12" s="367" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(E12)</f>
-        <v/>
+        <v>qlLibor - Unhandled currency AUD</v>
       </c>
       <c r="I12" s="367" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -18237,7 +18237,7 @@
       </c>
       <c r="M6" s="310" t="str">
         <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:47</v>
       </c>
       <c r="N6" s="310" t="s">
         <v>227</v>
@@ -18288,7 +18288,7 @@
       </c>
       <c r="G7" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F7)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H7" s="21"/>
       <c r="J7" s="270"/>
@@ -18359,7 +18359,7 @@
       </c>
       <c r="G8" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F8)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H8" s="21"/>
       <c r="J8" s="270"/>
@@ -18430,7 +18430,7 @@
       </c>
       <c r="G9" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F9)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H9" s="21"/>
       <c r="J9" s="270"/>
@@ -18501,7 +18501,7 @@
       </c>
       <c r="G10" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F10)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H10" s="21"/>
       <c r="J10" s="270"/>
@@ -18572,7 +18572,7 @@
       </c>
       <c r="G11" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F11)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H11" s="21"/>
       <c r="J11" s="270"/>
@@ -18643,7 +18643,7 @@
       </c>
       <c r="G12" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F12)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H12" s="21"/>
       <c r="J12" s="270"/>
@@ -18714,7 +18714,7 @@
       </c>
       <c r="G13" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F13)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H13" s="21"/>
       <c r="J13" s="270"/>
@@ -18785,7 +18785,7 @@
       </c>
       <c r="G14" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F14)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H14" s="21"/>
       <c r="J14" s="270"/>
@@ -18856,7 +18856,7 @@
       </c>
       <c r="G15" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F15)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H15" s="21"/>
       <c r="J15" s="270"/>
@@ -18927,7 +18927,7 @@
       </c>
       <c r="G16" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F16)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H16" s="21"/>
       <c r="J16" s="270"/>
@@ -18998,7 +18998,7 @@
       </c>
       <c r="G17" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F17)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H17" s="21"/>
       <c r="J17" s="270"/>
@@ -19069,7 +19069,7 @@
       </c>
       <c r="G18" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F18)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H18" s="21"/>
       <c r="J18" s="270"/>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="G19" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F19)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H19" s="21"/>
       <c r="J19" s="270"/>
@@ -19211,7 +19211,7 @@
       </c>
       <c r="G20" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F20)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H20" s="21"/>
       <c r="J20" s="270"/>
@@ -19282,7 +19282,7 @@
       </c>
       <c r="G21" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F21)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H21" s="21"/>
       <c r="J21" s="270"/>
@@ -19353,7 +19353,7 @@
       </c>
       <c r="G22" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F22)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H22" s="21"/>
       <c r="J22" s="270"/>
@@ -19391,7 +19391,7 @@
       </c>
       <c r="G23" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F23)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H23" s="21"/>
       <c r="J23" s="270"/>
@@ -19429,7 +19429,7 @@
       </c>
       <c r="G24" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F24)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H24" s="21"/>
       <c r="J24" s="270"/>
@@ -19473,7 +19473,7 @@
       </c>
       <c r="G25" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F25)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H25" s="21"/>
       <c r="J25" s="270"/>
@@ -19517,7 +19517,7 @@
       </c>
       <c r="G26" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F26)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H26" s="21"/>
       <c r="J26" s="270"/>
@@ -19561,7 +19561,7 @@
       </c>
       <c r="G27" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F27)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H27" s="21"/>
       <c r="J27" s="270"/>
@@ -19605,7 +19605,7 @@
       </c>
       <c r="G28" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F28)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H28" s="21"/>
       <c r="J28" s="270"/>
@@ -19649,7 +19649,7 @@
       </c>
       <c r="G29" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F29)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H29" s="21"/>
       <c r="J29" s="270"/>
@@ -19693,7 +19693,7 @@
       </c>
       <c r="G30" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F30)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H30" s="21"/>
       <c r="J30" s="270"/>
@@ -19737,7 +19737,7 @@
       </c>
       <c r="G31" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F31)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H31" s="21"/>
     </row>
@@ -19759,7 +19759,7 @@
       </c>
       <c r="G32" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F32)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H32" s="21"/>
     </row>
@@ -19781,7 +19781,7 @@
       </c>
       <c r="G33" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F33)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H33" s="21"/>
     </row>
@@ -19803,7 +19803,7 @@
       </c>
       <c r="G34" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F34)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H34" s="21"/>
     </row>
@@ -19825,7 +19825,7 @@
       </c>
       <c r="G35" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F35)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H35" s="21"/>
     </row>
@@ -19847,7 +19847,7 @@
       </c>
       <c r="G36" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F36)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H36" s="21"/>
     </row>
@@ -19869,7 +19869,7 @@
       </c>
       <c r="G37" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F37)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H37" s="21"/>
     </row>
@@ -19891,7 +19891,7 @@
       </c>
       <c r="G38" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F38)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H38" s="21"/>
     </row>
@@ -19913,7 +19913,7 @@
       </c>
       <c r="G39" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F39)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H39" s="21"/>
     </row>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="G40" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F40)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H40" s="21"/>
     </row>
@@ -19957,7 +19957,7 @@
       </c>
       <c r="G41" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F41)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H41" s="21"/>
     </row>
@@ -19979,7 +19979,7 @@
       </c>
       <c r="G42" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F42)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H42" s="21"/>
     </row>
@@ -20001,7 +20001,7 @@
       </c>
       <c r="G43" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F43)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H43" s="21"/>
     </row>
@@ -20023,7 +20023,7 @@
       </c>
       <c r="G44" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F44)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H44" s="21"/>
     </row>
@@ -20045,7 +20045,7 @@
       </c>
       <c r="G45" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F45)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H45" s="21"/>
     </row>
@@ -20067,7 +20067,7 @@
       </c>
       <c r="G46" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F46)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H46" s="21"/>
     </row>
@@ -20089,7 +20089,7 @@
       </c>
       <c r="G47" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F47)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H47" s="21"/>
     </row>
@@ -20111,7 +20111,7 @@
       </c>
       <c r="G48" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F48)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H48" s="21"/>
     </row>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="G49" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F49)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H49" s="21"/>
     </row>
@@ -20155,7 +20155,7 @@
       </c>
       <c r="G50" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F50)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H50" s="21"/>
     </row>
@@ -20177,7 +20177,7 @@
       </c>
       <c r="G51" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F51)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H51" s="21"/>
     </row>
@@ -20199,7 +20199,7 @@
       </c>
       <c r="G52" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F52)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H52" s="21"/>
     </row>
@@ -20221,7 +20221,7 @@
       </c>
       <c r="G53" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F53)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H53" s="21"/>
     </row>
@@ -20243,7 +20243,7 @@
       </c>
       <c r="G54" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F54)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H54" s="21"/>
     </row>
@@ -20265,7 +20265,7 @@
       </c>
       <c r="G55" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F55)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H55" s="21"/>
     </row>
@@ -20287,7 +20287,7 @@
       </c>
       <c r="G56" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F56)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H56" s="21"/>
     </row>
@@ -20309,7 +20309,7 @@
       </c>
       <c r="G57" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F57)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H57" s="21"/>
     </row>
@@ -20331,7 +20331,7 @@
       </c>
       <c r="G58" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F58)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H58" s="21"/>
     </row>
@@ -20353,7 +20353,7 @@
       </c>
       <c r="G59" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F59)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H59" s="21"/>
     </row>
@@ -20375,7 +20375,7 @@
       </c>
       <c r="G60" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F60)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H60" s="21"/>
     </row>
@@ -20397,7 +20397,7 @@
       </c>
       <c r="G61" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F61)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H61" s="21"/>
     </row>
@@ -20419,7 +20419,7 @@
       </c>
       <c r="G62" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F62)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H62" s="21"/>
     </row>
@@ -20441,7 +20441,7 @@
       </c>
       <c r="G63" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F63)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H63" s="21"/>
     </row>
@@ -20463,7 +20463,7 @@
       </c>
       <c r="G64" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F64)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H64" s="21"/>
     </row>
@@ -20485,7 +20485,7 @@
       </c>
       <c r="G65" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F65)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H65" s="21"/>
     </row>
@@ -20507,7 +20507,7 @@
       </c>
       <c r="G66" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F66)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H66" s="21"/>
     </row>
@@ -20784,7 +20784,7 @@
       </c>
       <c r="M6" s="310" t="str">
         <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:47</v>
       </c>
       <c r="N6" s="310" t="s">
         <v>227</v>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="G7" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F7)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H7" s="21"/>
       <c r="J7" s="270"/>
@@ -20906,7 +20906,7 @@
       </c>
       <c r="G8" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F8)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H8" s="21"/>
       <c r="J8" s="270"/>
@@ -20977,7 +20977,7 @@
       </c>
       <c r="G9" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F9)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H9" s="21"/>
       <c r="J9" s="270"/>
@@ -21048,7 +21048,7 @@
       </c>
       <c r="G10" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F10)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H10" s="21"/>
       <c r="J10" s="270"/>
@@ -21119,7 +21119,7 @@
       </c>
       <c r="G11" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F11)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H11" s="21"/>
       <c r="J11" s="270"/>
@@ -21190,7 +21190,7 @@
       </c>
       <c r="G12" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F12)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H12" s="21"/>
       <c r="J12" s="270"/>
@@ -21261,7 +21261,7 @@
       </c>
       <c r="G13" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F13)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H13" s="21"/>
       <c r="J13" s="270"/>
@@ -21332,7 +21332,7 @@
       </c>
       <c r="G14" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F14)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H14" s="21"/>
       <c r="J14" s="270"/>
@@ -21403,7 +21403,7 @@
       </c>
       <c r="G15" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F15)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H15" s="21"/>
       <c r="J15" s="270"/>
@@ -21474,7 +21474,7 @@
       </c>
       <c r="G16" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F16)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H16" s="21"/>
       <c r="J16" s="270"/>
@@ -21545,7 +21545,7 @@
       </c>
       <c r="G17" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F17)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H17" s="21"/>
       <c r="J17" s="270"/>
@@ -21616,7 +21616,7 @@
       </c>
       <c r="G18" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F18)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H18" s="21"/>
       <c r="J18" s="270"/>
@@ -21687,7 +21687,7 @@
       </c>
       <c r="G19" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F19)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H19" s="21"/>
       <c r="J19" s="270"/>
@@ -21758,7 +21758,7 @@
       </c>
       <c r="G20" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F20)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H20" s="21"/>
       <c r="J20" s="270"/>
@@ -21829,7 +21829,7 @@
       </c>
       <c r="G21" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F21)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H21" s="21"/>
       <c r="J21" s="270"/>
@@ -21900,7 +21900,7 @@
       </c>
       <c r="G22" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F22)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H22" s="21"/>
       <c r="J22" s="270"/>
@@ -21938,7 +21938,7 @@
       </c>
       <c r="G23" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F23)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H23" s="21"/>
       <c r="J23" s="270"/>
@@ -21976,7 +21976,7 @@
       </c>
       <c r="G24" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F24)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H24" s="21"/>
       <c r="J24" s="270"/>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="G25" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F25)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H25" s="21"/>
       <c r="J25" s="270"/>
@@ -22064,7 +22064,7 @@
       </c>
       <c r="G26" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F26)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H26" s="21"/>
       <c r="J26" s="270"/>
@@ -22108,7 +22108,7 @@
       </c>
       <c r="G27" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F27)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H27" s="21"/>
       <c r="J27" s="270"/>
@@ -22152,7 +22152,7 @@
       </c>
       <c r="G28" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F28)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H28" s="21"/>
       <c r="J28" s="270"/>
@@ -22196,7 +22196,7 @@
       </c>
       <c r="G29" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F29)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H29" s="21"/>
       <c r="J29" s="270"/>
@@ -22240,7 +22240,7 @@
       </c>
       <c r="G30" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F30)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H30" s="21"/>
       <c r="J30" s="270"/>
@@ -22284,7 +22284,7 @@
       </c>
       <c r="G31" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F31)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H31" s="21"/>
     </row>
@@ -22306,7 +22306,7 @@
       </c>
       <c r="G32" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F32)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H32" s="21"/>
     </row>
@@ -22328,7 +22328,7 @@
       </c>
       <c r="G33" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F33)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H33" s="21"/>
     </row>
@@ -22350,7 +22350,7 @@
       </c>
       <c r="G34" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F34)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H34" s="21"/>
     </row>
@@ -22372,7 +22372,7 @@
       </c>
       <c r="G35" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F35)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H35" s="21"/>
     </row>
@@ -22394,7 +22394,7 @@
       </c>
       <c r="G36" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F36)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H36" s="21"/>
     </row>
@@ -22416,7 +22416,7 @@
       </c>
       <c r="G37" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F37)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H37" s="21"/>
     </row>
@@ -22438,7 +22438,7 @@
       </c>
       <c r="G38" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F38)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H38" s="21"/>
     </row>
@@ -22460,7 +22460,7 @@
       </c>
       <c r="G39" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F39)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H39" s="21"/>
     </row>
@@ -22482,7 +22482,7 @@
       </c>
       <c r="G40" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F40)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H40" s="21"/>
     </row>
@@ -22504,7 +22504,7 @@
       </c>
       <c r="G41" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F41)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H41" s="21"/>
     </row>
@@ -22526,7 +22526,7 @@
       </c>
       <c r="G42" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F42)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H42" s="21"/>
     </row>
@@ -22548,7 +22548,7 @@
       </c>
       <c r="G43" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F43)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H43" s="21"/>
     </row>
@@ -22570,7 +22570,7 @@
       </c>
       <c r="G44" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F44)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H44" s="21"/>
     </row>
@@ -22592,7 +22592,7 @@
       </c>
       <c r="G45" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F45)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H45" s="21"/>
     </row>
@@ -22614,7 +22614,7 @@
       </c>
       <c r="G46" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F46)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H46" s="21"/>
     </row>
@@ -22636,7 +22636,7 @@
       </c>
       <c r="G47" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F47)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H47" s="21"/>
     </row>
@@ -22658,7 +22658,7 @@
       </c>
       <c r="G48" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F48)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H48" s="21"/>
     </row>
@@ -22680,7 +22680,7 @@
       </c>
       <c r="G49" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F49)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H49" s="21"/>
     </row>
@@ -22702,7 +22702,7 @@
       </c>
       <c r="G50" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F50)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H50" s="21"/>
     </row>
@@ -22724,7 +22724,7 @@
       </c>
       <c r="G51" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F51)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H51" s="21"/>
     </row>
@@ -22746,7 +22746,7 @@
       </c>
       <c r="G52" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F52)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H52" s="21"/>
     </row>
@@ -22768,7 +22768,7 @@
       </c>
       <c r="G53" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F53)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H53" s="21"/>
     </row>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="G54" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F54)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H54" s="21"/>
     </row>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="G55" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F55)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H55" s="21"/>
     </row>
@@ -22834,7 +22834,7 @@
       </c>
       <c r="G56" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F56)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H56" s="21"/>
     </row>
@@ -22856,7 +22856,7 @@
       </c>
       <c r="G57" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F57)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H57" s="21"/>
     </row>
@@ -22878,7 +22878,7 @@
       </c>
       <c r="G58" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F58)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H58" s="21"/>
     </row>
@@ -22900,7 +22900,7 @@
       </c>
       <c r="G59" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F59)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H59" s="21"/>
     </row>
@@ -22922,7 +22922,7 @@
       </c>
       <c r="G60" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F60)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H60" s="21"/>
     </row>
@@ -22944,7 +22944,7 @@
       </c>
       <c r="G61" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F61)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H61" s="21"/>
     </row>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="G62" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F62)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H62" s="21"/>
     </row>
@@ -22988,7 +22988,7 @@
       </c>
       <c r="G63" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F63)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H63" s="21"/>
     </row>
@@ -23010,7 +23010,7 @@
       </c>
       <c r="G64" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F64)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H64" s="21"/>
     </row>
@@ -23032,7 +23032,7 @@
       </c>
       <c r="G65" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F65)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H65" s="21"/>
     </row>
@@ -23054,7 +23054,7 @@
       </c>
       <c r="G66" s="22" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F66)</f>
-        <v/>
+        <v>qlLiborSwap - Unhandled currency AUD</v>
       </c>
       <c r="H66" s="21"/>
     </row>
@@ -23305,7 +23305,7 @@
       </c>
       <c r="Q5" s="370" t="str">
         <f>_xll.RData(Q6:Q14,R5:S5,"RTFEED:IDN",,,R6)</f>
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:48</v>
       </c>
       <c r="R5" s="370" t="s">
         <v>227</v>
@@ -23375,7 +23375,7 @@
         <v>AUCASH=RBAA</v>
       </c>
       <c r="R6" s="436">
-        <v>41808</v>
+        <v>41809</v>
       </c>
       <c r="S6" s="460">
         <v>2.5</v>
@@ -23449,7 +23449,7 @@
         <v>AU1MBBC=ICAA</v>
       </c>
       <c r="R7" s="376">
-        <v>41808</v>
+        <v>41809</v>
       </c>
       <c r="S7" s="461">
         <v>2.66</v>
@@ -23520,10 +23520,10 @@
         <v>AU2MBBC=ICAA</v>
       </c>
       <c r="R8" s="376">
-        <v>41808</v>
+        <v>41809</v>
       </c>
       <c r="S8" s="461">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="T8" s="376" t="b">
         <f t="shared" si="2"/>
@@ -23594,7 +23594,7 @@
         <v>AU3MBBC=ICAA</v>
       </c>
       <c r="R9" s="376">
-        <v>41808</v>
+        <v>41809</v>
       </c>
       <c r="S9" s="461">
         <v>2.7</v>
@@ -23665,7 +23665,7 @@
         <v>AU4MBBC=ICAA</v>
       </c>
       <c r="R10" s="376">
-        <v>41808</v>
+        <v>41809</v>
       </c>
       <c r="S10" s="461">
         <v>2.7</v>
@@ -23736,7 +23736,7 @@
         <v>AU5MBBC=ICAA</v>
       </c>
       <c r="R11" s="376">
-        <v>41808</v>
+        <v>41809</v>
       </c>
       <c r="S11" s="461">
         <v>2.71</v>
@@ -23810,10 +23810,10 @@
         <v>AU6MBBC=ICAA</v>
       </c>
       <c r="R12" s="376">
-        <v>41808</v>
+        <v>41809</v>
       </c>
       <c r="S12" s="461">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="T12" s="376" t="b">
         <f t="shared" si="2"/>
@@ -23881,7 +23881,7 @@
         <v>AU9MBBC=ICAA</v>
       </c>
       <c r="R13" s="376">
-        <v>41808</v>
+        <v>41809</v>
       </c>
       <c r="S13" s="461">
         <v>2.73</v>
@@ -23952,7 +23952,7 @@
         <v>AU1YBBC=ICAA</v>
       </c>
       <c r="R14" s="416">
-        <v>41808</v>
+        <v>41809</v>
       </c>
       <c r="S14" s="462">
         <v>2.74</v>
@@ -24084,7 +24084,7 @@
       </c>
       <c r="F4" s="406" t="str">
         <f>_xll.qlSwapIndex($E4,FixingType,C4,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc1Y#0012</v>
+        <v>AudBBSWSwapForBasisCalc1Y#0000</v>
       </c>
       <c r="G4" s="403" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -24106,7 +24106,7 @@
       </c>
       <c r="F5" s="406" t="str">
         <f>_xll.qlSwapIndex($E5,FixingType,C5,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc2Y#0003</v>
+        <v>AudBBSWSwapForBasisCalc2Y#0000</v>
       </c>
       <c r="G5" s="403" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -24128,7 +24128,7 @@
       </c>
       <c r="F6" s="406" t="str">
         <f>_xll.qlSwapIndex($E6,FixingType,C6,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc3Y#0003</v>
+        <v>AudBBSWSwapForBasisCalc3Y#0000</v>
       </c>
       <c r="G6" s="403" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -24150,7 +24150,7 @@
       </c>
       <c r="F7" s="406" t="str">
         <f>_xll.qlSwapIndex($E7,FixingType,C7,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc4Y#0003</v>
+        <v>AudBBSWSwapForBasisCalc4Y#0000</v>
       </c>
       <c r="G7" s="403" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -24878,7 +24878,7 @@
       <c r="N4" s="82"/>
       <c r="O4" s="220" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:49</v>
       </c>
       <c r="P4" s="217" t="s">
         <v>162</v>
@@ -25152,7 +25152,7 @@
         <v>2.4950000000000001</v>
       </c>
       <c r="Q8" s="137">
-        <v>2.5049999999999999</v>
+        <v>2.5030000000000001</v>
       </c>
       <c r="R8" s="137">
         <v>0</v>
@@ -25162,7 +25162,7 @@
       </c>
       <c r="T8" s="141">
         <f>_xll.qlMidEquivalent($P8,$Q8,$R8,$S8)</f>
-        <v>2.5</v>
+        <v>2.4990000000000001</v>
       </c>
       <c r="U8" s="139"/>
       <c r="V8" s="140">
@@ -25170,11 +25170,11 @@
       </c>
       <c r="W8" s="139"/>
       <c r="X8" s="199">
-        <v>2.5</v>
+        <v>2.4990000000000001</v>
       </c>
       <c r="Y8" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F8,X8/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999995925E-6</v>
       </c>
       <c r="Z8" s="126"/>
       <c r="AB8"/>
@@ -25354,7 +25354,7 @@
         <v>2.4870000000000001</v>
       </c>
       <c r="Q11" s="137">
-        <v>2.5</v>
+        <v>2.4980000000000002</v>
       </c>
       <c r="R11" s="137">
         <v>0</v>
@@ -25364,19 +25364,19 @@
       </c>
       <c r="T11" s="141">
         <f>_xll.qlMidEquivalent($P11,$Q11,$R11,$S11)</f>
-        <v>2.4935</v>
+        <v>2.4925000000000002</v>
       </c>
       <c r="U11" s="139"/>
       <c r="V11" s="140">
-        <v>2.5</v>
+        <v>2.4925000000000002</v>
       </c>
       <c r="W11" s="139"/>
       <c r="X11" s="199">
-        <v>2.4935</v>
+        <v>2.4925000000000002</v>
       </c>
       <c r="Y11" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F11,X11/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999961231E-6</v>
       </c>
       <c r="Z11" s="126"/>
     </row>
@@ -25435,7 +25435,7 @@
       </c>
       <c r="U12" s="139"/>
       <c r="V12" s="140">
-        <v>2.5</v>
+        <v>2.4925000000000002</v>
       </c>
       <c r="W12" s="139"/>
       <c r="X12" s="199">
@@ -25488,7 +25488,7 @@
         <v>2.4870000000000001</v>
       </c>
       <c r="Q13" s="137">
-        <v>2.4980000000000002</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="R13" s="137">
         <v>0</v>
@@ -25498,19 +25498,19 @@
       </c>
       <c r="T13" s="141">
         <f>_xll.qlMidEquivalent($P13,$Q13,$R13,$S13)</f>
-        <v>2.4925000000000002</v>
+        <v>2.4910000000000001</v>
       </c>
       <c r="U13" s="139"/>
       <c r="V13" s="140">
-        <v>2.5034999999999998</v>
+        <v>2.4910000000000001</v>
       </c>
       <c r="W13" s="139"/>
       <c r="X13" s="199">
-        <v>2.4925000000000002</v>
+        <v>2.4910000000000001</v>
       </c>
       <c r="Y13" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F13,X13/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.5000000000001124E-5</v>
       </c>
       <c r="Z13" s="126"/>
     </row>
@@ -25686,10 +25686,10 @@
         <v>AUD9MOIS=ICAA</v>
       </c>
       <c r="P16" s="137">
-        <v>2.4969999999999999</v>
+        <v>2.4849999999999999</v>
       </c>
       <c r="Q16" s="137">
-        <v>2.5030000000000001</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="R16" s="137">
         <v>0</v>
@@ -25699,19 +25699,19 @@
       </c>
       <c r="T16" s="141">
         <f>_xll.qlMidEquivalent($P16,$Q16,$R16,$S16)</f>
-        <v>2.5</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="U16" s="139"/>
       <c r="V16" s="140">
-        <v>2.5149999999999997</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="W16" s="139"/>
       <c r="X16" s="199">
-        <v>2.5</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="Y16" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F16,X16/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999999395E-5</v>
       </c>
       <c r="Z16" s="126"/>
     </row>
@@ -25887,10 +25887,10 @@
         <v>AUD12MOIS=ICAA</v>
       </c>
       <c r="P19" s="137">
-        <v>2.5169999999999999</v>
+        <v>2.4969999999999999</v>
       </c>
       <c r="Q19" s="137">
-        <v>2.5299999999999998</v>
+        <v>2.5049999999999999</v>
       </c>
       <c r="R19" s="137">
         <v>0</v>
@@ -25900,19 +25900,19 @@
       </c>
       <c r="T19" s="141">
         <f>_xll.qlMidEquivalent($P19,$Q19,$R19,$S19)</f>
-        <v>2.5234999999999999</v>
+        <v>2.5009999999999999</v>
       </c>
       <c r="U19" s="139"/>
       <c r="V19" s="140">
-        <v>2.5375000000000001</v>
+        <v>2.5009999999999999</v>
       </c>
       <c r="W19" s="139"/>
       <c r="X19" s="199">
-        <v>2.5234999999999999</v>
+        <v>2.5009999999999999</v>
       </c>
       <c r="Y19" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F19,X19/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.2499999999999951E-4</v>
       </c>
       <c r="Z19" s="126"/>
     </row>
@@ -26289,10 +26289,10 @@
         <v>AUD18MOIS=ICAA</v>
       </c>
       <c r="P25" s="137">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="Q25" s="137">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="R25" s="137">
         <v>0</v>
@@ -26302,19 +26302,19 @@
       </c>
       <c r="T25" s="141">
         <f>_xll.qlMidEquivalent($P25,$Q25,$R25,$S25)</f>
-        <v>2.5949999999999998</v>
+        <v>2.5649999999999999</v>
       </c>
       <c r="U25" s="139"/>
       <c r="V25" s="140">
-        <v>2.62</v>
+        <v>2.5649999999999999</v>
       </c>
       <c r="W25" s="139"/>
       <c r="X25" s="199">
-        <v>2.5949999999999998</v>
+        <v>2.5649999999999999</v>
       </c>
       <c r="Y25" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F25,X25/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.9999999999999818E-4</v>
       </c>
       <c r="Z25" s="126"/>
     </row>
@@ -26691,10 +26691,10 @@
         <v>AUD2YOIS=ICAA</v>
       </c>
       <c r="P31" s="137">
-        <v>2.665</v>
+        <v>2.625</v>
       </c>
       <c r="Q31" s="137">
-        <v>2.7149999999999999</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="R31" s="137">
         <v>0</v>
@@ -26704,19 +26704,19 @@
       </c>
       <c r="T31" s="141">
         <f>_xll.qlMidEquivalent($P31,$Q31,$R31,$S31)</f>
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="U31" s="139"/>
       <c r="V31" s="140">
-        <v>2.7250000000000001</v>
+        <v>2.65</v>
       </c>
       <c r="W31" s="139"/>
       <c r="X31" s="199">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="Y31" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.0000000000000105E-4</v>
       </c>
       <c r="Z31" s="126"/>
     </row>
@@ -26959,10 +26959,10 @@
         <v>AUD3YOIS=ICAA</v>
       </c>
       <c r="P35" s="137">
-        <v>2.8849999999999998</v>
+        <v>2.83</v>
       </c>
       <c r="Q35" s="137">
-        <v>2.9350000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="R35" s="137">
         <v>0</v>
@@ -26972,19 +26972,19 @@
       </c>
       <c r="T35" s="141">
         <f>_xll.qlMidEquivalent($P35,$Q35,$R35,$S35)</f>
-        <v>2.91</v>
+        <v>2.855</v>
       </c>
       <c r="U35" s="139"/>
       <c r="V35" s="140">
-        <v>2.9550000000000001</v>
+        <v>2.855</v>
       </c>
       <c r="W35" s="139"/>
       <c r="X35" s="199">
-        <v>2.91</v>
+        <v>2.855</v>
       </c>
       <c r="Y35" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.5000000000000188E-4</v>
       </c>
       <c r="Z35" s="126"/>
     </row>
@@ -28832,7 +28832,7 @@
       <c r="N4" s="82"/>
       <c r="O4" s="220" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:49</v>
       </c>
       <c r="P4" s="217" t="s">
         <v>162</v>
@@ -29900,32 +29900,32 @@
         <v>AUD1YMTOIS=ICAA</v>
       </c>
       <c r="P19" s="137">
-        <v>2.5</v>
+        <v>2.4830000000000001</v>
       </c>
       <c r="Q19" s="137">
-        <v>2.5499999999999998</v>
+        <v>2.5329999999999999</v>
       </c>
       <c r="R19" s="137">
         <v>0</v>
       </c>
       <c r="S19" s="137">
-        <v>2.52</v>
+        <v>2.5049999999999999</v>
       </c>
       <c r="T19" s="141">
         <f>_xll.qlMidEquivalent($P19,$Q19,$R19,$S19)</f>
-        <v>2.5249999999999999</v>
+        <v>2.508</v>
       </c>
       <c r="U19" s="139"/>
       <c r="V19" s="140">
-        <v>2.54</v>
+        <v>2.508</v>
       </c>
       <c r="W19" s="139"/>
       <c r="X19" s="199">
-        <v>2.5249999999999999</v>
+        <v>2.508</v>
       </c>
       <c r="Y19" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F19,X19/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.6999999999999654E-4</v>
       </c>
       <c r="Z19" s="126"/>
     </row>
@@ -30326,32 +30326,32 @@
         <v>AUD18MMTOIS=ICAA</v>
       </c>
       <c r="P25" s="137">
-        <v>2.5499999999999998</v>
+        <v>2.52</v>
       </c>
       <c r="Q25" s="137">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R25" s="137">
         <v>0</v>
       </c>
       <c r="S25" s="137">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="T25" s="141">
         <f>_xll.qlMidEquivalent($P25,$Q25,$R25,$S25)</f>
-        <v>2.5750000000000002</v>
+        <v>2.5449999999999999</v>
       </c>
       <c r="U25" s="139"/>
       <c r="V25" s="140">
-        <v>2.6</v>
+        <v>2.5449999999999999</v>
       </c>
       <c r="W25" s="139"/>
       <c r="X25" s="199">
-        <v>2.5750000000000002</v>
+        <v>2.5449999999999999</v>
       </c>
       <c r="Y25" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F25,X25/100,Trigger)</f>
-        <v>0</v>
+        <v>-3.0000000000000165E-4</v>
       </c>
       <c r="Z25" s="126"/>
     </row>
@@ -30752,32 +30752,32 @@
         <v>AUD2YMTOIS=ICAA</v>
       </c>
       <c r="P31" s="137">
-        <v>2.63</v>
+        <v>2.5950000000000002</v>
       </c>
       <c r="Q31" s="137">
-        <v>2.68</v>
+        <v>2.645</v>
       </c>
       <c r="R31" s="137">
         <v>0</v>
       </c>
       <c r="S31" s="137">
-        <v>2.6549999999999998</v>
+        <v>2.6150000000000002</v>
       </c>
       <c r="T31" s="141">
         <f>_xll.qlMidEquivalent($P31,$Q31,$R31,$S31)</f>
-        <v>2.6550000000000002</v>
+        <v>2.62</v>
       </c>
       <c r="U31" s="139"/>
       <c r="V31" s="140">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="W31" s="139"/>
       <c r="X31" s="199">
-        <v>2.6550000000000002</v>
+        <v>2.62</v>
       </c>
       <c r="Y31" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
-        <v>0</v>
+        <v>-3.5000000000000309E-4</v>
       </c>
       <c r="Z31" s="126"/>
     </row>
@@ -31036,32 +31036,32 @@
         <v>AUD3YMTOIS=ICAA</v>
       </c>
       <c r="P35" s="137">
-        <v>2.8050000000000002</v>
+        <v>2.75</v>
       </c>
       <c r="Q35" s="137">
-        <v>2.855</v>
+        <v>2.8</v>
       </c>
       <c r="R35" s="137">
         <v>0</v>
       </c>
       <c r="S35" s="137">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="T35" s="141">
         <f>_xll.qlMidEquivalent($P35,$Q35,$R35,$S35)</f>
-        <v>2.83</v>
+        <v>2.7749999999999999</v>
       </c>
       <c r="U35" s="139"/>
       <c r="V35" s="140">
-        <v>2.87</v>
+        <v>2.7749999999999999</v>
       </c>
       <c r="W35" s="139"/>
       <c r="X35" s="199">
-        <v>2.83</v>
+        <v>2.7749999999999999</v>
       </c>
       <c r="Y35" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.5000000000000188E-4</v>
       </c>
       <c r="Z35" s="126"/>
     </row>
@@ -31320,32 +31320,32 @@
         <v>AUD4YMTOIS=ICAA</v>
       </c>
       <c r="P39" s="137">
-        <v>2.948</v>
+        <v>2.895</v>
       </c>
       <c r="Q39" s="137">
-        <v>2.9980000000000002</v>
+        <v>2.9449999999999998</v>
       </c>
       <c r="R39" s="137">
         <v>0</v>
       </c>
       <c r="S39" s="137">
-        <v>2.9729999999999999</v>
+        <v>2.92</v>
       </c>
       <c r="T39" s="141">
         <f>_xll.qlMidEquivalent($P39,$Q39,$R39,$S39)</f>
-        <v>2.9729999999999999</v>
+        <v>2.92</v>
       </c>
       <c r="U39" s="139"/>
       <c r="V39" s="140">
-        <v>3.008</v>
+        <v>2.92</v>
       </c>
       <c r="W39" s="139"/>
       <c r="X39" s="199">
-        <v>2.9729999999999999</v>
+        <v>2.92</v>
       </c>
       <c r="Y39" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F39,X39/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.2999999999999922E-4</v>
       </c>
       <c r="Z39" s="126"/>
     </row>
@@ -31604,32 +31604,32 @@
         <v>AUD5YMTOIS=ICAA</v>
       </c>
       <c r="P43" s="137">
-        <v>3.1080000000000001</v>
+        <v>3.0529999999999999</v>
       </c>
       <c r="Q43" s="137">
-        <v>3.1579999999999999</v>
+        <v>3.1030000000000002</v>
       </c>
       <c r="R43" s="137">
         <v>0</v>
       </c>
       <c r="S43" s="137">
-        <v>3.133</v>
+        <v>3.0779999999999998</v>
       </c>
       <c r="T43" s="141">
         <f>_xll.qlMidEquivalent($P43,$Q43,$R43,$S43)</f>
-        <v>3.133</v>
+        <v>3.0780000000000003</v>
       </c>
       <c r="U43" s="139"/>
       <c r="V43" s="140">
-        <v>3.1630000000000003</v>
+        <v>3.0780000000000003</v>
       </c>
       <c r="W43" s="139"/>
       <c r="X43" s="199">
-        <v>3.133</v>
+        <v>3.0780000000000003</v>
       </c>
       <c r="Y43" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F43,X43/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.4999999999999494E-4</v>
       </c>
       <c r="Z43" s="126"/>
     </row>
@@ -31675,32 +31675,32 @@
         <v>AUD6YMTOIS=ICAA</v>
       </c>
       <c r="P44" s="137">
-        <v>3.2679999999999998</v>
+        <v>3.2130000000000001</v>
       </c>
       <c r="Q44" s="137">
-        <v>3.3180000000000001</v>
+        <v>3.2629999999999999</v>
       </c>
       <c r="R44" s="137">
         <v>0</v>
       </c>
       <c r="S44" s="137">
-        <v>3.2930000000000001</v>
+        <v>3.238</v>
       </c>
       <c r="T44" s="141">
         <f>_xll.qlMidEquivalent($P44,$Q44,$R44,$S44)</f>
-        <v>3.2930000000000001</v>
+        <v>3.238</v>
       </c>
       <c r="U44" s="139"/>
       <c r="V44" s="140">
-        <v>3.3149999999999999</v>
+        <v>3.238</v>
       </c>
       <c r="W44" s="139"/>
       <c r="X44" s="199">
-        <v>3.2930000000000001</v>
+        <v>3.238</v>
       </c>
       <c r="Y44" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F44,X44/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.5000000000000188E-4</v>
       </c>
       <c r="Z44" s="126"/>
     </row>
@@ -31746,32 +31746,32 @@
         <v>AUD7YMTOIS=ICAA</v>
       </c>
       <c r="P45" s="137">
-        <v>3.4279999999999999</v>
+        <v>3.3730000000000002</v>
       </c>
       <c r="Q45" s="137">
-        <v>3.4780000000000002</v>
+        <v>3.423</v>
       </c>
       <c r="R45" s="137">
         <v>0</v>
       </c>
       <c r="S45" s="137">
-        <v>3.4529999999999998</v>
+        <v>3.3980000000000001</v>
       </c>
       <c r="T45" s="141">
         <f>_xll.qlMidEquivalent($P45,$Q45,$R45,$S45)</f>
-        <v>3.4530000000000003</v>
+        <v>3.3980000000000001</v>
       </c>
       <c r="U45" s="139"/>
       <c r="V45" s="140">
-        <v>3.4649999999999999</v>
+        <v>3.3980000000000001</v>
       </c>
       <c r="W45" s="139"/>
       <c r="X45" s="199">
-        <v>3.4530000000000003</v>
+        <v>3.3980000000000001</v>
       </c>
       <c r="Y45" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F45,X45/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.5000000000000188E-4</v>
       </c>
       <c r="Z45" s="126"/>
     </row>
@@ -31817,32 +31817,32 @@
         <v>AUD8YMTOIS=ICAA</v>
       </c>
       <c r="P46" s="137">
-        <v>3.5350000000000001</v>
+        <v>3.48</v>
       </c>
       <c r="Q46" s="137">
-        <v>3.585</v>
+        <v>3.53</v>
       </c>
       <c r="R46" s="137">
         <v>0</v>
       </c>
       <c r="S46" s="137">
-        <v>3.56</v>
+        <v>3.5049999999999999</v>
       </c>
       <c r="T46" s="141">
         <f>_xll.qlMidEquivalent($P46,$Q46,$R46,$S46)</f>
-        <v>3.56</v>
+        <v>3.5049999999999999</v>
       </c>
       <c r="U46" s="139"/>
       <c r="V46" s="140">
-        <v>3.5680000000000001</v>
+        <v>3.5049999999999999</v>
       </c>
       <c r="W46" s="139"/>
       <c r="X46" s="199">
-        <v>3.56</v>
+        <v>3.5049999999999999</v>
       </c>
       <c r="Y46" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F46,X46/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.5000000000000188E-4</v>
       </c>
       <c r="Z46" s="126"/>
     </row>
@@ -31888,32 +31888,32 @@
         <v>AUD9YMTOIS=ICAA</v>
       </c>
       <c r="P47" s="137">
-        <v>3.645</v>
+        <v>3.585</v>
       </c>
       <c r="Q47" s="137">
-        <v>3.6949999999999998</v>
+        <v>3.6349999999999998</v>
       </c>
       <c r="R47" s="137">
         <v>0</v>
       </c>
       <c r="S47" s="137">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="T47" s="141">
         <f>_xll.qlMidEquivalent($P47,$Q47,$R47,$S47)</f>
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="U47" s="139"/>
       <c r="V47" s="140">
-        <v>3.6680000000000001</v>
+        <v>3.61</v>
       </c>
       <c r="W47" s="139"/>
       <c r="X47" s="199">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="Y47" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F47,X47/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.9999999999999637E-4</v>
       </c>
       <c r="Z47" s="126"/>
     </row>
@@ -31959,32 +31959,32 @@
         <v>AUD10YMTOIS=ICAA</v>
       </c>
       <c r="P48" s="137">
-        <v>3.7530000000000001</v>
+        <v>3.6930000000000001</v>
       </c>
       <c r="Q48" s="137">
-        <v>3.8029999999999999</v>
+        <v>3.7429999999999999</v>
       </c>
       <c r="R48" s="137">
         <v>0</v>
       </c>
       <c r="S48" s="137">
-        <v>3.778</v>
+        <v>3.718</v>
       </c>
       <c r="T48" s="141">
         <f>_xll.qlMidEquivalent($P48,$Q48,$R48,$S48)</f>
-        <v>3.778</v>
+        <v>3.718</v>
       </c>
       <c r="U48" s="139"/>
       <c r="V48" s="140">
-        <v>3.77</v>
+        <v>3.718</v>
       </c>
       <c r="W48" s="139"/>
       <c r="X48" s="199">
-        <v>3.778</v>
+        <v>3.718</v>
       </c>
       <c r="Y48" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F48,X48/100,Trigger)</f>
-        <v>0</v>
+        <v>-6.0000000000000331E-4</v>
       </c>
       <c r="Z48" s="126"/>
     </row>
@@ -32030,32 +32030,32 @@
         <v>AUD12YMTOIS=ICAA</v>
       </c>
       <c r="P49" s="137">
-        <v>3.903</v>
+        <v>3.84</v>
       </c>
       <c r="Q49" s="137">
-        <v>3.9529999999999998</v>
+        <v>3.89</v>
       </c>
       <c r="R49" s="137">
         <v>0</v>
       </c>
       <c r="S49" s="137">
-        <v>3.9279999999999999</v>
+        <v>3.8650000000000002</v>
       </c>
       <c r="T49" s="141">
         <f>_xll.qlMidEquivalent($P49,$Q49,$R49,$S49)</f>
-        <v>3.9279999999999999</v>
+        <v>3.8650000000000002</v>
       </c>
       <c r="U49" s="139"/>
       <c r="V49" s="140">
-        <v>3.92</v>
+        <v>3.8650000000000002</v>
       </c>
       <c r="W49" s="139"/>
       <c r="X49" s="199">
-        <v>3.9279999999999999</v>
+        <v>3.8650000000000002</v>
       </c>
       <c r="Y49" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F49,X49/100,Trigger)</f>
-        <v>0</v>
+        <v>-6.2999999999999862E-4</v>
       </c>
       <c r="Z49" s="126"/>
     </row>
@@ -32101,32 +32101,32 @@
         <v>AUD15YMTOIS=ICAA</v>
       </c>
       <c r="P50" s="137">
-        <v>4.0430000000000001</v>
+        <v>3.9830000000000001</v>
       </c>
       <c r="Q50" s="137">
-        <v>4.093</v>
+        <v>4.0330000000000004</v>
       </c>
       <c r="R50" s="137">
         <v>0</v>
       </c>
       <c r="S50" s="137">
-        <v>4.0679999999999996</v>
+        <v>4.008</v>
       </c>
       <c r="T50" s="141">
         <f>_xll.qlMidEquivalent($P50,$Q50,$R50,$S50)</f>
-        <v>4.0679999999999996</v>
+        <v>4.008</v>
       </c>
       <c r="U50" s="139"/>
       <c r="V50" s="140">
-        <v>4.0600000000000005</v>
+        <v>4.008</v>
       </c>
       <c r="W50" s="139"/>
       <c r="X50" s="199">
-        <v>4.0679999999999996</v>
+        <v>4.008</v>
       </c>
       <c r="Y50" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F50,X50/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.9999999999999637E-4</v>
       </c>
       <c r="Z50" s="126"/>
     </row>
@@ -32172,32 +32172,32 @@
         <v>AUD20YMTOIS=ICAA</v>
       </c>
       <c r="P51" s="137">
-        <v>4.173</v>
+        <v>4.1130000000000004</v>
       </c>
       <c r="Q51" s="137">
-        <v>4.2229999999999999</v>
+        <v>4.1630000000000003</v>
       </c>
       <c r="R51" s="137">
         <v>0</v>
       </c>
       <c r="S51" s="137">
-        <v>4.1980000000000004</v>
+        <v>4.1379999999999999</v>
       </c>
       <c r="T51" s="141">
         <f>_xll.qlMidEquivalent($P51,$Q51,$R51,$S51)</f>
-        <v>4.1980000000000004</v>
+        <v>4.1379999999999999</v>
       </c>
       <c r="U51" s="139"/>
       <c r="V51" s="140">
-        <v>4.1880000000000006</v>
+        <v>4.1379999999999999</v>
       </c>
       <c r="W51" s="139"/>
       <c r="X51" s="199">
-        <v>4.1980000000000004</v>
+        <v>4.1379999999999999</v>
       </c>
       <c r="Y51" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F51,X51/100,Trigger)</f>
-        <v>0</v>
+        <v>-6.0000000000000331E-4</v>
       </c>
       <c r="Z51" s="126"/>
     </row>
@@ -32243,32 +32243,32 @@
         <v>AUD25YMTOIS=ICAA</v>
       </c>
       <c r="P52" s="137">
-        <v>4.2279999999999998</v>
+        <v>4.1680000000000001</v>
       </c>
       <c r="Q52" s="137">
-        <v>4.2779999999999996</v>
+        <v>4.218</v>
       </c>
       <c r="R52" s="137">
         <v>0</v>
       </c>
       <c r="S52" s="137">
-        <v>4.2530000000000001</v>
+        <v>4.1929999999999996</v>
       </c>
       <c r="T52" s="141">
         <f>_xll.qlMidEquivalent($P52,$Q52,$R52,$S52)</f>
-        <v>4.2530000000000001</v>
+        <v>4.1929999999999996</v>
       </c>
       <c r="U52" s="139"/>
       <c r="V52" s="140">
-        <v>4.2430000000000003</v>
+        <v>4.1929999999999996</v>
       </c>
       <c r="W52" s="139"/>
       <c r="X52" s="199">
-        <v>4.2530000000000001</v>
+        <v>4.1929999999999996</v>
       </c>
       <c r="Y52" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F52,X52/100,Trigger)</f>
-        <v>0</v>
+        <v>-6.0000000000000331E-4</v>
       </c>
       <c r="Z52" s="126"/>
     </row>
@@ -32385,32 +32385,32 @@
         <v>AUD30YMTOIS=ICAA</v>
       </c>
       <c r="P54" s="137">
-        <v>4.2530000000000001</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="Q54" s="137">
-        <v>4.3029999999999999</v>
+        <v>4.24</v>
       </c>
       <c r="R54" s="137">
         <v>0</v>
       </c>
       <c r="S54" s="137">
-        <v>4.2779999999999996</v>
+        <v>4.2149999999999999</v>
       </c>
       <c r="T54" s="141">
         <f>_xll.qlMidEquivalent($P54,$Q54,$R54,$S54)</f>
-        <v>4.2780000000000005</v>
+        <v>4.2149999999999999</v>
       </c>
       <c r="U54" s="139"/>
       <c r="V54" s="140">
-        <v>4.2680000000000007</v>
+        <v>4.2149999999999999</v>
       </c>
       <c r="W54" s="139"/>
       <c r="X54" s="199">
-        <v>4.2780000000000005</v>
+        <v>4.2149999999999999</v>
       </c>
       <c r="Y54" s="136">
         <f>_xll.qlSimpleQuoteSetValue(F54,X54/100,Trigger)</f>
-        <v>0</v>
+        <v>-6.3000000000000556E-4</v>
       </c>
       <c r="Z54" s="126"/>
     </row>
@@ -32992,7 +32992,7 @@
       <c r="I4" s="165"/>
       <c r="J4" s="134" t="str">
         <f>_xll.RData(J6:J22,K4:L4,,ReutersRtMode,,K6)</f>
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:47</v>
       </c>
       <c r="K4" s="134" t="s">
         <v>162</v>
@@ -34371,7 +34371,7 @@
       <c r="M4" s="59"/>
       <c r="N4" s="473" t="str">
         <f>_xll.RData(N5:N19,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:49</v>
       </c>
       <c r="O4" s="166" t="s">
         <v>162</v>
@@ -34445,33 +34445,33 @@
         <v>AUD1X4F=</v>
       </c>
       <c r="O5" s="181">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="P5" s="181">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q5" s="142">
         <v>0</v>
       </c>
       <c r="R5" s="181">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="S5" s="479">
         <f>_xll.qlMidSafe($O5,$P5)</f>
-        <v>2.6850000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="T5" s="139"/>
       <c r="U5" s="183">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="V5" s="139"/>
       <c r="W5" s="206">
         <f t="array" ref="W5:W19">QuoteLive</f>
-        <v>2.6850000000000001</v>
+        <v>2.7</v>
       </c>
       <c r="X5" s="155">
         <f>_xll.qlSimpleQuoteSetValue(E5,W5/100,Trigger)</f>
-        <v>0</v>
+        <v>1.500000000000043E-4</v>
       </c>
       <c r="Y5" s="126"/>
       <c r="Z5" s="12"/>
@@ -34535,7 +34535,7 @@
       </c>
       <c r="T6" s="139"/>
       <c r="U6" s="179">
-        <v>2.67</v>
+        <v>2.665</v>
       </c>
       <c r="V6" s="139"/>
       <c r="W6" s="199">
@@ -34662,10 +34662,10 @@
         <v>AUD4X7F=</v>
       </c>
       <c r="O8" s="181">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="P8" s="181">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="Q8" s="142">
         <v>0</v>
@@ -34675,19 +34675,19 @@
       </c>
       <c r="S8" s="479">
         <f>_xll.qlMidSafe($O8,$P8)</f>
-        <v>2.6550000000000002</v>
+        <v>2.645</v>
       </c>
       <c r="T8" s="139"/>
       <c r="U8" s="179">
-        <v>2.6550000000000002</v>
+        <v>2.645</v>
       </c>
       <c r="V8" s="139"/>
       <c r="W8" s="199">
-        <v>2.6550000000000002</v>
+        <v>2.645</v>
       </c>
       <c r="X8" s="136">
         <f>_xll.qlSimpleQuoteSetValue(E8,W8/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000000286E-4</v>
       </c>
       <c r="Y8" s="126"/>
       <c r="Z8" s="12"/>
@@ -34734,10 +34734,10 @@
         <v>AUD5X8F=</v>
       </c>
       <c r="O9" s="181">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="P9" s="181">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="Q9" s="142">
         <v>0</v>
@@ -34747,19 +34747,19 @@
       </c>
       <c r="S9" s="479">
         <f>_xll.qlMidSafe($O9,$P9)</f>
-        <v>2.6550000000000002</v>
+        <v>2.645</v>
       </c>
       <c r="T9" s="139"/>
       <c r="U9" s="179">
-        <v>2.6550000000000002</v>
+        <v>2.645</v>
       </c>
       <c r="V9" s="139"/>
       <c r="W9" s="199">
-        <v>2.6550000000000002</v>
+        <v>2.645</v>
       </c>
       <c r="X9" s="136">
         <f>_xll.qlSimpleQuoteSetValue(E9,W9/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000000286E-4</v>
       </c>
       <c r="Y9" s="126"/>
       <c r="Z9" s="12"/>
@@ -34806,10 +34806,10 @@
         <v>AUD6X9F=</v>
       </c>
       <c r="O10" s="181">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="P10" s="181">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="Q10" s="142">
         <v>0</v>
@@ -34819,19 +34819,19 @@
       </c>
       <c r="S10" s="479">
         <f>_xll.qlMidSafe($O10,$P10)</f>
-        <v>2.67</v>
+        <v>2.645</v>
       </c>
       <c r="T10" s="139"/>
       <c r="U10" s="179">
-        <v>2.665</v>
+        <v>2.645</v>
       </c>
       <c r="V10" s="139"/>
       <c r="W10" s="199">
-        <v>2.67</v>
+        <v>2.645</v>
       </c>
       <c r="X10" s="136">
         <f>_xll.qlSimpleQuoteSetValue(E10,W10/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999675E-4</v>
       </c>
       <c r="Y10" s="126"/>
       <c r="Z10" s="12"/>
@@ -34879,20 +34879,20 @@
         <v>AUD1X7F=</v>
       </c>
       <c r="O11" s="484">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="P11" s="484">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="Q11" s="481">
         <v>0</v>
       </c>
       <c r="R11" s="484">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="S11" s="485">
         <f>_xll.qlMidSafe($O11,$P11)</f>
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="T11" s="139"/>
       <c r="U11" s="475">
@@ -34900,11 +34900,11 @@
       </c>
       <c r="V11" s="139"/>
       <c r="W11" s="476">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="X11" s="477">
         <f>_xll.qlSimpleQuoteSetValue(E11,W11/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999999395E-5</v>
       </c>
       <c r="Y11" s="126"/>
       <c r="Z11" s="12"/>
@@ -35025,32 +35025,32 @@
         <v>AUD3X9F=</v>
       </c>
       <c r="O13" s="181">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="P13" s="181">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="Q13" s="142">
         <v>0</v>
       </c>
       <c r="R13" s="181">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="S13" s="479">
         <f>_xll.qlMidSafe($O13,$P13)</f>
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="T13" s="139"/>
       <c r="U13" s="179">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="V13" s="139"/>
       <c r="W13" s="199">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="X13" s="136">
         <f>_xll.qlSimpleQuoteSetValue(E13,W13/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000000286E-4</v>
       </c>
       <c r="Y13" s="126"/>
       <c r="Z13" s="12"/>
@@ -35098,32 +35098,32 @@
         <v>AUD4X10F=</v>
       </c>
       <c r="O14" s="181">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="P14" s="181">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="Q14" s="142">
         <v>0</v>
       </c>
       <c r="R14" s="181">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="S14" s="479">
         <f>_xll.qlMidSafe($O14,$P14)</f>
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="T14" s="139"/>
       <c r="U14" s="179">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="V14" s="139"/>
       <c r="W14" s="199">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="X14" s="136">
         <f>_xll.qlSimpleQuoteSetValue(E14,W14/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.0000000000000286E-4</v>
       </c>
       <c r="Y14" s="126"/>
       <c r="Z14" s="12"/>
@@ -35171,32 +35171,32 @@
         <v>AUD5X11F=</v>
       </c>
       <c r="O15" s="181">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="P15" s="181">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="Q15" s="142">
         <v>0</v>
       </c>
       <c r="R15" s="181">
-        <v>2.69</v>
+        <v>2.67</v>
       </c>
       <c r="S15" s="479">
         <f>_xll.qlMidSafe($O15,$P15)</f>
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="T15" s="139"/>
       <c r="U15" s="179">
-        <v>2.71</v>
+        <v>2.68</v>
       </c>
       <c r="V15" s="139"/>
       <c r="W15" s="199">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="X15" s="136">
         <f>_xll.qlSimpleQuoteSetValue(E15,W15/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999999395E-5</v>
       </c>
       <c r="Y15" s="126"/>
       <c r="Z15" s="12"/>
@@ -35244,32 +35244,32 @@
         <v>AUD6X12F=</v>
       </c>
       <c r="O16" s="181">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="P16" s="181">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q16" s="142">
         <v>0</v>
       </c>
       <c r="R16" s="181">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="S16" s="479">
         <f>_xll.qlMidSafe($O16,$P16)</f>
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T16" s="139"/>
       <c r="U16" s="179">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="V16" s="139"/>
       <c r="W16" s="199">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="X16" s="136">
         <f>_xll.qlSimpleQuoteSetValue(E16,W16/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.0000000000000226E-4</v>
       </c>
       <c r="Y16" s="126"/>
       <c r="Z16" s="12"/>
@@ -35794,7 +35794,7 @@
       </c>
       <c r="O5" s="134" t="str">
         <f>_xll.RData(O6:O17,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Updated at 14:39:37</v>
+        <v>Updated at 09:08:47</v>
       </c>
       <c r="P5" s="188" t="s">
         <v>195</v>
@@ -35844,15 +35844,15 @@
       </c>
       <c r="D6" s="96" t="str">
         <f t="array" ref="D6:D17">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C6:$C17)</f>
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E6" s="89" t="str">
         <f t="shared" ref="E6:E17" si="0">Currency&amp;$D$4&amp;$E$4&amp;$D6&amp;QuoteSuffix</f>
-        <v>AUDFUT1MM4_Quote</v>
+        <v>AUDFUT1MN4_Quote</v>
       </c>
       <c r="F6" s="95" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MM4_Quote#0000</v>
+        <v>AUDFUT1MN4_Quote#0000</v>
       </c>
       <c r="G6" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -35868,11 +35868,11 @@
       </c>
       <c r="M6" s="156" t="str">
         <f t="array" ref="M6:M17">_xll.qlIMMcode(FuturesDates)</f>
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="N6" s="209">
         <f t="array" ref="N6:N17">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,$L6:$L17)</f>
-        <v>41808</v>
+        <v>41836</v>
       </c>
       <c r="O6" s="156" t="e">
         <f t="array" ref="O6:O17">VLOOKUP(Currency,LiffeCodes,2)&amp;FuturesCodes</f>
@@ -35952,15 +35952,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="90" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E7" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MN4_Quote</v>
+        <v>AUDFUT1MQ4_Quote</v>
       </c>
       <c r="F7" s="88" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MN4_Quote#0000</v>
+        <v>AUDFUT1MQ4_Quote#0000</v>
       </c>
       <c r="G7" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="137" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="N7" s="202">
-        <v>41836</v>
+        <v>41871</v>
       </c>
       <c r="O7" s="137" t="e">
         <v>#N/A</v>
@@ -36029,15 +36029,15 @@
       </c>
       <c r="AK7" s="96" t="str">
         <f t="array" ref="AK7:AK18">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$AJ7:$AJ126)</f>
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="AL7" s="129" t="str">
         <f t="shared" ref="AL7:AL18" si="1">Currency&amp;"FUT"&amp;$AN$4&amp;$AK7&amp;QuoteSuffix</f>
-        <v>AUDFUT1MM4_Quote</v>
+        <v>AUDFUT1MN4_Quote</v>
       </c>
       <c r="AM7" s="130" t="str">
         <f t="shared" ref="AM7:AM18" si="2">Currency&amp;"FUT"&amp;$AN$4&amp;$AK7&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>AUDFUT1MM4ConvAdj_Quote</v>
+        <v>AUDFUT1MN4ConvAdj_Quote</v>
       </c>
       <c r="AN7" s="129" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM7,IborIndex,$AK7,$AL7,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -36045,7 +36045,7 @@
       </c>
       <c r="AO7" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN7)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MN4_Quote'</v>
       </c>
       <c r="AP7" s="213"/>
     </row>
@@ -36058,15 +36058,15 @@
         <v>0</v>
       </c>
       <c r="D8" s="90" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E8" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MQ4_Quote</v>
+        <v>AUDFUT1MU4_Quote</v>
       </c>
       <c r="F8" s="88" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MQ4_Quote#0000</v>
+        <v>AUDFUT1MU4_Quote#0000</v>
       </c>
       <c r="G8" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -36081,10 +36081,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="137" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="N8" s="202">
-        <v>41871</v>
+        <v>41899</v>
       </c>
       <c r="O8" s="137" t="e">
         <v>#N/A</v>
@@ -36134,15 +36134,15 @@
         <v>0</v>
       </c>
       <c r="AK8" s="90" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="AL8" s="129" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MN4_Quote</v>
+        <v>AUDFUT1MQ4_Quote</v>
       </c>
       <c r="AM8" s="130" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MN4ConvAdj_Quote</v>
+        <v>AUDFUT1MQ4ConvAdj_Quote</v>
       </c>
       <c r="AN8" s="129" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM8,IborIndex,$AK8,$AL8,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -36150,7 +36150,7 @@
       </c>
       <c r="AO8" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN8)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MQ4_Quote'</v>
       </c>
       <c r="AP8" s="213"/>
     </row>
@@ -36163,15 +36163,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="90" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E9" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MU4_Quote</v>
+        <v>AUDFUT1MV4_Quote</v>
       </c>
       <c r="F9" s="88" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MU4_Quote#0000</v>
+        <v>AUDFUT1MV4_Quote#0000</v>
       </c>
       <c r="G9" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -36186,10 +36186,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="137" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="N9" s="202">
-        <v>41899</v>
+        <v>41927</v>
       </c>
       <c r="O9" s="137" t="e">
         <v>#N/A</v>
@@ -36239,15 +36239,15 @@
         <v>0</v>
       </c>
       <c r="AK9" s="90" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="AL9" s="129" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MQ4_Quote</v>
+        <v>AUDFUT1MU4_Quote</v>
       </c>
       <c r="AM9" s="130" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MQ4ConvAdj_Quote</v>
+        <v>AUDFUT1MU4ConvAdj_Quote</v>
       </c>
       <c r="AN9" s="129" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM9,IborIndex,$AK9,$AL9,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -36255,7 +36255,7 @@
       </c>
       <c r="AO9" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN9)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MU4_Quote'</v>
       </c>
       <c r="AP9" s="213"/>
       <c r="AQ9" s="341"/>
@@ -36269,15 +36269,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="90" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E10" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MV4_Quote</v>
+        <v>AUDFUT1MX4_Quote</v>
       </c>
       <c r="F10" s="88" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MV4_Quote#0000</v>
+        <v>AUDFUT1MX4_Quote#0000</v>
       </c>
       <c r="G10" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -36292,10 +36292,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="137" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="N10" s="202">
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="O10" s="137" t="e">
         <v>#N/A</v>
@@ -36345,15 +36345,15 @@
         <v>0</v>
       </c>
       <c r="AK10" s="90" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="AL10" s="129" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MU4_Quote</v>
+        <v>AUDFUT1MV4_Quote</v>
       </c>
       <c r="AM10" s="130" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MU4ConvAdj_Quote</v>
+        <v>AUDFUT1MV4ConvAdj_Quote</v>
       </c>
       <c r="AN10" s="129" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM10,IborIndex,$AK10,$AL10,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -36361,7 +36361,7 @@
       </c>
       <c r="AO10" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN10)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MV4_Quote'</v>
       </c>
       <c r="AP10" s="213"/>
     </row>
@@ -36374,15 +36374,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="90" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E11" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MX4_Quote</v>
+        <v>AUDFUT1MZ4_Quote</v>
       </c>
       <c r="F11" s="88" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MX4_Quote#0000</v>
+        <v>AUDFUT1MZ4_Quote#0000</v>
       </c>
       <c r="G11" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -36397,10 +36397,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="137" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="N11" s="202">
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="O11" s="137" t="e">
         <v>#N/A</v>
@@ -36450,15 +36450,15 @@
         <v>0</v>
       </c>
       <c r="AK11" s="90" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="AL11" s="129" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MV4_Quote</v>
+        <v>AUDFUT1MX4_Quote</v>
       </c>
       <c r="AM11" s="130" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MV4ConvAdj_Quote</v>
+        <v>AUDFUT1MX4ConvAdj_Quote</v>
       </c>
       <c r="AN11" s="129" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM11,IborIndex,$AK11,$AL11,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -36466,7 +36466,7 @@
       </c>
       <c r="AO11" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN11)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MX4_Quote'</v>
       </c>
       <c r="AP11" s="213"/>
     </row>
@@ -36479,15 +36479,15 @@
         <v>0</v>
       </c>
       <c r="D12" s="90" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E12" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MZ4_Quote</v>
+        <v>AUDFUT1MF5_Quote</v>
       </c>
       <c r="F12" s="88" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MZ4_Quote#0000</v>
+        <v>AUDFUT1MF5_Quote#0000</v>
       </c>
       <c r="G12" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -36502,10 +36502,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="137" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="N12" s="202">
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="O12" s="137" t="e">
         <v>#N/A</v>
@@ -36555,15 +36555,15 @@
         <v>0</v>
       </c>
       <c r="AK12" s="90" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="AL12" s="129" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MX4_Quote</v>
+        <v>AUDFUT1MZ4_Quote</v>
       </c>
       <c r="AM12" s="130" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MX4ConvAdj_Quote</v>
+        <v>AUDFUT1MZ4ConvAdj_Quote</v>
       </c>
       <c r="AN12" s="129" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM12,IborIndex,$AK12,$AL12,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -36571,7 +36571,7 @@
       </c>
       <c r="AO12" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN12)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MZ4_Quote'</v>
       </c>
       <c r="AP12" s="213"/>
     </row>
@@ -36584,15 +36584,15 @@
         <v>0</v>
       </c>
       <c r="D13" s="90" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E13" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MF5_Quote</v>
+        <v>AUDFUT1MG5_Quote</v>
       </c>
       <c r="F13" s="88" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MF5_Quote#0000</v>
+        <v>AUDFUT1MG5_Quote#0000</v>
       </c>
       <c r="G13" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -36607,10 +36607,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="137" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="N13" s="202">
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="O13" s="137" t="e">
         <v>#N/A</v>
@@ -36660,15 +36660,15 @@
         <v>0</v>
       </c>
       <c r="AK13" s="90" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="AL13" s="129" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MZ4_Quote</v>
+        <v>AUDFUT1MF5_Quote</v>
       </c>
       <c r="AM13" s="130" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MZ4ConvAdj_Quote</v>
+        <v>AUDFUT1MF5ConvAdj_Quote</v>
       </c>
       <c r="AN13" s="129" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM13,IborIndex,$AK13,$AL13,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -36676,7 +36676,7 @@
       </c>
       <c r="AO13" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN13)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MF5_Quote'</v>
       </c>
       <c r="AP13" s="213"/>
     </row>
@@ -36689,15 +36689,15 @@
         <v>0</v>
       </c>
       <c r="D14" s="90" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E14" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MG5_Quote</v>
+        <v>AUDFUT1MH5_Quote</v>
       </c>
       <c r="F14" s="88" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MG5_Quote#0000</v>
+        <v>AUDFUT1MH5_Quote#0000</v>
       </c>
       <c r="G14" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -36712,10 +36712,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="137" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="N14" s="202">
-        <v>42053</v>
+        <v>42081</v>
       </c>
       <c r="O14" s="137" t="e">
         <v>#N/A</v>
@@ -36765,15 +36765,15 @@
         <v>0</v>
       </c>
       <c r="AK14" s="90" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="AL14" s="129" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MF5_Quote</v>
+        <v>AUDFUT1MG5_Quote</v>
       </c>
       <c r="AM14" s="130" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MF5ConvAdj_Quote</v>
+        <v>AUDFUT1MG5ConvAdj_Quote</v>
       </c>
       <c r="AN14" s="129" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM14,IborIndex,$AK14,$AL14,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -36781,7 +36781,7 @@
       </c>
       <c r="AO14" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN14)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MG5_Quote'</v>
       </c>
       <c r="AP14" s="213"/>
     </row>
@@ -36794,15 +36794,15 @@
         <v>0</v>
       </c>
       <c r="D15" s="90" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E15" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MH5_Quote</v>
+        <v>AUDFUT1MJ5_Quote</v>
       </c>
       <c r="F15" s="88" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MH5_Quote#0000</v>
+        <v>AUDFUT1MJ5_Quote#0000</v>
       </c>
       <c r="G15" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -36817,10 +36817,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="137" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="N15" s="202">
-        <v>42081</v>
+        <v>42109</v>
       </c>
       <c r="O15" s="137" t="e">
         <v>#N/A</v>
@@ -36870,15 +36870,15 @@
         <v>0</v>
       </c>
       <c r="AK15" s="90" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="AL15" s="129" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MG5_Quote</v>
+        <v>AUDFUT1MH5_Quote</v>
       </c>
       <c r="AM15" s="130" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MG5ConvAdj_Quote</v>
+        <v>AUDFUT1MH5ConvAdj_Quote</v>
       </c>
       <c r="AN15" s="129" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM15,IborIndex,$AK15,$AL15,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -36886,7 +36886,7 @@
       </c>
       <c r="AO15" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN15)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MH5_Quote'</v>
       </c>
       <c r="AP15" s="213"/>
     </row>
@@ -36899,15 +36899,15 @@
         <v>0</v>
       </c>
       <c r="D16" s="90" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="E16" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MJ5_Quote</v>
+        <v>AUDFUT1MK5_Quote</v>
       </c>
       <c r="F16" s="88" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MJ5_Quote#0000</v>
+        <v>AUDFUT1MK5_Quote#0000</v>
       </c>
       <c r="G16" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -36922,10 +36922,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="137" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="N16" s="202">
-        <v>42109</v>
+        <v>42144</v>
       </c>
       <c r="O16" s="137" t="e">
         <v>#N/A</v>
@@ -36975,15 +36975,15 @@
         <v>0</v>
       </c>
       <c r="AK16" s="90" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="AL16" s="129" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MH5_Quote</v>
+        <v>AUDFUT1MJ5_Quote</v>
       </c>
       <c r="AM16" s="130" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MH5ConvAdj_Quote</v>
+        <v>AUDFUT1MJ5ConvAdj_Quote</v>
       </c>
       <c r="AN16" s="129" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM16,IborIndex,$AK16,$AL16,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -36991,7 +36991,7 @@
       </c>
       <c r="AO16" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN16)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MJ5_Quote'</v>
       </c>
       <c r="AP16" s="213"/>
     </row>
@@ -37004,15 +37004,15 @@
         <v>0</v>
       </c>
       <c r="D17" s="90" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="E17" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MK5_Quote</v>
+        <v>AUDFUT1MM5_Quote</v>
       </c>
       <c r="F17" s="88" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MK5_Quote#0000</v>
+        <v>AUDFUT1MM5_Quote#0000</v>
       </c>
       <c r="G17" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -37027,10 +37027,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="150" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="N17" s="195">
-        <v>42144</v>
+        <v>42172</v>
       </c>
       <c r="O17" s="150" t="e">
         <v>#N/A</v>
@@ -37080,15 +37080,15 @@
         <v>0</v>
       </c>
       <c r="AK17" s="90" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="AL17" s="129" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MJ5_Quote</v>
+        <v>AUDFUT1MK5_Quote</v>
       </c>
       <c r="AM17" s="130" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MJ5ConvAdj_Quote</v>
+        <v>AUDFUT1MK5ConvAdj_Quote</v>
       </c>
       <c r="AN17" s="129" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM17,IborIndex,$AK17,$AL17,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -37096,7 +37096,7 @@
       </c>
       <c r="AO17" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN17)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MK5_Quote'</v>
       </c>
       <c r="AP17" s="213"/>
     </row>
@@ -37140,15 +37140,15 @@
         <v>0</v>
       </c>
       <c r="AK18" s="90" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="AL18" s="129" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MK5_Quote</v>
+        <v>AUDFUT1MM5_Quote</v>
       </c>
       <c r="AM18" s="130" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MK5ConvAdj_Quote</v>
+        <v>AUDFUT1MM5ConvAdj_Quote</v>
       </c>
       <c r="AN18" s="129" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM18,IborIndex,$AK18,$AL18,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -37156,7 +37156,7 @@
       </c>
       <c r="AO18" s="46" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN18)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MM5_Quote'</v>
       </c>
       <c r="AP18" s="213"/>
     </row>
@@ -37209,7 +37209,7 @@
     <col min="11" max="11" width="2.7109375" style="66" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.7109375" style="66" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="66" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.28515625" style="66" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="9.140625" style="66"/>
     <col min="20" max="20" width="10.140625" style="66" customWidth="1"/>
@@ -37381,7 +37381,7 @@
       <c r="Y4" s="83"/>
       <c r="Z4" s="168">
         <f>_xll.ohTrigger(Z6:Z47)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA4" s="213"/>
       <c r="AB4" s="12"/>
@@ -37440,7 +37440,7 @@
       </c>
       <c r="O5" s="220" t="str">
         <f>_xll.RData(O6:O47,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Updated at 14:43:55</v>
+        <v>Updated at 09:13:10</v>
       </c>
       <c r="P5" s="217" t="s">
         <v>195</v>
@@ -37507,15 +37507,15 @@
       </c>
       <c r="D6" s="96" t="str">
         <f t="array" ref="D6:D47">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C6:$C47)</f>
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="E6" s="89" t="str">
         <f t="shared" ref="E6:E47" si="0">Currency&amp;$C$4&amp;$D$4&amp;$D6&amp;QuoteSuffix</f>
-        <v>AUDFUT3MM4_Quote</v>
+        <v>AUDFUT3MN4_Quote</v>
       </c>
       <c r="F6" s="95" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM4_Quote#0000</v>
+        <v>AUDFUT3MN4_Quote#0000</v>
       </c>
       <c r="G6" s="94" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -37531,15 +37531,15 @@
       </c>
       <c r="M6" s="156" t="str">
         <f t="array" ref="M6:M47">_xll.qlIMMcode(FuturesDates)</f>
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="N6" s="209">
         <f t="array" ref="N6:N47">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,$L6:$L47)</f>
-        <v>41808</v>
+        <v>41836</v>
       </c>
       <c r="O6" s="156" t="str">
         <f t="array" ref="O6:O47">"YBA"&amp;FuturesCodes</f>
-        <v>YBAM4</v>
+        <v>YBAN4</v>
       </c>
       <c r="P6" s="208" t="s">
         <v>173</v>
@@ -37561,8 +37561,8 @@
         <v>#NUM!</v>
       </c>
       <c r="V6" s="139"/>
-      <c r="W6" s="207">
-        <v>97.3</v>
+      <c r="W6" s="207" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X6" s="139"/>
       <c r="Y6" s="206" t="e">
@@ -37584,15 +37584,15 @@
       </c>
       <c r="AF6" s="96" t="str">
         <f t="array" ref="AF6:AF47">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$AE6:$AE47)</f>
-        <v>M4</v>
+        <v>N4</v>
       </c>
       <c r="AG6" s="130" t="str">
         <f t="shared" ref="AG6:AG47" si="1">Currency&amp;"FUT"&amp;$AI$4&amp;$AF6&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>AUDFUT3MM4ConvAdj_Quote</v>
+        <v>AUDFUT3MN4ConvAdj_Quote</v>
       </c>
       <c r="AH6" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG6,IborIndex,AF6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(Z6),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM4ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MN4ConvAdj_Quote#0007</v>
       </c>
       <c r="AI6" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH6)</f>
@@ -37609,15 +37609,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="90" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E7" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MN4_Quote</v>
+        <v>AUDFUT3MQ4_Quote</v>
       </c>
       <c r="F7" s="88" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MN4_Quote#0000</v>
+        <v>AUDFUT3MQ4_Quote#0000</v>
       </c>
       <c r="G7" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -37632,13 +37632,13 @@
         <v>0</v>
       </c>
       <c r="M7" s="137" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="N7" s="202">
-        <v>41836</v>
+        <v>41871</v>
       </c>
       <c r="O7" s="137" t="str">
-        <v>YBAN4</v>
+        <v>YBAQ4</v>
       </c>
       <c r="P7" s="201" t="s">
         <v>173</v>
@@ -37681,15 +37681,15 @@
         <v>0</v>
       </c>
       <c r="AF7" s="90" t="str">
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="AG7" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MN4ConvAdj_Quote</v>
+        <v>AUDFUT3MQ4ConvAdj_Quote</v>
       </c>
       <c r="AH7" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG7,IborIndex,AF7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(Z7),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>AUDFUT3MN4ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MQ4ConvAdj_Quote#0006</v>
       </c>
       <c r="AI7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH7)</f>
@@ -37706,15 +37706,15 @@
         <v>0</v>
       </c>
       <c r="D8" s="90" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E8" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MQ4_Quote</v>
+        <v>AUDFUT3MU4_Quote</v>
       </c>
       <c r="F8" s="88" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MQ4_Quote#0000</v>
+        <v>AUDFUT3MU4_Quote#0000</v>
       </c>
       <c r="G8" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -37729,44 +37729,44 @@
         <v>0</v>
       </c>
       <c r="M8" s="137" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="N8" s="202">
-        <v>41871</v>
+        <v>41899</v>
       </c>
       <c r="O8" s="137" t="str">
-        <v>YBAQ4</v>
-      </c>
-      <c r="P8" s="201" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q8" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="R8" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="S8" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="T8" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="U8" s="141" t="e">
+        <v>YBAU4</v>
+      </c>
+      <c r="P8" s="201">
+        <v>41893</v>
+      </c>
+      <c r="Q8" s="137">
+        <v>97.34</v>
+      </c>
+      <c r="R8" s="137">
+        <v>97.34</v>
+      </c>
+      <c r="S8" s="137">
+        <v>0</v>
+      </c>
+      <c r="T8" s="137">
+        <v>97.34</v>
+      </c>
+      <c r="U8" s="141">
         <f>_xll.qlMidSafe($Q8,$R8)</f>
-        <v>#NUM!</v>
+        <v>97.34</v>
       </c>
       <c r="V8" s="139"/>
-      <c r="W8" s="205" t="e">
-        <v>#NUM!</v>
+      <c r="W8" s="205">
+        <v>97.34</v>
       </c>
       <c r="X8" s="139"/>
-      <c r="Y8" s="199" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Z8" s="141" t="e">
+      <c r="Y8" s="199">
+        <v>97.34</v>
+      </c>
+      <c r="Z8" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y8,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="21"/>
       <c r="AB8" s="12"/>
@@ -37778,15 +37778,15 @@
         <v>0</v>
       </c>
       <c r="AF8" s="90" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="AG8" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MQ4ConvAdj_Quote</v>
+        <v>AUDFUT3MU4ConvAdj_Quote</v>
       </c>
       <c r="AH8" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG8,IborIndex,AF8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(Z8),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>AUDFUT3MQ4ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MU4ConvAdj_Quote#0006</v>
       </c>
       <c r="AI8" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH8)</f>
@@ -37803,15 +37803,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="90" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E9" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU4_Quote</v>
+        <v>AUDFUT3MV4_Quote</v>
       </c>
       <c r="F9" s="88" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU4_Quote#0000</v>
+        <v>AUDFUT3MV4_Quote#0000</v>
       </c>
       <c r="G9" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -37826,44 +37826,44 @@
         <v>0</v>
       </c>
       <c r="M9" s="137" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="N9" s="202">
-        <v>41899</v>
+        <v>41927</v>
       </c>
       <c r="O9" s="137" t="str">
-        <v>YBAU4</v>
-      </c>
-      <c r="P9" s="201">
-        <v>41893</v>
-      </c>
-      <c r="Q9" s="137">
-        <v>97.33</v>
-      </c>
-      <c r="R9" s="137">
-        <v>97.34</v>
-      </c>
-      <c r="S9" s="137">
-        <v>97.33</v>
-      </c>
-      <c r="T9" s="137">
-        <v>97.34</v>
-      </c>
-      <c r="U9" s="141">
+        <v>YBAV4</v>
+      </c>
+      <c r="P9" s="201" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q9" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="R9" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="S9" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="T9" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="U9" s="141" t="e">
         <f>_xll.qlMidSafe($Q9,$R9)</f>
-        <v>97.335000000000008</v>
+        <v>#NUM!</v>
       </c>
       <c r="V9" s="139"/>
-      <c r="W9" s="205">
-        <v>97.335000000000008</v>
+      <c r="W9" s="205" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X9" s="139"/>
-      <c r="Y9" s="199">
-        <v>97.335000000000008</v>
-      </c>
-      <c r="Z9" s="141">
+      <c r="Y9" s="199" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z9" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F9,Y9,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA9" s="21"/>
       <c r="AB9" s="12"/>
@@ -37875,15 +37875,15 @@
         <v>0</v>
       </c>
       <c r="AF9" s="90" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="AG9" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU4ConvAdj_Quote</v>
+        <v>AUDFUT3MV4ConvAdj_Quote</v>
       </c>
       <c r="AH9" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG9,IborIndex,AF9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(Z9),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU4ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MV4ConvAdj_Quote#0006</v>
       </c>
       <c r="AI9" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH9)</f>
@@ -37900,15 +37900,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="90" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E10" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MV4_Quote</v>
+        <v>AUDFUT3MX4_Quote</v>
       </c>
       <c r="F10" s="88" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MV4_Quote#0000</v>
+        <v>AUDFUT3MX4_Quote#0000</v>
       </c>
       <c r="G10" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -37924,13 +37924,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="137" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="N10" s="202">
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="O10" s="137" t="str">
-        <v>YBAV4</v>
+        <v>YBAX4</v>
       </c>
       <c r="P10" s="201" t="s">
         <v>173</v>
@@ -37973,15 +37973,15 @@
         <v>0</v>
       </c>
       <c r="AF10" s="90" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="AG10" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MV4ConvAdj_Quote</v>
+        <v>AUDFUT3MX4ConvAdj_Quote</v>
       </c>
       <c r="AH10" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG10,IborIndex,AF10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(Z10),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>AUDFUT3MV4ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MX4ConvAdj_Quote#0006</v>
       </c>
       <c r="AI10" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH10)</f>
@@ -37998,15 +37998,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="90" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E11" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MX4_Quote</v>
+        <v>AUDFUT3MZ4_Quote</v>
       </c>
       <c r="F11" s="88" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MX4_Quote#0000</v>
+        <v>AUDFUT3MZ4_Quote#0000</v>
       </c>
       <c r="G11" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -38021,44 +38021,44 @@
         <v>0</v>
       </c>
       <c r="M11" s="137" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="N11" s="202">
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="O11" s="137" t="str">
-        <v>YBAX4</v>
-      </c>
-      <c r="P11" s="201" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q11" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="R11" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="S11" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="T11" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="U11" s="141" t="e">
+        <v>YBAZ4</v>
+      </c>
+      <c r="P11" s="201">
+        <v>41984</v>
+      </c>
+      <c r="Q11" s="137">
+        <v>97.35</v>
+      </c>
+      <c r="R11" s="137">
+        <v>97.35</v>
+      </c>
+      <c r="S11" s="137">
+        <v>0</v>
+      </c>
+      <c r="T11" s="137">
+        <v>97.36</v>
+      </c>
+      <c r="U11" s="141">
         <f>_xll.qlMidSafe($Q11,$R11)</f>
-        <v>#NUM!</v>
+        <v>97.35</v>
       </c>
       <c r="V11" s="139"/>
-      <c r="W11" s="200" t="e">
-        <v>#NUM!</v>
+      <c r="W11" s="200">
+        <v>97.35</v>
       </c>
       <c r="X11" s="139"/>
-      <c r="Y11" s="199" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Z11" s="141" t="e">
+      <c r="Y11" s="199">
+        <v>97.35</v>
+      </c>
+      <c r="Z11" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="21"/>
       <c r="AB11" s="12"/>
@@ -38070,15 +38070,15 @@
         <v>0</v>
       </c>
       <c r="AF11" s="90" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="AG11" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MX4ConvAdj_Quote</v>
+        <v>AUDFUT3MZ4ConvAdj_Quote</v>
       </c>
       <c r="AH11" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG11,IborIndex,AF11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(Z11),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>AUDFUT3MX4ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MZ4ConvAdj_Quote#0006</v>
       </c>
       <c r="AI11" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH11)</f>
@@ -38095,15 +38095,15 @@
         <v>0</v>
       </c>
       <c r="D12" s="90" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E12" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ4_Quote</v>
+        <v>AUDFUT3MF5_Quote</v>
       </c>
       <c r="F12" s="88" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ4_Quote#0000</v>
+        <v>AUDFUT3MF5_Quote#0000</v>
       </c>
       <c r="G12" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -38118,44 +38118,44 @@
         <v>0</v>
       </c>
       <c r="M12" s="137" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="N12" s="202">
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="O12" s="137" t="str">
-        <v>YBAZ4</v>
-      </c>
-      <c r="P12" s="201">
-        <v>41984</v>
-      </c>
-      <c r="Q12" s="137">
-        <v>97.34</v>
-      </c>
-      <c r="R12" s="137">
-        <v>97.35</v>
-      </c>
-      <c r="S12" s="137">
-        <v>97.35</v>
-      </c>
-      <c r="T12" s="137">
-        <v>97.33</v>
-      </c>
-      <c r="U12" s="141">
+        <v>YBAF5</v>
+      </c>
+      <c r="P12" s="201" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q12" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="R12" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="S12" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="T12" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="U12" s="141" t="e">
         <f>_xll.qlMidSafe($Q12,$R12)</f>
-        <v>97.344999999999999</v>
+        <v>#NUM!</v>
       </c>
       <c r="V12" s="139"/>
-      <c r="W12" s="200">
-        <v>97.314999999999998</v>
+      <c r="W12" s="200" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X12" s="139"/>
-      <c r="Y12" s="199">
-        <v>97.344999999999999</v>
-      </c>
-      <c r="Z12" s="141">
+      <c r="Y12" s="199" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z12" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12,Trigger)</f>
-        <v>9.9999999999909051E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA12" s="21"/>
       <c r="AB12" s="12"/>
@@ -38167,15 +38167,15 @@
         <v>0</v>
       </c>
       <c r="AF12" s="90" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="AG12" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ4ConvAdj_Quote</v>
+        <v>AUDFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="AH12" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG12,IborIndex,AF12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(Z12),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ4ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MF5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI12" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH12)</f>
@@ -38192,15 +38192,15 @@
         <v>0</v>
       </c>
       <c r="D13" s="90" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E13" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MF5_Quote</v>
+        <v>AUDFUT3MG5_Quote</v>
       </c>
       <c r="F13" s="88" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MF5_Quote#0000</v>
+        <v>AUDFUT3MG5_Quote#0000</v>
       </c>
       <c r="G13" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -38215,13 +38215,13 @@
         <v>0</v>
       </c>
       <c r="M13" s="137" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="N13" s="202">
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="O13" s="137" t="str">
-        <v>YBAF5</v>
+        <v>YBAG5</v>
       </c>
       <c r="P13" s="201" t="s">
         <v>173</v>
@@ -38264,15 +38264,15 @@
         <v>0</v>
       </c>
       <c r="AF13" s="90" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="AG13" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MF5ConvAdj_Quote</v>
+        <v>AUDFUT3MG5ConvAdj_Quote</v>
       </c>
       <c r="AH13" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG13,IborIndex,AF13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(Z13),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>AUDFUT3MF5ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MG5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI13" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH13)</f>
@@ -38289,15 +38289,15 @@
         <v>0</v>
       </c>
       <c r="D14" s="90" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E14" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MG5_Quote</v>
+        <v>AUDFUT3MH5_Quote</v>
       </c>
       <c r="F14" s="88" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MG5_Quote#0000</v>
+        <v>AUDFUT3MH5_Quote#0000</v>
       </c>
       <c r="G14" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -38312,44 +38312,44 @@
         <v>0</v>
       </c>
       <c r="M14" s="137" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="N14" s="202">
-        <v>42053</v>
+        <v>42081</v>
       </c>
       <c r="O14" s="137" t="str">
-        <v>YBAG5</v>
-      </c>
-      <c r="P14" s="201" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q14" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="R14" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="S14" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="T14" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="U14" s="141" t="e">
+        <v>YBAH5</v>
+      </c>
+      <c r="P14" s="201">
+        <v>42075</v>
+      </c>
+      <c r="Q14" s="137">
+        <v>97.33</v>
+      </c>
+      <c r="R14" s="137">
+        <v>97.33</v>
+      </c>
+      <c r="S14" s="137">
+        <v>0</v>
+      </c>
+      <c r="T14" s="137">
+        <v>97.33</v>
+      </c>
+      <c r="U14" s="141">
         <f>_xll.qlMidSafe($Q14,$R14)</f>
-        <v>#NUM!</v>
+        <v>97.33</v>
       </c>
       <c r="V14" s="139"/>
-      <c r="W14" s="200" t="e">
-        <v>#NUM!</v>
+      <c r="W14" s="200">
+        <v>97.33</v>
       </c>
       <c r="X14" s="139"/>
-      <c r="Y14" s="199" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Z14" s="141" t="e">
+      <c r="Y14" s="199">
+        <v>97.33</v>
+      </c>
+      <c r="Z14" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="21"/>
       <c r="AB14" s="12"/>
@@ -38361,15 +38361,15 @@
         <v>0</v>
       </c>
       <c r="AF14" s="90" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="AG14" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MG5ConvAdj_Quote</v>
+        <v>AUDFUT3MH5ConvAdj_Quote</v>
       </c>
       <c r="AH14" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG14,IborIndex,AF14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(Z14),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>AUDFUT3MG5ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MH5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI14" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH14)</f>
@@ -38386,15 +38386,15 @@
         <v>0</v>
       </c>
       <c r="D15" s="90" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E15" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH5_Quote</v>
+        <v>AUDFUT3MJ5_Quote</v>
       </c>
       <c r="F15" s="88" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH5_Quote#0000</v>
+        <v>AUDFUT3MJ5_Quote#0000</v>
       </c>
       <c r="G15" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -38409,44 +38409,44 @@
         <v>0</v>
       </c>
       <c r="M15" s="137" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="N15" s="202">
-        <v>42081</v>
+        <v>42109</v>
       </c>
       <c r="O15" s="137" t="str">
-        <v>YBAH5</v>
-      </c>
-      <c r="P15" s="201">
-        <v>42075</v>
-      </c>
-      <c r="Q15" s="137">
-        <v>97.3</v>
-      </c>
-      <c r="R15" s="137">
-        <v>97.31</v>
-      </c>
-      <c r="S15" s="137">
-        <v>97.31</v>
-      </c>
-      <c r="T15" s="137">
-        <v>97.3</v>
-      </c>
-      <c r="U15" s="141">
+        <v>YBAJ5</v>
+      </c>
+      <c r="P15" s="201" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q15" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="R15" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="S15" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="T15" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="U15" s="141" t="e">
         <f>_xll.qlMidSafe($Q15,$R15)</f>
-        <v>97.305000000000007</v>
+        <v>#NUM!</v>
       </c>
       <c r="V15" s="139"/>
-      <c r="W15" s="200">
-        <v>97.254999999999995</v>
+      <c r="W15" s="200" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X15" s="139"/>
-      <c r="Y15" s="199">
-        <v>97.305000000000007</v>
-      </c>
-      <c r="Z15" s="141">
+      <c r="Y15" s="199" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z15" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15,Trigger)</f>
-        <v>1.0000000000005116E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA15" s="21"/>
       <c r="AB15" s="12"/>
@@ -38458,15 +38458,15 @@
         <v>0</v>
       </c>
       <c r="AF15" s="90" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="AG15" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH5ConvAdj_Quote</v>
+        <v>AUDFUT3MJ5ConvAdj_Quote</v>
       </c>
       <c r="AH15" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG15,IborIndex,AF15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(Z15),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH5ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MJ5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI15" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH15)</f>
@@ -38483,15 +38483,15 @@
         <v>0</v>
       </c>
       <c r="D16" s="90" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="E16" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MJ5_Quote</v>
+        <v>AUDFUT3MK5_Quote</v>
       </c>
       <c r="F16" s="88" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MJ5_Quote#0000</v>
+        <v>AUDFUT3MK5_Quote#0000</v>
       </c>
       <c r="G16" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -38506,13 +38506,13 @@
         <v>0</v>
       </c>
       <c r="M16" s="137" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="N16" s="202">
-        <v>42109</v>
+        <v>42144</v>
       </c>
       <c r="O16" s="137" t="str">
-        <v>YBAJ5</v>
+        <v>YBAK5</v>
       </c>
       <c r="P16" s="201" t="s">
         <v>173</v>
@@ -38555,15 +38555,15 @@
         <v>0</v>
       </c>
       <c r="AF16" s="90" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="AG16" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MJ5ConvAdj_Quote</v>
+        <v>AUDFUT3MK5ConvAdj_Quote</v>
       </c>
       <c r="AH16" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG16,IborIndex,AF16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(Z16),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>AUDFUT3MJ5ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MK5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI16" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH16)</f>
@@ -38580,15 +38580,15 @@
         <v>0</v>
       </c>
       <c r="D17" s="90" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="E17" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MK5_Quote</v>
+        <v>AUDFUT3MM5_Quote</v>
       </c>
       <c r="F17" s="88" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MK5_Quote#0000</v>
+        <v>AUDFUT3MM5_Quote#0000</v>
       </c>
       <c r="G17" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -38603,44 +38603,44 @@
         <v>0</v>
       </c>
       <c r="M17" s="137" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="N17" s="202">
-        <v>42144</v>
+        <v>42172</v>
       </c>
       <c r="O17" s="137" t="str">
-        <v>YBAK5</v>
-      </c>
-      <c r="P17" s="201" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q17" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="R17" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="S17" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="T17" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="U17" s="141" t="e">
+        <v>YBAM5</v>
+      </c>
+      <c r="P17" s="201">
+        <v>42166</v>
+      </c>
+      <c r="Q17" s="137">
+        <v>97.25</v>
+      </c>
+      <c r="R17" s="137">
+        <v>97.25</v>
+      </c>
+      <c r="S17" s="137">
+        <v>0</v>
+      </c>
+      <c r="T17" s="137">
+        <v>97.25</v>
+      </c>
+      <c r="U17" s="141">
         <f>_xll.qlMidSafe($Q17,$R17)</f>
-        <v>#NUM!</v>
+        <v>97.25</v>
       </c>
       <c r="V17" s="139"/>
-      <c r="W17" s="200" t="e">
-        <v>#NUM!</v>
+      <c r="W17" s="200">
+        <v>97.25</v>
       </c>
       <c r="X17" s="139"/>
-      <c r="Y17" s="199" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="Z17" s="141" t="e">
+      <c r="Y17" s="199">
+        <v>97.25</v>
+      </c>
+      <c r="Z17" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="21"/>
       <c r="AB17" s="12"/>
@@ -38652,15 +38652,15 @@
         <v>0</v>
       </c>
       <c r="AF17" s="90" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="AG17" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MK5ConvAdj_Quote</v>
+        <v>AUDFUT3MM5ConvAdj_Quote</v>
       </c>
       <c r="AH17" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG17,IborIndex,AF17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(Z17),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>AUDFUT3MK5ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MM5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI17" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH17)</f>
@@ -38677,15 +38677,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="90" t="str">
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="E18" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM5_Quote</v>
+        <v>AUDFUT3MU5_Quote</v>
       </c>
       <c r="F18" s="88" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM5_Quote#0000</v>
+        <v>AUDFUT3MU5_Quote#0000</v>
       </c>
       <c r="G18" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -38700,44 +38700,44 @@
         <v>1</v>
       </c>
       <c r="M18" s="137" t="str">
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="N18" s="202">
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="O18" s="137" t="str">
-        <v>YBAM5</v>
+        <v>YBAU5</v>
       </c>
       <c r="P18" s="201">
-        <v>42166</v>
+        <v>42257</v>
       </c>
       <c r="Q18" s="137">
-        <v>97.21</v>
+        <v>97.16</v>
       </c>
       <c r="R18" s="137">
-        <v>97.22</v>
+        <v>97.16</v>
       </c>
       <c r="S18" s="137">
-        <v>97.22</v>
+        <v>0</v>
       </c>
       <c r="T18" s="137">
-        <v>97.22</v>
+        <v>97.16</v>
       </c>
       <c r="U18" s="141">
         <f>_xll.qlMidSafe($Q18,$R18)</f>
-        <v>97.215000000000003</v>
+        <v>97.16</v>
       </c>
       <c r="V18" s="139"/>
       <c r="W18" s="200">
-        <v>97.155000000000001</v>
+        <v>97.16</v>
       </c>
       <c r="X18" s="139"/>
       <c r="Y18" s="199">
-        <v>97.215000000000003</v>
+        <v>97.16</v>
       </c>
       <c r="Z18" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999954525E-3</v>
       </c>
       <c r="AA18" s="21"/>
       <c r="AB18" s="12"/>
@@ -38749,15 +38749,15 @@
         <v>1</v>
       </c>
       <c r="AF18" s="90" t="str">
-        <v>M5</v>
+        <v>U5</v>
       </c>
       <c r="AG18" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM5ConvAdj_Quote</v>
+        <v>AUDFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="AH18" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG18,IborIndex,AF18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(Z18),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM5ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MU5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI18" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH18)</f>
@@ -38774,15 +38774,15 @@
         <v>1</v>
       </c>
       <c r="D19" s="90" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="E19" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU5_Quote</v>
+        <v>AUDFUT3MZ5_Quote</v>
       </c>
       <c r="F19" s="88" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU5_Quote#0000</v>
+        <v>AUDFUT3MZ5_Quote#0000</v>
       </c>
       <c r="G19" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -38797,44 +38797,44 @@
         <v>1</v>
       </c>
       <c r="M19" s="137" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="N19" s="202">
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="O19" s="137" t="str">
-        <v>YBAU5</v>
+        <v>YBAZ5</v>
       </c>
       <c r="P19" s="201">
-        <v>42257</v>
+        <v>42348</v>
       </c>
       <c r="Q19" s="137">
-        <v>97.11</v>
+        <v>97.06</v>
       </c>
       <c r="R19" s="137">
-        <v>97.12</v>
+        <v>97.06</v>
       </c>
       <c r="S19" s="137">
-        <v>97.11</v>
+        <v>0</v>
       </c>
       <c r="T19" s="137">
-        <v>97.11</v>
+        <v>97.06</v>
       </c>
       <c r="U19" s="141">
         <f>_xll.qlMidSafe($Q19,$R19)</f>
-        <v>97.115000000000009</v>
+        <v>97.06</v>
       </c>
       <c r="V19" s="139"/>
       <c r="W19" s="200">
-        <v>97.034999999999997</v>
+        <v>97.06</v>
       </c>
       <c r="X19" s="139"/>
       <c r="Y19" s="199">
-        <v>97.115000000000009</v>
+        <v>97.06</v>
       </c>
       <c r="Z19" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19,Trigger)</f>
-        <v>1.0000000000019327E-2</v>
+        <v>4.9999999999954525E-3</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="12"/>
@@ -38846,15 +38846,15 @@
         <v>1</v>
       </c>
       <c r="AF19" s="90" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="AG19" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU5ConvAdj_Quote</v>
+        <v>AUDFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="AH19" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG19,IborIndex,AF19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(Z19),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU5ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MZ5ConvAdj_Quote#0006</v>
       </c>
       <c r="AI19" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH19)</f>
@@ -38871,15 +38871,15 @@
         <v>1</v>
       </c>
       <c r="D20" s="90" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E20" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ5_Quote</v>
+        <v>AUDFUT3MH6_Quote</v>
       </c>
       <c r="F20" s="88" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ5_Quote#0000</v>
+        <v>AUDFUT3MH6_Quote#0000</v>
       </c>
       <c r="G20" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -38894,44 +38894,44 @@
         <v>1</v>
       </c>
       <c r="M20" s="137" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="N20" s="202">
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="O20" s="137" t="str">
-        <v>YBAZ5</v>
+        <v>YBAH6</v>
       </c>
       <c r="P20" s="201">
-        <v>42348</v>
+        <v>42439</v>
       </c>
       <c r="Q20" s="137">
-        <v>97</v>
+        <v>96.95</v>
       </c>
       <c r="R20" s="137">
-        <v>97.01</v>
+        <v>96.96</v>
       </c>
       <c r="S20" s="137">
-        <v>97.01</v>
+        <v>0</v>
       </c>
       <c r="T20" s="137">
-        <v>97</v>
+        <v>96.96</v>
       </c>
       <c r="U20" s="141">
         <f>_xll.qlMidSafe($Q20,$R20)</f>
-        <v>97.004999999999995</v>
+        <v>96.954999999999998</v>
       </c>
       <c r="V20" s="139"/>
       <c r="W20" s="200">
-        <v>96.91</v>
+        <v>96.954999999999998</v>
       </c>
       <c r="X20" s="139"/>
       <c r="Y20" s="199">
-        <v>97.004999999999995</v>
+        <v>96.954999999999998</v>
       </c>
       <c r="Z20" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20,Trigger)</f>
-        <v>9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="21"/>
       <c r="AB20" s="12"/>
@@ -38943,15 +38943,15 @@
         <v>1</v>
       </c>
       <c r="AF20" s="90" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="AG20" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ5ConvAdj_Quote</v>
+        <v>AUDFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="AH20" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG20,IborIndex,AF20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(Z20),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ5ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MH6ConvAdj_Quote#0006</v>
       </c>
       <c r="AI20" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH20)</f>
@@ -38968,15 +38968,15 @@
         <v>1</v>
       </c>
       <c r="D21" s="90" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E21" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH6_Quote</v>
+        <v>AUDFUT3MM6_Quote</v>
       </c>
       <c r="F21" s="88" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH6_Quote#0000</v>
+        <v>AUDFUT3MM6_Quote#0000</v>
       </c>
       <c r="G21" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -38991,44 +38991,44 @@
         <v>1</v>
       </c>
       <c r="M21" s="137" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="N21" s="202">
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="O21" s="137" t="str">
-        <v>YBAH6</v>
+        <v>YBAM6</v>
       </c>
       <c r="P21" s="201">
-        <v>42439</v>
+        <v>42530</v>
       </c>
       <c r="Q21" s="137">
-        <v>96.9</v>
+        <v>96.83</v>
       </c>
       <c r="R21" s="137">
-        <v>96.92</v>
+        <v>96.88</v>
       </c>
       <c r="S21" s="137">
-        <v>96.91</v>
+        <v>0</v>
       </c>
       <c r="T21" s="137">
-        <v>96.9</v>
+        <v>96.87</v>
       </c>
       <c r="U21" s="141">
         <f>_xll.qlMidSafe($Q21,$R21)</f>
-        <v>96.91</v>
+        <v>96.85499999999999</v>
       </c>
       <c r="V21" s="139"/>
       <c r="W21" s="200">
-        <v>96.805000000000007</v>
+        <v>96.85499999999999</v>
       </c>
       <c r="X21" s="139"/>
       <c r="Y21" s="199">
-        <v>96.91</v>
+        <v>96.85499999999999</v>
       </c>
       <c r="Z21" s="141">
         <f>_xll.qlSimpleQuoteSetValue(F21,Y21,Trigger)</f>
-        <v>1.4999999999986358E-2</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="12"/>
@@ -39040,15 +39040,15 @@
         <v>1</v>
       </c>
       <c r="AF21" s="90" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="AG21" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH6ConvAdj_Quote</v>
+        <v>AUDFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="AH21" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG21,IborIndex,AF21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(Z21),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH6ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MM6ConvAdj_Quote#0006</v>
       </c>
       <c r="AI21" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH21)</f>
@@ -39065,15 +39065,15 @@
         <v>1</v>
       </c>
       <c r="D22" s="90" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E22" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM6_Quote</v>
+        <v>AUDFUT3MU6_Quote</v>
       </c>
       <c r="F22" s="88" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM6_Quote#0000</v>
+        <v>AUDFUT3MU6_Quote#0000</v>
       </c>
       <c r="G22" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -39088,44 +39088,44 @@
         <v>1</v>
       </c>
       <c r="M22" s="137" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="N22" s="202">
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="O22" s="137" t="str">
-        <v>YBAM6</v>
+        <v>YBAU6</v>
       </c>
       <c r="P22" s="201">
-        <v>42530</v>
+        <v>42621</v>
       </c>
       <c r="Q22" s="137">
-        <v>96.81</v>
+        <v>0</v>
       </c>
       <c r="R22" s="137">
-        <v>96.83</v>
+        <v>0</v>
       </c>
       <c r="S22" s="137">
-        <v>96.81</v>
+        <v>0</v>
       </c>
       <c r="T22" s="137">
-        <v>96.8</v>
-      </c>
-      <c r="U22" s="141">
+        <v>96.79</v>
+      </c>
+      <c r="U22" s="141" t="e">
         <f>_xll.qlMidSafe($Q22,$R22)</f>
-        <v>96.82</v>
+        <v>#NUM!</v>
       </c>
       <c r="V22" s="139"/>
-      <c r="W22" s="200">
-        <v>96.710000000000008</v>
+      <c r="W22" s="200" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X22" s="139"/>
-      <c r="Y22" s="199">
-        <v>96.82</v>
-      </c>
-      <c r="Z22" s="141">
+      <c r="Y22" s="199" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z22" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F22,Y22,Trigger)</f>
-        <v>1.999999999998181E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA22" s="21"/>
       <c r="AB22" s="12"/>
@@ -39137,15 +39137,15 @@
         <v>1</v>
       </c>
       <c r="AF22" s="90" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="AG22" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM6ConvAdj_Quote</v>
+        <v>AUDFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="AH22" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG22,IborIndex,AF22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(Z22),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM6ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MU6ConvAdj_Quote#0006</v>
       </c>
       <c r="AI22" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH22)</f>
@@ -39162,15 +39162,15 @@
         <v>1</v>
       </c>
       <c r="D23" s="90" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E23" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU6_Quote</v>
+        <v>AUDFUT3MZ6_Quote</v>
       </c>
       <c r="F23" s="88" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU6_Quote#0000</v>
+        <v>AUDFUT3MZ6_Quote#0000</v>
       </c>
       <c r="G23" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -39185,44 +39185,44 @@
         <v>1</v>
       </c>
       <c r="M23" s="137" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="N23" s="202">
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="O23" s="137" t="str">
-        <v>YBAU6</v>
+        <v>YBAZ6</v>
       </c>
       <c r="P23" s="201">
-        <v>42621</v>
+        <v>42712</v>
       </c>
       <c r="Q23" s="137">
-        <v>96.71</v>
+        <v>0</v>
       </c>
       <c r="R23" s="137">
-        <v>96.73</v>
+        <v>0</v>
       </c>
       <c r="S23" s="137">
         <v>0</v>
       </c>
       <c r="T23" s="137">
-        <v>96.72</v>
-      </c>
-      <c r="U23" s="141">
+        <v>96.69</v>
+      </c>
+      <c r="U23" s="141" t="e">
         <f>_xll.qlMidSafe($Q23,$R23)</f>
-        <v>96.72</v>
+        <v>#NUM!</v>
       </c>
       <c r="V23" s="139"/>
-      <c r="W23" s="200">
-        <v>96.61</v>
+      <c r="W23" s="200" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X23" s="139"/>
-      <c r="Y23" s="199">
-        <v>96.72</v>
-      </c>
-      <c r="Z23" s="141">
+      <c r="Y23" s="199" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z23" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23,Trigger)</f>
-        <v>9.9999999999909051E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA23" s="21"/>
       <c r="AB23" s="12"/>
@@ -39234,15 +39234,15 @@
         <v>1</v>
       </c>
       <c r="AF23" s="90" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="AG23" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU6ConvAdj_Quote</v>
+        <v>AUDFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="AH23" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG23,IborIndex,AF23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(Z23),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU6ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MZ6ConvAdj_Quote#0006</v>
       </c>
       <c r="AI23" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH23)</f>
@@ -39259,15 +39259,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="90" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E24" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ6_Quote</v>
+        <v>AUDFUT3MH7_Quote</v>
       </c>
       <c r="F24" s="88" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ6_Quote#0000</v>
+        <v>AUDFUT3MH7_Quote#0000</v>
       </c>
       <c r="G24" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -39282,44 +39282,44 @@
         <v>1</v>
       </c>
       <c r="M24" s="137" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="N24" s="202">
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="O24" s="137" t="str">
-        <v>YBAZ6</v>
+        <v>YBAH7</v>
       </c>
       <c r="P24" s="201">
-        <v>42712</v>
+        <v>42803</v>
       </c>
       <c r="Q24" s="137">
-        <v>96.61</v>
+        <v>0</v>
       </c>
       <c r="R24" s="137">
-        <v>96.64</v>
+        <v>0</v>
       </c>
       <c r="S24" s="137">
         <v>0</v>
       </c>
       <c r="T24" s="137">
-        <v>96.5</v>
-      </c>
-      <c r="U24" s="141">
+        <v>96.41</v>
+      </c>
+      <c r="U24" s="141" t="e">
         <f>_xll.qlMidSafe($Q24,$R24)</f>
-        <v>96.625</v>
+        <v>#NUM!</v>
       </c>
       <c r="V24" s="139"/>
-      <c r="W24" s="200">
-        <v>96.504999999999995</v>
+      <c r="W24" s="200" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X24" s="139"/>
-      <c r="Y24" s="199">
-        <v>96.625</v>
-      </c>
-      <c r="Z24" s="141">
+      <c r="Y24" s="199" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z24" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F24,Y24,Trigger)</f>
-        <v>2.0000000000010232E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA24" s="21"/>
       <c r="AB24" s="12"/>
@@ -39331,15 +39331,15 @@
         <v>1</v>
       </c>
       <c r="AF24" s="90" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="AG24" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ6ConvAdj_Quote</v>
+        <v>AUDFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="AH24" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG24,IborIndex,AF24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(Z24),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ6ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MH7ConvAdj_Quote#0006</v>
       </c>
       <c r="AI24" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH24)</f>
@@ -39356,15 +39356,15 @@
         <v>1</v>
       </c>
       <c r="D25" s="90" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E25" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH7_Quote</v>
+        <v>AUDFUT3MM7_Quote</v>
       </c>
       <c r="F25" s="88" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH7_Quote#0000</v>
+        <v>AUDFUT3MM7_Quote#0000</v>
       </c>
       <c r="G25" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -39379,44 +39379,44 @@
         <v>1</v>
       </c>
       <c r="M25" s="137" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="N25" s="202">
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="O25" s="137" t="str">
-        <v>YBAH7</v>
+        <v>YBAM7</v>
       </c>
       <c r="P25" s="201">
-        <v>42803</v>
+        <v>42894</v>
       </c>
       <c r="Q25" s="137">
-        <v>96.51</v>
+        <v>0</v>
       </c>
       <c r="R25" s="137">
-        <v>96.55</v>
+        <v>0</v>
       </c>
       <c r="S25" s="137">
         <v>0</v>
       </c>
       <c r="T25" s="137">
-        <v>96.41</v>
-      </c>
-      <c r="U25" s="141">
+        <v>96.33</v>
+      </c>
+      <c r="U25" s="141" t="e">
         <f>_xll.qlMidSafe($Q25,$R25)</f>
-        <v>96.53</v>
+        <v>#NUM!</v>
       </c>
       <c r="V25" s="139"/>
-      <c r="W25" s="200">
-        <v>96.405000000000001</v>
+      <c r="W25" s="200" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X25" s="139"/>
-      <c r="Y25" s="199">
-        <v>96.53</v>
-      </c>
-      <c r="Z25" s="141">
+      <c r="Y25" s="199" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z25" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F25,Y25,Trigger)</f>
-        <v>2.5000000000005684E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA25" s="21"/>
       <c r="AB25" s="12"/>
@@ -39428,15 +39428,15 @@
         <v>1</v>
       </c>
       <c r="AF25" s="90" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="AG25" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH7ConvAdj_Quote</v>
+        <v>AUDFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="AH25" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG25,IborIndex,AF25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(Z25),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH7ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MM7ConvAdj_Quote#0006</v>
       </c>
       <c r="AI25" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH25)</f>
@@ -39453,15 +39453,15 @@
         <v>1</v>
       </c>
       <c r="D26" s="90" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E26" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM7_Quote</v>
+        <v>AUDFUT3MU7_Quote</v>
       </c>
       <c r="F26" s="88" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM7_Quote#0000</v>
+        <v>AUDFUT3MU7_Quote#0000</v>
       </c>
       <c r="G26" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -39476,36 +39476,36 @@
         <v>1</v>
       </c>
       <c r="M26" s="137" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="N26" s="202">
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="O26" s="137" t="str">
-        <v>YBAM7</v>
+        <v>YBAU7</v>
       </c>
       <c r="P26" s="201">
-        <v>42894</v>
+        <v>42985</v>
       </c>
       <c r="Q26" s="137">
         <v>0</v>
       </c>
       <c r="R26" s="137">
-        <v>96.49</v>
+        <v>0</v>
       </c>
       <c r="S26" s="137">
         <v>0</v>
       </c>
       <c r="T26" s="137">
-        <v>96.33</v>
+        <v>95.76</v>
       </c>
       <c r="U26" s="141" t="e">
         <f>_xll.qlMidSafe($Q26,$R26)</f>
         <v>#NUM!</v>
       </c>
       <c r="V26" s="139"/>
-      <c r="W26" s="200">
-        <v>96.305000000000007</v>
+      <c r="W26" s="200" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X26" s="139"/>
       <c r="Y26" s="199" t="e">
@@ -39525,15 +39525,15 @@
         <v>1</v>
       </c>
       <c r="AF26" s="90" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="AG26" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM7ConvAdj_Quote</v>
+        <v>AUDFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="AH26" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG26,IborIndex,AF26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(Z26),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM7ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MU7ConvAdj_Quote#0006</v>
       </c>
       <c r="AI26" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH26)</f>
@@ -39550,15 +39550,15 @@
         <v>1</v>
       </c>
       <c r="D27" s="90" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E27" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU7_Quote</v>
+        <v>AUDFUT3MZ7_Quote</v>
       </c>
       <c r="F27" s="88" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU7_Quote#0000</v>
+        <v>AUDFUT3MZ7_Quote#0000</v>
       </c>
       <c r="G27" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -39573,16 +39573,16 @@
         <v>1</v>
       </c>
       <c r="M27" s="137" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="N27" s="202">
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="O27" s="137" t="str">
-        <v>YBAU7</v>
+        <v>YBAZ7</v>
       </c>
       <c r="P27" s="201">
-        <v>42985</v>
+        <v>43076</v>
       </c>
       <c r="Q27" s="137">
         <v>0</v>
@@ -39601,8 +39601,8 @@
         <v>#NUM!</v>
       </c>
       <c r="V27" s="139"/>
-      <c r="W27" s="200">
-        <v>96.2</v>
+      <c r="W27" s="200" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="X27" s="139"/>
       <c r="Y27" s="199" t="e">
@@ -39622,15 +39622,15 @@
         <v>1</v>
       </c>
       <c r="AF27" s="90" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="AG27" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU7ConvAdj_Quote</v>
+        <v>AUDFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="AH27" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG27,IborIndex,AF27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(Z27),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU7ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MZ7ConvAdj_Quote#0006</v>
       </c>
       <c r="AI27" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH27)</f>
@@ -39647,15 +39647,15 @@
         <v>1</v>
       </c>
       <c r="D28" s="90" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E28" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ7_Quote</v>
+        <v>AUDFUT3MH8_Quote</v>
       </c>
       <c r="F28" s="88" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ7_Quote#0000</v>
+        <v>AUDFUT3MH8_Quote#0000</v>
       </c>
       <c r="G28" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -39670,16 +39670,16 @@
         <v>1</v>
       </c>
       <c r="M28" s="137" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="N28" s="202">
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="O28" s="137" t="str">
-        <v>YBAZ7</v>
+        <v>YBAH8</v>
       </c>
       <c r="P28" s="201">
-        <v>43076</v>
+        <v>43167</v>
       </c>
       <c r="Q28" s="137">
         <v>0</v>
@@ -39719,15 +39719,15 @@
         <v>1</v>
       </c>
       <c r="AF28" s="90" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="AG28" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ7ConvAdj_Quote</v>
+        <v>AUDFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="AH28" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG28,IborIndex,AF28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(Z28),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ7ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MH8ConvAdj_Quote#0006</v>
       </c>
       <c r="AI28" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH28)</f>
@@ -39744,15 +39744,15 @@
         <v>1</v>
       </c>
       <c r="D29" s="90" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E29" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH8_Quote</v>
+        <v>AUDFUT3MM8_Quote</v>
       </c>
       <c r="F29" s="88" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH8_Quote#0000</v>
+        <v>AUDFUT3MM8_Quote#0000</v>
       </c>
       <c r="G29" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -39767,16 +39767,16 @@
         <v>1</v>
       </c>
       <c r="M29" s="137" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="N29" s="202">
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="O29" s="137" t="str">
-        <v>YBAH8</v>
+        <v>YBAM8</v>
       </c>
       <c r="P29" s="201">
-        <v>43167</v>
+        <v>43258</v>
       </c>
       <c r="Q29" s="137">
         <v>0</v>
@@ -39816,15 +39816,15 @@
         <v>1</v>
       </c>
       <c r="AF29" s="90" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="AG29" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH8ConvAdj_Quote</v>
+        <v>AUDFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="AH29" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG29,IborIndex,AF29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(Z29),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH8ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MM8ConvAdj_Quote#0006</v>
       </c>
       <c r="AI29" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH29)</f>
@@ -39841,15 +39841,15 @@
         <v>1</v>
       </c>
       <c r="D30" s="90" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E30" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM8_Quote</v>
+        <v>AUDFUT3MU8_Quote</v>
       </c>
       <c r="F30" s="88" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM8_Quote#0000</v>
+        <v>AUDFUT3MU8_Quote#0000</v>
       </c>
       <c r="G30" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -39864,16 +39864,16 @@
         <v>1</v>
       </c>
       <c r="M30" s="137" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="N30" s="202">
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="O30" s="137" t="str">
-        <v>YBAM8</v>
+        <v>YBAU8</v>
       </c>
       <c r="P30" s="201">
-        <v>43258</v>
+        <v>43356</v>
       </c>
       <c r="Q30" s="137">
         <v>0</v>
@@ -39913,15 +39913,15 @@
         <v>1</v>
       </c>
       <c r="AF30" s="90" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="AG30" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM8ConvAdj_Quote</v>
+        <v>AUDFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="AH30" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG30,IborIndex,AF30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(Z30),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM8ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MU8ConvAdj_Quote#0006</v>
       </c>
       <c r="AI30" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH30)</f>
@@ -39938,15 +39938,15 @@
         <v>1</v>
       </c>
       <c r="D31" s="90" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E31" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU8_Quote</v>
+        <v>AUDFUT3MZ8_Quote</v>
       </c>
       <c r="F31" s="88" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU8_Quote#0000</v>
+        <v>AUDFUT3MZ8_Quote#0000</v>
       </c>
       <c r="G31" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -39961,16 +39961,16 @@
         <v>1</v>
       </c>
       <c r="M31" s="137" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="N31" s="202">
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="O31" s="137" t="str">
-        <v>YBAU8</v>
+        <v>YBAZ8</v>
       </c>
       <c r="P31" s="201">
-        <v>43356</v>
+        <v>43447</v>
       </c>
       <c r="Q31" s="137">
         <v>0</v>
@@ -40010,15 +40010,15 @@
         <v>1</v>
       </c>
       <c r="AF31" s="90" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="AG31" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU8ConvAdj_Quote</v>
+        <v>AUDFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="AH31" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG31,IborIndex,AF31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(Z31),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU8ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MZ8ConvAdj_Quote#0006</v>
       </c>
       <c r="AI31" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH31)</f>
@@ -40035,15 +40035,15 @@
         <v>1</v>
       </c>
       <c r="D32" s="90" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E32" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ8_Quote</v>
+        <v>AUDFUT3MH9_Quote</v>
       </c>
       <c r="F32" s="88" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ8_Quote#0000</v>
+        <v>AUDFUT3MH9_Quote#0000</v>
       </c>
       <c r="G32" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -40058,16 +40058,16 @@
         <v>1</v>
       </c>
       <c r="M32" s="137" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="N32" s="202">
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="O32" s="137" t="str">
-        <v>YBAZ8</v>
+        <v>YBAH9</v>
       </c>
       <c r="P32" s="201">
-        <v>43447</v>
+        <v>43531</v>
       </c>
       <c r="Q32" s="137">
         <v>0</v>
@@ -40079,7 +40079,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="137">
-        <v>95.76</v>
+        <v>0</v>
       </c>
       <c r="U32" s="141" t="e">
         <f>_xll.qlMidSafe($Q32,$R32)</f>
@@ -40107,15 +40107,15 @@
         <v>1</v>
       </c>
       <c r="AF32" s="90" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="AG32" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ8ConvAdj_Quote</v>
+        <v>AUDFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="AH32" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG32,IborIndex,AF32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(Z32),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ8ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MH9ConvAdj_Quote#0006</v>
       </c>
       <c r="AI32" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH32)</f>
@@ -40132,15 +40132,15 @@
         <v>1</v>
       </c>
       <c r="D33" s="90" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E33" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH9_Quote</v>
+        <v>AUDFUT3MM9_Quote</v>
       </c>
       <c r="F33" s="88" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH9_Quote#0000</v>
+        <v>AUDFUT3MM9_Quote#0000</v>
       </c>
       <c r="G33" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -40155,16 +40155,16 @@
         <v>1</v>
       </c>
       <c r="M33" s="137" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="N33" s="202">
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="O33" s="137" t="str">
-        <v>YBAH9</v>
+        <v>YBAM9</v>
       </c>
       <c r="P33" s="201">
-        <v>43531</v>
+        <v>43629</v>
       </c>
       <c r="Q33" s="137">
         <v>0</v>
@@ -40204,15 +40204,15 @@
         <v>1</v>
       </c>
       <c r="AF33" s="90" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="AG33" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH9ConvAdj_Quote</v>
+        <v>AUDFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="AH33" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG33,IborIndex,AF33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(Z33),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH9ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MM9ConvAdj_Quote#0006</v>
       </c>
       <c r="AI33" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH33)</f>
@@ -40229,15 +40229,15 @@
         <v>1</v>
       </c>
       <c r="D34" s="90" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E34" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM9_Quote</v>
+        <v>AUDFUT3MU9_Quote</v>
       </c>
       <c r="F34" s="88" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM9_Quote#0000</v>
+        <v>AUDFUT3MU9_Quote#0000</v>
       </c>
       <c r="G34" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -40252,28 +40252,28 @@
         <v>1</v>
       </c>
       <c r="M34" s="137" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="N34" s="202">
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="O34" s="137" t="str">
-        <v>YBAM9</v>
-      </c>
-      <c r="P34" s="201">
-        <v>43629</v>
-      </c>
-      <c r="Q34" s="137">
-        <v>0</v>
-      </c>
-      <c r="R34" s="137">
-        <v>0</v>
-      </c>
-      <c r="S34" s="137">
-        <v>0</v>
-      </c>
-      <c r="T34" s="137">
-        <v>0</v>
+        <v>YBAU9</v>
+      </c>
+      <c r="P34" s="201" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q34" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="R34" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="S34" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="T34" s="137" t="s">
+        <v>173</v>
       </c>
       <c r="U34" s="141" t="e">
         <f>_xll.qlMidSafe($Q34,$R34)</f>
@@ -40301,15 +40301,15 @@
         <v>1</v>
       </c>
       <c r="AF34" s="90" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="AG34" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM9ConvAdj_Quote</v>
+        <v>AUDFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="AH34" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG34,IborIndex,AF34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(Z34),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM9ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MU9ConvAdj_Quote#0006</v>
       </c>
       <c r="AI34" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH34)</f>
@@ -40326,15 +40326,15 @@
         <v>1</v>
       </c>
       <c r="D35" s="90" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E35" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU9_Quote</v>
+        <v>AUDFUT3MZ9_Quote</v>
       </c>
       <c r="F35" s="88" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU9_Quote#0000</v>
+        <v>AUDFUT3MZ9_Quote#0000</v>
       </c>
       <c r="G35" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -40349,13 +40349,13 @@
         <v>1</v>
       </c>
       <c r="M35" s="137" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="N35" s="202">
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="O35" s="137" t="str">
-        <v>YBAU9</v>
+        <v>YBAZ9</v>
       </c>
       <c r="P35" s="201" t="s">
         <v>173</v>
@@ -40398,15 +40398,15 @@
         <v>1</v>
       </c>
       <c r="AF35" s="90" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="AG35" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU9ConvAdj_Quote</v>
+        <v>AUDFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="AH35" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG35,IborIndex,AF35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(Z35),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU9ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MZ9ConvAdj_Quote#0006</v>
       </c>
       <c r="AI35" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH35)</f>
@@ -40423,15 +40423,15 @@
         <v>1</v>
       </c>
       <c r="D36" s="90" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E36" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ9_Quote</v>
+        <v>AUDFUT3MH0_Quote</v>
       </c>
       <c r="F36" s="88" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ9_Quote#0000</v>
+        <v>AUDFUT3MH0_Quote#0000</v>
       </c>
       <c r="G36" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -40446,13 +40446,13 @@
         <v>1</v>
       </c>
       <c r="M36" s="137" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="N36" s="202">
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="O36" s="137" t="str">
-        <v>YBAZ9</v>
+        <v>YBAH0</v>
       </c>
       <c r="P36" s="201" t="s">
         <v>173</v>
@@ -40495,15 +40495,15 @@
         <v>1</v>
       </c>
       <c r="AF36" s="90" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="AG36" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ9ConvAdj_Quote</v>
+        <v>AUDFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="AH36" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG36,IborIndex,AF36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(Z36),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ9ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MH0ConvAdj_Quote#0006</v>
       </c>
       <c r="AI36" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH36)</f>
@@ -40520,15 +40520,15 @@
         <v>1</v>
       </c>
       <c r="D37" s="90" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E37" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH0_Quote</v>
+        <v>AUDFUT3MM0_Quote</v>
       </c>
       <c r="F37" s="88" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH0_Quote#0000</v>
+        <v>AUDFUT3MM0_Quote#0000</v>
       </c>
       <c r="G37" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -40543,13 +40543,13 @@
         <v>1</v>
       </c>
       <c r="M37" s="137" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="N37" s="202">
-        <v>43908</v>
+        <v>43999</v>
       </c>
       <c r="O37" s="137" t="str">
-        <v>YBAH0</v>
+        <v>YBAM0</v>
       </c>
       <c r="P37" s="201" t="s">
         <v>173</v>
@@ -40592,15 +40592,15 @@
         <v>1</v>
       </c>
       <c r="AF37" s="90" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="AG37" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH0ConvAdj_Quote</v>
+        <v>AUDFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="AH37" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG37,IborIndex,AF37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(Z37),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH0ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MM0ConvAdj_Quote#0006</v>
       </c>
       <c r="AI37" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH37)</f>
@@ -40617,15 +40617,15 @@
         <v>1</v>
       </c>
       <c r="D38" s="90" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E38" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM0_Quote</v>
+        <v>AUDFUT3MU0_Quote</v>
       </c>
       <c r="F38" s="88" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM0_Quote#0000</v>
+        <v>AUDFUT3MU0_Quote#0000</v>
       </c>
       <c r="G38" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -40640,13 +40640,13 @@
         <v>1</v>
       </c>
       <c r="M38" s="137" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="N38" s="202">
-        <v>43999</v>
+        <v>44090</v>
       </c>
       <c r="O38" s="137" t="str">
-        <v>YBAM0</v>
+        <v>YBAU0</v>
       </c>
       <c r="P38" s="201" t="s">
         <v>173</v>
@@ -40689,15 +40689,15 @@
         <v>1</v>
       </c>
       <c r="AF38" s="90" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="AG38" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM0ConvAdj_Quote</v>
+        <v>AUDFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="AH38" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG38,IborIndex,AF38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(Z38),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM0ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MU0ConvAdj_Quote#0006</v>
       </c>
       <c r="AI38" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH38)</f>
@@ -40714,15 +40714,15 @@
         <v>1</v>
       </c>
       <c r="D39" s="90" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E39" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU0_Quote</v>
+        <v>AUDFUT3MZ0_Quote</v>
       </c>
       <c r="F39" s="88" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU0_Quote#0000</v>
+        <v>AUDFUT3MZ0_Quote#0000</v>
       </c>
       <c r="G39" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -40737,13 +40737,13 @@
         <v>1</v>
       </c>
       <c r="M39" s="137" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="N39" s="202">
-        <v>44090</v>
+        <v>44181</v>
       </c>
       <c r="O39" s="137" t="str">
-        <v>YBAU0</v>
+        <v>YBAZ0</v>
       </c>
       <c r="P39" s="201" t="s">
         <v>173</v>
@@ -40786,15 +40786,15 @@
         <v>1</v>
       </c>
       <c r="AF39" s="90" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="AG39" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU0ConvAdj_Quote</v>
+        <v>AUDFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="AH39" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG39,IborIndex,AF39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(Z39),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU0ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MZ0ConvAdj_Quote#0006</v>
       </c>
       <c r="AI39" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH39)</f>
@@ -40811,15 +40811,15 @@
         <v>1</v>
       </c>
       <c r="D40" s="90" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E40" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ0_Quote</v>
+        <v>AUDFUT3MH1_Quote</v>
       </c>
       <c r="F40" s="88" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ0_Quote#0000</v>
+        <v>AUDFUT3MH1_Quote#0000</v>
       </c>
       <c r="G40" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -40834,13 +40834,13 @@
         <v>1</v>
       </c>
       <c r="M40" s="137" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="N40" s="202">
-        <v>44181</v>
+        <v>44272</v>
       </c>
       <c r="O40" s="137" t="str">
-        <v>YBAZ0</v>
+        <v>YBAH1</v>
       </c>
       <c r="P40" s="201" t="s">
         <v>173</v>
@@ -40883,15 +40883,15 @@
         <v>1</v>
       </c>
       <c r="AF40" s="90" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="AG40" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ0ConvAdj_Quote</v>
+        <v>AUDFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="AH40" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG40,IborIndex,AF40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(Z40),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ0ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MH1ConvAdj_Quote#0006</v>
       </c>
       <c r="AI40" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH40)</f>
@@ -40908,15 +40908,15 @@
         <v>1</v>
       </c>
       <c r="D41" s="90" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E41" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH1_Quote</v>
+        <v>AUDFUT3MM1_Quote</v>
       </c>
       <c r="F41" s="88" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH1_Quote#0000</v>
+        <v>AUDFUT3MM1_Quote#0000</v>
       </c>
       <c r="G41" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -40931,13 +40931,13 @@
         <v>1</v>
       </c>
       <c r="M41" s="137" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="N41" s="202">
-        <v>44272</v>
+        <v>44363</v>
       </c>
       <c r="O41" s="137" t="str">
-        <v>YBAH1</v>
+        <v>YBAM1</v>
       </c>
       <c r="P41" s="201" t="s">
         <v>173</v>
@@ -40980,15 +40980,15 @@
         <v>1</v>
       </c>
       <c r="AF41" s="90" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="AG41" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH1ConvAdj_Quote</v>
+        <v>AUDFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="AH41" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG41,IborIndex,AF41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(Z41),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH1ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MM1ConvAdj_Quote#0006</v>
       </c>
       <c r="AI41" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH41)</f>
@@ -41005,15 +41005,15 @@
         <v>1</v>
       </c>
       <c r="D42" s="90" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E42" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM1_Quote</v>
+        <v>AUDFUT3MU1_Quote</v>
       </c>
       <c r="F42" s="88" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM1_Quote#0000</v>
+        <v>AUDFUT3MU1_Quote#0000</v>
       </c>
       <c r="G42" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -41028,13 +41028,13 @@
         <v>1</v>
       </c>
       <c r="M42" s="137" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="N42" s="202">
-        <v>44363</v>
+        <v>44454</v>
       </c>
       <c r="O42" s="137" t="str">
-        <v>YBAM1</v>
+        <v>YBAU1</v>
       </c>
       <c r="P42" s="201" t="s">
         <v>173</v>
@@ -41077,15 +41077,15 @@
         <v>1</v>
       </c>
       <c r="AF42" s="90" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="AG42" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM1ConvAdj_Quote</v>
+        <v>AUDFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="AH42" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG42,IborIndex,AF42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(Z42),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM1ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MU1ConvAdj_Quote#0006</v>
       </c>
       <c r="AI42" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH42)</f>
@@ -41102,15 +41102,15 @@
         <v>1</v>
       </c>
       <c r="D43" s="90" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E43" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU1_Quote</v>
+        <v>AUDFUT3MZ1_Quote</v>
       </c>
       <c r="F43" s="88" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU1_Quote#0000</v>
+        <v>AUDFUT3MZ1_Quote#0000</v>
       </c>
       <c r="G43" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -41125,13 +41125,13 @@
         <v>1</v>
       </c>
       <c r="M43" s="137" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="N43" s="202">
-        <v>44454</v>
+        <v>44545</v>
       </c>
       <c r="O43" s="137" t="str">
-        <v>YBAU1</v>
+        <v>YBAZ1</v>
       </c>
       <c r="P43" s="201" t="s">
         <v>173</v>
@@ -41174,15 +41174,15 @@
         <v>1</v>
       </c>
       <c r="AF43" s="90" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="AG43" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU1ConvAdj_Quote</v>
+        <v>AUDFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="AH43" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG43,IborIndex,AF43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(Z43),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU1ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MZ1ConvAdj_Quote#0006</v>
       </c>
       <c r="AI43" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH43)</f>
@@ -41199,15 +41199,15 @@
         <v>1</v>
       </c>
       <c r="D44" s="90" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E44" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ1_Quote</v>
+        <v>AUDFUT3MH2_Quote</v>
       </c>
       <c r="F44" s="88" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ1_Quote#0000</v>
+        <v>AUDFUT3MH2_Quote#0000</v>
       </c>
       <c r="G44" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -41222,13 +41222,13 @@
         <v>1</v>
       </c>
       <c r="M44" s="137" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="N44" s="202">
-        <v>44545</v>
+        <v>44636</v>
       </c>
       <c r="O44" s="137" t="str">
-        <v>YBAZ1</v>
+        <v>YBAH2</v>
       </c>
       <c r="P44" s="201" t="s">
         <v>173</v>
@@ -41271,15 +41271,15 @@
         <v>1</v>
       </c>
       <c r="AF44" s="90" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="AG44" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ1ConvAdj_Quote</v>
+        <v>AUDFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="AH44" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG44,IborIndex,AF44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(Z44),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ1ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MH2ConvAdj_Quote#0006</v>
       </c>
       <c r="AI44" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH44)</f>
@@ -41296,15 +41296,15 @@
         <v>1</v>
       </c>
       <c r="D45" s="90" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E45" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH2_Quote</v>
+        <v>AUDFUT3MM2_Quote</v>
       </c>
       <c r="F45" s="88" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH2_Quote#0000</v>
+        <v>AUDFUT3MM2_Quote#0000</v>
       </c>
       <c r="G45" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -41319,13 +41319,13 @@
         <v>1</v>
       </c>
       <c r="M45" s="137" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="N45" s="202">
-        <v>44636</v>
+        <v>44727</v>
       </c>
       <c r="O45" s="137" t="str">
-        <v>YBAH2</v>
+        <v>YBAM2</v>
       </c>
       <c r="P45" s="201" t="s">
         <v>173</v>
@@ -41368,15 +41368,15 @@
         <v>1</v>
       </c>
       <c r="AF45" s="90" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="AG45" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH2ConvAdj_Quote</v>
+        <v>AUDFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="AH45" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG45,IborIndex,AF45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(Z45),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH2ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MM2ConvAdj_Quote#0006</v>
       </c>
       <c r="AI45" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH45)</f>
@@ -41393,15 +41393,15 @@
         <v>1</v>
       </c>
       <c r="D46" s="90" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E46" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM2_Quote</v>
+        <v>AUDFUT3MU2_Quote</v>
       </c>
       <c r="F46" s="88" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM2_Quote#0000</v>
+        <v>AUDFUT3MU2_Quote#0000</v>
       </c>
       <c r="G46" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -41416,13 +41416,13 @@
         <v>1</v>
       </c>
       <c r="M46" s="137" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="N46" s="202">
-        <v>44727</v>
+        <v>44825</v>
       </c>
       <c r="O46" s="137" t="str">
-        <v>YBAM2</v>
+        <v>YBAU2</v>
       </c>
       <c r="P46" s="201" t="s">
         <v>173</v>
@@ -41465,15 +41465,15 @@
         <v>1</v>
       </c>
       <c r="AF46" s="90" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="AG46" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM2ConvAdj_Quote</v>
+        <v>AUDFUT3MU2ConvAdj_Quote</v>
       </c>
       <c r="AH46" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG46,IborIndex,AF46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(Z46),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM2ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MU2ConvAdj_Quote#0006</v>
       </c>
       <c r="AI46" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH46)</f>
@@ -41490,15 +41490,15 @@
         <v>1</v>
       </c>
       <c r="D47" s="90" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="E47" s="89" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU2_Quote</v>
+        <v>AUDFUT3MZ2_Quote</v>
       </c>
       <c r="F47" s="88" t="str">
         <f>_xll.qlSimpleQuote(E47,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU2_Quote#0000</v>
+        <v>AUDFUT3MZ2_Quote#0000</v>
       </c>
       <c r="G47" s="67" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -41513,13 +41513,13 @@
         <v>1</v>
       </c>
       <c r="M47" s="150" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="N47" s="195">
-        <v>44825</v>
+        <v>44916</v>
       </c>
       <c r="O47" s="150" t="str">
-        <v>YBAU2</v>
+        <v>YBAZ2</v>
       </c>
       <c r="P47" s="194" t="s">
         <v>173</v>
@@ -41562,15 +41562,15 @@
         <v>1</v>
       </c>
       <c r="AF47" s="90" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="AG47" s="130" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU2ConvAdj_Quote</v>
+        <v>AUDFUT3MZ2ConvAdj_Quote</v>
       </c>
       <c r="AH47" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG47,IborIndex,AF47,F47,Volatility,MeanReversion,Permanent,AND(ISERROR(Z47),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU2ConvAdj_Quote#0001</v>
+        <v>AUDFUT3MZ2ConvAdj_Quote#0006</v>
       </c>
       <c r="AI47" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH47)</f>

--- a/QuantLibXL/Data2/XLS/AUD_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD_Market.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15210" windowHeight="8355" tabRatio="723"/>
+    <workbookView minimized="1" xWindow="9585" yWindow="-15" windowWidth="4800" windowHeight="11610" tabRatio="723"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="56" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="288">
   <si>
     <t>Currency</t>
   </si>
@@ -2999,105 +2999,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>Updated at 09:08:47</v>
-        <stp/>
-        <stp>{4F080267-A2DE-4034-9BFA-EB6DAF78F6BE}</stp>
-        <tr r="O5" s="17"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:08:48</v>
-        <stp/>
-        <stp>{9CA386A3-0D90-4B10-B43E-B5E013B1CB43}</stp>
-        <tr r="K5" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:08:49</v>
-        <stp/>
-        <stp>{9D4D69EB-BD55-424D-A532-DFEA03E8F376}</stp>
-        <tr r="O4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:08:47</v>
-        <stp/>
-        <stp>{770F8C37-CF6C-4EC9-B8CF-EF3A5A700E85}</stp>
-        <tr r="M6" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:08:49</v>
-        <stp/>
-        <stp>{55907EA5-63D1-4184-9591-85645854CBE7}</stp>
-        <tr r="N4" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:08:48</v>
-        <stp/>
-        <stp>{A509BBFC-EA50-4FD9-8AD0-E0863866154E}</stp>
-        <tr r="P4" s="11"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:08:49</v>
-        <stp/>
-        <stp>{21D0A4B3-C595-4F9B-8B54-0CF50B9B28ED}</stp>
-        <tr r="O4" s="23"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:08:48</v>
-        <stp/>
-        <stp>{C38382BD-3D11-42CC-A30D-97D970759534}</stp>
-        <tr r="P4" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:08:47</v>
-        <stp/>
-        <stp>{F3A5206A-4887-4994-B2C3-A5B7C8A074E2}</stp>
-        <tr r="M6" s="8"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:13:10</v>
-        <stp/>
-        <stp>{353FA217-E300-4313-BC57-C657829F5B3C}</stp>
-        <tr r="O5" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:08:49</v>
-        <stp/>
-        <stp>{22154068-A8A9-4A53-B2CF-CB3116AF9B2F}</stp>
-        <tr r="O4" s="65"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:08:47</v>
-        <stp/>
-        <stp>{98CD1062-EF6E-4EDB-9657-14B19C233D48}</stp>
-        <tr r="J4" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:08:48</v>
-        <stp/>
-        <stp>{B891AFD9-0300-43E4-9B9C-A10F353F3AA7}</stp>
-        <tr r="P4" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:08:48</v>
-        <stp/>
-        <stp>{0D5B596C-3BEF-4B5B-AD9F-3589E8CE4419}</stp>
-        <tr r="Q5" s="64"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:08:49</v>
-        <stp/>
-        <stp>{086F9DDC-276A-4295-9825-A4F470DA4C81}</stp>
-        <tr r="P4" s="26"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3459,7 +3360,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="266">
-        <v>41809.380694444444</v>
+        <v>41813.401689814818</v>
       </c>
       <c r="E5" s="253"/>
       <c r="G5" s="5"/>
@@ -3496,7 +3397,7 @@
       </c>
       <c r="D7" s="263">
         <f>_xll.ohTrigger(Deposits!R3,FRA!X3,Futures3M!Z4,FuturesHWConvAdj!Q3,Swaps1M!Y3,Swap3M!Z3,Swap6M!Z3,BasisSwap1M3M!X3,BasisSwap3M6M!X3,OIS!Y3)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7" s="253"/>
       <c r="G7" s="5"/>
@@ -3555,7 +3456,7 @@
       </c>
       <c r="I10" s="397">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41809</v>
+        <v>41813</v>
       </c>
       <c r="J10" s="330"/>
     </row>
@@ -3896,7 +3797,7 @@
       <c r="P3" s="83"/>
       <c r="Q3" s="168">
         <f>_xll.ohTrigger(Q5:Q9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R3" s="21"/>
       <c r="S3" s="12"/>
@@ -3989,9 +3890,9 @@
         <f t="array" ref="P5:P6">QuoteLive</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="234">
+      <c r="Q5" s="234" t="e">
         <f>_xll.qlSimpleQuoteSetValue(C5,P5,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R5" s="21"/>
       <c r="S5" s="12"/>
@@ -4038,9 +3939,9 @@
       <c r="P6" s="344">
         <v>0.03</v>
       </c>
-      <c r="Q6" s="226">
+      <c r="Q6" s="226" t="e">
         <f>_xll.qlSimpleQuoteSetValue(C6,P6,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R6" s="21"/>
       <c r="S6" s="12"/>
@@ -4258,7 +4159,7 @@
       <c r="X3" s="83"/>
       <c r="Y3" s="168">
         <f>_xll.ohTrigger(Y5:Y15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="126"/>
     </row>
@@ -4285,9 +4186,9 @@
       <c r="L4" s="115"/>
       <c r="M4" s="115"/>
       <c r="N4" s="115"/>
-      <c r="O4" s="134" t="str">
-        <f>_xll.RData(O5:O18,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 09:08:49</v>
+      <c r="O4" s="134" t="e">
+        <f ca="1">_xll.RData(O5:O18,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P4" s="188" t="s">
         <v>162</v>
@@ -5356,7 +5257,7 @@
       <c r="Y3" s="83"/>
       <c r="Z3" s="168">
         <f>_xll.ohTrigger(Z5:Z42)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="126"/>
       <c r="AB3" s="12"/>
@@ -5391,9 +5292,9 @@
       <c r="M4" s="115"/>
       <c r="N4" s="115"/>
       <c r="O4" s="115"/>
-      <c r="P4" s="497" t="str">
-        <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 09:08:48</v>
+      <c r="P4" s="497" t="e">
+        <f ca="1">_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="Q4" s="188" t="s">
         <v>162</v>
@@ -5573,9 +5474,9 @@
       <c r="Y6" s="199">
         <v>2.6749999999999998</v>
       </c>
-      <c r="Z6" s="136">
+      <c r="Z6" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>-9.9999999999999395E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="AA6" s="126"/>
       <c r="AB6" s="12"/>
@@ -5881,9 +5782,9 @@
       <c r="Y10" s="199">
         <v>2.7850000000000001</v>
       </c>
-      <c r="Z10" s="136">
+      <c r="Z10" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>-3.5000000000000309E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="AA10" s="126"/>
       <c r="AB10" s="12"/>
@@ -5958,9 +5859,9 @@
       <c r="Y11" s="199">
         <v>2.9349999999999996</v>
       </c>
-      <c r="Z11" s="136">
+      <c r="Z11" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
-        <v>-4.750000000000032E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="AA11" s="126"/>
       <c r="AB11" s="12"/>
@@ -8538,7 +8439,7 @@
       <c r="Y3" s="83"/>
       <c r="Z3" s="168">
         <f>_xll.ohTrigger(Z5:Z42)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="126"/>
       <c r="AB3" s="12"/>
@@ -8572,9 +8473,9 @@
       <c r="M4" s="115"/>
       <c r="N4" s="115"/>
       <c r="O4" s="115"/>
-      <c r="P4" s="134" t="str">
-        <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 09:08:49</v>
+      <c r="P4" s="134" t="e">
+        <f ca="1">_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="Q4" s="188" t="s">
         <v>162</v>
@@ -9216,9 +9117,9 @@
       <c r="Y12" s="199">
         <v>3.1825000000000001</v>
       </c>
-      <c r="Z12" s="136">
+      <c r="Z12" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>-5.2500000000000463E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="AA12" s="126"/>
       <c r="AB12" s="12"/>
@@ -9293,9 +9194,9 @@
       <c r="Y13" s="199">
         <v>3.355</v>
       </c>
-      <c r="Z13" s="136">
+      <c r="Z13" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>-5.5000000000000188E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="AA13" s="126"/>
       <c r="AB13" s="12"/>
@@ -9370,9 +9271,9 @@
       <c r="Y14" s="199">
         <v>3.5274999999999999</v>
       </c>
-      <c r="Z14" s="136">
+      <c r="Z14" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14/100,Trigger)</f>
-        <v>-5.2499999999999769E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="AA14" s="126"/>
       <c r="AB14" s="12"/>
@@ -9447,9 +9348,9 @@
       <c r="Y15" s="199">
         <v>3.6799999999999997</v>
       </c>
-      <c r="Z15" s="136">
+      <c r="Z15" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15/100,Trigger)</f>
-        <v>-5.7499999999999912E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="AA15" s="126"/>
       <c r="AB15" s="12"/>
@@ -9524,9 +9425,9 @@
       <c r="Y16" s="199">
         <v>3.8125</v>
       </c>
-      <c r="Z16" s="136">
+      <c r="Z16" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>-5.7499999999999912E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="AA16" s="126"/>
       <c r="AB16" s="12"/>
@@ -9601,9 +9502,9 @@
       <c r="Y17" s="199">
         <v>3.9225000000000003</v>
       </c>
-      <c r="Z17" s="136">
+      <c r="Z17" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17/100,Trigger)</f>
-        <v>-5.7499999999999912E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="AA17" s="126"/>
       <c r="AB17" s="12"/>
@@ -9678,9 +9579,9 @@
       <c r="Y18" s="199">
         <v>4.0199999999999996</v>
       </c>
-      <c r="Z18" s="136">
+      <c r="Z18" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18/100,Trigger)</f>
-        <v>-6.0000000000001025E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="AA18" s="126"/>
       <c r="AB18" s="12"/>
@@ -9832,9 +9733,9 @@
       <c r="Y20" s="199">
         <v>4.18</v>
       </c>
-      <c r="Z20" s="136">
+      <c r="Z20" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20/100,Trigger)</f>
-        <v>-6.0000000000000331E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="AA20" s="126"/>
       <c r="AB20" s="12"/>
@@ -10063,9 +9964,9 @@
       <c r="Y23" s="199">
         <v>4.33</v>
       </c>
-      <c r="Z23" s="136">
+      <c r="Z23" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23/100,Trigger)</f>
-        <v>-5.9999999999999637E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="AA23" s="126"/>
       <c r="AB23" s="12"/>
@@ -10448,9 +10349,9 @@
       <c r="Y28" s="199">
         <v>4.4474999999999998</v>
       </c>
-      <c r="Z28" s="136">
+      <c r="Z28" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28/100,Trigger)</f>
-        <v>-6.0000000000000331E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="AA28" s="126"/>
       <c r="AB28" s="12"/>
@@ -10833,9 +10734,9 @@
       <c r="Y33" s="199">
         <v>4.4824999999999999</v>
       </c>
-      <c r="Z33" s="136">
+      <c r="Z33" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F33,Y33/100,Trigger)</f>
-        <v>-6.0000000000001025E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="AA33" s="126"/>
       <c r="AB33" s="12"/>
@@ -11218,9 +11119,9 @@
       <c r="Y38" s="199">
         <v>4.49</v>
       </c>
-      <c r="Z38" s="136">
+      <c r="Z38" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F38,Y38/100,Trigger)</f>
-        <v>-5.9999999999999637E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="AA38" s="126"/>
       <c r="AB38" s="12"/>
@@ -11372,9 +11273,9 @@
       <c r="Y40" s="199">
         <v>4.45</v>
       </c>
-      <c r="Z40" s="136">
+      <c r="Z40" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F40,Y40/100,Trigger)</f>
-        <v>-5.9999999999999637E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="AA40" s="126"/>
       <c r="AB40" s="12"/>
@@ -11699,7 +11600,7 @@
       <c r="W3" s="83"/>
       <c r="X3" s="168">
         <f>_xll.ohTrigger(X5:X42)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="126"/>
     </row>
@@ -11728,9 +11629,9 @@
       <c r="M4" s="115"/>
       <c r="N4" s="115"/>
       <c r="O4" s="115"/>
-      <c r="P4" s="134" t="str">
-        <f>_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 09:08:48</v>
+      <c r="P4" s="134" t="e">
+        <f ca="1">_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="Q4" s="188" t="s">
         <v>162</v>
@@ -11816,9 +11717,9 @@
         <f t="array" ref="W5:W42">QuoteLive</f>
         <v>4.75</v>
       </c>
-      <c r="X5" s="136">
+      <c r="X5" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F5,W5/10000,Trigger)</f>
-        <v>2.5000000000000011E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y5" s="126"/>
       <c r="Z5" s="12"/>
@@ -11888,9 +11789,9 @@
       <c r="W6" s="339">
         <v>5.5</v>
       </c>
-      <c r="X6" s="136">
+      <c r="X6" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y6" s="126"/>
       <c r="Z6" s="12"/>
@@ -12166,9 +12067,9 @@
       <c r="W10" s="339">
         <v>6.5</v>
       </c>
-      <c r="X10" s="136">
+      <c r="X10" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y10" s="126"/>
     </row>
@@ -12233,9 +12134,9 @@
       <c r="W11" s="339">
         <v>6.75</v>
       </c>
-      <c r="X11" s="136">
+      <c r="X11" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,W11/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y11" s="126"/>
     </row>
@@ -12300,9 +12201,9 @@
       <c r="W12" s="339">
         <v>7.25</v>
       </c>
-      <c r="X12" s="136">
+      <c r="X12" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y12" s="126"/>
     </row>
@@ -12367,9 +12268,9 @@
       <c r="W13" s="339">
         <v>7.5</v>
       </c>
-      <c r="X13" s="136">
+      <c r="X13" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y13" s="126"/>
     </row>
@@ -12501,9 +12402,9 @@
       <c r="W15" s="339">
         <v>7.625</v>
       </c>
-      <c r="X15" s="136">
+      <c r="X15" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y15" s="126"/>
     </row>
@@ -12702,9 +12603,9 @@
       <c r="W18" s="339">
         <v>7.625</v>
       </c>
-      <c r="X18" s="136">
+      <c r="X18" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,W18/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y18" s="126"/>
       <c r="AC18"/>
@@ -12837,9 +12738,9 @@
       <c r="W20" s="339">
         <v>7.625</v>
       </c>
-      <c r="X20" s="136">
+      <c r="X20" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y20" s="126"/>
     </row>
@@ -13038,9 +12939,9 @@
       <c r="W23" s="339">
         <v>7.875</v>
       </c>
-      <c r="X23" s="136">
+      <c r="X23" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F23,W23/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y23" s="126"/>
     </row>
@@ -13373,9 +13274,9 @@
       <c r="W28" s="339">
         <v>7.5</v>
       </c>
-      <c r="X28" s="136">
+      <c r="X28" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F28,W28/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y28" s="126"/>
     </row>
@@ -13708,9 +13609,9 @@
       <c r="W33" s="339">
         <v>6</v>
       </c>
-      <c r="X33" s="136">
+      <c r="X33" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F33,W33/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y33" s="126"/>
     </row>
@@ -14043,9 +13944,9 @@
       <c r="W38" s="339">
         <v>5.75</v>
       </c>
-      <c r="X38" s="136">
+      <c r="X38" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F38,W38/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y38" s="126"/>
     </row>
@@ -14484,7 +14385,7 @@
       <c r="W3" s="83"/>
       <c r="X3" s="168">
         <f>_xll.ohTrigger(X5:X42)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="126"/>
       <c r="Z3" s="12"/>
@@ -14519,9 +14420,9 @@
       <c r="M4" s="115"/>
       <c r="N4" s="115"/>
       <c r="O4" s="115"/>
-      <c r="P4" s="134" t="str">
-        <f>_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 09:08:48</v>
+      <c r="P4" s="134" t="e">
+        <f ca="1">_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="Q4" s="188" t="s">
         <v>162</v>
@@ -14612,9 +14513,9 @@
         <f t="array" ref="W5:W42">QuoteLive</f>
         <v>3.625</v>
       </c>
-      <c r="X5" s="136">
+      <c r="X5" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F5,W5/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y5" s="126"/>
       <c r="Z5" s="12"/>
@@ -14683,9 +14584,9 @@
       <c r="W6" s="339">
         <v>5</v>
       </c>
-      <c r="X6" s="136">
+      <c r="X6" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y6" s="126"/>
       <c r="Z6" s="12"/>
@@ -14967,9 +14868,9 @@
       <c r="W10" s="339">
         <v>5.875</v>
       </c>
-      <c r="X10" s="136">
+      <c r="X10" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y10" s="126"/>
       <c r="Z10" s="12"/>
@@ -15038,9 +14939,9 @@
       <c r="W11" s="339">
         <v>6.75</v>
       </c>
-      <c r="X11" s="136">
+      <c r="X11" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,W11/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y11" s="126"/>
       <c r="Z11" s="12"/>
@@ -15109,9 +15010,9 @@
       <c r="W12" s="339">
         <v>7.125</v>
       </c>
-      <c r="X12" s="136">
+      <c r="X12" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y12" s="126"/>
       <c r="Z12" s="12"/>
@@ -15180,9 +15081,9 @@
       <c r="W13" s="339">
         <v>7.375</v>
       </c>
-      <c r="X13" s="136">
+      <c r="X13" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/10000,Trigger)</f>
-        <v>-1.2500000000000033E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y13" s="126"/>
       <c r="Z13" s="12"/>
@@ -15322,9 +15223,9 @@
       <c r="W15" s="339">
         <v>7.5</v>
       </c>
-      <c r="X15" s="136">
+      <c r="X15" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y15" s="126"/>
       <c r="Z15" s="12"/>
@@ -15535,9 +15436,9 @@
       <c r="W18" s="339">
         <v>7.5</v>
       </c>
-      <c r="X18" s="136">
+      <c r="X18" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,W18/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y18" s="126"/>
       <c r="Z18" s="12"/>
@@ -15677,9 +15578,9 @@
       <c r="W20" s="339">
         <v>7</v>
       </c>
-      <c r="X20" s="136">
+      <c r="X20" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y20" s="126"/>
       <c r="Z20" s="12"/>
@@ -15890,9 +15791,9 @@
       <c r="W23" s="339">
         <v>6</v>
       </c>
-      <c r="X23" s="136">
+      <c r="X23" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F23,W23/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y23" s="126"/>
       <c r="Z23" s="12"/>
@@ -16245,9 +16146,9 @@
       <c r="W28" s="339">
         <v>4.75</v>
       </c>
-      <c r="X28" s="136">
+      <c r="X28" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F28,W28/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y28" s="126"/>
       <c r="Z28" s="12"/>
@@ -16600,9 +16501,9 @@
       <c r="W33" s="339">
         <v>3.75</v>
       </c>
-      <c r="X33" s="136">
+      <c r="X33" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F33,W33/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y33" s="126"/>
       <c r="Z33" s="12"/>
@@ -16955,9 +16856,9 @@
       <c r="W38" s="339">
         <v>2.75</v>
       </c>
-      <c r="X38" s="136">
+      <c r="X38" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F38,W38/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y38" s="126"/>
       <c r="Z38" s="12"/>
@@ -17462,9 +17363,9 @@
         <v>Error Message LastFixing_Quote</v>
       </c>
       <c r="J5" s="393"/>
-      <c r="K5" s="369" t="str">
-        <f>_xll.RData(K6:K12,L5:M5,"RTFEED:IDN",,,L6)</f>
-        <v>Updated at 09:08:48</v>
+      <c r="K5" s="369" t="e">
+        <f ca="1">_xll.RData(K6:K12,L5:M5,"RTFEED:IDN",,,L6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="L5" s="370" t="s">
         <v>227</v>
@@ -18235,9 +18136,9 @@
       <c r="L6" s="311" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="310" t="str">
-        <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Updated at 09:08:47</v>
+      <c r="M6" s="310" t="e">
+        <f ca="1">_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="310" t="s">
         <v>227</v>
@@ -20782,9 +20683,9 @@
       <c r="L6" s="311" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="310" t="str">
-        <f>_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
-        <v>Updated at 09:08:47</v>
+      <c r="M6" s="310" t="e">
+        <f ca="1">_xll.RData(M7:M21,N6:O6,"RTFEED:IDN",,,N7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N6" s="310" t="s">
         <v>227</v>
@@ -23140,7 +23041,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:AA16"/>
+  <dimension ref="B1:AA17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23155,7 +23056,7 @@
     <col min="7" max="7" width="5" style="384" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" style="384" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="384" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="384" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="384" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="384" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.7109375" style="384" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="384" customWidth="1"/>
@@ -23303,9 +23204,9 @@
       <c r="P5" s="369" t="s">
         <v>244</v>
       </c>
-      <c r="Q5" s="370" t="str">
-        <f>_xll.RData(Q6:Q14,R5:S5,"RTFEED:IDN",,,R6)</f>
-        <v>Updated at 09:08:48</v>
+      <c r="Q5" s="370" t="e">
+        <f ca="1">_xll.RData(Q6:Q14,R5:S5,"RTFEED:IDN",,,R6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R5" s="370" t="s">
         <v>227</v>
@@ -23350,25 +23251,25 @@
       </c>
       <c r="J6" s="432" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDON#0000</v>
+        <v>AUDON#0001</v>
       </c>
       <c r="K6" s="432" t="str">
         <f>_xll.qlOvernightIndex(I6,,D6,Currency,Calendar,H6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AONIA#0000</v>
+        <v>AONIA#0001</v>
       </c>
       <c r="L6" s="432" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C6&amp;"LastFixing_Quote",K6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWONLastFixing_Quote#0000</v>
+        <v>AudBBSWONLastFixing_Quote#0001</v>
       </c>
       <c r="M6" s="433"/>
       <c r="N6" s="364"/>
       <c r="O6" s="434" t="str">
-        <f t="shared" ref="O6:O14" si="1">C6</f>
+        <f t="shared" ref="O6:O16" si="1">C6</f>
         <v>ON</v>
       </c>
       <c r="P6" s="435" t="str">
         <f>K6</f>
-        <v>AONIA#0000</v>
+        <v>AONIA#0001</v>
       </c>
       <c r="Q6" s="436" t="str">
         <f>"AU"&amp;"CASH"&amp;"="&amp;"RBAA"</f>
@@ -23421,15 +23322,15 @@
       </c>
       <c r="J7" s="363" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1M#0000</v>
+        <v>AUD1M#0001</v>
       </c>
       <c r="K7" s="363" t="str">
         <f>_xll.qlIborIndex(I7,FamilyName,C7,D7,Currency,E7,F7,G7,H7,J7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1M#0000</v>
+        <v>AudBBSW1M#0001</v>
       </c>
       <c r="L7" s="363" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C7&amp;"LastFixing_Quote",K7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1MLastFixing_Quote#0000</v>
+        <v>AudBBSW1MLastFixing_Quote#0001</v>
       </c>
       <c r="M7" s="363" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -23442,7 +23343,7 @@
       </c>
       <c r="P7" s="378" t="str">
         <f>K7</f>
-        <v>AudBBSW1M#0000</v>
+        <v>AudBBSW1M#0001</v>
       </c>
       <c r="Q7" s="376" t="str">
         <f t="shared" ref="Q7:Q13" si="4">"AU"&amp;O7&amp;"BBC"&amp;"="&amp;"ICAA"</f>
@@ -23496,11 +23397,11 @@
       <c r="J8" s="363"/>
       <c r="K8" s="363" t="str">
         <f>_xll.qlIborIndex(I8,FamilyName,C8,D8,Currency,E8,F8,G8,H8,J8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW2M#0000</v>
+        <v>AudBBSW2M#0001</v>
       </c>
       <c r="L8" s="363" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C8&amp;"LastFixing_Quote",K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW2MLastFixing_Quote#0000</v>
+        <v>AudBBSW2MLastFixing_Quote#0001</v>
       </c>
       <c r="M8" s="363" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -23513,7 +23414,7 @@
       </c>
       <c r="P8" s="378" t="str">
         <f t="shared" ref="P8:P14" si="5">K8</f>
-        <v>AudBBSW2M#0000</v>
+        <v>AudBBSW2M#0001</v>
       </c>
       <c r="Q8" s="376" t="str">
         <f t="shared" si="4"/>
@@ -23535,7 +23436,7 @@
       </c>
       <c r="V8" s="458">
         <f>_xll.qlQuoteValue(L8)</f>
-        <v>2.69E-2</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="W8" s="365"/>
     </row>
@@ -23566,15 +23467,15 @@
       </c>
       <c r="J9" s="363" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3M#0000</v>
+        <v>AUD3M#0001</v>
       </c>
       <c r="K9" s="363" t="str">
         <f>_xll.qlIborIndex(I9,FamilyName,C9,D9,Currency,E9,F9,G9,H9,J9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW3M#0000</v>
+        <v>AudBBSW3M#0001</v>
       </c>
       <c r="L9" s="363" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C9&amp;"LastFixing_Quote",K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW3MLastFixing_Quote#0000</v>
+        <v>AudBBSW3MLastFixing_Quote#0001</v>
       </c>
       <c r="M9" s="363" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -23587,7 +23488,7 @@
       </c>
       <c r="P9" s="378" t="str">
         <f t="shared" si="5"/>
-        <v>AudBBSW3M#0000</v>
+        <v>AudBBSW3M#0001</v>
       </c>
       <c r="Q9" s="376" t="str">
         <f t="shared" si="4"/>
@@ -23641,11 +23542,11 @@
       <c r="J10" s="363"/>
       <c r="K10" s="363" t="str">
         <f>_xll.qlIborIndex(I10,FamilyName,C10,D10,Currency,E10,F10,G10,H10,J10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW4M#0000</v>
+        <v>AudBBSW4M#0001</v>
       </c>
       <c r="L10" s="363" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C10&amp;"LastFixing_Quote",K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW4MLastFixing_Quote#0000</v>
+        <v>AudBBSW4MLastFixing_Quote#0001</v>
       </c>
       <c r="M10" s="363" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -23658,7 +23559,7 @@
       </c>
       <c r="P10" s="378" t="str">
         <f t="shared" si="5"/>
-        <v>AudBBSW4M#0000</v>
+        <v>AudBBSW4M#0001</v>
       </c>
       <c r="Q10" s="376" t="str">
         <f t="shared" si="4"/>
@@ -23712,11 +23613,11 @@
       <c r="J11" s="363"/>
       <c r="K11" s="363" t="str">
         <f>_xll.qlIborIndex(I11,FamilyName,C11,D11,Currency,E11,F11,G11,H11,J11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW5M#0000</v>
+        <v>AudBBSW5M#0001</v>
       </c>
       <c r="L11" s="363" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C11&amp;"LastFixing_Quote",K11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW5MLastFixing_Quote#0000</v>
+        <v>AudBBSW5MLastFixing_Quote#0001</v>
       </c>
       <c r="M11" s="363" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -23729,7 +23630,7 @@
       </c>
       <c r="P11" s="378" t="str">
         <f t="shared" si="5"/>
-        <v>AudBBSW5M#0000</v>
+        <v>AudBBSW5M#0001</v>
       </c>
       <c r="Q11" s="376" t="str">
         <f t="shared" si="4"/>
@@ -23782,15 +23683,15 @@
       </c>
       <c r="J12" s="363" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD6M#0000</v>
+        <v>AUD6M#0001</v>
       </c>
       <c r="K12" s="363" t="str">
         <f>_xll.qlIborIndex(I12,FamilyName,C12,D12,Currency,E12,F12,G12,H12,J12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW6M#0000</v>
+        <v>AudBBSW6M#0001</v>
       </c>
       <c r="L12" s="363" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C12&amp;"LastFixing_Quote",K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW6MLastFixing_Quote#0000</v>
+        <v>AudBBSW6MLastFixing_Quote#0001</v>
       </c>
       <c r="M12" s="363" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -23803,7 +23704,7 @@
       </c>
       <c r="P12" s="378" t="str">
         <f t="shared" si="5"/>
-        <v>AudBBSW6M#0000</v>
+        <v>AudBBSW6M#0001</v>
       </c>
       <c r="Q12" s="376" t="str">
         <f t="shared" si="4"/>
@@ -23825,7 +23726,7 @@
       </c>
       <c r="V12" s="458">
         <f>_xll.qlQuoteValue(L12)</f>
-        <v>2.7099999999999999E-2</v>
+        <v>2.7200000000000002E-2</v>
       </c>
       <c r="W12" s="365"/>
     </row>
@@ -23857,11 +23758,11 @@
       <c r="J13" s="363"/>
       <c r="K13" s="363" t="str">
         <f>_xll.qlIborIndex(I13,FamilyName,C13,D13,Currency,E13,F13,G13,H13,J13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW9M#0000</v>
+        <v>AudBBSW9M#0001</v>
       </c>
       <c r="L13" s="363" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C13&amp;"LastFixing_Quote",K13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW9MLastFixing_Quote#0000</v>
+        <v>AudBBSW9MLastFixing_Quote#0001</v>
       </c>
       <c r="M13" s="363" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -23874,7 +23775,7 @@
       </c>
       <c r="P13" s="378" t="str">
         <f t="shared" si="5"/>
-        <v>AudBBSW9M#0000</v>
+        <v>AudBBSW9M#0001</v>
       </c>
       <c r="Q13" s="376" t="str">
         <f t="shared" si="4"/>
@@ -23928,11 +23829,11 @@
       <c r="J14" s="363"/>
       <c r="K14" s="363" t="str">
         <f>_xll.qlIborIndex(I14,FamilyName,C14,D14,Currency,E14,F14,G14,H14,J14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1Y#0000</v>
+        <v>AudBBSW1Y#0001</v>
       </c>
       <c r="L14" s="363" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C14&amp;"LastFixing_Quote",K14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1YLastFixing_Quote#0000</v>
+        <v>AudBBSW1YLastFixing_Quote#0001</v>
       </c>
       <c r="M14" s="363" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -23945,7 +23846,7 @@
       </c>
       <c r="P14" s="415" t="str">
         <f t="shared" si="5"/>
-        <v>AudBBSW1Y#0000</v>
+        <v>AudBBSW1Y#0001</v>
       </c>
       <c r="Q14" s="416" t="str">
         <f>"AU"&amp;O14&amp;"BBC"&amp;"="&amp;"ICAA"</f>
@@ -23971,44 +23872,73 @@
       </c>
       <c r="W14" s="365"/>
     </row>
-    <row r="15" spans="2:27" s="355" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="381"/>
-      <c r="C15" s="382"/>
-      <c r="D15" s="382"/>
-      <c r="E15" s="382"/>
-      <c r="F15" s="382"/>
-      <c r="G15" s="382"/>
-      <c r="H15" s="382"/>
-      <c r="I15" s="382"/>
-      <c r="J15" s="382"/>
-      <c r="K15" s="382"/>
-      <c r="L15" s="382"/>
-      <c r="M15" s="382"/>
-      <c r="N15" s="382"/>
-      <c r="O15" s="382"/>
-      <c r="P15" s="382"/>
-      <c r="Q15" s="382"/>
-      <c r="R15" s="382"/>
-      <c r="S15" s="382"/>
-      <c r="T15" s="382"/>
-      <c r="U15" s="382"/>
-      <c r="V15" s="382"/>
-      <c r="W15" s="383"/>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B16" s="355"/>
-      <c r="C16" s="355"/>
-      <c r="D16" s="355"/>
-      <c r="Q16" s="355"/>
-      <c r="R16" s="355"/>
-      <c r="T16" s="355"/>
-      <c r="U16" s="355"/>
-      <c r="V16" s="355"/>
-      <c r="W16" s="355"/>
+    <row r="15" spans="2:27" s="355" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="360"/>
+      <c r="C15" s="372" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="414"/>
+      <c r="E15" s="414"/>
+      <c r="F15" s="419"/>
+      <c r="G15" s="414"/>
+      <c r="H15" s="414"/>
+      <c r="I15" s="414"/>
+      <c r="J15" s="363" t="str">
+        <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C15,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>AUDSTD#0004</v>
+      </c>
+      <c r="K15" s="363"/>
+      <c r="L15" s="363"/>
+      <c r="M15" s="363"/>
+      <c r="N15" s="364"/>
+      <c r="O15" s="361"/>
+      <c r="P15" s="361"/>
+      <c r="Q15" s="361"/>
+      <c r="R15" s="361"/>
+      <c r="S15" s="361"/>
+      <c r="T15" s="361"/>
+      <c r="U15" s="361"/>
+      <c r="V15" s="361"/>
+      <c r="W15" s="365"/>
+    </row>
+    <row r="16" spans="2:27" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="381"/>
+      <c r="C16" s="382"/>
+      <c r="D16" s="382"/>
+      <c r="E16" s="382"/>
+      <c r="F16" s="382"/>
+      <c r="G16" s="382"/>
+      <c r="H16" s="382"/>
+      <c r="I16" s="382"/>
+      <c r="J16" s="382"/>
+      <c r="K16" s="382"/>
+      <c r="L16" s="382"/>
+      <c r="M16" s="382"/>
+      <c r="N16" s="382"/>
+      <c r="O16" s="382"/>
+      <c r="P16" s="382"/>
+      <c r="Q16" s="382"/>
+      <c r="R16" s="382"/>
+      <c r="S16" s="382"/>
+      <c r="T16" s="382"/>
+      <c r="U16" s="382"/>
+      <c r="V16" s="382"/>
+      <c r="W16" s="383"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B17" s="355"/>
+      <c r="C17" s="355"/>
+      <c r="D17" s="355"/>
+      <c r="Q17" s="355"/>
+      <c r="R17" s="355"/>
+      <c r="T17" s="355"/>
+      <c r="U17" s="355"/>
+      <c r="V17" s="355"/>
+      <c r="W17" s="355"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H15">
       <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24084,7 +24014,7 @@
       </c>
       <c r="F4" s="406" t="str">
         <f>_xll.qlSwapIndex($E4,FixingType,C4,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc1Y#0000</v>
+        <v>AudBBSWSwapForBasisCalc1Y#0003</v>
       </c>
       <c r="G4" s="403" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -24106,7 +24036,7 @@
       </c>
       <c r="F5" s="406" t="str">
         <f>_xll.qlSwapIndex($E5,FixingType,C5,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc2Y#0000</v>
+        <v>AudBBSWSwapForBasisCalc2Y#0003</v>
       </c>
       <c r="G5" s="403" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -24128,7 +24058,7 @@
       </c>
       <c r="F6" s="406" t="str">
         <f>_xll.qlSwapIndex($E6,FixingType,C6,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc3Y#0000</v>
+        <v>AudBBSWSwapForBasisCalc3Y#0003</v>
       </c>
       <c r="G6" s="403" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -24150,7 +24080,7 @@
       </c>
       <c r="F7" s="406" t="str">
         <f>_xll.qlSwapIndex($E7,FixingType,C7,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc4Y#0000</v>
+        <v>AudBBSWSwapForBasisCalc4Y#0003</v>
       </c>
       <c r="G7" s="403" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -24849,7 +24779,7 @@
       <c r="X3" s="83"/>
       <c r="Y3" s="168">
         <f>_xll.ohTrigger(Y5:Y24)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="126"/>
     </row>
@@ -24876,9 +24806,9 @@
       <c r="L4" s="82"/>
       <c r="M4" s="82"/>
       <c r="N4" s="82"/>
-      <c r="O4" s="220" t="str">
-        <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 09:08:49</v>
+      <c r="O4" s="220" t="e">
+        <f ca="1">_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P4" s="217" t="s">
         <v>162</v>
@@ -24971,9 +24901,9 @@
         <f t="array" ref="X5:X58">QuoteLive</f>
         <v>2.5</v>
       </c>
-      <c r="Y5" s="155">
+      <c r="Y5" s="155" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F5,X5/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z5" s="126"/>
     </row>
@@ -25172,9 +25102,9 @@
       <c r="X8" s="199">
         <v>2.4990000000000001</v>
       </c>
-      <c r="Y8" s="136">
+      <c r="Y8" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F8,X8/100,Trigger)</f>
-        <v>-9.9999999999995925E-6</v>
+        <v>#N/A</v>
       </c>
       <c r="Z8" s="126"/>
       <c r="AB8"/>
@@ -25240,9 +25170,9 @@
       <c r="X9" s="199">
         <v>2.4975000000000001</v>
       </c>
-      <c r="Y9" s="136">
+      <c r="Y9" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F9,X9/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z9" s="126"/>
     </row>
@@ -25307,9 +25237,9 @@
       <c r="X10" s="199">
         <v>2.4950000000000001</v>
       </c>
-      <c r="Y10" s="136">
+      <c r="Y10" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,X10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z10" s="126"/>
     </row>
@@ -25374,9 +25304,9 @@
       <c r="X11" s="199">
         <v>2.4925000000000002</v>
       </c>
-      <c r="Y11" s="136">
+      <c r="Y11" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,X11/100,Trigger)</f>
-        <v>-9.9999999999961231E-6</v>
+        <v>#N/A</v>
       </c>
       <c r="Z11" s="126"/>
     </row>
@@ -25441,9 +25371,9 @@
       <c r="X12" s="199">
         <v>2.4925000000000002</v>
       </c>
-      <c r="Y12" s="136">
+      <c r="Y12" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,X12/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z12" s="126"/>
     </row>
@@ -25508,9 +25438,9 @@
       <c r="X13" s="199">
         <v>2.4910000000000001</v>
       </c>
-      <c r="Y13" s="136">
+      <c r="Y13" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F13,X13/100,Trigger)</f>
-        <v>-1.5000000000001124E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Z13" s="126"/>
     </row>
@@ -25709,9 +25639,9 @@
       <c r="X16" s="199">
         <v>2.4900000000000002</v>
       </c>
-      <c r="Y16" s="136">
+      <c r="Y16" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F16,X16/100,Trigger)</f>
-        <v>-9.9999999999999395E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Z16" s="126"/>
     </row>
@@ -25910,9 +25840,9 @@
       <c r="X19" s="199">
         <v>2.5009999999999999</v>
       </c>
-      <c r="Y19" s="136">
+      <c r="Y19" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F19,X19/100,Trigger)</f>
-        <v>-2.2499999999999951E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z19" s="126"/>
     </row>
@@ -26312,9 +26242,9 @@
       <c r="X25" s="199">
         <v>2.5649999999999999</v>
       </c>
-      <c r="Y25" s="136">
+      <c r="Y25" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F25,X25/100,Trigger)</f>
-        <v>-2.9999999999999818E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z25" s="126"/>
     </row>
@@ -26714,9 +26644,9 @@
       <c r="X31" s="199">
         <v>2.65</v>
       </c>
-      <c r="Y31" s="136">
+      <c r="Y31" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
-        <v>-4.0000000000000105E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z31" s="126"/>
     </row>
@@ -26982,9 +26912,9 @@
       <c r="X35" s="199">
         <v>2.855</v>
       </c>
-      <c r="Y35" s="136">
+      <c r="Y35" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>-5.5000000000000188E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z35" s="126"/>
     </row>
@@ -28803,7 +28733,7 @@
       <c r="X3" s="83"/>
       <c r="Y3" s="168">
         <f>_xll.ohTrigger(Y5:Y24)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="126"/>
     </row>
@@ -28830,9 +28760,9 @@
       <c r="L4" s="82"/>
       <c r="M4" s="82"/>
       <c r="N4" s="82"/>
-      <c r="O4" s="220" t="str">
-        <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 09:08:49</v>
+      <c r="O4" s="220" t="e">
+        <f ca="1">_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P4" s="217" t="s">
         <v>162</v>
@@ -29923,9 +29853,9 @@
       <c r="X19" s="199">
         <v>2.508</v>
       </c>
-      <c r="Y19" s="136">
+      <c r="Y19" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F19,X19/100,Trigger)</f>
-        <v>-1.6999999999999654E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z19" s="126"/>
     </row>
@@ -30349,9 +30279,9 @@
       <c r="X25" s="199">
         <v>2.5449999999999999</v>
       </c>
-      <c r="Y25" s="136">
+      <c r="Y25" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F25,X25/100,Trigger)</f>
-        <v>-3.0000000000000165E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z25" s="126"/>
     </row>
@@ -30775,9 +30705,9 @@
       <c r="X31" s="199">
         <v>2.62</v>
       </c>
-      <c r="Y31" s="136">
+      <c r="Y31" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
-        <v>-3.5000000000000309E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z31" s="126"/>
     </row>
@@ -31059,9 +30989,9 @@
       <c r="X35" s="199">
         <v>2.7749999999999999</v>
       </c>
-      <c r="Y35" s="136">
+      <c r="Y35" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>-5.5000000000000188E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z35" s="126"/>
     </row>
@@ -31343,9 +31273,9 @@
       <c r="X39" s="199">
         <v>2.92</v>
       </c>
-      <c r="Y39" s="136">
+      <c r="Y39" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F39,X39/100,Trigger)</f>
-        <v>-5.2999999999999922E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z39" s="126"/>
     </row>
@@ -31627,9 +31557,9 @@
       <c r="X43" s="199">
         <v>3.0780000000000003</v>
       </c>
-      <c r="Y43" s="136">
+      <c r="Y43" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F43,X43/100,Trigger)</f>
-        <v>-5.4999999999999494E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z43" s="126"/>
     </row>
@@ -31698,9 +31628,9 @@
       <c r="X44" s="199">
         <v>3.238</v>
       </c>
-      <c r="Y44" s="136">
+      <c r="Y44" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F44,X44/100,Trigger)</f>
-        <v>-5.5000000000000188E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z44" s="126"/>
     </row>
@@ -31769,9 +31699,9 @@
       <c r="X45" s="199">
         <v>3.3980000000000001</v>
       </c>
-      <c r="Y45" s="136">
+      <c r="Y45" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F45,X45/100,Trigger)</f>
-        <v>-5.5000000000000188E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z45" s="126"/>
     </row>
@@ -31840,9 +31770,9 @@
       <c r="X46" s="199">
         <v>3.5049999999999999</v>
       </c>
-      <c r="Y46" s="136">
+      <c r="Y46" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F46,X46/100,Trigger)</f>
-        <v>-5.5000000000000188E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z46" s="126"/>
     </row>
@@ -31911,9 +31841,9 @@
       <c r="X47" s="199">
         <v>3.61</v>
       </c>
-      <c r="Y47" s="136">
+      <c r="Y47" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F47,X47/100,Trigger)</f>
-        <v>-5.9999999999999637E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z47" s="126"/>
     </row>
@@ -31982,9 +31912,9 @@
       <c r="X48" s="199">
         <v>3.718</v>
       </c>
-      <c r="Y48" s="136">
+      <c r="Y48" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F48,X48/100,Trigger)</f>
-        <v>-6.0000000000000331E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z48" s="126"/>
     </row>
@@ -32053,9 +31983,9 @@
       <c r="X49" s="199">
         <v>3.8650000000000002</v>
       </c>
-      <c r="Y49" s="136">
+      <c r="Y49" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F49,X49/100,Trigger)</f>
-        <v>-6.2999999999999862E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z49" s="126"/>
     </row>
@@ -32124,9 +32054,9 @@
       <c r="X50" s="199">
         <v>4.008</v>
       </c>
-      <c r="Y50" s="136">
+      <c r="Y50" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F50,X50/100,Trigger)</f>
-        <v>-5.9999999999999637E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z50" s="126"/>
     </row>
@@ -32195,9 +32125,9 @@
       <c r="X51" s="199">
         <v>4.1379999999999999</v>
       </c>
-      <c r="Y51" s="136">
+      <c r="Y51" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F51,X51/100,Trigger)</f>
-        <v>-6.0000000000000331E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z51" s="126"/>
     </row>
@@ -32266,9 +32196,9 @@
       <c r="X52" s="199">
         <v>4.1929999999999996</v>
       </c>
-      <c r="Y52" s="136">
+      <c r="Y52" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F52,X52/100,Trigger)</f>
-        <v>-6.0000000000000331E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z52" s="126"/>
     </row>
@@ -32408,9 +32338,9 @@
       <c r="X54" s="199">
         <v>4.2149999999999999</v>
       </c>
-      <c r="Y54" s="136">
+      <c r="Y54" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F54,X54/100,Trigger)</f>
-        <v>-6.3000000000000556E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Z54" s="126"/>
     </row>
@@ -32861,7 +32791,9 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -32962,7 +32894,7 @@
       <c r="Q3" s="169"/>
       <c r="R3" s="168">
         <f>_xll.ohTrigger(R5:R18)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S3" s="126"/>
       <c r="T3" s="12"/>
@@ -32990,9 +32922,9 @@
       <c r="F4" s="126"/>
       <c r="H4" s="80"/>
       <c r="I4" s="165"/>
-      <c r="J4" s="134" t="str">
-        <f>_xll.RData(J6:J22,K4:L4,,ReutersRtMode,,K6)</f>
-        <v>Updated at 09:08:47</v>
+      <c r="J4" s="134" t="e">
+        <f ca="1">_xll.RData(J6:J22,K4:L4,,ReutersRtMode,,K6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="K4" s="134" t="s">
         <v>162</v>
@@ -34344,7 +34276,7 @@
       <c r="W3" s="83"/>
       <c r="X3" s="168">
         <f>_xll.ohTrigger(X5:X19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="126"/>
       <c r="Z3" s="12"/>
@@ -34369,9 +34301,9 @@
       <c r="K4" s="115"/>
       <c r="L4" s="91"/>
       <c r="M4" s="59"/>
-      <c r="N4" s="473" t="str">
-        <f>_xll.RData(N5:N19,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Updated at 09:08:49</v>
+      <c r="N4" s="473" t="e">
+        <f ca="1">_xll.RData(N5:N19,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="O4" s="166" t="s">
         <v>162</v>
@@ -34469,9 +34401,9 @@
         <f t="array" ref="W5:W19">QuoteLive</f>
         <v>2.7</v>
       </c>
-      <c r="X5" s="155">
+      <c r="X5" s="155" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E5,W5/100,Trigger)</f>
-        <v>1.500000000000043E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y5" s="126"/>
       <c r="Z5" s="12"/>
@@ -34541,9 +34473,9 @@
       <c r="W6" s="199">
         <v>2.665</v>
       </c>
-      <c r="X6" s="136">
+      <c r="X6" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E6,W6/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y6" s="126"/>
       <c r="Z6" s="12"/>
@@ -34613,9 +34545,9 @@
       <c r="W7" s="199">
         <v>2.6550000000000002</v>
       </c>
-      <c r="X7" s="136">
+      <c r="X7" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E7,W7/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y7" s="126"/>
       <c r="Z7" s="12"/>
@@ -34685,9 +34617,9 @@
       <c r="W8" s="199">
         <v>2.645</v>
       </c>
-      <c r="X8" s="136">
+      <c r="X8" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E8,W8/100,Trigger)</f>
-        <v>-1.0000000000000286E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y8" s="126"/>
       <c r="Z8" s="12"/>
@@ -34757,9 +34689,9 @@
       <c r="W9" s="199">
         <v>2.645</v>
       </c>
-      <c r="X9" s="136">
+      <c r="X9" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E9,W9/100,Trigger)</f>
-        <v>-1.0000000000000286E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y9" s="126"/>
       <c r="Z9" s="12"/>
@@ -34829,9 +34761,9 @@
       <c r="W10" s="199">
         <v>2.645</v>
       </c>
-      <c r="X10" s="136">
+      <c r="X10" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E10,W10/100,Trigger)</f>
-        <v>-2.4999999999999675E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y10" s="126"/>
       <c r="Z10" s="12"/>
@@ -34902,9 +34834,9 @@
       <c r="W11" s="476">
         <v>2.69</v>
       </c>
-      <c r="X11" s="477">
+      <c r="X11" s="477" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E11,W11/100,Trigger)</f>
-        <v>9.9999999999999395E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y11" s="126"/>
       <c r="Z11" s="12"/>
@@ -34975,9 +34907,9 @@
       <c r="W12" s="199">
         <v>2.68</v>
       </c>
-      <c r="X12" s="136">
+      <c r="X12" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E12,W12/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y12" s="126"/>
       <c r="Z12" s="12"/>
@@ -35048,9 +34980,9 @@
       <c r="W13" s="199">
         <v>2.67</v>
       </c>
-      <c r="X13" s="136">
+      <c r="X13" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E13,W13/100,Trigger)</f>
-        <v>-1.0000000000000286E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y13" s="126"/>
       <c r="Z13" s="12"/>
@@ -35121,9 +35053,9 @@
       <c r="W14" s="199">
         <v>2.67</v>
       </c>
-      <c r="X14" s="136">
+      <c r="X14" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E14,W14/100,Trigger)</f>
-        <v>-1.0000000000000286E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y14" s="126"/>
       <c r="Z14" s="12"/>
@@ -35194,9 +35126,9 @@
       <c r="W15" s="199">
         <v>2.68</v>
       </c>
-      <c r="X15" s="136">
+      <c r="X15" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E15,W15/100,Trigger)</f>
-        <v>-9.9999999999999395E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y15" s="126"/>
       <c r="Z15" s="12"/>
@@ -35267,9 +35199,9 @@
       <c r="W16" s="199">
         <v>2.68</v>
       </c>
-      <c r="X16" s="136">
+      <c r="X16" s="136" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E16,W16/100,Trigger)</f>
-        <v>-2.0000000000000226E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y16" s="126"/>
       <c r="Z16" s="12"/>
@@ -35734,7 +35666,7 @@
       <c r="Y4" s="83"/>
       <c r="Z4" s="168">
         <f>_xll.ohTrigger(Z6:Z17)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="213"/>
       <c r="AB4" s="12"/>
@@ -35792,9 +35724,9 @@
       <c r="N5" s="188" t="s">
         <v>196</v>
       </c>
-      <c r="O5" s="134" t="str">
-        <f>_xll.RData(O6:O17,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Updated at 09:08:47</v>
+      <c r="O5" s="134" t="e">
+        <f ca="1">_xll.RData(O6:O17,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P5" s="188" t="s">
         <v>195</v>
@@ -37381,7 +37313,7 @@
       <c r="Y4" s="83"/>
       <c r="Z4" s="168">
         <f>_xll.ohTrigger(Z6:Z47)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="213"/>
       <c r="AB4" s="12"/>
@@ -37394,7 +37326,7 @@
       </c>
       <c r="AH4" s="132" t="str">
         <f>BBSW!K9</f>
-        <v>AudBBSW3M#0000</v>
+        <v>AudBBSW3M#0001</v>
       </c>
       <c r="AI4" s="131" t="s">
         <v>17</v>
@@ -37438,9 +37370,9 @@
       <c r="N5" s="217" t="s">
         <v>196</v>
       </c>
-      <c r="O5" s="220" t="str">
-        <f>_xll.RData(O6:O47,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
-        <v>Updated at 09:13:10</v>
+      <c r="O5" s="220" t="e">
+        <f ca="1">_xll.RData(O6:O47,P5:T5,"RTFEED:IDN",ReutersRtMode,,P6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="P5" s="217" t="s">
         <v>195</v>
@@ -37592,7 +37524,7 @@
       </c>
       <c r="AH6" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG6,IborIndex,AF6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(Z6),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>AUDFUT3MN4ConvAdj_Quote#0007</v>
+        <v>AUDFUT3MN4ConvAdj_Quote#0003</v>
       </c>
       <c r="AI6" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH6)</f>
@@ -37689,7 +37621,7 @@
       </c>
       <c r="AH7" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG7,IborIndex,AF7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(Z7),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>AUDFUT3MQ4ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MQ4ConvAdj_Quote#0003</v>
       </c>
       <c r="AI7" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH7)</f>
@@ -37764,9 +37696,9 @@
       <c r="Y8" s="199">
         <v>97.34</v>
       </c>
-      <c r="Z8" s="141">
+      <c r="Z8" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y8,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA8" s="21"/>
       <c r="AB8" s="12"/>
@@ -37786,7 +37718,7 @@
       </c>
       <c r="AH8" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG8,IborIndex,AF8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(Z8),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU4ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MU4ConvAdj_Quote#0003</v>
       </c>
       <c r="AI8" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH8)</f>
@@ -37883,7 +37815,7 @@
       </c>
       <c r="AH9" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG9,IborIndex,AF9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(Z9),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>AUDFUT3MV4ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MV4ConvAdj_Quote#0003</v>
       </c>
       <c r="AI9" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH9)</f>
@@ -37981,7 +37913,7 @@
       </c>
       <c r="AH10" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG10,IborIndex,AF10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(Z10),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>AUDFUT3MX4ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MX4ConvAdj_Quote#0003</v>
       </c>
       <c r="AI10" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH10)</f>
@@ -38056,9 +37988,9 @@
       <c r="Y11" s="199">
         <v>97.35</v>
       </c>
-      <c r="Z11" s="141">
+      <c r="Z11" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA11" s="21"/>
       <c r="AB11" s="12"/>
@@ -38078,7 +38010,7 @@
       </c>
       <c r="AH11" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG11,IborIndex,AF11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(Z11),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ4ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MZ4ConvAdj_Quote#0003</v>
       </c>
       <c r="AI11" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH11)</f>
@@ -38175,7 +38107,7 @@
       </c>
       <c r="AH12" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG12,IborIndex,AF12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(Z12),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>AUDFUT3MF5ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MF5ConvAdj_Quote#0003</v>
       </c>
       <c r="AI12" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH12)</f>
@@ -38272,7 +38204,7 @@
       </c>
       <c r="AH13" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG13,IborIndex,AF13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(Z13),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>AUDFUT3MG5ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MG5ConvAdj_Quote#0003</v>
       </c>
       <c r="AI13" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH13)</f>
@@ -38347,9 +38279,9 @@
       <c r="Y14" s="199">
         <v>97.33</v>
       </c>
-      <c r="Z14" s="141">
+      <c r="Z14" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA14" s="21"/>
       <c r="AB14" s="12"/>
@@ -38369,7 +38301,7 @@
       </c>
       <c r="AH14" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG14,IborIndex,AF14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(Z14),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH5ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MH5ConvAdj_Quote#0003</v>
       </c>
       <c r="AI14" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH14)</f>
@@ -38466,7 +38398,7 @@
       </c>
       <c r="AH15" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG15,IborIndex,AF15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(Z15),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>AUDFUT3MJ5ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MJ5ConvAdj_Quote#0003</v>
       </c>
       <c r="AI15" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH15)</f>
@@ -38563,7 +38495,7 @@
       </c>
       <c r="AH16" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG16,IborIndex,AF16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(Z16),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>AUDFUT3MK5ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MK5ConvAdj_Quote#0003</v>
       </c>
       <c r="AI16" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH16)</f>
@@ -38638,9 +38570,9 @@
       <c r="Y17" s="199">
         <v>97.25</v>
       </c>
-      <c r="Z17" s="141">
+      <c r="Z17" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA17" s="21"/>
       <c r="AB17" s="12"/>
@@ -38660,7 +38592,7 @@
       </c>
       <c r="AH17" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG17,IborIndex,AF17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(Z17),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM5ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MM5ConvAdj_Quote#0003</v>
       </c>
       <c r="AI17" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH17)</f>
@@ -38735,9 +38667,9 @@
       <c r="Y18" s="199">
         <v>97.16</v>
       </c>
-      <c r="Z18" s="141">
+      <c r="Z18" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18,Trigger)</f>
-        <v>4.9999999999954525E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="AA18" s="21"/>
       <c r="AB18" s="12"/>
@@ -38757,7 +38689,7 @@
       </c>
       <c r="AH18" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG18,IborIndex,AF18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(Z18),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU5ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MU5ConvAdj_Quote#0003</v>
       </c>
       <c r="AI18" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH18)</f>
@@ -38832,9 +38764,9 @@
       <c r="Y19" s="199">
         <v>97.06</v>
       </c>
-      <c r="Z19" s="141">
+      <c r="Z19" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19,Trigger)</f>
-        <v>4.9999999999954525E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="12"/>
@@ -38854,7 +38786,7 @@
       </c>
       <c r="AH19" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG19,IborIndex,AF19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(Z19),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ5ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MZ5ConvAdj_Quote#0003</v>
       </c>
       <c r="AI19" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH19)</f>
@@ -38929,9 +38861,9 @@
       <c r="Y20" s="199">
         <v>96.954999999999998</v>
       </c>
-      <c r="Z20" s="141">
+      <c r="Z20" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA20" s="21"/>
       <c r="AB20" s="12"/>
@@ -38951,7 +38883,7 @@
       </c>
       <c r="AH20" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG20,IborIndex,AF20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(Z20),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH6ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MH6ConvAdj_Quote#0003</v>
       </c>
       <c r="AI20" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH20)</f>
@@ -39026,9 +38958,9 @@
       <c r="Y21" s="199">
         <v>96.85499999999999</v>
       </c>
-      <c r="Z21" s="141">
+      <c r="Z21" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F21,Y21,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="12"/>
@@ -39048,7 +38980,7 @@
       </c>
       <c r="AH21" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG21,IborIndex,AF21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(Z21),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM6ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MM6ConvAdj_Quote#0003</v>
       </c>
       <c r="AI21" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH21)</f>
@@ -39145,7 +39077,7 @@
       </c>
       <c r="AH22" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG22,IborIndex,AF22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(Z22),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU6ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MU6ConvAdj_Quote#0003</v>
       </c>
       <c r="AI22" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH22)</f>
@@ -39242,7 +39174,7 @@
       </c>
       <c r="AH23" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG23,IborIndex,AF23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(Z23),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ6ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MZ6ConvAdj_Quote#0003</v>
       </c>
       <c r="AI23" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH23)</f>
@@ -39339,7 +39271,7 @@
       </c>
       <c r="AH24" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG24,IborIndex,AF24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(Z24),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH7ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MH7ConvAdj_Quote#0003</v>
       </c>
       <c r="AI24" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH24)</f>
@@ -39436,7 +39368,7 @@
       </c>
       <c r="AH25" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG25,IborIndex,AF25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(Z25),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM7ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MM7ConvAdj_Quote#0003</v>
       </c>
       <c r="AI25" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH25)</f>
@@ -39533,7 +39465,7 @@
       </c>
       <c r="AH26" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG26,IborIndex,AF26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(Z26),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU7ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MU7ConvAdj_Quote#0003</v>
       </c>
       <c r="AI26" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH26)</f>
@@ -39630,7 +39562,7 @@
       </c>
       <c r="AH27" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG27,IborIndex,AF27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(Z27),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ7ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MZ7ConvAdj_Quote#0003</v>
       </c>
       <c r="AI27" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH27)</f>
@@ -39727,7 +39659,7 @@
       </c>
       <c r="AH28" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG28,IborIndex,AF28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(Z28),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH8ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MH8ConvAdj_Quote#0003</v>
       </c>
       <c r="AI28" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH28)</f>
@@ -39824,7 +39756,7 @@
       </c>
       <c r="AH29" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG29,IborIndex,AF29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(Z29),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM8ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MM8ConvAdj_Quote#0003</v>
       </c>
       <c r="AI29" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH29)</f>
@@ -39921,7 +39853,7 @@
       </c>
       <c r="AH30" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG30,IborIndex,AF30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(Z30),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU8ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MU8ConvAdj_Quote#0003</v>
       </c>
       <c r="AI30" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH30)</f>
@@ -40018,7 +39950,7 @@
       </c>
       <c r="AH31" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG31,IborIndex,AF31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(Z31),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ8ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MZ8ConvAdj_Quote#0003</v>
       </c>
       <c r="AI31" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH31)</f>
@@ -40115,7 +40047,7 @@
       </c>
       <c r="AH32" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG32,IborIndex,AF32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(Z32),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH9ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MH9ConvAdj_Quote#0003</v>
       </c>
       <c r="AI32" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH32)</f>
@@ -40212,7 +40144,7 @@
       </c>
       <c r="AH33" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG33,IborIndex,AF33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(Z33),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM9ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MM9ConvAdj_Quote#0003</v>
       </c>
       <c r="AI33" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH33)</f>
@@ -40309,7 +40241,7 @@
       </c>
       <c r="AH34" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG34,IborIndex,AF34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(Z34),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU9ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MU9ConvAdj_Quote#0003</v>
       </c>
       <c r="AI34" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH34)</f>
@@ -40406,7 +40338,7 @@
       </c>
       <c r="AH35" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG35,IborIndex,AF35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(Z35),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ9ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MZ9ConvAdj_Quote#0003</v>
       </c>
       <c r="AI35" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH35)</f>
@@ -40503,7 +40435,7 @@
       </c>
       <c r="AH36" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG36,IborIndex,AF36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(Z36),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH0ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MH0ConvAdj_Quote#0003</v>
       </c>
       <c r="AI36" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH36)</f>
@@ -40600,7 +40532,7 @@
       </c>
       <c r="AH37" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG37,IborIndex,AF37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(Z37),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM0ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MM0ConvAdj_Quote#0003</v>
       </c>
       <c r="AI37" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH37)</f>
@@ -40697,7 +40629,7 @@
       </c>
       <c r="AH38" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG38,IborIndex,AF38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(Z38),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU0ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MU0ConvAdj_Quote#0003</v>
       </c>
       <c r="AI38" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH38)</f>
@@ -40794,7 +40726,7 @@
       </c>
       <c r="AH39" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG39,IborIndex,AF39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(Z39),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ0ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MZ0ConvAdj_Quote#0003</v>
       </c>
       <c r="AI39" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH39)</f>
@@ -40891,7 +40823,7 @@
       </c>
       <c r="AH40" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG40,IborIndex,AF40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(Z40),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH1ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MH1ConvAdj_Quote#0003</v>
       </c>
       <c r="AI40" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH40)</f>
@@ -40988,7 +40920,7 @@
       </c>
       <c r="AH41" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG41,IborIndex,AF41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(Z41),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM1ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MM1ConvAdj_Quote#0003</v>
       </c>
       <c r="AI41" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH41)</f>
@@ -41085,7 +41017,7 @@
       </c>
       <c r="AH42" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG42,IborIndex,AF42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(Z42),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU1ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MU1ConvAdj_Quote#0003</v>
       </c>
       <c r="AI42" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH42)</f>
@@ -41182,7 +41114,7 @@
       </c>
       <c r="AH43" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG43,IborIndex,AF43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(Z43),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ1ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MZ1ConvAdj_Quote#0003</v>
       </c>
       <c r="AI43" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH43)</f>
@@ -41279,7 +41211,7 @@
       </c>
       <c r="AH44" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG44,IborIndex,AF44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(Z44),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH2ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MH2ConvAdj_Quote#0003</v>
       </c>
       <c r="AI44" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH44)</f>
@@ -41376,7 +41308,7 @@
       </c>
       <c r="AH45" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG45,IborIndex,AF45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(Z45),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM2ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MM2ConvAdj_Quote#0003</v>
       </c>
       <c r="AI45" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH45)</f>
@@ -41473,7 +41405,7 @@
       </c>
       <c r="AH46" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG46,IborIndex,AF46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(Z46),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU2ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MU2ConvAdj_Quote#0003</v>
       </c>
       <c r="AI46" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH46)</f>
@@ -41570,7 +41502,7 @@
       </c>
       <c r="AH47" s="129" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG47,IborIndex,AF47,F47,Volatility,MeanReversion,Permanent,AND(ISERROR(Z47),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ2ConvAdj_Quote#0006</v>
+        <v>AUDFUT3MZ2ConvAdj_Quote#0003</v>
       </c>
       <c r="AI47" s="46" t="str">
         <f>_xll.ohRangeRetrieveError(AH47)</f>

--- a/QuantLibXL/Data2/XLS/AUD_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD_Market.xlsx
@@ -2216,12 +2216,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -2298,6 +2292,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -2483,70 +2483,70 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 10:27:24</v>
+        <v>Updated at 11:09:33</v>
         <stp/>
-        <stp>{7017FC25-6696-4B79-9D98-F319539C852A}</stp>
+        <stp>{E5B2F945-91E2-4CB2-8408-8B1D9E8826B0}</stp>
+        <tr r="P4" s="26"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:09:33</v>
+        <stp/>
+        <stp>{33F71036-CA46-4418-8124-AD5DAB2BA34B}</stp>
+        <tr r="J4" s="15"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:09:33</v>
+        <stp/>
+        <stp>{920619D3-BC71-4C6F-8221-1E9CF09DE67C}</stp>
+        <tr r="O4" s="65"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:09:33</v>
+        <stp/>
+        <stp>{F848B6B6-CB32-470D-904D-BA32DBD094AF}</stp>
+        <tr r="Q5" s="64"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:09:55</v>
+        <stp/>
+        <stp>{DB0E7866-A1F7-4630-9AE3-8B647F7519B5}</stp>
+        <tr r="O4" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:09:33</v>
+        <stp/>
+        <stp>{1B3F1E3E-E783-40A0-93E8-6D62A4871FC7}</stp>
         <tr r="O2" s="17"/>
       </tp>
       <tp t="s">
-        <v>Updated at 10:27:24</v>
+        <v>Updated at 11:09:33</v>
         <stp/>
-        <stp>{181655B0-9372-41BD-AE15-FCA270DE2BB9}</stp>
+        <stp>{8DC426FA-0A24-4002-BA64-CF904C8C472A}</stp>
+        <tr r="P4" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:09:33</v>
+        <stp/>
+        <stp>{F2C9149B-4311-45B2-AC7E-5CD60AE5CBB9}</stp>
+        <tr r="P4" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:09:33</v>
+        <stp/>
+        <stp>{5D993C85-41E5-4FEE-BA08-D892368A50C0}</stp>
+        <tr r="P4" s="11"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:09:33</v>
+        <stp/>
+        <stp>{7BDEEC00-7D7D-4D05-898D-74836301E66E}</stp>
         <tr r="N4" s="16"/>
       </tp>
       <tp t="s">
-        <v>Updated at 10:27:24</v>
+        <v>Updated at 11:09:33</v>
         <stp/>
-        <stp>{82EF51E0-70DB-4A16-B533-C5AB6CFB4143}</stp>
-        <tr r="P4" s="11"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:27:24</v>
-        <stp/>
-        <stp>{E985013B-A0ED-4C25-9773-FF6C146EE89D}</stp>
-        <tr r="P4" s="26"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:27:24</v>
-        <stp/>
-        <stp>{76680E87-A773-4725-8BA0-28AAAB2A18A7}</stp>
-        <tr r="P4" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:31:48</v>
-        <stp/>
-        <stp>{343B1A41-4707-4EAF-8B1B-7D4ECB1DF71E}</stp>
-        <tr r="O4" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:27:24</v>
-        <stp/>
-        <stp>{CC9C7DA4-BC15-4314-BD6A-80D3F4B03B84}</stp>
-        <tr r="P4" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:27:25</v>
-        <stp/>
-        <stp>{F47E2850-A69C-4842-A2BD-DAEEEBE3ED09}</stp>
-        <tr r="O4" s="65"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:27:24</v>
-        <stp/>
-        <stp>{6E7EA429-1CE8-4415-874F-E9D2ACD858A2}</stp>
+        <stp>{432CD8AE-3EDE-4239-8408-5CFE55409E78}</stp>
         <tr r="M4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:27:25</v>
-        <stp/>
-        <stp>{B989FAB0-7FD1-45A6-98C2-C9E02DD89EE7}</stp>
-        <tr r="Q5" s="64"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:27:24</v>
-        <stp/>
-        <stp>{25D930D8-1B47-4A39-9628-90011C060520}</stp>
-        <tr r="J4" s="15"/>
       </tp>
     </main>
   </volType>
@@ -2843,40 +2843,42 @@
   <sheetPr codeName="Sheet53"/>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="340" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="340" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="340" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="340" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="2.7109375" style="340" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="340" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.85546875" style="340" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="340" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="340"/>
+    <col min="1" max="1" width="1.7109375" style="338" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="338" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="338" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="338" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="2.7109375" style="338" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="338" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.85546875" style="338" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="338" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="338"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="340" t="str">
+      <c r="B1" s="338" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2014 10:33:09</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="370" t="s">
+      <c r="B2" s="368" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="344"/>
-      <c r="G2" s="370" t="s">
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="342"/>
+      <c r="G2" s="368" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
-      <c r="J2" s="346"/>
+      <c r="H2" s="343"/>
+      <c r="I2" s="343"/>
+      <c r="J2" s="344"/>
     </row>
     <row r="3" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="126"/>
@@ -2890,125 +2892,125 @@
     </row>
     <row r="4" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="126"/>
-      <c r="C4" s="347" t="s">
+      <c r="C4" s="345" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="348" t="s">
+      <c r="D4" s="346" t="s">
         <v>185</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="126"/>
-      <c r="H4" s="349" t="s">
+      <c r="H4" s="347" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="350" t="b">
+      <c r="I4" s="348" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="351"/>
+      <c r="J4" s="349"/>
     </row>
     <row r="5" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="126"/>
-      <c r="C5" s="352" t="s">
+      <c r="C5" s="350" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="353">
-        <v>41820.435300925928</v>
+      <c r="D5" s="351">
+        <v>41850.464548611111</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="126"/>
-      <c r="H5" s="349" t="s">
+      <c r="H5" s="347" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="350" t="b">
+      <c r="I5" s="348" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="351"/>
+      <c r="J5" s="349"/>
     </row>
     <row r="6" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="126"/>
-      <c r="C6" s="352" t="s">
+      <c r="C6" s="350" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="354" t="s">
+      <c r="D6" s="352" t="s">
         <v>171</v>
       </c>
       <c r="E6" s="9"/>
       <c r="G6" s="126"/>
-      <c r="H6" s="349" t="s">
+      <c r="H6" s="347" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="350" t="b">
+      <c r="I6" s="348" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="351"/>
+      <c r="J6" s="349"/>
     </row>
     <row r="7" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="126"/>
-      <c r="C7" s="352" t="s">
+      <c r="C7" s="350" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="355">
+      <c r="D7" s="353">
         <f>_xll.ohTrigger(Deposits!R3,FRA!X3,Futures3M!Z3,FuturesHWConvAdj!Q3,Swap3M!Z3,Swap6M!Z3,BasisSwap1M3M!X3,BasisSwap3M6M!X3,OIS!W3)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E7" s="9"/>
       <c r="G7" s="126"/>
-      <c r="H7" s="349" t="s">
+      <c r="H7" s="347" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="356"/>
-      <c r="J7" s="351"/>
+      <c r="I7" s="354"/>
+      <c r="J7" s="349"/>
     </row>
     <row r="8" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="126"/>
-      <c r="C8" s="352" t="s">
+      <c r="C8" s="350" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="355">
+      <c r="D8" s="353">
         <f>_xll.ohTrigger(BBSW!W6:W12)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="9"/>
       <c r="G8" s="126"/>
-      <c r="H8" s="349" t="s">
+      <c r="H8" s="347" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="357" t="b">
+      <c r="I8" s="355" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="351"/>
+      <c r="J8" s="349"/>
     </row>
     <row r="9" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="126"/>
-      <c r="C9" s="358" t="s">
+      <c r="C9" s="356" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="359" t="s">
+      <c r="D9" s="357" t="s">
         <v>168</v>
       </c>
       <c r="E9" s="9"/>
       <c r="G9" s="126"/>
-      <c r="H9" s="349" t="s">
+      <c r="H9" s="347" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="350" t="str">
+      <c r="I9" s="348" t="str">
         <f>Currency&amp;"ON"</f>
         <v>AUDON</v>
       </c>
-      <c r="J9" s="351"/>
+      <c r="J9" s="349"/>
     </row>
     <row r="10" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="126"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
       <c r="E10" s="9"/>
-      <c r="G10" s="341"/>
+      <c r="G10" s="339"/>
       <c r="H10" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="I10" s="360">
+      <c r="I10" s="358">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41820</v>
+        <v>41850</v>
       </c>
       <c r="J10" s="204"/>
     </row>
@@ -3017,25 +3019,25 @@
       <c r="C11" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="361" t="s">
+      <c r="D11" s="359" t="s">
         <v>167</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="G11" s="341"/>
-      <c r="H11" s="349" t="s">
+      <c r="G11" s="339"/>
+      <c r="H11" s="347" t="s">
         <v>202</v>
       </c>
-      <c r="I11" s="350" t="s">
+      <c r="I11" s="348" t="s">
         <v>203</v>
       </c>
       <c r="J11" s="204"/>
     </row>
     <row r="12" spans="2:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="126"/>
-      <c r="C12" s="362" t="s">
+      <c r="C12" s="360" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="363" t="str">
+      <c r="D12" s="361" t="str">
         <f>""</f>
         <v/>
       </c>
@@ -3047,40 +3049,40 @@
     </row>
     <row r="13" spans="2:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="126"/>
-      <c r="C13" s="362" t="s">
+      <c r="C13" s="360" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="363" t="s">
+      <c r="D13" s="361" t="s">
         <v>138</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="G13" s="342"/>
-      <c r="H13" s="342"/>
-      <c r="I13" s="342"/>
-      <c r="J13" s="342"/>
+      <c r="G13" s="340"/>
+      <c r="H13" s="340"/>
+      <c r="I13" s="340"/>
+      <c r="J13" s="340"/>
     </row>
     <row r="14" spans="2:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="126"/>
-      <c r="C14" s="362" t="s">
+      <c r="C14" s="360" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="363" t="s">
+      <c r="D14" s="361" t="s">
         <v>137</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="G14" s="370" t="s">
+      <c r="G14" s="368" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="345"/>
-      <c r="I14" s="345"/>
-      <c r="J14" s="346"/>
+      <c r="H14" s="343"/>
+      <c r="I14" s="343"/>
+      <c r="J14" s="344"/>
     </row>
     <row r="15" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="126"/>
-      <c r="C15" s="362" t="s">
+      <c r="C15" s="360" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="363" t="s">
+      <c r="D15" s="361" t="s">
         <v>135</v>
       </c>
       <c r="E15" s="9"/>
@@ -3091,93 +3093,93 @@
     </row>
     <row r="16" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="126"/>
-      <c r="C16" s="362" t="s">
+      <c r="C16" s="360" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="363" t="s">
+      <c r="D16" s="361" t="s">
         <v>183</v>
       </c>
       <c r="E16" s="9"/>
       <c r="G16" s="126"/>
-      <c r="H16" s="349" t="s">
+      <c r="H16" s="347" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="364" t="s">
+      <c r="I16" s="362" t="s">
         <v>76</v>
       </c>
-      <c r="J16" s="351"/>
+      <c r="J16" s="349"/>
     </row>
     <row r="17" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="126"/>
-      <c r="C17" s="362" t="s">
+      <c r="C17" s="360" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="363" t="s">
+      <c r="D17" s="361" t="s">
         <v>133</v>
       </c>
       <c r="E17" s="9"/>
       <c r="G17" s="126"/>
-      <c r="H17" s="349" t="s">
+      <c r="H17" s="347" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="365">
+      <c r="I17" s="363">
         <v>1E-4</v>
       </c>
-      <c r="J17" s="351"/>
+      <c r="J17" s="349"/>
     </row>
     <row r="18" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="126"/>
-      <c r="C18" s="362" t="s">
+      <c r="C18" s="360" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="363" t="s">
+      <c r="D18" s="361" t="s">
         <v>166</v>
       </c>
       <c r="E18" s="9"/>
       <c r="G18" s="126"/>
-      <c r="H18" s="349" t="s">
+      <c r="H18" s="347" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="366">
+      <c r="I18" s="364">
         <v>-0.01</v>
       </c>
-      <c r="J18" s="351"/>
+      <c r="J18" s="349"/>
     </row>
     <row r="19" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="126"/>
-      <c r="C19" s="362" t="s">
+      <c r="C19" s="360" t="s">
         <v>211</v>
       </c>
-      <c r="D19" s="363" t="s">
+      <c r="D19" s="361" t="s">
         <v>207</v>
       </c>
       <c r="E19" s="9"/>
       <c r="G19" s="126"/>
-      <c r="H19" s="349" t="s">
+      <c r="H19" s="347" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="366" t="s">
+      <c r="I19" s="364" t="s">
         <v>186</v>
       </c>
-      <c r="J19" s="351"/>
+      <c r="J19" s="349"/>
     </row>
     <row r="20" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="126"/>
       <c r="C20" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="367" t="s">
+      <c r="D20" s="365" t="s">
         <v>164</v>
       </c>
       <c r="E20" s="9"/>
       <c r="G20" s="126"/>
-      <c r="H20" s="349" t="s">
+      <c r="H20" s="347" t="s">
         <v>181</v>
       </c>
-      <c r="I20" s="368" t="s">
+      <c r="I20" s="366" t="s">
         <v>182</v>
       </c>
-      <c r="J20" s="351"/>
+      <c r="J20" s="349"/>
     </row>
     <row r="21" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="126"/>
@@ -3185,20 +3187,20 @@
       <c r="D21" s="102"/>
       <c r="E21" s="9"/>
       <c r="G21" s="126"/>
-      <c r="H21" s="349" t="s">
+      <c r="H21" s="347" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="368" t="s">
+      <c r="I21" s="366" t="s">
         <v>215</v>
       </c>
-      <c r="J21" s="351"/>
+      <c r="J21" s="349"/>
     </row>
     <row r="22" spans="2:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="126"/>
       <c r="C22" s="203" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="369">
+      <c r="D22" s="367">
         <v>41809.384120370371</v>
       </c>
       <c r="E22" s="9"/>
@@ -3349,7 +3351,7 @@
       <c r="P3" s="51"/>
       <c r="Q3" s="123">
         <f>_xll.ohTrigger(Q5:Q9)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="3"/>
@@ -3383,10 +3385,10 @@
         <v>130</v>
       </c>
       <c r="J4" s="184"/>
-      <c r="K4" s="338" t="s">
+      <c r="K4" s="369" t="s">
         <v>159</v>
       </c>
-      <c r="L4" s="339"/>
+      <c r="L4" s="370"/>
       <c r="M4" s="184"/>
       <c r="N4" s="121" t="s">
         <v>146</v>
@@ -3764,7 +3766,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="330" t="str">
         <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 10:27:24</v>
+        <v>Updated at 11:09:33</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -3921,10 +3923,10 @@
         <v>AUDQM3AB1Y=ICAA</v>
       </c>
       <c r="Q6" s="101">
-        <v>2.6074999999999999</v>
+        <v>2.6025</v>
       </c>
       <c r="R6" s="101">
-        <v>2.6575000000000002</v>
+        <v>2.6525000000000003</v>
       </c>
       <c r="S6" s="101">
         <v>0</v>
@@ -3934,7 +3936,7 @@
       </c>
       <c r="U6" s="104">
         <f>_xll.qlMidSafe($Q6,$R6)</f>
-        <v>2.6325000000000003</v>
+        <v>2.6275000000000004</v>
       </c>
       <c r="V6" s="102"/>
       <c r="W6" s="103">
@@ -3942,11 +3944,11 @@
       </c>
       <c r="X6" s="102"/>
       <c r="Y6" s="154">
-        <v>2.6325000000000003</v>
+        <v>2.6275000000000004</v>
       </c>
       <c r="Z6" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999997963E-5</v>
       </c>
       <c r="AA6" s="90"/>
       <c r="AB6" s="3"/>
@@ -4229,10 +4231,10 @@
         <v>AUDQM3AB2Y=ICAA</v>
       </c>
       <c r="Q10" s="101">
-        <v>2.71</v>
+        <v>2.6975000000000002</v>
       </c>
       <c r="R10" s="101">
-        <v>2.77</v>
+        <v>2.7575000000000003</v>
       </c>
       <c r="S10" s="101">
         <v>0</v>
@@ -4242,7 +4244,7 @@
       </c>
       <c r="U10" s="104">
         <f>_xll.qlMidSafe($Q10,$R10)</f>
-        <v>2.74</v>
+        <v>2.7275</v>
       </c>
       <c r="V10" s="102"/>
       <c r="W10" s="103">
@@ -4250,11 +4252,11 @@
       </c>
       <c r="X10" s="102"/>
       <c r="Y10" s="154">
-        <v>2.74</v>
+        <v>2.7275</v>
       </c>
       <c r="Z10" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.2500000000000011E-4</v>
       </c>
       <c r="AA10" s="90"/>
       <c r="AB10" s="3"/>
@@ -4306,10 +4308,10 @@
         <v>AUDQM3AB3Y=ICAA</v>
       </c>
       <c r="Q11" s="101">
-        <v>2.8574999999999999</v>
+        <v>2.8425000000000002</v>
       </c>
       <c r="R11" s="101">
-        <v>2.9175</v>
+        <v>2.9025000000000003</v>
       </c>
       <c r="S11" s="101">
         <v>0</v>
@@ -4319,7 +4321,7 @@
       </c>
       <c r="U11" s="104">
         <f>_xll.qlMidSafe($Q11,$R11)</f>
-        <v>2.8875000000000002</v>
+        <v>2.8725000000000005</v>
       </c>
       <c r="V11" s="102"/>
       <c r="W11" s="103">
@@ -4327,11 +4329,11 @@
       </c>
       <c r="X11" s="102"/>
       <c r="Y11" s="154">
-        <v>2.8875000000000002</v>
+        <v>2.8725000000000005</v>
       </c>
       <c r="Z11" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.4999999999999736E-4</v>
       </c>
       <c r="AA11" s="90"/>
       <c r="AB11" s="3"/>
@@ -6944,7 +6946,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="98" t="str">
         <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 10:27:24</v>
+        <v>Updated at 11:09:33</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -7563,10 +7565,10 @@
         <v>AUDSM6AB4Y=ICAA</v>
       </c>
       <c r="Q12" s="101">
-        <v>3.0975000000000001</v>
+        <v>3.0725000000000002</v>
       </c>
       <c r="R12" s="101">
-        <v>3.1575000000000002</v>
+        <v>3.1325000000000003</v>
       </c>
       <c r="S12" s="101">
         <v>0</v>
@@ -7576,7 +7578,7 @@
       </c>
       <c r="U12" s="104">
         <f>_xll.qlMidEquivalent($Q12,$R12,$S12,$T12)</f>
-        <v>3.1275000000000004</v>
+        <v>3.1025</v>
       </c>
       <c r="V12" s="102"/>
       <c r="W12" s="103">
@@ -7584,11 +7586,11 @@
       </c>
       <c r="X12" s="102"/>
       <c r="Y12" s="154">
-        <v>3.1275000000000004</v>
+        <v>3.1025</v>
       </c>
       <c r="Z12" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.5000000000000369E-4</v>
       </c>
       <c r="AA12" s="90"/>
       <c r="AB12" s="3"/>
@@ -7640,10 +7642,10 @@
         <v>AUDSM6AB5Y=ICAA</v>
       </c>
       <c r="Q13" s="101">
-        <v>3.2600000000000002</v>
+        <v>3.2175000000000002</v>
       </c>
       <c r="R13" s="101">
-        <v>3.3200000000000003</v>
+        <v>3.2775000000000003</v>
       </c>
       <c r="S13" s="101">
         <v>0</v>
@@ -7653,7 +7655,7 @@
       </c>
       <c r="U13" s="104">
         <f>_xll.qlMidEquivalent($Q13,$R13,$S13,$T13)</f>
-        <v>3.29</v>
+        <v>3.2475000000000005</v>
       </c>
       <c r="V13" s="102"/>
       <c r="W13" s="103">
@@ -7661,11 +7663,11 @@
       </c>
       <c r="X13" s="102"/>
       <c r="Y13" s="154">
-        <v>3.29</v>
+        <v>3.2475000000000005</v>
       </c>
       <c r="Z13" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.2499999999999483E-4</v>
       </c>
       <c r="AA13" s="90"/>
       <c r="AB13" s="3"/>
@@ -7717,10 +7719,10 @@
         <v>AUDSM6AB6Y=ICAA</v>
       </c>
       <c r="Q14" s="101">
-        <v>3.4200000000000004</v>
+        <v>3.3650000000000002</v>
       </c>
       <c r="R14" s="101">
-        <v>3.48</v>
+        <v>3.4250000000000003</v>
       </c>
       <c r="S14" s="101">
         <v>0</v>
@@ -7730,7 +7732,7 @@
       </c>
       <c r="U14" s="104">
         <f>_xll.qlMidEquivalent($Q14,$R14,$S14,$T14)</f>
-        <v>3.45</v>
+        <v>3.3950000000000005</v>
       </c>
       <c r="V14" s="102"/>
       <c r="W14" s="103">
@@ -7738,11 +7740,11 @@
       </c>
       <c r="X14" s="102"/>
       <c r="Y14" s="154">
-        <v>3.45</v>
+        <v>3.3950000000000005</v>
       </c>
       <c r="Z14" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.4999999999999494E-4</v>
       </c>
       <c r="AA14" s="90"/>
       <c r="AB14" s="3"/>
@@ -7794,10 +7796,10 @@
         <v>AUDSM6AB7Y=ICAA</v>
       </c>
       <c r="Q15" s="101">
-        <v>3.5650000000000004</v>
+        <v>3.4950000000000001</v>
       </c>
       <c r="R15" s="101">
-        <v>3.625</v>
+        <v>3.5550000000000002</v>
       </c>
       <c r="S15" s="101">
         <v>0</v>
@@ -7807,7 +7809,7 @@
       </c>
       <c r="U15" s="104">
         <f>_xll.qlMidEquivalent($Q15,$R15,$S15,$T15)</f>
-        <v>3.5950000000000002</v>
+        <v>3.5250000000000004</v>
       </c>
       <c r="V15" s="102"/>
       <c r="W15" s="103">
@@ -7815,11 +7817,11 @@
       </c>
       <c r="X15" s="102"/>
       <c r="Y15" s="154">
-        <v>3.5950000000000002</v>
+        <v>3.5250000000000004</v>
       </c>
       <c r="Z15" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15/100,Trigger)</f>
-        <v>0</v>
+        <v>-6.9999999999999923E-4</v>
       </c>
       <c r="AA15" s="90"/>
       <c r="AB15" s="3"/>
@@ -7871,10 +7873,10 @@
         <v>AUDSM6AB8Y=ICAA</v>
       </c>
       <c r="Q16" s="101">
-        <v>3.6875</v>
+        <v>3.605</v>
       </c>
       <c r="R16" s="101">
-        <v>3.7475000000000001</v>
+        <v>3.665</v>
       </c>
       <c r="S16" s="101">
         <v>0</v>
@@ -7884,7 +7886,7 @@
       </c>
       <c r="U16" s="104">
         <f>_xll.qlMidEquivalent($Q16,$R16,$S16,$T16)</f>
-        <v>3.7175000000000002</v>
+        <v>3.6349999999999998</v>
       </c>
       <c r="V16" s="102"/>
       <c r="W16" s="103">
@@ -7892,11 +7894,11 @@
       </c>
       <c r="X16" s="102"/>
       <c r="Y16" s="154">
-        <v>3.7175000000000002</v>
+        <v>3.6349999999999998</v>
       </c>
       <c r="Z16" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>0</v>
+        <v>-8.2499999999999934E-4</v>
       </c>
       <c r="AA16" s="90"/>
       <c r="AB16" s="3"/>
@@ -7948,10 +7950,10 @@
         <v>AUDSM6AB9Y=ICAA</v>
       </c>
       <c r="Q17" s="101">
-        <v>3.7925</v>
+        <v>3.7</v>
       </c>
       <c r="R17" s="101">
-        <v>3.8525</v>
+        <v>3.7600000000000002</v>
       </c>
       <c r="S17" s="101">
         <v>0</v>
@@ -7961,7 +7963,7 @@
       </c>
       <c r="U17" s="104">
         <f>_xll.qlMidEquivalent($Q17,$R17,$S17,$T17)</f>
-        <v>3.8224999999999998</v>
+        <v>3.7300000000000004</v>
       </c>
       <c r="V17" s="102"/>
       <c r="W17" s="103">
@@ -7969,11 +7971,11 @@
       </c>
       <c r="X17" s="102"/>
       <c r="Y17" s="154">
-        <v>3.8224999999999998</v>
+        <v>3.7300000000000004</v>
       </c>
       <c r="Z17" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.2499999999998833E-4</v>
       </c>
       <c r="AA17" s="90"/>
       <c r="AB17" s="3"/>
@@ -8025,10 +8027,10 @@
         <v>AUDSM6AB10Y=ICAA</v>
       </c>
       <c r="Q18" s="101">
-        <v>3.8850000000000002</v>
+        <v>3.7875000000000001</v>
       </c>
       <c r="R18" s="101">
-        <v>3.9450000000000003</v>
+        <v>3.8475000000000001</v>
       </c>
       <c r="S18" s="101">
         <v>0</v>
@@ -8038,7 +8040,7 @@
       </c>
       <c r="U18" s="104">
         <f>_xll.qlMidEquivalent($Q18,$R18,$S18,$T18)</f>
-        <v>3.915</v>
+        <v>3.8174999999999999</v>
       </c>
       <c r="V18" s="102"/>
       <c r="W18" s="103">
@@ -8046,11 +8048,11 @@
       </c>
       <c r="X18" s="102"/>
       <c r="Y18" s="154">
-        <v>3.915</v>
+        <v>3.8174999999999999</v>
       </c>
       <c r="Z18" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.749999999999967E-4</v>
       </c>
       <c r="AA18" s="90"/>
       <c r="AB18" s="3"/>
@@ -8179,10 +8181,10 @@
         <v>AUDSM6AB12Y=ICAA</v>
       </c>
       <c r="Q20" s="101">
-        <v>4.0449999999999999</v>
+        <v>3.9350000000000001</v>
       </c>
       <c r="R20" s="101">
-        <v>4.1050000000000004</v>
+        <v>3.9950000000000001</v>
       </c>
       <c r="S20" s="101">
         <v>0</v>
@@ -8192,7 +8194,7 @@
       </c>
       <c r="U20" s="104">
         <f>_xll.qlMidEquivalent($Q20,$R20,$S20,$T20)</f>
-        <v>4.0750000000000002</v>
+        <v>3.9649999999999999</v>
       </c>
       <c r="V20" s="102"/>
       <c r="W20" s="103">
@@ -8200,11 +8202,11 @@
       </c>
       <c r="X20" s="102"/>
       <c r="Y20" s="154">
-        <v>4.0750000000000002</v>
+        <v>3.9649999999999999</v>
       </c>
       <c r="Z20" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.1000000000000038E-3</v>
       </c>
       <c r="AA20" s="90"/>
       <c r="AB20" s="3"/>
@@ -8410,10 +8412,10 @@
         <v>AUDSM6AB15Y=ICAA</v>
       </c>
       <c r="Q23" s="101">
-        <v>4.1825000000000001</v>
+        <v>4.07</v>
       </c>
       <c r="R23" s="101">
-        <v>4.2625000000000002</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="S23" s="101">
         <v>0</v>
@@ -8423,7 +8425,7 @@
       </c>
       <c r="U23" s="104">
         <f>_xll.qlMidEquivalent($Q23,$R23,$S23,$T23)</f>
-        <v>4.2225000000000001</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="V23" s="102"/>
       <c r="W23" s="103">
@@ -8431,11 +8433,11 @@
       </c>
       <c r="X23" s="102"/>
       <c r="Y23" s="154">
-        <v>4.2225000000000001</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="Z23" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.1249999999999941E-3</v>
       </c>
       <c r="AA23" s="90"/>
       <c r="AB23" s="3"/>
@@ -8795,10 +8797,10 @@
         <v>AUDSM6AB20Y=ICAA</v>
       </c>
       <c r="Q28" s="101">
-        <v>4.3025000000000002</v>
+        <v>4.2050000000000001</v>
       </c>
       <c r="R28" s="101">
-        <v>4.3825000000000003</v>
+        <v>4.2850000000000001</v>
       </c>
       <c r="S28" s="101">
         <v>0</v>
@@ -8808,7 +8810,7 @@
       </c>
       <c r="U28" s="104">
         <f>_xll.qlMidEquivalent($Q28,$R28,$S28,$T28)</f>
-        <v>4.3425000000000002</v>
+        <v>4.2450000000000001</v>
       </c>
       <c r="V28" s="102"/>
       <c r="W28" s="103">
@@ -8816,11 +8818,11 @@
       </c>
       <c r="X28" s="102"/>
       <c r="Y28" s="154">
-        <v>4.3425000000000002</v>
+        <v>4.2450000000000001</v>
       </c>
       <c r="Z28" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.7500000000000364E-4</v>
       </c>
       <c r="AA28" s="90"/>
       <c r="AB28" s="3"/>
@@ -9180,10 +9182,10 @@
         <v>AUDSM6AB25Y=ICAA</v>
       </c>
       <c r="Q33" s="101">
-        <v>4.3475000000000001</v>
+        <v>4.2525000000000004</v>
       </c>
       <c r="R33" s="101">
-        <v>4.4275000000000002</v>
+        <v>4.3325000000000005</v>
       </c>
       <c r="S33" s="101">
         <v>0</v>
@@ -9193,7 +9195,7 @@
       </c>
       <c r="U33" s="104">
         <f>_xll.qlMidEquivalent($Q33,$R33,$S33,$T33)</f>
-        <v>4.3875000000000002</v>
+        <v>4.2925000000000004</v>
       </c>
       <c r="V33" s="102"/>
       <c r="W33" s="103">
@@ -9201,11 +9203,11 @@
       </c>
       <c r="X33" s="102"/>
       <c r="Y33" s="154">
-        <v>4.3875000000000002</v>
+        <v>4.2925000000000004</v>
       </c>
       <c r="Z33" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F33,Y33/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.4999999999999946E-4</v>
       </c>
       <c r="AA33" s="90"/>
       <c r="AB33" s="3"/>
@@ -9565,10 +9567,10 @@
         <v>AUDSM6AB30Y=ICAA</v>
       </c>
       <c r="Q38" s="101">
-        <v>4.3550000000000004</v>
+        <v>4.2725</v>
       </c>
       <c r="R38" s="101">
-        <v>4.4350000000000005</v>
+        <v>4.3525</v>
       </c>
       <c r="S38" s="101">
         <v>0</v>
@@ -9578,7 +9580,7 @@
       </c>
       <c r="U38" s="104">
         <f>_xll.qlMidEquivalent($Q38,$R38,$S38,$T38)</f>
-        <v>4.3950000000000005</v>
+        <v>4.3125</v>
       </c>
       <c r="V38" s="102"/>
       <c r="W38" s="103">
@@ -9586,11 +9588,11 @@
       </c>
       <c r="X38" s="102"/>
       <c r="Y38" s="154">
-        <v>4.3950000000000005</v>
+        <v>4.3125</v>
       </c>
       <c r="Z38" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F38,Y38/100,Trigger)</f>
-        <v>0</v>
+        <v>-8.2500000000000628E-4</v>
       </c>
       <c r="AA38" s="90"/>
       <c r="AB38" s="3"/>
@@ -9719,10 +9721,10 @@
         <v>AUDSM6AB40Y=ICAA</v>
       </c>
       <c r="Q40" s="101">
-        <v>4.3150000000000004</v>
+        <v>4.2324999999999999</v>
       </c>
       <c r="R40" s="101">
-        <v>4.3950000000000005</v>
+        <v>4.3125</v>
       </c>
       <c r="S40" s="101">
         <v>0</v>
@@ -9732,7 +9734,7 @@
       </c>
       <c r="U40" s="104">
         <f>_xll.qlMidEquivalent($Q40,$R40,$S40,$T40)</f>
-        <v>4.3550000000000004</v>
+        <v>4.2725</v>
       </c>
       <c r="V40" s="102"/>
       <c r="W40" s="103">
@@ -9740,11 +9742,11 @@
       </c>
       <c r="X40" s="102"/>
       <c r="Y40" s="154">
-        <v>4.3550000000000004</v>
+        <v>4.2725</v>
       </c>
       <c r="Z40" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F40,Y40/100,Trigger)</f>
-        <v>0</v>
+        <v>-8.2500000000000628E-4</v>
       </c>
       <c r="AA40" s="90"/>
       <c r="AB40" s="3"/>
@@ -10100,7 +10102,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="98" t="str">
         <f>_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 10:27:24</v>
+        <v>Updated at 11:09:33</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -10168,14 +10170,14 @@
         <v>AUBR3AB6M=ICAA</v>
       </c>
       <c r="Q5" s="200">
-        <v>4.25</v>
+        <v>3.875</v>
       </c>
       <c r="R5" s="200">
-        <v>6.25</v>
+        <v>5.875</v>
       </c>
       <c r="S5" s="332">
         <f>_xll.qlMidEquivalent(Q5,R5)</f>
-        <v>5.25</v>
+        <v>4.875</v>
       </c>
       <c r="T5" s="102"/>
       <c r="U5" s="199">
@@ -10184,11 +10186,11 @@
       <c r="V5" s="102"/>
       <c r="W5" s="208">
         <f t="array" ref="W5:W42">QuoteLive</f>
-        <v>5.25</v>
+        <v>4.875</v>
       </c>
       <c r="X5" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F5,W5/10000,Trigger)</f>
-        <v>0</v>
+        <v>-3.749999999999999E-5</v>
       </c>
       <c r="Y5" s="90"/>
       <c r="Z5" s="3"/>
@@ -10241,14 +10243,14 @@
         <v>AUBR3AB1Y=ICAA</v>
       </c>
       <c r="Q6" s="200">
-        <v>4.625</v>
+        <v>4.25</v>
       </c>
       <c r="R6" s="200">
-        <v>6.625</v>
+        <v>6.25</v>
       </c>
       <c r="S6" s="191">
         <f>_xll.qlMidEquivalent(Q6,R6)</f>
-        <v>5.625</v>
+        <v>5.25</v>
       </c>
       <c r="T6" s="102"/>
       <c r="U6" s="199">
@@ -10256,11 +10258,11 @@
       </c>
       <c r="V6" s="102"/>
       <c r="W6" s="208">
-        <v>5.625</v>
+        <v>5.25</v>
       </c>
       <c r="X6" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/10000,Trigger)</f>
-        <v>0</v>
+        <v>-3.749999999999999E-5</v>
       </c>
       <c r="Y6" s="90"/>
       <c r="Z6" s="3"/>
@@ -10519,14 +10521,14 @@
         <v>AUBR3AB2Y=ICAA</v>
       </c>
       <c r="Q10" s="200">
-        <v>5.375</v>
+        <v>5.25</v>
       </c>
       <c r="R10" s="200">
-        <v>7.375</v>
+        <v>7.25</v>
       </c>
       <c r="S10" s="191">
         <f>_xll.qlMidEquivalent(Q10,R10)</f>
-        <v>6.375</v>
+        <v>6.25</v>
       </c>
       <c r="T10" s="102"/>
       <c r="U10" s="199">
@@ -10534,11 +10536,11 @@
       </c>
       <c r="V10" s="102"/>
       <c r="W10" s="208">
-        <v>6.375</v>
+        <v>6.25</v>
       </c>
       <c r="X10" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.2500000000000033E-5</v>
       </c>
       <c r="Y10" s="90"/>
     </row>
@@ -10586,14 +10588,14 @@
         <v>AUBR3AB3Y=ICAA</v>
       </c>
       <c r="Q11" s="200">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="R11" s="200">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="S11" s="191">
         <f>_xll.qlMidEquivalent(Q11,R11)</f>
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="T11" s="102"/>
       <c r="U11" s="199">
@@ -10601,11 +10603,11 @@
       </c>
       <c r="V11" s="102"/>
       <c r="W11" s="208">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="X11" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F11,W11/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.5000000000000066E-5</v>
       </c>
       <c r="Y11" s="90"/>
     </row>
@@ -10653,14 +10655,14 @@
         <v>AUBR3AB4Y=ICAA</v>
       </c>
       <c r="Q12" s="200">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="R12" s="200">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="S12" s="191">
         <f>_xll.qlMidEquivalent(Q12,R12)</f>
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="T12" s="102"/>
       <c r="U12" s="199">
@@ -10668,11 +10670,11 @@
       </c>
       <c r="V12" s="102"/>
       <c r="W12" s="208">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="X12" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="Y12" s="90"/>
     </row>
@@ -10720,14 +10722,14 @@
         <v>AUBR3AB5Y=ICAA</v>
       </c>
       <c r="Q13" s="200">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="R13" s="200">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="S13" s="191">
         <f>_xll.qlMidEquivalent(Q13,R13)</f>
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="T13" s="102"/>
       <c r="U13" s="199">
@@ -10735,11 +10737,11 @@
       </c>
       <c r="V13" s="102"/>
       <c r="W13" s="208">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="X13" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="Y13" s="90"/>
     </row>
@@ -10854,14 +10856,14 @@
         <v>AUBR3AB7Y=ICAA</v>
       </c>
       <c r="Q15" s="200">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="R15" s="200">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="S15" s="191">
         <f>_xll.qlMidEquivalent(Q15,R15)</f>
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="T15" s="102"/>
       <c r="U15" s="199">
@@ -10869,11 +10871,11 @@
       </c>
       <c r="V15" s="102"/>
       <c r="W15" s="208">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="X15" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="Y15" s="90"/>
     </row>
@@ -11055,14 +11057,14 @@
         <v>AUBR3AB10Y=ICAA</v>
       </c>
       <c r="Q18" s="200">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="R18" s="200">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="S18" s="191">
         <f>_xll.qlMidEquivalent(Q18,R18)</f>
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="T18" s="102"/>
       <c r="U18" s="199">
@@ -11070,11 +11072,11 @@
       </c>
       <c r="V18" s="102"/>
       <c r="W18" s="208">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="X18" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F18,W18/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.5000000000000066E-5</v>
       </c>
       <c r="Y18" s="90"/>
       <c r="AC18"/>
@@ -11190,14 +11192,14 @@
         <v>AUBR3AB12Y=ICAA</v>
       </c>
       <c r="Q20" s="200">
-        <v>6.125</v>
+        <v>6.25</v>
       </c>
       <c r="R20" s="200">
-        <v>9.125</v>
+        <v>9.25</v>
       </c>
       <c r="S20" s="191">
         <f>_xll.qlMidEquivalent(Q20,R20)</f>
-        <v>7.625</v>
+        <v>7.75</v>
       </c>
       <c r="T20" s="102"/>
       <c r="U20" s="199">
@@ -11205,11 +11207,11 @@
       </c>
       <c r="V20" s="102"/>
       <c r="W20" s="208">
-        <v>7.625</v>
+        <v>7.75</v>
       </c>
       <c r="X20" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.2499999999999924E-5</v>
       </c>
       <c r="Y20" s="90"/>
     </row>
@@ -12891,7 +12893,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="98" t="str">
         <f>_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 10:27:24</v>
+        <v>Updated at 11:09:33</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -12964,14 +12966,14 @@
         <v>AUBR6AB6M=ICAA</v>
       </c>
       <c r="Q5" s="200">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="R5" s="200">
-        <v>4.75</v>
+        <v>4.875</v>
       </c>
       <c r="S5" s="191">
         <f>_xll.qlMidEquivalent(Q5,R5)</f>
-        <v>3.75</v>
+        <v>3.875</v>
       </c>
       <c r="T5" s="102"/>
       <c r="U5" s="199">
@@ -12980,11 +12982,11 @@
       <c r="V5" s="102"/>
       <c r="W5" s="208">
         <f t="array" ref="W5:W42">QuoteLive</f>
-        <v>3.75</v>
+        <v>3.875</v>
       </c>
       <c r="X5" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F5,W5/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.2499999999999979E-5</v>
       </c>
       <c r="Y5" s="90"/>
       <c r="Z5" s="3"/>
@@ -13036,14 +13038,14 @@
         <v>AUBR6AB1Y=ICAA</v>
       </c>
       <c r="Q6" s="200">
-        <v>4.25</v>
+        <v>3.875</v>
       </c>
       <c r="R6" s="200">
-        <v>6.25</v>
+        <v>5.875</v>
       </c>
       <c r="S6" s="191">
         <f>_xll.qlMidEquivalent(Q6,R6)</f>
-        <v>5.25</v>
+        <v>4.875</v>
       </c>
       <c r="T6" s="102"/>
       <c r="U6" s="199">
@@ -13051,11 +13053,11 @@
       </c>
       <c r="V6" s="102"/>
       <c r="W6" s="208">
-        <v>5.25</v>
+        <v>4.875</v>
       </c>
       <c r="X6" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/10000,Trigger)</f>
-        <v>0</v>
+        <v>-3.749999999999999E-5</v>
       </c>
       <c r="Y6" s="90"/>
       <c r="Z6" s="3"/>
@@ -13320,14 +13322,14 @@
         <v>AUBR6AB2Y=ICAA</v>
       </c>
       <c r="Q10" s="200">
-        <v>5.25</v>
+        <v>5.125</v>
       </c>
       <c r="R10" s="200">
-        <v>7.25</v>
+        <v>7.125</v>
       </c>
       <c r="S10" s="191">
         <f>_xll.qlMidEquivalent(Q10,R10)</f>
-        <v>6.25</v>
+        <v>6.125</v>
       </c>
       <c r="T10" s="102"/>
       <c r="U10" s="199">
@@ -13335,11 +13337,11 @@
       </c>
       <c r="V10" s="102"/>
       <c r="W10" s="208">
-        <v>6.25</v>
+        <v>6.125</v>
       </c>
       <c r="X10" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.2500000000000033E-5</v>
       </c>
       <c r="Y10" s="90"/>
       <c r="Z10" s="3"/>
@@ -13391,14 +13393,14 @@
         <v>AUBR6AB3Y=ICAA</v>
       </c>
       <c r="Q11" s="200">
-        <v>5.875</v>
+        <v>5.625</v>
       </c>
       <c r="R11" s="200">
-        <v>7.875</v>
+        <v>7.625</v>
       </c>
       <c r="S11" s="191">
         <f>_xll.qlMidEquivalent(Q11,R11)</f>
-        <v>6.875</v>
+        <v>6.625</v>
       </c>
       <c r="T11" s="102"/>
       <c r="U11" s="199">
@@ -13406,11 +13408,11 @@
       </c>
       <c r="V11" s="102"/>
       <c r="W11" s="208">
-        <v>6.875</v>
+        <v>6.625</v>
       </c>
       <c r="X11" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F11,W11/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="Y11" s="90"/>
       <c r="Z11" s="3"/>
@@ -13462,14 +13464,14 @@
         <v>AUBR6AB4Y=ICAA</v>
       </c>
       <c r="Q12" s="200">
-        <v>6.25</v>
+        <v>6.125</v>
       </c>
       <c r="R12" s="200">
-        <v>8.25</v>
+        <v>8.125</v>
       </c>
       <c r="S12" s="191">
         <f>_xll.qlMidEquivalent(Q12,R12)</f>
-        <v>7.25</v>
+        <v>7.125</v>
       </c>
       <c r="T12" s="102"/>
       <c r="U12" s="199">
@@ -13477,11 +13479,11 @@
       </c>
       <c r="V12" s="102"/>
       <c r="W12" s="208">
-        <v>7.25</v>
+        <v>7.125</v>
       </c>
       <c r="X12" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.2499999999999924E-5</v>
       </c>
       <c r="Y12" s="90"/>
       <c r="Z12" s="3"/>
@@ -13675,14 +13677,14 @@
         <v>AUBR6AB7Y=ICAA</v>
       </c>
       <c r="Q15" s="200">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="R15" s="200">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="S15" s="191">
         <f>_xll.qlMidEquivalent(Q15,R15)</f>
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="T15" s="102"/>
       <c r="U15" s="199">
@@ -13690,11 +13692,11 @@
       </c>
       <c r="V15" s="102"/>
       <c r="W15" s="208">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="X15" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/10000,Trigger)</f>
-        <v>0</v>
+        <v>-2.4999999999999957E-5</v>
       </c>
       <c r="Y15" s="90"/>
       <c r="Z15" s="3"/>
@@ -13888,14 +13890,14 @@
         <v>AUBR6AB10Y=ICAA</v>
       </c>
       <c r="Q18" s="200">
-        <v>6.625</v>
+        <v>6.5</v>
       </c>
       <c r="R18" s="200">
-        <v>8.625</v>
+        <v>8.5</v>
       </c>
       <c r="S18" s="191">
         <f>_xll.qlMidEquivalent(Q18,R18)</f>
-        <v>7.625</v>
+        <v>7.5</v>
       </c>
       <c r="T18" s="102"/>
       <c r="U18" s="199">
@@ -13903,11 +13905,11 @@
       </c>
       <c r="V18" s="102"/>
       <c r="W18" s="208">
-        <v>7.625</v>
+        <v>7.5</v>
       </c>
       <c r="X18" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F18,W18/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.2500000000000033E-5</v>
       </c>
       <c r="Y18" s="90"/>
       <c r="Z18" s="3"/>
@@ -14030,14 +14032,14 @@
         <v>AUBR6AB12Y=ICAA</v>
       </c>
       <c r="Q20" s="200">
-        <v>5.75</v>
+        <v>5.875</v>
       </c>
       <c r="R20" s="200">
-        <v>8.75</v>
+        <v>8.875</v>
       </c>
       <c r="S20" s="191">
         <f>_xll.qlMidEquivalent(Q20,R20)</f>
-        <v>7.25</v>
+        <v>7.375</v>
       </c>
       <c r="T20" s="102"/>
       <c r="U20" s="199">
@@ -14045,11 +14047,11 @@
       </c>
       <c r="V20" s="102"/>
       <c r="W20" s="208">
-        <v>7.25</v>
+        <v>7.375</v>
       </c>
       <c r="X20" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.2500000000000033E-5</v>
       </c>
       <c r="Y20" s="90"/>
       <c r="Z20" s="3"/>
@@ -14243,14 +14245,14 @@
         <v>AUBR6AB15Y=ICAA</v>
       </c>
       <c r="Q23" s="200">
-        <v>4.75</v>
+        <v>4.875</v>
       </c>
       <c r="R23" s="200">
-        <v>7.75</v>
+        <v>7.875</v>
       </c>
       <c r="S23" s="191">
         <f>_xll.qlMidEquivalent(Q23,R23)</f>
-        <v>6.25</v>
+        <v>6.375</v>
       </c>
       <c r="T23" s="102"/>
       <c r="U23" s="199">
@@ -14258,11 +14260,11 @@
       </c>
       <c r="V23" s="102"/>
       <c r="W23" s="208">
-        <v>6.25</v>
+        <v>6.375</v>
       </c>
       <c r="X23" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F23,W23/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.2500000000000033E-5</v>
       </c>
       <c r="Y23" s="90"/>
       <c r="Z23" s="3"/>
@@ -14953,14 +14955,14 @@
         <v>AUBR6AB25Y=ICAA</v>
       </c>
       <c r="Q33" s="200">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="R33" s="200">
-        <v>5.5</v>
+        <v>5.375</v>
       </c>
       <c r="S33" s="191">
         <f>_xll.qlMidEquivalent(Q33,R33)</f>
-        <v>4</v>
+        <v>3.875</v>
       </c>
       <c r="T33" s="102"/>
       <c r="U33" s="199">
@@ -14968,11 +14970,11 @@
       </c>
       <c r="V33" s="102"/>
       <c r="W33" s="208">
-        <v>4</v>
+        <v>3.875</v>
       </c>
       <c r="X33" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F33,W33/10000,Trigger)</f>
-        <v>0</v>
+        <v>-1.2500000000000033E-5</v>
       </c>
       <c r="Y33" s="90"/>
       <c r="Z33" s="3"/>
@@ -15679,7 +15681,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AC15"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0"/>
+    <sheetView topLeftCell="J1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15852,7 +15854,7 @@
       </c>
       <c r="Q5" s="233" t="str">
         <f>_xll.RData(Q6:Q12,R5:T5,"RTFEED:IDN",,,R6)</f>
-        <v>Updated at 10:27:25</v>
+        <v>Updated at 11:09:33</v>
       </c>
       <c r="R5" s="233" t="s">
         <v>175</v>
@@ -15928,7 +15930,7 @@
         <v>AUCASH=RBAA</v>
       </c>
       <c r="R6" s="273">
-        <v>41820</v>
+        <v>41850</v>
       </c>
       <c r="S6" s="295">
         <v>2.5</v>
@@ -16015,7 +16017,7 @@
         <v>217</v>
       </c>
       <c r="U7" s="296" t="e">
-        <f>_xll.qlMidSafe(R7,S7)</f>
+        <f>_xll.qlMidSafe(S7,T7)</f>
         <v>#NUM!</v>
       </c>
       <c r="V7" s="236" t="e">
@@ -16093,7 +16095,7 @@
         <v>217</v>
       </c>
       <c r="U8" s="296" t="e">
-        <f>_xll.qlMidSafe(R8,S8)</f>
+        <f>_xll.qlMidSafe(S8,T8)</f>
         <v>#NUM!</v>
       </c>
       <c r="V8" s="236" t="e">
@@ -16174,7 +16176,7 @@
         <v>217</v>
       </c>
       <c r="U9" s="296" t="e">
-        <f>_xll.qlMidSafe(R9,S9)</f>
+        <f>_xll.qlMidSafe(S9,T9)</f>
         <v>#NUM!</v>
       </c>
       <c r="V9" s="236" t="e">
@@ -16252,7 +16254,7 @@
         <v>217</v>
       </c>
       <c r="U10" s="296" t="e">
-        <f>_xll.qlMidSafe(R10,S10)</f>
+        <f>_xll.qlMidSafe(S10,T10)</f>
         <v>#NUM!</v>
       </c>
       <c r="V10" s="236" t="e">
@@ -16330,7 +16332,7 @@
         <v>217</v>
       </c>
       <c r="U11" s="296" t="e">
-        <f>_xll.qlMidSafe(R11,S11)</f>
+        <f>_xll.qlMidSafe(S11,T11)</f>
         <v>#NUM!</v>
       </c>
       <c r="V11" s="236" t="e">
@@ -16411,7 +16413,7 @@
         <v>217</v>
       </c>
       <c r="U12" s="296" t="e">
-        <f>_xll.qlMidSafe(R12,S12)</f>
+        <f>_xll.qlMidSafe(S12,T12)</f>
         <v>#NUM!</v>
       </c>
       <c r="V12" s="236" t="e">
@@ -17363,7 +17365,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="174" t="str">
         <f>_xll.RData(M5:M58,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>Updated at 10:27:24</v>
+        <v>Updated at 11:09:33</v>
       </c>
       <c r="N4" s="171" t="s">
         <v>130</v>
@@ -17695,7 +17697,7 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="O9" s="101">
-        <v>2.4980000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="P9" s="101">
         <v>0</v>
@@ -17705,7 +17707,7 @@
       </c>
       <c r="R9" s="104">
         <f>_xll.qlMidEquivalent($N9,$O9,$P9,$Q9)</f>
-        <v>2.4940000000000002</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="S9" s="102"/>
       <c r="T9" s="103">
@@ -17713,11 +17715,11 @@
       </c>
       <c r="U9" s="102"/>
       <c r="V9" s="154">
-        <v>2.4940000000000002</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="W9" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E9,V9/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999961231E-6</v>
       </c>
       <c r="X9" s="90"/>
     </row>
@@ -17760,7 +17762,7 @@
         <v>2.4870000000000001</v>
       </c>
       <c r="O10" s="101">
-        <v>2.4929999999999999</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="P10" s="101">
         <v>0</v>
@@ -17770,7 +17772,7 @@
       </c>
       <c r="R10" s="104">
         <f>_xll.qlMidEquivalent($N10,$O10,$P10,$Q10)</f>
-        <v>2.4900000000000002</v>
+        <v>2.4910000000000001</v>
       </c>
       <c r="S10" s="102"/>
       <c r="T10" s="103">
@@ -17778,11 +17780,11 @@
       </c>
       <c r="U10" s="102"/>
       <c r="V10" s="154">
-        <v>2.4900000000000002</v>
+        <v>2.4910000000000001</v>
       </c>
       <c r="W10" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E10,V10/100,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="X10" s="90"/>
     </row>
@@ -17822,10 +17824,10 @@
         <v>AUD4MOIS=ICAA</v>
       </c>
       <c r="N11" s="101">
-        <v>2.4820000000000002</v>
+        <v>2.4849999999999999</v>
       </c>
       <c r="O11" s="101">
-        <v>2.4900000000000002</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="P11" s="101">
         <v>0</v>
@@ -17835,7 +17837,7 @@
       </c>
       <c r="R11" s="104">
         <f>_xll.qlMidEquivalent($N11,$O11,$P11,$Q11)</f>
-        <v>2.4860000000000002</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="S11" s="102"/>
       <c r="T11" s="103">
@@ -17843,11 +17845,11 @@
       </c>
       <c r="U11" s="102"/>
       <c r="V11" s="154">
-        <v>2.4860000000000002</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="W11" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E11,V11/100,Trigger)</f>
-        <v>0</v>
+        <v>3.999999999999837E-5</v>
       </c>
       <c r="X11" s="90"/>
     </row>
@@ -17887,10 +17889,10 @@
         <v>AUD5MOIS=ICAA</v>
       </c>
       <c r="N12" s="101">
-        <v>2.4769999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="O12" s="101">
-        <v>2.488</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="P12" s="101">
         <v>0</v>
@@ -17900,7 +17902,7 @@
       </c>
       <c r="R12" s="104">
         <f>_xll.qlMidEquivalent($N12,$O12,$P12,$Q12)</f>
-        <v>2.4824999999999999</v>
+        <v>2.4850000000000003</v>
       </c>
       <c r="S12" s="102"/>
       <c r="T12" s="103">
@@ -17908,11 +17910,11 @@
       </c>
       <c r="U12" s="102"/>
       <c r="V12" s="154">
-        <v>2.4824999999999999</v>
+        <v>2.4850000000000003</v>
       </c>
       <c r="W12" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E12,V12/100,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000004186E-5</v>
       </c>
       <c r="X12" s="90"/>
     </row>
@@ -17952,10 +17954,10 @@
         <v>AUD6MOIS=ICAA</v>
       </c>
       <c r="N13" s="101">
-        <v>2.472</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="O13" s="101">
-        <v>2.4830000000000001</v>
+        <v>2.4849999999999999</v>
       </c>
       <c r="P13" s="101">
         <v>0</v>
@@ -17965,7 +17967,7 @@
       </c>
       <c r="R13" s="104">
         <f>_xll.qlMidEquivalent($N13,$O13,$P13,$Q13)</f>
-        <v>2.4775</v>
+        <v>2.48</v>
       </c>
       <c r="S13" s="102"/>
       <c r="T13" s="103">
@@ -17973,11 +17975,11 @@
       </c>
       <c r="U13" s="102"/>
       <c r="V13" s="154">
-        <v>2.4775</v>
+        <v>2.48</v>
       </c>
       <c r="W13" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E13,V13/100,Trigger)</f>
-        <v>0</v>
+        <v>2.4999999999997247E-5</v>
       </c>
       <c r="X13" s="90"/>
     </row>
@@ -18147,10 +18149,10 @@
         <v>AUD9MOIS=ICAA</v>
       </c>
       <c r="N16" s="101">
-        <v>2.4670000000000001</v>
+        <v>2.4649999999999999</v>
       </c>
       <c r="O16" s="101">
-        <v>2.4780000000000002</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="P16" s="101">
         <v>0</v>
@@ -18160,7 +18162,7 @@
       </c>
       <c r="R16" s="104">
         <f>_xll.qlMidEquivalent($N16,$O16,$P16,$Q16)</f>
-        <v>2.4725000000000001</v>
+        <v>2.4699999999999998</v>
       </c>
       <c r="S16" s="102"/>
       <c r="T16" s="103">
@@ -18168,11 +18170,11 @@
       </c>
       <c r="U16" s="102"/>
       <c r="V16" s="154">
-        <v>2.4725000000000001</v>
+        <v>2.4699999999999998</v>
       </c>
       <c r="W16" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E16,V16/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.5000000000004186E-5</v>
       </c>
       <c r="X16" s="90"/>
     </row>
@@ -18342,10 +18344,10 @@
         <v>AUD12MOIS=ICAA</v>
       </c>
       <c r="N19" s="101">
-        <v>2.4670000000000001</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="O19" s="101">
-        <v>2.4780000000000002</v>
+        <v>2.48</v>
       </c>
       <c r="P19" s="101">
         <v>0</v>
@@ -18355,7 +18357,7 @@
       </c>
       <c r="R19" s="104">
         <f>_xll.qlMidEquivalent($N19,$O19,$P19,$Q19)</f>
-        <v>2.4725000000000001</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="S19" s="102"/>
       <c r="T19" s="103">
@@ -18363,11 +18365,11 @@
       </c>
       <c r="U19" s="102"/>
       <c r="V19" s="154">
-        <v>2.4725000000000001</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="W19" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E19,V19/100,Trigger)</f>
-        <v>0</v>
+        <v>2.5000000000000716E-5</v>
       </c>
       <c r="X19" s="90"/>
     </row>
@@ -19122,10 +19124,10 @@
         <v>AUD2YOIS=ICAA</v>
       </c>
       <c r="N31" s="101">
-        <v>2.58</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="O31" s="101">
-        <v>2.63</v>
+        <v>2.625</v>
       </c>
       <c r="P31" s="101">
         <v>0</v>
@@ -19135,7 +19137,7 @@
       </c>
       <c r="R31" s="104">
         <f>_xll.qlMidEquivalent($N31,$O31,$P31,$Q31)</f>
-        <v>2.605</v>
+        <v>2.6</v>
       </c>
       <c r="S31" s="102"/>
       <c r="T31" s="103">
@@ -19143,11 +19145,11 @@
       </c>
       <c r="U31" s="102"/>
       <c r="V31" s="154">
-        <v>2.605</v>
+        <v>2.6</v>
       </c>
       <c r="W31" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E31,V31/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.9999999999997963E-5</v>
       </c>
       <c r="X31" s="90"/>
     </row>
@@ -19382,10 +19384,10 @@
         <v>AUD3YOIS=ICAA</v>
       </c>
       <c r="N35" s="101">
-        <v>2.7850000000000001</v>
+        <v>2.7600000000000002</v>
       </c>
       <c r="O35" s="101">
-        <v>2.835</v>
+        <v>2.81</v>
       </c>
       <c r="P35" s="101">
         <v>0</v>
@@ -19395,7 +19397,7 @@
       </c>
       <c r="R35" s="104">
         <f>_xll.qlMidEquivalent($N35,$O35,$P35,$Q35)</f>
-        <v>2.81</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="S35" s="102"/>
       <c r="T35" s="103">
@@ -19403,11 +19405,11 @@
       </c>
       <c r="U35" s="102"/>
       <c r="V35" s="154">
-        <v>2.81</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="W35" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E35,V35/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.5000000000000022E-4</v>
       </c>
       <c r="X35" s="90"/>
     </row>
@@ -21207,7 +21209,7 @@
       <c r="N4" s="50"/>
       <c r="O4" s="174" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 10:27:25</v>
+        <v>Updated at 11:09:33</v>
       </c>
       <c r="P4" s="171" t="s">
         <v>130</v>
@@ -22275,20 +22277,20 @@
         <v>AUD1YMTOIS=ICAA</v>
       </c>
       <c r="P19" s="101">
-        <v>2.4500000000000002</v>
+        <v>2.4580000000000002</v>
       </c>
       <c r="Q19" s="101">
-        <v>2.5</v>
+        <v>2.508</v>
       </c>
       <c r="R19" s="101">
         <v>0</v>
       </c>
       <c r="S19" s="101">
-        <v>2.4729999999999999</v>
+        <v>2.4830000000000001</v>
       </c>
       <c r="T19" s="104">
         <f>_xll.qlMidEquivalent($P19,$Q19,$R19,$S19)</f>
-        <v>2.4750000000000001</v>
+        <v>2.4830000000000001</v>
       </c>
       <c r="U19" s="102"/>
       <c r="V19" s="103">
@@ -22296,11 +22298,11 @@
       </c>
       <c r="W19" s="102"/>
       <c r="X19" s="154">
-        <v>2.4750000000000001</v>
+        <v>2.4830000000000001</v>
       </c>
       <c r="Y19" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F19,X19/100,Trigger)</f>
-        <v>0</v>
+        <v>8.000000000000021E-5</v>
       </c>
       <c r="Z19" s="90"/>
     </row>
@@ -22701,20 +22703,20 @@
         <v>AUD18MMTOIS=ICAA</v>
       </c>
       <c r="P25" s="101">
-        <v>2.48</v>
+        <v>2.4849999999999999</v>
       </c>
       <c r="Q25" s="101">
-        <v>2.5300000000000002</v>
+        <v>2.5350000000000001</v>
       </c>
       <c r="R25" s="101">
         <v>0</v>
       </c>
       <c r="S25" s="101">
-        <v>2.5</v>
+        <v>2.5100000000000002</v>
       </c>
       <c r="T25" s="104">
         <f>_xll.qlMidEquivalent($P25,$Q25,$R25,$S25)</f>
-        <v>2.5049999999999999</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="U25" s="102"/>
       <c r="V25" s="103">
@@ -22722,11 +22724,11 @@
       </c>
       <c r="W25" s="102"/>
       <c r="X25" s="154">
-        <v>2.5049999999999999</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="Y25" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F25,X25/100,Trigger)</f>
-        <v>0</v>
+        <v>4.9999999999997963E-5</v>
       </c>
       <c r="Z25" s="90"/>
     </row>
@@ -23411,20 +23413,20 @@
         <v>AUD3YMTOIS=ICAA</v>
       </c>
       <c r="P35" s="101">
-        <v>2.7149999999999999</v>
+        <v>2.6850000000000001</v>
       </c>
       <c r="Q35" s="101">
-        <v>2.7650000000000001</v>
+        <v>2.7349999999999999</v>
       </c>
       <c r="R35" s="101">
         <v>0</v>
       </c>
       <c r="S35" s="101">
-        <v>2.73</v>
+        <v>2.7050000000000001</v>
       </c>
       <c r="T35" s="104">
         <f>_xll.qlMidEquivalent($P35,$Q35,$R35,$S35)</f>
-        <v>2.74</v>
+        <v>2.71</v>
       </c>
       <c r="U35" s="102"/>
       <c r="V35" s="103">
@@ -23432,11 +23434,11 @@
       </c>
       <c r="W35" s="102"/>
       <c r="X35" s="154">
-        <v>2.74</v>
+        <v>2.71</v>
       </c>
       <c r="Y35" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>0</v>
+        <v>-3.0000000000000165E-4</v>
       </c>
       <c r="Z35" s="90"/>
     </row>
@@ -23695,20 +23697,20 @@
         <v>AUD4YMTOIS=ICAA</v>
       </c>
       <c r="P39" s="101">
-        <v>2.84</v>
+        <v>2.8180000000000001</v>
       </c>
       <c r="Q39" s="101">
-        <v>2.89</v>
+        <v>2.8679999999999999</v>
       </c>
       <c r="R39" s="101">
         <v>0</v>
       </c>
       <c r="S39" s="101">
-        <v>2.8650000000000002</v>
+        <v>2.84</v>
       </c>
       <c r="T39" s="104">
         <f>_xll.qlMidEquivalent($P39,$Q39,$R39,$S39)</f>
-        <v>2.8650000000000002</v>
+        <v>2.843</v>
       </c>
       <c r="U39" s="102"/>
       <c r="V39" s="103">
@@ -23716,11 +23718,11 @@
       </c>
       <c r="W39" s="102"/>
       <c r="X39" s="154">
-        <v>2.8650000000000002</v>
+        <v>2.843</v>
       </c>
       <c r="Y39" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F39,X39/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.2000000000000144E-4</v>
       </c>
       <c r="Z39" s="90"/>
     </row>
@@ -23979,20 +23981,20 @@
         <v>AUD5YMTOIS=ICAA</v>
       </c>
       <c r="P43" s="101">
-        <v>2.9849999999999999</v>
+        <v>2.948</v>
       </c>
       <c r="Q43" s="101">
-        <v>3.0350000000000001</v>
+        <v>2.9980000000000002</v>
       </c>
       <c r="R43" s="101">
         <v>0</v>
       </c>
       <c r="S43" s="101">
-        <v>3.0100000000000002</v>
+        <v>2.97</v>
       </c>
       <c r="T43" s="104">
         <f>_xll.qlMidEquivalent($P43,$Q43,$R43,$S43)</f>
-        <v>3.01</v>
+        <v>2.9729999999999999</v>
       </c>
       <c r="U43" s="102"/>
       <c r="V43" s="103">
@@ -24000,11 +24002,11 @@
       </c>
       <c r="W43" s="102"/>
       <c r="X43" s="154">
-        <v>3.01</v>
+        <v>2.9729999999999999</v>
       </c>
       <c r="Y43" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F43,X43/100,Trigger)</f>
-        <v>0</v>
+        <v>-3.699999999999988E-4</v>
       </c>
       <c r="Z43" s="90"/>
     </row>
@@ -24050,20 +24052,20 @@
         <v>AUD6YMTOIS=ICAA</v>
       </c>
       <c r="P44" s="101">
-        <v>3.1350000000000002</v>
+        <v>3.0830000000000002</v>
       </c>
       <c r="Q44" s="101">
-        <v>3.1850000000000001</v>
+        <v>3.133</v>
       </c>
       <c r="R44" s="101">
         <v>0</v>
       </c>
       <c r="S44" s="101">
-        <v>3.16</v>
+        <v>3.105</v>
       </c>
       <c r="T44" s="104">
         <f>_xll.qlMidEquivalent($P44,$Q44,$R44,$S44)</f>
-        <v>3.16</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="U44" s="102"/>
       <c r="V44" s="103">
@@ -24071,11 +24073,11 @@
       </c>
       <c r="W44" s="102"/>
       <c r="X44" s="154">
-        <v>3.16</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="Y44" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F44,X44/100,Trigger)</f>
-        <v>0</v>
+        <v>-5.200000000000031E-4</v>
       </c>
       <c r="Z44" s="90"/>
     </row>
@@ -24121,20 +24123,20 @@
         <v>AUD7YMTOIS=ICAA</v>
       </c>
       <c r="P45" s="101">
-        <v>3.2829999999999999</v>
+        <v>3.218</v>
       </c>
       <c r="Q45" s="101">
-        <v>3.3330000000000002</v>
+        <v>3.2680000000000002</v>
       </c>
       <c r="R45" s="101">
         <v>0</v>
       </c>
       <c r="S45" s="101">
-        <v>3.3080000000000003</v>
+        <v>3.24</v>
       </c>
       <c r="T45" s="104">
         <f>_xll.qlMidEquivalent($P45,$Q45,$R45,$S45)</f>
-        <v>3.3079999999999998</v>
+        <v>3.2430000000000003</v>
       </c>
       <c r="U45" s="102"/>
       <c r="V45" s="103">
@@ -24142,11 +24144,11 @@
       </c>
       <c r="W45" s="102"/>
       <c r="X45" s="154">
-        <v>3.3079999999999998</v>
+        <v>3.2430000000000003</v>
       </c>
       <c r="Y45" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F45,X45/100,Trigger)</f>
-        <v>0</v>
+        <v>-6.499999999999978E-4</v>
       </c>
       <c r="Z45" s="90"/>
     </row>
@@ -24192,20 +24194,20 @@
         <v>AUD8YMTOIS=ICAA</v>
       </c>
       <c r="P46" s="101">
-        <v>3.383</v>
+        <v>3.3080000000000003</v>
       </c>
       <c r="Q46" s="101">
-        <v>3.4330000000000003</v>
+        <v>3.3580000000000001</v>
       </c>
       <c r="R46" s="101">
         <v>0</v>
       </c>
       <c r="S46" s="101">
-        <v>3.4079999999999999</v>
+        <v>3.33</v>
       </c>
       <c r="T46" s="104">
         <f>_xll.qlMidEquivalent($P46,$Q46,$R46,$S46)</f>
-        <v>3.4080000000000004</v>
+        <v>3.3330000000000002</v>
       </c>
       <c r="U46" s="102"/>
       <c r="V46" s="103">
@@ -24213,11 +24215,11 @@
       </c>
       <c r="W46" s="102"/>
       <c r="X46" s="154">
-        <v>3.4080000000000004</v>
+        <v>3.3330000000000002</v>
       </c>
       <c r="Y46" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F46,X46/100,Trigger)</f>
-        <v>0</v>
+        <v>-7.5000000000000761E-4</v>
       </c>
       <c r="Z46" s="90"/>
     </row>
@@ -24263,20 +24265,20 @@
         <v>AUD9YMTOIS=ICAA</v>
       </c>
       <c r="P47" s="101">
-        <v>3.4830000000000001</v>
+        <v>3.3980000000000001</v>
       </c>
       <c r="Q47" s="101">
-        <v>3.5329999999999999</v>
+        <v>3.448</v>
       </c>
       <c r="R47" s="101">
         <v>0</v>
       </c>
       <c r="S47" s="101">
-        <v>3.508</v>
+        <v>3.423</v>
       </c>
       <c r="T47" s="104">
         <f>_xll.qlMidEquivalent($P47,$Q47,$R47,$S47)</f>
-        <v>3.508</v>
+        <v>3.423</v>
       </c>
       <c r="U47" s="102"/>
       <c r="V47" s="103">
@@ -24284,11 +24286,11 @@
       </c>
       <c r="W47" s="102"/>
       <c r="X47" s="154">
-        <v>3.508</v>
+        <v>3.423</v>
       </c>
       <c r="Y47" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F47,X47/100,Trigger)</f>
-        <v>0</v>
+        <v>-8.4999999999999659E-4</v>
       </c>
       <c r="Z47" s="90"/>
     </row>
@@ -24334,20 +24336,20 @@
         <v>AUD10YMTOIS=ICAA</v>
       </c>
       <c r="P48" s="101">
-        <v>3.5830000000000002</v>
+        <v>3.488</v>
       </c>
       <c r="Q48" s="101">
-        <v>3.633</v>
+        <v>3.5380000000000003</v>
       </c>
       <c r="R48" s="101">
         <v>0</v>
       </c>
       <c r="S48" s="101">
-        <v>3.6080000000000001</v>
+        <v>3.5129999999999999</v>
       </c>
       <c r="T48" s="104">
         <f>_xll.qlMidEquivalent($P48,$Q48,$R48,$S48)</f>
-        <v>3.6080000000000001</v>
+        <v>3.5129999999999999</v>
       </c>
       <c r="U48" s="102"/>
       <c r="V48" s="103">
@@ -24355,11 +24357,11 @@
       </c>
       <c r="W48" s="102"/>
       <c r="X48" s="154">
-        <v>3.6080000000000001</v>
+        <v>3.5129999999999999</v>
       </c>
       <c r="Y48" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F48,X48/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.4999999999999946E-4</v>
       </c>
       <c r="Z48" s="90"/>
     </row>
@@ -24405,20 +24407,20 @@
         <v>AUD12YMTOIS=ICAA</v>
       </c>
       <c r="P49" s="101">
-        <v>3.7330000000000001</v>
+        <v>3.6230000000000002</v>
       </c>
       <c r="Q49" s="101">
-        <v>3.7829999999999999</v>
+        <v>3.673</v>
       </c>
       <c r="R49" s="101">
         <v>0</v>
       </c>
       <c r="S49" s="101">
-        <v>3.758</v>
+        <v>3.6480000000000001</v>
       </c>
       <c r="T49" s="104">
         <f>_xll.qlMidEquivalent($P49,$Q49,$R49,$S49)</f>
-        <v>3.758</v>
+        <v>3.6480000000000001</v>
       </c>
       <c r="U49" s="102"/>
       <c r="V49" s="103">
@@ -24426,11 +24428,11 @@
       </c>
       <c r="W49" s="102"/>
       <c r="X49" s="154">
-        <v>3.758</v>
+        <v>3.6480000000000001</v>
       </c>
       <c r="Y49" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F49,X49/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.1000000000000038E-3</v>
       </c>
       <c r="Z49" s="90"/>
     </row>
@@ -24476,20 +24478,20 @@
         <v>AUD15YMTOIS=ICAA</v>
       </c>
       <c r="P50" s="101">
-        <v>3.883</v>
+        <v>3.77</v>
       </c>
       <c r="Q50" s="101">
-        <v>3.9330000000000003</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="R50" s="101">
         <v>0</v>
       </c>
       <c r="S50" s="101">
-        <v>3.9079999999999999</v>
+        <v>3.7949999999999999</v>
       </c>
       <c r="T50" s="104">
         <f>_xll.qlMidEquivalent($P50,$Q50,$R50,$S50)</f>
-        <v>3.9080000000000004</v>
+        <v>3.7949999999999999</v>
       </c>
       <c r="U50" s="102"/>
       <c r="V50" s="103">
@@ -24497,11 +24499,11 @@
       </c>
       <c r="W50" s="102"/>
       <c r="X50" s="154">
-        <v>3.9080000000000004</v>
+        <v>3.7949999999999999</v>
       </c>
       <c r="Y50" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F50,X50/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.130000000000006E-3</v>
       </c>
       <c r="Z50" s="90"/>
     </row>
@@ -24547,20 +24549,20 @@
         <v>AUD20YMTOIS=ICAA</v>
       </c>
       <c r="P51" s="101">
-        <v>4.0129999999999999</v>
+        <v>3.915</v>
       </c>
       <c r="Q51" s="101">
-        <v>4.0629999999999997</v>
+        <v>3.9650000000000003</v>
       </c>
       <c r="R51" s="101">
         <v>0</v>
       </c>
       <c r="S51" s="101">
-        <v>4.0380000000000003</v>
+        <v>3.94</v>
       </c>
       <c r="T51" s="104">
         <f>_xll.qlMidEquivalent($P51,$Q51,$R51,$S51)</f>
-        <v>4.0380000000000003</v>
+        <v>3.9400000000000004</v>
       </c>
       <c r="U51" s="102"/>
       <c r="V51" s="103">
@@ -24568,11 +24570,11 @@
       </c>
       <c r="W51" s="102"/>
       <c r="X51" s="154">
-        <v>4.0380000000000003</v>
+        <v>3.9400000000000004</v>
       </c>
       <c r="Y51" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F51,X51/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.7999999999999476E-4</v>
       </c>
       <c r="Z51" s="90"/>
     </row>
@@ -24618,20 +24620,20 @@
         <v>AUD25YMTOIS=ICAA</v>
       </c>
       <c r="P52" s="101">
-        <v>4.0780000000000003</v>
+        <v>3.9849999999999999</v>
       </c>
       <c r="Q52" s="101">
-        <v>4.1280000000000001</v>
+        <v>4.0350000000000001</v>
       </c>
       <c r="R52" s="101">
         <v>0</v>
       </c>
       <c r="S52" s="101">
-        <v>4.1029999999999998</v>
+        <v>4.01</v>
       </c>
       <c r="T52" s="104">
         <f>_xll.qlMidEquivalent($P52,$Q52,$R52,$S52)</f>
-        <v>4.1029999999999998</v>
+        <v>4.01</v>
       </c>
       <c r="U52" s="102"/>
       <c r="V52" s="103">
@@ -24639,11 +24641,11 @@
       </c>
       <c r="W52" s="102"/>
       <c r="X52" s="154">
-        <v>4.1029999999999998</v>
+        <v>4.01</v>
       </c>
       <c r="Y52" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F52,X52/100,Trigger)</f>
-        <v>0</v>
+        <v>-9.3000000000000027E-4</v>
       </c>
       <c r="Z52" s="90"/>
     </row>
@@ -24760,20 +24762,20 @@
         <v>AUD30YMTOIS=ICAA</v>
       </c>
       <c r="P54" s="101">
-        <v>4.1029999999999998</v>
+        <v>4.0200000000000005</v>
       </c>
       <c r="Q54" s="101">
-        <v>4.1530000000000005</v>
+        <v>4.07</v>
       </c>
       <c r="R54" s="101">
         <v>0</v>
       </c>
       <c r="S54" s="101">
-        <v>4.1280000000000001</v>
+        <v>4.0449999999999999</v>
       </c>
       <c r="T54" s="104">
         <f>_xll.qlMidEquivalent($P54,$Q54,$R54,$S54)</f>
-        <v>4.1280000000000001</v>
+        <v>4.0449999999999999</v>
       </c>
       <c r="U54" s="102"/>
       <c r="V54" s="103">
@@ -24781,11 +24783,11 @@
       </c>
       <c r="W54" s="102"/>
       <c r="X54" s="154">
-        <v>4.1280000000000001</v>
+        <v>4.0449999999999999</v>
       </c>
       <c r="Y54" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F54,X54/100,Trigger)</f>
-        <v>0</v>
+        <v>-8.3000000000000435E-4</v>
       </c>
       <c r="Z54" s="90"/>
     </row>
@@ -25336,7 +25338,7 @@
       <c r="Q3" s="124"/>
       <c r="R3" s="123">
         <f>_xll.ohTrigger(R5:R18)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3" s="90"/>
       <c r="T3" s="3"/>
@@ -25366,7 +25368,7 @@
       <c r="I4" s="120"/>
       <c r="J4" s="98" t="str">
         <f>_xll.RData(J6:J22,K4:L4,,ReutersRtMode,,K6)</f>
-        <v>Updated at 10:27:24</v>
+        <v>Updated at 11:09:33</v>
       </c>
       <c r="K4" s="98" t="s">
         <v>130</v>
@@ -26663,7 +26665,7 @@
       <c r="M4" s="29"/>
       <c r="N4" s="307" t="str">
         <f>_xll.RData(N5:N19,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Updated at 10:27:24</v>
+        <v>Updated at 11:09:33</v>
       </c>
       <c r="O4" s="121" t="s">
         <v>130</v>
@@ -26737,20 +26739,20 @@
         <v>AUD1X4F=</v>
       </c>
       <c r="O5" s="136">
+        <v>2.62</v>
+      </c>
+      <c r="P5" s="136">
         <v>2.65</v>
-      </c>
-      <c r="P5" s="136">
-        <v>2.68</v>
       </c>
       <c r="Q5" s="105">
         <v>0</v>
       </c>
       <c r="R5" s="136">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="S5" s="313">
         <f>_xll.qlMidSafe($O5,$P5)</f>
-        <v>2.665</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="T5" s="102"/>
       <c r="U5" s="138">
@@ -26759,11 +26761,11 @@
       <c r="V5" s="102"/>
       <c r="W5" s="161">
         <f t="array" ref="W5:W19">QuoteLive</f>
-        <v>2.665</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="X5" s="113">
         <f>_xll.qlSimpleQuoteSetValue(E5,W5/100,Trigger)</f>
-        <v>0</v>
+        <v>-3.0000000000000165E-4</v>
       </c>
       <c r="Y5" s="90"/>
       <c r="Z5" s="3"/>
@@ -26810,20 +26812,20 @@
         <v>AUD2X5F=</v>
       </c>
       <c r="O6" s="136">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="P6" s="136">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" s="105">
         <v>0</v>
       </c>
       <c r="R6" s="136">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="S6" s="313">
         <f>_xll.qlMidSafe($O6,$P6)</f>
-        <v>2.6550000000000002</v>
+        <v>2.6150000000000002</v>
       </c>
       <c r="T6" s="102"/>
       <c r="U6" s="134">
@@ -26831,11 +26833,11 @@
       </c>
       <c r="V6" s="102"/>
       <c r="W6" s="154">
-        <v>2.6550000000000002</v>
+        <v>2.6150000000000002</v>
       </c>
       <c r="X6" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E6,W6/100,Trigger)</f>
-        <v>0</v>
+        <v>-4.0000000000000105E-4</v>
       </c>
       <c r="Y6" s="90"/>
       <c r="Z6" s="3"/>
@@ -26882,20 +26884,20 @@
         <v>AUD3X6F=</v>
       </c>
       <c r="O7" s="136">
+        <v>2.59</v>
+      </c>
+      <c r="P7" s="136">
         <v>2.62</v>
-      </c>
-      <c r="P7" s="136">
-        <v>2.65</v>
       </c>
       <c r="Q7" s="105">
         <v>0</v>
       </c>
       <c r="R7" s="136">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="S7" s="313">
         <f>_xll.qlMidSafe($O7,$P7)</f>
-        <v>2.6349999999999998</v>
+        <v>2.605</v>
       </c>
       <c r="T7" s="102"/>
       <c r="U7" s="134">
@@ -26903,11 +26905,11 @@
       </c>
       <c r="V7" s="102"/>
       <c r="W7" s="154">
-        <v>2.6349999999999998</v>
+        <v>2.605</v>
       </c>
       <c r="X7" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E7,W7/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.9999999999999818E-4</v>
       </c>
       <c r="Y7" s="90"/>
       <c r="Z7" s="3"/>
@@ -26954,20 +26956,20 @@
         <v>AUD4X7F=</v>
       </c>
       <c r="O8" s="136">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="P8" s="136">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="Q8" s="105">
         <v>0</v>
       </c>
       <c r="R8" s="136">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="S8" s="313">
         <f>_xll.qlMidSafe($O8,$P8)</f>
-        <v>2.6150000000000002</v>
+        <v>2.5949999999999998</v>
       </c>
       <c r="T8" s="102"/>
       <c r="U8" s="134">
@@ -26975,11 +26977,11 @@
       </c>
       <c r="V8" s="102"/>
       <c r="W8" s="154">
-        <v>2.6150000000000002</v>
+        <v>2.5949999999999998</v>
       </c>
       <c r="X8" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E8,W8/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.0000000000000573E-4</v>
       </c>
       <c r="Y8" s="90"/>
       <c r="Z8" s="3"/>
@@ -27026,20 +27028,20 @@
         <v>AUD5X8F=</v>
       </c>
       <c r="O9" s="136">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="P9" s="136">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q9" s="105">
         <v>0</v>
       </c>
       <c r="R9" s="136">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="S9" s="313">
         <f>_xll.qlMidSafe($O9,$P9)</f>
-        <v>2.605</v>
+        <v>2.585</v>
       </c>
       <c r="T9" s="102"/>
       <c r="U9" s="134">
@@ -27047,11 +27049,11 @@
       </c>
       <c r="V9" s="102"/>
       <c r="W9" s="154">
-        <v>2.605</v>
+        <v>2.585</v>
       </c>
       <c r="X9" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E9,W9/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.0000000000000226E-4</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="3"/>
@@ -27098,20 +27100,20 @@
         <v>AUD6X9F=</v>
       </c>
       <c r="O10" s="136">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="P10" s="136">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" s="105">
         <v>0</v>
       </c>
       <c r="R10" s="136">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="S10" s="313">
         <f>_xll.qlMidSafe($O10,$P10)</f>
-        <v>2.605</v>
+        <v>2.585</v>
       </c>
       <c r="T10" s="102"/>
       <c r="U10" s="134">
@@ -27119,11 +27121,11 @@
       </c>
       <c r="V10" s="102"/>
       <c r="W10" s="154">
-        <v>2.605</v>
+        <v>2.585</v>
       </c>
       <c r="X10" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E10,W10/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.0000000000000226E-4</v>
       </c>
       <c r="Y10" s="90"/>
       <c r="Z10" s="3"/>
@@ -27171,20 +27173,20 @@
         <v>AUD1X7F=</v>
       </c>
       <c r="O11" s="318">
+        <v>2.61</v>
+      </c>
+      <c r="P11" s="318">
         <v>2.65</v>
-      </c>
-      <c r="P11" s="318">
-        <v>2.69</v>
       </c>
       <c r="Q11" s="315">
         <v>0</v>
       </c>
       <c r="R11" s="318">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="S11" s="319">
         <f>_xll.qlMidSafe($O11,$P11)</f>
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="T11" s="102"/>
       <c r="U11" s="309">
@@ -27192,11 +27194,11 @@
       </c>
       <c r="V11" s="102"/>
       <c r="W11" s="310">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="X11" s="311">
         <f>_xll.qlSimpleQuoteSetValue(E11,W11/100,Trigger)</f>
-        <v>0</v>
+        <v>-3.9999999999999758E-4</v>
       </c>
       <c r="Y11" s="90"/>
       <c r="Z11" s="3"/>
@@ -27244,20 +27246,20 @@
         <v>AUD2X8F=</v>
       </c>
       <c r="O12" s="136">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="P12" s="136">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="Q12" s="105">
         <v>0</v>
       </c>
       <c r="R12" s="136">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="S12" s="313">
         <f>_xll.qlMidSafe($O12,$P12)</f>
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="T12" s="102"/>
       <c r="U12" s="134">
@@ -27265,11 +27267,11 @@
       </c>
       <c r="V12" s="102"/>
       <c r="W12" s="154">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="X12" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E12,W12/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.9999999999999818E-4</v>
       </c>
       <c r="Y12" s="90"/>
       <c r="Z12" s="3"/>
@@ -27317,20 +27319,20 @@
         <v>AUD3X9F=</v>
       </c>
       <c r="O13" s="136">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="P13" s="136">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="Q13" s="105">
         <v>0</v>
       </c>
       <c r="R13" s="136">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="S13" s="313">
         <f>_xll.qlMidSafe($O13,$P13)</f>
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="T13" s="102"/>
       <c r="U13" s="134">
@@ -27338,11 +27340,11 @@
       </c>
       <c r="V13" s="102"/>
       <c r="W13" s="154">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="X13" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E13,W13/100,Trigger)</f>
-        <v>0</v>
+        <v>-3.0000000000000165E-4</v>
       </c>
       <c r="Y13" s="90"/>
       <c r="Z13" s="3"/>
@@ -27390,20 +27392,20 @@
         <v>AUD4X10F=</v>
       </c>
       <c r="O14" s="136">
-        <v>2.62</v>
+        <v>2.59</v>
       </c>
       <c r="P14" s="136">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="Q14" s="105">
         <v>0</v>
       </c>
       <c r="R14" s="136">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="S14" s="313">
         <f>_xll.qlMidSafe($O14,$P14)</f>
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="T14" s="102"/>
       <c r="U14" s="134">
@@ -27411,11 +27413,11 @@
       </c>
       <c r="V14" s="102"/>
       <c r="W14" s="154">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="X14" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E14,W14/100,Trigger)</f>
-        <v>0</v>
+        <v>-3.0000000000000165E-4</v>
       </c>
       <c r="Y14" s="90"/>
       <c r="Z14" s="3"/>
@@ -27463,20 +27465,20 @@
         <v>AUD5X11F=</v>
       </c>
       <c r="O15" s="136">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="P15" s="136">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="Q15" s="105">
         <v>0</v>
       </c>
       <c r="R15" s="136">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="S15" s="313">
         <f>_xll.qlMidSafe($O15,$P15)</f>
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="T15" s="102"/>
       <c r="U15" s="134">
@@ -27484,11 +27486,11 @@
       </c>
       <c r="V15" s="102"/>
       <c r="W15" s="154">
-        <v>2.63</v>
+        <v>2.61</v>
       </c>
       <c r="X15" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E15,W15/100,Trigger)</f>
-        <v>0</v>
+        <v>-2.0000000000000226E-4</v>
       </c>
       <c r="Y15" s="90"/>
       <c r="Z15" s="3"/>
@@ -27536,10 +27538,10 @@
         <v>AUD6X12F=</v>
       </c>
       <c r="O16" s="136">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="P16" s="136">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q16" s="105">
         <v>0</v>
@@ -27549,7 +27551,7 @@
       </c>
       <c r="S16" s="313">
         <f>_xll.qlMidSafe($O16,$P16)</f>
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T16" s="102"/>
       <c r="U16" s="134">
@@ -27557,11 +27559,11 @@
       </c>
       <c r="V16" s="102"/>
       <c r="W16" s="154">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="X16" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E16,W16/100,Trigger)</f>
-        <v>0</v>
+        <v>-1.9999999999999879E-4</v>
       </c>
       <c r="Y16" s="90"/>
       <c r="Z16" s="3"/>
@@ -27966,7 +27968,7 @@
       </c>
       <c r="O2" s="98" t="str">
         <f>_xll.RData(O3:O14,P2:T2,"RTFEED:IDN",ReutersRtMode,,P3)</f>
-        <v>Updated at 10:27:24</v>
+        <v>Updated at 11:09:33</v>
       </c>
       <c r="P2" s="143" t="s">
         <v>150</v>
@@ -28016,15 +28018,15 @@
       </c>
       <c r="D3" s="64" t="str">
         <f t="array" ref="D3:D14">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C14)</f>
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E3" s="57" t="str">
         <f t="shared" ref="E3:E14" si="0">Currency&amp;$D$1&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>AUDFUT1MN4_Quote</v>
+        <v>AUDFUT1MQ4_Quote</v>
       </c>
       <c r="F3" s="63" t="str">
         <f>_xll.qlSimpleQuote(E3,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MN4_Quote#0000</v>
+        <v>AUDFUT1MQ4_Quote#0000</v>
       </c>
       <c r="G3" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -28040,11 +28042,11 @@
       </c>
       <c r="M3" s="114" t="str">
         <f t="array" ref="M3:M14">_xll.qlIMMcode(FuturesDates)</f>
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="N3" s="164">
         <f t="array" ref="N3:N14">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,$L3:$L14)</f>
-        <v>41836</v>
+        <v>41871</v>
       </c>
       <c r="O3" s="114" t="e">
         <f t="array" ref="O3:O14">VLOOKUP(Currency,LiffeCodes,2)&amp;FuturesCodes</f>
@@ -28124,15 +28126,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="58" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E4" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MQ4_Quote</v>
+        <v>AUDFUT1MU4_Quote</v>
       </c>
       <c r="F4" s="56" t="str">
         <f>_xll.qlSimpleQuote(E4,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MQ4_Quote#0000</v>
+        <v>AUDFUT1MU4_Quote#0000</v>
       </c>
       <c r="G4" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -28147,10 +28149,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="101" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="N4" s="157">
-        <v>41871</v>
+        <v>41899</v>
       </c>
       <c r="O4" s="101" t="e">
         <v>#NAME?</v>
@@ -28201,15 +28203,15 @@
       </c>
       <c r="AK4" s="64" t="str">
         <f t="array" ref="AK4:AK15">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$AJ4:$AJ123)</f>
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="AL4" s="93" t="str">
         <f t="shared" ref="AL4:AL15" si="1">Currency&amp;"FUT"&amp;$AN$1&amp;$AK4&amp;QuoteSuffix</f>
-        <v>AUDFUT1MN4_Quote</v>
+        <v>AUDFUT1MQ4_Quote</v>
       </c>
       <c r="AM4" s="94" t="str">
         <f t="shared" ref="AM4:AM15" si="2">Currency&amp;"FUT"&amp;$AN$1&amp;$AK4&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>AUDFUT1MN4ConvAdj_Quote</v>
+        <v>AUDFUT1MQ4ConvAdj_Quote</v>
       </c>
       <c r="AN4" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM4,IborIndex,$AK4,$AL4,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -28217,7 +28219,7 @@
       </c>
       <c r="AO4" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN4)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MQ4_Quote'</v>
       </c>
       <c r="AP4" s="168"/>
     </row>
@@ -28230,15 +28232,15 @@
         <v>0</v>
       </c>
       <c r="D5" s="58" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E5" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MU4_Quote</v>
+        <v>AUDFUT1MV4_Quote</v>
       </c>
       <c r="F5" s="56" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MU4_Quote#0000</v>
+        <v>AUDFUT1MV4_Quote#0000</v>
       </c>
       <c r="G5" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -28253,10 +28255,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="101" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="N5" s="157">
-        <v>41899</v>
+        <v>41927</v>
       </c>
       <c r="O5" s="101" t="e">
         <v>#NAME?</v>
@@ -28306,15 +28308,15 @@
         <v>0</v>
       </c>
       <c r="AK5" s="58" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="AL5" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MQ4_Quote</v>
+        <v>AUDFUT1MU4_Quote</v>
       </c>
       <c r="AM5" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MQ4ConvAdj_Quote</v>
+        <v>AUDFUT1MU4ConvAdj_Quote</v>
       </c>
       <c r="AN5" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM5,IborIndex,$AK5,$AL5,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -28322,7 +28324,7 @@
       </c>
       <c r="AO5" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN5)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MU4_Quote'</v>
       </c>
       <c r="AP5" s="168"/>
     </row>
@@ -28335,15 +28337,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="58" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E6" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MV4_Quote</v>
+        <v>AUDFUT1MX4_Quote</v>
       </c>
       <c r="F6" s="56" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MV4_Quote#0000</v>
+        <v>AUDFUT1MX4_Quote#0000</v>
       </c>
       <c r="G6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -28358,10 +28360,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="101" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="N6" s="157">
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="O6" s="101" t="e">
         <v>#NAME?</v>
@@ -28411,15 +28413,15 @@
         <v>0</v>
       </c>
       <c r="AK6" s="58" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="AL6" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MU4_Quote</v>
+        <v>AUDFUT1MV4_Quote</v>
       </c>
       <c r="AM6" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MU4ConvAdj_Quote</v>
+        <v>AUDFUT1MV4ConvAdj_Quote</v>
       </c>
       <c r="AN6" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM6,IborIndex,$AK6,$AL6,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -28427,7 +28429,7 @@
       </c>
       <c r="AO6" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN6)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MV4_Quote'</v>
       </c>
       <c r="AP6" s="168"/>
       <c r="AQ6" s="210"/>
@@ -28441,15 +28443,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="58" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E7" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MX4_Quote</v>
+        <v>AUDFUT1MZ4_Quote</v>
       </c>
       <c r="F7" s="56" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MX4_Quote#0000</v>
+        <v>AUDFUT1MZ4_Quote#0000</v>
       </c>
       <c r="G7" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -28464,10 +28466,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="101" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="N7" s="157">
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="O7" s="101" t="e">
         <v>#NAME?</v>
@@ -28517,15 +28519,15 @@
         <v>0</v>
       </c>
       <c r="AK7" s="58" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="AL7" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MV4_Quote</v>
+        <v>AUDFUT1MX4_Quote</v>
       </c>
       <c r="AM7" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MV4ConvAdj_Quote</v>
+        <v>AUDFUT1MX4ConvAdj_Quote</v>
       </c>
       <c r="AN7" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM7,IborIndex,$AK7,$AL7,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -28533,7 +28535,7 @@
       </c>
       <c r="AO7" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN7)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MX4_Quote'</v>
       </c>
       <c r="AP7" s="168"/>
     </row>
@@ -28546,15 +28548,15 @@
         <v>0</v>
       </c>
       <c r="D8" s="58" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E8" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MZ4_Quote</v>
+        <v>AUDFUT1MF5_Quote</v>
       </c>
       <c r="F8" s="56" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MZ4_Quote#0000</v>
+        <v>AUDFUT1MF5_Quote#0000</v>
       </c>
       <c r="G8" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -28569,10 +28571,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="101" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="N8" s="157">
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="O8" s="101" t="e">
         <v>#NAME?</v>
@@ -28622,15 +28624,15 @@
         <v>0</v>
       </c>
       <c r="AK8" s="58" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="AL8" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MX4_Quote</v>
+        <v>AUDFUT1MZ4_Quote</v>
       </c>
       <c r="AM8" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MX4ConvAdj_Quote</v>
+        <v>AUDFUT1MZ4ConvAdj_Quote</v>
       </c>
       <c r="AN8" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM8,IborIndex,$AK8,$AL8,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -28638,7 +28640,7 @@
       </c>
       <c r="AO8" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN8)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MZ4_Quote'</v>
       </c>
       <c r="AP8" s="168"/>
     </row>
@@ -28651,15 +28653,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="58" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E9" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MF5_Quote</v>
+        <v>AUDFUT1MG5_Quote</v>
       </c>
       <c r="F9" s="56" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MF5_Quote#0000</v>
+        <v>AUDFUT1MG5_Quote#0000</v>
       </c>
       <c r="G9" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -28674,10 +28676,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="101" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="N9" s="157">
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="O9" s="101" t="e">
         <v>#NAME?</v>
@@ -28727,15 +28729,15 @@
         <v>0</v>
       </c>
       <c r="AK9" s="58" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="AL9" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MZ4_Quote</v>
+        <v>AUDFUT1MF5_Quote</v>
       </c>
       <c r="AM9" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MZ4ConvAdj_Quote</v>
+        <v>AUDFUT1MF5ConvAdj_Quote</v>
       </c>
       <c r="AN9" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM9,IborIndex,$AK9,$AL9,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -28743,7 +28745,7 @@
       </c>
       <c r="AO9" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN9)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MF5_Quote'</v>
       </c>
       <c r="AP9" s="168"/>
     </row>
@@ -28756,15 +28758,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="58" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E10" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MG5_Quote</v>
+        <v>AUDFUT1MH5_Quote</v>
       </c>
       <c r="F10" s="56" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MG5_Quote#0000</v>
+        <v>AUDFUT1MH5_Quote#0000</v>
       </c>
       <c r="G10" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -28779,10 +28781,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="101" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="N10" s="157">
-        <v>42053</v>
+        <v>42081</v>
       </c>
       <c r="O10" s="101" t="e">
         <v>#NAME?</v>
@@ -28832,15 +28834,15 @@
         <v>0</v>
       </c>
       <c r="AK10" s="58" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="AL10" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MF5_Quote</v>
+        <v>AUDFUT1MG5_Quote</v>
       </c>
       <c r="AM10" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MF5ConvAdj_Quote</v>
+        <v>AUDFUT1MG5ConvAdj_Quote</v>
       </c>
       <c r="AN10" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM10,IborIndex,$AK10,$AL10,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -28848,7 +28850,7 @@
       </c>
       <c r="AO10" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN10)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MG5_Quote'</v>
       </c>
       <c r="AP10" s="168"/>
     </row>
@@ -28861,15 +28863,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="58" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E11" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MH5_Quote</v>
+        <v>AUDFUT1MJ5_Quote</v>
       </c>
       <c r="F11" s="56" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MH5_Quote#0000</v>
+        <v>AUDFUT1MJ5_Quote#0000</v>
       </c>
       <c r="G11" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -28884,10 +28886,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="101" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="N11" s="157">
-        <v>42081</v>
+        <v>42109</v>
       </c>
       <c r="O11" s="101" t="e">
         <v>#NAME?</v>
@@ -28937,15 +28939,15 @@
         <v>0</v>
       </c>
       <c r="AK11" s="58" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="AL11" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MG5_Quote</v>
+        <v>AUDFUT1MH5_Quote</v>
       </c>
       <c r="AM11" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MG5ConvAdj_Quote</v>
+        <v>AUDFUT1MH5ConvAdj_Quote</v>
       </c>
       <c r="AN11" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM11,IborIndex,$AK11,$AL11,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -28953,7 +28955,7 @@
       </c>
       <c r="AO11" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN11)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MH5_Quote'</v>
       </c>
       <c r="AP11" s="168"/>
     </row>
@@ -28966,15 +28968,15 @@
         <v>0</v>
       </c>
       <c r="D12" s="58" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="E12" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MJ5_Quote</v>
+        <v>AUDFUT1MK5_Quote</v>
       </c>
       <c r="F12" s="56" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MJ5_Quote#0000</v>
+        <v>AUDFUT1MK5_Quote#0000</v>
       </c>
       <c r="G12" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -28989,10 +28991,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="101" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="N12" s="157">
-        <v>42109</v>
+        <v>42144</v>
       </c>
       <c r="O12" s="101" t="e">
         <v>#NAME?</v>
@@ -29042,15 +29044,15 @@
         <v>0</v>
       </c>
       <c r="AK12" s="58" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="AL12" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MH5_Quote</v>
+        <v>AUDFUT1MJ5_Quote</v>
       </c>
       <c r="AM12" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MH5ConvAdj_Quote</v>
+        <v>AUDFUT1MJ5ConvAdj_Quote</v>
       </c>
       <c r="AN12" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM12,IborIndex,$AK12,$AL12,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -29058,7 +29060,7 @@
       </c>
       <c r="AO12" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN12)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MJ5_Quote'</v>
       </c>
       <c r="AP12" s="168"/>
     </row>
@@ -29071,15 +29073,15 @@
         <v>0</v>
       </c>
       <c r="D13" s="58" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="E13" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MK5_Quote</v>
+        <v>AUDFUT1MM5_Quote</v>
       </c>
       <c r="F13" s="56" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MK5_Quote#0000</v>
+        <v>AUDFUT1MM5_Quote#0000</v>
       </c>
       <c r="G13" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -29094,10 +29096,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="101" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="N13" s="157">
-        <v>42144</v>
+        <v>42172</v>
       </c>
       <c r="O13" s="101" t="e">
         <v>#NAME?</v>
@@ -29147,15 +29149,15 @@
         <v>0</v>
       </c>
       <c r="AK13" s="58" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="AL13" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MJ5_Quote</v>
+        <v>AUDFUT1MK5_Quote</v>
       </c>
       <c r="AM13" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MJ5ConvAdj_Quote</v>
+        <v>AUDFUT1MK5ConvAdj_Quote</v>
       </c>
       <c r="AN13" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM13,IborIndex,$AK13,$AL13,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -29163,7 +29165,7 @@
       </c>
       <c r="AO13" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN13)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MK5_Quote'</v>
       </c>
       <c r="AP13" s="168"/>
     </row>
@@ -29176,15 +29178,15 @@
         <v>0</v>
       </c>
       <c r="D14" s="58" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="E14" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MM5_Quote</v>
+        <v>AUDFUT1MN5_Quote</v>
       </c>
       <c r="F14" s="56" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MM5_Quote#0000</v>
+        <v>AUDFUT1MN5_Quote#0000</v>
       </c>
       <c r="G14" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -29199,10 +29201,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="108" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="N14" s="150">
-        <v>42172</v>
+        <v>42200</v>
       </c>
       <c r="O14" s="108" t="e">
         <v>#NAME?</v>
@@ -29252,15 +29254,15 @@
         <v>0</v>
       </c>
       <c r="AK14" s="58" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="AL14" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MK5_Quote</v>
+        <v>AUDFUT1MM5_Quote</v>
       </c>
       <c r="AM14" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MK5ConvAdj_Quote</v>
+        <v>AUDFUT1MM5ConvAdj_Quote</v>
       </c>
       <c r="AN14" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM14,IborIndex,$AK14,$AL14,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -29268,7 +29270,7 @@
       </c>
       <c r="AO14" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN14)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MM5_Quote'</v>
       </c>
       <c r="AP14" s="168"/>
     </row>
@@ -29312,15 +29314,15 @@
         <v>0</v>
       </c>
       <c r="AK15" s="58" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="AL15" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MM5_Quote</v>
+        <v>AUDFUT1MN5_Quote</v>
       </c>
       <c r="AM15" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MM5ConvAdj_Quote</v>
+        <v>AUDFUT1MN5ConvAdj_Quote</v>
       </c>
       <c r="AN15" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM15,IborIndex,$AK15,$AL15,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -29328,7 +29330,7 @@
       </c>
       <c r="AO15" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN15)</f>
-        <v/>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MN5_Quote'</v>
       </c>
       <c r="AP15" s="168"/>
     </row>
@@ -29516,7 +29518,7 @@
       <c r="Y3" s="51"/>
       <c r="Z3" s="123">
         <f>_xll.ohTrigger(Z5:Z46)</f>
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="168"/>
       <c r="AB3" s="3"/>
@@ -29575,7 +29577,7 @@
       </c>
       <c r="O4" s="174" t="str">
         <f>_xll.RData(O5:O46,P4:T4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 11:31:48</v>
+        <v>Updated at 11:09:55</v>
       </c>
       <c r="P4" s="171" t="s">
         <v>150</v>
@@ -29642,15 +29644,15 @@
       </c>
       <c r="D5" s="64" t="str">
         <f t="array" ref="D5:D46">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C5:$C46)</f>
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="E5" s="57" t="str">
         <f t="shared" ref="E5:E46" si="0">Currency&amp;$C$3&amp;$D$3&amp;$D5&amp;QuoteSuffix</f>
-        <v>AUDFUT3MN4_Quote</v>
+        <v>AUDFUT3MQ4_Quote</v>
       </c>
       <c r="F5" s="63" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MN4_Quote#0000</v>
+        <v>AUDFUT3MQ4_Quote#0000</v>
       </c>
       <c r="G5" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -29666,15 +29668,15 @@
       </c>
       <c r="M5" s="114" t="str">
         <f t="array" ref="M5:M46">_xll.qlIMMcode(FuturesDates)</f>
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="N5" s="164">
         <f t="array" ref="N5:N46">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,$L5:$L46)</f>
-        <v>41836</v>
+        <v>41871</v>
       </c>
       <c r="O5" s="114" t="str">
         <f t="array" ref="O5:O46">"YBA"&amp;FuturesCodes</f>
-        <v>YBAN4</v>
+        <v>YBAQ4</v>
       </c>
       <c r="P5" s="163" t="s">
         <v>216</v>
@@ -29719,15 +29721,15 @@
       </c>
       <c r="AF5" s="64" t="str">
         <f t="array" ref="AF5:AF46">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$AE5:$AE46)</f>
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="AG5" s="94" t="str">
         <f t="shared" ref="AG5:AG46" si="1">Currency&amp;"FUT"&amp;$AI$3&amp;$AF5&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>AUDFUT3MN4ConvAdj_Quote</v>
+        <v>AUDFUT3MQ4ConvAdj_Quote</v>
       </c>
       <c r="AH5" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG5,IborIndex,AF5,F5,Volatility,MeanReversion,Permanent,AND(ISERROR(Z5),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>AUDFUT3MN4ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MQ4ConvAdj_Quote#0003</v>
       </c>
       <c r="AI5" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH5)</f>
@@ -29744,15 +29746,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="58" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="E6" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MQ4_Quote</v>
+        <v>AUDFUT3MU4_Quote</v>
       </c>
       <c r="F6" s="56" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MQ4_Quote#0000</v>
+        <v>AUDFUT3MU4_Quote#0000</v>
       </c>
       <c r="G6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -29767,44 +29769,44 @@
         <v>0</v>
       </c>
       <c r="M6" s="101" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="N6" s="157">
-        <v>41871</v>
+        <v>41899</v>
       </c>
       <c r="O6" s="101" t="str">
-        <v>YBAQ4</v>
-      </c>
-      <c r="P6" s="156" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q6" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="R6" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="S6" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="T6" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="U6" s="104" t="e">
+        <v>YBAU4</v>
+      </c>
+      <c r="P6" s="156">
+        <v>41893</v>
+      </c>
+      <c r="Q6" s="101">
+        <v>97.37</v>
+      </c>
+      <c r="R6" s="101">
+        <v>97.38</v>
+      </c>
+      <c r="S6" s="101">
+        <v>97.37</v>
+      </c>
+      <c r="T6" s="101">
+        <v>97.36</v>
+      </c>
+      <c r="U6" s="104">
         <f>_xll.qlMidSafe($Q6,$R6)</f>
-        <v>#NUM!</v>
+        <v>97.375</v>
       </c>
       <c r="V6" s="102"/>
       <c r="W6" s="160" t="e">
         <v>#NUM!</v>
       </c>
       <c r="X6" s="102"/>
-      <c r="Y6" s="154" t="e">
-        <v>#NUM!</v>
+      <c r="Y6" s="154">
+        <v>97.375</v>
       </c>
       <c r="Z6" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6,Trigger)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AA6" s="9"/>
       <c r="AB6" s="3"/>
@@ -29816,15 +29818,15 @@
         <v>0</v>
       </c>
       <c r="AF6" s="58" t="str">
-        <v>Q4</v>
+        <v>U4</v>
       </c>
       <c r="AG6" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MQ4ConvAdj_Quote</v>
+        <v>AUDFUT3MU4ConvAdj_Quote</v>
       </c>
       <c r="AH6" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG6,IborIndex,AF6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(Z6),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>AUDFUT3MQ4ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MU4ConvAdj_Quote#0003</v>
       </c>
       <c r="AI6" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH6)</f>
@@ -29841,15 +29843,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="58" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E7" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU4_Quote</v>
+        <v>AUDFUT3MV4_Quote</v>
       </c>
       <c r="F7" s="56" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU4_Quote#0000</v>
+        <v>AUDFUT3MV4_Quote#0000</v>
       </c>
       <c r="G7" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -29864,44 +29866,44 @@
         <v>0</v>
       </c>
       <c r="M7" s="101" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="N7" s="157">
-        <v>41899</v>
+        <v>41927</v>
       </c>
       <c r="O7" s="101" t="str">
-        <v>YBAU4</v>
-      </c>
-      <c r="P7" s="156">
-        <v>41893</v>
-      </c>
-      <c r="Q7" s="101">
-        <v>97.34</v>
-      </c>
-      <c r="R7" s="101">
-        <v>97.350000000000009</v>
-      </c>
-      <c r="S7" s="101">
-        <v>97.34</v>
-      </c>
-      <c r="T7" s="101">
-        <v>97.350000000000009</v>
-      </c>
-      <c r="U7" s="104">
+        <v>YBAV4</v>
+      </c>
+      <c r="P7" s="156" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q7" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="R7" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="S7" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="T7" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="U7" s="104" t="e">
         <f>_xll.qlMidSafe($Q7,$R7)</f>
-        <v>97.344999999999999</v>
+        <v>#NUM!</v>
       </c>
       <c r="V7" s="102"/>
       <c r="W7" s="160">
         <v>97.34</v>
       </c>
       <c r="X7" s="102"/>
-      <c r="Y7" s="154">
-        <v>97.344999999999999</v>
-      </c>
-      <c r="Z7" s="104">
+      <c r="Y7" s="154" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z7" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F7,Y7,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA7" s="9"/>
       <c r="AB7" s="3"/>
@@ -29913,15 +29915,15 @@
         <v>0</v>
       </c>
       <c r="AF7" s="58" t="str">
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="AG7" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU4ConvAdj_Quote</v>
+        <v>AUDFUT3MV4ConvAdj_Quote</v>
       </c>
       <c r="AH7" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG7,IborIndex,AF7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(Z7),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU4ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MV4ConvAdj_Quote#0001</v>
       </c>
       <c r="AI7" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH7)</f>
@@ -29938,15 +29940,15 @@
         <v>0</v>
       </c>
       <c r="D8" s="58" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E8" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MV4_Quote</v>
+        <v>AUDFUT3MX4_Quote</v>
       </c>
       <c r="F8" s="56" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MV4_Quote#0000</v>
+        <v>AUDFUT3MX4_Quote#0000</v>
       </c>
       <c r="G8" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -29961,13 +29963,13 @@
         <v>0</v>
       </c>
       <c r="M8" s="101" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="N8" s="157">
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="O8" s="101" t="str">
-        <v>YBAV4</v>
+        <v>YBAX4</v>
       </c>
       <c r="P8" s="156" t="s">
         <v>216</v>
@@ -30010,15 +30012,15 @@
         <v>0</v>
       </c>
       <c r="AF8" s="58" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="AG8" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MV4ConvAdj_Quote</v>
+        <v>AUDFUT3MX4ConvAdj_Quote</v>
       </c>
       <c r="AH8" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG8,IborIndex,AF8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(Z8),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>AUDFUT3MV4ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MX4ConvAdj_Quote#0001</v>
       </c>
       <c r="AI8" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH8)</f>
@@ -30035,15 +30037,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="58" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E9" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MX4_Quote</v>
+        <v>AUDFUT3MZ4_Quote</v>
       </c>
       <c r="F9" s="56" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MX4_Quote#0000</v>
+        <v>AUDFUT3MZ4_Quote#0000</v>
       </c>
       <c r="G9" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -30059,44 +30061,44 @@
         <v>0</v>
       </c>
       <c r="M9" s="101" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="N9" s="157">
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="O9" s="101" t="str">
-        <v>YBAX4</v>
-      </c>
-      <c r="P9" s="156" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q9" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="R9" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="S9" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="T9" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="U9" s="104" t="e">
+        <v>YBAZ4</v>
+      </c>
+      <c r="P9" s="156">
+        <v>41984</v>
+      </c>
+      <c r="Q9" s="101">
+        <v>97.4</v>
+      </c>
+      <c r="R9" s="101">
+        <v>97.41</v>
+      </c>
+      <c r="S9" s="101">
+        <v>97.4</v>
+      </c>
+      <c r="T9" s="101">
+        <v>97.4</v>
+      </c>
+      <c r="U9" s="104">
         <f>_xll.qlMidSafe($Q9,$R9)</f>
-        <v>#NUM!</v>
+        <v>97.405000000000001</v>
       </c>
       <c r="V9" s="102"/>
       <c r="W9" s="155" t="e">
         <v>#NUM!</v>
       </c>
       <c r="X9" s="102"/>
-      <c r="Y9" s="154" t="e">
-        <v>#NUM!</v>
+      <c r="Y9" s="154">
+        <v>97.405000000000001</v>
       </c>
       <c r="Z9" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F9,Y9,Trigger)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AA9" s="9"/>
       <c r="AB9" s="3"/>
@@ -30108,15 +30110,15 @@
         <v>0</v>
       </c>
       <c r="AF9" s="58" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="AG9" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MX4ConvAdj_Quote</v>
+        <v>AUDFUT3MZ4ConvAdj_Quote</v>
       </c>
       <c r="AH9" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG9,IborIndex,AF9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(Z9),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>AUDFUT3MX4ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MZ4ConvAdj_Quote#0001</v>
       </c>
       <c r="AI9" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH9)</f>
@@ -30133,15 +30135,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="58" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E10" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ4_Quote</v>
+        <v>AUDFUT3MF5_Quote</v>
       </c>
       <c r="F10" s="56" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ4_Quote#0000</v>
+        <v>AUDFUT3MF5_Quote#0000</v>
       </c>
       <c r="G10" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -30156,44 +30158,44 @@
         <v>0</v>
       </c>
       <c r="M10" s="101" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="N10" s="157">
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="O10" s="101" t="str">
-        <v>YBAZ4</v>
-      </c>
-      <c r="P10" s="156">
-        <v>41984</v>
-      </c>
-      <c r="Q10" s="101">
-        <v>97.39</v>
-      </c>
-      <c r="R10" s="101">
-        <v>97.4</v>
-      </c>
-      <c r="S10" s="101">
-        <v>97.4</v>
-      </c>
-      <c r="T10" s="101">
-        <v>97.39</v>
-      </c>
-      <c r="U10" s="104">
+        <v>YBAF5</v>
+      </c>
+      <c r="P10" s="156" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q10" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="R10" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="S10" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="T10" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="U10" s="104" t="e">
         <f>_xll.qlMidSafe($Q10,$R10)</f>
-        <v>97.39500000000001</v>
+        <v>#NUM!</v>
       </c>
       <c r="V10" s="102"/>
       <c r="W10" s="155">
         <v>97.35</v>
       </c>
       <c r="X10" s="102"/>
-      <c r="Y10" s="154">
-        <v>97.39500000000001</v>
-      </c>
-      <c r="Z10" s="104">
+      <c r="Y10" s="154" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z10" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA10" s="9"/>
       <c r="AB10" s="3"/>
@@ -30205,15 +30207,15 @@
         <v>0</v>
       </c>
       <c r="AF10" s="58" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="AG10" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ4ConvAdj_Quote</v>
+        <v>AUDFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="AH10" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG10,IborIndex,AF10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(Z10),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ4ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MF5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI10" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH10)</f>
@@ -30230,15 +30232,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="58" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E11" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MF5_Quote</v>
+        <v>AUDFUT3MG5_Quote</v>
       </c>
       <c r="F11" s="56" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MF5_Quote#0000</v>
+        <v>AUDFUT3MG5_Quote#0000</v>
       </c>
       <c r="G11" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -30253,13 +30255,13 @@
         <v>0</v>
       </c>
       <c r="M11" s="101" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="N11" s="157">
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="O11" s="101" t="str">
-        <v>YBAF5</v>
+        <v>YBAG5</v>
       </c>
       <c r="P11" s="156" t="s">
         <v>216</v>
@@ -30302,15 +30304,15 @@
         <v>0</v>
       </c>
       <c r="AF11" s="58" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="AG11" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MF5ConvAdj_Quote</v>
+        <v>AUDFUT3MG5ConvAdj_Quote</v>
       </c>
       <c r="AH11" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG11,IborIndex,AF11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(Z11),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>AUDFUT3MF5ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MG5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI11" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH11)</f>
@@ -30327,15 +30329,15 @@
         <v>0</v>
       </c>
       <c r="D12" s="58" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E12" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MG5_Quote</v>
+        <v>AUDFUT3MH5_Quote</v>
       </c>
       <c r="F12" s="56" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MG5_Quote#0000</v>
+        <v>AUDFUT3MH5_Quote#0000</v>
       </c>
       <c r="G12" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -30350,44 +30352,44 @@
         <v>0</v>
       </c>
       <c r="M12" s="101" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="N12" s="157">
-        <v>42053</v>
+        <v>42081</v>
       </c>
       <c r="O12" s="101" t="str">
-        <v>YBAG5</v>
-      </c>
-      <c r="P12" s="156" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q12" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="R12" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="S12" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="T12" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="U12" s="104" t="e">
+        <v>YBAH5</v>
+      </c>
+      <c r="P12" s="156">
+        <v>42075</v>
+      </c>
+      <c r="Q12" s="101">
+        <v>97.4</v>
+      </c>
+      <c r="R12" s="101">
+        <v>97.41</v>
+      </c>
+      <c r="S12" s="101">
+        <v>97.4</v>
+      </c>
+      <c r="T12" s="101">
+        <v>97.4</v>
+      </c>
+      <c r="U12" s="104">
         <f>_xll.qlMidSafe($Q12,$R12)</f>
-        <v>#NUM!</v>
+        <v>97.405000000000001</v>
       </c>
       <c r="V12" s="102"/>
       <c r="W12" s="155" t="e">
         <v>#NUM!</v>
       </c>
       <c r="X12" s="102"/>
-      <c r="Y12" s="154" t="e">
-        <v>#NUM!</v>
+      <c r="Y12" s="154">
+        <v>97.405000000000001</v>
       </c>
       <c r="Z12" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12,Trigger)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="3"/>
@@ -30399,15 +30401,15 @@
         <v>0</v>
       </c>
       <c r="AF12" s="58" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="AG12" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MG5ConvAdj_Quote</v>
+        <v>AUDFUT3MH5ConvAdj_Quote</v>
       </c>
       <c r="AH12" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG12,IborIndex,AF12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(Z12),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>AUDFUT3MG5ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MH5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI12" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH12)</f>
@@ -30424,15 +30426,15 @@
         <v>0</v>
       </c>
       <c r="D13" s="58" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E13" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH5_Quote</v>
+        <v>AUDFUT3MJ5_Quote</v>
       </c>
       <c r="F13" s="56" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH5_Quote#0000</v>
+        <v>AUDFUT3MJ5_Quote#0000</v>
       </c>
       <c r="G13" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -30447,44 +30449,44 @@
         <v>0</v>
       </c>
       <c r="M13" s="101" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="N13" s="157">
-        <v>42081</v>
+        <v>42109</v>
       </c>
       <c r="O13" s="101" t="str">
-        <v>YBAH5</v>
-      </c>
-      <c r="P13" s="156">
-        <v>42075</v>
-      </c>
-      <c r="Q13" s="101">
-        <v>97.38</v>
-      </c>
-      <c r="R13" s="101">
-        <v>97.4</v>
-      </c>
-      <c r="S13" s="101">
-        <v>97.39</v>
-      </c>
-      <c r="T13" s="101">
-        <v>97.39</v>
-      </c>
-      <c r="U13" s="104">
+        <v>YBAJ5</v>
+      </c>
+      <c r="P13" s="156" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q13" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="R13" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="S13" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="T13" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="U13" s="104" t="e">
         <f>_xll.qlMidSafe($Q13,$R13)</f>
-        <v>97.39</v>
+        <v>#NUM!</v>
       </c>
       <c r="V13" s="102"/>
       <c r="W13" s="155">
         <v>97.33</v>
       </c>
       <c r="X13" s="102"/>
-      <c r="Y13" s="154">
-        <v>97.39</v>
-      </c>
-      <c r="Z13" s="104">
+      <c r="Y13" s="154" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z13" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13,Trigger)</f>
-        <v>5.0000000000096634E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="3"/>
@@ -30496,15 +30498,15 @@
         <v>0</v>
       </c>
       <c r="AF13" s="58" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="AG13" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH5ConvAdj_Quote</v>
+        <v>AUDFUT3MJ5ConvAdj_Quote</v>
       </c>
       <c r="AH13" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG13,IborIndex,AF13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(Z13),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH5ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MJ5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI13" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH13)</f>
@@ -30521,15 +30523,15 @@
         <v>0</v>
       </c>
       <c r="D14" s="58" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="E14" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MJ5_Quote</v>
+        <v>AUDFUT3MK5_Quote</v>
       </c>
       <c r="F14" s="56" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MJ5_Quote#0000</v>
+        <v>AUDFUT3MK5_Quote#0000</v>
       </c>
       <c r="G14" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -30544,13 +30546,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="101" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="N14" s="157">
-        <v>42109</v>
+        <v>42144</v>
       </c>
       <c r="O14" s="101" t="str">
-        <v>YBAJ5</v>
+        <v>YBAK5</v>
       </c>
       <c r="P14" s="156" t="s">
         <v>216</v>
@@ -30593,15 +30595,15 @@
         <v>0</v>
       </c>
       <c r="AF14" s="58" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="AG14" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MJ5ConvAdj_Quote</v>
+        <v>AUDFUT3MK5ConvAdj_Quote</v>
       </c>
       <c r="AH14" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG14,IborIndex,AF14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(Z14),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>AUDFUT3MJ5ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MK5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI14" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH14)</f>
@@ -30618,15 +30620,15 @@
         <v>0</v>
       </c>
       <c r="D15" s="58" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="E15" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MK5_Quote</v>
+        <v>AUDFUT3MM5_Quote</v>
       </c>
       <c r="F15" s="56" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MK5_Quote#0000</v>
+        <v>AUDFUT3MM5_Quote#0000</v>
       </c>
       <c r="G15" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -30641,44 +30643,44 @@
         <v>0</v>
       </c>
       <c r="M15" s="101" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="N15" s="157">
-        <v>42144</v>
+        <v>42172</v>
       </c>
       <c r="O15" s="101" t="str">
-        <v>YBAK5</v>
-      </c>
-      <c r="P15" s="156" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q15" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="R15" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="S15" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="T15" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="U15" s="104" t="e">
+        <v>YBAM5</v>
+      </c>
+      <c r="P15" s="156">
+        <v>42166</v>
+      </c>
+      <c r="Q15" s="101">
+        <v>97.350000000000009</v>
+      </c>
+      <c r="R15" s="101">
+        <v>97.36</v>
+      </c>
+      <c r="S15" s="101">
+        <v>97.36</v>
+      </c>
+      <c r="T15" s="101">
+        <v>97.36</v>
+      </c>
+      <c r="U15" s="104">
         <f>_xll.qlMidSafe($Q15,$R15)</f>
-        <v>#NUM!</v>
+        <v>97.355000000000004</v>
       </c>
       <c r="V15" s="102"/>
       <c r="W15" s="155" t="e">
         <v>#NUM!</v>
       </c>
       <c r="X15" s="102"/>
-      <c r="Y15" s="154" t="e">
-        <v>#NUM!</v>
+      <c r="Y15" s="154">
+        <v>97.355000000000004</v>
       </c>
       <c r="Z15" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15,Trigger)</f>
-        <v>#NUM!</v>
+        <v>#N/A</v>
       </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="3"/>
@@ -30690,15 +30692,15 @@
         <v>0</v>
       </c>
       <c r="AF15" s="58" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="AG15" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MK5ConvAdj_Quote</v>
+        <v>AUDFUT3MM5ConvAdj_Quote</v>
       </c>
       <c r="AH15" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG15,IborIndex,AF15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(Z15),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>AUDFUT3MK5ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MM5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI15" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH15)</f>
@@ -30715,15 +30717,15 @@
         <v>0</v>
       </c>
       <c r="D16" s="58" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="E16" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM5_Quote</v>
+        <v>AUDFUT3MN5_Quote</v>
       </c>
       <c r="F16" s="56" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM5_Quote#0000</v>
+        <v>AUDFUT3MN5_Quote#0000</v>
       </c>
       <c r="G16" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -30738,44 +30740,44 @@
         <v>0</v>
       </c>
       <c r="M16" s="101" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="N16" s="157">
-        <v>42172</v>
+        <v>42200</v>
       </c>
       <c r="O16" s="101" t="str">
-        <v>YBAM5</v>
-      </c>
-      <c r="P16" s="156">
-        <v>42166</v>
-      </c>
-      <c r="Q16" s="101">
-        <v>97.320000000000007</v>
-      </c>
-      <c r="R16" s="101">
-        <v>97.33</v>
-      </c>
-      <c r="S16" s="101">
-        <v>97.33</v>
-      </c>
-      <c r="T16" s="101">
-        <v>97.33</v>
-      </c>
-      <c r="U16" s="104">
+        <v>YBAN5</v>
+      </c>
+      <c r="P16" s="156" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q16" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="R16" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="S16" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="T16" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="U16" s="104" t="e">
         <f>_xll.qlMidSafe($Q16,$R16)</f>
-        <v>97.325000000000003</v>
+        <v>#NUM!</v>
       </c>
       <c r="V16" s="102"/>
       <c r="W16" s="155">
         <v>97.25</v>
       </c>
       <c r="X16" s="102"/>
-      <c r="Y16" s="154">
-        <v>97.325000000000003</v>
-      </c>
-      <c r="Z16" s="104">
+      <c r="Y16" s="154" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z16" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="3"/>
@@ -30787,15 +30789,15 @@
         <v>0</v>
       </c>
       <c r="AF16" s="58" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="AG16" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM5ConvAdj_Quote</v>
+        <v>AUDFUT3MN5ConvAdj_Quote</v>
       </c>
       <c r="AH16" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG16,IborIndex,AF16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(Z16),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM5ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MN5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI16" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH16)</f>
@@ -30847,20 +30849,20 @@
         <v>42257</v>
       </c>
       <c r="Q17" s="101">
-        <v>97.22</v>
+        <v>97.26</v>
       </c>
       <c r="R17" s="101">
-        <v>97.240000000000009</v>
+        <v>97.27</v>
       </c>
       <c r="S17" s="101">
-        <v>97.23</v>
+        <v>97.27</v>
       </c>
       <c r="T17" s="101">
-        <v>97.23</v>
+        <v>97.26</v>
       </c>
       <c r="U17" s="104">
         <f>_xll.qlMidSafe($Q17,$R17)</f>
-        <v>97.23</v>
+        <v>97.265000000000001</v>
       </c>
       <c r="V17" s="102"/>
       <c r="W17" s="155">
@@ -30868,11 +30870,11 @@
       </c>
       <c r="X17" s="102"/>
       <c r="Y17" s="154">
-        <v>97.23</v>
+        <v>97.265000000000001</v>
       </c>
       <c r="Z17" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17,Trigger)</f>
-        <v>0</v>
+        <v>3.4999999999996589E-2</v>
       </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="3"/>
@@ -30892,7 +30894,7 @@
       </c>
       <c r="AH17" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG17,IborIndex,AF17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(Z17),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU5ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MU5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI17" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH17)</f>
@@ -30944,20 +30946,20 @@
         <v>42348</v>
       </c>
       <c r="Q18" s="101">
-        <v>97.12</v>
+        <v>97.18</v>
       </c>
       <c r="R18" s="101">
-        <v>97.13</v>
+        <v>97.19</v>
       </c>
       <c r="S18" s="101">
-        <v>97.12</v>
+        <v>97.19</v>
       </c>
       <c r="T18" s="101">
-        <v>97.12</v>
+        <v>97.19</v>
       </c>
       <c r="U18" s="104">
         <f>_xll.qlMidSafe($Q18,$R18)</f>
-        <v>97.125</v>
+        <v>97.185000000000002</v>
       </c>
       <c r="V18" s="102"/>
       <c r="W18" s="155">
@@ -30965,11 +30967,11 @@
       </c>
       <c r="X18" s="102"/>
       <c r="Y18" s="154">
-        <v>97.125</v>
+        <v>97.185000000000002</v>
       </c>
       <c r="Z18" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18,Trigger)</f>
-        <v>0</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="AA18" s="9"/>
       <c r="AB18" s="3"/>
@@ -30989,7 +30991,7 @@
       </c>
       <c r="AH18" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG18,IborIndex,AF18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(Z18),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ5ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MZ5ConvAdj_Quote#0001</v>
       </c>
       <c r="AI18" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH18)</f>
@@ -31041,20 +31043,20 @@
         <v>42439</v>
       </c>
       <c r="Q19" s="101">
-        <v>97.02</v>
+        <v>97.100000000000009</v>
       </c>
       <c r="R19" s="101">
-        <v>97.03</v>
+        <v>97.11</v>
       </c>
       <c r="S19" s="101">
-        <v>97.03</v>
+        <v>97.100000000000009</v>
       </c>
       <c r="T19" s="101">
-        <v>97.02</v>
+        <v>97.100000000000009</v>
       </c>
       <c r="U19" s="104">
         <f>_xll.qlMidSafe($Q19,$R19)</f>
-        <v>97.025000000000006</v>
+        <v>97.105000000000004</v>
       </c>
       <c r="V19" s="102"/>
       <c r="W19" s="155">
@@ -31062,11 +31064,11 @@
       </c>
       <c r="X19" s="102"/>
       <c r="Y19" s="154">
-        <v>97.025000000000006</v>
+        <v>97.105000000000004</v>
       </c>
       <c r="Z19" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19,Trigger)</f>
-        <v>0</v>
+        <v>7.9999999999998295E-2</v>
       </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="3"/>
@@ -31086,7 +31088,7 @@
       </c>
       <c r="AH19" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG19,IborIndex,AF19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(Z19),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH6ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MH6ConvAdj_Quote#0001</v>
       </c>
       <c r="AI19" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH19)</f>
@@ -31138,20 +31140,20 @@
         <v>42530</v>
       </c>
       <c r="Q20" s="101">
-        <v>96.91</v>
+        <v>97.01</v>
       </c>
       <c r="R20" s="101">
-        <v>96.94</v>
+        <v>97.02</v>
       </c>
       <c r="S20" s="101">
-        <v>0</v>
+        <v>97.01</v>
       </c>
       <c r="T20" s="101">
-        <v>96.91</v>
+        <v>97.01</v>
       </c>
       <c r="U20" s="104">
         <f>_xll.qlMidSafe($Q20,$R20)</f>
-        <v>96.924999999999997</v>
+        <v>97.015000000000001</v>
       </c>
       <c r="V20" s="102"/>
       <c r="W20" s="155">
@@ -31159,11 +31161,11 @@
       </c>
       <c r="X20" s="102"/>
       <c r="Y20" s="154">
-        <v>96.924999999999997</v>
+        <v>97.015000000000001</v>
       </c>
       <c r="Z20" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20,Trigger)</f>
-        <v>0</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="AA20" s="9"/>
       <c r="AB20" s="3"/>
@@ -31183,7 +31185,7 @@
       </c>
       <c r="AH20" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG20,IborIndex,AF20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(Z20),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM6ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MM6ConvAdj_Quote#0001</v>
       </c>
       <c r="AI20" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH20)</f>
@@ -31235,20 +31237,20 @@
         <v>42621</v>
       </c>
       <c r="Q21" s="101">
-        <v>96.81</v>
+        <v>96.92</v>
       </c>
       <c r="R21" s="101">
-        <v>96.850000000000009</v>
+        <v>96.94</v>
       </c>
       <c r="S21" s="101">
         <v>0</v>
       </c>
       <c r="T21" s="101">
-        <v>96.83</v>
+        <v>96.94</v>
       </c>
       <c r="U21" s="104">
         <f>_xll.qlMidSafe($Q21,$R21)</f>
-        <v>96.830000000000013</v>
+        <v>96.93</v>
       </c>
       <c r="V21" s="102"/>
       <c r="W21" s="155" t="e">
@@ -31256,11 +31258,11 @@
       </c>
       <c r="X21" s="102"/>
       <c r="Y21" s="154">
-        <v>96.830000000000013</v>
+        <v>96.93</v>
       </c>
       <c r="Z21" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F21,Y21,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="3"/>
@@ -31280,7 +31282,7 @@
       </c>
       <c r="AH21" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG21,IborIndex,AF21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(Z21),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU6ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MU6ConvAdj_Quote#0001</v>
       </c>
       <c r="AI21" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH21)</f>
@@ -31332,20 +31334,20 @@
         <v>42712</v>
       </c>
       <c r="Q22" s="101">
-        <v>96.710000000000008</v>
+        <v>96.820000000000007</v>
       </c>
       <c r="R22" s="101">
-        <v>96.77</v>
+        <v>96.86</v>
       </c>
       <c r="S22" s="101">
         <v>0</v>
       </c>
       <c r="T22" s="101">
-        <v>96.72</v>
+        <v>96.91</v>
       </c>
       <c r="U22" s="104">
         <f>_xll.qlMidSafe($Q22,$R22)</f>
-        <v>96.740000000000009</v>
+        <v>96.84</v>
       </c>
       <c r="V22" s="102"/>
       <c r="W22" s="155" t="e">
@@ -31353,11 +31355,11 @@
       </c>
       <c r="X22" s="102"/>
       <c r="Y22" s="154">
-        <v>96.740000000000009</v>
+        <v>96.84</v>
       </c>
       <c r="Z22" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F22,Y22,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="AA22" s="9"/>
       <c r="AB22" s="3"/>
@@ -31377,7 +31379,7 @@
       </c>
       <c r="AH22" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG22,IborIndex,AF22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(Z22),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ6ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MZ6ConvAdj_Quote#0001</v>
       </c>
       <c r="AI22" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH22)</f>
@@ -31429,20 +31431,20 @@
         <v>42803</v>
       </c>
       <c r="Q23" s="101">
-        <v>96.61</v>
+        <v>96.72</v>
       </c>
       <c r="R23" s="101">
-        <v>96.69</v>
+        <v>96.78</v>
       </c>
       <c r="S23" s="101">
         <v>0</v>
       </c>
       <c r="T23" s="101">
-        <v>96.62</v>
+        <v>96.64</v>
       </c>
       <c r="U23" s="104">
         <f>_xll.qlMidSafe($Q23,$R23)</f>
-        <v>96.65</v>
+        <v>96.75</v>
       </c>
       <c r="V23" s="102"/>
       <c r="W23" s="155" t="e">
@@ -31450,11 +31452,11 @@
       </c>
       <c r="X23" s="102"/>
       <c r="Y23" s="154">
-        <v>96.65</v>
+        <v>96.75</v>
       </c>
       <c r="Z23" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23,Trigger)</f>
-        <v>0</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="AA23" s="9"/>
       <c r="AB23" s="3"/>
@@ -31474,7 +31476,7 @@
       </c>
       <c r="AH23" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG23,IborIndex,AF23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(Z23),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH7ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MH7ConvAdj_Quote#0001</v>
       </c>
       <c r="AI23" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH23)</f>
@@ -31526,20 +31528,20 @@
         <v>42894</v>
       </c>
       <c r="Q24" s="101">
-        <v>96.51</v>
+        <v>96.61</v>
       </c>
       <c r="R24" s="101">
-        <v>96.61</v>
+        <v>96.7</v>
       </c>
       <c r="S24" s="101">
         <v>0</v>
       </c>
       <c r="T24" s="101">
-        <v>96.33</v>
+        <v>96.51</v>
       </c>
       <c r="U24" s="104">
         <f>_xll.qlMidSafe($Q24,$R24)</f>
-        <v>96.56</v>
+        <v>96.655000000000001</v>
       </c>
       <c r="V24" s="102"/>
       <c r="W24" s="155" t="e">
@@ -31547,11 +31549,11 @@
       </c>
       <c r="X24" s="102"/>
       <c r="Y24" s="154">
-        <v>96.56</v>
+        <v>96.655000000000001</v>
       </c>
       <c r="Z24" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F24,Y24,Trigger)</f>
-        <v>0</v>
+        <v>9.4999999999998863E-2</v>
       </c>
       <c r="AA24" s="9"/>
       <c r="AB24" s="3"/>
@@ -31571,7 +31573,7 @@
       </c>
       <c r="AH24" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG24,IborIndex,AF24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(Z24),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM7ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MM7ConvAdj_Quote#0001</v>
       </c>
       <c r="AI24" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH24)</f>
@@ -31668,7 +31670,7 @@
       </c>
       <c r="AH25" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG25,IborIndex,AF25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(Z25),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU7ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MU7ConvAdj_Quote#0001</v>
       </c>
       <c r="AI25" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH25)</f>
@@ -31765,7 +31767,7 @@
       </c>
       <c r="AH26" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG26,IborIndex,AF26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(Z26),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ7ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MZ7ConvAdj_Quote#0001</v>
       </c>
       <c r="AI26" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH26)</f>
@@ -31862,7 +31864,7 @@
       </c>
       <c r="AH27" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG27,IborIndex,AF27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(Z27),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH8ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MH8ConvAdj_Quote#0001</v>
       </c>
       <c r="AI27" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH27)</f>
@@ -31959,7 +31961,7 @@
       </c>
       <c r="AH28" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG28,IborIndex,AF28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(Z28),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM8ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MM8ConvAdj_Quote#0001</v>
       </c>
       <c r="AI28" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH28)</f>
@@ -32056,7 +32058,7 @@
       </c>
       <c r="AH29" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG29,IborIndex,AF29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(Z29),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU8ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MU8ConvAdj_Quote#0001</v>
       </c>
       <c r="AI29" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH29)</f>
@@ -32153,7 +32155,7 @@
       </c>
       <c r="AH30" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG30,IborIndex,AF30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(Z30),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ8ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MZ8ConvAdj_Quote#0001</v>
       </c>
       <c r="AI30" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH30)</f>
@@ -32250,7 +32252,7 @@
       </c>
       <c r="AH31" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG31,IborIndex,AF31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(Z31),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH9ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MH9ConvAdj_Quote#0001</v>
       </c>
       <c r="AI31" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH31)</f>
@@ -32347,7 +32349,7 @@
       </c>
       <c r="AH32" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG32,IborIndex,AF32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(Z32),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM9ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MM9ConvAdj_Quote#0001</v>
       </c>
       <c r="AI32" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH32)</f>
@@ -32444,7 +32446,7 @@
       </c>
       <c r="AH33" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG33,IborIndex,AF33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(Z33),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU9ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MU9ConvAdj_Quote#0001</v>
       </c>
       <c r="AI33" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH33)</f>
@@ -32541,7 +32543,7 @@
       </c>
       <c r="AH34" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG34,IborIndex,AF34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(Z34),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ9ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MZ9ConvAdj_Quote#0001</v>
       </c>
       <c r="AI34" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH34)</f>
@@ -32638,7 +32640,7 @@
       </c>
       <c r="AH35" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG35,IborIndex,AF35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(Z35),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH0ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MH0ConvAdj_Quote#0001</v>
       </c>
       <c r="AI35" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH35)</f>
@@ -32735,7 +32737,7 @@
       </c>
       <c r="AH36" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG36,IborIndex,AF36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(Z36),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM0ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MM0ConvAdj_Quote#0001</v>
       </c>
       <c r="AI36" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH36)</f>
@@ -32832,7 +32834,7 @@
       </c>
       <c r="AH37" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG37,IborIndex,AF37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(Z37),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU0ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MU0ConvAdj_Quote#0001</v>
       </c>
       <c r="AI37" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH37)</f>
@@ -32929,7 +32931,7 @@
       </c>
       <c r="AH38" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG38,IborIndex,AF38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(Z38),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ0ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MZ0ConvAdj_Quote#0001</v>
       </c>
       <c r="AI38" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH38)</f>
@@ -33026,7 +33028,7 @@
       </c>
       <c r="AH39" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG39,IborIndex,AF39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(Z39),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH1ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MH1ConvAdj_Quote#0001</v>
       </c>
       <c r="AI39" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH39)</f>
@@ -33123,7 +33125,7 @@
       </c>
       <c r="AH40" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG40,IborIndex,AF40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(Z40),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM1ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MM1ConvAdj_Quote#0001</v>
       </c>
       <c r="AI40" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH40)</f>
@@ -33220,7 +33222,7 @@
       </c>
       <c r="AH41" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG41,IborIndex,AF41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(Z41),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU1ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MU1ConvAdj_Quote#0001</v>
       </c>
       <c r="AI41" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH41)</f>
@@ -33317,7 +33319,7 @@
       </c>
       <c r="AH42" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG42,IborIndex,AF42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(Z42),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ1ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MZ1ConvAdj_Quote#0001</v>
       </c>
       <c r="AI42" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH42)</f>
@@ -33414,7 +33416,7 @@
       </c>
       <c r="AH43" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG43,IborIndex,AF43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(Z43),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH2ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MH2ConvAdj_Quote#0001</v>
       </c>
       <c r="AI43" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH43)</f>
@@ -33511,7 +33513,7 @@
       </c>
       <c r="AH44" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG44,IborIndex,AF44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(Z44),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM2ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MM2ConvAdj_Quote#0001</v>
       </c>
       <c r="AI44" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH44)</f>
@@ -33608,7 +33610,7 @@
       </c>
       <c r="AH45" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG45,IborIndex,AF45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(Z45),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU2ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MU2ConvAdj_Quote#0001</v>
       </c>
       <c r="AI45" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH45)</f>
@@ -33705,7 +33707,7 @@
       </c>
       <c r="AH46" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG46,IborIndex,AF46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(Z46),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ2ConvAdj_Quote#0031</v>
+        <v>AUDFUT3MZ2ConvAdj_Quote#0001</v>
       </c>
       <c r="AI46" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH46)</f>

--- a/QuantLibXL/Data2/XLS/AUD_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD_Market.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="45" windowWidth="4800" windowHeight="11550" tabRatio="723"/>
+    <workbookView xWindow="9585" yWindow="105" windowWidth="4800" windowHeight="11490" tabRatio="723"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="56" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="223">
   <si>
     <t>Currency</t>
   </si>
@@ -775,6 +775,9 @@
   </si>
   <si>
     <t>GENERAL SETTINGS</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
 </sst>
 </file>
@@ -2497,70 +2500,76 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Paused at 16:22:38</v>
+        <v>Paused at 16:28:15</v>
         <stp/>
-        <stp>{599F0E50-D5B8-4D33-8FE4-F2920D5F5320}</stp>
-        <tr r="P4" s="12"/>
+        <stp>{7CCEFFCB-A439-4A82-9566-F65D0624222A}</stp>
+        <tr r="M4" s="22"/>
       </tp>
       <tp t="s">
-        <v>Paused at 16:22:38</v>
+        <v>Paused at 16:28:15</v>
         <stp/>
-        <stp>{F7C86478-93FD-4306-A642-EB1C20A2D243}</stp>
+        <stp>{99890425-99D7-4099-9BFF-CA3BE4B1CC07}</stp>
+        <tr r="J4" s="15"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 16:28:15</v>
+        <stp/>
+        <stp>{E24E6FD2-8909-4433-B581-6FF4062A578A}</stp>
+        <tr r="Q5" s="64"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 16:28:15</v>
+        <stp/>
+        <stp>{2175DCC9-4290-4F2B-9ADE-E47C5597EA9E}</stp>
+        <tr r="N4" s="16"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 16:28:15</v>
+        <stp/>
+        <stp>{504D9B2E-F48C-46B5-8CB0-EC68822A7540}</stp>
+        <tr r="P4" s="26"/>
+      </tp>
+      <tp t="s">
+        <v>Paused at 16:28:15</v>
+        <stp/>
+        <stp>{DC50E875-FB49-4814-AE35-27C87F60F934}</stp>
         <tr r="P4" s="11"/>
       </tp>
       <tp t="s">
-        <v>Paused at 16:22:38</v>
+        <v>Paused at 16:28:15</v>
         <stp/>
-        <stp>{4B758BF7-529B-42F5-8B48-C5CA71BA2FEF}</stp>
-        <tr r="O4" s="18"/>
+        <stp>{968250FF-03CE-4C51-AA69-5059ADCF4932}</stp>
+        <tr r="O4" s="65"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp t="s">
+        <v>Paused at 16:28:15</v>
+        <stp/>
+        <stp>{ACC25303-D7F8-434D-90FB-8FC05ECB67E4}</stp>
+        <tr r="O2" s="17"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp t="s">
+        <v>Paused at 16:28:15</v>
+        <stp/>
+        <stp>{71D192FE-9F04-4E5C-AA01-4FA4E3B4A68F}</stp>
+        <tr r="P4" s="12"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rdatartdserver">
+      <tp t="s">
+        <v>Paused at 16:28:15</v>
+        <stp/>
+        <stp>{2967301F-4FF8-41D9-A5F3-3471391E849F}</stp>
+        <tr r="P4" s="25"/>
       </tp>
       <tp t="s">
-        <v>Paused at 16:22:38</v>
+        <v>Paused at 16:28:15</v>
         <stp/>
-        <stp>{9F9FAC8B-B3DE-49B5-ACA9-120E7B03E710}</stp>
-        <tr r="O4" s="65"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 16:22:38</v>
-        <stp/>
-        <stp>{4F4B57EA-BB7C-4429-AE2F-2696586101A9}</stp>
-        <tr r="P4" s="26"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 16:22:38</v>
-        <stp/>
-        <stp>{2D44D6F9-49B2-429F-A0E0-A64956AF5353}</stp>
-        <tr r="M4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 16:22:38</v>
-        <stp/>
-        <stp>{E4A028AC-F49F-466A-8D17-73EC2D023447}</stp>
-        <tr r="Q5" s="64"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 16:22:38</v>
-        <stp/>
-        <stp>{5C397497-0286-491F-8FC6-91BE2E983F76}</stp>
-        <tr r="O2" s="17"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 16:22:38</v>
-        <stp/>
-        <stp>{C1186F56-DED2-4D81-B7E3-6F72C6433F09}</stp>
-        <tr r="N4" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 16:22:38</v>
-        <stp/>
-        <stp>{66C92D9B-2101-42A3-A4DD-667A9952CEA6}</stp>
-        <tr r="J4" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 16:22:38</v>
-        <stp/>
-        <stp>{AC7F09D9-CDD0-467A-986D-668895C865DF}</stp>
-        <tr r="P4" s="25"/>
+        <stp>{8C729B86-6BF0-4375-ABE4-2EF06A16DAE7}</stp>
+        <tr r="O4" s="18"/>
       </tp>
     </main>
   </volType>
@@ -2927,9 +2936,7 @@
       <c r="C5" s="350" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="351">
-        <v>41873.659745370373</v>
-      </c>
+      <c r="D5" s="351"/>
       <c r="E5" s="9"/>
       <c r="G5" s="126"/>
       <c r="H5" s="347" t="s">
@@ -2965,7 +2972,7 @@
       </c>
       <c r="D7" s="353">
         <f>_xll.ohTrigger(Deposits!R3,FRA!X3,Futures3M!Z3,FuturesHWConvAdj!Q3,Swap3M!Z3,Swap6M!Z3,BasisSwap1M3M!X3,BasisSwap3M6M!X3,OIS!W3)</f>
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E7" s="9"/>
       <c r="G7" s="126"/>
@@ -2982,7 +2989,7 @@
       </c>
       <c r="D8" s="353">
         <f>_xll.ohTrigger(BBSW!W6:W12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="9"/>
       <c r="G8" s="126"/>
@@ -3024,7 +3031,7 @@
       </c>
       <c r="I10" s="358">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41873</v>
+        <v>41876</v>
       </c>
       <c r="J10" s="204"/>
     </row>
@@ -3228,8 +3235,8 @@
       <c r="C23" s="203" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="216" t="b">
-        <v>1</v>
+      <c r="D23" s="216" t="s">
+        <v>222</v>
       </c>
       <c r="E23" s="9"/>
     </row>
@@ -3286,7 +3293,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3365,7 +3372,7 @@
       <c r="P3" s="51"/>
       <c r="Q3" s="123">
         <f>_xll.ohTrigger(Q5:Q9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="3"/>
@@ -3428,7 +3435,7 @@
       </c>
       <c r="C5" s="72" t="str">
         <f>_xll.qlSimpleQuote(B5,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDHW_Volatility_Quote#0000</v>
+        <v>AUDHW_Volatility_Quote#0001</v>
       </c>
       <c r="D5" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(C5)</f>
@@ -3458,9 +3465,9 @@
         <f t="array" ref="P5:P6">QuoteLive</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="188">
+      <c r="Q5" s="188" t="e">
         <f>_xll.qlSimpleQuoteSetValue(C5,P5,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R5" s="9"/>
       <c r="S5" s="3"/>
@@ -3482,7 +3489,7 @@
       </c>
       <c r="C6" s="72" t="str">
         <f>_xll.qlSimpleQuote(B6,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDHW_MeanReversion_Quote#0000</v>
+        <v>AUDHW_MeanReversion_Quote#0001</v>
       </c>
       <c r="D6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(C6)</f>
@@ -3507,9 +3514,9 @@
       <c r="P6" s="213">
         <v>0.03</v>
       </c>
-      <c r="Q6" s="180">
+      <c r="Q6" s="180" t="e">
         <f>_xll.qlSimpleQuoteSetValue(C6,P6,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R6" s="9"/>
       <c r="S6" s="3"/>
@@ -3782,7 +3789,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="330" t="str">
         <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Paused at 16:22:38</v>
+        <v>Paused at 16:28:15</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -3835,7 +3842,7 @@
       </c>
       <c r="F5" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB6M_Quote#0000</v>
+        <v>AUDQM3AB6M_Quote#0001</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -3914,7 +3921,7 @@
       </c>
       <c r="F6" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB1Y_Quote#0000</v>
+        <v>AUDQM3AB1Y_Quote#0001</v>
       </c>
       <c r="G6" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -3962,9 +3969,9 @@
       <c r="Y6" s="154">
         <v>2.6225000000000001</v>
       </c>
-      <c r="Z6" s="100">
+      <c r="Z6" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA6" s="90"/>
       <c r="AB6" s="3"/>
@@ -3991,7 +3998,7 @@
       </c>
       <c r="F7" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB15M_Quote#0000</v>
+        <v>AUDQM3AB15M_Quote#0001</v>
       </c>
       <c r="G7" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -4068,7 +4075,7 @@
       </c>
       <c r="F8" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB18M_Quote#0000</v>
+        <v>AUDQM3AB18M_Quote#0001</v>
       </c>
       <c r="G8" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -4145,7 +4152,7 @@
       </c>
       <c r="F9" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB21M_Quote#0000</v>
+        <v>AUDQM3AB21M_Quote#0001</v>
       </c>
       <c r="G9" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -4222,7 +4229,7 @@
       </c>
       <c r="F10" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB2Y_Quote#0000</v>
+        <v>AUDQM3AB2Y_Quote#0001</v>
       </c>
       <c r="G10" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -4247,10 +4254,10 @@
         <v>AUDQM3AB2Y=ICAA</v>
       </c>
       <c r="Q10" s="101">
-        <v>2.7124999999999999</v>
+        <v>2.7050000000000001</v>
       </c>
       <c r="R10" s="101">
-        <v>2.7725</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="S10" s="101">
         <v>0</v>
@@ -4260,7 +4267,7 @@
       </c>
       <c r="U10" s="104">
         <f>_xll.qlMidSafe($Q10,$R10)</f>
-        <v>2.7424999999999997</v>
+        <v>2.7350000000000003</v>
       </c>
       <c r="V10" s="102"/>
       <c r="W10" s="103">
@@ -4268,11 +4275,11 @@
       </c>
       <c r="X10" s="102"/>
       <c r="Y10" s="154">
-        <v>2.7424999999999997</v>
-      </c>
-      <c r="Z10" s="100">
+        <v>2.7350000000000003</v>
+      </c>
+      <c r="Z10" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA10" s="90"/>
       <c r="AB10" s="3"/>
@@ -4299,7 +4306,7 @@
       </c>
       <c r="F11" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB3Y_Quote#0000</v>
+        <v>AUDQM3AB3Y_Quote#0001</v>
       </c>
       <c r="G11" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -4324,10 +4331,10 @@
         <v>AUDQM3AB3Y=ICAA</v>
       </c>
       <c r="Q11" s="101">
-        <v>2.87</v>
+        <v>2.8600000000000003</v>
       </c>
       <c r="R11" s="101">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="S11" s="101">
         <v>0</v>
@@ -4337,7 +4344,7 @@
       </c>
       <c r="U11" s="104">
         <f>_xll.qlMidSafe($Q11,$R11)</f>
-        <v>2.9000000000000004</v>
+        <v>2.89</v>
       </c>
       <c r="V11" s="102"/>
       <c r="W11" s="103">
@@ -4345,11 +4352,11 @@
       </c>
       <c r="X11" s="102"/>
       <c r="Y11" s="154">
-        <v>2.9000000000000004</v>
-      </c>
-      <c r="Z11" s="100">
+        <v>2.89</v>
+      </c>
+      <c r="Z11" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA11" s="90"/>
       <c r="AB11" s="3"/>
@@ -4376,7 +4383,7 @@
       </c>
       <c r="F12" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB4Y_Quote#0000</v>
+        <v>AUDQM3AB4Y_Quote#0001</v>
       </c>
       <c r="G12" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -4453,7 +4460,7 @@
       </c>
       <c r="F13" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB5Y_Quote#0000</v>
+        <v>AUDQM3AB5Y_Quote#0001</v>
       </c>
       <c r="G13" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -4530,7 +4537,7 @@
       </c>
       <c r="F14" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB6Y_Quote#0000</v>
+        <v>AUDQM3AB6Y_Quote#0001</v>
       </c>
       <c r="G14" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -4607,7 +4614,7 @@
       </c>
       <c r="F15" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB7Y_Quote#0000</v>
+        <v>AUDQM3AB7Y_Quote#0001</v>
       </c>
       <c r="G15" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -4684,7 +4691,7 @@
       </c>
       <c r="F16" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB8Y_Quote#0000</v>
+        <v>AUDQM3AB8Y_Quote#0001</v>
       </c>
       <c r="G16" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -4761,7 +4768,7 @@
       </c>
       <c r="F17" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB9Y_Quote#0000</v>
+        <v>AUDQM3AB9Y_Quote#0001</v>
       </c>
       <c r="G17" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -4838,7 +4845,7 @@
       </c>
       <c r="F18" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB10Y_Quote#0000</v>
+        <v>AUDQM3AB10Y_Quote#0001</v>
       </c>
       <c r="G18" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -4915,7 +4922,7 @@
       </c>
       <c r="F19" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB11Y_Quote#0000</v>
+        <v>AUDQM3AB11Y_Quote#0001</v>
       </c>
       <c r="G19" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -4992,7 +4999,7 @@
       </c>
       <c r="F20" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB12Y_Quote#0000</v>
+        <v>AUDQM3AB12Y_Quote#0001</v>
       </c>
       <c r="G20" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -5069,7 +5076,7 @@
       </c>
       <c r="F21" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB13Y_Quote#0000</v>
+        <v>AUDQM3AB13Y_Quote#0001</v>
       </c>
       <c r="G21" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -5146,7 +5153,7 @@
       </c>
       <c r="F22" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB14Y_Quote#0000</v>
+        <v>AUDQM3AB14Y_Quote#0001</v>
       </c>
       <c r="G22" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -5223,7 +5230,7 @@
       </c>
       <c r="F23" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB15Y_Quote#0000</v>
+        <v>AUDQM3AB15Y_Quote#0001</v>
       </c>
       <c r="G23" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -5300,7 +5307,7 @@
       </c>
       <c r="F24" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB16Y_Quote#0000</v>
+        <v>AUDQM3AB16Y_Quote#0001</v>
       </c>
       <c r="G24" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -5377,7 +5384,7 @@
       </c>
       <c r="F25" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB17Y_Quote#0000</v>
+        <v>AUDQM3AB17Y_Quote#0001</v>
       </c>
       <c r="G25" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -5454,7 +5461,7 @@
       </c>
       <c r="F26" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB18Y_Quote#0000</v>
+        <v>AUDQM3AB18Y_Quote#0001</v>
       </c>
       <c r="G26" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -5531,7 +5538,7 @@
       </c>
       <c r="F27" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB19Y_Quote#0000</v>
+        <v>AUDQM3AB19Y_Quote#0001</v>
       </c>
       <c r="G27" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -5608,7 +5615,7 @@
       </c>
       <c r="F28" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB20Y_Quote#0000</v>
+        <v>AUDQM3AB20Y_Quote#0001</v>
       </c>
       <c r="G28" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -5685,7 +5692,7 @@
       </c>
       <c r="F29" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB21Y_Quote#0000</v>
+        <v>AUDQM3AB21Y_Quote#0001</v>
       </c>
       <c r="G29" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -5762,7 +5769,7 @@
       </c>
       <c r="F30" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB22Y_Quote#0000</v>
+        <v>AUDQM3AB22Y_Quote#0001</v>
       </c>
       <c r="G30" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -5839,7 +5846,7 @@
       </c>
       <c r="F31" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB23Y_Quote#0000</v>
+        <v>AUDQM3AB23Y_Quote#0001</v>
       </c>
       <c r="G31" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -5916,7 +5923,7 @@
       </c>
       <c r="F32" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB24Y_Quote#0000</v>
+        <v>AUDQM3AB24Y_Quote#0001</v>
       </c>
       <c r="G32" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -5993,7 +6000,7 @@
       </c>
       <c r="F33" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB25Y_Quote#0000</v>
+        <v>AUDQM3AB25Y_Quote#0001</v>
       </c>
       <c r="G33" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -6070,7 +6077,7 @@
       </c>
       <c r="F34" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB26Y_Quote#0000</v>
+        <v>AUDQM3AB26Y_Quote#0001</v>
       </c>
       <c r="G34" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -6147,7 +6154,7 @@
       </c>
       <c r="F35" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB27Y_Quote#0000</v>
+        <v>AUDQM3AB27Y_Quote#0001</v>
       </c>
       <c r="G35" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -6224,7 +6231,7 @@
       </c>
       <c r="F36" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB28Y_Quote#0000</v>
+        <v>AUDQM3AB28Y_Quote#0001</v>
       </c>
       <c r="G36" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -6301,7 +6308,7 @@
       </c>
       <c r="F37" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB29Y_Quote#0000</v>
+        <v>AUDQM3AB29Y_Quote#0001</v>
       </c>
       <c r="G37" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -6378,7 +6385,7 @@
       </c>
       <c r="F38" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB30Y_Quote#0000</v>
+        <v>AUDQM3AB30Y_Quote#0001</v>
       </c>
       <c r="G38" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -6455,7 +6462,7 @@
       </c>
       <c r="F39" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB35Y_Quote#0000</v>
+        <v>AUDQM3AB35Y_Quote#0001</v>
       </c>
       <c r="G39" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -6532,7 +6539,7 @@
       </c>
       <c r="F40" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB40Y_Quote#0000</v>
+        <v>AUDQM3AB40Y_Quote#0001</v>
       </c>
       <c r="G40" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -6609,7 +6616,7 @@
       </c>
       <c r="F41" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB50Y_Quote#0000</v>
+        <v>AUDQM3AB50Y_Quote#0001</v>
       </c>
       <c r="G41" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -6686,7 +6693,7 @@
       </c>
       <c r="F42" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C42&amp;$D42&amp;$B42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB60Y_Quote#0000</v>
+        <v>AUDQM3AB60Y_Quote#0001</v>
       </c>
       <c r="G42" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -6804,7 +6811,9 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6962,7 +6971,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="98" t="str">
         <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Paused at 16:22:38</v>
+        <v>Paused at 16:28:15</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -7015,7 +7024,7 @@
       </c>
       <c r="F5" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB6M_Quote#0000</v>
+        <v>AUDSM6AB6M_Quote#0001</v>
       </c>
       <c r="G5" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -7094,7 +7103,7 @@
       </c>
       <c r="F6" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB1Y_Quote#0000</v>
+        <v>AUDSM6AB1Y_Quote#0001</v>
       </c>
       <c r="G6" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -7171,7 +7180,7 @@
       </c>
       <c r="F7" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB15M_Quote#0000</v>
+        <v>AUDSM6AB15M_Quote#0001</v>
       </c>
       <c r="G7" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -7248,7 +7257,7 @@
       </c>
       <c r="F8" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB18M_Quote#0000</v>
+        <v>AUDSM6AB18M_Quote#0001</v>
       </c>
       <c r="G8" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -7325,7 +7334,7 @@
       </c>
       <c r="F9" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB21M_Quote#0000</v>
+        <v>AUDSM6AB21M_Quote#0001</v>
       </c>
       <c r="G9" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -7402,7 +7411,7 @@
       </c>
       <c r="F10" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB2Y_Quote#0000</v>
+        <v>AUDSM6AB2Y_Quote#0001</v>
       </c>
       <c r="G10" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -7479,7 +7488,7 @@
       </c>
       <c r="F11" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB3Y_Quote#0000</v>
+        <v>AUDSM6AB3Y_Quote#0001</v>
       </c>
       <c r="G11" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -7556,7 +7565,7 @@
       </c>
       <c r="F12" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB4Y_Quote#0000</v>
+        <v>AUDSM6AB4Y_Quote#0001</v>
       </c>
       <c r="G12" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -7581,10 +7590,10 @@
         <v>AUDSM6AB4Y=ICAA</v>
       </c>
       <c r="Q12" s="101">
-        <v>3.1100000000000003</v>
+        <v>3.0950000000000002</v>
       </c>
       <c r="R12" s="101">
-        <v>3.1700000000000004</v>
+        <v>3.1550000000000002</v>
       </c>
       <c r="S12" s="101">
         <v>0</v>
@@ -7594,7 +7603,7 @@
       </c>
       <c r="U12" s="104">
         <f>_xll.qlMidEquivalent($Q12,$R12,$S12,$T12)</f>
-        <v>3.1400000000000006</v>
+        <v>3.125</v>
       </c>
       <c r="V12" s="102"/>
       <c r="W12" s="103">
@@ -7602,11 +7611,11 @@
       </c>
       <c r="X12" s="102"/>
       <c r="Y12" s="154">
-        <v>3.1400000000000006</v>
-      </c>
-      <c r="Z12" s="100">
+        <v>3.125</v>
+      </c>
+      <c r="Z12" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA12" s="90"/>
       <c r="AB12" s="3"/>
@@ -7633,7 +7642,7 @@
       </c>
       <c r="F13" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB5Y_Quote#0000</v>
+        <v>AUDSM6AB5Y_Quote#0001</v>
       </c>
       <c r="G13" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -7658,10 +7667,10 @@
         <v>AUDSM6AB5Y=ICAA</v>
       </c>
       <c r="Q13" s="101">
-        <v>3.2625000000000002</v>
+        <v>3.2425000000000002</v>
       </c>
       <c r="R13" s="101">
-        <v>3.3225000000000002</v>
+        <v>3.3025000000000002</v>
       </c>
       <c r="S13" s="101">
         <v>0</v>
@@ -7671,7 +7680,7 @@
       </c>
       <c r="U13" s="104">
         <f>_xll.qlMidEquivalent($Q13,$R13,$S13,$T13)</f>
-        <v>3.2925000000000004</v>
+        <v>3.2725</v>
       </c>
       <c r="V13" s="102"/>
       <c r="W13" s="103">
@@ -7679,11 +7688,11 @@
       </c>
       <c r="X13" s="102"/>
       <c r="Y13" s="154">
-        <v>3.2925000000000004</v>
-      </c>
-      <c r="Z13" s="100">
+        <v>3.2725</v>
+      </c>
+      <c r="Z13" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA13" s="90"/>
       <c r="AB13" s="3"/>
@@ -7710,7 +7719,7 @@
       </c>
       <c r="F14" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB6Y_Quote#0000</v>
+        <v>AUDSM6AB6Y_Quote#0001</v>
       </c>
       <c r="G14" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -7735,10 +7744,10 @@
         <v>AUDSM6AB6Y=ICAA</v>
       </c>
       <c r="Q14" s="101">
-        <v>3.4000000000000004</v>
+        <v>3.3800000000000003</v>
       </c>
       <c r="R14" s="101">
-        <v>3.46</v>
+        <v>3.44</v>
       </c>
       <c r="S14" s="101">
         <v>0</v>
@@ -7748,7 +7757,7 @@
       </c>
       <c r="U14" s="104">
         <f>_xll.qlMidEquivalent($Q14,$R14,$S14,$T14)</f>
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="V14" s="102"/>
       <c r="W14" s="103">
@@ -7756,11 +7765,11 @@
       </c>
       <c r="X14" s="102"/>
       <c r="Y14" s="154">
-        <v>3.43</v>
-      </c>
-      <c r="Z14" s="100">
+        <v>3.41</v>
+      </c>
+      <c r="Z14" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA14" s="90"/>
       <c r="AB14" s="3"/>
@@ -7787,7 +7796,7 @@
       </c>
       <c r="F15" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB7Y_Quote#0000</v>
+        <v>AUDSM6AB7Y_Quote#0001</v>
       </c>
       <c r="G15" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -7812,10 +7821,10 @@
         <v>AUDSM6AB7Y=ICAA</v>
       </c>
       <c r="Q15" s="101">
-        <v>3.5250000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="R15" s="101">
-        <v>3.585</v>
+        <v>3.56</v>
       </c>
       <c r="S15" s="101">
         <v>0</v>
@@ -7825,7 +7834,7 @@
       </c>
       <c r="U15" s="104">
         <f>_xll.qlMidEquivalent($Q15,$R15,$S15,$T15)</f>
-        <v>3.5550000000000002</v>
+        <v>3.5300000000000002</v>
       </c>
       <c r="V15" s="102"/>
       <c r="W15" s="103">
@@ -7833,11 +7842,11 @@
       </c>
       <c r="X15" s="102"/>
       <c r="Y15" s="154">
-        <v>3.5550000000000002</v>
-      </c>
-      <c r="Z15" s="100">
+        <v>3.5300000000000002</v>
+      </c>
+      <c r="Z15" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA15" s="90"/>
       <c r="AB15" s="3"/>
@@ -7864,7 +7873,7 @@
       </c>
       <c r="F16" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB8Y_Quote#0000</v>
+        <v>AUDSM6AB8Y_Quote#0001</v>
       </c>
       <c r="G16" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -7889,10 +7898,10 @@
         <v>AUDSM6AB8Y=ICAA</v>
       </c>
       <c r="Q16" s="101">
-        <v>3.6300000000000003</v>
+        <v>3.6</v>
       </c>
       <c r="R16" s="101">
-        <v>3.6900000000000004</v>
+        <v>3.66</v>
       </c>
       <c r="S16" s="101">
         <v>0</v>
@@ -7902,7 +7911,7 @@
       </c>
       <c r="U16" s="104">
         <f>_xll.qlMidEquivalent($Q16,$R16,$S16,$T16)</f>
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
       <c r="V16" s="102"/>
       <c r="W16" s="103">
@@ -7910,11 +7919,11 @@
       </c>
       <c r="X16" s="102"/>
       <c r="Y16" s="154">
-        <v>3.66</v>
-      </c>
-      <c r="Z16" s="100">
+        <v>3.63</v>
+      </c>
+      <c r="Z16" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA16" s="90"/>
       <c r="AB16" s="3"/>
@@ -7941,7 +7950,7 @@
       </c>
       <c r="F17" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB9Y_Quote#0000</v>
+        <v>AUDSM6AB9Y_Quote#0001</v>
       </c>
       <c r="G17" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -7966,10 +7975,10 @@
         <v>AUDSM6AB9Y=ICAA</v>
       </c>
       <c r="Q17" s="101">
-        <v>3.72</v>
+        <v>3.6875</v>
       </c>
       <c r="R17" s="101">
-        <v>3.7800000000000002</v>
+        <v>3.7475000000000001</v>
       </c>
       <c r="S17" s="101">
         <v>0</v>
@@ -7979,7 +7988,7 @@
       </c>
       <c r="U17" s="104">
         <f>_xll.qlMidEquivalent($Q17,$R17,$S17,$T17)</f>
-        <v>3.75</v>
+        <v>3.7175000000000002</v>
       </c>
       <c r="V17" s="102"/>
       <c r="W17" s="103">
@@ -7987,11 +7996,11 @@
       </c>
       <c r="X17" s="102"/>
       <c r="Y17" s="154">
-        <v>3.75</v>
-      </c>
-      <c r="Z17" s="100">
+        <v>3.7175000000000002</v>
+      </c>
+      <c r="Z17" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA17" s="90"/>
       <c r="AB17" s="3"/>
@@ -8018,7 +8027,7 @@
       </c>
       <c r="F18" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB10Y_Quote#0000</v>
+        <v>AUDSM6AB10Y_Quote#0001</v>
       </c>
       <c r="G18" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -8043,10 +8052,10 @@
         <v>AUDSM6AB10Y=ICAA</v>
       </c>
       <c r="Q18" s="101">
-        <v>3.8025000000000002</v>
+        <v>3.77</v>
       </c>
       <c r="R18" s="101">
-        <v>3.8625000000000003</v>
+        <v>3.83</v>
       </c>
       <c r="S18" s="101">
         <v>0</v>
@@ -8056,7 +8065,7 @@
       </c>
       <c r="U18" s="104">
         <f>_xll.qlMidEquivalent($Q18,$R18,$S18,$T18)</f>
-        <v>3.8325000000000005</v>
+        <v>3.8</v>
       </c>
       <c r="V18" s="102"/>
       <c r="W18" s="103">
@@ -8064,11 +8073,11 @@
       </c>
       <c r="X18" s="102"/>
       <c r="Y18" s="154">
-        <v>3.8325000000000005</v>
-      </c>
-      <c r="Z18" s="100">
+        <v>3.8</v>
+      </c>
+      <c r="Z18" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA18" s="90"/>
       <c r="AB18" s="3"/>
@@ -8095,7 +8104,7 @@
       </c>
       <c r="F19" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB11Y_Quote#0000</v>
+        <v>AUDSM6AB11Y_Quote#0001</v>
       </c>
       <c r="G19" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -8172,7 +8181,7 @@
       </c>
       <c r="F20" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB12Y_Quote#0000</v>
+        <v>AUDSM6AB12Y_Quote#0001</v>
       </c>
       <c r="G20" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -8197,10 +8206,10 @@
         <v>AUDSM6AB12Y=ICAA</v>
       </c>
       <c r="Q20" s="101">
-        <v>3.9400000000000004</v>
+        <v>3.91</v>
       </c>
       <c r="R20" s="101">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="S20" s="101">
         <v>0</v>
@@ -8210,7 +8219,7 @@
       </c>
       <c r="U20" s="104">
         <f>_xll.qlMidEquivalent($Q20,$R20,$S20,$T20)</f>
-        <v>3.97</v>
+        <v>3.9400000000000004</v>
       </c>
       <c r="V20" s="102"/>
       <c r="W20" s="103">
@@ -8218,11 +8227,11 @@
       </c>
       <c r="X20" s="102"/>
       <c r="Y20" s="154">
-        <v>3.97</v>
-      </c>
-      <c r="Z20" s="100">
+        <v>3.9400000000000004</v>
+      </c>
+      <c r="Z20" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA20" s="90"/>
       <c r="AB20" s="3"/>
@@ -8249,7 +8258,7 @@
       </c>
       <c r="F21" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB13Y_Quote#0000</v>
+        <v>AUDSM6AB13Y_Quote#0001</v>
       </c>
       <c r="G21" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -8326,7 +8335,7 @@
       </c>
       <c r="F22" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB14Y_Quote#0000</v>
+        <v>AUDSM6AB14Y_Quote#0001</v>
       </c>
       <c r="G22" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -8403,7 +8412,7 @@
       </c>
       <c r="F23" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB15Y_Quote#0000</v>
+        <v>AUDSM6AB15Y_Quote#0001</v>
       </c>
       <c r="G23" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -8428,10 +8437,10 @@
         <v>AUDSM6AB15Y=ICAA</v>
       </c>
       <c r="Q23" s="101">
-        <v>4.0775000000000006</v>
+        <v>4.0475000000000003</v>
       </c>
       <c r="R23" s="101">
-        <v>4.1575000000000006</v>
+        <v>4.1275000000000004</v>
       </c>
       <c r="S23" s="101">
         <v>0</v>
@@ -8441,7 +8450,7 @@
       </c>
       <c r="U23" s="104">
         <f>_xll.qlMidEquivalent($Q23,$R23,$S23,$T23)</f>
-        <v>4.1175000000000006</v>
+        <v>4.0875000000000004</v>
       </c>
       <c r="V23" s="102"/>
       <c r="W23" s="103">
@@ -8449,11 +8458,11 @@
       </c>
       <c r="X23" s="102"/>
       <c r="Y23" s="154">
-        <v>4.1175000000000006</v>
-      </c>
-      <c r="Z23" s="100">
+        <v>4.0875000000000004</v>
+      </c>
+      <c r="Z23" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA23" s="90"/>
       <c r="AB23" s="3"/>
@@ -8480,7 +8489,7 @@
       </c>
       <c r="F24" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB16Y_Quote#0000</v>
+        <v>AUDSM6AB16Y_Quote#0001</v>
       </c>
       <c r="G24" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -8557,7 +8566,7 @@
       </c>
       <c r="F25" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB17Y_Quote#0000</v>
+        <v>AUDSM6AB17Y_Quote#0001</v>
       </c>
       <c r="G25" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -8634,7 +8643,7 @@
       </c>
       <c r="F26" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB18Y_Quote#0000</v>
+        <v>AUDSM6AB18Y_Quote#0001</v>
       </c>
       <c r="G26" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -8711,7 +8720,7 @@
       </c>
       <c r="F27" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB19Y_Quote#0000</v>
+        <v>AUDSM6AB19Y_Quote#0001</v>
       </c>
       <c r="G27" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -8788,7 +8797,7 @@
       </c>
       <c r="F28" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB20Y_Quote#0000</v>
+        <v>AUDSM6AB20Y_Quote#0001</v>
       </c>
       <c r="G28" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -8813,10 +8822,10 @@
         <v>AUDSM6AB20Y=ICAA</v>
       </c>
       <c r="Q28" s="101">
-        <v>4.2200000000000006</v>
+        <v>4.1950000000000003</v>
       </c>
       <c r="R28" s="101">
-        <v>4.3</v>
+        <v>4.2750000000000004</v>
       </c>
       <c r="S28" s="101">
         <v>0</v>
@@ -8826,7 +8835,7 @@
       </c>
       <c r="U28" s="104">
         <f>_xll.qlMidEquivalent($Q28,$R28,$S28,$T28)</f>
-        <v>4.26</v>
+        <v>4.2350000000000003</v>
       </c>
       <c r="V28" s="102"/>
       <c r="W28" s="103">
@@ -8834,11 +8843,11 @@
       </c>
       <c r="X28" s="102"/>
       <c r="Y28" s="154">
-        <v>4.26</v>
-      </c>
-      <c r="Z28" s="100">
+        <v>4.2350000000000003</v>
+      </c>
+      <c r="Z28" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA28" s="90"/>
       <c r="AB28" s="3"/>
@@ -8865,7 +8874,7 @@
       </c>
       <c r="F29" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB21Y_Quote#0000</v>
+        <v>AUDSM6AB21Y_Quote#0001</v>
       </c>
       <c r="G29" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -8942,7 +8951,7 @@
       </c>
       <c r="F30" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB22Y_Quote#0000</v>
+        <v>AUDSM6AB22Y_Quote#0001</v>
       </c>
       <c r="G30" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -9019,7 +9028,7 @@
       </c>
       <c r="F31" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB23Y_Quote#0000</v>
+        <v>AUDSM6AB23Y_Quote#0001</v>
       </c>
       <c r="G31" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -9096,7 +9105,7 @@
       </c>
       <c r="F32" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB24Y_Quote#0000</v>
+        <v>AUDSM6AB24Y_Quote#0001</v>
       </c>
       <c r="G32" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -9173,7 +9182,7 @@
       </c>
       <c r="F33" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB25Y_Quote#0000</v>
+        <v>AUDSM6AB25Y_Quote#0001</v>
       </c>
       <c r="G33" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -9198,10 +9207,10 @@
         <v>AUDSM6AB25Y=ICAA</v>
       </c>
       <c r="Q33" s="101">
-        <v>4.2725</v>
+        <v>4.2475000000000005</v>
       </c>
       <c r="R33" s="101">
-        <v>4.3525</v>
+        <v>4.3275000000000006</v>
       </c>
       <c r="S33" s="101">
         <v>0</v>
@@ -9211,7 +9220,7 @@
       </c>
       <c r="U33" s="104">
         <f>_xll.qlMidEquivalent($Q33,$R33,$S33,$T33)</f>
-        <v>4.3125</v>
+        <v>4.2875000000000005</v>
       </c>
       <c r="V33" s="102"/>
       <c r="W33" s="103">
@@ -9219,11 +9228,11 @@
       </c>
       <c r="X33" s="102"/>
       <c r="Y33" s="154">
-        <v>4.3125</v>
-      </c>
-      <c r="Z33" s="100">
+        <v>4.2875000000000005</v>
+      </c>
+      <c r="Z33" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F33,Y33/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA33" s="90"/>
       <c r="AB33" s="3"/>
@@ -9250,7 +9259,7 @@
       </c>
       <c r="F34" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB26Y_Quote#0000</v>
+        <v>AUDSM6AB26Y_Quote#0001</v>
       </c>
       <c r="G34" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -9327,7 +9336,7 @@
       </c>
       <c r="F35" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB27Y_Quote#0000</v>
+        <v>AUDSM6AB27Y_Quote#0001</v>
       </c>
       <c r="G35" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -9404,7 +9413,7 @@
       </c>
       <c r="F36" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB28Y_Quote#0000</v>
+        <v>AUDSM6AB28Y_Quote#0001</v>
       </c>
       <c r="G36" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -9481,7 +9490,7 @@
       </c>
       <c r="F37" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB29Y_Quote#0000</v>
+        <v>AUDSM6AB29Y_Quote#0001</v>
       </c>
       <c r="G37" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -9558,7 +9567,7 @@
       </c>
       <c r="F38" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB30Y_Quote#0000</v>
+        <v>AUDSM6AB30Y_Quote#0001</v>
       </c>
       <c r="G38" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -9583,10 +9592,10 @@
         <v>AUDSM6AB30Y=ICAA</v>
       </c>
       <c r="Q38" s="101">
-        <v>4.3</v>
+        <v>4.2675000000000001</v>
       </c>
       <c r="R38" s="101">
-        <v>4.38</v>
+        <v>4.3475000000000001</v>
       </c>
       <c r="S38" s="101">
         <v>0</v>
@@ -9596,7 +9605,7 @@
       </c>
       <c r="U38" s="104">
         <f>_xll.qlMidEquivalent($Q38,$R38,$S38,$T38)</f>
-        <v>4.34</v>
+        <v>4.3075000000000001</v>
       </c>
       <c r="V38" s="102"/>
       <c r="W38" s="103">
@@ -9604,11 +9613,11 @@
       </c>
       <c r="X38" s="102"/>
       <c r="Y38" s="154">
-        <v>4.34</v>
-      </c>
-      <c r="Z38" s="100">
+        <v>4.3075000000000001</v>
+      </c>
+      <c r="Z38" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F38,Y38/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA38" s="90"/>
       <c r="AB38" s="3"/>
@@ -9635,7 +9644,7 @@
       </c>
       <c r="F39" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB35Y_Quote#0000</v>
+        <v>AUDSM6AB35Y_Quote#0001</v>
       </c>
       <c r="G39" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -9712,7 +9721,7 @@
       </c>
       <c r="F40" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB40Y_Quote#0000</v>
+        <v>AUDSM6AB40Y_Quote#0001</v>
       </c>
       <c r="G40" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -9737,10 +9746,10 @@
         <v>AUDSM6AB40Y=ICAA</v>
       </c>
       <c r="Q40" s="101">
-        <v>4.26</v>
+        <v>4.2275</v>
       </c>
       <c r="R40" s="101">
-        <v>4.34</v>
+        <v>4.3075000000000001</v>
       </c>
       <c r="S40" s="101">
         <v>0</v>
@@ -9750,7 +9759,7 @@
       </c>
       <c r="U40" s="104">
         <f>_xll.qlMidEquivalent($Q40,$R40,$S40,$T40)</f>
-        <v>4.3</v>
+        <v>4.2675000000000001</v>
       </c>
       <c r="V40" s="102"/>
       <c r="W40" s="103">
@@ -9758,11 +9767,11 @@
       </c>
       <c r="X40" s="102"/>
       <c r="Y40" s="154">
-        <v>4.3</v>
-      </c>
-      <c r="Z40" s="100">
+        <v>4.2675000000000001</v>
+      </c>
+      <c r="Z40" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F40,Y40/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA40" s="90"/>
       <c r="AB40" s="3"/>
@@ -9789,7 +9798,7 @@
       </c>
       <c r="F41" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB50Y_Quote#0000</v>
+        <v>AUDSM6AB50Y_Quote#0001</v>
       </c>
       <c r="G41" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -9866,7 +9875,7 @@
       </c>
       <c r="F42" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C42&amp;$D42&amp;$B42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB60Y_Quote#0000</v>
+        <v>AUDSM6AB60Y_Quote#0001</v>
       </c>
       <c r="G42" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -10089,7 +10098,7 @@
       <c r="W3" s="51"/>
       <c r="X3" s="123">
         <f>_xll.ohTrigger(X6:X44)</f>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="90"/>
     </row>
@@ -10120,7 +10129,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="98" t="str">
         <f t="array" ref="P4">_xll.RData(P5:P44,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Paused at 16:22:38</v>
+        <v>Paused at 16:28:15</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -10161,7 +10170,7 @@
       </c>
       <c r="F5" s="18" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR3M_Quote#0000</v>
+        <v>AUD1BR3BR3M_Quote#0001</v>
       </c>
       <c r="G5" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -10206,9 +10215,9 @@
         <f t="array" ref="W5:W44">QuoteLive</f>
         <v>3.875</v>
       </c>
-      <c r="X5" s="100">
+      <c r="X5" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F5,W5/10000,Trigger)</f>
-        <v>-7.5000000000000034E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y5" s="90"/>
     </row>
@@ -10229,7 +10238,7 @@
       </c>
       <c r="F6" s="18" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR6M_Quote#0002</v>
+        <v>AUD1BR3BR6M_Quote#0001</v>
       </c>
       <c r="G6" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -10273,9 +10282,9 @@
       <c r="W6" s="208">
         <v>4.625</v>
       </c>
-      <c r="X6" s="100">
+      <c r="X6" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/10000,Trigger)</f>
-        <v>-5.0000000000000023E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y6" s="90"/>
       <c r="Z6" s="3"/>
@@ -10300,7 +10309,7 @@
       </c>
       <c r="F7" s="18" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR9M_Quote#0000</v>
+        <v>AUD1BR3BR9M_Quote#0001</v>
       </c>
       <c r="G7" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -10344,9 +10353,9 @@
       <c r="W7" s="208">
         <v>5.125</v>
       </c>
-      <c r="X7" s="100">
+      <c r="X7" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F7,W7/10000,Trigger)</f>
-        <v>-4.9999999999999914E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y7" s="90"/>
       <c r="Z7" s="3"/>
@@ -10373,7 +10382,7 @@
       </c>
       <c r="F8" s="18" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR1Y_Quote#0002</v>
+        <v>AUD1BR3BR1Y_Quote#0001</v>
       </c>
       <c r="G8" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -10417,9 +10426,9 @@
       <c r="W8" s="208">
         <v>5.625</v>
       </c>
-      <c r="X8" s="100">
+      <c r="X8" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F8,W8/10000,Trigger)</f>
-        <v>5.6249999999999996E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y8" s="90"/>
       <c r="Z8" s="3"/>
@@ -10446,7 +10455,7 @@
       </c>
       <c r="F9" s="18" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR15M_Quote#0002</v>
+        <v>AUD1BR3BR15M_Quote#0001</v>
       </c>
       <c r="G9" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -10518,7 +10527,7 @@
       </c>
       <c r="F10" s="18" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR18M_Quote#0002</v>
+        <v>AUD1BR3BR18M_Quote#0001</v>
       </c>
       <c r="G10" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -10587,7 +10596,7 @@
       </c>
       <c r="F11" s="18" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR21M_Quote#0002</v>
+        <v>AUD1BR3BR21M_Quote#0001</v>
       </c>
       <c r="G11" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -10656,7 +10665,7 @@
       </c>
       <c r="F12" s="18" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR2Y_Quote#0002</v>
+        <v>AUD1BR3BR2Y_Quote#0001</v>
       </c>
       <c r="G12" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -10699,9 +10708,9 @@
       <c r="W12" s="208">
         <v>6.75</v>
       </c>
-      <c r="X12" s="100">
+      <c r="X12" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
-        <v>-6.2499999999999947E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y12" s="90"/>
     </row>
@@ -10724,7 +10733,7 @@
       </c>
       <c r="F13" s="18" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR3Y_Quote#0002</v>
+        <v>AUD1BR3BR3Y_Quote#0001</v>
       </c>
       <c r="G13" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -10767,9 +10776,9 @@
       <c r="W13" s="208">
         <v>7.375</v>
       </c>
-      <c r="X13" s="100">
+      <c r="X13" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/10000,Trigger)</f>
-        <v>-2.5000000000000066E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y13" s="90"/>
     </row>
@@ -10792,7 +10801,7 @@
       </c>
       <c r="F14" s="18" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR4Y_Quote#0002</v>
+        <v>AUD1BR3BR4Y_Quote#0001</v>
       </c>
       <c r="G14" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -10835,9 +10844,9 @@
       <c r="W14" s="208">
         <v>7.625</v>
       </c>
-      <c r="X14" s="100">
+      <c r="X14" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F14,W14/10000,Trigger)</f>
-        <v>-2.4999999999999957E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y14" s="90"/>
     </row>
@@ -10860,7 +10869,7 @@
       </c>
       <c r="F15" s="18" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR5Y_Quote#0002</v>
+        <v>AUD1BR3BR5Y_Quote#0001</v>
       </c>
       <c r="G15" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -10903,9 +10912,9 @@
       <c r="W15" s="208">
         <v>7.875</v>
       </c>
-      <c r="X15" s="100">
+      <c r="X15" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/10000,Trigger)</f>
-        <v>-3.749999999999999E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y15" s="90"/>
     </row>
@@ -10928,7 +10937,7 @@
       </c>
       <c r="F16" s="18" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR6Y_Quote#0002</v>
+        <v>AUD1BR3BR6Y_Quote#0001</v>
       </c>
       <c r="G16" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -10996,7 +11005,7 @@
       </c>
       <c r="F17" s="18" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR7Y_Quote#0002</v>
+        <v>AUD1BR3BR7Y_Quote#0001</v>
       </c>
       <c r="G17" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -11039,9 +11048,9 @@
       <c r="W17" s="208">
         <v>8.25</v>
       </c>
-      <c r="X17" s="100">
+      <c r="X17" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F17,W17/10000,Trigger)</f>
-        <v>8.25E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y17" s="90"/>
     </row>
@@ -11064,7 +11073,7 @@
       </c>
       <c r="F18" s="18" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR8Y_Quote#0002</v>
+        <v>AUD1BR3BR8Y_Quote#0001</v>
       </c>
       <c r="G18" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -11132,7 +11141,7 @@
       </c>
       <c r="F19" s="18" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR9Y_Quote#0002</v>
+        <v>AUD1BR3BR9Y_Quote#0001</v>
       </c>
       <c r="G19" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -11200,7 +11209,7 @@
       </c>
       <c r="F20" s="18" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR10Y_Quote#0002</v>
+        <v>AUD1BR3BR10Y_Quote#0001</v>
       </c>
       <c r="G20" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -11243,9 +11252,9 @@
       <c r="W20" s="208">
         <v>8.5</v>
       </c>
-      <c r="X20" s="100">
+      <c r="X20" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/10000,Trigger)</f>
-        <v>1.2499999999999924E-5</v>
+        <v>#N/A</v>
       </c>
       <c r="Y20" s="90"/>
       <c r="AC20"/>
@@ -11269,7 +11278,7 @@
       </c>
       <c r="F21" s="18" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR11Y_Quote#0002</v>
+        <v>AUD1BR3BR11Y_Quote#0001</v>
       </c>
       <c r="G21" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -11337,7 +11346,7 @@
       </c>
       <c r="F22" s="18" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR12Y_Quote#0002</v>
+        <v>AUD1BR3BR12Y_Quote#0001</v>
       </c>
       <c r="G22" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -11380,9 +11389,9 @@
       <c r="W22" s="208">
         <v>8.375</v>
       </c>
-      <c r="X22" s="100">
+      <c r="X22" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F22,W22/10000,Trigger)</f>
-        <v>8.3750000000000003E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y22" s="90"/>
     </row>
@@ -11405,7 +11414,7 @@
       </c>
       <c r="F23" s="18" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR13Y_Quote#0002</v>
+        <v>AUD1BR3BR13Y_Quote#0001</v>
       </c>
       <c r="G23" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -11473,7 +11482,7 @@
       </c>
       <c r="F24" s="18" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR14Y_Quote#0002</v>
+        <v>AUD1BR3BR14Y_Quote#0001</v>
       </c>
       <c r="G24" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -11541,7 +11550,7 @@
       </c>
       <c r="F25" s="18" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR15Y_Quote#0002</v>
+        <v>AUD1BR3BR15Y_Quote#0001</v>
       </c>
       <c r="G25" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -11584,9 +11593,9 @@
       <c r="W25" s="208">
         <v>8.375</v>
       </c>
-      <c r="X25" s="100">
+      <c r="X25" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F25,W25/10000,Trigger)</f>
-        <v>8.3750000000000003E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y25" s="90"/>
     </row>
@@ -11609,7 +11618,7 @@
       </c>
       <c r="F26" s="18" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR16Y_Quote#0002</v>
+        <v>AUD1BR3BR16Y_Quote#0001</v>
       </c>
       <c r="G26" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -11677,7 +11686,7 @@
       </c>
       <c r="F27" s="18" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR17Y_Quote#0002</v>
+        <v>AUD1BR3BR17Y_Quote#0001</v>
       </c>
       <c r="G27" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -11745,7 +11754,7 @@
       </c>
       <c r="F28" s="18" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR18Y_Quote#0002</v>
+        <v>AUD1BR3BR18Y_Quote#0001</v>
       </c>
       <c r="G28" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -11813,7 +11822,7 @@
       </c>
       <c r="F29" s="18" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR19Y_Quote#0002</v>
+        <v>AUD1BR3BR19Y_Quote#0001</v>
       </c>
       <c r="G29" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -11881,7 +11890,7 @@
       </c>
       <c r="F30" s="18" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR20Y_Quote#0002</v>
+        <v>AUD1BR3BR20Y_Quote#0001</v>
       </c>
       <c r="G30" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -11924,9 +11933,9 @@
       <c r="W30" s="208">
         <v>7.5</v>
       </c>
-      <c r="X30" s="100">
+      <c r="X30" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F30,W30/10000,Trigger)</f>
-        <v>7.5000000000000002E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y30" s="90"/>
     </row>
@@ -11949,7 +11958,7 @@
       </c>
       <c r="F31" s="18" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR21Y_Quote#0002</v>
+        <v>AUD1BR3BR21Y_Quote#0001</v>
       </c>
       <c r="G31" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -12017,7 +12026,7 @@
       </c>
       <c r="F32" s="18" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR22Y_Quote#0002</v>
+        <v>AUD1BR3BR22Y_Quote#0001</v>
       </c>
       <c r="G32" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -12085,7 +12094,7 @@
       </c>
       <c r="F33" s="18" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR23Y_Quote#0002</v>
+        <v>AUD1BR3BR23Y_Quote#0001</v>
       </c>
       <c r="G33" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -12153,7 +12162,7 @@
       </c>
       <c r="F34" s="18" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR24Y_Quote#0002</v>
+        <v>AUD1BR3BR24Y_Quote#0001</v>
       </c>
       <c r="G34" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -12221,7 +12230,7 @@
       </c>
       <c r="F35" s="18" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR25Y_Quote#0002</v>
+        <v>AUD1BR3BR25Y_Quote#0001</v>
       </c>
       <c r="G35" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -12264,9 +12273,9 @@
       <c r="W35" s="208">
         <v>6.375</v>
       </c>
-      <c r="X35" s="100">
+      <c r="X35" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F35,W35/10000,Trigger)</f>
-        <v>6.3750000000000005E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y35" s="90"/>
     </row>
@@ -12289,7 +12298,7 @@
       </c>
       <c r="F36" s="18" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR26Y_Quote#0002</v>
+        <v>AUD1BR3BR26Y_Quote#0001</v>
       </c>
       <c r="G36" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -12357,7 +12366,7 @@
       </c>
       <c r="F37" s="18" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR27Y_Quote#0002</v>
+        <v>AUD1BR3BR27Y_Quote#0001</v>
       </c>
       <c r="G37" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -12425,7 +12434,7 @@
       </c>
       <c r="F38" s="18" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR28Y_Quote#0002</v>
+        <v>AUD1BR3BR28Y_Quote#0001</v>
       </c>
       <c r="G38" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -12493,7 +12502,7 @@
       </c>
       <c r="F39" s="18" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR29Y_Quote#0002</v>
+        <v>AUD1BR3BR29Y_Quote#0001</v>
       </c>
       <c r="G39" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -12561,7 +12570,7 @@
       </c>
       <c r="F40" s="18" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR30Y_Quote#0002</v>
+        <v>AUD1BR3BR30Y_Quote#0001</v>
       </c>
       <c r="G40" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -12604,9 +12613,9 @@
       <c r="W40" s="208">
         <v>6.125</v>
       </c>
-      <c r="X40" s="100">
+      <c r="X40" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F40,W40/10000,Trigger)</f>
-        <v>6.1249999999999998E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="Y40" s="90"/>
     </row>
@@ -12629,7 +12638,7 @@
       </c>
       <c r="F41" s="18" t="str">
         <f>_xll.qlSimpleQuote(E41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR35Y_Quote#0002</v>
+        <v>AUD1BR3BR35Y_Quote#0001</v>
       </c>
       <c r="G41" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -12697,7 +12706,7 @@
       </c>
       <c r="F42" s="18" t="str">
         <f>_xll.qlSimpleQuote(E42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR40Y_Quote#0002</v>
+        <v>AUD1BR3BR40Y_Quote#0001</v>
       </c>
       <c r="G42" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -12765,7 +12774,7 @@
       </c>
       <c r="F43" s="18" t="str">
         <f>_xll.qlSimpleQuote(E43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR50Y_Quote#0002</v>
+        <v>AUD1BR3BR50Y_Quote#0001</v>
       </c>
       <c r="G43" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -12833,7 +12842,7 @@
       </c>
       <c r="F44" s="18" t="str">
         <f>_xll.qlSimpleQuote(E44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR60Y_Quote#0002</v>
+        <v>AUD1BR3BR60Y_Quote#0001</v>
       </c>
       <c r="G44" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -12942,7 +12951,9 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13059,7 +13070,7 @@
       <c r="W3" s="51"/>
       <c r="X3" s="123">
         <f>_xll.ohTrigger(X5:X42)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="90"/>
       <c r="Z3" s="3"/>
@@ -13096,7 +13107,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="98" t="str">
         <f>_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Paused at 16:22:38</v>
+        <v>Paused at 16:28:15</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -13143,7 +13154,7 @@
       </c>
       <c r="F5" s="18" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR6M_Quote#0000</v>
+        <v>AUD3BR6BR6M_Quote#0001</v>
       </c>
       <c r="G5" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13187,9 +13198,9 @@
         <f t="array" ref="W5:W42">QuoteLive</f>
         <v>3.75</v>
       </c>
-      <c r="X5" s="100">
+      <c r="X5" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F5,W5/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y5" s="90"/>
       <c r="Z5" s="3"/>
@@ -13216,7 +13227,7 @@
       </c>
       <c r="F6" s="18" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR1Y_Quote#0000</v>
+        <v>AUD3BR6BR1Y_Quote#0001</v>
       </c>
       <c r="G6" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13258,9 +13269,9 @@
       <c r="W6" s="208">
         <v>5</v>
       </c>
-      <c r="X6" s="100">
+      <c r="X6" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y6" s="90"/>
       <c r="Z6" s="3"/>
@@ -13287,7 +13298,7 @@
       </c>
       <c r="F7" s="18" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR15M_Quote#0000</v>
+        <v>AUD3BR6BR15M_Quote#0001</v>
       </c>
       <c r="G7" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13358,7 +13369,7 @@
       </c>
       <c r="F8" s="18" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR18M_Quote#0000</v>
+        <v>AUD3BR6BR18M_Quote#0001</v>
       </c>
       <c r="G8" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13429,7 +13440,7 @@
       </c>
       <c r="F9" s="18" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR21M_Quote#0000</v>
+        <v>AUD3BR6BR21M_Quote#0001</v>
       </c>
       <c r="G9" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13500,7 +13511,7 @@
       </c>
       <c r="F10" s="18" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR2Y_Quote#0000</v>
+        <v>AUD3BR6BR2Y_Quote#0001</v>
       </c>
       <c r="G10" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13542,9 +13553,9 @@
       <c r="W10" s="208">
         <v>6.25</v>
       </c>
-      <c r="X10" s="100">
+      <c r="X10" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y10" s="90"/>
       <c r="Z10" s="3"/>
@@ -13571,7 +13582,7 @@
       </c>
       <c r="F11" s="18" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR3Y_Quote#0000</v>
+        <v>AUD3BR6BR3Y_Quote#0001</v>
       </c>
       <c r="G11" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13613,9 +13624,9 @@
       <c r="W11" s="208">
         <v>6.875</v>
       </c>
-      <c r="X11" s="100">
+      <c r="X11" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,W11/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y11" s="90"/>
       <c r="Z11" s="3"/>
@@ -13642,7 +13653,7 @@
       </c>
       <c r="F12" s="18" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR4Y_Quote#0000</v>
+        <v>AUD3BR6BR4Y_Quote#0001</v>
       </c>
       <c r="G12" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -13684,9 +13695,9 @@
       <c r="W12" s="208">
         <v>7.375</v>
       </c>
-      <c r="X12" s="100">
+      <c r="X12" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y12" s="90"/>
       <c r="Z12" s="3"/>
@@ -13713,7 +13724,7 @@
       </c>
       <c r="F13" s="18" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR5Y_Quote#0000</v>
+        <v>AUD3BR6BR5Y_Quote#0001</v>
       </c>
       <c r="G13" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -13755,9 +13766,9 @@
       <c r="W13" s="208">
         <v>7.75</v>
       </c>
-      <c r="X13" s="100">
+      <c r="X13" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y13" s="90"/>
       <c r="Z13" s="3"/>
@@ -13784,7 +13795,7 @@
       </c>
       <c r="F14" s="18" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR6Y_Quote#0000</v>
+        <v>AUD3BR6BR6Y_Quote#0001</v>
       </c>
       <c r="G14" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -13855,7 +13866,7 @@
       </c>
       <c r="F15" s="18" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR7Y_Quote#0000</v>
+        <v>AUD3BR6BR7Y_Quote#0001</v>
       </c>
       <c r="G15" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -13897,9 +13908,9 @@
       <c r="W15" s="208">
         <v>7.75</v>
       </c>
-      <c r="X15" s="100">
+      <c r="X15" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y15" s="90"/>
       <c r="Z15" s="3"/>
@@ -13926,7 +13937,7 @@
       </c>
       <c r="F16" s="18" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR8Y_Quote#0000</v>
+        <v>AUD3BR6BR8Y_Quote#0001</v>
       </c>
       <c r="G16" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -13997,7 +14008,7 @@
       </c>
       <c r="F17" s="18" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR9Y_Quote#0000</v>
+        <v>AUD3BR6BR9Y_Quote#0001</v>
       </c>
       <c r="G17" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -14068,7 +14079,7 @@
       </c>
       <c r="F18" s="18" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR10Y_Quote#0000</v>
+        <v>AUD3BR6BR10Y_Quote#0001</v>
       </c>
       <c r="G18" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -14110,9 +14121,9 @@
       <c r="W18" s="208">
         <v>7.875</v>
       </c>
-      <c r="X18" s="100">
+      <c r="X18" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,W18/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y18" s="90"/>
       <c r="Z18" s="3"/>
@@ -14139,7 +14150,7 @@
       </c>
       <c r="F19" s="18" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR11Y_Quote#0000</v>
+        <v>AUD3BR6BR11Y_Quote#0001</v>
       </c>
       <c r="G19" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -14210,7 +14221,7 @@
       </c>
       <c r="F20" s="18" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR12Y_Quote#0000</v>
+        <v>AUD3BR6BR12Y_Quote#0001</v>
       </c>
       <c r="G20" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -14252,9 +14263,9 @@
       <c r="W20" s="208">
         <v>7.625</v>
       </c>
-      <c r="X20" s="100">
+      <c r="X20" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y20" s="90"/>
       <c r="Z20" s="3"/>
@@ -14281,7 +14292,7 @@
       </c>
       <c r="F21" s="18" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR13Y_Quote#0000</v>
+        <v>AUD3BR6BR13Y_Quote#0001</v>
       </c>
       <c r="G21" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -14352,7 +14363,7 @@
       </c>
       <c r="F22" s="18" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR14Y_Quote#0000</v>
+        <v>AUD3BR6BR14Y_Quote#0001</v>
       </c>
       <c r="G22" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -14423,7 +14434,7 @@
       </c>
       <c r="F23" s="18" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR15Y_Quote#0000</v>
+        <v>AUD3BR6BR15Y_Quote#0001</v>
       </c>
       <c r="G23" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -14465,9 +14476,9 @@
       <c r="W23" s="208">
         <v>6.875</v>
       </c>
-      <c r="X23" s="100">
+      <c r="X23" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F23,W23/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y23" s="90"/>
       <c r="Z23" s="3"/>
@@ -14494,7 +14505,7 @@
       </c>
       <c r="F24" s="18" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR16Y_Quote#0000</v>
+        <v>AUD3BR6BR16Y_Quote#0001</v>
       </c>
       <c r="G24" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -14565,7 +14576,7 @@
       </c>
       <c r="F25" s="18" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR17Y_Quote#0000</v>
+        <v>AUD3BR6BR17Y_Quote#0001</v>
       </c>
       <c r="G25" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -14636,7 +14647,7 @@
       </c>
       <c r="F26" s="18" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR18Y_Quote#0000</v>
+        <v>AUD3BR6BR18Y_Quote#0001</v>
       </c>
       <c r="G26" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -14707,7 +14718,7 @@
       </c>
       <c r="F27" s="18" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR19Y_Quote#0000</v>
+        <v>AUD3BR6BR19Y_Quote#0001</v>
       </c>
       <c r="G27" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -14778,7 +14789,7 @@
       </c>
       <c r="F28" s="18" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR20Y_Quote#0000</v>
+        <v>AUD3BR6BR20Y_Quote#0001</v>
       </c>
       <c r="G28" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -14820,9 +14831,9 @@
       <c r="W28" s="208">
         <v>5.625</v>
       </c>
-      <c r="X28" s="100">
+      <c r="X28" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F28,W28/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y28" s="90"/>
       <c r="Z28" s="3"/>
@@ -14849,7 +14860,7 @@
       </c>
       <c r="F29" s="18" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR21Y_Quote#0000</v>
+        <v>AUD3BR6BR21Y_Quote#0001</v>
       </c>
       <c r="G29" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -14920,7 +14931,7 @@
       </c>
       <c r="F30" s="18" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR22Y_Quote#0000</v>
+        <v>AUD3BR6BR22Y_Quote#0001</v>
       </c>
       <c r="G30" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -14991,7 +15002,7 @@
       </c>
       <c r="F31" s="18" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR23Y_Quote#0000</v>
+        <v>AUD3BR6BR23Y_Quote#0001</v>
       </c>
       <c r="G31" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -15062,7 +15073,7 @@
       </c>
       <c r="F32" s="18" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR24Y_Quote#0000</v>
+        <v>AUD3BR6BR24Y_Quote#0001</v>
       </c>
       <c r="G32" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -15133,7 +15144,7 @@
       </c>
       <c r="F33" s="18" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR25Y_Quote#0000</v>
+        <v>AUD3BR6BR25Y_Quote#0001</v>
       </c>
       <c r="G33" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -15175,9 +15186,9 @@
       <c r="W33" s="208">
         <v>4.5</v>
       </c>
-      <c r="X33" s="100">
+      <c r="X33" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F33,W33/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y33" s="90"/>
       <c r="Z33" s="3"/>
@@ -15204,7 +15215,7 @@
       </c>
       <c r="F34" s="18" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR26Y_Quote#0000</v>
+        <v>AUD3BR6BR26Y_Quote#0001</v>
       </c>
       <c r="G34" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -15275,7 +15286,7 @@
       </c>
       <c r="F35" s="18" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR27Y_Quote#0000</v>
+        <v>AUD3BR6BR27Y_Quote#0001</v>
       </c>
       <c r="G35" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -15346,7 +15357,7 @@
       </c>
       <c r="F36" s="18" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR28Y_Quote#0000</v>
+        <v>AUD3BR6BR28Y_Quote#0001</v>
       </c>
       <c r="G36" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -15417,7 +15428,7 @@
       </c>
       <c r="F37" s="18" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR29Y_Quote#0000</v>
+        <v>AUD3BR6BR29Y_Quote#0001</v>
       </c>
       <c r="G37" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -15488,7 +15499,7 @@
       </c>
       <c r="F38" s="18" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR30Y_Quote#0000</v>
+        <v>AUD3BR6BR30Y_Quote#0001</v>
       </c>
       <c r="G38" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -15530,9 +15541,9 @@
       <c r="W38" s="208">
         <v>3.625</v>
       </c>
-      <c r="X38" s="100">
+      <c r="X38" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F38,W38/10000,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y38" s="90"/>
       <c r="Z38" s="3"/>
@@ -15559,7 +15570,7 @@
       </c>
       <c r="F39" s="18" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR35Y_Quote#0000</v>
+        <v>AUD3BR6BR35Y_Quote#0001</v>
       </c>
       <c r="G39" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -15630,7 +15641,7 @@
       </c>
       <c r="F40" s="18" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR40Y_Quote#0000</v>
+        <v>AUD3BR6BR40Y_Quote#0001</v>
       </c>
       <c r="G40" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -15701,7 +15712,7 @@
       </c>
       <c r="F41" s="18" t="str">
         <f>_xll.qlSimpleQuote(E41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR50Y_Quote#0000</v>
+        <v>AUD3BR6BR50Y_Quote#0001</v>
       </c>
       <c r="G41" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -15772,7 +15783,7 @@
       </c>
       <c r="F42" s="18" t="str">
         <f>_xll.qlSimpleQuote(E42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR60Y_Quote#0000</v>
+        <v>AUD3BR6BR60Y_Quote#0001</v>
       </c>
       <c r="G42" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -16059,7 +16070,7 @@
       </c>
       <c r="Q5" s="233" t="str">
         <f>_xll.RData(Q6:Q12,R5:T5,"RTFEED:IDN",,,R6)</f>
-        <v>Paused at 16:22:38</v>
+        <v>Paused at 16:28:15</v>
       </c>
       <c r="R5" s="233" t="s">
         <v>175</v>
@@ -16110,15 +16121,15 @@
       </c>
       <c r="J6" s="269" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDON#0000</v>
+        <v>AUDON#0001</v>
       </c>
       <c r="K6" s="269" t="str">
-        <f>_xll.qlOvernightIndex(I6,,D6,Currency,Calendar,H6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AONIA#0000</v>
+        <f>_xll.qlOvernightIndex(I6,,D6,Currency,Calendar,H6,J6,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>AONIA#0013</v>
       </c>
       <c r="L6" s="269" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C6&amp;"LastFixing_Quote",K6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWONLastFixing_Quote#0000</v>
+        <v>AudBBSWONLastFixing_Quote#0002</v>
       </c>
       <c r="M6" s="270"/>
       <c r="N6" s="229"/>
@@ -16128,14 +16139,14 @@
       </c>
       <c r="P6" s="272" t="str">
         <f>K6</f>
-        <v>AONIA#0000</v>
+        <v>AONIA#0013</v>
       </c>
       <c r="Q6" s="273" t="str">
         <f>"AU"&amp;"CASH"&amp;"="&amp;"RBAA"</f>
         <v>AUCASH=RBAA</v>
       </c>
       <c r="R6" s="273">
-        <v>41873</v>
+        <v>41876</v>
       </c>
       <c r="S6" s="295">
         <v>2.5</v>
@@ -16185,15 +16196,15 @@
       </c>
       <c r="J7" s="228" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1M#0000</v>
+        <v>AUD1M#0001</v>
       </c>
       <c r="K7" s="228" t="str">
         <f>_xll.qlIborIndex(I7,FamilyName,C7,D7,Currency,E7,F7,G7,H7,J7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1M#0000</v>
+        <v>AudBBSW1M#0001</v>
       </c>
       <c r="L7" s="228" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C7&amp;"LastFixing_Quote",K7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1MLastFixing_Quote#0000</v>
+        <v>AudBBSW1MLastFixing_Quote#0001</v>
       </c>
       <c r="M7" s="228" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -16206,7 +16217,7 @@
       </c>
       <c r="P7" s="237" t="str">
         <f>K7</f>
-        <v>AudBBSW1M#0000</v>
+        <v>AudBBSW1M#0001</v>
       </c>
       <c r="Q7" s="236" t="str">
         <f>"AU"&amp;O7&amp;"BA"&amp;"="</f>
@@ -16267,11 +16278,11 @@
       <c r="J8" s="228"/>
       <c r="K8" s="228" t="str">
         <f>_xll.qlIborIndex(I8,FamilyName,C8,D8,Currency,E8,F8,G8,H8,J8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW2M#0000</v>
+        <v>AudBBSW2M#0001</v>
       </c>
       <c r="L8" s="228" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C8&amp;"LastFixing_Quote",K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW2MLastFixing_Quote#0000</v>
+        <v>AudBBSW2MLastFixing_Quote#0001</v>
       </c>
       <c r="M8" s="228" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -16284,7 +16295,7 @@
       </c>
       <c r="P8" s="237" t="str">
         <f t="shared" ref="P8:P12" si="4">K8</f>
-        <v>AudBBSW2M#0000</v>
+        <v>AudBBSW2M#0001</v>
       </c>
       <c r="Q8" s="236" t="str">
         <f t="shared" ref="Q8:Q12" si="5">"AU"&amp;O8&amp;"BA"&amp;"="</f>
@@ -16344,15 +16355,15 @@
       </c>
       <c r="J9" s="228" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3M#0000</v>
+        <v>AUD3M#0001</v>
       </c>
       <c r="K9" s="228" t="str">
         <f>_xll.qlIborIndex(I9,FamilyName,C9,D9,Currency,E9,F9,G9,H9,J9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW3M#0000</v>
+        <v>AudBBSW3M#0001</v>
       </c>
       <c r="L9" s="228" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C9&amp;"LastFixing_Quote",K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW3MLastFixing_Quote#0000</v>
+        <v>AudBBSW3MLastFixing_Quote#0001</v>
       </c>
       <c r="M9" s="228" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -16365,7 +16376,7 @@
       </c>
       <c r="P9" s="237" t="str">
         <f t="shared" si="4"/>
-        <v>AudBBSW3M#0000</v>
+        <v>AudBBSW3M#0001</v>
       </c>
       <c r="Q9" s="236" t="str">
         <f t="shared" si="5"/>
@@ -16426,11 +16437,11 @@
       <c r="J10" s="228"/>
       <c r="K10" s="228" t="str">
         <f>_xll.qlIborIndex(I10,FamilyName,C10,D10,Currency,E10,F10,G10,H10,J10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW4M#0000</v>
+        <v>AudBBSW4M#0001</v>
       </c>
       <c r="L10" s="228" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C10&amp;"LastFixing_Quote",K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW4MLastFixing_Quote#0000</v>
+        <v>AudBBSW4MLastFixing_Quote#0001</v>
       </c>
       <c r="M10" s="228" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -16443,7 +16454,7 @@
       </c>
       <c r="P10" s="237" t="str">
         <f t="shared" si="4"/>
-        <v>AudBBSW4M#0000</v>
+        <v>AudBBSW4M#0001</v>
       </c>
       <c r="Q10" s="236" t="str">
         <f t="shared" si="5"/>
@@ -16504,11 +16515,11 @@
       <c r="J11" s="228"/>
       <c r="K11" s="228" t="str">
         <f>_xll.qlIborIndex(I11,FamilyName,C11,D11,Currency,E11,F11,G11,H11,J11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW5M#0000</v>
+        <v>AudBBSW5M#0001</v>
       </c>
       <c r="L11" s="228" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C11&amp;"LastFixing_Quote",K11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW5MLastFixing_Quote#0000</v>
+        <v>AudBBSW5MLastFixing_Quote#0001</v>
       </c>
       <c r="M11" s="228" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -16521,7 +16532,7 @@
       </c>
       <c r="P11" s="237" t="str">
         <f t="shared" si="4"/>
-        <v>AudBBSW5M#0000</v>
+        <v>AudBBSW5M#0001</v>
       </c>
       <c r="Q11" s="236" t="str">
         <f t="shared" si="5"/>
@@ -16581,15 +16592,15 @@
       </c>
       <c r="J12" s="228" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD6M#0000</v>
+        <v>AUD6M#0001</v>
       </c>
       <c r="K12" s="228" t="str">
         <f>_xll.qlIborIndex(I12,FamilyName,C12,D12,Currency,E12,F12,G12,H12,J12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW6M#0000</v>
+        <v>AudBBSW6M#0001</v>
       </c>
       <c r="L12" s="228" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C12&amp;"LastFixing_Quote",K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW6MLastFixing_Quote#0000</v>
+        <v>AudBBSW6MLastFixing_Quote#0001</v>
       </c>
       <c r="M12" s="228" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -16602,7 +16613,7 @@
       </c>
       <c r="P12" s="237" t="str">
         <f t="shared" si="4"/>
-        <v>AudBBSW6M#0000</v>
+        <v>AudBBSW6M#0001</v>
       </c>
       <c r="Q12" s="236" t="str">
         <f t="shared" si="5"/>
@@ -16648,7 +16659,7 @@
       <c r="I13" s="229"/>
       <c r="J13" s="335" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSTD#0000</v>
+        <v>AUDSTD#0001</v>
       </c>
       <c r="K13" s="229"/>
       <c r="L13" s="229"/>
@@ -16781,12 +16792,12 @@
         <v>17</v>
       </c>
       <c r="E4" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C4</f>
+        <f t="shared" ref="E4:E42" si="0">PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C4</f>
         <v>AudBBSWSwapForBasisCalc3M</v>
       </c>
       <c r="F4" s="252" t="str">
         <f>_xll.qlSwapIndex($E4,FixingType,C4,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc3M#0033</v>
+        <v>AudBBSWSwapForBasisCalc3M#0001</v>
       </c>
       <c r="G4" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -16803,12 +16814,12 @@
         <v>17</v>
       </c>
       <c r="E5" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C5</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc6M</v>
       </c>
       <c r="F5" s="252" t="str">
         <f>_xll.qlSwapIndex($E5,FixingType,C5,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc6M#0000</v>
+        <v>AudBBSWSwapForBasisCalc6M#0001</v>
       </c>
       <c r="G5" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -16825,12 +16836,12 @@
         <v>17</v>
       </c>
       <c r="E6" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C6</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc9M</v>
       </c>
       <c r="F6" s="252" t="str">
         <f>_xll.qlSwapIndex($E6,FixingType,C6,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc9M#0000</v>
+        <v>AudBBSWSwapForBasisCalc9M#0001</v>
       </c>
       <c r="G6" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -16847,12 +16858,12 @@
         <v>17</v>
       </c>
       <c r="E7" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C7</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc1Y</v>
       </c>
       <c r="F7" s="252" t="str">
         <f>_xll.qlSwapIndex($E7,FixingType,C7,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc1Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc1Y#0001</v>
       </c>
       <c r="G7" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -16869,12 +16880,12 @@
         <v>17</v>
       </c>
       <c r="E8" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C8</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc15M</v>
       </c>
       <c r="F8" s="252" t="str">
         <f>_xll.qlSwapIndex($E8,FixingType,C8,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc15M#0000</v>
+        <v>AudBBSWSwapForBasisCalc15M#0001</v>
       </c>
       <c r="G8" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -16891,7 +16902,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C9</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc18M</v>
       </c>
       <c r="F9" s="252" t="str">
@@ -16913,12 +16924,12 @@
         <v>17</v>
       </c>
       <c r="E10" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C10</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc2Y</v>
       </c>
       <c r="F10" s="252" t="str">
         <f>_xll.qlSwapIndex($E10,FixingType,C10,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc2Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc2Y#0001</v>
       </c>
       <c r="G10" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -16935,12 +16946,12 @@
         <v>17</v>
       </c>
       <c r="E11" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C11</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc3Y</v>
       </c>
       <c r="F11" s="252" t="str">
         <f>_xll.qlSwapIndex($E11,FixingType,C11,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc3Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc3Y#0001</v>
       </c>
       <c r="G11" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -16957,12 +16968,12 @@
         <v>17</v>
       </c>
       <c r="E12" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C12</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc4Y</v>
       </c>
       <c r="F12" s="252" t="str">
         <f>_xll.qlSwapIndex($E12,FixingType,C12,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc4Y#0006</v>
+        <v>AudBBSWSwapForBasisCalc4Y#0001</v>
       </c>
       <c r="G12" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -16979,12 +16990,12 @@
         <v>17</v>
       </c>
       <c r="E13" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C13</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc5Y</v>
       </c>
       <c r="F13" s="252" t="str">
         <f>_xll.qlSwapIndex($E13,FixingType,C13,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc5Y#0008</v>
+        <v>AudBBSWSwapForBasisCalc5Y#0001</v>
       </c>
       <c r="G13" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -17001,12 +17012,12 @@
         <v>17</v>
       </c>
       <c r="E14" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C14</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc6Y</v>
       </c>
       <c r="F14" s="252" t="str">
         <f>_xll.qlSwapIndex($E14,FixingType,C14,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc6Y#0007</v>
+        <v>AudBBSWSwapForBasisCalc6Y#0001</v>
       </c>
       <c r="G14" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -17023,12 +17034,12 @@
         <v>17</v>
       </c>
       <c r="E15" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C15</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc7Y</v>
       </c>
       <c r="F15" s="252" t="str">
         <f>_xll.qlSwapIndex($E15,FixingType,C15,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc7Y#0007</v>
+        <v>AudBBSWSwapForBasisCalc7Y#0001</v>
       </c>
       <c r="G15" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -17045,12 +17056,12 @@
         <v>17</v>
       </c>
       <c r="E16" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C16</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc8Y</v>
       </c>
       <c r="F16" s="252" t="str">
         <f>_xll.qlSwapIndex($E16,FixingType,C16,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc8Y#0007</v>
+        <v>AudBBSWSwapForBasisCalc8Y#0001</v>
       </c>
       <c r="G16" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -17067,12 +17078,12 @@
         <v>17</v>
       </c>
       <c r="E17" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C17</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc9Y</v>
       </c>
       <c r="F17" s="252" t="str">
         <f>_xll.qlSwapIndex($E17,FixingType,C17,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc9Y#0007</v>
+        <v>AudBBSWSwapForBasisCalc9Y#0001</v>
       </c>
       <c r="G17" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -17089,12 +17100,12 @@
         <v>17</v>
       </c>
       <c r="E18" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C18</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc10Y</v>
       </c>
       <c r="F18" s="252" t="str">
         <f>_xll.qlSwapIndex($E18,FixingType,C18,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc10Y#0007</v>
+        <v>AudBBSWSwapForBasisCalc10Y#0001</v>
       </c>
       <c r="G18" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -17111,12 +17122,12 @@
         <v>17</v>
       </c>
       <c r="E19" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C19</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc11Y</v>
       </c>
       <c r="F19" s="252" t="str">
         <f>_xll.qlSwapIndex($E19,FixingType,C19,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc11Y#0006</v>
+        <v>AudBBSWSwapForBasisCalc11Y#0001</v>
       </c>
       <c r="G19" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -17133,12 +17144,12 @@
         <v>17</v>
       </c>
       <c r="E20" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C20</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc12Y</v>
       </c>
       <c r="F20" s="252" t="str">
         <f>_xll.qlSwapIndex($E20,FixingType,C20,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc12Y#0006</v>
+        <v>AudBBSWSwapForBasisCalc12Y#0001</v>
       </c>
       <c r="G20" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -17155,12 +17166,12 @@
         <v>17</v>
       </c>
       <c r="E21" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C21</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc13Y</v>
       </c>
       <c r="F21" s="252" t="str">
         <f>_xll.qlSwapIndex($E21,FixingType,C21,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc13Y#0006</v>
+        <v>AudBBSWSwapForBasisCalc13Y#0001</v>
       </c>
       <c r="G21" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -17177,12 +17188,12 @@
         <v>17</v>
       </c>
       <c r="E22" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C22</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc14Y</v>
       </c>
       <c r="F22" s="252" t="str">
         <f>_xll.qlSwapIndex($E22,FixingType,C22,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc14Y#0006</v>
+        <v>AudBBSWSwapForBasisCalc14Y#0001</v>
       </c>
       <c r="G22" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -17199,12 +17210,12 @@
         <v>17</v>
       </c>
       <c r="E23" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C23</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc15Y</v>
       </c>
       <c r="F23" s="252" t="str">
         <f>_xll.qlSwapIndex($E23,FixingType,C23,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc15Y#0006</v>
+        <v>AudBBSWSwapForBasisCalc15Y#0001</v>
       </c>
       <c r="G23" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -17221,12 +17232,12 @@
         <v>17</v>
       </c>
       <c r="E24" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C24</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc16Y</v>
       </c>
       <c r="F24" s="252" t="str">
         <f>_xll.qlSwapIndex($E24,FixingType,C24,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc16Y#0006</v>
+        <v>AudBBSWSwapForBasisCalc16Y#0001</v>
       </c>
       <c r="G24" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -17243,12 +17254,12 @@
         <v>17</v>
       </c>
       <c r="E25" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C25</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc17Y</v>
       </c>
       <c r="F25" s="252" t="str">
         <f>_xll.qlSwapIndex($E25,FixingType,C25,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc17Y#0006</v>
+        <v>AudBBSWSwapForBasisCalc17Y#0001</v>
       </c>
       <c r="G25" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -17265,12 +17276,12 @@
         <v>17</v>
       </c>
       <c r="E26" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C26</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc18Y</v>
       </c>
       <c r="F26" s="252" t="str">
         <f>_xll.qlSwapIndex($E26,FixingType,C26,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc18Y#0006</v>
+        <v>AudBBSWSwapForBasisCalc18Y#0001</v>
       </c>
       <c r="G26" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -17287,12 +17298,12 @@
         <v>17</v>
       </c>
       <c r="E27" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C27</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc19Y</v>
       </c>
       <c r="F27" s="252" t="str">
         <f>_xll.qlSwapIndex($E27,FixingType,C27,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc19Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc19Y#0001</v>
       </c>
       <c r="G27" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -17309,12 +17320,12 @@
         <v>17</v>
       </c>
       <c r="E28" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C28</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc20Y</v>
       </c>
       <c r="F28" s="252" t="str">
         <f>_xll.qlSwapIndex($E28,FixingType,C28,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc20Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc20Y#0001</v>
       </c>
       <c r="G28" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -17331,12 +17342,12 @@
         <v>17</v>
       </c>
       <c r="E29" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C29</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc21Y</v>
       </c>
       <c r="F29" s="252" t="str">
         <f>_xll.qlSwapIndex($E29,FixingType,C29,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc21Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc21Y#0001</v>
       </c>
       <c r="G29" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -17353,12 +17364,12 @@
         <v>17</v>
       </c>
       <c r="E30" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C30</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc22Y</v>
       </c>
       <c r="F30" s="252" t="str">
         <f>_xll.qlSwapIndex($E30,FixingType,C30,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc22Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc22Y#0001</v>
       </c>
       <c r="G30" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -17375,12 +17386,12 @@
         <v>17</v>
       </c>
       <c r="E31" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C31</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc23Y</v>
       </c>
       <c r="F31" s="252" t="str">
         <f>_xll.qlSwapIndex($E31,FixingType,C31,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc23Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc23Y#0001</v>
       </c>
       <c r="G31" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -17397,12 +17408,12 @@
         <v>17</v>
       </c>
       <c r="E32" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C32</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc24Y</v>
       </c>
       <c r="F32" s="252" t="str">
         <f>_xll.qlSwapIndex($E32,FixingType,C32,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc24Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc24Y#0001</v>
       </c>
       <c r="G32" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -17419,12 +17430,12 @@
         <v>17</v>
       </c>
       <c r="E33" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C33</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc25Y</v>
       </c>
       <c r="F33" s="252" t="str">
         <f>_xll.qlSwapIndex($E33,FixingType,C33,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc25Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc25Y#0001</v>
       </c>
       <c r="G33" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -17441,12 +17452,12 @@
         <v>17</v>
       </c>
       <c r="E34" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C34</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc26Y</v>
       </c>
       <c r="F34" s="252" t="str">
         <f>_xll.qlSwapIndex($E34,FixingType,C34,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc26Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc26Y#0001</v>
       </c>
       <c r="G34" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -17463,12 +17474,12 @@
         <v>17</v>
       </c>
       <c r="E35" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C35</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc27Y</v>
       </c>
       <c r="F35" s="252" t="str">
         <f>_xll.qlSwapIndex($E35,FixingType,C35,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc27Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc27Y#0001</v>
       </c>
       <c r="G35" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -17485,12 +17496,12 @@
         <v>17</v>
       </c>
       <c r="E36" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C36</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc28Y</v>
       </c>
       <c r="F36" s="252" t="str">
         <f>_xll.qlSwapIndex($E36,FixingType,C36,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc28Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc28Y#0001</v>
       </c>
       <c r="G36" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -17507,12 +17518,12 @@
         <v>17</v>
       </c>
       <c r="E37" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C37</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc29Y</v>
       </c>
       <c r="F37" s="252" t="str">
         <f>_xll.qlSwapIndex($E37,FixingType,C37,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc29Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc29Y#0001</v>
       </c>
       <c r="G37" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -17529,12 +17540,12 @@
         <v>17</v>
       </c>
       <c r="E38" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C38</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc30Y</v>
       </c>
       <c r="F38" s="252" t="str">
         <f>_xll.qlSwapIndex($E38,FixingType,C38,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc30Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc30Y#0001</v>
       </c>
       <c r="G38" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -17551,12 +17562,12 @@
         <v>17</v>
       </c>
       <c r="E39" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C39</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc35Y</v>
       </c>
       <c r="F39" s="252" t="str">
         <f>_xll.qlSwapIndex($E39,FixingType,C39,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc35Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc35Y#0001</v>
       </c>
       <c r="G39" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -17573,12 +17584,12 @@
         <v>17</v>
       </c>
       <c r="E40" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C40</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc40Y</v>
       </c>
       <c r="F40" s="252" t="str">
         <f>_xll.qlSwapIndex($E40,FixingType,C40,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc40Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc40Y#0001</v>
       </c>
       <c r="G40" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -17595,12 +17606,12 @@
         <v>17</v>
       </c>
       <c r="E41" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C41</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc50Y</v>
       </c>
       <c r="F41" s="252" t="str">
         <f>_xll.qlSwapIndex($E41,FixingType,C41,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc50Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc50Y#0001</v>
       </c>
       <c r="G41" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -17617,12 +17628,12 @@
         <v>17</v>
       </c>
       <c r="E42" s="251" t="str">
-        <f>PROPER(Currency)&amp;FamilyName&amp;FixingType&amp;$C42</f>
+        <f t="shared" si="0"/>
         <v>AudBBSWSwapForBasisCalc60Y</v>
       </c>
       <c r="F42" s="252" t="str">
         <f>_xll.qlSwapIndex($E42,FixingType,C42,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc60Y#0005</v>
+        <v>AudBBSWSwapForBasisCalc60Y#0001</v>
       </c>
       <c r="G42" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -17940,7 +17951,9 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:Z96"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18072,7 +18085,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="174" t="str">
         <f>_xll.RData(M5:M58,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>Paused at 16:22:38</v>
+        <v>Paused at 16:28:15</v>
       </c>
       <c r="N4" s="171" t="s">
         <v>130</v>
@@ -18116,7 +18129,7 @@
       </c>
       <c r="E5" s="91" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOISSW_Quote#0000</v>
+        <v>AUDOISSW_Quote#0001</v>
       </c>
       <c r="F5" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -18163,9 +18176,9 @@
         <f t="array" ref="V5:V58">QuoteLive</f>
         <v>2.5</v>
       </c>
-      <c r="W5" s="113">
+      <c r="W5" s="113" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E5,V5/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X5" s="90"/>
     </row>
@@ -18183,7 +18196,7 @@
       </c>
       <c r="E6" s="91" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS2W_Quote#0000</v>
+        <v>AUDOIS2W_Quote#0001</v>
       </c>
       <c r="F6" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -18248,7 +18261,7 @@
       </c>
       <c r="E7" s="91" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS3W_Quote#0000</v>
+        <v>AUDOIS3W_Quote#0001</v>
       </c>
       <c r="F7" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -18313,7 +18326,7 @@
       </c>
       <c r="E8" s="91" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS1M_Quote#0000</v>
+        <v>AUDOIS1M_Quote#0001</v>
       </c>
       <c r="F8" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -18338,7 +18351,7 @@
         <v>2.492</v>
       </c>
       <c r="O8" s="101">
-        <v>2.5030000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="P8" s="101">
         <v>0</v>
@@ -18348,7 +18361,7 @@
       </c>
       <c r="R8" s="104">
         <f>_xll.qlMidEquivalent($N8,$O8,$P8,$Q8)</f>
-        <v>2.4975000000000001</v>
+        <v>2.496</v>
       </c>
       <c r="S8" s="102"/>
       <c r="T8" s="103">
@@ -18356,11 +18369,11 @@
       </c>
       <c r="U8" s="102"/>
       <c r="V8" s="154">
-        <v>2.4975000000000001</v>
-      </c>
-      <c r="W8" s="100">
+        <v>2.496</v>
+      </c>
+      <c r="W8" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E8,V8/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X8" s="90"/>
       <c r="Z8"/>
@@ -18379,7 +18392,7 @@
       </c>
       <c r="E9" s="91" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS2M_Quote#0000</v>
+        <v>AUDOIS2M_Quote#0001</v>
       </c>
       <c r="F9" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -18404,7 +18417,7 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="O9" s="101">
-        <v>2.5</v>
+        <v>2.4980000000000002</v>
       </c>
       <c r="P9" s="101">
         <v>0</v>
@@ -18414,7 +18427,7 @@
       </c>
       <c r="R9" s="104">
         <f>_xll.qlMidEquivalent($N9,$O9,$P9,$Q9)</f>
-        <v>2.4950000000000001</v>
+        <v>2.4940000000000002</v>
       </c>
       <c r="S9" s="102"/>
       <c r="T9" s="103">
@@ -18422,11 +18435,11 @@
       </c>
       <c r="U9" s="102"/>
       <c r="V9" s="154">
-        <v>2.4950000000000001</v>
-      </c>
-      <c r="W9" s="100">
+        <v>2.4940000000000002</v>
+      </c>
+      <c r="W9" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E9,V9/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X9" s="90"/>
     </row>
@@ -18444,7 +18457,7 @@
       </c>
       <c r="E10" s="91" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS3M_Quote#0000</v>
+        <v>AUDOIS3M_Quote#0001</v>
       </c>
       <c r="F10" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -18466,10 +18479,10 @@
         <v>AUD3MOIS=ICAA</v>
       </c>
       <c r="N10" s="101">
-        <v>2.4849999999999999</v>
+        <v>2.4870000000000001</v>
       </c>
       <c r="O10" s="101">
-        <v>2.4950000000000001</v>
+        <v>2.4929999999999999</v>
       </c>
       <c r="P10" s="101">
         <v>0</v>
@@ -18489,9 +18502,9 @@
       <c r="V10" s="154">
         <v>2.4900000000000002</v>
       </c>
-      <c r="W10" s="100">
+      <c r="W10" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E10,V10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X10" s="90"/>
     </row>
@@ -18509,7 +18522,7 @@
       </c>
       <c r="E11" s="91" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS4M_Quote#0000</v>
+        <v>AUDOIS4M_Quote#0001</v>
       </c>
       <c r="F11" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -18534,7 +18547,7 @@
         <v>2.4820000000000002</v>
       </c>
       <c r="O11" s="101">
-        <v>2.4860000000000002</v>
+        <v>2.488</v>
       </c>
       <c r="P11" s="101">
         <v>0</v>
@@ -18544,7 +18557,7 @@
       </c>
       <c r="R11" s="104">
         <f>_xll.qlMidEquivalent($N11,$O11,$P11,$Q11)</f>
-        <v>2.484</v>
+        <v>2.4850000000000003</v>
       </c>
       <c r="S11" s="102"/>
       <c r="T11" s="103">
@@ -18552,11 +18565,11 @@
       </c>
       <c r="U11" s="102"/>
       <c r="V11" s="154">
-        <v>2.484</v>
-      </c>
-      <c r="W11" s="100">
+        <v>2.4850000000000003</v>
+      </c>
+      <c r="W11" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E11,V11/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X11" s="90"/>
     </row>
@@ -18574,7 +18587,7 @@
       </c>
       <c r="E12" s="91" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS5M_Quote#0000</v>
+        <v>AUDOIS5M_Quote#0001</v>
       </c>
       <c r="F12" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -18596,10 +18609,10 @@
         <v>AUD5MOIS=ICAA</v>
       </c>
       <c r="N12" s="101">
-        <v>2.4769999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="O12" s="101">
-        <v>2.488</v>
+        <v>2.4849999999999999</v>
       </c>
       <c r="P12" s="101">
         <v>0</v>
@@ -18619,9 +18632,9 @@
       <c r="V12" s="154">
         <v>2.4824999999999999</v>
       </c>
-      <c r="W12" s="100">
+      <c r="W12" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E12,V12/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X12" s="90"/>
     </row>
@@ -18639,7 +18652,7 @@
       </c>
       <c r="E13" s="91" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS6M_Quote#0000</v>
+        <v>AUDOIS6M_Quote#0001</v>
       </c>
       <c r="F13" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -18684,9 +18697,9 @@
       <c r="V13" s="154">
         <v>2.48</v>
       </c>
-      <c r="W13" s="100">
+      <c r="W13" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E13,V13/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X13" s="90"/>
     </row>
@@ -18704,7 +18717,7 @@
       </c>
       <c r="E14" s="91" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS7M_Quote#0000</v>
+        <v>AUDOIS7M_Quote#0001</v>
       </c>
       <c r="F14" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -18769,7 +18782,7 @@
       </c>
       <c r="E15" s="91" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS8M_Quote#0000</v>
+        <v>AUDOIS8M_Quote#0001</v>
       </c>
       <c r="F15" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -18834,7 +18847,7 @@
       </c>
       <c r="E16" s="91" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS9M_Quote#0000</v>
+        <v>AUDOIS9M_Quote#0001</v>
       </c>
       <c r="F16" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -18879,9 +18892,9 @@
       <c r="V16" s="154">
         <v>2.4775</v>
       </c>
-      <c r="W16" s="100">
+      <c r="W16" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E16,V16/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X16" s="90"/>
     </row>
@@ -18899,7 +18912,7 @@
       </c>
       <c r="E17" s="91" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS10M_Quote#0000</v>
+        <v>AUDOIS10M_Quote#0001</v>
       </c>
       <c r="F17" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -18964,7 +18977,7 @@
       </c>
       <c r="E18" s="91" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS11M_Quote#0000</v>
+        <v>AUDOIS11M_Quote#0001</v>
       </c>
       <c r="F18" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -19029,7 +19042,7 @@
       </c>
       <c r="E19" s="91" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS12M_Quote#0000</v>
+        <v>AUDOIS12M_Quote#0001</v>
       </c>
       <c r="F19" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -19074,9 +19087,9 @@
       <c r="V19" s="154">
         <v>2.4874999999999998</v>
       </c>
-      <c r="W19" s="100">
+      <c r="W19" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E19,V19/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X19" s="90"/>
     </row>
@@ -19094,7 +19107,7 @@
       </c>
       <c r="E20" s="91" t="str">
         <f>_xll.qlSimpleQuote(D20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS13M_Quote#0000</v>
+        <v>AUDOIS13M_Quote#0001</v>
       </c>
       <c r="F20" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -19159,7 +19172,7 @@
       </c>
       <c r="E21" s="91" t="str">
         <f>_xll.qlSimpleQuote(D21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS14M_Quote#0000</v>
+        <v>AUDOIS14M_Quote#0001</v>
       </c>
       <c r="F21" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -19224,7 +19237,7 @@
       </c>
       <c r="E22" s="91" t="str">
         <f>_xll.qlSimpleQuote(D22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS15M_Quote#0000</v>
+        <v>AUDOIS15M_Quote#0001</v>
       </c>
       <c r="F22" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E22)</f>
@@ -19289,7 +19302,7 @@
       </c>
       <c r="E23" s="91" t="str">
         <f>_xll.qlSimpleQuote(D23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS16M_Quote#0000</v>
+        <v>AUDOIS16M_Quote#0001</v>
       </c>
       <c r="F23" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E23)</f>
@@ -19354,7 +19367,7 @@
       </c>
       <c r="E24" s="91" t="str">
         <f>_xll.qlSimpleQuote(D24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS17M_Quote#0000</v>
+        <v>AUDOIS17M_Quote#0001</v>
       </c>
       <c r="F24" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E24)</f>
@@ -19419,7 +19432,7 @@
       </c>
       <c r="E25" s="91" t="str">
         <f>_xll.qlSimpleQuote(D25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS18M_Quote#0000</v>
+        <v>AUDOIS18M_Quote#0001</v>
       </c>
       <c r="F25" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E25)</f>
@@ -19441,10 +19454,10 @@
         <v>AUD18MOIS=ICAA</v>
       </c>
       <c r="N25" s="101">
-        <v>2.52</v>
+        <v>2.5350000000000001</v>
       </c>
       <c r="O25" s="101">
-        <v>2.57</v>
+        <v>2.5500000000000003</v>
       </c>
       <c r="P25" s="101">
         <v>0</v>
@@ -19454,7 +19467,7 @@
       </c>
       <c r="R25" s="104">
         <f>_xll.qlMidEquivalent($N25,$O25,$P25,$Q25)</f>
-        <v>2.5449999999999999</v>
+        <v>2.5425000000000004</v>
       </c>
       <c r="S25" s="102"/>
       <c r="T25" s="103">
@@ -19462,11 +19475,11 @@
       </c>
       <c r="U25" s="102"/>
       <c r="V25" s="154">
-        <v>2.5449999999999999</v>
-      </c>
-      <c r="W25" s="100">
+        <v>2.5425000000000004</v>
+      </c>
+      <c r="W25" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E25,V25/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X25" s="90"/>
     </row>
@@ -19484,7 +19497,7 @@
       </c>
       <c r="E26" s="91" t="str">
         <f>_xll.qlSimpleQuote(D26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS19M_Quote#0000</v>
+        <v>AUDOIS19M_Quote#0001</v>
       </c>
       <c r="F26" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E26)</f>
@@ -19549,7 +19562,7 @@
       </c>
       <c r="E27" s="91" t="str">
         <f>_xll.qlSimpleQuote(D27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS20M_Quote#0000</v>
+        <v>AUDOIS20M_Quote#0001</v>
       </c>
       <c r="F27" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E27)</f>
@@ -19614,7 +19627,7 @@
       </c>
       <c r="E28" s="91" t="str">
         <f>_xll.qlSimpleQuote(D28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS21M_Quote#0000</v>
+        <v>AUDOIS21M_Quote#0001</v>
       </c>
       <c r="F28" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E28)</f>
@@ -19679,7 +19692,7 @@
       </c>
       <c r="E29" s="91" t="str">
         <f>_xll.qlSimpleQuote(D29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS22M_Quote#0000</v>
+        <v>AUDOIS22M_Quote#0001</v>
       </c>
       <c r="F29" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E29)</f>
@@ -19744,7 +19757,7 @@
       </c>
       <c r="E30" s="91" t="str">
         <f>_xll.qlSimpleQuote(D30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS23M_Quote#0000</v>
+        <v>AUDOIS23M_Quote#0001</v>
       </c>
       <c r="F30" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E30)</f>
@@ -19809,7 +19822,7 @@
       </c>
       <c r="E31" s="91" t="str">
         <f>_xll.qlSimpleQuote(D31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS2Y_Quote#0000</v>
+        <v>AUDOIS2Y_Quote#0001</v>
       </c>
       <c r="F31" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E31)</f>
@@ -19854,9 +19867,9 @@
       <c r="V31" s="154">
         <v>2.62</v>
       </c>
-      <c r="W31" s="100">
+      <c r="W31" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E31,V31/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X31" s="90"/>
     </row>
@@ -19874,7 +19887,7 @@
       </c>
       <c r="E32" s="91" t="str">
         <f>_xll.qlSimpleQuote(D32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS27M_Quote#0000</v>
+        <v>AUDOIS27M_Quote#0001</v>
       </c>
       <c r="F32" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E32)</f>
@@ -19939,7 +19952,7 @@
       </c>
       <c r="E33" s="91" t="str">
         <f>_xll.qlSimpleQuote(D33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS30M_Quote#0000</v>
+        <v>AUDOIS30M_Quote#0001</v>
       </c>
       <c r="F33" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E33)</f>
@@ -20004,7 +20017,7 @@
       </c>
       <c r="E34" s="91" t="str">
         <f>_xll.qlSimpleQuote(D34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS33M_Quote#0000</v>
+        <v>AUDOIS33M_Quote#0001</v>
       </c>
       <c r="F34" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E34)</f>
@@ -20069,7 +20082,7 @@
       </c>
       <c r="E35" s="91" t="str">
         <f>_xll.qlSimpleQuote(D35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS3Y_Quote#0000</v>
+        <v>AUDOIS3Y_Quote#0001</v>
       </c>
       <c r="F35" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E35)</f>
@@ -20114,9 +20127,9 @@
       <c r="V35" s="154">
         <v>2.83</v>
       </c>
-      <c r="W35" s="100">
+      <c r="W35" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E35,V35/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="X35" s="90"/>
     </row>
@@ -20134,7 +20147,7 @@
       </c>
       <c r="E36" s="91" t="str">
         <f>_xll.qlSimpleQuote(D36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS39M_Quote#0000</v>
+        <v>AUDOIS39M_Quote#0001</v>
       </c>
       <c r="F36" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E36)</f>
@@ -20199,7 +20212,7 @@
       </c>
       <c r="E37" s="91" t="str">
         <f>_xll.qlSimpleQuote(D37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS42M_Quote#0000</v>
+        <v>AUDOIS42M_Quote#0001</v>
       </c>
       <c r="F37" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E37)</f>
@@ -20264,7 +20277,7 @@
       </c>
       <c r="E38" s="91" t="str">
         <f>_xll.qlSimpleQuote(D38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS45M_Quote#0000</v>
+        <v>AUDOIS45M_Quote#0001</v>
       </c>
       <c r="F38" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E38)</f>
@@ -20329,7 +20342,7 @@
       </c>
       <c r="E39" s="91" t="str">
         <f>_xll.qlSimpleQuote(D39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS4Y_Quote#0000</v>
+        <v>AUDOIS4Y_Quote#0001</v>
       </c>
       <c r="F39" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E39)</f>
@@ -20394,7 +20407,7 @@
       </c>
       <c r="E40" s="91" t="str">
         <f>_xll.qlSimpleQuote(D40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS51M_Quote#0000</v>
+        <v>AUDOIS51M_Quote#0001</v>
       </c>
       <c r="F40" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E40)</f>
@@ -20459,7 +20472,7 @@
       </c>
       <c r="E41" s="91" t="str">
         <f>_xll.qlSimpleQuote(D41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS54M_Quote#0000</v>
+        <v>AUDOIS54M_Quote#0001</v>
       </c>
       <c r="F41" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E41)</f>
@@ -20524,7 +20537,7 @@
       </c>
       <c r="E42" s="91" t="str">
         <f>_xll.qlSimpleQuote(D42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS57M_Quote#0000</v>
+        <v>AUDOIS57M_Quote#0001</v>
       </c>
       <c r="F42" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E42)</f>
@@ -20589,7 +20602,7 @@
       </c>
       <c r="E43" s="91" t="str">
         <f>_xll.qlSimpleQuote(D43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS5Y_Quote#0000</v>
+        <v>AUDOIS5Y_Quote#0001</v>
       </c>
       <c r="F43" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E43)</f>
@@ -20654,7 +20667,7 @@
       </c>
       <c r="E44" s="91" t="str">
         <f>_xll.qlSimpleQuote(D44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS6Y_Quote#0000</v>
+        <v>AUDOIS6Y_Quote#0001</v>
       </c>
       <c r="F44" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E44)</f>
@@ -20719,7 +20732,7 @@
       </c>
       <c r="E45" s="91" t="str">
         <f>_xll.qlSimpleQuote(D45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS7Y_Quote#0000</v>
+        <v>AUDOIS7Y_Quote#0001</v>
       </c>
       <c r="F45" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E45)</f>
@@ -20784,7 +20797,7 @@
       </c>
       <c r="E46" s="91" t="str">
         <f>_xll.qlSimpleQuote(D46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS8Y_Quote#0000</v>
+        <v>AUDOIS8Y_Quote#0001</v>
       </c>
       <c r="F46" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E46)</f>
@@ -20849,7 +20862,7 @@
       </c>
       <c r="E47" s="91" t="str">
         <f>_xll.qlSimpleQuote(D47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS9Y_Quote#0000</v>
+        <v>AUDOIS9Y_Quote#0001</v>
       </c>
       <c r="F47" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E47)</f>
@@ -20914,7 +20927,7 @@
       </c>
       <c r="E48" s="91" t="str">
         <f>_xll.qlSimpleQuote(D48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS10Y_Quote#0000</v>
+        <v>AUDOIS10Y_Quote#0001</v>
       </c>
       <c r="F48" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E48)</f>
@@ -20979,7 +20992,7 @@
       </c>
       <c r="E49" s="91" t="str">
         <f>_xll.qlSimpleQuote(D49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS12Y_Quote#0000</v>
+        <v>AUDOIS12Y_Quote#0001</v>
       </c>
       <c r="F49" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E49)</f>
@@ -21044,7 +21057,7 @@
       </c>
       <c r="E50" s="91" t="str">
         <f>_xll.qlSimpleQuote(D50,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS15Y_Quote#0000</v>
+        <v>AUDOIS15Y_Quote#0001</v>
       </c>
       <c r="F50" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E50)</f>
@@ -21109,7 +21122,7 @@
       </c>
       <c r="E51" s="91" t="str">
         <f>_xll.qlSimpleQuote(D51,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS20Y_Quote#0000</v>
+        <v>AUDOIS20Y_Quote#0001</v>
       </c>
       <c r="F51" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E51)</f>
@@ -21174,7 +21187,7 @@
       </c>
       <c r="E52" s="91" t="str">
         <f>_xll.qlSimpleQuote(D52,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS25Y_Quote#0000</v>
+        <v>AUDOIS25Y_Quote#0001</v>
       </c>
       <c r="F52" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E52)</f>
@@ -21239,7 +21252,7 @@
       </c>
       <c r="E53" s="91" t="str">
         <f>_xll.qlSimpleQuote(D53,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS27Y_Quote#0000</v>
+        <v>AUDOIS27Y_Quote#0001</v>
       </c>
       <c r="F53" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E53)</f>
@@ -21304,7 +21317,7 @@
       </c>
       <c r="E54" s="91" t="str">
         <f>_xll.qlSimpleQuote(D54,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS30Y_Quote#0000</v>
+        <v>AUDOIS30Y_Quote#0001</v>
       </c>
       <c r="F54" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E54)</f>
@@ -21369,7 +21382,7 @@
       </c>
       <c r="E55" s="91" t="str">
         <f>_xll.qlSimpleQuote(D55,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS35Y_Quote#0000</v>
+        <v>AUDOIS35Y_Quote#0001</v>
       </c>
       <c r="F55" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E55)</f>
@@ -21434,7 +21447,7 @@
       </c>
       <c r="E56" s="91" t="str">
         <f>_xll.qlSimpleQuote(D56,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS40Y_Quote#0000</v>
+        <v>AUDOIS40Y_Quote#0001</v>
       </c>
       <c r="F56" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E56)</f>
@@ -21499,7 +21512,7 @@
       </c>
       <c r="E57" s="91" t="str">
         <f>_xll.qlSimpleQuote(D57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS45Y_Quote#0000</v>
+        <v>AUDOIS45Y_Quote#0001</v>
       </c>
       <c r="F57" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E57)</f>
@@ -21564,7 +21577,7 @@
       </c>
       <c r="E58" s="91" t="str">
         <f>_xll.qlSimpleQuote(D58,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS50Y_Quote#0000</v>
+        <v>AUDOIS50Y_Quote#0001</v>
       </c>
       <c r="F58" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E58)</f>
@@ -21776,7 +21789,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Z96"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -21916,7 +21931,7 @@
       <c r="N4" s="50"/>
       <c r="O4" s="174" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 16:22:38</v>
+        <v>Paused at 16:28:15</v>
       </c>
       <c r="P4" s="171" t="s">
         <v>130</v>
@@ -21963,7 +21978,7 @@
       </c>
       <c r="F5" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B5&amp;$C5&amp;$D5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOISSW_Quote#0000</v>
+        <v>AUDMTOISSW_Quote#0001</v>
       </c>
       <c r="G5" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -22036,7 +22051,7 @@
       </c>
       <c r="F6" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B6&amp;$C6&amp;$D6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS2W_Quote#0000</v>
+        <v>AUDMTOIS2W_Quote#0001</v>
       </c>
       <c r="G6" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -22107,7 +22122,7 @@
       </c>
       <c r="F7" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B7&amp;$C7&amp;$D7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS3W_Quote#0000</v>
+        <v>AUDMTOIS3W_Quote#0001</v>
       </c>
       <c r="G7" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -22178,7 +22193,7 @@
       </c>
       <c r="F8" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B8&amp;$C8&amp;$D8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS1M_Quote#0000</v>
+        <v>AUDMTOIS1M_Quote#0001</v>
       </c>
       <c r="G8" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -22249,7 +22264,7 @@
       </c>
       <c r="F9" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B9&amp;$C9&amp;$D9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS2M_Quote#0000</v>
+        <v>AUDMTOIS2M_Quote#0001</v>
       </c>
       <c r="G9" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -22320,7 +22335,7 @@
       </c>
       <c r="F10" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B10&amp;$C10&amp;$D10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS3M_Quote#0000</v>
+        <v>AUDMTOIS3M_Quote#0001</v>
       </c>
       <c r="G10" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -22391,7 +22406,7 @@
       </c>
       <c r="F11" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B11&amp;$C11&amp;$D11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS4M_Quote#0000</v>
+        <v>AUDMTOIS4M_Quote#0001</v>
       </c>
       <c r="G11" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -22462,7 +22477,7 @@
       </c>
       <c r="F12" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B12&amp;$C12&amp;$D12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS5M_Quote#0000</v>
+        <v>AUDMTOIS5M_Quote#0001</v>
       </c>
       <c r="G12" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -22533,7 +22548,7 @@
       </c>
       <c r="F13" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B13&amp;$C13&amp;$D13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS6M_Quote#0000</v>
+        <v>AUDMTOIS6M_Quote#0001</v>
       </c>
       <c r="G13" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -22604,7 +22619,7 @@
       </c>
       <c r="F14" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B14&amp;$C14&amp;$D14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS7M_Quote#0000</v>
+        <v>AUDMTOIS7M_Quote#0001</v>
       </c>
       <c r="G14" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -22675,7 +22690,7 @@
       </c>
       <c r="F15" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B15&amp;$C15&amp;$D15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS8M_Quote#0000</v>
+        <v>AUDMTOIS8M_Quote#0001</v>
       </c>
       <c r="G15" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -22746,7 +22761,7 @@
       </c>
       <c r="F16" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B16&amp;$C16&amp;$D16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS9M_Quote#0000</v>
+        <v>AUDMTOIS9M_Quote#0001</v>
       </c>
       <c r="G16" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -22817,7 +22832,7 @@
       </c>
       <c r="F17" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B17&amp;$C17&amp;$D17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS10M_Quote#0000</v>
+        <v>AUDMTOIS10M_Quote#0001</v>
       </c>
       <c r="G17" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -22888,7 +22903,7 @@
       </c>
       <c r="F18" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B18&amp;$C18&amp;$D18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS11M_Quote#0000</v>
+        <v>AUDMTOIS11M_Quote#0001</v>
       </c>
       <c r="G18" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -22959,7 +22974,7 @@
       </c>
       <c r="F19" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B19&amp;$C19&amp;$D19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS1Y_Quote#0000</v>
+        <v>AUDMTOIS1Y_Quote#0001</v>
       </c>
       <c r="G19" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -22984,20 +22999,20 @@
         <v>AUD1YMTOIS=ICAA</v>
       </c>
       <c r="P19" s="101">
-        <v>2.4649999999999999</v>
+        <v>2.4630000000000001</v>
       </c>
       <c r="Q19" s="101">
-        <v>2.5150000000000001</v>
+        <v>2.5129999999999999</v>
       </c>
       <c r="R19" s="101">
         <v>0</v>
       </c>
       <c r="S19" s="101">
-        <v>2.4900000000000002</v>
+        <v>2.488</v>
       </c>
       <c r="T19" s="104">
         <f>_xll.qlMidEquivalent($P19,$Q19,$R19,$S19)</f>
-        <v>2.4900000000000002</v>
+        <v>2.488</v>
       </c>
       <c r="U19" s="102"/>
       <c r="V19" s="103">
@@ -23005,11 +23020,11 @@
       </c>
       <c r="W19" s="102"/>
       <c r="X19" s="154">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="Y19" s="100">
+        <v>2.488</v>
+      </c>
+      <c r="Y19" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F19,X19/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z19" s="90"/>
     </row>
@@ -23030,7 +23045,7 @@
       </c>
       <c r="F20" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B20&amp;$C20&amp;$D20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS13M_Quote#0000</v>
+        <v>AUDMTOIS13M_Quote#0001</v>
       </c>
       <c r="G20" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -23101,7 +23116,7 @@
       </c>
       <c r="F21" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B21&amp;$C21&amp;$D21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS14M_Quote#0000</v>
+        <v>AUDMTOIS14M_Quote#0001</v>
       </c>
       <c r="G21" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -23172,7 +23187,7 @@
       </c>
       <c r="F22" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B22&amp;$C22&amp;$D22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS15M_Quote#0000</v>
+        <v>AUDMTOIS15M_Quote#0001</v>
       </c>
       <c r="G22" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -23243,7 +23258,7 @@
       </c>
       <c r="F23" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B23&amp;$C23&amp;$D23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS16M_Quote#0000</v>
+        <v>AUDMTOIS16M_Quote#0001</v>
       </c>
       <c r="G23" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -23314,7 +23329,7 @@
       </c>
       <c r="F24" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B24&amp;$C24&amp;$D24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS17M_Quote#0000</v>
+        <v>AUDMTOIS17M_Quote#0001</v>
       </c>
       <c r="G24" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -23385,7 +23400,7 @@
       </c>
       <c r="F25" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B25&amp;$C25&amp;$D25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS18M_Quote#0000</v>
+        <v>AUDMTOIS18M_Quote#0001</v>
       </c>
       <c r="G25" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -23410,20 +23425,20 @@
         <v>AUD18MMTOIS=ICAA</v>
       </c>
       <c r="P25" s="101">
-        <v>2.5</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="Q25" s="101">
-        <v>2.5500000000000003</v>
+        <v>2.54</v>
       </c>
       <c r="R25" s="101">
         <v>0</v>
       </c>
       <c r="S25" s="101">
-        <v>2.5249999999999999</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="T25" s="104">
         <f>_xll.qlMidEquivalent($P25,$Q25,$R25,$S25)</f>
-        <v>2.5250000000000004</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="U25" s="102"/>
       <c r="V25" s="103">
@@ -23431,11 +23446,11 @@
       </c>
       <c r="W25" s="102"/>
       <c r="X25" s="154">
-        <v>2.5250000000000004</v>
-      </c>
-      <c r="Y25" s="100">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="Y25" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F25,X25/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z25" s="90"/>
     </row>
@@ -23456,7 +23471,7 @@
       </c>
       <c r="F26" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B26&amp;$C26&amp;$D26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS19M_Quote#0000</v>
+        <v>AUDMTOIS19M_Quote#0001</v>
       </c>
       <c r="G26" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -23527,7 +23542,7 @@
       </c>
       <c r="F27" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B27&amp;$C27&amp;$D27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS20M_Quote#0000</v>
+        <v>AUDMTOIS20M_Quote#0001</v>
       </c>
       <c r="G27" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -23598,7 +23613,7 @@
       </c>
       <c r="F28" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B28&amp;$C28&amp;$D28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS21M_Quote#0000</v>
+        <v>AUDMTOIS21M_Quote#0001</v>
       </c>
       <c r="G28" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -23669,7 +23684,7 @@
       </c>
       <c r="F29" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B29&amp;$C29&amp;$D29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS22M_Quote#0000</v>
+        <v>AUDMTOIS22M_Quote#0001</v>
       </c>
       <c r="G29" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -23740,7 +23755,7 @@
       </c>
       <c r="F30" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B30&amp;$C30&amp;$D30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS23M_Quote#0000</v>
+        <v>AUDMTOIS23M_Quote#0001</v>
       </c>
       <c r="G30" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -23811,7 +23826,7 @@
       </c>
       <c r="F31" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B31&amp;$C31&amp;$D31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS2Y_Quote#0000</v>
+        <v>AUDMTOIS2Y_Quote#0001</v>
       </c>
       <c r="G31" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -23836,10 +23851,10 @@
         <v>AUD2YMTOIS=ICAA</v>
       </c>
       <c r="P31" s="101">
-        <v>2.56</v>
+        <v>2.5550000000000002</v>
       </c>
       <c r="Q31" s="101">
-        <v>2.61</v>
+        <v>2.605</v>
       </c>
       <c r="R31" s="101">
         <v>0</v>
@@ -23849,7 +23864,7 @@
       </c>
       <c r="T31" s="104">
         <f>_xll.qlMidEquivalent($P31,$Q31,$R31,$S31)</f>
-        <v>2.585</v>
+        <v>2.58</v>
       </c>
       <c r="U31" s="102"/>
       <c r="V31" s="103">
@@ -23857,11 +23872,11 @@
       </c>
       <c r="W31" s="102"/>
       <c r="X31" s="154">
-        <v>2.585</v>
-      </c>
-      <c r="Y31" s="100">
+        <v>2.58</v>
+      </c>
+      <c r="Y31" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z31" s="90"/>
     </row>
@@ -23882,7 +23897,7 @@
       </c>
       <c r="F32" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B32&amp;$C32&amp;$D32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS27M_Quote#0000</v>
+        <v>AUDMTOIS27M_Quote#0001</v>
       </c>
       <c r="G32" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -23953,7 +23968,7 @@
       </c>
       <c r="F33" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B33&amp;$C33&amp;$D33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS30M_Quote#0000</v>
+        <v>AUDMTOIS30M_Quote#0001</v>
       </c>
       <c r="G33" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -24024,7 +24039,7 @@
       </c>
       <c r="F34" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B34&amp;$C34&amp;$D34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS33M_Quote#0000</v>
+        <v>AUDMTOIS33M_Quote#0001</v>
       </c>
       <c r="G34" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -24095,7 +24110,7 @@
       </c>
       <c r="F35" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B35&amp;$C35&amp;$D35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS3Y_Quote#0000</v>
+        <v>AUDMTOIS3Y_Quote#0001</v>
       </c>
       <c r="G35" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -24120,20 +24135,20 @@
         <v>AUD3YMTOIS=ICAA</v>
       </c>
       <c r="P35" s="101">
-        <v>2.7149999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="Q35" s="101">
-        <v>2.7650000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="R35" s="101">
         <v>0</v>
       </c>
       <c r="S35" s="101">
-        <v>2.74</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="T35" s="104">
         <f>_xll.qlMidEquivalent($P35,$Q35,$R35,$S35)</f>
-        <v>2.74</v>
+        <v>2.7250000000000001</v>
       </c>
       <c r="U35" s="102"/>
       <c r="V35" s="103">
@@ -24141,11 +24156,11 @@
       </c>
       <c r="W35" s="102"/>
       <c r="X35" s="154">
-        <v>2.74</v>
-      </c>
-      <c r="Y35" s="100">
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="Y35" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z35" s="90"/>
     </row>
@@ -24166,7 +24181,7 @@
       </c>
       <c r="F36" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B36&amp;$C36&amp;$D36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS39M_Quote#0000</v>
+        <v>AUDMTOIS39M_Quote#0001</v>
       </c>
       <c r="G36" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -24237,7 +24252,7 @@
       </c>
       <c r="F37" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B37&amp;$C37&amp;$D37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS42M_Quote#0000</v>
+        <v>AUDMTOIS42M_Quote#0001</v>
       </c>
       <c r="G37" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -24308,7 +24323,7 @@
       </c>
       <c r="F38" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B38&amp;$C38&amp;$D38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS45M_Quote#0000</v>
+        <v>AUDMTOIS45M_Quote#0001</v>
       </c>
       <c r="G38" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -24379,7 +24394,7 @@
       </c>
       <c r="F39" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B39&amp;$C39&amp;$D39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS4Y_Quote#0000</v>
+        <v>AUDMTOIS4Y_Quote#0001</v>
       </c>
       <c r="G39" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -24404,20 +24419,20 @@
         <v>AUD4YMTOIS=ICAA</v>
       </c>
       <c r="P39" s="101">
-        <v>2.85</v>
+        <v>2.835</v>
       </c>
       <c r="Q39" s="101">
-        <v>2.9</v>
+        <v>2.8850000000000002</v>
       </c>
       <c r="R39" s="101">
         <v>0</v>
       </c>
       <c r="S39" s="101">
-        <v>2.875</v>
+        <v>2.863</v>
       </c>
       <c r="T39" s="104">
         <f>_xll.qlMidEquivalent($P39,$Q39,$R39,$S39)</f>
-        <v>2.875</v>
+        <v>2.8600000000000003</v>
       </c>
       <c r="U39" s="102"/>
       <c r="V39" s="103">
@@ -24425,11 +24440,11 @@
       </c>
       <c r="W39" s="102"/>
       <c r="X39" s="154">
-        <v>2.875</v>
-      </c>
-      <c r="Y39" s="100">
+        <v>2.8600000000000003</v>
+      </c>
+      <c r="Y39" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F39,X39/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z39" s="90"/>
     </row>
@@ -24450,7 +24465,7 @@
       </c>
       <c r="F40" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B40&amp;$C40&amp;$D40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS51M_Quote#0000</v>
+        <v>AUDMTOIS51M_Quote#0001</v>
       </c>
       <c r="G40" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -24521,7 +24536,7 @@
       </c>
       <c r="F41" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B41&amp;$C41&amp;$D41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS54M_Quote#0000</v>
+        <v>AUDMTOIS54M_Quote#0001</v>
       </c>
       <c r="G41" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -24592,7 +24607,7 @@
       </c>
       <c r="F42" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B42&amp;$C42&amp;$D42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS57M_Quote#0000</v>
+        <v>AUDMTOIS57M_Quote#0001</v>
       </c>
       <c r="G42" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -24663,7 +24678,7 @@
       </c>
       <c r="F43" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B43&amp;$C43&amp;$D43&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS5Y_Quote#0000</v>
+        <v>AUDMTOIS5Y_Quote#0001</v>
       </c>
       <c r="G43" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -24688,20 +24703,20 @@
         <v>AUD5YMTOIS=ICAA</v>
       </c>
       <c r="P43" s="101">
-        <v>2.99</v>
+        <v>2.97</v>
       </c>
       <c r="Q43" s="101">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="R43" s="101">
         <v>0</v>
       </c>
       <c r="S43" s="101">
-        <v>3.0150000000000001</v>
+        <v>2.9980000000000002</v>
       </c>
       <c r="T43" s="104">
         <f>_xll.qlMidEquivalent($P43,$Q43,$R43,$S43)</f>
-        <v>3.0150000000000001</v>
+        <v>2.9950000000000001</v>
       </c>
       <c r="U43" s="102"/>
       <c r="V43" s="103">
@@ -24709,11 +24724,11 @@
       </c>
       <c r="W43" s="102"/>
       <c r="X43" s="154">
-        <v>3.0150000000000001</v>
-      </c>
-      <c r="Y43" s="100">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="Y43" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F43,X43/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z43" s="90"/>
     </row>
@@ -24734,7 +24749,7 @@
       </c>
       <c r="F44" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B44&amp;$C44&amp;$D44&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS6Y_Quote#0000</v>
+        <v>AUDMTOIS6Y_Quote#0001</v>
       </c>
       <c r="G44" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -24759,20 +24774,20 @@
         <v>AUD6YMTOIS=ICAA</v>
       </c>
       <c r="P44" s="101">
-        <v>3.1150000000000002</v>
+        <v>3.093</v>
       </c>
       <c r="Q44" s="101">
-        <v>3.165</v>
+        <v>3.1430000000000002</v>
       </c>
       <c r="R44" s="101">
         <v>0</v>
       </c>
       <c r="S44" s="101">
-        <v>3.14</v>
+        <v>3.12</v>
       </c>
       <c r="T44" s="104">
         <f>_xll.qlMidEquivalent($P44,$Q44,$R44,$S44)</f>
-        <v>3.14</v>
+        <v>3.1180000000000003</v>
       </c>
       <c r="U44" s="102"/>
       <c r="V44" s="103">
@@ -24780,11 +24795,11 @@
       </c>
       <c r="W44" s="102"/>
       <c r="X44" s="154">
-        <v>3.14</v>
-      </c>
-      <c r="Y44" s="100">
+        <v>3.1180000000000003</v>
+      </c>
+      <c r="Y44" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F44,X44/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z44" s="90"/>
     </row>
@@ -24805,7 +24820,7 @@
       </c>
       <c r="F45" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B45&amp;$C45&amp;$D45&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS7Y_Quote#0000</v>
+        <v>AUDMTOIS7Y_Quote#0001</v>
       </c>
       <c r="G45" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -24830,20 +24845,20 @@
         <v>AUD7YMTOIS=ICAA</v>
       </c>
       <c r="P45" s="101">
-        <v>3.24</v>
+        <v>3.2149999999999999</v>
       </c>
       <c r="Q45" s="101">
-        <v>3.29</v>
+        <v>3.2650000000000001</v>
       </c>
       <c r="R45" s="101">
         <v>0</v>
       </c>
       <c r="S45" s="101">
-        <v>3.2650000000000001</v>
+        <v>3.24</v>
       </c>
       <c r="T45" s="104">
         <f>_xll.qlMidEquivalent($P45,$Q45,$R45,$S45)</f>
-        <v>3.2650000000000001</v>
+        <v>3.24</v>
       </c>
       <c r="U45" s="102"/>
       <c r="V45" s="103">
@@ -24851,11 +24866,11 @@
       </c>
       <c r="W45" s="102"/>
       <c r="X45" s="154">
-        <v>3.2650000000000001</v>
-      </c>
-      <c r="Y45" s="100">
+        <v>3.24</v>
+      </c>
+      <c r="Y45" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F45,X45/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z45" s="90"/>
     </row>
@@ -24876,7 +24891,7 @@
       </c>
       <c r="F46" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B46&amp;$C46&amp;$D46&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS8Y_Quote#0000</v>
+        <v>AUDMTOIS8Y_Quote#0001</v>
       </c>
       <c r="G46" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -24901,20 +24916,20 @@
         <v>AUD8YMTOIS=ICAA</v>
       </c>
       <c r="P46" s="101">
-        <v>3.3250000000000002</v>
+        <v>3.298</v>
       </c>
       <c r="Q46" s="101">
-        <v>3.375</v>
+        <v>3.3479999999999999</v>
       </c>
       <c r="R46" s="101">
         <v>0</v>
       </c>
       <c r="S46" s="101">
-        <v>3.35</v>
+        <v>3.323</v>
       </c>
       <c r="T46" s="104">
         <f>_xll.qlMidEquivalent($P46,$Q46,$R46,$S46)</f>
-        <v>3.35</v>
+        <v>3.323</v>
       </c>
       <c r="U46" s="102"/>
       <c r="V46" s="103">
@@ -24922,11 +24937,11 @@
       </c>
       <c r="W46" s="102"/>
       <c r="X46" s="154">
-        <v>3.35</v>
-      </c>
-      <c r="Y46" s="100">
+        <v>3.323</v>
+      </c>
+      <c r="Y46" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F46,X46/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z46" s="90"/>
     </row>
@@ -24947,7 +24962,7 @@
       </c>
       <c r="F47" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B47&amp;$C47&amp;$D47&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS9Y_Quote#0000</v>
+        <v>AUDMTOIS9Y_Quote#0001</v>
       </c>
       <c r="G47" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -24972,20 +24987,20 @@
         <v>AUD9YMTOIS=ICAA</v>
       </c>
       <c r="P47" s="101">
-        <v>3.4079999999999999</v>
+        <v>3.3780000000000001</v>
       </c>
       <c r="Q47" s="101">
-        <v>3.4580000000000002</v>
+        <v>3.4279999999999999</v>
       </c>
       <c r="R47" s="101">
         <v>0</v>
       </c>
       <c r="S47" s="101">
-        <v>3.4330000000000003</v>
+        <v>3.403</v>
       </c>
       <c r="T47" s="104">
         <f>_xll.qlMidEquivalent($P47,$Q47,$R47,$S47)</f>
-        <v>3.4329999999999998</v>
+        <v>3.403</v>
       </c>
       <c r="U47" s="102"/>
       <c r="V47" s="103">
@@ -24993,11 +25008,11 @@
       </c>
       <c r="W47" s="102"/>
       <c r="X47" s="154">
-        <v>3.4329999999999998</v>
-      </c>
-      <c r="Y47" s="100">
+        <v>3.403</v>
+      </c>
+      <c r="Y47" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F47,X47/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z47" s="90"/>
     </row>
@@ -25018,7 +25033,7 @@
       </c>
       <c r="F48" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B48&amp;$C48&amp;$D48&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS10Y_Quote#0000</v>
+        <v>AUDMTOIS10Y_Quote#0001</v>
       </c>
       <c r="G48" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -25043,20 +25058,20 @@
         <v>AUD10YMTOIS=ICAA</v>
       </c>
       <c r="P48" s="101">
-        <v>3.4929999999999999</v>
+        <v>3.46</v>
       </c>
       <c r="Q48" s="101">
-        <v>3.5430000000000001</v>
+        <v>3.5100000000000002</v>
       </c>
       <c r="R48" s="101">
         <v>0</v>
       </c>
       <c r="S48" s="101">
-        <v>3.5180000000000002</v>
+        <v>3.4849999999999999</v>
       </c>
       <c r="T48" s="104">
         <f>_xll.qlMidEquivalent($P48,$Q48,$R48,$S48)</f>
-        <v>3.5179999999999998</v>
+        <v>3.4850000000000003</v>
       </c>
       <c r="U48" s="102"/>
       <c r="V48" s="103">
@@ -25064,11 +25079,11 @@
       </c>
       <c r="W48" s="102"/>
       <c r="X48" s="154">
-        <v>3.5179999999999998</v>
-      </c>
-      <c r="Y48" s="100">
+        <v>3.4850000000000003</v>
+      </c>
+      <c r="Y48" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F48,X48/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z48" s="90"/>
     </row>
@@ -25089,7 +25104,7 @@
       </c>
       <c r="F49" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B49&amp;$C49&amp;$D49&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS12Y_Quote#0000</v>
+        <v>AUDMTOIS12Y_Quote#0001</v>
       </c>
       <c r="G49" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -25114,20 +25129,20 @@
         <v>AUD12YMTOIS=ICAA</v>
       </c>
       <c r="P49" s="101">
-        <v>3.6179999999999999</v>
+        <v>3.5880000000000001</v>
       </c>
       <c r="Q49" s="101">
-        <v>3.6680000000000001</v>
+        <v>3.6379999999999999</v>
       </c>
       <c r="R49" s="101">
         <v>0</v>
       </c>
       <c r="S49" s="101">
-        <v>3.6430000000000002</v>
+        <v>3.613</v>
       </c>
       <c r="T49" s="104">
         <f>_xll.qlMidEquivalent($P49,$Q49,$R49,$S49)</f>
-        <v>3.6429999999999998</v>
+        <v>3.613</v>
       </c>
       <c r="U49" s="102"/>
       <c r="V49" s="103">
@@ -25135,11 +25150,11 @@
       </c>
       <c r="W49" s="102"/>
       <c r="X49" s="154">
-        <v>3.6429999999999998</v>
-      </c>
-      <c r="Y49" s="100">
+        <v>3.613</v>
+      </c>
+      <c r="Y49" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F49,X49/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z49" s="90"/>
     </row>
@@ -25160,7 +25175,7 @@
       </c>
       <c r="F50" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B50&amp;$C50&amp;$D50&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS15Y_Quote#0000</v>
+        <v>AUDMTOIS15Y_Quote#0001</v>
       </c>
       <c r="G50" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -25185,20 +25200,20 @@
         <v>AUD15YMTOIS=ICAA</v>
       </c>
       <c r="P50" s="101">
-        <v>3.7650000000000001</v>
+        <v>3.7349999999999999</v>
       </c>
       <c r="Q50" s="101">
-        <v>3.8149999999999999</v>
+        <v>3.7850000000000001</v>
       </c>
       <c r="R50" s="101">
         <v>0</v>
       </c>
       <c r="S50" s="101">
-        <v>3.79</v>
+        <v>3.7600000000000002</v>
       </c>
       <c r="T50" s="104">
         <f>_xll.qlMidEquivalent($P50,$Q50,$R50,$S50)</f>
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="U50" s="102"/>
       <c r="V50" s="103">
@@ -25206,11 +25221,11 @@
       </c>
       <c r="W50" s="102"/>
       <c r="X50" s="154">
-        <v>3.79</v>
-      </c>
-      <c r="Y50" s="100">
+        <v>3.76</v>
+      </c>
+      <c r="Y50" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F50,X50/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z50" s="90"/>
     </row>
@@ -25231,7 +25246,7 @@
       </c>
       <c r="F51" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B51&amp;$C51&amp;$D51&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS20Y_Quote#0000</v>
+        <v>AUDMTOIS20Y_Quote#0001</v>
       </c>
       <c r="G51" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -25256,20 +25271,20 @@
         <v>AUD20YMTOIS=ICAA</v>
       </c>
       <c r="P51" s="101">
-        <v>3.9180000000000001</v>
+        <v>3.8930000000000002</v>
       </c>
       <c r="Q51" s="101">
-        <v>3.968</v>
+        <v>3.9430000000000001</v>
       </c>
       <c r="R51" s="101">
         <v>0</v>
       </c>
       <c r="S51" s="101">
-        <v>3.9430000000000001</v>
+        <v>3.9180000000000001</v>
       </c>
       <c r="T51" s="104">
         <f>_xll.qlMidEquivalent($P51,$Q51,$R51,$S51)</f>
-        <v>3.9430000000000001</v>
+        <v>3.9180000000000001</v>
       </c>
       <c r="U51" s="102"/>
       <c r="V51" s="103">
@@ -25277,11 +25292,11 @@
       </c>
       <c r="W51" s="102"/>
       <c r="X51" s="154">
-        <v>3.9430000000000001</v>
-      </c>
-      <c r="Y51" s="100">
+        <v>3.9180000000000001</v>
+      </c>
+      <c r="Y51" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F51,X51/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z51" s="90"/>
     </row>
@@ -25302,7 +25317,7 @@
       </c>
       <c r="F52" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B52&amp;$C52&amp;$D52&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS25Y_Quote#0000</v>
+        <v>AUDMTOIS25Y_Quote#0001</v>
       </c>
       <c r="G52" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -25327,20 +25342,20 @@
         <v>AUD25YMTOIS=ICAA</v>
       </c>
       <c r="P52" s="101">
-        <v>3.98</v>
+        <v>3.9550000000000001</v>
       </c>
       <c r="Q52" s="101">
-        <v>4.03</v>
+        <v>4.0049999999999999</v>
       </c>
       <c r="R52" s="101">
         <v>0</v>
       </c>
       <c r="S52" s="101">
-        <v>4.0049999999999999</v>
+        <v>3.98</v>
       </c>
       <c r="T52" s="104">
         <f>_xll.qlMidEquivalent($P52,$Q52,$R52,$S52)</f>
-        <v>4.0049999999999999</v>
+        <v>3.98</v>
       </c>
       <c r="U52" s="102"/>
       <c r="V52" s="103">
@@ -25348,11 +25363,11 @@
       </c>
       <c r="W52" s="102"/>
       <c r="X52" s="154">
-        <v>4.0049999999999999</v>
-      </c>
-      <c r="Y52" s="100">
+        <v>3.98</v>
+      </c>
+      <c r="Y52" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F52,X52/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z52" s="90"/>
     </row>
@@ -25373,7 +25388,7 @@
       </c>
       <c r="F53" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B53&amp;$C53&amp;$D53&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS27Y_Quote#0000</v>
+        <v>AUDMTOIS27Y_Quote#0001</v>
       </c>
       <c r="G53" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -25444,7 +25459,7 @@
       </c>
       <c r="F54" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B54&amp;$C54&amp;$D54&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS30Y_Quote#0000</v>
+        <v>AUDMTOIS30Y_Quote#0001</v>
       </c>
       <c r="G54" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -25469,20 +25484,20 @@
         <v>AUD30YMTOIS=ICAA</v>
       </c>
       <c r="P54" s="101">
-        <v>4.0229999999999997</v>
+        <v>3.99</v>
       </c>
       <c r="Q54" s="101">
-        <v>4.0730000000000004</v>
+        <v>4.04</v>
       </c>
       <c r="R54" s="101">
         <v>0</v>
       </c>
       <c r="S54" s="101">
-        <v>4.048</v>
+        <v>4.0149999999999997</v>
       </c>
       <c r="T54" s="104">
         <f>_xll.qlMidEquivalent($P54,$Q54,$R54,$S54)</f>
-        <v>4.048</v>
+        <v>4.0150000000000006</v>
       </c>
       <c r="U54" s="102"/>
       <c r="V54" s="103">
@@ -25490,11 +25505,11 @@
       </c>
       <c r="W54" s="102"/>
       <c r="X54" s="154">
-        <v>4.048</v>
-      </c>
-      <c r="Y54" s="100">
+        <v>4.0150000000000006</v>
+      </c>
+      <c r="Y54" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F54,X54/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Z54" s="90"/>
     </row>
@@ -25515,7 +25530,7 @@
       </c>
       <c r="F55" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B55&amp;$C55&amp;$D55&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS35Y_Quote#0000</v>
+        <v>AUDMTOIS35Y_Quote#0001</v>
       </c>
       <c r="G55" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -25586,7 +25601,7 @@
       </c>
       <c r="F56" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B56&amp;$C56&amp;$D56&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS40Y_Quote#0000</v>
+        <v>AUDMTOIS40Y_Quote#0001</v>
       </c>
       <c r="G56" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -25657,7 +25672,7 @@
       </c>
       <c r="F57" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B57&amp;$C57&amp;$D57&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS45Y_Quote#0000</v>
+        <v>AUDMTOIS45Y_Quote#0001</v>
       </c>
       <c r="G57" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -25728,7 +25743,7 @@
       </c>
       <c r="F58" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B58&amp;$C58&amp;$D58&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS50Y_Quote#0000</v>
+        <v>AUDMTOIS50Y_Quote#0001</v>
       </c>
       <c r="G58" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -25945,7 +25960,9 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26045,7 +26062,7 @@
       <c r="Q3" s="124"/>
       <c r="R3" s="123">
         <f>_xll.ohTrigger(R5:R18)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S3" s="90"/>
       <c r="T3" s="3"/>
@@ -26075,7 +26092,7 @@
       <c r="I4" s="120"/>
       <c r="J4" s="98" t="str">
         <f>_xll.RData(J6:J22,K4:L4,,ReutersRtMode,,K6)</f>
-        <v>Paused at 16:22:38</v>
+        <v>Paused at 16:28:15</v>
       </c>
       <c r="K4" s="98" t="s">
         <v>130</v>
@@ -26116,7 +26133,7 @@
       </c>
       <c r="D5" s="36" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOND_Quote#0000</v>
+        <v>AUDOND_Quote#0001</v>
       </c>
       <c r="E5" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -26151,9 +26168,9 @@
         <f t="array" ref="Q5:Q22">QuoteLive</f>
         <v>2.5</v>
       </c>
-      <c r="R5" s="113">
+      <c r="R5" s="113" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D5,Q5/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S5" s="90"/>
       <c r="T5" s="3"/>
@@ -26174,7 +26191,7 @@
       </c>
       <c r="D6" s="36" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDTND_Quote#0000</v>
+        <v>AUDTND_Quote#0001</v>
       </c>
       <c r="E6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -26207,9 +26224,9 @@
       <c r="Q6" s="161">
         <v>2.625</v>
       </c>
-      <c r="R6" s="113">
+      <c r="R6" s="113" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D6,Q6/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S6" s="90"/>
       <c r="T6" s="3"/>
@@ -26230,7 +26247,7 @@
       </c>
       <c r="D7" s="36" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSND_Quote#0000</v>
+        <v>AUDSND_Quote#0001</v>
       </c>
       <c r="E7" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -26262,9 +26279,9 @@
       <c r="Q7" s="154">
         <v>2.625</v>
       </c>
-      <c r="R7" s="100">
+      <c r="R7" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D7,Q7/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S7" s="90"/>
       <c r="T7" s="3"/>
@@ -26285,7 +26302,7 @@
       </c>
       <c r="D8" s="36" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSWD_Quote#0000</v>
+        <v>AUDSWD_Quote#0001</v>
       </c>
       <c r="E8" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -26317,9 +26334,9 @@
       <c r="Q8" s="154">
         <v>2.625</v>
       </c>
-      <c r="R8" s="100">
+      <c r="R8" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D8,Q8/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S8" s="90"/>
       <c r="T8" s="3"/>
@@ -26340,7 +26357,7 @@
       </c>
       <c r="D9" s="36" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD2WD_Quote#0000</v>
+        <v>AUD2WD_Quote#0001</v>
       </c>
       <c r="E9" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -26372,9 +26389,9 @@
       <c r="Q9" s="154">
         <v>2.625</v>
       </c>
-      <c r="R9" s="100">
+      <c r="R9" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D9,Q9/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S9" s="90"/>
       <c r="T9" s="3"/>
@@ -26395,7 +26412,7 @@
       </c>
       <c r="D10" s="36" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3WD_Quote#0000</v>
+        <v>AUD3WD_Quote#0001</v>
       </c>
       <c r="E10" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -26427,9 +26444,9 @@
       <c r="Q10" s="154">
         <v>2.625</v>
       </c>
-      <c r="R10" s="100">
+      <c r="R10" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D10,Q10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S10" s="90"/>
       <c r="T10" s="3"/>
@@ -26450,7 +26467,7 @@
       </c>
       <c r="D11" s="36" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1MD_Quote#0000</v>
+        <v>AUD1MD_Quote#0001</v>
       </c>
       <c r="E11" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -26482,9 +26499,9 @@
       <c r="Q11" s="154">
         <v>2.625</v>
       </c>
-      <c r="R11" s="100">
+      <c r="R11" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D11,Q11/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S11" s="90"/>
       <c r="T11" s="3"/>
@@ -26505,7 +26522,7 @@
       </c>
       <c r="D12" s="36" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD2MD_Quote#0000</v>
+        <v>AUD2MD_Quote#0001</v>
       </c>
       <c r="E12" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -26537,9 +26554,9 @@
       <c r="Q12" s="154">
         <v>2.625</v>
       </c>
-      <c r="R12" s="100">
+      <c r="R12" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D12,Q12/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S12" s="90"/>
       <c r="T12" s="3"/>
@@ -26560,7 +26577,7 @@
       </c>
       <c r="D13" s="36" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3MD_Quote#0000</v>
+        <v>AUD3MD_Quote#0001</v>
       </c>
       <c r="E13" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -26592,9 +26609,9 @@
       <c r="Q13" s="154">
         <v>2.6750000000000003</v>
       </c>
-      <c r="R13" s="100">
+      <c r="R13" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D13,Q13/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S13" s="90"/>
       <c r="T13" s="3"/>
@@ -26615,7 +26632,7 @@
       </c>
       <c r="D14" s="36" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD4MD_Quote#0000</v>
+        <v>AUD4MD_Quote#0001</v>
       </c>
       <c r="E14" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -26647,9 +26664,9 @@
       <c r="Q14" s="154">
         <v>2.7250000000000001</v>
       </c>
-      <c r="R14" s="100">
+      <c r="R14" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D14,Q14/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S14" s="90"/>
       <c r="T14" s="3"/>
@@ -26670,7 +26687,7 @@
       </c>
       <c r="D15" s="36" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD5MD_Quote#0000</v>
+        <v>AUD5MD_Quote#0001</v>
       </c>
       <c r="E15" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -26702,9 +26719,9 @@
       <c r="Q15" s="154">
         <v>2.7250000000000001</v>
       </c>
-      <c r="R15" s="100">
+      <c r="R15" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D15,Q15/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S15" s="90"/>
       <c r="T15" s="3"/>
@@ -26725,7 +26742,7 @@
       </c>
       <c r="D16" s="36" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD6MD_Quote#0000</v>
+        <v>AUD6MD_Quote#0001</v>
       </c>
       <c r="E16" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -26757,9 +26774,9 @@
       <c r="Q16" s="154">
         <v>2.7250000000000001</v>
       </c>
-      <c r="R16" s="100">
+      <c r="R16" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D16,Q16/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S16" s="90"/>
       <c r="T16" s="3"/>
@@ -26780,7 +26797,7 @@
       </c>
       <c r="D17" s="36" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD7MD_Quote#0000</v>
+        <v>AUD7MD_Quote#0001</v>
       </c>
       <c r="E17" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -26812,9 +26829,9 @@
       <c r="Q17" s="154">
         <v>2.8250000000000002</v>
       </c>
-      <c r="R17" s="100">
+      <c r="R17" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D17,Q17/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S17" s="90"/>
       <c r="T17" s="3"/>
@@ -26835,7 +26852,7 @@
       </c>
       <c r="D18" s="36" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD8MD_Quote#0000</v>
+        <v>AUD8MD_Quote#0001</v>
       </c>
       <c r="E18" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -26867,9 +26884,9 @@
       <c r="Q18" s="154">
         <v>2.8250000000000002</v>
       </c>
-      <c r="R18" s="100">
+      <c r="R18" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D18,Q18/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S18" s="90"/>
       <c r="T18" s="3"/>
@@ -26890,7 +26907,7 @@
       </c>
       <c r="D19" s="36" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD9MD_Quote#0000</v>
+        <v>AUD9MD_Quote#0001</v>
       </c>
       <c r="E19" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -26922,9 +26939,9 @@
       <c r="Q19" s="154">
         <v>2.8250000000000002</v>
       </c>
-      <c r="R19" s="100">
+      <c r="R19" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D19,Q19/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S19" s="90"/>
       <c r="T19" s="3"/>
@@ -26945,7 +26962,7 @@
       </c>
       <c r="D20" s="36" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD10MD_Quote#0000</v>
+        <v>AUD10MD_Quote#0001</v>
       </c>
       <c r="E20" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -26977,9 +26994,9 @@
       <c r="Q20" s="154">
         <v>2.875</v>
       </c>
-      <c r="R20" s="100">
+      <c r="R20" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D20,Q20/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S20" s="90"/>
       <c r="T20" s="3"/>
@@ -27000,7 +27017,7 @@
       </c>
       <c r="D21" s="36" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD11MD_Quote#0000</v>
+        <v>AUD11MD_Quote#0001</v>
       </c>
       <c r="E21" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -27032,9 +27049,9 @@
       <c r="Q21" s="154">
         <v>2.9250000000000003</v>
       </c>
-      <c r="R21" s="100">
+      <c r="R21" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D21,Q21/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S21" s="90"/>
       <c r="T21" s="3"/>
@@ -27055,7 +27072,7 @@
       </c>
       <c r="D22" s="36" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1YD_Quote#0000</v>
+        <v>AUD1YD_Quote#0001</v>
       </c>
       <c r="E22" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -27087,9 +27104,9 @@
       <c r="Q22" s="147">
         <v>2.9750000000000001</v>
       </c>
-      <c r="R22" s="107">
+      <c r="R22" s="107" t="e">
         <f>_xll.qlSimpleQuoteSetValue(D22,Q22/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="S22" s="90"/>
       <c r="T22" s="3"/>
@@ -27233,7 +27250,9 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -27372,7 +27391,7 @@
       <c r="M4" s="29"/>
       <c r="N4" s="307" t="str">
         <f>_xll.RData(N5:N19,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Paused at 16:22:38</v>
+        <v>Paused at 16:28:15</v>
       </c>
       <c r="O4" s="121" t="s">
         <v>130</v>
@@ -27418,7 +27437,7 @@
       </c>
       <c r="E5" s="47" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1x4F_Quote#0000</v>
+        <v>AUD1x4F_Quote#0001</v>
       </c>
       <c r="F5" s="263" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -27449,17 +27468,17 @@
         <v>2.6</v>
       </c>
       <c r="P5" s="136">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="Q5" s="105">
         <v>0</v>
       </c>
       <c r="R5" s="136">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="S5" s="313">
         <f>_xll.qlMidSafe($O5,$P5)</f>
-        <v>2.6150000000000002</v>
+        <v>2.62</v>
       </c>
       <c r="T5" s="102"/>
       <c r="U5" s="138">
@@ -27468,11 +27487,11 @@
       <c r="V5" s="102"/>
       <c r="W5" s="161">
         <f t="array" ref="W5:W19">QuoteLive</f>
-        <v>2.6150000000000002</v>
-      </c>
-      <c r="X5" s="113">
+        <v>2.62</v>
+      </c>
+      <c r="X5" s="113" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E5,W5/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y5" s="90"/>
       <c r="Z5" s="3"/>
@@ -27492,7 +27511,7 @@
       </c>
       <c r="E6" s="36" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD2x5F_Quote#0000</v>
+        <v>AUD2x5F_Quote#0001</v>
       </c>
       <c r="F6" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -27522,17 +27541,17 @@
         <v>2.59</v>
       </c>
       <c r="P6" s="136">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" s="105">
         <v>0</v>
       </c>
       <c r="R6" s="136">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="S6" s="313">
         <f>_xll.qlMidSafe($O6,$P6)</f>
-        <v>2.605</v>
+        <v>2.61</v>
       </c>
       <c r="T6" s="102"/>
       <c r="U6" s="134">
@@ -27540,11 +27559,11 @@
       </c>
       <c r="V6" s="102"/>
       <c r="W6" s="154">
-        <v>2.605</v>
-      </c>
-      <c r="X6" s="100">
+        <v>2.61</v>
+      </c>
+      <c r="X6" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E6,W6/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y6" s="90"/>
       <c r="Z6" s="3"/>
@@ -27564,7 +27583,7 @@
       </c>
       <c r="E7" s="36" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3x6F_Quote#0000</v>
+        <v>AUD3x6F_Quote#0001</v>
       </c>
       <c r="F7" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -27594,7 +27613,7 @@
         <v>2.59</v>
       </c>
       <c r="P7" s="136">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" s="105">
         <v>0</v>
@@ -27604,7 +27623,7 @@
       </c>
       <c r="S7" s="313">
         <f>_xll.qlMidSafe($O7,$P7)</f>
-        <v>2.605</v>
+        <v>2.61</v>
       </c>
       <c r="T7" s="102"/>
       <c r="U7" s="134">
@@ -27612,11 +27631,11 @@
       </c>
       <c r="V7" s="102"/>
       <c r="W7" s="154">
-        <v>2.605</v>
-      </c>
-      <c r="X7" s="100">
+        <v>2.61</v>
+      </c>
+      <c r="X7" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E7,W7/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y7" s="90"/>
       <c r="Z7" s="3"/>
@@ -27636,7 +27655,7 @@
       </c>
       <c r="E8" s="36" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD4x7F_Quote#0000</v>
+        <v>AUD4x7F_Quote#0001</v>
       </c>
       <c r="F8" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -27663,10 +27682,10 @@
         <v>AUD4X7F=</v>
       </c>
       <c r="O8" s="136">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="P8" s="136">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" s="105">
         <v>0</v>
@@ -27676,7 +27695,7 @@
       </c>
       <c r="S8" s="313">
         <f>_xll.qlMidSafe($O8,$P8)</f>
-        <v>2.5949999999999998</v>
+        <v>2.61</v>
       </c>
       <c r="T8" s="102"/>
       <c r="U8" s="134">
@@ -27684,11 +27703,11 @@
       </c>
       <c r="V8" s="102"/>
       <c r="W8" s="154">
-        <v>2.5949999999999998</v>
-      </c>
-      <c r="X8" s="100">
+        <v>2.61</v>
+      </c>
+      <c r="X8" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E8,W8/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y8" s="90"/>
       <c r="Z8" s="3"/>
@@ -27708,7 +27727,7 @@
       </c>
       <c r="E9" s="36" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD5x8F_Quote#0000</v>
+        <v>AUD5x8F_Quote#0001</v>
       </c>
       <c r="F9" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -27735,10 +27754,10 @@
         <v>AUD5X8F=</v>
       </c>
       <c r="O9" s="136">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="P9" s="136">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" s="105">
         <v>0</v>
@@ -27748,7 +27767,7 @@
       </c>
       <c r="S9" s="313">
         <f>_xll.qlMidSafe($O9,$P9)</f>
-        <v>2.5949999999999998</v>
+        <v>2.61</v>
       </c>
       <c r="T9" s="102"/>
       <c r="U9" s="134">
@@ -27756,11 +27775,11 @@
       </c>
       <c r="V9" s="102"/>
       <c r="W9" s="154">
-        <v>2.5949999999999998</v>
-      </c>
-      <c r="X9" s="100">
+        <v>2.61</v>
+      </c>
+      <c r="X9" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E9,W9/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="3"/>
@@ -27780,7 +27799,7 @@
       </c>
       <c r="E10" s="49" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD6x9F_Quote#0000</v>
+        <v>AUD6x9F_Quote#0001</v>
       </c>
       <c r="F10" s="264" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -27807,10 +27826,10 @@
         <v>AUD6X9F=</v>
       </c>
       <c r="O10" s="136">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="P10" s="136">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" s="105">
         <v>0</v>
@@ -27820,7 +27839,7 @@
       </c>
       <c r="S10" s="313">
         <f>_xll.qlMidSafe($O10,$P10)</f>
-        <v>2.5949999999999998</v>
+        <v>2.61</v>
       </c>
       <c r="T10" s="102"/>
       <c r="U10" s="134">
@@ -27828,11 +27847,11 @@
       </c>
       <c r="V10" s="102"/>
       <c r="W10" s="154">
-        <v>2.5949999999999998</v>
-      </c>
-      <c r="X10" s="100">
+        <v>2.61</v>
+      </c>
+      <c r="X10" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E10,W10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y10" s="90"/>
       <c r="Z10" s="3"/>
@@ -27853,7 +27872,7 @@
       </c>
       <c r="E11" s="261" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1x7F_Quote#0000</v>
+        <v>AUD1x7F_Quote#0001</v>
       </c>
       <c r="F11" s="265" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -27903,9 +27922,9 @@
       <c r="W11" s="310">
         <v>2.62</v>
       </c>
-      <c r="X11" s="311">
+      <c r="X11" s="311" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E11,W11/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y11" s="90"/>
       <c r="Z11" s="3"/>
@@ -27926,7 +27945,7 @@
       </c>
       <c r="E12" s="36" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD2x8F_Quote#0000</v>
+        <v>AUD2x8F_Quote#0001</v>
       </c>
       <c r="F12" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -27976,9 +27995,9 @@
       <c r="W12" s="154">
         <v>2.62</v>
       </c>
-      <c r="X12" s="100">
+      <c r="X12" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E12,W12/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y12" s="90"/>
       <c r="Z12" s="3"/>
@@ -27999,7 +28018,7 @@
       </c>
       <c r="E13" s="36" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3x9F_Quote#0000</v>
+        <v>AUD3x9F_Quote#0001</v>
       </c>
       <c r="F13" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -28035,7 +28054,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="136">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="S13" s="313">
         <f>_xll.qlMidSafe($O13,$P13)</f>
@@ -28049,9 +28068,9 @@
       <c r="W13" s="154">
         <v>2.62</v>
       </c>
-      <c r="X13" s="100">
+      <c r="X13" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E13,W13/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y13" s="90"/>
       <c r="Z13" s="3"/>
@@ -28072,7 +28091,7 @@
       </c>
       <c r="E14" s="36" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD4x10F_Quote#0000</v>
+        <v>AUD4x10F_Quote#0001</v>
       </c>
       <c r="F14" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -28108,7 +28127,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="136">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="S14" s="313">
         <f>_xll.qlMidSafe($O14,$P14)</f>
@@ -28122,9 +28141,9 @@
       <c r="W14" s="154">
         <v>2.62</v>
       </c>
-      <c r="X14" s="100">
+      <c r="X14" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E14,W14/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y14" s="90"/>
       <c r="Z14" s="3"/>
@@ -28145,7 +28164,7 @@
       </c>
       <c r="E15" s="36" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD5x11F_Quote#0000</v>
+        <v>AUD5x11F_Quote#0001</v>
       </c>
       <c r="F15" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -28181,7 +28200,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="136">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="S15" s="313">
         <f>_xll.qlMidSafe($O15,$P15)</f>
@@ -28195,9 +28214,9 @@
       <c r="W15" s="154">
         <v>2.63</v>
       </c>
-      <c r="X15" s="100">
+      <c r="X15" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E15,W15/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y15" s="90"/>
       <c r="Z15" s="3"/>
@@ -28218,7 +28237,7 @@
       </c>
       <c r="E16" s="36" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD6x12F_Quote#0000</v>
+        <v>AUD6x12F_Quote#0001</v>
       </c>
       <c r="F16" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -28254,7 +28273,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="136">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="S16" s="313">
         <f>_xll.qlMidSafe($O16,$P16)</f>
@@ -28268,9 +28287,9 @@
       <c r="W16" s="154">
         <v>2.64</v>
       </c>
-      <c r="X16" s="100">
+      <c r="X16" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E16,W16/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="Y16" s="90"/>
       <c r="Z16" s="3"/>
@@ -28291,7 +28310,7 @@
       </c>
       <c r="E17" s="36" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD9x15F_Quote#0000</v>
+        <v>AUD9x15F_Quote#0001</v>
       </c>
       <c r="F17" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -28364,7 +28383,7 @@
       </c>
       <c r="E18" s="36" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD12x18F_Quote#0000</v>
+        <v>AUD12x18F_Quote#0001</v>
       </c>
       <c r="F18" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -28437,7 +28456,7 @@
       </c>
       <c r="E19" s="49" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD18x24F_Quote#0000</v>
+        <v>AUD18x24F_Quote#0001</v>
       </c>
       <c r="F19" s="264" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -28546,7 +28565,9 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AQ18"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -28675,7 +28696,7 @@
       </c>
       <c r="O2" s="98" t="str">
         <f>_xll.RData(O3:O14,P2:T2,"RTFEED:IDN",ReutersRtMode,,P3)</f>
-        <v>Paused at 16:22:38</v>
+        <v>Paused at 16:28:15</v>
       </c>
       <c r="P2" s="143" t="s">
         <v>150</v>
@@ -28733,7 +28754,7 @@
       </c>
       <c r="F3" s="63" t="str">
         <f>_xll.qlSimpleQuote(E3,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MU4_Quote#0000</v>
+        <v>AUDFUT1MU4_Quote#0001</v>
       </c>
       <c r="G3" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -28841,7 +28862,7 @@
       </c>
       <c r="F4" s="56" t="str">
         <f>_xll.qlSimpleQuote(E4,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MV4_Quote#0000</v>
+        <v>AUDFUT1MV4_Quote#0001</v>
       </c>
       <c r="G4" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -28926,7 +28947,7 @@
       </c>
       <c r="AO4" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN4)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MU4_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
       </c>
       <c r="AP4" s="168"/>
     </row>
@@ -28947,7 +28968,7 @@
       </c>
       <c r="F5" s="56" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MX4_Quote#0000</v>
+        <v>AUDFUT1MX4_Quote#0001</v>
       </c>
       <c r="G5" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -29031,7 +29052,7 @@
       </c>
       <c r="AO5" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN5)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MV4_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
       </c>
       <c r="AP5" s="168"/>
     </row>
@@ -29052,7 +29073,7 @@
       </c>
       <c r="F6" s="56" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MZ4_Quote#0000</v>
+        <v>AUDFUT1MZ4_Quote#0001</v>
       </c>
       <c r="G6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -29136,7 +29157,7 @@
       </c>
       <c r="AO6" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN6)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MX4_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
       </c>
       <c r="AP6" s="168"/>
       <c r="AQ6" s="210"/>
@@ -29158,7 +29179,7 @@
       </c>
       <c r="F7" s="56" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MF5_Quote#0000</v>
+        <v>AUDFUT1MF5_Quote#0001</v>
       </c>
       <c r="G7" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -29242,7 +29263,7 @@
       </c>
       <c r="AO7" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN7)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MZ4_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
       </c>
       <c r="AP7" s="168"/>
     </row>
@@ -29263,7 +29284,7 @@
       </c>
       <c r="F8" s="56" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MG5_Quote#0000</v>
+        <v>AUDFUT1MG5_Quote#0001</v>
       </c>
       <c r="G8" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -29347,7 +29368,7 @@
       </c>
       <c r="AO8" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN8)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MF5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
       </c>
       <c r="AP8" s="168"/>
     </row>
@@ -29368,7 +29389,7 @@
       </c>
       <c r="F9" s="56" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MH5_Quote#0000</v>
+        <v>AUDFUT1MH5_Quote#0001</v>
       </c>
       <c r="G9" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -29452,7 +29473,7 @@
       </c>
       <c r="AO9" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN9)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MG5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
       </c>
       <c r="AP9" s="168"/>
     </row>
@@ -29473,7 +29494,7 @@
       </c>
       <c r="F10" s="56" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MJ5_Quote#0000</v>
+        <v>AUDFUT1MJ5_Quote#0001</v>
       </c>
       <c r="G10" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -29557,7 +29578,7 @@
       </c>
       <c r="AO10" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN10)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MH5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
       </c>
       <c r="AP10" s="168"/>
     </row>
@@ -29578,7 +29599,7 @@
       </c>
       <c r="F11" s="56" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MK5_Quote#0000</v>
+        <v>AUDFUT1MK5_Quote#0001</v>
       </c>
       <c r="G11" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -29662,7 +29683,7 @@
       </c>
       <c r="AO11" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN11)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MJ5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
       </c>
       <c r="AP11" s="168"/>
     </row>
@@ -29683,7 +29704,7 @@
       </c>
       <c r="F12" s="56" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MM5_Quote#0000</v>
+        <v>AUDFUT1MM5_Quote#0001</v>
       </c>
       <c r="G12" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -29767,7 +29788,7 @@
       </c>
       <c r="AO12" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN12)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MK5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
       </c>
       <c r="AP12" s="168"/>
     </row>
@@ -29788,7 +29809,7 @@
       </c>
       <c r="F13" s="56" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MN5_Quote#0000</v>
+        <v>AUDFUT1MN5_Quote#0001</v>
       </c>
       <c r="G13" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -29872,7 +29893,7 @@
       </c>
       <c r="AO13" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN13)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MM5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
       </c>
       <c r="AP13" s="168"/>
     </row>
@@ -29893,7 +29914,7 @@
       </c>
       <c r="F14" s="56" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MQ5_Quote#0000</v>
+        <v>AUDFUT1MQ5_Quote#0001</v>
       </c>
       <c r="G14" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -29977,7 +29998,7 @@
       </c>
       <c r="AO14" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN14)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MN5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
       </c>
       <c r="AP14" s="168"/>
     </row>
@@ -30037,7 +30058,7 @@
       </c>
       <c r="AO15" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN15)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MQ5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
       </c>
       <c r="AP15" s="168"/>
     </row>
@@ -30075,7 +30096,9 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:AJ47"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -30148,7 +30171,7 @@
       </c>
       <c r="AH1" s="96" t="str">
         <f>FuturesHWConvAdj!C5</f>
-        <v>AUDHW_Volatility_Quote#0000</v>
+        <v>AUDHW_Volatility_Quote#0001</v>
       </c>
       <c r="AI1" s="51"/>
       <c r="AJ1" s="9"/>
@@ -30190,7 +30213,7 @@
       </c>
       <c r="AH2" s="96" t="str">
         <f>FuturesHWConvAdj!C6</f>
-        <v>AUDHW_MeanReversion_Quote#0000</v>
+        <v>AUDHW_MeanReversion_Quote#0001</v>
       </c>
       <c r="AI2" s="51"/>
       <c r="AJ2" s="9"/>
@@ -30225,7 +30248,7 @@
       <c r="Y3" s="51"/>
       <c r="Z3" s="123">
         <f>_xll.ohTrigger(Z5:Z46)</f>
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="AA3" s="168"/>
       <c r="AB3" s="3"/>
@@ -30238,7 +30261,7 @@
       </c>
       <c r="AH3" s="96" t="str">
         <f>BBSW!K9</f>
-        <v>AudBBSW3M#0000</v>
+        <v>AudBBSW3M#0001</v>
       </c>
       <c r="AI3" s="95" t="s">
         <v>17</v>
@@ -30284,7 +30307,7 @@
       </c>
       <c r="O4" s="174" t="str">
         <f>_xll.RData(O5:O46,P4:T4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 16:22:38</v>
+        <v>Paused at 16:28:15</v>
       </c>
       <c r="P4" s="171" t="s">
         <v>150</v>
@@ -30359,7 +30382,7 @@
       </c>
       <c r="F5" s="63" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU4_Quote#0000</v>
+        <v>AUDFUT3MU4_Quote#0001</v>
       </c>
       <c r="G5" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -30395,7 +30418,7 @@
         <v>97.38</v>
       </c>
       <c r="S5" s="114">
-        <v>97.37</v>
+        <v>97.38</v>
       </c>
       <c r="T5" s="114">
         <v>97.38</v>
@@ -30413,9 +30436,9 @@
         <f t="array" ref="Y5:Y46">QuoteLive</f>
         <v>97.375</v>
       </c>
-      <c r="Z5" s="116">
+      <c r="Z5" s="116" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F5,Y5,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA5" s="9"/>
       <c r="AB5" s="3"/>
@@ -30436,7 +30459,7 @@
       </c>
       <c r="AH5" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG5,IborIndex,AF5,F5,Volatility,MeanReversion,Permanent,AND(ISERROR(Z5),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU4ConvAdj_Quote#0040</v>
+        <v>AUDFUT3MU4ConvAdj_Quote#0011</v>
       </c>
       <c r="AI5" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH5)</f>
@@ -30461,7 +30484,7 @@
       </c>
       <c r="F6" s="56" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MV4_Quote#0000</v>
+        <v>AUDFUT3MV4_Quote#0001</v>
       </c>
       <c r="G6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -30533,7 +30556,7 @@
       </c>
       <c r="AH6" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG6,IborIndex,AF6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(Z6),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>AUDFUT3MV4ConvAdj_Quote#0040</v>
+        <v>AUDFUT3MV4ConvAdj_Quote#0011</v>
       </c>
       <c r="AI6" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH6)</f>
@@ -30558,7 +30581,7 @@
       </c>
       <c r="F7" s="56" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MX4_Quote#0000</v>
+        <v>AUDFUT3MX4_Quote#0001</v>
       </c>
       <c r="G7" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -30630,7 +30653,7 @@
       </c>
       <c r="AH7" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG7,IborIndex,AF7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(Z7),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>AUDFUT3MX4ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MX4ConvAdj_Quote#0009</v>
       </c>
       <c r="AI7" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH7)</f>
@@ -30655,7 +30678,7 @@
       </c>
       <c r="F8" s="56" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ4_Quote#0000</v>
+        <v>AUDFUT3MZ4_Quote#0001</v>
       </c>
       <c r="G8" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -30688,7 +30711,7 @@
         <v>97.4</v>
       </c>
       <c r="S8" s="101">
-        <v>97.39</v>
+        <v>97.4</v>
       </c>
       <c r="T8" s="101">
         <v>97.39</v>
@@ -30705,9 +30728,9 @@
       <c r="Y8" s="154">
         <v>97.39500000000001</v>
       </c>
-      <c r="Z8" s="104">
+      <c r="Z8" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F8,Y8,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA8" s="9"/>
       <c r="AB8" s="3"/>
@@ -30727,7 +30750,7 @@
       </c>
       <c r="AH8" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG8,IborIndex,AF8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(Z8),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ4ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MZ4ConvAdj_Quote#0009</v>
       </c>
       <c r="AI8" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH8)</f>
@@ -30752,7 +30775,7 @@
       </c>
       <c r="F9" s="56" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MF5_Quote#0000</v>
+        <v>AUDFUT3MF5_Quote#0001</v>
       </c>
       <c r="G9" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -30825,7 +30848,7 @@
       </c>
       <c r="AH9" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG9,IborIndex,AF9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(Z9),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>AUDFUT3MF5ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MF5ConvAdj_Quote#0009</v>
       </c>
       <c r="AI9" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH9)</f>
@@ -30850,7 +30873,7 @@
       </c>
       <c r="F10" s="56" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MG5_Quote#0000</v>
+        <v>AUDFUT3MG5_Quote#0001</v>
       </c>
       <c r="G10" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -30922,7 +30945,7 @@
       </c>
       <c r="AH10" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG10,IborIndex,AF10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(Z10),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>AUDFUT3MG5ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MG5ConvAdj_Quote#0009</v>
       </c>
       <c r="AI10" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH10)</f>
@@ -30947,7 +30970,7 @@
       </c>
       <c r="F11" s="56" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH5_Quote#0000</v>
+        <v>AUDFUT3MH5_Quote#0001</v>
       </c>
       <c r="G11" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -30974,20 +30997,20 @@
         <v>42075</v>
       </c>
       <c r="Q11" s="101">
-        <v>97.38</v>
+        <v>97.39</v>
       </c>
       <c r="R11" s="101">
-        <v>97.39</v>
+        <v>97.4</v>
       </c>
       <c r="S11" s="101">
-        <v>97.39</v>
+        <v>97.4</v>
       </c>
       <c r="T11" s="101">
-        <v>97.39</v>
+        <v>97.4</v>
       </c>
       <c r="U11" s="104">
         <f>_xll.qlMidSafe($Q11,$R11)</f>
-        <v>97.384999999999991</v>
+        <v>97.39500000000001</v>
       </c>
       <c r="V11" s="102"/>
       <c r="W11" s="155" t="e">
@@ -30995,11 +31018,11 @@
       </c>
       <c r="X11" s="102"/>
       <c r="Y11" s="154">
-        <v>97.384999999999991</v>
-      </c>
-      <c r="Z11" s="104">
+        <v>97.39500000000001</v>
+      </c>
+      <c r="Z11" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA11" s="9"/>
       <c r="AB11" s="3"/>
@@ -31019,7 +31042,7 @@
       </c>
       <c r="AH11" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG11,IborIndex,AF11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(Z11),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH5ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MH5ConvAdj_Quote#0009</v>
       </c>
       <c r="AI11" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH11)</f>
@@ -31044,7 +31067,7 @@
       </c>
       <c r="F12" s="56" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MJ5_Quote#0000</v>
+        <v>AUDFUT3MJ5_Quote#0001</v>
       </c>
       <c r="G12" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -31116,7 +31139,7 @@
       </c>
       <c r="AH12" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG12,IborIndex,AF12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(Z12),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>AUDFUT3MJ5ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MJ5ConvAdj_Quote#0009</v>
       </c>
       <c r="AI12" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH12)</f>
@@ -31141,7 +31164,7 @@
       </c>
       <c r="F13" s="56" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MK5_Quote#0000</v>
+        <v>AUDFUT3MK5_Quote#0001</v>
       </c>
       <c r="G13" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -31213,7 +31236,7 @@
       </c>
       <c r="AH13" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG13,IborIndex,AF13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(Z13),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>AUDFUT3MK5ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MK5ConvAdj_Quote#0009</v>
       </c>
       <c r="AI13" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH13)</f>
@@ -31238,7 +31261,7 @@
       </c>
       <c r="F14" s="56" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM5_Quote#0000</v>
+        <v>AUDFUT3MM5_Quote#0001</v>
       </c>
       <c r="G14" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -31265,20 +31288,20 @@
         <v>42166</v>
       </c>
       <c r="Q14" s="101">
-        <v>97.34</v>
+        <v>97.350000000000009</v>
       </c>
       <c r="R14" s="101">
-        <v>97.350000000000009</v>
+        <v>97.36</v>
       </c>
       <c r="S14" s="101">
         <v>97.350000000000009</v>
       </c>
       <c r="T14" s="101">
-        <v>97.34</v>
+        <v>97.350000000000009</v>
       </c>
       <c r="U14" s="104">
         <f>_xll.qlMidSafe($Q14,$R14)</f>
-        <v>97.344999999999999</v>
+        <v>97.355000000000004</v>
       </c>
       <c r="V14" s="102"/>
       <c r="W14" s="155" t="e">
@@ -31286,11 +31309,11 @@
       </c>
       <c r="X14" s="102"/>
       <c r="Y14" s="154">
-        <v>97.344999999999999</v>
-      </c>
-      <c r="Z14" s="104">
+        <v>97.355000000000004</v>
+      </c>
+      <c r="Z14" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="3"/>
@@ -31310,7 +31333,7 @@
       </c>
       <c r="AH14" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG14,IborIndex,AF14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(Z14),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM5ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MM5ConvAdj_Quote#0009</v>
       </c>
       <c r="AI14" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH14)</f>
@@ -31335,7 +31358,7 @@
       </c>
       <c r="F15" s="56" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MN5_Quote#0000</v>
+        <v>AUDFUT3MN5_Quote#0001</v>
       </c>
       <c r="G15" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -31407,7 +31430,7 @@
       </c>
       <c r="AH15" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG15,IborIndex,AF15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(Z15),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>AUDFUT3MN5ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MN5ConvAdj_Quote#0009</v>
       </c>
       <c r="AI15" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH15)</f>
@@ -31432,7 +31455,7 @@
       </c>
       <c r="F16" s="56" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MQ5_Quote#0000</v>
+        <v>AUDFUT3MQ5_Quote#0001</v>
       </c>
       <c r="G16" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -31504,7 +31527,7 @@
       </c>
       <c r="AH16" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG16,IborIndex,AF16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(Z16),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>AUDFUT3MQ5ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MQ5ConvAdj_Quote#0009</v>
       </c>
       <c r="AI16" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH16)</f>
@@ -31529,7 +31552,7 @@
       </c>
       <c r="F17" s="56" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU5_Quote#0000</v>
+        <v>AUDFUT3MU5_Quote#0001</v>
       </c>
       <c r="G17" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -31556,10 +31579,10 @@
         <v>42257</v>
       </c>
       <c r="Q17" s="101">
-        <v>97.26</v>
+        <v>97.27</v>
       </c>
       <c r="R17" s="101">
-        <v>97.27</v>
+        <v>97.28</v>
       </c>
       <c r="S17" s="101">
         <v>97.27</v>
@@ -31569,7 +31592,7 @@
       </c>
       <c r="U17" s="104">
         <f>_xll.qlMidSafe($Q17,$R17)</f>
-        <v>97.265000000000001</v>
+        <v>97.275000000000006</v>
       </c>
       <c r="V17" s="102"/>
       <c r="W17" s="155">
@@ -31577,11 +31600,11 @@
       </c>
       <c r="X17" s="102"/>
       <c r="Y17" s="154">
-        <v>97.265000000000001</v>
-      </c>
-      <c r="Z17" s="104">
+        <v>97.275000000000006</v>
+      </c>
+      <c r="Z17" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="3"/>
@@ -31601,7 +31624,7 @@
       </c>
       <c r="AH17" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG17,IborIndex,AF17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(Z17),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU5ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MU5ConvAdj_Quote#0009</v>
       </c>
       <c r="AI17" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH17)</f>
@@ -31626,7 +31649,7 @@
       </c>
       <c r="F18" s="56" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ5_Quote#0000</v>
+        <v>AUDFUT3MZ5_Quote#0001</v>
       </c>
       <c r="G18" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -31653,10 +31676,10 @@
         <v>42348</v>
       </c>
       <c r="Q18" s="101">
-        <v>97.17</v>
+        <v>97.18</v>
       </c>
       <c r="R18" s="101">
-        <v>97.18</v>
+        <v>97.19</v>
       </c>
       <c r="S18" s="101">
         <v>97.18</v>
@@ -31666,7 +31689,7 @@
       </c>
       <c r="U18" s="104">
         <f>_xll.qlMidSafe($Q18,$R18)</f>
-        <v>97.175000000000011</v>
+        <v>97.185000000000002</v>
       </c>
       <c r="V18" s="102"/>
       <c r="W18" s="155">
@@ -31674,11 +31697,11 @@
       </c>
       <c r="X18" s="102"/>
       <c r="Y18" s="154">
-        <v>97.175000000000011</v>
-      </c>
-      <c r="Z18" s="104">
+        <v>97.185000000000002</v>
+      </c>
+      <c r="Z18" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA18" s="9"/>
       <c r="AB18" s="3"/>
@@ -31698,7 +31721,7 @@
       </c>
       <c r="AH18" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG18,IborIndex,AF18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(Z18),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ5ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MZ5ConvAdj_Quote#0009</v>
       </c>
       <c r="AI18" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH18)</f>
@@ -31723,7 +31746,7 @@
       </c>
       <c r="F19" s="56" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH6_Quote#0000</v>
+        <v>AUDFUT3MH6_Quote#0001</v>
       </c>
       <c r="G19" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -31750,20 +31773,20 @@
         <v>42439</v>
       </c>
       <c r="Q19" s="101">
-        <v>97.070000000000007</v>
+        <v>97.08</v>
       </c>
       <c r="R19" s="101">
         <v>97.09</v>
       </c>
       <c r="S19" s="101">
-        <v>97.08</v>
+        <v>97.09</v>
       </c>
       <c r="T19" s="101">
         <v>97.09</v>
       </c>
       <c r="U19" s="104">
         <f>_xll.qlMidSafe($Q19,$R19)</f>
-        <v>97.080000000000013</v>
+        <v>97.085000000000008</v>
       </c>
       <c r="V19" s="102"/>
       <c r="W19" s="155">
@@ -31771,11 +31794,11 @@
       </c>
       <c r="X19" s="102"/>
       <c r="Y19" s="154">
-        <v>97.080000000000013</v>
-      </c>
-      <c r="Z19" s="104">
+        <v>97.085000000000008</v>
+      </c>
+      <c r="Z19" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F19,Y19,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="3"/>
@@ -31795,7 +31818,7 @@
       </c>
       <c r="AH19" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG19,IborIndex,AF19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(Z19),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH6ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MH6ConvAdj_Quote#0009</v>
       </c>
       <c r="AI19" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH19)</f>
@@ -31820,7 +31843,7 @@
       </c>
       <c r="F20" s="56" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM6_Quote#0000</v>
+        <v>AUDFUT3MM6_Quote#0001</v>
       </c>
       <c r="G20" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -31847,20 +31870,20 @@
         <v>42530</v>
       </c>
       <c r="Q20" s="101">
-        <v>96.97</v>
+        <v>96.98</v>
       </c>
       <c r="R20" s="101">
-        <v>96.98</v>
+        <v>97</v>
       </c>
       <c r="S20" s="101">
-        <v>96.98</v>
+        <v>97.01</v>
       </c>
       <c r="T20" s="101">
         <v>96.990000000000009</v>
       </c>
       <c r="U20" s="104">
         <f>_xll.qlMidSafe($Q20,$R20)</f>
-        <v>96.974999999999994</v>
+        <v>96.990000000000009</v>
       </c>
       <c r="V20" s="102"/>
       <c r="W20" s="155">
@@ -31868,11 +31891,11 @@
       </c>
       <c r="X20" s="102"/>
       <c r="Y20" s="154">
-        <v>96.974999999999994</v>
-      </c>
-      <c r="Z20" s="104">
+        <v>96.990000000000009</v>
+      </c>
+      <c r="Z20" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA20" s="9"/>
       <c r="AB20" s="3"/>
@@ -31892,7 +31915,7 @@
       </c>
       <c r="AH20" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG20,IborIndex,AF20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(Z20),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM6ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MM6ConvAdj_Quote#0009</v>
       </c>
       <c r="AI20" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH20)</f>
@@ -31917,7 +31940,7 @@
       </c>
       <c r="F21" s="56" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU6_Quote#0000</v>
+        <v>AUDFUT3MU6_Quote#0001</v>
       </c>
       <c r="G21" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -31944,20 +31967,20 @@
         <v>42621</v>
       </c>
       <c r="Q21" s="101">
-        <v>96.87</v>
+        <v>96.88</v>
       </c>
       <c r="R21" s="101">
-        <v>96.89</v>
+        <v>96.9</v>
       </c>
       <c r="S21" s="101">
-        <v>0</v>
+        <v>96.9</v>
       </c>
       <c r="T21" s="101">
-        <v>96.94</v>
+        <v>96.88</v>
       </c>
       <c r="U21" s="104">
         <f>_xll.qlMidSafe($Q21,$R21)</f>
-        <v>96.88</v>
+        <v>96.89</v>
       </c>
       <c r="V21" s="102"/>
       <c r="W21" s="155" t="e">
@@ -31965,11 +31988,11 @@
       </c>
       <c r="X21" s="102"/>
       <c r="Y21" s="154">
-        <v>96.88</v>
-      </c>
-      <c r="Z21" s="104">
+        <v>96.89</v>
+      </c>
+      <c r="Z21" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F21,Y21,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="3"/>
@@ -31989,7 +32012,7 @@
       </c>
       <c r="AH21" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG21,IborIndex,AF21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(Z21),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU6ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MU6ConvAdj_Quote#0009</v>
       </c>
       <c r="AI21" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH21)</f>
@@ -32014,7 +32037,7 @@
       </c>
       <c r="F22" s="56" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ6_Quote#0000</v>
+        <v>AUDFUT3MZ6_Quote#0001</v>
       </c>
       <c r="G22" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -32041,10 +32064,10 @@
         <v>42712</v>
       </c>
       <c r="Q22" s="101">
-        <v>96.76</v>
+        <v>96.78</v>
       </c>
       <c r="R22" s="101">
-        <v>96.8</v>
+        <v>96.81</v>
       </c>
       <c r="S22" s="101">
         <v>0</v>
@@ -32054,7 +32077,7 @@
       </c>
       <c r="U22" s="104">
         <f>_xll.qlMidSafe($Q22,$R22)</f>
-        <v>96.78</v>
+        <v>96.795000000000002</v>
       </c>
       <c r="V22" s="102"/>
       <c r="W22" s="155" t="e">
@@ -32062,11 +32085,11 @@
       </c>
       <c r="X22" s="102"/>
       <c r="Y22" s="154">
-        <v>96.78</v>
-      </c>
-      <c r="Z22" s="104">
+        <v>96.795000000000002</v>
+      </c>
+      <c r="Z22" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F22,Y22,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA22" s="9"/>
       <c r="AB22" s="3"/>
@@ -32086,7 +32109,7 @@
       </c>
       <c r="AH22" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG22,IborIndex,AF22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(Z22),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ6ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MZ6ConvAdj_Quote#0009</v>
       </c>
       <c r="AI22" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH22)</f>
@@ -32111,7 +32134,7 @@
       </c>
       <c r="F23" s="56" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH7_Quote#0000</v>
+        <v>AUDFUT3MH7_Quote#0001</v>
       </c>
       <c r="G23" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -32138,10 +32161,10 @@
         <v>42803</v>
       </c>
       <c r="Q23" s="101">
-        <v>96.65</v>
+        <v>96.68</v>
       </c>
       <c r="R23" s="101">
-        <v>96.710000000000008</v>
+        <v>96.73</v>
       </c>
       <c r="S23" s="101">
         <v>0</v>
@@ -32151,7 +32174,7 @@
       </c>
       <c r="U23" s="104">
         <f>_xll.qlMidSafe($Q23,$R23)</f>
-        <v>96.68</v>
+        <v>96.705000000000013</v>
       </c>
       <c r="V23" s="102"/>
       <c r="W23" s="155" t="e">
@@ -32159,11 +32182,11 @@
       </c>
       <c r="X23" s="102"/>
       <c r="Y23" s="154">
-        <v>96.68</v>
-      </c>
-      <c r="Z23" s="104">
+        <v>96.705000000000013</v>
+      </c>
+      <c r="Z23" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23,Trigger)</f>
-        <v>-4.9999999999954525E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="AA23" s="9"/>
       <c r="AB23" s="3"/>
@@ -32183,7 +32206,7 @@
       </c>
       <c r="AH23" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG23,IborIndex,AF23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(Z23),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH7ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MH7ConvAdj_Quote#0009</v>
       </c>
       <c r="AI23" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH23)</f>
@@ -32208,7 +32231,7 @@
       </c>
       <c r="F24" s="56" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM7_Quote#0000</v>
+        <v>AUDFUT3MM7_Quote#0001</v>
       </c>
       <c r="G24" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -32235,10 +32258,10 @@
         <v>42894</v>
       </c>
       <c r="Q24" s="101">
-        <v>96.54</v>
+        <v>96.58</v>
       </c>
       <c r="R24" s="101">
-        <v>96.63</v>
+        <v>96.64</v>
       </c>
       <c r="S24" s="101">
         <v>0</v>
@@ -32248,7 +32271,7 @@
       </c>
       <c r="U24" s="104">
         <f>_xll.qlMidSafe($Q24,$R24)</f>
-        <v>96.585000000000008</v>
+        <v>96.61</v>
       </c>
       <c r="V24" s="102"/>
       <c r="W24" s="155" t="e">
@@ -32256,11 +32279,11 @@
       </c>
       <c r="X24" s="102"/>
       <c r="Y24" s="154">
-        <v>96.585000000000008</v>
-      </c>
-      <c r="Z24" s="104">
+        <v>96.61</v>
+      </c>
+      <c r="Z24" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F24,Y24,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA24" s="9"/>
       <c r="AB24" s="3"/>
@@ -32280,7 +32303,7 @@
       </c>
       <c r="AH24" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG24,IborIndex,AF24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(Z24),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM7ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MM7ConvAdj_Quote#0009</v>
       </c>
       <c r="AI24" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH24)</f>
@@ -32305,7 +32328,7 @@
       </c>
       <c r="F25" s="56" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU7_Quote#0000</v>
+        <v>AUDFUT3MU7_Quote#0001</v>
       </c>
       <c r="G25" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -32332,10 +32355,10 @@
         <v>42985</v>
       </c>
       <c r="Q25" s="101">
-        <v>96.43</v>
+        <v>96.460000000000008</v>
       </c>
       <c r="R25" s="101">
-        <v>96.55</v>
+        <v>96.56</v>
       </c>
       <c r="S25" s="101">
         <v>0</v>
@@ -32345,7 +32368,7 @@
       </c>
       <c r="U25" s="104">
         <f>_xll.qlMidSafe($Q25,$R25)</f>
-        <v>96.490000000000009</v>
+        <v>96.51</v>
       </c>
       <c r="V25" s="102"/>
       <c r="W25" s="155" t="e">
@@ -32353,11 +32376,11 @@
       </c>
       <c r="X25" s="102"/>
       <c r="Y25" s="154">
-        <v>96.490000000000009</v>
-      </c>
-      <c r="Z25" s="104">
+        <v>96.51</v>
+      </c>
+      <c r="Z25" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F25,Y25,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="AA25" s="9"/>
       <c r="AB25" s="3"/>
@@ -32377,7 +32400,7 @@
       </c>
       <c r="AH25" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG25,IborIndex,AF25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(Z25),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU7ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MU7ConvAdj_Quote#0009</v>
       </c>
       <c r="AI25" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH25)</f>
@@ -32402,7 +32425,7 @@
       </c>
       <c r="F26" s="56" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ7_Quote#0000</v>
+        <v>AUDFUT3MZ7_Quote#0001</v>
       </c>
       <c r="G26" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -32429,10 +32452,10 @@
         <v>43076</v>
       </c>
       <c r="Q26" s="101">
-        <v>96.31</v>
+        <v>0</v>
       </c>
       <c r="R26" s="101">
-        <v>96.47</v>
+        <v>0</v>
       </c>
       <c r="S26" s="101">
         <v>0</v>
@@ -32440,21 +32463,21 @@
       <c r="T26" s="101">
         <v>95.76</v>
       </c>
-      <c r="U26" s="104">
+      <c r="U26" s="104" t="e">
         <f>_xll.qlMidSafe($Q26,$R26)</f>
-        <v>96.39</v>
+        <v>#NUM!</v>
       </c>
       <c r="V26" s="102"/>
       <c r="W26" s="155" t="e">
         <v>#NUM!</v>
       </c>
       <c r="X26" s="102"/>
-      <c r="Y26" s="154">
-        <v>96.39</v>
-      </c>
-      <c r="Z26" s="104">
+      <c r="Y26" s="154" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z26" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F26,Y26,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA26" s="9"/>
       <c r="AB26" s="3"/>
@@ -32474,7 +32497,7 @@
       </c>
       <c r="AH26" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG26,IborIndex,AF26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(Z26),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ7ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MZ7ConvAdj_Quote#0009</v>
       </c>
       <c r="AI26" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH26)</f>
@@ -32499,7 +32522,7 @@
       </c>
       <c r="F27" s="56" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH8_Quote#0000</v>
+        <v>AUDFUT3MH8_Quote#0001</v>
       </c>
       <c r="G27" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -32526,10 +32549,10 @@
         <v>43167</v>
       </c>
       <c r="Q27" s="101">
-        <v>96.16</v>
+        <v>0</v>
       </c>
       <c r="R27" s="101">
-        <v>96.41</v>
+        <v>0</v>
       </c>
       <c r="S27" s="101">
         <v>0</v>
@@ -32537,21 +32560,21 @@
       <c r="T27" s="101">
         <v>95.76</v>
       </c>
-      <c r="U27" s="104">
+      <c r="U27" s="104" t="e">
         <f>_xll.qlMidSafe($Q27,$R27)</f>
-        <v>96.284999999999997</v>
+        <v>#NUM!</v>
       </c>
       <c r="V27" s="102"/>
       <c r="W27" s="155" t="e">
         <v>#NUM!</v>
       </c>
       <c r="X27" s="102"/>
-      <c r="Y27" s="154">
-        <v>96.284999999999997</v>
-      </c>
-      <c r="Z27" s="104">
+      <c r="Y27" s="154" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z27" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F27,Y27,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="3"/>
@@ -32571,7 +32594,7 @@
       </c>
       <c r="AH27" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG27,IborIndex,AF27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(Z27),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH8ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MH8ConvAdj_Quote#0009</v>
       </c>
       <c r="AI27" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH27)</f>
@@ -32596,7 +32619,7 @@
       </c>
       <c r="F28" s="56" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM8_Quote#0000</v>
+        <v>AUDFUT3MM8_Quote#0001</v>
       </c>
       <c r="G28" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -32623,10 +32646,10 @@
         <v>43258</v>
       </c>
       <c r="Q28" s="101">
-        <v>95.960000000000008</v>
+        <v>0</v>
       </c>
       <c r="R28" s="101">
-        <v>96.41</v>
+        <v>0</v>
       </c>
       <c r="S28" s="101">
         <v>0</v>
@@ -32634,21 +32657,21 @@
       <c r="T28" s="101">
         <v>95.76</v>
       </c>
-      <c r="U28" s="104">
+      <c r="U28" s="104" t="e">
         <f>_xll.qlMidSafe($Q28,$R28)</f>
-        <v>96.185000000000002</v>
+        <v>#NUM!</v>
       </c>
       <c r="V28" s="102"/>
       <c r="W28" s="155" t="e">
         <v>#NUM!</v>
       </c>
       <c r="X28" s="102"/>
-      <c r="Y28" s="154">
-        <v>96.185000000000002</v>
-      </c>
-      <c r="Z28" s="104">
+      <c r="Y28" s="154" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z28" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA28" s="9"/>
       <c r="AB28" s="3"/>
@@ -32668,7 +32691,7 @@
       </c>
       <c r="AH28" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG28,IborIndex,AF28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(Z28),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM8ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MM8ConvAdj_Quote#0009</v>
       </c>
       <c r="AI28" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH28)</f>
@@ -32693,7 +32716,7 @@
       </c>
       <c r="F29" s="56" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU8_Quote#0000</v>
+        <v>AUDFUT3MU8_Quote#0001</v>
       </c>
       <c r="G29" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -32720,10 +32743,10 @@
         <v>43356</v>
       </c>
       <c r="Q29" s="101">
-        <v>95.76</v>
+        <v>0</v>
       </c>
       <c r="R29" s="101">
-        <v>96.41</v>
+        <v>0</v>
       </c>
       <c r="S29" s="101">
         <v>0</v>
@@ -32731,21 +32754,21 @@
       <c r="T29" s="101">
         <v>95.76</v>
       </c>
-      <c r="U29" s="104">
+      <c r="U29" s="104" t="e">
         <f>_xll.qlMidSafe($Q29,$R29)</f>
-        <v>96.085000000000008</v>
+        <v>#NUM!</v>
       </c>
       <c r="V29" s="102"/>
       <c r="W29" s="155" t="e">
         <v>#NUM!</v>
       </c>
       <c r="X29" s="102"/>
-      <c r="Y29" s="154">
-        <v>96.085000000000008</v>
-      </c>
-      <c r="Z29" s="104">
+      <c r="Y29" s="154" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="Z29" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F29,Y29,Trigger)</f>
-        <v>-4.9999999999954525E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA29" s="9"/>
       <c r="AB29" s="3"/>
@@ -32765,7 +32788,7 @@
       </c>
       <c r="AH29" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG29,IborIndex,AF29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(Z29),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU8ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MU8ConvAdj_Quote#0009</v>
       </c>
       <c r="AI29" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH29)</f>
@@ -32790,7 +32813,7 @@
       </c>
       <c r="F30" s="56" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ8_Quote#0000</v>
+        <v>AUDFUT3MZ8_Quote#0001</v>
       </c>
       <c r="G30" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -32862,7 +32885,7 @@
       </c>
       <c r="AH30" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG30,IborIndex,AF30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(Z30),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ8ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MZ8ConvAdj_Quote#0009</v>
       </c>
       <c r="AI30" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH30)</f>
@@ -32887,7 +32910,7 @@
       </c>
       <c r="F31" s="56" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH9_Quote#0000</v>
+        <v>AUDFUT3MH9_Quote#0001</v>
       </c>
       <c r="G31" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -32959,7 +32982,7 @@
       </c>
       <c r="AH31" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG31,IborIndex,AF31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(Z31),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH9ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MH9ConvAdj_Quote#0009</v>
       </c>
       <c r="AI31" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH31)</f>
@@ -32984,7 +33007,7 @@
       </c>
       <c r="F32" s="56" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM9_Quote#0000</v>
+        <v>AUDFUT3MM9_Quote#0001</v>
       </c>
       <c r="G32" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -33056,7 +33079,7 @@
       </c>
       <c r="AH32" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG32,IborIndex,AF32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(Z32),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM9ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MM9ConvAdj_Quote#0009</v>
       </c>
       <c r="AI32" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH32)</f>
@@ -33081,7 +33104,7 @@
       </c>
       <c r="F33" s="56" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU9_Quote#0000</v>
+        <v>AUDFUT3MU9_Quote#0001</v>
       </c>
       <c r="G33" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -33153,7 +33176,7 @@
       </c>
       <c r="AH33" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG33,IborIndex,AF33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(Z33),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU9ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MU9ConvAdj_Quote#0009</v>
       </c>
       <c r="AI33" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH33)</f>
@@ -33178,7 +33201,7 @@
       </c>
       <c r="F34" s="56" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ9_Quote#0000</v>
+        <v>AUDFUT3MZ9_Quote#0001</v>
       </c>
       <c r="G34" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -33250,7 +33273,7 @@
       </c>
       <c r="AH34" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG34,IborIndex,AF34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(Z34),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ9ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MZ9ConvAdj_Quote#0009</v>
       </c>
       <c r="AI34" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH34)</f>
@@ -33275,7 +33298,7 @@
       </c>
       <c r="F35" s="56" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH0_Quote#0000</v>
+        <v>AUDFUT3MH0_Quote#0001</v>
       </c>
       <c r="G35" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -33347,7 +33370,7 @@
       </c>
       <c r="AH35" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG35,IborIndex,AF35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(Z35),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH0ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MH0ConvAdj_Quote#0009</v>
       </c>
       <c r="AI35" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH35)</f>
@@ -33372,7 +33395,7 @@
       </c>
       <c r="F36" s="56" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM0_Quote#0000</v>
+        <v>AUDFUT3MM0_Quote#0001</v>
       </c>
       <c r="G36" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -33444,7 +33467,7 @@
       </c>
       <c r="AH36" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG36,IborIndex,AF36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(Z36),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM0ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MM0ConvAdj_Quote#0009</v>
       </c>
       <c r="AI36" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH36)</f>
@@ -33469,7 +33492,7 @@
       </c>
       <c r="F37" s="56" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU0_Quote#0000</v>
+        <v>AUDFUT3MU0_Quote#0001</v>
       </c>
       <c r="G37" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -33541,7 +33564,7 @@
       </c>
       <c r="AH37" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG37,IborIndex,AF37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(Z37),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU0ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MU0ConvAdj_Quote#0009</v>
       </c>
       <c r="AI37" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH37)</f>
@@ -33566,7 +33589,7 @@
       </c>
       <c r="F38" s="56" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ0_Quote#0000</v>
+        <v>AUDFUT3MZ0_Quote#0001</v>
       </c>
       <c r="G38" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -33638,7 +33661,7 @@
       </c>
       <c r="AH38" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG38,IborIndex,AF38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(Z38),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ0ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MZ0ConvAdj_Quote#0009</v>
       </c>
       <c r="AI38" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH38)</f>
@@ -33663,7 +33686,7 @@
       </c>
       <c r="F39" s="56" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH1_Quote#0000</v>
+        <v>AUDFUT3MH1_Quote#0001</v>
       </c>
       <c r="G39" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -33735,7 +33758,7 @@
       </c>
       <c r="AH39" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG39,IborIndex,AF39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(Z39),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH1ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MH1ConvAdj_Quote#0009</v>
       </c>
       <c r="AI39" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH39)</f>
@@ -33760,7 +33783,7 @@
       </c>
       <c r="F40" s="56" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM1_Quote#0000</v>
+        <v>AUDFUT3MM1_Quote#0001</v>
       </c>
       <c r="G40" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -33832,7 +33855,7 @@
       </c>
       <c r="AH40" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG40,IborIndex,AF40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(Z40),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM1ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MM1ConvAdj_Quote#0009</v>
       </c>
       <c r="AI40" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH40)</f>
@@ -33857,7 +33880,7 @@
       </c>
       <c r="F41" s="56" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU1_Quote#0000</v>
+        <v>AUDFUT3MU1_Quote#0001</v>
       </c>
       <c r="G41" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -33929,7 +33952,7 @@
       </c>
       <c r="AH41" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG41,IborIndex,AF41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(Z41),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU1ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MU1ConvAdj_Quote#0009</v>
       </c>
       <c r="AI41" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH41)</f>
@@ -33954,7 +33977,7 @@
       </c>
       <c r="F42" s="56" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ1_Quote#0000</v>
+        <v>AUDFUT3MZ1_Quote#0001</v>
       </c>
       <c r="G42" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -34026,7 +34049,7 @@
       </c>
       <c r="AH42" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG42,IborIndex,AF42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(Z42),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ1ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MZ1ConvAdj_Quote#0009</v>
       </c>
       <c r="AI42" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH42)</f>
@@ -34051,7 +34074,7 @@
       </c>
       <c r="F43" s="56" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH2_Quote#0000</v>
+        <v>AUDFUT3MH2_Quote#0001</v>
       </c>
       <c r="G43" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -34123,7 +34146,7 @@
       </c>
       <c r="AH43" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG43,IborIndex,AF43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(Z43),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH2ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MH2ConvAdj_Quote#0009</v>
       </c>
       <c r="AI43" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH43)</f>
@@ -34148,7 +34171,7 @@
       </c>
       <c r="F44" s="56" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM2_Quote#0000</v>
+        <v>AUDFUT3MM2_Quote#0001</v>
       </c>
       <c r="G44" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -34220,7 +34243,7 @@
       </c>
       <c r="AH44" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG44,IborIndex,AF44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(Z44),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM2ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MM2ConvAdj_Quote#0009</v>
       </c>
       <c r="AI44" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH44)</f>
@@ -34245,7 +34268,7 @@
       </c>
       <c r="F45" s="56" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU2_Quote#0000</v>
+        <v>AUDFUT3MU2_Quote#0001</v>
       </c>
       <c r="G45" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -34317,7 +34340,7 @@
       </c>
       <c r="AH45" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG45,IborIndex,AF45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(Z45),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU2ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MU2ConvAdj_Quote#0009</v>
       </c>
       <c r="AI45" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH45)</f>
@@ -34342,7 +34365,7 @@
       </c>
       <c r="F46" s="56" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ2_Quote#0000</v>
+        <v>AUDFUT3MZ2_Quote#0001</v>
       </c>
       <c r="G46" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -34414,7 +34437,7 @@
       </c>
       <c r="AH46" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG46,IborIndex,AF46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(Z46),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ2ConvAdj_Quote#0038</v>
+        <v>AUDFUT3MZ2ConvAdj_Quote#0009</v>
       </c>
       <c r="AI46" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH46)</f>

--- a/QuantLibXL/Data2/XLS/AUD_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD_Market.xlsx
@@ -2500,76 +2500,70 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
         <stp/>
-        <stp>{7CCEFFCB-A439-4A82-9566-F65D0624222A}</stp>
+        <stp>{A0FE5B8F-4022-431A-B6DA-0C84BEAF1DD9}</stp>
         <tr r="M4" s="22"/>
       </tp>
       <tp t="s">
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
         <stp/>
-        <stp>{99890425-99D7-4099-9BFF-CA3BE4B1CC07}</stp>
+        <stp>{750D874A-4160-40C9-AC0F-DD77BE10ABF3}</stp>
+        <tr r="O2" s="17"/>
+      </tp>
+      <tp t="s">
+        <v>On Pause</v>
+        <stp/>
+        <stp>{F9D2EE80-2CDB-4EC2-B4A9-5A5C96EC72E0}</stp>
+        <tr r="P4" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>On Pause</v>
+        <stp/>
+        <stp>{F5482576-5EDF-4BEB-9A19-C82B515320D5}</stp>
+        <tr r="N4" s="16"/>
+      </tp>
+      <tp t="s">
+        <v>On Pause</v>
+        <stp/>
+        <stp>{EC64E8D5-59E7-4EAC-97EF-3CC6A6DBD10D}</stp>
         <tr r="J4" s="15"/>
       </tp>
       <tp t="s">
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
         <stp/>
-        <stp>{E24E6FD2-8909-4433-B581-6FF4062A578A}</stp>
+        <stp>{45EE9A28-C133-4333-898E-50D853DEA19A}</stp>
+        <tr r="P4" s="26"/>
+      </tp>
+      <tp t="s">
+        <v>On Pause</v>
+        <stp/>
+        <stp>{C4A2EAFE-A40E-4AFB-8836-664C662F03E3}</stp>
+        <tr r="O4" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>On Pause</v>
+        <stp/>
+        <stp>{DD5699CF-D1CD-4114-B9B6-9C168423DC43}</stp>
         <tr r="Q5" s="64"/>
       </tp>
       <tp t="s">
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
         <stp/>
-        <stp>{2175DCC9-4290-4F2B-9ADE-E47C5597EA9E}</stp>
-        <tr r="N4" s="16"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 16:28:15</v>
-        <stp/>
-        <stp>{504D9B2E-F48C-46B5-8CB0-EC68822A7540}</stp>
-        <tr r="P4" s="26"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 16:28:15</v>
-        <stp/>
-        <stp>{DC50E875-FB49-4814-AE35-27C87F60F934}</stp>
+        <stp>{A9C0E0F7-F24C-457D-BC10-5ADAA2E171D4}</stp>
         <tr r="P4" s="11"/>
       </tp>
       <tp t="s">
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
         <stp/>
-        <stp>{968250FF-03CE-4C51-AA69-5059ADCF4932}</stp>
+        <stp>{85B0363B-D57E-4FC0-BA4E-34D5C2491413}</stp>
         <tr r="O4" s="65"/>
       </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
         <stp/>
-        <stp>{ACC25303-D7F8-434D-90FB-8FC05ECB67E4}</stp>
-        <tr r="O2" s="17"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>Paused at 16:28:15</v>
-        <stp/>
-        <stp>{71D192FE-9F04-4E5C-AA01-4FA4E3B4A68F}</stp>
+        <stp>{6B2A845F-502A-4D27-9FE1-BF9760AECB71}</stp>
         <tr r="P4" s="12"/>
-      </tp>
-    </main>
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>Paused at 16:28:15</v>
-        <stp/>
-        <stp>{2967301F-4FF8-41D9-A5F3-3471391E849F}</stp>
-        <tr r="P4" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Paused at 16:28:15</v>
-        <stp/>
-        <stp>{8C729B86-6BF0-4375-ABE4-2EF06A16DAE7}</stp>
-        <tr r="O4" s="18"/>
       </tp>
     </main>
   </volType>
@@ -2936,7 +2930,9 @@
       <c r="C5" s="350" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="351"/>
+      <c r="D5" s="351">
+        <v>41877.651689814818</v>
+      </c>
       <c r="E5" s="9"/>
       <c r="G5" s="126"/>
       <c r="H5" s="347" t="s">
@@ -2972,7 +2968,7 @@
       </c>
       <c r="D7" s="353">
         <f>_xll.ohTrigger(Deposits!R3,FRA!X3,Futures3M!Z3,FuturesHWConvAdj!Q3,Swap3M!Z3,Swap6M!Z3,BasisSwap1M3M!X3,BasisSwap3M6M!X3,OIS!W3)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E7" s="9"/>
       <c r="G7" s="126"/>
@@ -2989,7 +2985,7 @@
       </c>
       <c r="D8" s="353">
         <f>_xll.ohTrigger(BBSW!W6:W12)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="9"/>
       <c r="G8" s="126"/>
@@ -3031,7 +3027,7 @@
       </c>
       <c r="I10" s="358">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41876</v>
+        <v>41877</v>
       </c>
       <c r="J10" s="204"/>
     </row>
@@ -3372,7 +3368,7 @@
       <c r="P3" s="51"/>
       <c r="Q3" s="123">
         <f>_xll.ohTrigger(Q5:Q9)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="3"/>
@@ -3435,7 +3431,7 @@
       </c>
       <c r="C5" s="72" t="str">
         <f>_xll.qlSimpleQuote(B5,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDHW_Volatility_Quote#0001</v>
+        <v>AUDHW_Volatility_Quote#0000</v>
       </c>
       <c r="D5" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(C5)</f>
@@ -3489,7 +3485,7 @@
       </c>
       <c r="C6" s="72" t="str">
         <f>_xll.qlSimpleQuote(B6,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDHW_MeanReversion_Quote#0001</v>
+        <v>AUDHW_MeanReversion_Quote#0000</v>
       </c>
       <c r="D6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(C6)</f>
@@ -3752,7 +3748,7 @@
       <c r="Y3" s="51"/>
       <c r="Z3" s="123">
         <f>_xll.ohTrigger(Z5:Z42)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="90"/>
       <c r="AB3" s="3"/>
@@ -3789,7 +3785,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="330" t="str">
         <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -3842,7 +3838,7 @@
       </c>
       <c r="F5" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB6M_Quote#0001</v>
+        <v>AUDQM3AB6M_Quote#0000</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -3921,7 +3917,7 @@
       </c>
       <c r="F6" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB1Y_Quote#0001</v>
+        <v>AUDQM3AB1Y_Quote#0000</v>
       </c>
       <c r="G6" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -3998,7 +3994,7 @@
       </c>
       <c r="F7" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB15M_Quote#0001</v>
+        <v>AUDQM3AB15M_Quote#0000</v>
       </c>
       <c r="G7" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -4075,7 +4071,7 @@
       </c>
       <c r="F8" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB18M_Quote#0001</v>
+        <v>AUDQM3AB18M_Quote#0000</v>
       </c>
       <c r="G8" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -4152,7 +4148,7 @@
       </c>
       <c r="F9" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB21M_Quote#0001</v>
+        <v>AUDQM3AB21M_Quote#0000</v>
       </c>
       <c r="G9" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -4229,7 +4225,7 @@
       </c>
       <c r="F10" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB2Y_Quote#0001</v>
+        <v>AUDQM3AB2Y_Quote#0000</v>
       </c>
       <c r="G10" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -4306,7 +4302,7 @@
       </c>
       <c r="F11" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB3Y_Quote#0001</v>
+        <v>AUDQM3AB3Y_Quote#0000</v>
       </c>
       <c r="G11" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -4383,7 +4379,7 @@
       </c>
       <c r="F12" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB4Y_Quote#0001</v>
+        <v>AUDQM3AB4Y_Quote#0000</v>
       </c>
       <c r="G12" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -4460,7 +4456,7 @@
       </c>
       <c r="F13" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB5Y_Quote#0001</v>
+        <v>AUDQM3AB5Y_Quote#0000</v>
       </c>
       <c r="G13" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -4537,7 +4533,7 @@
       </c>
       <c r="F14" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB6Y_Quote#0001</v>
+        <v>AUDQM3AB6Y_Quote#0000</v>
       </c>
       <c r="G14" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -4614,7 +4610,7 @@
       </c>
       <c r="F15" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB7Y_Quote#0001</v>
+        <v>AUDQM3AB7Y_Quote#0000</v>
       </c>
       <c r="G15" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -4691,7 +4687,7 @@
       </c>
       <c r="F16" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB8Y_Quote#0001</v>
+        <v>AUDQM3AB8Y_Quote#0000</v>
       </c>
       <c r="G16" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -4768,7 +4764,7 @@
       </c>
       <c r="F17" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB9Y_Quote#0001</v>
+        <v>AUDQM3AB9Y_Quote#0000</v>
       </c>
       <c r="G17" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -4845,7 +4841,7 @@
       </c>
       <c r="F18" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB10Y_Quote#0001</v>
+        <v>AUDQM3AB10Y_Quote#0000</v>
       </c>
       <c r="G18" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -4922,7 +4918,7 @@
       </c>
       <c r="F19" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB11Y_Quote#0001</v>
+        <v>AUDQM3AB11Y_Quote#0000</v>
       </c>
       <c r="G19" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -4999,7 +4995,7 @@
       </c>
       <c r="F20" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB12Y_Quote#0001</v>
+        <v>AUDQM3AB12Y_Quote#0000</v>
       </c>
       <c r="G20" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -5076,7 +5072,7 @@
       </c>
       <c r="F21" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB13Y_Quote#0001</v>
+        <v>AUDQM3AB13Y_Quote#0000</v>
       </c>
       <c r="G21" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -5153,7 +5149,7 @@
       </c>
       <c r="F22" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB14Y_Quote#0001</v>
+        <v>AUDQM3AB14Y_Quote#0000</v>
       </c>
       <c r="G22" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -5230,7 +5226,7 @@
       </c>
       <c r="F23" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB15Y_Quote#0001</v>
+        <v>AUDQM3AB15Y_Quote#0000</v>
       </c>
       <c r="G23" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -5307,7 +5303,7 @@
       </c>
       <c r="F24" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB16Y_Quote#0001</v>
+        <v>AUDQM3AB16Y_Quote#0000</v>
       </c>
       <c r="G24" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -5384,7 +5380,7 @@
       </c>
       <c r="F25" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB17Y_Quote#0001</v>
+        <v>AUDQM3AB17Y_Quote#0000</v>
       </c>
       <c r="G25" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -5461,7 +5457,7 @@
       </c>
       <c r="F26" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB18Y_Quote#0001</v>
+        <v>AUDQM3AB18Y_Quote#0000</v>
       </c>
       <c r="G26" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -5538,7 +5534,7 @@
       </c>
       <c r="F27" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB19Y_Quote#0001</v>
+        <v>AUDQM3AB19Y_Quote#0000</v>
       </c>
       <c r="G27" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -5615,7 +5611,7 @@
       </c>
       <c r="F28" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB20Y_Quote#0001</v>
+        <v>AUDQM3AB20Y_Quote#0000</v>
       </c>
       <c r="G28" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -5692,7 +5688,7 @@
       </c>
       <c r="F29" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB21Y_Quote#0001</v>
+        <v>AUDQM3AB21Y_Quote#0000</v>
       </c>
       <c r="G29" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -5769,7 +5765,7 @@
       </c>
       <c r="F30" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB22Y_Quote#0001</v>
+        <v>AUDQM3AB22Y_Quote#0000</v>
       </c>
       <c r="G30" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -5846,7 +5842,7 @@
       </c>
       <c r="F31" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB23Y_Quote#0001</v>
+        <v>AUDQM3AB23Y_Quote#0000</v>
       </c>
       <c r="G31" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -5923,7 +5919,7 @@
       </c>
       <c r="F32" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB24Y_Quote#0001</v>
+        <v>AUDQM3AB24Y_Quote#0000</v>
       </c>
       <c r="G32" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -6000,7 +5996,7 @@
       </c>
       <c r="F33" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB25Y_Quote#0001</v>
+        <v>AUDQM3AB25Y_Quote#0000</v>
       </c>
       <c r="G33" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -6077,7 +6073,7 @@
       </c>
       <c r="F34" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB26Y_Quote#0001</v>
+        <v>AUDQM3AB26Y_Quote#0000</v>
       </c>
       <c r="G34" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -6154,7 +6150,7 @@
       </c>
       <c r="F35" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB27Y_Quote#0001</v>
+        <v>AUDQM3AB27Y_Quote#0000</v>
       </c>
       <c r="G35" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -6231,7 +6227,7 @@
       </c>
       <c r="F36" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB28Y_Quote#0001</v>
+        <v>AUDQM3AB28Y_Quote#0000</v>
       </c>
       <c r="G36" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -6308,7 +6304,7 @@
       </c>
       <c r="F37" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB29Y_Quote#0001</v>
+        <v>AUDQM3AB29Y_Quote#0000</v>
       </c>
       <c r="G37" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -6385,7 +6381,7 @@
       </c>
       <c r="F38" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB30Y_Quote#0001</v>
+        <v>AUDQM3AB30Y_Quote#0000</v>
       </c>
       <c r="G38" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -6462,7 +6458,7 @@
       </c>
       <c r="F39" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB35Y_Quote#0001</v>
+        <v>AUDQM3AB35Y_Quote#0000</v>
       </c>
       <c r="G39" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -6539,7 +6535,7 @@
       </c>
       <c r="F40" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB40Y_Quote#0001</v>
+        <v>AUDQM3AB40Y_Quote#0000</v>
       </c>
       <c r="G40" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -6616,7 +6612,7 @@
       </c>
       <c r="F41" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB50Y_Quote#0001</v>
+        <v>AUDQM3AB50Y_Quote#0000</v>
       </c>
       <c r="G41" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -6693,7 +6689,7 @@
       </c>
       <c r="F42" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C42&amp;$D42&amp;$B42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDQM3AB60Y_Quote#0001</v>
+        <v>AUDQM3AB60Y_Quote#0000</v>
       </c>
       <c r="G42" s="75" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -6935,7 +6931,7 @@
       <c r="Y3" s="51"/>
       <c r="Z3" s="123">
         <f>_xll.ohTrigger(Z5:Z42)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="90"/>
       <c r="AB3" s="3"/>
@@ -6971,7 +6967,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="98" t="str">
         <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -7024,7 +7020,7 @@
       </c>
       <c r="F5" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB6M_Quote#0001</v>
+        <v>AUDSM6AB6M_Quote#0000</v>
       </c>
       <c r="G5" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -7103,7 +7099,7 @@
       </c>
       <c r="F6" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB1Y_Quote#0001</v>
+        <v>AUDSM6AB1Y_Quote#0000</v>
       </c>
       <c r="G6" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -7180,7 +7176,7 @@
       </c>
       <c r="F7" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB15M_Quote#0001</v>
+        <v>AUDSM6AB15M_Quote#0000</v>
       </c>
       <c r="G7" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -7257,7 +7253,7 @@
       </c>
       <c r="F8" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB18M_Quote#0001</v>
+        <v>AUDSM6AB18M_Quote#0000</v>
       </c>
       <c r="G8" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -7334,7 +7330,7 @@
       </c>
       <c r="F9" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB21M_Quote#0001</v>
+        <v>AUDSM6AB21M_Quote#0000</v>
       </c>
       <c r="G9" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -7411,7 +7407,7 @@
       </c>
       <c r="F10" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB2Y_Quote#0001</v>
+        <v>AUDSM6AB2Y_Quote#0000</v>
       </c>
       <c r="G10" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -7488,7 +7484,7 @@
       </c>
       <c r="F11" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB3Y_Quote#0001</v>
+        <v>AUDSM6AB3Y_Quote#0000</v>
       </c>
       <c r="G11" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -7565,7 +7561,7 @@
       </c>
       <c r="F12" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB4Y_Quote#0001</v>
+        <v>AUDSM6AB4Y_Quote#0000</v>
       </c>
       <c r="G12" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -7642,7 +7638,7 @@
       </c>
       <c r="F13" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB5Y_Quote#0001</v>
+        <v>AUDSM6AB5Y_Quote#0000</v>
       </c>
       <c r="G13" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -7719,7 +7715,7 @@
       </c>
       <c r="F14" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB6Y_Quote#0001</v>
+        <v>AUDSM6AB6Y_Quote#0000</v>
       </c>
       <c r="G14" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -7796,7 +7792,7 @@
       </c>
       <c r="F15" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB7Y_Quote#0001</v>
+        <v>AUDSM6AB7Y_Quote#0000</v>
       </c>
       <c r="G15" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -7873,7 +7869,7 @@
       </c>
       <c r="F16" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB8Y_Quote#0001</v>
+        <v>AUDSM6AB8Y_Quote#0000</v>
       </c>
       <c r="G16" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -7950,7 +7946,7 @@
       </c>
       <c r="F17" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB9Y_Quote#0001</v>
+        <v>AUDSM6AB9Y_Quote#0000</v>
       </c>
       <c r="G17" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -8027,7 +8023,7 @@
       </c>
       <c r="F18" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB10Y_Quote#0001</v>
+        <v>AUDSM6AB10Y_Quote#0000</v>
       </c>
       <c r="G18" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -8104,7 +8100,7 @@
       </c>
       <c r="F19" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB11Y_Quote#0001</v>
+        <v>AUDSM6AB11Y_Quote#0000</v>
       </c>
       <c r="G19" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -8181,7 +8177,7 @@
       </c>
       <c r="F20" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB12Y_Quote#0001</v>
+        <v>AUDSM6AB12Y_Quote#0000</v>
       </c>
       <c r="G20" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -8258,7 +8254,7 @@
       </c>
       <c r="F21" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB13Y_Quote#0001</v>
+        <v>AUDSM6AB13Y_Quote#0000</v>
       </c>
       <c r="G21" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -8335,7 +8331,7 @@
       </c>
       <c r="F22" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB14Y_Quote#0001</v>
+        <v>AUDSM6AB14Y_Quote#0000</v>
       </c>
       <c r="G22" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -8412,7 +8408,7 @@
       </c>
       <c r="F23" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB15Y_Quote#0001</v>
+        <v>AUDSM6AB15Y_Quote#0000</v>
       </c>
       <c r="G23" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -8489,7 +8485,7 @@
       </c>
       <c r="F24" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB16Y_Quote#0001</v>
+        <v>AUDSM6AB16Y_Quote#0000</v>
       </c>
       <c r="G24" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -8566,7 +8562,7 @@
       </c>
       <c r="F25" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB17Y_Quote#0001</v>
+        <v>AUDSM6AB17Y_Quote#0000</v>
       </c>
       <c r="G25" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -8643,7 +8639,7 @@
       </c>
       <c r="F26" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB18Y_Quote#0001</v>
+        <v>AUDSM6AB18Y_Quote#0000</v>
       </c>
       <c r="G26" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -8720,7 +8716,7 @@
       </c>
       <c r="F27" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB19Y_Quote#0001</v>
+        <v>AUDSM6AB19Y_Quote#0000</v>
       </c>
       <c r="G27" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -8797,7 +8793,7 @@
       </c>
       <c r="F28" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB20Y_Quote#0001</v>
+        <v>AUDSM6AB20Y_Quote#0000</v>
       </c>
       <c r="G28" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -8874,7 +8870,7 @@
       </c>
       <c r="F29" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB21Y_Quote#0001</v>
+        <v>AUDSM6AB21Y_Quote#0000</v>
       </c>
       <c r="G29" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -8951,7 +8947,7 @@
       </c>
       <c r="F30" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB22Y_Quote#0001</v>
+        <v>AUDSM6AB22Y_Quote#0000</v>
       </c>
       <c r="G30" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -9028,7 +9024,7 @@
       </c>
       <c r="F31" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB23Y_Quote#0001</v>
+        <v>AUDSM6AB23Y_Quote#0000</v>
       </c>
       <c r="G31" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -9105,7 +9101,7 @@
       </c>
       <c r="F32" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB24Y_Quote#0001</v>
+        <v>AUDSM6AB24Y_Quote#0000</v>
       </c>
       <c r="G32" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -9182,7 +9178,7 @@
       </c>
       <c r="F33" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB25Y_Quote#0001</v>
+        <v>AUDSM6AB25Y_Quote#0000</v>
       </c>
       <c r="G33" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -9259,7 +9255,7 @@
       </c>
       <c r="F34" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB26Y_Quote#0001</v>
+        <v>AUDSM6AB26Y_Quote#0000</v>
       </c>
       <c r="G34" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -9336,7 +9332,7 @@
       </c>
       <c r="F35" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB27Y_Quote#0001</v>
+        <v>AUDSM6AB27Y_Quote#0000</v>
       </c>
       <c r="G35" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -9413,7 +9409,7 @@
       </c>
       <c r="F36" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB28Y_Quote#0001</v>
+        <v>AUDSM6AB28Y_Quote#0000</v>
       </c>
       <c r="G36" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -9490,7 +9486,7 @@
       </c>
       <c r="F37" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB29Y_Quote#0001</v>
+        <v>AUDSM6AB29Y_Quote#0000</v>
       </c>
       <c r="G37" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -9567,7 +9563,7 @@
       </c>
       <c r="F38" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB30Y_Quote#0001</v>
+        <v>AUDSM6AB30Y_Quote#0000</v>
       </c>
       <c r="G38" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -9644,7 +9640,7 @@
       </c>
       <c r="F39" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB35Y_Quote#0001</v>
+        <v>AUDSM6AB35Y_Quote#0000</v>
       </c>
       <c r="G39" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -9721,7 +9717,7 @@
       </c>
       <c r="F40" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB40Y_Quote#0001</v>
+        <v>AUDSM6AB40Y_Quote#0000</v>
       </c>
       <c r="G40" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -9798,7 +9794,7 @@
       </c>
       <c r="F41" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB50Y_Quote#0001</v>
+        <v>AUDSM6AB50Y_Quote#0000</v>
       </c>
       <c r="G41" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -9875,7 +9871,7 @@
       </c>
       <c r="F42" s="18" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C42&amp;$D42&amp;$B42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSM6AB60Y_Quote#0001</v>
+        <v>AUDSM6AB60Y_Quote#0000</v>
       </c>
       <c r="G42" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -9993,7 +9989,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -10098,7 +10094,7 @@
       <c r="W3" s="51"/>
       <c r="X3" s="123">
         <f>_xll.ohTrigger(X6:X44)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="90"/>
     </row>
@@ -10129,7 +10125,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="98" t="str">
         <f t="array" ref="P4">_xll.RData(P5:P44,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -10170,7 +10166,7 @@
       </c>
       <c r="F5" s="18" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR3M_Quote#0001</v>
+        <v>AUD1BR3BR3M_Quote#0000</v>
       </c>
       <c r="G5" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -10206,10 +10202,7 @@
         <v>3.875</v>
       </c>
       <c r="T5" s="102"/>
-      <c r="U5" s="199">
-        <f t="array" aca="1" ref="U5:U44" ca="1">QuoteStatic</f>
-        <v>0</v>
-      </c>
+      <c r="U5" s="199"/>
       <c r="V5" s="102"/>
       <c r="W5" s="208">
         <f t="array" ref="W5:W44">QuoteLive</f>
@@ -10238,7 +10231,7 @@
       </c>
       <c r="F6" s="18" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR6M_Quote#0001</v>
+        <v>AUD1BR3BR6M_Quote#0000</v>
       </c>
       <c r="G6" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -10274,10 +10267,7 @@
         <v>4.625</v>
       </c>
       <c r="T6" s="102"/>
-      <c r="U6" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U6" s="199"/>
       <c r="V6" s="102"/>
       <c r="W6" s="208">
         <v>4.625</v>
@@ -10309,7 +10299,7 @@
       </c>
       <c r="F7" s="18" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR9M_Quote#0001</v>
+        <v>AUD1BR3BR9M_Quote#0000</v>
       </c>
       <c r="G7" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -10345,10 +10335,7 @@
         <v>5.125</v>
       </c>
       <c r="T7" s="102"/>
-      <c r="U7" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U7" s="199"/>
       <c r="V7" s="102"/>
       <c r="W7" s="208">
         <v>5.125</v>
@@ -10382,7 +10369,7 @@
       </c>
       <c r="F8" s="18" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR1Y_Quote#0001</v>
+        <v>AUD1BR3BR1Y_Quote#0000</v>
       </c>
       <c r="G8" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -10418,10 +10405,7 @@
         <v>5.625</v>
       </c>
       <c r="T8" s="102"/>
-      <c r="U8" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U8" s="199"/>
       <c r="V8" s="102"/>
       <c r="W8" s="208">
         <v>5.625</v>
@@ -10455,7 +10439,7 @@
       </c>
       <c r="F9" s="18" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR15M_Quote#0001</v>
+        <v>AUD1BR3BR15M_Quote#0000</v>
       </c>
       <c r="G9" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -10490,10 +10474,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T9" s="102"/>
-      <c r="U9" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U9" s="199"/>
       <c r="V9" s="102"/>
       <c r="W9" s="208" t="e">
         <v>#NUM!</v>
@@ -10527,7 +10508,7 @@
       </c>
       <c r="F10" s="18" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR18M_Quote#0001</v>
+        <v>AUD1BR3BR18M_Quote#0000</v>
       </c>
       <c r="G10" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -10563,10 +10544,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T10" s="102"/>
-      <c r="U10" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U10" s="199"/>
       <c r="V10" s="102"/>
       <c r="W10" s="208" t="e">
         <v>#NUM!</v>
@@ -10596,7 +10574,7 @@
       </c>
       <c r="F11" s="18" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR21M_Quote#0001</v>
+        <v>AUD1BR3BR21M_Quote#0000</v>
       </c>
       <c r="G11" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -10632,10 +10610,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T11" s="102"/>
-      <c r="U11" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U11" s="199"/>
       <c r="V11" s="102"/>
       <c r="W11" s="208" t="e">
         <v>#NUM!</v>
@@ -10665,7 +10640,7 @@
       </c>
       <c r="F12" s="18" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR2Y_Quote#0001</v>
+        <v>AUD1BR3BR2Y_Quote#0000</v>
       </c>
       <c r="G12" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -10700,10 +10675,7 @@
         <v>6.75</v>
       </c>
       <c r="T12" s="102"/>
-      <c r="U12" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U12" s="199"/>
       <c r="V12" s="102"/>
       <c r="W12" s="208">
         <v>6.75</v>
@@ -10733,7 +10705,7 @@
       </c>
       <c r="F13" s="18" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR3Y_Quote#0001</v>
+        <v>AUD1BR3BR3Y_Quote#0000</v>
       </c>
       <c r="G13" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -10768,10 +10740,7 @@
         <v>7.375</v>
       </c>
       <c r="T13" s="102"/>
-      <c r="U13" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U13" s="199"/>
       <c r="V13" s="102"/>
       <c r="W13" s="208">
         <v>7.375</v>
@@ -10801,7 +10770,7 @@
       </c>
       <c r="F14" s="18" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR4Y_Quote#0001</v>
+        <v>AUD1BR3BR4Y_Quote#0000</v>
       </c>
       <c r="G14" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -10836,10 +10805,7 @@
         <v>7.625</v>
       </c>
       <c r="T14" s="102"/>
-      <c r="U14" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U14" s="199"/>
       <c r="V14" s="102"/>
       <c r="W14" s="208">
         <v>7.625</v>
@@ -10869,7 +10835,7 @@
       </c>
       <c r="F15" s="18" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR5Y_Quote#0001</v>
+        <v>AUD1BR3BR5Y_Quote#0000</v>
       </c>
       <c r="G15" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -10904,10 +10870,7 @@
         <v>7.875</v>
       </c>
       <c r="T15" s="102"/>
-      <c r="U15" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U15" s="199"/>
       <c r="V15" s="102"/>
       <c r="W15" s="208">
         <v>7.875</v>
@@ -10937,7 +10900,7 @@
       </c>
       <c r="F16" s="18" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR6Y_Quote#0001</v>
+        <v>AUD1BR3BR6Y_Quote#0000</v>
       </c>
       <c r="G16" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -10972,10 +10935,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T16" s="102"/>
-      <c r="U16" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U16" s="199"/>
       <c r="V16" s="102"/>
       <c r="W16" s="208" t="e">
         <v>#NUM!</v>
@@ -11005,7 +10965,7 @@
       </c>
       <c r="F17" s="18" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR7Y_Quote#0001</v>
+        <v>AUD1BR3BR7Y_Quote#0000</v>
       </c>
       <c r="G17" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -11040,10 +11000,7 @@
         <v>8.25</v>
       </c>
       <c r="T17" s="102"/>
-      <c r="U17" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U17" s="199"/>
       <c r="V17" s="102"/>
       <c r="W17" s="208">
         <v>8.25</v>
@@ -11073,7 +11030,7 @@
       </c>
       <c r="F18" s="18" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR8Y_Quote#0001</v>
+        <v>AUD1BR3BR8Y_Quote#0000</v>
       </c>
       <c r="G18" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -11108,10 +11065,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T18" s="102"/>
-      <c r="U18" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U18" s="199"/>
       <c r="V18" s="102"/>
       <c r="W18" s="208" t="e">
         <v>#NUM!</v>
@@ -11141,7 +11095,7 @@
       </c>
       <c r="F19" s="18" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR9Y_Quote#0001</v>
+        <v>AUD1BR3BR9Y_Quote#0000</v>
       </c>
       <c r="G19" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -11176,10 +11130,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T19" s="102"/>
-      <c r="U19" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U19" s="199"/>
       <c r="V19" s="102"/>
       <c r="W19" s="208" t="e">
         <v>#NUM!</v>
@@ -11209,7 +11160,7 @@
       </c>
       <c r="F20" s="18" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR10Y_Quote#0001</v>
+        <v>AUD1BR3BR10Y_Quote#0000</v>
       </c>
       <c r="G20" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -11244,10 +11195,7 @@
         <v>8.5</v>
       </c>
       <c r="T20" s="102"/>
-      <c r="U20" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U20" s="199"/>
       <c r="V20" s="102"/>
       <c r="W20" s="208">
         <v>8.5</v>
@@ -11278,7 +11226,7 @@
       </c>
       <c r="F21" s="18" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR11Y_Quote#0001</v>
+        <v>AUD1BR3BR11Y_Quote#0000</v>
       </c>
       <c r="G21" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -11313,10 +11261,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T21" s="102"/>
-      <c r="U21" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U21" s="199"/>
       <c r="V21" s="102"/>
       <c r="W21" s="208" t="e">
         <v>#NUM!</v>
@@ -11346,7 +11291,7 @@
       </c>
       <c r="F22" s="18" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR12Y_Quote#0001</v>
+        <v>AUD1BR3BR12Y_Quote#0000</v>
       </c>
       <c r="G22" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -11381,10 +11326,7 @@
         <v>8.375</v>
       </c>
       <c r="T22" s="102"/>
-      <c r="U22" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U22" s="199"/>
       <c r="V22" s="102"/>
       <c r="W22" s="208">
         <v>8.375</v>
@@ -11414,7 +11356,7 @@
       </c>
       <c r="F23" s="18" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR13Y_Quote#0001</v>
+        <v>AUD1BR3BR13Y_Quote#0000</v>
       </c>
       <c r="G23" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -11449,10 +11391,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T23" s="102"/>
-      <c r="U23" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U23" s="199"/>
       <c r="V23" s="102"/>
       <c r="W23" s="208" t="e">
         <v>#NUM!</v>
@@ -11482,7 +11421,7 @@
       </c>
       <c r="F24" s="18" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR14Y_Quote#0001</v>
+        <v>AUD1BR3BR14Y_Quote#0000</v>
       </c>
       <c r="G24" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -11517,10 +11456,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T24" s="102"/>
-      <c r="U24" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U24" s="199"/>
       <c r="V24" s="102"/>
       <c r="W24" s="208" t="e">
         <v>#NUM!</v>
@@ -11550,7 +11486,7 @@
       </c>
       <c r="F25" s="18" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR15Y_Quote#0001</v>
+        <v>AUD1BR3BR15Y_Quote#0000</v>
       </c>
       <c r="G25" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -11585,10 +11521,7 @@
         <v>8.375</v>
       </c>
       <c r="T25" s="102"/>
-      <c r="U25" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U25" s="199"/>
       <c r="V25" s="102"/>
       <c r="W25" s="208">
         <v>8.375</v>
@@ -11618,7 +11551,7 @@
       </c>
       <c r="F26" s="18" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR16Y_Quote#0001</v>
+        <v>AUD1BR3BR16Y_Quote#0000</v>
       </c>
       <c r="G26" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -11653,10 +11586,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T26" s="102"/>
-      <c r="U26" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U26" s="199"/>
       <c r="V26" s="102"/>
       <c r="W26" s="208" t="e">
         <v>#NUM!</v>
@@ -11686,7 +11616,7 @@
       </c>
       <c r="F27" s="18" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR17Y_Quote#0001</v>
+        <v>AUD1BR3BR17Y_Quote#0000</v>
       </c>
       <c r="G27" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -11721,10 +11651,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T27" s="102"/>
-      <c r="U27" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U27" s="199"/>
       <c r="V27" s="102"/>
       <c r="W27" s="208" t="e">
         <v>#NUM!</v>
@@ -11754,7 +11681,7 @@
       </c>
       <c r="F28" s="18" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR18Y_Quote#0001</v>
+        <v>AUD1BR3BR18Y_Quote#0000</v>
       </c>
       <c r="G28" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -11789,10 +11716,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T28" s="102"/>
-      <c r="U28" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U28" s="199"/>
       <c r="V28" s="102"/>
       <c r="W28" s="208" t="e">
         <v>#NUM!</v>
@@ -11822,7 +11746,7 @@
       </c>
       <c r="F29" s="18" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR19Y_Quote#0001</v>
+        <v>AUD1BR3BR19Y_Quote#0000</v>
       </c>
       <c r="G29" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -11857,10 +11781,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T29" s="102"/>
-      <c r="U29" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U29" s="199"/>
       <c r="V29" s="102"/>
       <c r="W29" s="208" t="e">
         <v>#NUM!</v>
@@ -11890,7 +11811,7 @@
       </c>
       <c r="F30" s="18" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR20Y_Quote#0001</v>
+        <v>AUD1BR3BR20Y_Quote#0000</v>
       </c>
       <c r="G30" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -11925,10 +11846,7 @@
         <v>7.5</v>
       </c>
       <c r="T30" s="102"/>
-      <c r="U30" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U30" s="199"/>
       <c r="V30" s="102"/>
       <c r="W30" s="208">
         <v>7.5</v>
@@ -11958,7 +11876,7 @@
       </c>
       <c r="F31" s="18" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR21Y_Quote#0001</v>
+        <v>AUD1BR3BR21Y_Quote#0000</v>
       </c>
       <c r="G31" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -11993,10 +11911,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T31" s="102"/>
-      <c r="U31" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U31" s="199"/>
       <c r="V31" s="102"/>
       <c r="W31" s="208" t="e">
         <v>#NUM!</v>
@@ -12026,7 +11941,7 @@
       </c>
       <c r="F32" s="18" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR22Y_Quote#0001</v>
+        <v>AUD1BR3BR22Y_Quote#0000</v>
       </c>
       <c r="G32" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -12061,10 +11976,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T32" s="102"/>
-      <c r="U32" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U32" s="199"/>
       <c r="V32" s="102"/>
       <c r="W32" s="208" t="e">
         <v>#NUM!</v>
@@ -12094,7 +12006,7 @@
       </c>
       <c r="F33" s="18" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR23Y_Quote#0001</v>
+        <v>AUD1BR3BR23Y_Quote#0000</v>
       </c>
       <c r="G33" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -12129,10 +12041,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T33" s="102"/>
-      <c r="U33" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U33" s="199"/>
       <c r="V33" s="102"/>
       <c r="W33" s="208" t="e">
         <v>#NUM!</v>
@@ -12162,7 +12071,7 @@
       </c>
       <c r="F34" s="18" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR24Y_Quote#0001</v>
+        <v>AUD1BR3BR24Y_Quote#0000</v>
       </c>
       <c r="G34" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -12197,10 +12106,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T34" s="102"/>
-      <c r="U34" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U34" s="199"/>
       <c r="V34" s="102"/>
       <c r="W34" s="208" t="e">
         <v>#NUM!</v>
@@ -12230,7 +12136,7 @@
       </c>
       <c r="F35" s="18" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR25Y_Quote#0001</v>
+        <v>AUD1BR3BR25Y_Quote#0000</v>
       </c>
       <c r="G35" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -12265,10 +12171,7 @@
         <v>6.375</v>
       </c>
       <c r="T35" s="102"/>
-      <c r="U35" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U35" s="199"/>
       <c r="V35" s="102"/>
       <c r="W35" s="208">
         <v>6.375</v>
@@ -12298,7 +12201,7 @@
       </c>
       <c r="F36" s="18" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR26Y_Quote#0001</v>
+        <v>AUD1BR3BR26Y_Quote#0000</v>
       </c>
       <c r="G36" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -12333,10 +12236,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T36" s="102"/>
-      <c r="U36" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U36" s="199"/>
       <c r="V36" s="102"/>
       <c r="W36" s="208" t="e">
         <v>#NUM!</v>
@@ -12366,7 +12266,7 @@
       </c>
       <c r="F37" s="18" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR27Y_Quote#0001</v>
+        <v>AUD1BR3BR27Y_Quote#0000</v>
       </c>
       <c r="G37" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -12401,10 +12301,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T37" s="102"/>
-      <c r="U37" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U37" s="199"/>
       <c r="V37" s="102"/>
       <c r="W37" s="208" t="e">
         <v>#NUM!</v>
@@ -12434,7 +12331,7 @@
       </c>
       <c r="F38" s="18" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR28Y_Quote#0001</v>
+        <v>AUD1BR3BR28Y_Quote#0000</v>
       </c>
       <c r="G38" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -12469,10 +12366,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T38" s="102"/>
-      <c r="U38" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U38" s="199"/>
       <c r="V38" s="102"/>
       <c r="W38" s="208" t="e">
         <v>#NUM!</v>
@@ -12502,7 +12396,7 @@
       </c>
       <c r="F39" s="18" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR29Y_Quote#0001</v>
+        <v>AUD1BR3BR29Y_Quote#0000</v>
       </c>
       <c r="G39" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -12537,10 +12431,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T39" s="102"/>
-      <c r="U39" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U39" s="199"/>
       <c r="V39" s="102"/>
       <c r="W39" s="208" t="e">
         <v>#NUM!</v>
@@ -12570,7 +12461,7 @@
       </c>
       <c r="F40" s="18" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR30Y_Quote#0001</v>
+        <v>AUD1BR3BR30Y_Quote#0000</v>
       </c>
       <c r="G40" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -12605,10 +12496,7 @@
         <v>6.125</v>
       </c>
       <c r="T40" s="102"/>
-      <c r="U40" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U40" s="199"/>
       <c r="V40" s="102"/>
       <c r="W40" s="208">
         <v>6.125</v>
@@ -12638,7 +12526,7 @@
       </c>
       <c r="F41" s="18" t="str">
         <f>_xll.qlSimpleQuote(E41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR35Y_Quote#0001</v>
+        <v>AUD1BR3BR35Y_Quote#0000</v>
       </c>
       <c r="G41" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -12673,10 +12561,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T41" s="102"/>
-      <c r="U41" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U41" s="199"/>
       <c r="V41" s="102"/>
       <c r="W41" s="208" t="e">
         <v>#NUM!</v>
@@ -12706,7 +12591,7 @@
       </c>
       <c r="F42" s="18" t="str">
         <f>_xll.qlSimpleQuote(E42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR40Y_Quote#0001</v>
+        <v>AUD1BR3BR40Y_Quote#0000</v>
       </c>
       <c r="G42" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -12741,10 +12626,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T42" s="102"/>
-      <c r="U42" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U42" s="199"/>
       <c r="V42" s="102"/>
       <c r="W42" s="208" t="e">
         <v>#NUM!</v>
@@ -12774,7 +12656,7 @@
       </c>
       <c r="F43" s="18" t="str">
         <f>_xll.qlSimpleQuote(E43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR50Y_Quote#0001</v>
+        <v>AUD1BR3BR50Y_Quote#0000</v>
       </c>
       <c r="G43" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -12809,10 +12691,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T43" s="102"/>
-      <c r="U43" s="199">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U43" s="199"/>
       <c r="V43" s="102"/>
       <c r="W43" s="208" t="e">
         <v>#NUM!</v>
@@ -12842,7 +12721,7 @@
       </c>
       <c r="F44" s="18" t="str">
         <f>_xll.qlSimpleQuote(E44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1BR3BR60Y_Quote#0001</v>
+        <v>AUD1BR3BR60Y_Quote#0000</v>
       </c>
       <c r="G44" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -12877,10 +12756,7 @@
         <v>#NUM!</v>
       </c>
       <c r="T44" s="102"/>
-      <c r="U44" s="197">
-        <f ca="1"/>
-        <v>0</v>
-      </c>
+      <c r="U44" s="197"/>
       <c r="V44" s="102"/>
       <c r="W44" s="209" t="e">
         <v>#NUM!</v>
@@ -13070,7 +12946,7 @@
       <c r="W3" s="51"/>
       <c r="X3" s="123">
         <f>_xll.ohTrigger(X5:X42)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="90"/>
       <c r="Z3" s="3"/>
@@ -13107,7 +12983,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="98" t="str">
         <f>_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -13154,7 +13030,7 @@
       </c>
       <c r="F5" s="18" t="str">
         <f>_xll.qlSimpleQuote(E5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR6M_Quote#0001</v>
+        <v>AUD3BR6BR6M_Quote#0000</v>
       </c>
       <c r="G5" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -13227,7 +13103,7 @@
       </c>
       <c r="F6" s="18" t="str">
         <f>_xll.qlSimpleQuote(E6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR1Y_Quote#0001</v>
+        <v>AUD3BR6BR1Y_Quote#0000</v>
       </c>
       <c r="G6" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -13298,7 +13174,7 @@
       </c>
       <c r="F7" s="18" t="str">
         <f>_xll.qlSimpleQuote(E7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR15M_Quote#0001</v>
+        <v>AUD3BR6BR15M_Quote#0000</v>
       </c>
       <c r="G7" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -13369,7 +13245,7 @@
       </c>
       <c r="F8" s="18" t="str">
         <f>_xll.qlSimpleQuote(E8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR18M_Quote#0001</v>
+        <v>AUD3BR6BR18M_Quote#0000</v>
       </c>
       <c r="G8" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -13440,7 +13316,7 @@
       </c>
       <c r="F9" s="18" t="str">
         <f>_xll.qlSimpleQuote(E9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR21M_Quote#0001</v>
+        <v>AUD3BR6BR21M_Quote#0000</v>
       </c>
       <c r="G9" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -13511,7 +13387,7 @@
       </c>
       <c r="F10" s="18" t="str">
         <f>_xll.qlSimpleQuote(E10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR2Y_Quote#0001</v>
+        <v>AUD3BR6BR2Y_Quote#0000</v>
       </c>
       <c r="G10" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -13582,7 +13458,7 @@
       </c>
       <c r="F11" s="18" t="str">
         <f>_xll.qlSimpleQuote(E11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR3Y_Quote#0001</v>
+        <v>AUD3BR6BR3Y_Quote#0000</v>
       </c>
       <c r="G11" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -13653,7 +13529,7 @@
       </c>
       <c r="F12" s="18" t="str">
         <f>_xll.qlSimpleQuote(E12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR4Y_Quote#0001</v>
+        <v>AUD3BR6BR4Y_Quote#0000</v>
       </c>
       <c r="G12" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -13724,7 +13600,7 @@
       </c>
       <c r="F13" s="18" t="str">
         <f>_xll.qlSimpleQuote(E13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR5Y_Quote#0001</v>
+        <v>AUD3BR6BR5Y_Quote#0000</v>
       </c>
       <c r="G13" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -13795,7 +13671,7 @@
       </c>
       <c r="F14" s="18" t="str">
         <f>_xll.qlSimpleQuote(E14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR6Y_Quote#0001</v>
+        <v>AUD3BR6BR6Y_Quote#0000</v>
       </c>
       <c r="G14" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -13866,7 +13742,7 @@
       </c>
       <c r="F15" s="18" t="str">
         <f>_xll.qlSimpleQuote(E15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR7Y_Quote#0001</v>
+        <v>AUD3BR6BR7Y_Quote#0000</v>
       </c>
       <c r="G15" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -13937,7 +13813,7 @@
       </c>
       <c r="F16" s="18" t="str">
         <f>_xll.qlSimpleQuote(E16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR8Y_Quote#0001</v>
+        <v>AUD3BR6BR8Y_Quote#0000</v>
       </c>
       <c r="G16" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -14008,7 +13884,7 @@
       </c>
       <c r="F17" s="18" t="str">
         <f>_xll.qlSimpleQuote(E17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR9Y_Quote#0001</v>
+        <v>AUD3BR6BR9Y_Quote#0000</v>
       </c>
       <c r="G17" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -14079,7 +13955,7 @@
       </c>
       <c r="F18" s="18" t="str">
         <f>_xll.qlSimpleQuote(E18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR10Y_Quote#0001</v>
+        <v>AUD3BR6BR10Y_Quote#0000</v>
       </c>
       <c r="G18" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -14150,7 +14026,7 @@
       </c>
       <c r="F19" s="18" t="str">
         <f>_xll.qlSimpleQuote(E19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR11Y_Quote#0001</v>
+        <v>AUD3BR6BR11Y_Quote#0000</v>
       </c>
       <c r="G19" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -14221,7 +14097,7 @@
       </c>
       <c r="F20" s="18" t="str">
         <f>_xll.qlSimpleQuote(E20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR12Y_Quote#0001</v>
+        <v>AUD3BR6BR12Y_Quote#0000</v>
       </c>
       <c r="G20" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -14292,7 +14168,7 @@
       </c>
       <c r="F21" s="18" t="str">
         <f>_xll.qlSimpleQuote(E21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR13Y_Quote#0001</v>
+        <v>AUD3BR6BR13Y_Quote#0000</v>
       </c>
       <c r="G21" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -14363,7 +14239,7 @@
       </c>
       <c r="F22" s="18" t="str">
         <f>_xll.qlSimpleQuote(E22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR14Y_Quote#0001</v>
+        <v>AUD3BR6BR14Y_Quote#0000</v>
       </c>
       <c r="G22" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -14434,7 +14310,7 @@
       </c>
       <c r="F23" s="18" t="str">
         <f>_xll.qlSimpleQuote(E23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR15Y_Quote#0001</v>
+        <v>AUD3BR6BR15Y_Quote#0000</v>
       </c>
       <c r="G23" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -14505,7 +14381,7 @@
       </c>
       <c r="F24" s="18" t="str">
         <f>_xll.qlSimpleQuote(E24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR16Y_Quote#0001</v>
+        <v>AUD3BR6BR16Y_Quote#0000</v>
       </c>
       <c r="G24" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -14576,7 +14452,7 @@
       </c>
       <c r="F25" s="18" t="str">
         <f>_xll.qlSimpleQuote(E25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR17Y_Quote#0001</v>
+        <v>AUD3BR6BR17Y_Quote#0000</v>
       </c>
       <c r="G25" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -14647,7 +14523,7 @@
       </c>
       <c r="F26" s="18" t="str">
         <f>_xll.qlSimpleQuote(E26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR18Y_Quote#0001</v>
+        <v>AUD3BR6BR18Y_Quote#0000</v>
       </c>
       <c r="G26" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -14718,7 +14594,7 @@
       </c>
       <c r="F27" s="18" t="str">
         <f>_xll.qlSimpleQuote(E27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR19Y_Quote#0001</v>
+        <v>AUD3BR6BR19Y_Quote#0000</v>
       </c>
       <c r="G27" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -14789,7 +14665,7 @@
       </c>
       <c r="F28" s="18" t="str">
         <f>_xll.qlSimpleQuote(E28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR20Y_Quote#0001</v>
+        <v>AUD3BR6BR20Y_Quote#0000</v>
       </c>
       <c r="G28" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -14860,7 +14736,7 @@
       </c>
       <c r="F29" s="18" t="str">
         <f>_xll.qlSimpleQuote(E29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR21Y_Quote#0001</v>
+        <v>AUD3BR6BR21Y_Quote#0000</v>
       </c>
       <c r="G29" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -14931,7 +14807,7 @@
       </c>
       <c r="F30" s="18" t="str">
         <f>_xll.qlSimpleQuote(E30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR22Y_Quote#0001</v>
+        <v>AUD3BR6BR22Y_Quote#0000</v>
       </c>
       <c r="G30" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -15002,7 +14878,7 @@
       </c>
       <c r="F31" s="18" t="str">
         <f>_xll.qlSimpleQuote(E31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR23Y_Quote#0001</v>
+        <v>AUD3BR6BR23Y_Quote#0000</v>
       </c>
       <c r="G31" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -15073,7 +14949,7 @@
       </c>
       <c r="F32" s="18" t="str">
         <f>_xll.qlSimpleQuote(E32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR24Y_Quote#0001</v>
+        <v>AUD3BR6BR24Y_Quote#0000</v>
       </c>
       <c r="G32" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -15144,7 +15020,7 @@
       </c>
       <c r="F33" s="18" t="str">
         <f>_xll.qlSimpleQuote(E33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR25Y_Quote#0001</v>
+        <v>AUD3BR6BR25Y_Quote#0000</v>
       </c>
       <c r="G33" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -15215,7 +15091,7 @@
       </c>
       <c r="F34" s="18" t="str">
         <f>_xll.qlSimpleQuote(E34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR26Y_Quote#0001</v>
+        <v>AUD3BR6BR26Y_Quote#0000</v>
       </c>
       <c r="G34" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -15286,7 +15162,7 @@
       </c>
       <c r="F35" s="18" t="str">
         <f>_xll.qlSimpleQuote(E35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR27Y_Quote#0001</v>
+        <v>AUD3BR6BR27Y_Quote#0000</v>
       </c>
       <c r="G35" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -15357,7 +15233,7 @@
       </c>
       <c r="F36" s="18" t="str">
         <f>_xll.qlSimpleQuote(E36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR28Y_Quote#0001</v>
+        <v>AUD3BR6BR28Y_Quote#0000</v>
       </c>
       <c r="G36" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -15428,7 +15304,7 @@
       </c>
       <c r="F37" s="18" t="str">
         <f>_xll.qlSimpleQuote(E37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR29Y_Quote#0001</v>
+        <v>AUD3BR6BR29Y_Quote#0000</v>
       </c>
       <c r="G37" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -15499,7 +15375,7 @@
       </c>
       <c r="F38" s="18" t="str">
         <f>_xll.qlSimpleQuote(E38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR30Y_Quote#0001</v>
+        <v>AUD3BR6BR30Y_Quote#0000</v>
       </c>
       <c r="G38" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -15570,7 +15446,7 @@
       </c>
       <c r="F39" s="18" t="str">
         <f>_xll.qlSimpleQuote(E39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR35Y_Quote#0001</v>
+        <v>AUD3BR6BR35Y_Quote#0000</v>
       </c>
       <c r="G39" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -15641,7 +15517,7 @@
       </c>
       <c r="F40" s="18" t="str">
         <f>_xll.qlSimpleQuote(E40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR40Y_Quote#0001</v>
+        <v>AUD3BR6BR40Y_Quote#0000</v>
       </c>
       <c r="G40" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -15712,7 +15588,7 @@
       </c>
       <c r="F41" s="18" t="str">
         <f>_xll.qlSimpleQuote(E41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR50Y_Quote#0001</v>
+        <v>AUD3BR6BR50Y_Quote#0000</v>
       </c>
       <c r="G41" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -15783,7 +15659,7 @@
       </c>
       <c r="F42" s="18" t="str">
         <f>_xll.qlSimpleQuote(E42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3BR6BR60Y_Quote#0001</v>
+        <v>AUD3BR6BR60Y_Quote#0000</v>
       </c>
       <c r="G42" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -16070,7 +15946,7 @@
       </c>
       <c r="Q5" s="233" t="str">
         <f>_xll.RData(Q6:Q12,R5:T5,"RTFEED:IDN",,,R6)</f>
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
       </c>
       <c r="R5" s="233" t="s">
         <v>175</v>
@@ -16121,15 +15997,15 @@
       </c>
       <c r="J6" s="269" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDON#0001</v>
+        <v>AUDON#0000</v>
       </c>
       <c r="K6" s="269" t="str">
         <f>_xll.qlOvernightIndex(I6,,D6,Currency,Calendar,H6,J6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AONIA#0013</v>
+        <v>AONIA#0000</v>
       </c>
       <c r="L6" s="269" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C6&amp;"LastFixing_Quote",K6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWONLastFixing_Quote#0002</v>
+        <v>AudBBSWONLastFixing_Quote#0000</v>
       </c>
       <c r="M6" s="270"/>
       <c r="N6" s="229"/>
@@ -16139,7 +16015,7 @@
       </c>
       <c r="P6" s="272" t="str">
         <f>K6</f>
-        <v>AONIA#0013</v>
+        <v>AONIA#0000</v>
       </c>
       <c r="Q6" s="273" t="str">
         <f>"AU"&amp;"CASH"&amp;"="&amp;"RBAA"</f>
@@ -16196,15 +16072,15 @@
       </c>
       <c r="J7" s="228" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1M#0001</v>
+        <v>AUD1M#0000</v>
       </c>
       <c r="K7" s="228" t="str">
         <f>_xll.qlIborIndex(I7,FamilyName,C7,D7,Currency,E7,F7,G7,H7,J7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1M#0001</v>
+        <v>AudBBSW1M#0000</v>
       </c>
       <c r="L7" s="228" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C7&amp;"LastFixing_Quote",K7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW1MLastFixing_Quote#0001</v>
+        <v>AudBBSW1MLastFixing_Quote#0000</v>
       </c>
       <c r="M7" s="228" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -16217,7 +16093,7 @@
       </c>
       <c r="P7" s="237" t="str">
         <f>K7</f>
-        <v>AudBBSW1M#0001</v>
+        <v>AudBBSW1M#0000</v>
       </c>
       <c r="Q7" s="236" t="str">
         <f>"AU"&amp;O7&amp;"BA"&amp;"="</f>
@@ -16278,11 +16154,11 @@
       <c r="J8" s="228"/>
       <c r="K8" s="228" t="str">
         <f>_xll.qlIborIndex(I8,FamilyName,C8,D8,Currency,E8,F8,G8,H8,J8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW2M#0001</v>
+        <v>AudBBSW2M#0000</v>
       </c>
       <c r="L8" s="228" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C8&amp;"LastFixing_Quote",K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW2MLastFixing_Quote#0001</v>
+        <v>AudBBSW2MLastFixing_Quote#0000</v>
       </c>
       <c r="M8" s="228" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -16295,7 +16171,7 @@
       </c>
       <c r="P8" s="237" t="str">
         <f t="shared" ref="P8:P12" si="4">K8</f>
-        <v>AudBBSW2M#0001</v>
+        <v>AudBBSW2M#0000</v>
       </c>
       <c r="Q8" s="236" t="str">
         <f t="shared" ref="Q8:Q12" si="5">"AU"&amp;O8&amp;"BA"&amp;"="</f>
@@ -16355,15 +16231,15 @@
       </c>
       <c r="J9" s="228" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3M#0001</v>
+        <v>AUD3M#0000</v>
       </c>
       <c r="K9" s="228" t="str">
         <f>_xll.qlIborIndex(I9,FamilyName,C9,D9,Currency,E9,F9,G9,H9,J9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW3M#0001</v>
+        <v>AudBBSW3M#0000</v>
       </c>
       <c r="L9" s="228" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C9&amp;"LastFixing_Quote",K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW3MLastFixing_Quote#0001</v>
+        <v>AudBBSW3MLastFixing_Quote#0000</v>
       </c>
       <c r="M9" s="228" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -16376,7 +16252,7 @@
       </c>
       <c r="P9" s="237" t="str">
         <f t="shared" si="4"/>
-        <v>AudBBSW3M#0001</v>
+        <v>AudBBSW3M#0000</v>
       </c>
       <c r="Q9" s="236" t="str">
         <f t="shared" si="5"/>
@@ -16437,11 +16313,11 @@
       <c r="J10" s="228"/>
       <c r="K10" s="228" t="str">
         <f>_xll.qlIborIndex(I10,FamilyName,C10,D10,Currency,E10,F10,G10,H10,J10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW4M#0001</v>
+        <v>AudBBSW4M#0000</v>
       </c>
       <c r="L10" s="228" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C10&amp;"LastFixing_Quote",K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW4MLastFixing_Quote#0001</v>
+        <v>AudBBSW4MLastFixing_Quote#0000</v>
       </c>
       <c r="M10" s="228" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -16454,7 +16330,7 @@
       </c>
       <c r="P10" s="237" t="str">
         <f t="shared" si="4"/>
-        <v>AudBBSW4M#0001</v>
+        <v>AudBBSW4M#0000</v>
       </c>
       <c r="Q10" s="236" t="str">
         <f t="shared" si="5"/>
@@ -16515,11 +16391,11 @@
       <c r="J11" s="228"/>
       <c r="K11" s="228" t="str">
         <f>_xll.qlIborIndex(I11,FamilyName,C11,D11,Currency,E11,F11,G11,H11,J11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW5M#0001</v>
+        <v>AudBBSW5M#0000</v>
       </c>
       <c r="L11" s="228" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C11&amp;"LastFixing_Quote",K11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW5MLastFixing_Quote#0001</v>
+        <v>AudBBSW5MLastFixing_Quote#0000</v>
       </c>
       <c r="M11" s="228" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -16532,7 +16408,7 @@
       </c>
       <c r="P11" s="237" t="str">
         <f t="shared" si="4"/>
-        <v>AudBBSW5M#0001</v>
+        <v>AudBBSW5M#0000</v>
       </c>
       <c r="Q11" s="236" t="str">
         <f t="shared" si="5"/>
@@ -16592,15 +16468,15 @@
       </c>
       <c r="J12" s="228" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD6M#0001</v>
+        <v>AUD6M#0000</v>
       </c>
       <c r="K12" s="228" t="str">
         <f>_xll.qlIborIndex(I12,FamilyName,C12,D12,Currency,E12,F12,G12,H12,J12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW6M#0001</v>
+        <v>AudBBSW6M#0000</v>
       </c>
       <c r="L12" s="228" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C12&amp;"LastFixing_Quote",K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSW6MLastFixing_Quote#0001</v>
+        <v>AudBBSW6MLastFixing_Quote#0000</v>
       </c>
       <c r="M12" s="228" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -16613,7 +16489,7 @@
       </c>
       <c r="P12" s="237" t="str">
         <f t="shared" si="4"/>
-        <v>AudBBSW6M#0001</v>
+        <v>AudBBSW6M#0000</v>
       </c>
       <c r="Q12" s="236" t="str">
         <f t="shared" si="5"/>
@@ -16659,7 +16535,7 @@
       <c r="I13" s="229"/>
       <c r="J13" s="335" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSTD#0001</v>
+        <v>AUDSTD#0000</v>
       </c>
       <c r="K13" s="229"/>
       <c r="L13" s="229"/>
@@ -16797,7 +16673,7 @@
       </c>
       <c r="F4" s="252" t="str">
         <f>_xll.qlSwapIndex($E4,FixingType,C4,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc3M#0001</v>
+        <v>AudBBSWSwapForBasisCalc3M#0000</v>
       </c>
       <c r="G4" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -16819,7 +16695,7 @@
       </c>
       <c r="F5" s="252" t="str">
         <f>_xll.qlSwapIndex($E5,FixingType,C5,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc6M#0001</v>
+        <v>AudBBSWSwapForBasisCalc6M#0000</v>
       </c>
       <c r="G5" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -16841,7 +16717,7 @@
       </c>
       <c r="F6" s="252" t="str">
         <f>_xll.qlSwapIndex($E6,FixingType,C6,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc9M#0001</v>
+        <v>AudBBSWSwapForBasisCalc9M#0000</v>
       </c>
       <c r="G6" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -16863,7 +16739,7 @@
       </c>
       <c r="F7" s="252" t="str">
         <f>_xll.qlSwapIndex($E7,FixingType,C7,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc1Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc1Y#0000</v>
       </c>
       <c r="G7" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -16885,7 +16761,7 @@
       </c>
       <c r="F8" s="252" t="str">
         <f>_xll.qlSwapIndex($E8,FixingType,C8,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc15M#0001</v>
+        <v>AudBBSWSwapForBasisCalc15M#0000</v>
       </c>
       <c r="G8" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -16907,7 +16783,7 @@
       </c>
       <c r="F9" s="252" t="str">
         <f>_xll.qlSwapIndex($E9,FixingType,C9,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc18M#0001</v>
+        <v>AudBBSWSwapForBasisCalc18M#0000</v>
       </c>
       <c r="G9" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -16929,7 +16805,7 @@
       </c>
       <c r="F10" s="252" t="str">
         <f>_xll.qlSwapIndex($E10,FixingType,C10,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc2Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc2Y#0000</v>
       </c>
       <c r="G10" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -16951,7 +16827,7 @@
       </c>
       <c r="F11" s="252" t="str">
         <f>_xll.qlSwapIndex($E11,FixingType,C11,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc3Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc3Y#0000</v>
       </c>
       <c r="G11" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -16973,7 +16849,7 @@
       </c>
       <c r="F12" s="252" t="str">
         <f>_xll.qlSwapIndex($E12,FixingType,C12,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc4Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc4Y#0000</v>
       </c>
       <c r="G12" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -16995,7 +16871,7 @@
       </c>
       <c r="F13" s="252" t="str">
         <f>_xll.qlSwapIndex($E13,FixingType,C13,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc5Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc5Y#0000</v>
       </c>
       <c r="G13" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -17017,7 +16893,7 @@
       </c>
       <c r="F14" s="252" t="str">
         <f>_xll.qlSwapIndex($E14,FixingType,C14,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc6Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc6Y#0000</v>
       </c>
       <c r="G14" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -17039,7 +16915,7 @@
       </c>
       <c r="F15" s="252" t="str">
         <f>_xll.qlSwapIndex($E15,FixingType,C15,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc7Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc7Y#0000</v>
       </c>
       <c r="G15" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -17061,7 +16937,7 @@
       </c>
       <c r="F16" s="252" t="str">
         <f>_xll.qlSwapIndex($E16,FixingType,C16,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc8Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc8Y#0000</v>
       </c>
       <c r="G16" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -17083,7 +16959,7 @@
       </c>
       <c r="F17" s="252" t="str">
         <f>_xll.qlSwapIndex($E17,FixingType,C17,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc9Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc9Y#0000</v>
       </c>
       <c r="G17" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -17105,7 +16981,7 @@
       </c>
       <c r="F18" s="252" t="str">
         <f>_xll.qlSwapIndex($E18,FixingType,C18,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc10Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc10Y#0000</v>
       </c>
       <c r="G18" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -17127,7 +17003,7 @@
       </c>
       <c r="F19" s="252" t="str">
         <f>_xll.qlSwapIndex($E19,FixingType,C19,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc11Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc11Y#0000</v>
       </c>
       <c r="G19" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -17149,7 +17025,7 @@
       </c>
       <c r="F20" s="252" t="str">
         <f>_xll.qlSwapIndex($E20,FixingType,C20,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc12Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc12Y#0000</v>
       </c>
       <c r="G20" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -17171,7 +17047,7 @@
       </c>
       <c r="F21" s="252" t="str">
         <f>_xll.qlSwapIndex($E21,FixingType,C21,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc13Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc13Y#0000</v>
       </c>
       <c r="G21" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -17193,7 +17069,7 @@
       </c>
       <c r="F22" s="252" t="str">
         <f>_xll.qlSwapIndex($E22,FixingType,C22,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc14Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc14Y#0000</v>
       </c>
       <c r="G22" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -17215,7 +17091,7 @@
       </c>
       <c r="F23" s="252" t="str">
         <f>_xll.qlSwapIndex($E23,FixingType,C23,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc15Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc15Y#0000</v>
       </c>
       <c r="G23" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -17237,7 +17113,7 @@
       </c>
       <c r="F24" s="252" t="str">
         <f>_xll.qlSwapIndex($E24,FixingType,C24,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc16Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc16Y#0000</v>
       </c>
       <c r="G24" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -17259,7 +17135,7 @@
       </c>
       <c r="F25" s="252" t="str">
         <f>_xll.qlSwapIndex($E25,FixingType,C25,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc17Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc17Y#0000</v>
       </c>
       <c r="G25" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -17281,7 +17157,7 @@
       </c>
       <c r="F26" s="252" t="str">
         <f>_xll.qlSwapIndex($E26,FixingType,C26,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc18Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc18Y#0000</v>
       </c>
       <c r="G26" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -17303,7 +17179,7 @@
       </c>
       <c r="F27" s="252" t="str">
         <f>_xll.qlSwapIndex($E27,FixingType,C27,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc19Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc19Y#0000</v>
       </c>
       <c r="G27" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -17325,7 +17201,7 @@
       </c>
       <c r="F28" s="252" t="str">
         <f>_xll.qlSwapIndex($E28,FixingType,C28,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc20Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc20Y#0000</v>
       </c>
       <c r="G28" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -17347,7 +17223,7 @@
       </c>
       <c r="F29" s="252" t="str">
         <f>_xll.qlSwapIndex($E29,FixingType,C29,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc21Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc21Y#0000</v>
       </c>
       <c r="G29" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -17369,7 +17245,7 @@
       </c>
       <c r="F30" s="252" t="str">
         <f>_xll.qlSwapIndex($E30,FixingType,C30,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc22Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc22Y#0000</v>
       </c>
       <c r="G30" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -17391,7 +17267,7 @@
       </c>
       <c r="F31" s="252" t="str">
         <f>_xll.qlSwapIndex($E31,FixingType,C31,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc23Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc23Y#0000</v>
       </c>
       <c r="G31" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -17413,7 +17289,7 @@
       </c>
       <c r="F32" s="252" t="str">
         <f>_xll.qlSwapIndex($E32,FixingType,C32,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc24Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc24Y#0000</v>
       </c>
       <c r="G32" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -17435,7 +17311,7 @@
       </c>
       <c r="F33" s="252" t="str">
         <f>_xll.qlSwapIndex($E33,FixingType,C33,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc25Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc25Y#0000</v>
       </c>
       <c r="G33" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -17457,7 +17333,7 @@
       </c>
       <c r="F34" s="252" t="str">
         <f>_xll.qlSwapIndex($E34,FixingType,C34,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc26Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc26Y#0000</v>
       </c>
       <c r="G34" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -17479,7 +17355,7 @@
       </c>
       <c r="F35" s="252" t="str">
         <f>_xll.qlSwapIndex($E35,FixingType,C35,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc27Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc27Y#0000</v>
       </c>
       <c r="G35" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -17501,7 +17377,7 @@
       </c>
       <c r="F36" s="252" t="str">
         <f>_xll.qlSwapIndex($E36,FixingType,C36,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc28Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc28Y#0000</v>
       </c>
       <c r="G36" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -17523,7 +17399,7 @@
       </c>
       <c r="F37" s="252" t="str">
         <f>_xll.qlSwapIndex($E37,FixingType,C37,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc29Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc29Y#0000</v>
       </c>
       <c r="G37" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -17545,7 +17421,7 @@
       </c>
       <c r="F38" s="252" t="str">
         <f>_xll.qlSwapIndex($E38,FixingType,C38,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc30Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc30Y#0000</v>
       </c>
       <c r="G38" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -17567,7 +17443,7 @@
       </c>
       <c r="F39" s="252" t="str">
         <f>_xll.qlSwapIndex($E39,FixingType,C39,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc35Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc35Y#0000</v>
       </c>
       <c r="G39" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -17589,7 +17465,7 @@
       </c>
       <c r="F40" s="252" t="str">
         <f>_xll.qlSwapIndex($E40,FixingType,C40,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc40Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc40Y#0000</v>
       </c>
       <c r="G40" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -17611,7 +17487,7 @@
       </c>
       <c r="F41" s="252" t="str">
         <f>_xll.qlSwapIndex($E41,FixingType,C41,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc50Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc50Y#0000</v>
       </c>
       <c r="G41" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -17633,7 +17509,7 @@
       </c>
       <c r="F42" s="252" t="str">
         <f>_xll.qlSwapIndex($E42,FixingType,C42,1,Currency,Calendar,"3M","mf","act/365 (fixed)",BBSW!$K$9,Discounting,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AudBBSWSwapForBasisCalc60Y#0001</v>
+        <v>AudBBSWSwapForBasisCalc60Y#0000</v>
       </c>
       <c r="G42" s="249" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -18056,7 +17932,7 @@
       <c r="V3" s="51"/>
       <c r="W3" s="123">
         <f>_xll.ohTrigger(W5:W24)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X3" s="90"/>
     </row>
@@ -18085,7 +17961,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="174" t="str">
         <f>_xll.RData(M5:M58,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
       </c>
       <c r="N4" s="171" t="s">
         <v>130</v>
@@ -18129,7 +18005,7 @@
       </c>
       <c r="E5" s="91" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOISSW_Quote#0001</v>
+        <v>AUDOISSW_Quote#0000</v>
       </c>
       <c r="F5" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -18196,7 +18072,7 @@
       </c>
       <c r="E6" s="91" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS2W_Quote#0001</v>
+        <v>AUDOIS2W_Quote#0000</v>
       </c>
       <c r="F6" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -18261,7 +18137,7 @@
       </c>
       <c r="E7" s="91" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS3W_Quote#0001</v>
+        <v>AUDOIS3W_Quote#0000</v>
       </c>
       <c r="F7" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -18326,7 +18202,7 @@
       </c>
       <c r="E8" s="91" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS1M_Quote#0001</v>
+        <v>AUDOIS1M_Quote#0000</v>
       </c>
       <c r="F8" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -18392,7 +18268,7 @@
       </c>
       <c r="E9" s="91" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS2M_Quote#0001</v>
+        <v>AUDOIS2M_Quote#0000</v>
       </c>
       <c r="F9" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -18457,7 +18333,7 @@
       </c>
       <c r="E10" s="91" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS3M_Quote#0001</v>
+        <v>AUDOIS3M_Quote#0000</v>
       </c>
       <c r="F10" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -18522,7 +18398,7 @@
       </c>
       <c r="E11" s="91" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS4M_Quote#0001</v>
+        <v>AUDOIS4M_Quote#0000</v>
       </c>
       <c r="F11" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -18587,7 +18463,7 @@
       </c>
       <c r="E12" s="91" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS5M_Quote#0001</v>
+        <v>AUDOIS5M_Quote#0000</v>
       </c>
       <c r="F12" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -18652,7 +18528,7 @@
       </c>
       <c r="E13" s="91" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS6M_Quote#0001</v>
+        <v>AUDOIS6M_Quote#0000</v>
       </c>
       <c r="F13" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -18717,7 +18593,7 @@
       </c>
       <c r="E14" s="91" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS7M_Quote#0001</v>
+        <v>AUDOIS7M_Quote#0000</v>
       </c>
       <c r="F14" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -18782,7 +18658,7 @@
       </c>
       <c r="E15" s="91" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS8M_Quote#0001</v>
+        <v>AUDOIS8M_Quote#0000</v>
       </c>
       <c r="F15" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -18847,7 +18723,7 @@
       </c>
       <c r="E16" s="91" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS9M_Quote#0001</v>
+        <v>AUDOIS9M_Quote#0000</v>
       </c>
       <c r="F16" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -18912,7 +18788,7 @@
       </c>
       <c r="E17" s="91" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS10M_Quote#0001</v>
+        <v>AUDOIS10M_Quote#0000</v>
       </c>
       <c r="F17" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -18977,7 +18853,7 @@
       </c>
       <c r="E18" s="91" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS11M_Quote#0001</v>
+        <v>AUDOIS11M_Quote#0000</v>
       </c>
       <c r="F18" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -19042,7 +18918,7 @@
       </c>
       <c r="E19" s="91" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS12M_Quote#0001</v>
+        <v>AUDOIS12M_Quote#0000</v>
       </c>
       <c r="F19" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -19107,7 +18983,7 @@
       </c>
       <c r="E20" s="91" t="str">
         <f>_xll.qlSimpleQuote(D20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS13M_Quote#0001</v>
+        <v>AUDOIS13M_Quote#0000</v>
       </c>
       <c r="F20" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -19172,7 +19048,7 @@
       </c>
       <c r="E21" s="91" t="str">
         <f>_xll.qlSimpleQuote(D21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS14M_Quote#0001</v>
+        <v>AUDOIS14M_Quote#0000</v>
       </c>
       <c r="F21" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -19237,7 +19113,7 @@
       </c>
       <c r="E22" s="91" t="str">
         <f>_xll.qlSimpleQuote(D22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS15M_Quote#0001</v>
+        <v>AUDOIS15M_Quote#0000</v>
       </c>
       <c r="F22" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E22)</f>
@@ -19302,7 +19178,7 @@
       </c>
       <c r="E23" s="91" t="str">
         <f>_xll.qlSimpleQuote(D23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS16M_Quote#0001</v>
+        <v>AUDOIS16M_Quote#0000</v>
       </c>
       <c r="F23" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E23)</f>
@@ -19367,7 +19243,7 @@
       </c>
       <c r="E24" s="91" t="str">
         <f>_xll.qlSimpleQuote(D24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS17M_Quote#0001</v>
+        <v>AUDOIS17M_Quote#0000</v>
       </c>
       <c r="F24" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E24)</f>
@@ -19432,7 +19308,7 @@
       </c>
       <c r="E25" s="91" t="str">
         <f>_xll.qlSimpleQuote(D25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS18M_Quote#0001</v>
+        <v>AUDOIS18M_Quote#0000</v>
       </c>
       <c r="F25" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E25)</f>
@@ -19497,7 +19373,7 @@
       </c>
       <c r="E26" s="91" t="str">
         <f>_xll.qlSimpleQuote(D26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS19M_Quote#0001</v>
+        <v>AUDOIS19M_Quote#0000</v>
       </c>
       <c r="F26" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E26)</f>
@@ -19562,7 +19438,7 @@
       </c>
       <c r="E27" s="91" t="str">
         <f>_xll.qlSimpleQuote(D27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS20M_Quote#0001</v>
+        <v>AUDOIS20M_Quote#0000</v>
       </c>
       <c r="F27" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E27)</f>
@@ -19627,7 +19503,7 @@
       </c>
       <c r="E28" s="91" t="str">
         <f>_xll.qlSimpleQuote(D28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS21M_Quote#0001</v>
+        <v>AUDOIS21M_Quote#0000</v>
       </c>
       <c r="F28" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E28)</f>
@@ -19692,7 +19568,7 @@
       </c>
       <c r="E29" s="91" t="str">
         <f>_xll.qlSimpleQuote(D29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS22M_Quote#0001</v>
+        <v>AUDOIS22M_Quote#0000</v>
       </c>
       <c r="F29" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E29)</f>
@@ -19757,7 +19633,7 @@
       </c>
       <c r="E30" s="91" t="str">
         <f>_xll.qlSimpleQuote(D30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS23M_Quote#0001</v>
+        <v>AUDOIS23M_Quote#0000</v>
       </c>
       <c r="F30" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E30)</f>
@@ -19822,7 +19698,7 @@
       </c>
       <c r="E31" s="91" t="str">
         <f>_xll.qlSimpleQuote(D31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS2Y_Quote#0001</v>
+        <v>AUDOIS2Y_Quote#0000</v>
       </c>
       <c r="F31" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E31)</f>
@@ -19887,7 +19763,7 @@
       </c>
       <c r="E32" s="91" t="str">
         <f>_xll.qlSimpleQuote(D32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS27M_Quote#0001</v>
+        <v>AUDOIS27M_Quote#0000</v>
       </c>
       <c r="F32" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E32)</f>
@@ -19952,7 +19828,7 @@
       </c>
       <c r="E33" s="91" t="str">
         <f>_xll.qlSimpleQuote(D33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS30M_Quote#0001</v>
+        <v>AUDOIS30M_Quote#0000</v>
       </c>
       <c r="F33" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E33)</f>
@@ -20017,7 +19893,7 @@
       </c>
       <c r="E34" s="91" t="str">
         <f>_xll.qlSimpleQuote(D34,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS33M_Quote#0001</v>
+        <v>AUDOIS33M_Quote#0000</v>
       </c>
       <c r="F34" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E34)</f>
@@ -20082,7 +19958,7 @@
       </c>
       <c r="E35" s="91" t="str">
         <f>_xll.qlSimpleQuote(D35,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS3Y_Quote#0001</v>
+        <v>AUDOIS3Y_Quote#0000</v>
       </c>
       <c r="F35" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E35)</f>
@@ -20147,7 +20023,7 @@
       </c>
       <c r="E36" s="91" t="str">
         <f>_xll.qlSimpleQuote(D36,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS39M_Quote#0001</v>
+        <v>AUDOIS39M_Quote#0000</v>
       </c>
       <c r="F36" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E36)</f>
@@ -20212,7 +20088,7 @@
       </c>
       <c r="E37" s="91" t="str">
         <f>_xll.qlSimpleQuote(D37,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS42M_Quote#0001</v>
+        <v>AUDOIS42M_Quote#0000</v>
       </c>
       <c r="F37" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E37)</f>
@@ -20277,7 +20153,7 @@
       </c>
       <c r="E38" s="91" t="str">
         <f>_xll.qlSimpleQuote(D38,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS45M_Quote#0001</v>
+        <v>AUDOIS45M_Quote#0000</v>
       </c>
       <c r="F38" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E38)</f>
@@ -20342,7 +20218,7 @@
       </c>
       <c r="E39" s="91" t="str">
         <f>_xll.qlSimpleQuote(D39,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS4Y_Quote#0001</v>
+        <v>AUDOIS4Y_Quote#0000</v>
       </c>
       <c r="F39" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E39)</f>
@@ -20407,7 +20283,7 @@
       </c>
       <c r="E40" s="91" t="str">
         <f>_xll.qlSimpleQuote(D40,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS51M_Quote#0001</v>
+        <v>AUDOIS51M_Quote#0000</v>
       </c>
       <c r="F40" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E40)</f>
@@ -20472,7 +20348,7 @@
       </c>
       <c r="E41" s="91" t="str">
         <f>_xll.qlSimpleQuote(D41,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS54M_Quote#0001</v>
+        <v>AUDOIS54M_Quote#0000</v>
       </c>
       <c r="F41" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E41)</f>
@@ -20537,7 +20413,7 @@
       </c>
       <c r="E42" s="91" t="str">
         <f>_xll.qlSimpleQuote(D42,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS57M_Quote#0001</v>
+        <v>AUDOIS57M_Quote#0000</v>
       </c>
       <c r="F42" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E42)</f>
@@ -20602,7 +20478,7 @@
       </c>
       <c r="E43" s="91" t="str">
         <f>_xll.qlSimpleQuote(D43,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS5Y_Quote#0001</v>
+        <v>AUDOIS5Y_Quote#0000</v>
       </c>
       <c r="F43" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E43)</f>
@@ -20667,7 +20543,7 @@
       </c>
       <c r="E44" s="91" t="str">
         <f>_xll.qlSimpleQuote(D44,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS6Y_Quote#0001</v>
+        <v>AUDOIS6Y_Quote#0000</v>
       </c>
       <c r="F44" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E44)</f>
@@ -20732,7 +20608,7 @@
       </c>
       <c r="E45" s="91" t="str">
         <f>_xll.qlSimpleQuote(D45,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS7Y_Quote#0001</v>
+        <v>AUDOIS7Y_Quote#0000</v>
       </c>
       <c r="F45" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E45)</f>
@@ -20797,7 +20673,7 @@
       </c>
       <c r="E46" s="91" t="str">
         <f>_xll.qlSimpleQuote(D46,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS8Y_Quote#0001</v>
+        <v>AUDOIS8Y_Quote#0000</v>
       </c>
       <c r="F46" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E46)</f>
@@ -20862,7 +20738,7 @@
       </c>
       <c r="E47" s="91" t="str">
         <f>_xll.qlSimpleQuote(D47,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS9Y_Quote#0001</v>
+        <v>AUDOIS9Y_Quote#0000</v>
       </c>
       <c r="F47" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E47)</f>
@@ -20927,7 +20803,7 @@
       </c>
       <c r="E48" s="91" t="str">
         <f>_xll.qlSimpleQuote(D48,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS10Y_Quote#0001</v>
+        <v>AUDOIS10Y_Quote#0000</v>
       </c>
       <c r="F48" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E48)</f>
@@ -20992,7 +20868,7 @@
       </c>
       <c r="E49" s="91" t="str">
         <f>_xll.qlSimpleQuote(D49,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS12Y_Quote#0001</v>
+        <v>AUDOIS12Y_Quote#0000</v>
       </c>
       <c r="F49" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E49)</f>
@@ -21057,7 +20933,7 @@
       </c>
       <c r="E50" s="91" t="str">
         <f>_xll.qlSimpleQuote(D50,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS15Y_Quote#0001</v>
+        <v>AUDOIS15Y_Quote#0000</v>
       </c>
       <c r="F50" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E50)</f>
@@ -21122,7 +20998,7 @@
       </c>
       <c r="E51" s="91" t="str">
         <f>_xll.qlSimpleQuote(D51,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS20Y_Quote#0001</v>
+        <v>AUDOIS20Y_Quote#0000</v>
       </c>
       <c r="F51" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E51)</f>
@@ -21187,7 +21063,7 @@
       </c>
       <c r="E52" s="91" t="str">
         <f>_xll.qlSimpleQuote(D52,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS25Y_Quote#0001</v>
+        <v>AUDOIS25Y_Quote#0000</v>
       </c>
       <c r="F52" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E52)</f>
@@ -21252,7 +21128,7 @@
       </c>
       <c r="E53" s="91" t="str">
         <f>_xll.qlSimpleQuote(D53,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS27Y_Quote#0001</v>
+        <v>AUDOIS27Y_Quote#0000</v>
       </c>
       <c r="F53" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E53)</f>
@@ -21317,7 +21193,7 @@
       </c>
       <c r="E54" s="91" t="str">
         <f>_xll.qlSimpleQuote(D54,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS30Y_Quote#0001</v>
+        <v>AUDOIS30Y_Quote#0000</v>
       </c>
       <c r="F54" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E54)</f>
@@ -21382,7 +21258,7 @@
       </c>
       <c r="E55" s="91" t="str">
         <f>_xll.qlSimpleQuote(D55,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS35Y_Quote#0001</v>
+        <v>AUDOIS35Y_Quote#0000</v>
       </c>
       <c r="F55" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E55)</f>
@@ -21447,7 +21323,7 @@
       </c>
       <c r="E56" s="91" t="str">
         <f>_xll.qlSimpleQuote(D56,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS40Y_Quote#0001</v>
+        <v>AUDOIS40Y_Quote#0000</v>
       </c>
       <c r="F56" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E56)</f>
@@ -21512,7 +21388,7 @@
       </c>
       <c r="E57" s="91" t="str">
         <f>_xll.qlSimpleQuote(D57,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS45Y_Quote#0001</v>
+        <v>AUDOIS45Y_Quote#0000</v>
       </c>
       <c r="F57" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E57)</f>
@@ -21577,7 +21453,7 @@
       </c>
       <c r="E58" s="91" t="str">
         <f>_xll.qlSimpleQuote(D58,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOIS50Y_Quote#0001</v>
+        <v>AUDOIS50Y_Quote#0000</v>
       </c>
       <c r="F58" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(E58)</f>
@@ -21902,7 +21778,7 @@
       <c r="X3" s="51"/>
       <c r="Y3" s="123">
         <f>_xll.ohTrigger(Y5:Y24)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="90"/>
     </row>
@@ -21931,7 +21807,7 @@
       <c r="N4" s="50"/>
       <c r="O4" s="174" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
       </c>
       <c r="P4" s="171" t="s">
         <v>130</v>
@@ -21978,7 +21854,7 @@
       </c>
       <c r="F5" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B5&amp;$C5&amp;$D5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOISSW_Quote#0001</v>
+        <v>AUDMTOISSW_Quote#0000</v>
       </c>
       <c r="G5" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -22051,7 +21927,7 @@
       </c>
       <c r="F6" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B6&amp;$C6&amp;$D6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS2W_Quote#0001</v>
+        <v>AUDMTOIS2W_Quote#0000</v>
       </c>
       <c r="G6" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -22122,7 +21998,7 @@
       </c>
       <c r="F7" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B7&amp;$C7&amp;$D7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS3W_Quote#0001</v>
+        <v>AUDMTOIS3W_Quote#0000</v>
       </c>
       <c r="G7" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -22193,7 +22069,7 @@
       </c>
       <c r="F8" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B8&amp;$C8&amp;$D8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS1M_Quote#0001</v>
+        <v>AUDMTOIS1M_Quote#0000</v>
       </c>
       <c r="G8" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -22264,7 +22140,7 @@
       </c>
       <c r="F9" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B9&amp;$C9&amp;$D9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS2M_Quote#0001</v>
+        <v>AUDMTOIS2M_Quote#0000</v>
       </c>
       <c r="G9" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -22335,7 +22211,7 @@
       </c>
       <c r="F10" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B10&amp;$C10&amp;$D10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS3M_Quote#0001</v>
+        <v>AUDMTOIS3M_Quote#0000</v>
       </c>
       <c r="G10" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -22406,7 +22282,7 @@
       </c>
       <c r="F11" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B11&amp;$C11&amp;$D11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS4M_Quote#0001</v>
+        <v>AUDMTOIS4M_Quote#0000</v>
       </c>
       <c r="G11" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -22477,7 +22353,7 @@
       </c>
       <c r="F12" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B12&amp;$C12&amp;$D12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS5M_Quote#0001</v>
+        <v>AUDMTOIS5M_Quote#0000</v>
       </c>
       <c r="G12" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -22548,7 +22424,7 @@
       </c>
       <c r="F13" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B13&amp;$C13&amp;$D13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS6M_Quote#0001</v>
+        <v>AUDMTOIS6M_Quote#0000</v>
       </c>
       <c r="G13" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -22619,7 +22495,7 @@
       </c>
       <c r="F14" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B14&amp;$C14&amp;$D14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS7M_Quote#0001</v>
+        <v>AUDMTOIS7M_Quote#0000</v>
       </c>
       <c r="G14" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -22690,7 +22566,7 @@
       </c>
       <c r="F15" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B15&amp;$C15&amp;$D15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS8M_Quote#0001</v>
+        <v>AUDMTOIS8M_Quote#0000</v>
       </c>
       <c r="G15" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -22761,7 +22637,7 @@
       </c>
       <c r="F16" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B16&amp;$C16&amp;$D16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS9M_Quote#0001</v>
+        <v>AUDMTOIS9M_Quote#0000</v>
       </c>
       <c r="G16" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -22832,7 +22708,7 @@
       </c>
       <c r="F17" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B17&amp;$C17&amp;$D17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS10M_Quote#0001</v>
+        <v>AUDMTOIS10M_Quote#0000</v>
       </c>
       <c r="G17" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -22903,7 +22779,7 @@
       </c>
       <c r="F18" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B18&amp;$C18&amp;$D18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS11M_Quote#0001</v>
+        <v>AUDMTOIS11M_Quote#0000</v>
       </c>
       <c r="G18" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -22974,7 +22850,7 @@
       </c>
       <c r="F19" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B19&amp;$C19&amp;$D19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS1Y_Quote#0001</v>
+        <v>AUDMTOIS1Y_Quote#0000</v>
       </c>
       <c r="G19" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -23045,7 +22921,7 @@
       </c>
       <c r="F20" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B20&amp;$C20&amp;$D20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS13M_Quote#0001</v>
+        <v>AUDMTOIS13M_Quote#0000</v>
       </c>
       <c r="G20" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -23116,7 +22992,7 @@
       </c>
       <c r="F21" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B21&amp;$C21&amp;$D21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS14M_Quote#0001</v>
+        <v>AUDMTOIS14M_Quote#0000</v>
       </c>
       <c r="G21" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -23187,7 +23063,7 @@
       </c>
       <c r="F22" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B22&amp;$C22&amp;$D22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS15M_Quote#0001</v>
+        <v>AUDMTOIS15M_Quote#0000</v>
       </c>
       <c r="G22" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -23258,7 +23134,7 @@
       </c>
       <c r="F23" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B23&amp;$C23&amp;$D23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS16M_Quote#0001</v>
+        <v>AUDMTOIS16M_Quote#0000</v>
       </c>
       <c r="G23" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -23329,7 +23205,7 @@
       </c>
       <c r="F24" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B24&amp;$C24&amp;$D24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS17M_Quote#0001</v>
+        <v>AUDMTOIS17M_Quote#0000</v>
       </c>
       <c r="G24" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -23400,7 +23276,7 @@
       </c>
       <c r="F25" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B25&amp;$C25&amp;$D25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS18M_Quote#0001</v>
+        <v>AUDMTOIS18M_Quote#0000</v>
       </c>
       <c r="G25" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -23471,7 +23347,7 @@
       </c>
       <c r="F26" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B26&amp;$C26&amp;$D26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS19M_Quote#0001</v>
+        <v>AUDMTOIS19M_Quote#0000</v>
       </c>
       <c r="G26" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -23542,7 +23418,7 @@
       </c>
       <c r="F27" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B27&amp;$C27&amp;$D27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS20M_Quote#0001</v>
+        <v>AUDMTOIS20M_Quote#0000</v>
       </c>
       <c r="G27" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -23613,7 +23489,7 @@
       </c>
       <c r="F28" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B28&amp;$C28&amp;$D28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS21M_Quote#0001</v>
+        <v>AUDMTOIS21M_Quote#0000</v>
       </c>
       <c r="G28" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -23684,7 +23560,7 @@
       </c>
       <c r="F29" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B29&amp;$C29&amp;$D29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS22M_Quote#0001</v>
+        <v>AUDMTOIS22M_Quote#0000</v>
       </c>
       <c r="G29" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -23755,7 +23631,7 @@
       </c>
       <c r="F30" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B30&amp;$C30&amp;$D30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS23M_Quote#0001</v>
+        <v>AUDMTOIS23M_Quote#0000</v>
       </c>
       <c r="G30" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -23826,7 +23702,7 @@
       </c>
       <c r="F31" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B31&amp;$C31&amp;$D31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS2Y_Quote#0001</v>
+        <v>AUDMTOIS2Y_Quote#0000</v>
       </c>
       <c r="G31" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -23897,7 +23773,7 @@
       </c>
       <c r="F32" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B32&amp;$C32&amp;$D32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS27M_Quote#0001</v>
+        <v>AUDMTOIS27M_Quote#0000</v>
       </c>
       <c r="G32" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -23968,7 +23844,7 @@
       </c>
       <c r="F33" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B33&amp;$C33&amp;$D33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS30M_Quote#0001</v>
+        <v>AUDMTOIS30M_Quote#0000</v>
       </c>
       <c r="G33" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -24039,7 +23915,7 @@
       </c>
       <c r="F34" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B34&amp;$C34&amp;$D34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS33M_Quote#0001</v>
+        <v>AUDMTOIS33M_Quote#0000</v>
       </c>
       <c r="G34" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -24110,7 +23986,7 @@
       </c>
       <c r="F35" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B35&amp;$C35&amp;$D35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS3Y_Quote#0001</v>
+        <v>AUDMTOIS3Y_Quote#0000</v>
       </c>
       <c r="G35" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -24181,7 +24057,7 @@
       </c>
       <c r="F36" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B36&amp;$C36&amp;$D36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS39M_Quote#0001</v>
+        <v>AUDMTOIS39M_Quote#0000</v>
       </c>
       <c r="G36" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -24252,7 +24128,7 @@
       </c>
       <c r="F37" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B37&amp;$C37&amp;$D37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS42M_Quote#0001</v>
+        <v>AUDMTOIS42M_Quote#0000</v>
       </c>
       <c r="G37" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -24323,7 +24199,7 @@
       </c>
       <c r="F38" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B38&amp;$C38&amp;$D38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS45M_Quote#0001</v>
+        <v>AUDMTOIS45M_Quote#0000</v>
       </c>
       <c r="G38" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -24394,7 +24270,7 @@
       </c>
       <c r="F39" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B39&amp;$C39&amp;$D39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS4Y_Quote#0001</v>
+        <v>AUDMTOIS4Y_Quote#0000</v>
       </c>
       <c r="G39" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -24465,7 +24341,7 @@
       </c>
       <c r="F40" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B40&amp;$C40&amp;$D40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS51M_Quote#0001</v>
+        <v>AUDMTOIS51M_Quote#0000</v>
       </c>
       <c r="G40" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -24536,7 +24412,7 @@
       </c>
       <c r="F41" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B41&amp;$C41&amp;$D41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS54M_Quote#0001</v>
+        <v>AUDMTOIS54M_Quote#0000</v>
       </c>
       <c r="G41" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -24607,7 +24483,7 @@
       </c>
       <c r="F42" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B42&amp;$C42&amp;$D42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS57M_Quote#0001</v>
+        <v>AUDMTOIS57M_Quote#0000</v>
       </c>
       <c r="G42" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -24678,7 +24554,7 @@
       </c>
       <c r="F43" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B43&amp;$C43&amp;$D43&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS5Y_Quote#0001</v>
+        <v>AUDMTOIS5Y_Quote#0000</v>
       </c>
       <c r="G43" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -24749,7 +24625,7 @@
       </c>
       <c r="F44" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B44&amp;$C44&amp;$D44&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS6Y_Quote#0001</v>
+        <v>AUDMTOIS6Y_Quote#0000</v>
       </c>
       <c r="G44" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -24820,7 +24696,7 @@
       </c>
       <c r="F45" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B45&amp;$C45&amp;$D45&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS7Y_Quote#0001</v>
+        <v>AUDMTOIS7Y_Quote#0000</v>
       </c>
       <c r="G45" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -24891,7 +24767,7 @@
       </c>
       <c r="F46" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B46&amp;$C46&amp;$D46&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS8Y_Quote#0001</v>
+        <v>AUDMTOIS8Y_Quote#0000</v>
       </c>
       <c r="G46" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -24962,7 +24838,7 @@
       </c>
       <c r="F47" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B47&amp;$C47&amp;$D47&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS9Y_Quote#0001</v>
+        <v>AUDMTOIS9Y_Quote#0000</v>
       </c>
       <c r="G47" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -25033,7 +24909,7 @@
       </c>
       <c r="F48" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B48&amp;$C48&amp;$D48&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS10Y_Quote#0001</v>
+        <v>AUDMTOIS10Y_Quote#0000</v>
       </c>
       <c r="G48" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -25104,7 +24980,7 @@
       </c>
       <c r="F49" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B49&amp;$C49&amp;$D49&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS12Y_Quote#0001</v>
+        <v>AUDMTOIS12Y_Quote#0000</v>
       </c>
       <c r="G49" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -25175,7 +25051,7 @@
       </c>
       <c r="F50" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B50&amp;$C50&amp;$D50&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS15Y_Quote#0001</v>
+        <v>AUDMTOIS15Y_Quote#0000</v>
       </c>
       <c r="G50" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -25246,7 +25122,7 @@
       </c>
       <c r="F51" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B51&amp;$C51&amp;$D51&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS20Y_Quote#0001</v>
+        <v>AUDMTOIS20Y_Quote#0000</v>
       </c>
       <c r="G51" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -25317,7 +25193,7 @@
       </c>
       <c r="F52" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B52&amp;$C52&amp;$D52&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS25Y_Quote#0001</v>
+        <v>AUDMTOIS25Y_Quote#0000</v>
       </c>
       <c r="G52" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -25388,7 +25264,7 @@
       </c>
       <c r="F53" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B53&amp;$C53&amp;$D53&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS27Y_Quote#0001</v>
+        <v>AUDMTOIS27Y_Quote#0000</v>
       </c>
       <c r="G53" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -25459,7 +25335,7 @@
       </c>
       <c r="F54" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B54&amp;$C54&amp;$D54&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS30Y_Quote#0001</v>
+        <v>AUDMTOIS30Y_Quote#0000</v>
       </c>
       <c r="G54" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -25530,7 +25406,7 @@
       </c>
       <c r="F55" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B55&amp;$C55&amp;$D55&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS35Y_Quote#0001</v>
+        <v>AUDMTOIS35Y_Quote#0000</v>
       </c>
       <c r="G55" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -25601,7 +25477,7 @@
       </c>
       <c r="F56" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B56&amp;$C56&amp;$D56&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS40Y_Quote#0001</v>
+        <v>AUDMTOIS40Y_Quote#0000</v>
       </c>
       <c r="G56" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -25672,7 +25548,7 @@
       </c>
       <c r="F57" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B57&amp;$C57&amp;$D57&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS45Y_Quote#0001</v>
+        <v>AUDMTOIS45Y_Quote#0000</v>
       </c>
       <c r="G57" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -25743,7 +25619,7 @@
       </c>
       <c r="F58" s="91" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B58&amp;$C58&amp;$D58&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDMTOIS50Y_Quote#0001</v>
+        <v>AUDMTOIS50Y_Quote#0000</v>
       </c>
       <c r="G58" s="10" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -26062,7 +25938,7 @@
       <c r="Q3" s="124"/>
       <c r="R3" s="123">
         <f>_xll.ohTrigger(R5:R18)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S3" s="90"/>
       <c r="T3" s="3"/>
@@ -26092,7 +25968,7 @@
       <c r="I4" s="120"/>
       <c r="J4" s="98" t="str">
         <f>_xll.RData(J6:J22,K4:L4,,ReutersRtMode,,K6)</f>
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
       </c>
       <c r="K4" s="98" t="s">
         <v>130</v>
@@ -26133,7 +26009,7 @@
       </c>
       <c r="D5" s="36" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDOND_Quote#0001</v>
+        <v>AUDOND_Quote#0000</v>
       </c>
       <c r="E5" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -26191,7 +26067,7 @@
       </c>
       <c r="D6" s="36" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDTND_Quote#0001</v>
+        <v>AUDTND_Quote#0000</v>
       </c>
       <c r="E6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -26247,7 +26123,7 @@
       </c>
       <c r="D7" s="36" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSND_Quote#0001</v>
+        <v>AUDSND_Quote#0000</v>
       </c>
       <c r="E7" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -26302,7 +26178,7 @@
       </c>
       <c r="D8" s="36" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDSWD_Quote#0001</v>
+        <v>AUDSWD_Quote#0000</v>
       </c>
       <c r="E8" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -26357,7 +26233,7 @@
       </c>
       <c r="D9" s="36" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD2WD_Quote#0001</v>
+        <v>AUD2WD_Quote#0000</v>
       </c>
       <c r="E9" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -26412,7 +26288,7 @@
       </c>
       <c r="D10" s="36" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3WD_Quote#0001</v>
+        <v>AUD3WD_Quote#0000</v>
       </c>
       <c r="E10" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -26467,7 +26343,7 @@
       </c>
       <c r="D11" s="36" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1MD_Quote#0001</v>
+        <v>AUD1MD_Quote#0000</v>
       </c>
       <c r="E11" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -26522,7 +26398,7 @@
       </c>
       <c r="D12" s="36" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD2MD_Quote#0001</v>
+        <v>AUD2MD_Quote#0000</v>
       </c>
       <c r="E12" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -26577,7 +26453,7 @@
       </c>
       <c r="D13" s="36" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3MD_Quote#0001</v>
+        <v>AUD3MD_Quote#0000</v>
       </c>
       <c r="E13" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -26632,7 +26508,7 @@
       </c>
       <c r="D14" s="36" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD4MD_Quote#0001</v>
+        <v>AUD4MD_Quote#0000</v>
       </c>
       <c r="E14" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -26687,7 +26563,7 @@
       </c>
       <c r="D15" s="36" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD5MD_Quote#0001</v>
+        <v>AUD5MD_Quote#0000</v>
       </c>
       <c r="E15" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -26742,7 +26618,7 @@
       </c>
       <c r="D16" s="36" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD6MD_Quote#0001</v>
+        <v>AUD6MD_Quote#0000</v>
       </c>
       <c r="E16" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -26797,7 +26673,7 @@
       </c>
       <c r="D17" s="36" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD7MD_Quote#0001</v>
+        <v>AUD7MD_Quote#0000</v>
       </c>
       <c r="E17" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -26852,7 +26728,7 @@
       </c>
       <c r="D18" s="36" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD8MD_Quote#0001</v>
+        <v>AUD8MD_Quote#0000</v>
       </c>
       <c r="E18" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -26907,7 +26783,7 @@
       </c>
       <c r="D19" s="36" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD9MD_Quote#0001</v>
+        <v>AUD9MD_Quote#0000</v>
       </c>
       <c r="E19" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -26962,7 +26838,7 @@
       </c>
       <c r="D20" s="36" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD10MD_Quote#0001</v>
+        <v>AUD10MD_Quote#0000</v>
       </c>
       <c r="E20" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -27017,7 +26893,7 @@
       </c>
       <c r="D21" s="36" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD11MD_Quote#0001</v>
+        <v>AUD11MD_Quote#0000</v>
       </c>
       <c r="E21" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -27072,7 +26948,7 @@
       </c>
       <c r="D22" s="36" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1YD_Quote#0001</v>
+        <v>AUD1YD_Quote#0000</v>
       </c>
       <c r="E22" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -27364,7 +27240,7 @@
       <c r="W3" s="51"/>
       <c r="X3" s="123">
         <f>_xll.ohTrigger(X5:X19)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="90"/>
       <c r="Z3" s="3"/>
@@ -27391,7 +27267,7 @@
       <c r="M4" s="29"/>
       <c r="N4" s="307" t="str">
         <f>_xll.RData(N5:N19,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
       </c>
       <c r="O4" s="121" t="s">
         <v>130</v>
@@ -27437,7 +27313,7 @@
       </c>
       <c r="E5" s="47" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1x4F_Quote#0001</v>
+        <v>AUD1x4F_Quote#0000</v>
       </c>
       <c r="F5" s="263" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -27511,7 +27387,7 @@
       </c>
       <c r="E6" s="36" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD2x5F_Quote#0001</v>
+        <v>AUD2x5F_Quote#0000</v>
       </c>
       <c r="F6" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -27583,7 +27459,7 @@
       </c>
       <c r="E7" s="36" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3x6F_Quote#0001</v>
+        <v>AUD3x6F_Quote#0000</v>
       </c>
       <c r="F7" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -27655,7 +27531,7 @@
       </c>
       <c r="E8" s="36" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD4x7F_Quote#0001</v>
+        <v>AUD4x7F_Quote#0000</v>
       </c>
       <c r="F8" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -27727,7 +27603,7 @@
       </c>
       <c r="E9" s="36" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD5x8F_Quote#0001</v>
+        <v>AUD5x8F_Quote#0000</v>
       </c>
       <c r="F9" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -27799,7 +27675,7 @@
       </c>
       <c r="E10" s="49" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD6x9F_Quote#0001</v>
+        <v>AUD6x9F_Quote#0000</v>
       </c>
       <c r="F10" s="264" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -27872,7 +27748,7 @@
       </c>
       <c r="E11" s="261" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD1x7F_Quote#0001</v>
+        <v>AUD1x7F_Quote#0000</v>
       </c>
       <c r="F11" s="265" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -27945,7 +27821,7 @@
       </c>
       <c r="E12" s="36" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD2x8F_Quote#0001</v>
+        <v>AUD2x8F_Quote#0000</v>
       </c>
       <c r="F12" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -28018,7 +27894,7 @@
       </c>
       <c r="E13" s="36" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD3x9F_Quote#0001</v>
+        <v>AUD3x9F_Quote#0000</v>
       </c>
       <c r="F13" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -28091,7 +27967,7 @@
       </c>
       <c r="E14" s="36" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD4x10F_Quote#0001</v>
+        <v>AUD4x10F_Quote#0000</v>
       </c>
       <c r="F14" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -28164,7 +28040,7 @@
       </c>
       <c r="E15" s="36" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD5x11F_Quote#0001</v>
+        <v>AUD5x11F_Quote#0000</v>
       </c>
       <c r="F15" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -28237,7 +28113,7 @@
       </c>
       <c r="E16" s="36" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD6x12F_Quote#0001</v>
+        <v>AUD6x12F_Quote#0000</v>
       </c>
       <c r="F16" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -28310,7 +28186,7 @@
       </c>
       <c r="E17" s="36" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD9x15F_Quote#0001</v>
+        <v>AUD9x15F_Quote#0000</v>
       </c>
       <c r="F17" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -28383,7 +28259,7 @@
       </c>
       <c r="E18" s="36" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD12x18F_Quote#0001</v>
+        <v>AUD12x18F_Quote#0000</v>
       </c>
       <c r="F18" s="262" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -28456,7 +28332,7 @@
       </c>
       <c r="E19" s="49" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUD18x24F_Quote#0001</v>
+        <v>AUD18x24F_Quote#0000</v>
       </c>
       <c r="F19" s="264" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -28636,7 +28512,7 @@
       <c r="Y1" s="51"/>
       <c r="Z1" s="123">
         <f>_xll.ohTrigger(Z3:Z14)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA1" s="168"/>
       <c r="AB1" s="3"/>
@@ -28696,7 +28572,7 @@
       </c>
       <c r="O2" s="98" t="str">
         <f>_xll.RData(O3:O14,P2:T2,"RTFEED:IDN",ReutersRtMode,,P3)</f>
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
       </c>
       <c r="P2" s="143" t="s">
         <v>150</v>
@@ -28754,7 +28630,7 @@
       </c>
       <c r="F3" s="63" t="str">
         <f>_xll.qlSimpleQuote(E3,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MU4_Quote#0001</v>
+        <v>AUDFUT1MU4_Quote#0000</v>
       </c>
       <c r="G3" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -28862,7 +28738,7 @@
       </c>
       <c r="F4" s="56" t="str">
         <f>_xll.qlSimpleQuote(E4,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MV4_Quote#0001</v>
+        <v>AUDFUT1MV4_Quote#0000</v>
       </c>
       <c r="G4" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -28947,7 +28823,7 @@
       </c>
       <c r="AO4" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN4)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MU4_Quote'</v>
       </c>
       <c r="AP4" s="168"/>
     </row>
@@ -28968,7 +28844,7 @@
       </c>
       <c r="F5" s="56" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MX4_Quote#0001</v>
+        <v>AUDFUT1MX4_Quote#0000</v>
       </c>
       <c r="G5" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -29052,7 +28928,7 @@
       </c>
       <c r="AO5" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN5)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MV4_Quote'</v>
       </c>
       <c r="AP5" s="168"/>
     </row>
@@ -29073,7 +28949,7 @@
       </c>
       <c r="F6" s="56" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MZ4_Quote#0001</v>
+        <v>AUDFUT1MZ4_Quote#0000</v>
       </c>
       <c r="G6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -29157,7 +29033,7 @@
       </c>
       <c r="AO6" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN6)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MX4_Quote'</v>
       </c>
       <c r="AP6" s="168"/>
       <c r="AQ6" s="210"/>
@@ -29179,7 +29055,7 @@
       </c>
       <c r="F7" s="56" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MF5_Quote#0001</v>
+        <v>AUDFUT1MF5_Quote#0000</v>
       </c>
       <c r="G7" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -29263,7 +29139,7 @@
       </c>
       <c r="AO7" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN7)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MZ4_Quote'</v>
       </c>
       <c r="AP7" s="168"/>
     </row>
@@ -29284,7 +29160,7 @@
       </c>
       <c r="F8" s="56" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MG5_Quote#0001</v>
+        <v>AUDFUT1MG5_Quote#0000</v>
       </c>
       <c r="G8" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -29368,7 +29244,7 @@
       </c>
       <c r="AO8" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN8)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MF5_Quote'</v>
       </c>
       <c r="AP8" s="168"/>
     </row>
@@ -29389,7 +29265,7 @@
       </c>
       <c r="F9" s="56" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MH5_Quote#0001</v>
+        <v>AUDFUT1MH5_Quote#0000</v>
       </c>
       <c r="G9" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -29473,7 +29349,7 @@
       </c>
       <c r="AO9" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN9)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MG5_Quote'</v>
       </c>
       <c r="AP9" s="168"/>
     </row>
@@ -29494,7 +29370,7 @@
       </c>
       <c r="F10" s="56" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MJ5_Quote#0001</v>
+        <v>AUDFUT1MJ5_Quote#0000</v>
       </c>
       <c r="G10" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -29578,7 +29454,7 @@
       </c>
       <c r="AO10" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN10)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MH5_Quote'</v>
       </c>
       <c r="AP10" s="168"/>
     </row>
@@ -29599,7 +29475,7 @@
       </c>
       <c r="F11" s="56" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MK5_Quote#0001</v>
+        <v>AUDFUT1MK5_Quote#0000</v>
       </c>
       <c r="G11" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -29683,7 +29559,7 @@
       </c>
       <c r="AO11" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN11)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MJ5_Quote'</v>
       </c>
       <c r="AP11" s="168"/>
     </row>
@@ -29704,7 +29580,7 @@
       </c>
       <c r="F12" s="56" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MM5_Quote#0001</v>
+        <v>AUDFUT1MM5_Quote#0000</v>
       </c>
       <c r="G12" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -29788,7 +29664,7 @@
       </c>
       <c r="AO12" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN12)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MK5_Quote'</v>
       </c>
       <c r="AP12" s="168"/>
     </row>
@@ -29809,7 +29685,7 @@
       </c>
       <c r="F13" s="56" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MN5_Quote#0001</v>
+        <v>AUDFUT1MN5_Quote#0000</v>
       </c>
       <c r="G13" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -29893,7 +29769,7 @@
       </c>
       <c r="AO13" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN13)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MM5_Quote'</v>
       </c>
       <c r="AP13" s="168"/>
     </row>
@@ -29914,7 +29790,7 @@
       </c>
       <c r="F14" s="56" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MQ5_Quote#0001</v>
+        <v>AUDFUT1MQ5_Quote#0000</v>
       </c>
       <c r="G14" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -29998,7 +29874,7 @@
       </c>
       <c r="AO14" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN14)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MN5_Quote'</v>
       </c>
       <c r="AP14" s="168"/>
     </row>
@@ -30058,7 +29934,7 @@
       </c>
       <c r="AO15" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN15)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'Volatility' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MQ5_Quote'</v>
       </c>
       <c r="AP15" s="168"/>
     </row>
@@ -30171,7 +30047,7 @@
       </c>
       <c r="AH1" s="96" t="str">
         <f>FuturesHWConvAdj!C5</f>
-        <v>AUDHW_Volatility_Quote#0001</v>
+        <v>AUDHW_Volatility_Quote#0000</v>
       </c>
       <c r="AI1" s="51"/>
       <c r="AJ1" s="9"/>
@@ -30213,7 +30089,7 @@
       </c>
       <c r="AH2" s="96" t="str">
         <f>FuturesHWConvAdj!C6</f>
-        <v>AUDHW_MeanReversion_Quote#0001</v>
+        <v>AUDHW_MeanReversion_Quote#0000</v>
       </c>
       <c r="AI2" s="51"/>
       <c r="AJ2" s="9"/>
@@ -30248,7 +30124,7 @@
       <c r="Y3" s="51"/>
       <c r="Z3" s="123">
         <f>_xll.ohTrigger(Z5:Z46)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="168"/>
       <c r="AB3" s="3"/>
@@ -30261,7 +30137,7 @@
       </c>
       <c r="AH3" s="96" t="str">
         <f>BBSW!K9</f>
-        <v>AudBBSW3M#0001</v>
+        <v>AudBBSW3M#0000</v>
       </c>
       <c r="AI3" s="95" t="s">
         <v>17</v>
@@ -30307,7 +30183,7 @@
       </c>
       <c r="O4" s="174" t="str">
         <f>_xll.RData(O5:O46,P4:T4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Paused at 16:28:15</v>
+        <v>On Pause</v>
       </c>
       <c r="P4" s="171" t="s">
         <v>150</v>
@@ -30382,7 +30258,7 @@
       </c>
       <c r="F5" s="63" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU4_Quote#0001</v>
+        <v>AUDFUT3MU4_Quote#0000</v>
       </c>
       <c r="G5" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -30459,7 +30335,7 @@
       </c>
       <c r="AH5" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG5,IborIndex,AF5,F5,Volatility,MeanReversion,Permanent,AND(ISERROR(Z5),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU4ConvAdj_Quote#0011</v>
+        <v>AUDFUT3MU4ConvAdj_Quote#0000</v>
       </c>
       <c r="AI5" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH5)</f>
@@ -30484,7 +30360,7 @@
       </c>
       <c r="F6" s="56" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MV4_Quote#0001</v>
+        <v>AUDFUT3MV4_Quote#0000</v>
       </c>
       <c r="G6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -30556,7 +30432,7 @@
       </c>
       <c r="AH6" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG6,IborIndex,AF6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(Z6),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>AUDFUT3MV4ConvAdj_Quote#0011</v>
+        <v>AUDFUT3MV4ConvAdj_Quote#0000</v>
       </c>
       <c r="AI6" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH6)</f>
@@ -30581,7 +30457,7 @@
       </c>
       <c r="F7" s="56" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MX4_Quote#0001</v>
+        <v>AUDFUT3MX4_Quote#0000</v>
       </c>
       <c r="G7" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -30653,7 +30529,7 @@
       </c>
       <c r="AH7" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG7,IborIndex,AF7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(Z7),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>AUDFUT3MX4ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MX4ConvAdj_Quote#0000</v>
       </c>
       <c r="AI7" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH7)</f>
@@ -30678,7 +30554,7 @@
       </c>
       <c r="F8" s="56" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ4_Quote#0001</v>
+        <v>AUDFUT3MZ4_Quote#0000</v>
       </c>
       <c r="G8" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -30750,7 +30626,7 @@
       </c>
       <c r="AH8" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG8,IborIndex,AF8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(Z8),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ4ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MZ4ConvAdj_Quote#0000</v>
       </c>
       <c r="AI8" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH8)</f>
@@ -30775,7 +30651,7 @@
       </c>
       <c r="F9" s="56" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MF5_Quote#0001</v>
+        <v>AUDFUT3MF5_Quote#0000</v>
       </c>
       <c r="G9" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -30848,7 +30724,7 @@
       </c>
       <c r="AH9" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG9,IborIndex,AF9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(Z9),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>AUDFUT3MF5ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MF5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI9" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH9)</f>
@@ -30873,7 +30749,7 @@
       </c>
       <c r="F10" s="56" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MG5_Quote#0001</v>
+        <v>AUDFUT3MG5_Quote#0000</v>
       </c>
       <c r="G10" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -30945,7 +30821,7 @@
       </c>
       <c r="AH10" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG10,IborIndex,AF10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(Z10),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>AUDFUT3MG5ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MG5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI10" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH10)</f>
@@ -30970,7 +30846,7 @@
       </c>
       <c r="F11" s="56" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH5_Quote#0001</v>
+        <v>AUDFUT3MH5_Quote#0000</v>
       </c>
       <c r="G11" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -31042,7 +30918,7 @@
       </c>
       <c r="AH11" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG11,IborIndex,AF11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(Z11),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH5ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MH5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI11" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH11)</f>
@@ -31067,7 +30943,7 @@
       </c>
       <c r="F12" s="56" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MJ5_Quote#0001</v>
+        <v>AUDFUT3MJ5_Quote#0000</v>
       </c>
       <c r="G12" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -31139,7 +31015,7 @@
       </c>
       <c r="AH12" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG12,IborIndex,AF12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(Z12),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>AUDFUT3MJ5ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MJ5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI12" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH12)</f>
@@ -31164,7 +31040,7 @@
       </c>
       <c r="F13" s="56" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MK5_Quote#0001</v>
+        <v>AUDFUT3MK5_Quote#0000</v>
       </c>
       <c r="G13" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -31236,7 +31112,7 @@
       </c>
       <c r="AH13" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG13,IborIndex,AF13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(Z13),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>AUDFUT3MK5ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MK5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI13" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH13)</f>
@@ -31261,7 +31137,7 @@
       </c>
       <c r="F14" s="56" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM5_Quote#0001</v>
+        <v>AUDFUT3MM5_Quote#0000</v>
       </c>
       <c r="G14" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -31333,7 +31209,7 @@
       </c>
       <c r="AH14" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG14,IborIndex,AF14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(Z14),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM5ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MM5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI14" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH14)</f>
@@ -31358,7 +31234,7 @@
       </c>
       <c r="F15" s="56" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MN5_Quote#0001</v>
+        <v>AUDFUT3MN5_Quote#0000</v>
       </c>
       <c r="G15" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -31430,7 +31306,7 @@
       </c>
       <c r="AH15" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG15,IborIndex,AF15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(Z15),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>AUDFUT3MN5ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MN5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI15" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH15)</f>
@@ -31455,7 +31331,7 @@
       </c>
       <c r="F16" s="56" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MQ5_Quote#0001</v>
+        <v>AUDFUT3MQ5_Quote#0000</v>
       </c>
       <c r="G16" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -31527,7 +31403,7 @@
       </c>
       <c r="AH16" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG16,IborIndex,AF16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(Z16),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>AUDFUT3MQ5ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MQ5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI16" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH16)</f>
@@ -31552,7 +31428,7 @@
       </c>
       <c r="F17" s="56" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU5_Quote#0001</v>
+        <v>AUDFUT3MU5_Quote#0000</v>
       </c>
       <c r="G17" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -31624,7 +31500,7 @@
       </c>
       <c r="AH17" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG17,IborIndex,AF17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(Z17),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU5ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MU5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI17" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH17)</f>
@@ -31649,7 +31525,7 @@
       </c>
       <c r="F18" s="56" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ5_Quote#0001</v>
+        <v>AUDFUT3MZ5_Quote#0000</v>
       </c>
       <c r="G18" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -31721,7 +31597,7 @@
       </c>
       <c r="AH18" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG18,IborIndex,AF18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(Z18),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ5ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MZ5ConvAdj_Quote#0000</v>
       </c>
       <c r="AI18" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH18)</f>
@@ -31746,7 +31622,7 @@
       </c>
       <c r="F19" s="56" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH6_Quote#0001</v>
+        <v>AUDFUT3MH6_Quote#0000</v>
       </c>
       <c r="G19" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -31818,7 +31694,7 @@
       </c>
       <c r="AH19" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG19,IborIndex,AF19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(Z19),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH6ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MH6ConvAdj_Quote#0000</v>
       </c>
       <c r="AI19" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH19)</f>
@@ -31843,7 +31719,7 @@
       </c>
       <c r="F20" s="56" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM6_Quote#0001</v>
+        <v>AUDFUT3MM6_Quote#0000</v>
       </c>
       <c r="G20" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -31915,7 +31791,7 @@
       </c>
       <c r="AH20" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG20,IborIndex,AF20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(Z20),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM6ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MM6ConvAdj_Quote#0000</v>
       </c>
       <c r="AI20" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH20)</f>
@@ -31940,7 +31816,7 @@
       </c>
       <c r="F21" s="56" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU6_Quote#0001</v>
+        <v>AUDFUT3MU6_Quote#0000</v>
       </c>
       <c r="G21" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -32012,7 +31888,7 @@
       </c>
       <c r="AH21" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG21,IborIndex,AF21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(Z21),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU6ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MU6ConvAdj_Quote#0000</v>
       </c>
       <c r="AI21" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH21)</f>
@@ -32037,7 +31913,7 @@
       </c>
       <c r="F22" s="56" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ6_Quote#0001</v>
+        <v>AUDFUT3MZ6_Quote#0000</v>
       </c>
       <c r="G22" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -32109,7 +31985,7 @@
       </c>
       <c r="AH22" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG22,IborIndex,AF22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(Z22),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ6ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MZ6ConvAdj_Quote#0000</v>
       </c>
       <c r="AI22" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH22)</f>
@@ -32134,7 +32010,7 @@
       </c>
       <c r="F23" s="56" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH7_Quote#0001</v>
+        <v>AUDFUT3MH7_Quote#0000</v>
       </c>
       <c r="G23" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -32206,7 +32082,7 @@
       </c>
       <c r="AH23" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG23,IborIndex,AF23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(Z23),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH7ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MH7ConvAdj_Quote#0000</v>
       </c>
       <c r="AI23" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH23)</f>
@@ -32231,7 +32107,7 @@
       </c>
       <c r="F24" s="56" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM7_Quote#0001</v>
+        <v>AUDFUT3MM7_Quote#0000</v>
       </c>
       <c r="G24" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -32303,7 +32179,7 @@
       </c>
       <c r="AH24" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG24,IborIndex,AF24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(Z24),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM7ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MM7ConvAdj_Quote#0000</v>
       </c>
       <c r="AI24" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH24)</f>
@@ -32328,7 +32204,7 @@
       </c>
       <c r="F25" s="56" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU7_Quote#0001</v>
+        <v>AUDFUT3MU7_Quote#0000</v>
       </c>
       <c r="G25" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -32400,7 +32276,7 @@
       </c>
       <c r="AH25" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG25,IborIndex,AF25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(Z25),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU7ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MU7ConvAdj_Quote#0000</v>
       </c>
       <c r="AI25" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH25)</f>
@@ -32425,7 +32301,7 @@
       </c>
       <c r="F26" s="56" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ7_Quote#0001</v>
+        <v>AUDFUT3MZ7_Quote#0000</v>
       </c>
       <c r="G26" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -32497,7 +32373,7 @@
       </c>
       <c r="AH26" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG26,IborIndex,AF26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(Z26),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ7ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MZ7ConvAdj_Quote#0000</v>
       </c>
       <c r="AI26" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH26)</f>
@@ -32522,7 +32398,7 @@
       </c>
       <c r="F27" s="56" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH8_Quote#0001</v>
+        <v>AUDFUT3MH8_Quote#0000</v>
       </c>
       <c r="G27" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -32594,7 +32470,7 @@
       </c>
       <c r="AH27" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG27,IborIndex,AF27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(Z27),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH8ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MH8ConvAdj_Quote#0000</v>
       </c>
       <c r="AI27" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH27)</f>
@@ -32619,7 +32495,7 @@
       </c>
       <c r="F28" s="56" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM8_Quote#0001</v>
+        <v>AUDFUT3MM8_Quote#0000</v>
       </c>
       <c r="G28" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -32691,7 +32567,7 @@
       </c>
       <c r="AH28" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG28,IborIndex,AF28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(Z28),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM8ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MM8ConvAdj_Quote#0000</v>
       </c>
       <c r="AI28" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH28)</f>
@@ -32716,7 +32592,7 @@
       </c>
       <c r="F29" s="56" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU8_Quote#0001</v>
+        <v>AUDFUT3MU8_Quote#0000</v>
       </c>
       <c r="G29" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -32788,7 +32664,7 @@
       </c>
       <c r="AH29" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG29,IborIndex,AF29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(Z29),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU8ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MU8ConvAdj_Quote#0000</v>
       </c>
       <c r="AI29" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH29)</f>
@@ -32813,7 +32689,7 @@
       </c>
       <c r="F30" s="56" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ8_Quote#0001</v>
+        <v>AUDFUT3MZ8_Quote#0000</v>
       </c>
       <c r="G30" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -32885,7 +32761,7 @@
       </c>
       <c r="AH30" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG30,IborIndex,AF30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(Z30),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ8ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MZ8ConvAdj_Quote#0000</v>
       </c>
       <c r="AI30" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH30)</f>
@@ -32910,7 +32786,7 @@
       </c>
       <c r="F31" s="56" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH9_Quote#0001</v>
+        <v>AUDFUT3MH9_Quote#0000</v>
       </c>
       <c r="G31" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -32982,7 +32858,7 @@
       </c>
       <c r="AH31" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG31,IborIndex,AF31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(Z31),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH9ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MH9ConvAdj_Quote#0000</v>
       </c>
       <c r="AI31" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH31)</f>
@@ -33007,7 +32883,7 @@
       </c>
       <c r="F32" s="56" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM9_Quote#0001</v>
+        <v>AUDFUT3MM9_Quote#0000</v>
       </c>
       <c r="G32" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -33079,7 +32955,7 @@
       </c>
       <c r="AH32" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG32,IborIndex,AF32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(Z32),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM9ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MM9ConvAdj_Quote#0000</v>
       </c>
       <c r="AI32" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH32)</f>
@@ -33104,7 +32980,7 @@
       </c>
       <c r="F33" s="56" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU9_Quote#0001</v>
+        <v>AUDFUT3MU9_Quote#0000</v>
       </c>
       <c r="G33" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -33176,7 +33052,7 @@
       </c>
       <c r="AH33" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG33,IborIndex,AF33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(Z33),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU9ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MU9ConvAdj_Quote#0000</v>
       </c>
       <c r="AI33" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH33)</f>
@@ -33201,7 +33077,7 @@
       </c>
       <c r="F34" s="56" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ9_Quote#0001</v>
+        <v>AUDFUT3MZ9_Quote#0000</v>
       </c>
       <c r="G34" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -33273,7 +33149,7 @@
       </c>
       <c r="AH34" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG34,IborIndex,AF34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(Z34),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ9ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MZ9ConvAdj_Quote#0000</v>
       </c>
       <c r="AI34" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH34)</f>
@@ -33298,7 +33174,7 @@
       </c>
       <c r="F35" s="56" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH0_Quote#0001</v>
+        <v>AUDFUT3MH0_Quote#0000</v>
       </c>
       <c r="G35" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -33370,7 +33246,7 @@
       </c>
       <c r="AH35" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG35,IborIndex,AF35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(Z35),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH0ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MH0ConvAdj_Quote#0000</v>
       </c>
       <c r="AI35" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH35)</f>
@@ -33395,7 +33271,7 @@
       </c>
       <c r="F36" s="56" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM0_Quote#0001</v>
+        <v>AUDFUT3MM0_Quote#0000</v>
       </c>
       <c r="G36" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -33467,7 +33343,7 @@
       </c>
       <c r="AH36" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG36,IborIndex,AF36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(Z36),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM0ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MM0ConvAdj_Quote#0000</v>
       </c>
       <c r="AI36" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH36)</f>
@@ -33492,7 +33368,7 @@
       </c>
       <c r="F37" s="56" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU0_Quote#0001</v>
+        <v>AUDFUT3MU0_Quote#0000</v>
       </c>
       <c r="G37" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -33564,7 +33440,7 @@
       </c>
       <c r="AH37" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG37,IborIndex,AF37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(Z37),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU0ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MU0ConvAdj_Quote#0000</v>
       </c>
       <c r="AI37" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH37)</f>
@@ -33589,7 +33465,7 @@
       </c>
       <c r="F38" s="56" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ0_Quote#0001</v>
+        <v>AUDFUT3MZ0_Quote#0000</v>
       </c>
       <c r="G38" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -33661,7 +33537,7 @@
       </c>
       <c r="AH38" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG38,IborIndex,AF38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(Z38),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ0ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MZ0ConvAdj_Quote#0000</v>
       </c>
       <c r="AI38" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH38)</f>
@@ -33686,7 +33562,7 @@
       </c>
       <c r="F39" s="56" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH1_Quote#0001</v>
+        <v>AUDFUT3MH1_Quote#0000</v>
       </c>
       <c r="G39" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -33758,7 +33634,7 @@
       </c>
       <c r="AH39" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG39,IborIndex,AF39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(Z39),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH1ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MH1ConvAdj_Quote#0000</v>
       </c>
       <c r="AI39" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH39)</f>
@@ -33783,7 +33659,7 @@
       </c>
       <c r="F40" s="56" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM1_Quote#0001</v>
+        <v>AUDFUT3MM1_Quote#0000</v>
       </c>
       <c r="G40" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -33855,7 +33731,7 @@
       </c>
       <c r="AH40" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG40,IborIndex,AF40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(Z40),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM1ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MM1ConvAdj_Quote#0000</v>
       </c>
       <c r="AI40" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH40)</f>
@@ -33880,7 +33756,7 @@
       </c>
       <c r="F41" s="56" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU1_Quote#0001</v>
+        <v>AUDFUT3MU1_Quote#0000</v>
       </c>
       <c r="G41" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -33952,7 +33828,7 @@
       </c>
       <c r="AH41" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG41,IborIndex,AF41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(Z41),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU1ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MU1ConvAdj_Quote#0000</v>
       </c>
       <c r="AI41" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH41)</f>
@@ -33977,7 +33853,7 @@
       </c>
       <c r="F42" s="56" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ1_Quote#0001</v>
+        <v>AUDFUT3MZ1_Quote#0000</v>
       </c>
       <c r="G42" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -34049,7 +33925,7 @@
       </c>
       <c r="AH42" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG42,IborIndex,AF42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(Z42),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ1ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MZ1ConvAdj_Quote#0000</v>
       </c>
       <c r="AI42" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH42)</f>
@@ -34074,7 +33950,7 @@
       </c>
       <c r="F43" s="56" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH2_Quote#0001</v>
+        <v>AUDFUT3MH2_Quote#0000</v>
       </c>
       <c r="G43" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -34146,7 +34022,7 @@
       </c>
       <c r="AH43" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG43,IborIndex,AF43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(Z43),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH2ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MH2ConvAdj_Quote#0000</v>
       </c>
       <c r="AI43" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH43)</f>
@@ -34171,7 +34047,7 @@
       </c>
       <c r="F44" s="56" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM2_Quote#0001</v>
+        <v>AUDFUT3MM2_Quote#0000</v>
       </c>
       <c r="G44" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -34243,7 +34119,7 @@
       </c>
       <c r="AH44" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG44,IborIndex,AF44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(Z44),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM2ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MM2ConvAdj_Quote#0000</v>
       </c>
       <c r="AI44" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH44)</f>
@@ -34268,7 +34144,7 @@
       </c>
       <c r="F45" s="56" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU2_Quote#0001</v>
+        <v>AUDFUT3MU2_Quote#0000</v>
       </c>
       <c r="G45" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -34340,7 +34216,7 @@
       </c>
       <c r="AH45" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG45,IborIndex,AF45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(Z45),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU2ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MU2ConvAdj_Quote#0000</v>
       </c>
       <c r="AI45" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH45)</f>
@@ -34365,7 +34241,7 @@
       </c>
       <c r="F46" s="56" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ2_Quote#0001</v>
+        <v>AUDFUT3MZ2_Quote#0000</v>
       </c>
       <c r="G46" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -34437,7 +34313,7 @@
       </c>
       <c r="AH46" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AG46,IborIndex,AF46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(Z46),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ2ConvAdj_Quote#0009</v>
+        <v>AUDFUT3MZ2ConvAdj_Quote#0000</v>
       </c>
       <c r="AI46" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AH46)</f>

--- a/QuantLibXL/Data2/XLS/AUD_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/AUD_Market.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="227">
   <si>
     <t>Currency</t>
   </si>
@@ -2311,12 +2311,6 @@
     <xf numFmtId="0" fontId="23" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2340,6 +2334,12 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -2539,70 +2539,70 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:36:41</v>
         <stp/>
-        <stp>{93366650-DA37-4980-A0E5-00CFEA36E246}</stp>
+        <stp>{7EDD3F00-6A55-495A-B5B3-E3C3C31CF8CC}</stp>
+        <tr r="P4" s="12"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:36:41</v>
+        <stp/>
+        <stp>{12DEF0F7-D754-4889-9D9B-0AEF9901375E}</stp>
         <tr r="O4" s="65"/>
       </tp>
       <tp t="s">
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:36:41</v>
         <stp/>
-        <stp>{914E64FE-D1DA-4CA2-B797-3FBCD7F226DB}</stp>
+        <stp>{8E410231-4CB9-4905-8352-E3867CADCB1C}</stp>
+        <tr r="O2" s="17"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:36:41</v>
+        <stp/>
+        <stp>{562AD3F3-D45D-43E2-8528-87D191DFE4B4}</stp>
+        <tr r="J4" s="15"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:36:41</v>
+        <stp/>
+        <stp>{AD5280EF-47F9-4172-BBEC-771CFE8ED849}</stp>
+        <tr r="N4" s="16"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:36:41</v>
+        <stp/>
+        <stp>{56E1656B-AD23-4C2F-A0FE-C881C2DF577C}</stp>
         <tr r="Q5" s="64"/>
       </tp>
       <tp t="s">
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:36:41</v>
         <stp/>
-        <stp>{CE79DD91-9999-4DBC-9A70-42092936031C}</stp>
-        <tr r="N4" s="16"/>
+        <stp>{BA20A129-4E6C-4C0E-AB3D-BE0DE35485BA}</stp>
+        <tr r="P4" s="11"/>
       </tp>
       <tp t="s">
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:39:01</v>
         <stp/>
-        <stp>{8B7FC3F3-7045-41D4-B6ED-F821A26EDC36}</stp>
-        <tr r="J4" s="15"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:38:09</v>
-        <stp/>
-        <stp>{D6C8D602-ACEA-40FD-A208-4F7FA9E7C0E8}</stp>
+        <stp>{BD33090B-D5FB-4F76-9371-531F75521BE7}</stp>
         <tr r="O4" s="18"/>
       </tp>
       <tp t="s">
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:36:41</v>
         <stp/>
-        <stp>{E085A081-6AEB-41D4-9DBF-6D0D67971C24}</stp>
+        <stp>{B1D52E13-7D99-422E-B254-60A1976E4F7A}</stp>
+        <tr r="P4" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:36:41</v>
+        <stp/>
+        <stp>{A4ACD09B-50BB-4275-B935-E79A03B9CDFE}</stp>
         <tr r="P4" s="26"/>
       </tp>
       <tp t="s">
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:36:41</v>
         <stp/>
-        <stp>{5F395D0E-9D2B-4CF0-8E98-3D313D5406C2}</stp>
+        <stp>{FAB2C2CD-1A46-483E-ABC3-1583F83D1446}</stp>
         <tr r="M4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:16:04</v>
-        <stp/>
-        <stp>{2359E2BB-DBA1-4DA3-B72F-7351F719E511}</stp>
-        <tr r="P4" s="11"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:16:04</v>
-        <stp/>
-        <stp>{1FD4AFE0-17F4-4BF5-B367-3D710D76E0F0}</stp>
-        <tr r="O2" s="17"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:16:04</v>
-        <stp/>
-        <stp>{85C838B7-47AC-4F54-814F-F7C64A95EAE3}</stp>
-        <tr r="P4" s="12"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 10:16:04</v>
-        <stp/>
-        <stp>{1D4CFD0E-2B73-4728-8FC6-0F93FB0DF452}</stp>
-        <tr r="P4" s="25"/>
       </tp>
     </main>
     <main first="pldatasource.rtgetrtdserver">
@@ -2610,505 +2610,505 @@
         <v>#N/A The record could not be found</v>
         <stp/>
         <stp>_x0005_YBAX4_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V6" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAG5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W9" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAF5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W8" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAZ2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V45" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAZ1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V41" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAZ0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V37" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAZ7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V25" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAZ6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V21" s="18"/>
+      </tp>
+      <tp>
+        <v>8</v>
+        <stp/>
+        <stp>_x0005_YBAZ5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V17" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAZ4_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V7" s="18"/>
       </tp>
       <tp t="s">
         <v>#N/A The record could not be found</v>
         <stp/>
-        <stp>_x0005_YBAG5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0005_YBAZ9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V33" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAZ8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V29" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAU2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V44" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAU1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V40" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAU0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V36" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAU7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V24" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAU6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V20" s="18"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>_x0005_YBAU5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V16" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAU9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V32" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAU8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V28" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAH8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W26" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAH9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W30" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAH2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W42" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAH3_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W46" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAH0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W34" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAH1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W38" s="18"/>
+      </tp>
+      <tp>
+        <v>55131</v>
+        <stp/>
+        <stp>_x0005_YBAH6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W18" s="18"/>
+      </tp>
+      <tp>
+        <v>689</v>
+        <stp/>
+        <stp>_x0005_YBAH7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W22" s="18"/>
+      </tp>
+      <tp>
+        <v>182753</v>
+        <stp/>
+        <stp>_x0005_YBAH5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W10" s="18"/>
       </tp>
       <tp t="s">
         <v>#N/A The record could not be found</v>
         <stp/>
-        <stp>_x0005_YBAF5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W9" s="18"/>
+        <stp>_x0005_YBAK5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W12" s="18"/>
       </tp>
       <tp t="s">
         <v>#N/A The record could not be found</v>
         <stp/>
-        <stp>_x0005_YBAZ2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0005_YBAJ5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W11" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAV4_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V5" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAM8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W27" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAM9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W31" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAM2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W43" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAM0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W35" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAM1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W39" s="18"/>
+      </tp>
+      <tp>
+        <v>30256</v>
+        <stp/>
+        <stp>_x0005_YBAM6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W19" s="18"/>
+      </tp>
+      <tp>
+        <v>409</v>
+        <stp/>
+        <stp>_x0005_YBAM7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W23" s="18"/>
+      </tp>
+      <tp>
+        <v>182260</v>
+        <stp/>
+        <stp>_x0005_YBAM5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W13" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAQ5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V15" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAN5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W14" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAQ5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W15" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAM2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V43" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAM1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V39" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAM0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V35" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAM7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V23" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAM6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V19" s="18"/>
+      </tp>
+      <tp>
+        <v>1</v>
+        <stp/>
+        <stp>_x0005_YBAM5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V13" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAM9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V31" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAM8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V27" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAN5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V14" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAU8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W28" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAU9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W32" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAU2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W44" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAU0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W36" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAU1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W40" s="18"/>
+      </tp>
+      <tp>
+        <v>18199</v>
+        <stp/>
+        <stp>_x0005_YBAU6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W20" s="18"/>
+      </tp>
+      <tp>
+        <v>95</v>
+        <stp/>
+        <stp>_x0005_YBAU7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W24" s="18"/>
+      </tp>
+      <tp>
+        <v>137551</v>
+        <stp/>
+        <stp>_x0005_YBAU5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W16" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAH3_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V46" s="18"/>
       </tp>
       <tp t="s">
         <v>#N/A The record could not be found</v>
         <stp/>
-        <stp>_x0005_YBAZ1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0005_YBAH2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V42" s="18"/>
       </tp>
       <tp t="s">
         <v>#N/A The record could not be found</v>
         <stp/>
-        <stp>_x0005_YBAZ0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0005_YBAH1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V38" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAZ7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V26" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAZ6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V22" s="18"/>
-      </tp>
-      <tp>
-        <v>20</v>
-        <stp/>
-        <stp>_x0005_YBAZ5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V18" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAZ4_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V8" s="18"/>
       </tp>
       <tp t="s">
         <v>#N/A The record could not be found</v>
         <stp/>
-        <stp>_x0005_YBAZ9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0005_YBAH0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V34" s="18"/>
       </tp>
       <tp>
         <v>0</v>
         <stp/>
-        <stp>_x0005_YBAZ8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0005_YBAH7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V22" s="18"/>
+      </tp>
+      <tp>
+        <v>10</v>
+        <stp/>
+        <stp>_x0005_YBAH6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V18" s="18"/>
+      </tp>
+      <tp>
+        <v>29</v>
+        <stp/>
+        <stp>_x0005_YBAH5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V10" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAH9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="V30" s="18"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>_x0005_YBAH8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V26" s="18"/>
       </tp>
       <tp t="s">
         <v>#N/A The record could not be found</v>
         <stp/>
-        <stp>_x0005_YBAU2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V45" s="18"/>
+        <stp>_x0005_YBAK5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V12" s="18"/>
       </tp>
       <tp t="s">
         <v>#N/A The record could not be found</v>
         <stp/>
-        <stp>_x0005_YBAU1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V41" s="18"/>
+        <stp>_x0005_YBAV4_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W5" s="18"/>
       </tp>
       <tp t="s">
         <v>#N/A The record could not be found</v>
         <stp/>
-        <stp>_x0005_YBAU0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V37" s="18"/>
+        <stp>_x0005_YBAJ5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V11" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAX4_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W6" s="18"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A The record could not be found</v>
+        <stp/>
+        <stp>_x0005_YBAG5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="V9" s="18"/>
       </tp>
       <tp>
         <v>0</v>
         <stp/>
-        <stp>_x0005_YBAU7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V25" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAU6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V21" s="18"/>
-      </tp>
-      <tp>
-        <v>5</v>
-        <stp/>
-        <stp>_x0005_YBAU5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V17" s="18"/>
-      </tp>
-      <tp>
-        <v>47</v>
-        <stp/>
-        <stp>_x0005_YBAU4_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V5" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAU9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V33" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAU8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V29" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAH8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W27" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAH9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W31" s="18"/>
+        <stp>_x0005_YBAZ8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W29" s="18"/>
       </tp>
       <tp t="s">
         <v>#N/A The record could not be found</v>
         <stp/>
-        <stp>_x0005_YBAH2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W43" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAH0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W35" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAH1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W39" s="18"/>
-      </tp>
-      <tp>
-        <v>45424</v>
-        <stp/>
-        <stp>_x0005_YBAH6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W19" s="18"/>
-      </tp>
-      <tp>
-        <v>298</v>
-        <stp/>
-        <stp>_x0005_YBAH7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W23" s="18"/>
-      </tp>
-      <tp>
-        <v>215123</v>
-        <stp/>
-        <stp>_x0005_YBAH5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W11" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAK5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W13" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAJ5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W12" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAV4_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V6" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAM8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W28" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAM9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W32" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAM2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W44" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAM0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W36" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAM1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W40" s="18"/>
-      </tp>
-      <tp>
-        <v>28579</v>
-        <stp/>
-        <stp>_x0005_YBAM6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W20" s="18"/>
-      </tp>
-      <tp>
-        <v>224</v>
-        <stp/>
-        <stp>_x0005_YBAM7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W24" s="18"/>
-      </tp>
-      <tp>
-        <v>177482</v>
-        <stp/>
-        <stp>_x0005_YBAM5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W14" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAQ5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V16" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAN5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W15" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAQ5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W16" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAM2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V44" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAM1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V40" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAM0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V36" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAM7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V24" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAM6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V20" s="18"/>
-      </tp>
-      <tp>
-        <v>6</v>
-        <stp/>
-        <stp>_x0005_YBAM5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V14" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAM9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V32" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAM8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V28" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAN5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V15" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAU8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W29" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAU9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0005_YBAZ9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W33" s="18"/>
       </tp>
       <tp t="s">
         <v>#N/A The record could not be found</v>
         <stp/>
-        <stp>_x0005_YBAU2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0005_YBAZ2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W45" s="18"/>
       </tp>
       <tp t="s">
         <v>#N/A The record could not be found</v>
         <stp/>
-        <stp>_x0005_YBAU0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0005_YBAZ0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W37" s="18"/>
       </tp>
       <tp t="s">
         <v>#N/A The record could not be found</v>
         <stp/>
-        <stp>_x0005_YBAU1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0005_YBAZ1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W41" s="18"/>
       </tp>
       <tp>
-        <v>11442</v>
+        <v>1313</v>
         <stp/>
-        <stp>_x0005_YBAU6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0005_YBAZ6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W21" s="18"/>
       </tp>
       <tp>
         <v>0</v>
         <stp/>
-        <stp>_x0005_YBAU7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0005_YBAZ7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W25" s="18"/>
       </tp>
       <tp>
-        <v>2976</v>
+        <v>199556</v>
         <stp/>
-        <stp>_x0005_YBAU4_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W5" s="18"/>
+        <stp>_x0005_YBAZ4_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="W7" s="18"/>
       </tp>
       <tp>
-        <v>128656</v>
+        <v>76025</v>
         <stp/>
-        <stp>_x0005_YBAU5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <stp>_x0005_YBAZ5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="W17" s="18"/>
       </tp>
       <tp t="s">
         <v>#N/A The record could not be found</v>
         <stp/>
-        <stp>_x0005_YBAH2_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V43" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAH1_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V39" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAH0_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V35" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAH7_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V23" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAH6_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V19" s="18"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>_x0005_YBAH5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V11" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAH9_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V31" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAH8_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V27" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAK5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V13" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAV4_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W6" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAJ5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V12" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAX4_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W7" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAG5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V10" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAZ8_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W30" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAZ9_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W34" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAZ2_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W46" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAZ0_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W38" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
-        <stp>_x0005_YBAZ1_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W42" s="18"/>
-      </tp>
-      <tp>
-        <v>468</v>
-        <stp/>
-        <stp>_x0005_YBAZ6_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W22" s="18"/>
-      </tp>
-      <tp>
-        <v>0</v>
-        <stp/>
-        <stp>_x0005_YBAZ7_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W26" s="18"/>
-      </tp>
-      <tp>
-        <v>215781</v>
-        <stp/>
-        <stp>_x0005_YBAZ4_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W8" s="18"/>
-      </tp>
-      <tp>
-        <v>71991</v>
-        <stp/>
-        <stp>_x0005_YBAZ5_x0007_OPINT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="W18" s="18"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A The record could not be found</v>
-        <stp/>
         <stp>_x0005_YBAF5_x0008_TRDVOL_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="V9" s="18"/>
+        <tr r="V8" s="18"/>
       </tp>
     </main>
   </volType>
@@ -3425,7 +3425,7 @@
     <row r="1" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="338" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Aug  6 2014 11:45:43</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2014 10:33:09</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3476,7 +3476,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="351">
-        <v>41897.427002314813</v>
+        <v>41911.399571759262</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="126"/>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="I10" s="358">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41897</v>
+        <v>41911</v>
       </c>
       <c r="J10" s="204"/>
     </row>
@@ -3912,8 +3912,8 @@
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
       <c r="Q3" s="123">
-        <f>_xll.ohTrigger(Q5:Q9)</f>
-        <v>2</v>
+        <f>_xll.ohTrigger(Q5:Q6)</f>
+        <v>3</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="3"/>
@@ -3947,10 +3947,10 @@
         <v>130</v>
       </c>
       <c r="J4" s="184"/>
-      <c r="K4" s="369" t="s">
+      <c r="K4" s="377" t="s">
         <v>159</v>
       </c>
-      <c r="L4" s="370"/>
+      <c r="L4" s="378"/>
       <c r="M4" s="184"/>
       <c r="N4" s="121" t="s">
         <v>146</v>
@@ -4168,7 +4168,7 @@
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -4293,7 +4293,7 @@
       <c r="Y3" s="51"/>
       <c r="Z3" s="123">
         <f>_xll.ohTrigger(Z5:Z42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA3" s="90"/>
       <c r="AB3" s="3"/>
@@ -4330,7 +4330,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="330" t="str">
         <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:36:41</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -4487,10 +4487,10 @@
         <v>AUDQM3AB1Y=ICAA</v>
       </c>
       <c r="Q6" s="101">
-        <v>2.6524999999999999</v>
+        <v>2.6825000000000001</v>
       </c>
       <c r="R6" s="101">
-        <v>2.7025000000000001</v>
+        <v>2.7324999999999999</v>
       </c>
       <c r="S6" s="101">
         <v>0</v>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="U6" s="104">
         <f>_xll.qlMidSafe($Q6,$R6)</f>
-        <v>2.6775000000000002</v>
+        <v>2.7075</v>
       </c>
       <c r="V6" s="102"/>
       <c r="W6" s="103">
@@ -4508,11 +4508,11 @@
       </c>
       <c r="X6" s="102"/>
       <c r="Y6" s="154">
-        <v>2.6775000000000002</v>
+        <v>2.7075</v>
       </c>
       <c r="Z6" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F6,Y6/100,Trigger)</f>
-        <v>5.5000000000000188E-4</v>
+        <v>2.9999999999999818E-4</v>
       </c>
       <c r="AA6" s="90"/>
       <c r="AB6" s="3"/>
@@ -4795,10 +4795,10 @@
         <v>AUDQM3AB2Y=ICAA</v>
       </c>
       <c r="Q10" s="101">
-        <v>2.7974999999999999</v>
+        <v>2.77</v>
       </c>
       <c r="R10" s="101">
-        <v>2.8574999999999999</v>
+        <v>2.83</v>
       </c>
       <c r="S10" s="101">
         <v>0</v>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="U10" s="104">
         <f>_xll.qlMidSafe($Q10,$R10)</f>
-        <v>2.8274999999999997</v>
+        <v>2.8</v>
       </c>
       <c r="V10" s="102"/>
       <c r="W10" s="103">
@@ -4816,11 +4816,11 @@
       </c>
       <c r="X10" s="102"/>
       <c r="Y10" s="154">
-        <v>2.8274999999999997</v>
+        <v>2.8</v>
       </c>
       <c r="Z10" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F10,Y10/100,Trigger)</f>
-        <v>9.2499999999999527E-4</v>
+        <v>-2.7500000000000094E-4</v>
       </c>
       <c r="AA10" s="90"/>
       <c r="AB10" s="3"/>
@@ -4872,10 +4872,10 @@
         <v>AUDQM3AB3Y=ICAA</v>
       </c>
       <c r="Q11" s="101">
-        <v>2.9725000000000001</v>
+        <v>2.9075000000000002</v>
       </c>
       <c r="R11" s="101">
-        <v>3.0325000000000002</v>
+        <v>2.9674999999999998</v>
       </c>
       <c r="S11" s="101">
         <v>0</v>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="U11" s="104">
         <f>_xll.qlMidSafe($Q11,$R11)</f>
-        <v>3.0025000000000004</v>
+        <v>2.9375</v>
       </c>
       <c r="V11" s="102"/>
       <c r="W11" s="103">
@@ -4893,11 +4893,11 @@
       </c>
       <c r="X11" s="102"/>
       <c r="Y11" s="154">
-        <v>3.0025000000000004</v>
+        <v>2.9375</v>
       </c>
       <c r="Z11" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F11,Y11/100,Trigger)</f>
-        <v>1.125000000000001E-3</v>
+        <v>-6.5000000000000474E-4</v>
       </c>
       <c r="AA11" s="90"/>
       <c r="AB11" s="3"/>
@@ -7352,7 +7352,7 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -7476,7 +7476,7 @@
       <c r="Y3" s="51"/>
       <c r="Z3" s="123">
         <f>_xll.ohTrigger(Z5:Z42)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="90"/>
       <c r="AB3" s="3"/>
@@ -7512,7 +7512,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="98" t="str">
         <f>_xll.RData(P5:P42,Q4:T4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:36:41</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -8131,10 +8131,10 @@
         <v>AUDSM6AB4Y=ICAA</v>
       </c>
       <c r="Q12" s="101">
-        <v>3.2374999999999998</v>
+        <v>3.16</v>
       </c>
       <c r="R12" s="101">
-        <v>3.2974999999999999</v>
+        <v>3.22</v>
       </c>
       <c r="S12" s="101">
         <v>0</v>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="U12" s="104">
         <f>_xll.qlMidEquivalent($Q12,$R12,$S12,$T12)</f>
-        <v>3.2675000000000001</v>
+        <v>3.1900000000000004</v>
       </c>
       <c r="V12" s="102"/>
       <c r="W12" s="103">
@@ -8152,11 +8152,11 @@
       </c>
       <c r="X12" s="102"/>
       <c r="Y12" s="154">
-        <v>3.2675000000000001</v>
+        <v>3.1900000000000004</v>
       </c>
       <c r="Z12" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F12,Y12/100,Trigger)</f>
-        <v>1.4250000000000027E-3</v>
+        <v>-7.7499999999999791E-4</v>
       </c>
       <c r="AA12" s="90"/>
       <c r="AB12" s="3"/>
@@ -8208,10 +8208,10 @@
         <v>AUDSM6AB5Y=ICAA</v>
       </c>
       <c r="Q13" s="101">
-        <v>3.41</v>
+        <v>3.3050000000000002</v>
       </c>
       <c r="R13" s="101">
-        <v>3.47</v>
+        <v>3.3650000000000002</v>
       </c>
       <c r="S13" s="101">
         <v>0</v>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="U13" s="104">
         <f>_xll.qlMidEquivalent($Q13,$R13,$S13,$T13)</f>
-        <v>3.4400000000000004</v>
+        <v>3.335</v>
       </c>
       <c r="V13" s="102"/>
       <c r="W13" s="103">
@@ -8229,11 +8229,11 @@
       </c>
       <c r="X13" s="102"/>
       <c r="Y13" s="154">
-        <v>3.4400000000000004</v>
+        <v>3.335</v>
       </c>
       <c r="Z13" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F13,Y13/100,Trigger)</f>
-        <v>1.6750000000000098E-3</v>
+        <v>-1.0500000000000093E-3</v>
       </c>
       <c r="AA13" s="90"/>
       <c r="AB13" s="3"/>
@@ -8285,10 +8285,10 @@
         <v>AUDSM6AB6Y=ICAA</v>
       </c>
       <c r="Q14" s="101">
-        <v>3.5550000000000002</v>
+        <v>3.44</v>
       </c>
       <c r="R14" s="101">
-        <v>3.6150000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="S14" s="101">
         <v>0</v>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="U14" s="104">
         <f>_xll.qlMidEquivalent($Q14,$R14,$S14,$T14)</f>
-        <v>3.585</v>
+        <v>3.4699999999999998</v>
       </c>
       <c r="V14" s="102"/>
       <c r="W14" s="103">
@@ -8306,11 +8306,11 @@
       </c>
       <c r="X14" s="102"/>
       <c r="Y14" s="154">
-        <v>3.585</v>
+        <v>3.4699999999999998</v>
       </c>
       <c r="Z14" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F14,Y14/100,Trigger)</f>
-        <v>1.7500000000000016E-3</v>
+        <v>-1.1500000000000052E-3</v>
       </c>
       <c r="AA14" s="90"/>
       <c r="AB14" s="3"/>
@@ -8362,10 +8362,10 @@
         <v>AUDSM6AB7Y=ICAA</v>
       </c>
       <c r="Q15" s="101">
-        <v>3.6775000000000002</v>
+        <v>3.5575000000000001</v>
       </c>
       <c r="R15" s="101">
-        <v>3.7374999999999998</v>
+        <v>3.6175000000000002</v>
       </c>
       <c r="S15" s="101">
         <v>0</v>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="U15" s="104">
         <f>_xll.qlMidEquivalent($Q15,$R15,$S15,$T15)</f>
-        <v>3.7075</v>
+        <v>3.5875000000000004</v>
       </c>
       <c r="V15" s="102"/>
       <c r="W15" s="103">
@@ -8383,11 +8383,11 @@
       </c>
       <c r="X15" s="102"/>
       <c r="Y15" s="154">
-        <v>3.7075</v>
+        <v>3.5875000000000004</v>
       </c>
       <c r="Z15" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F15,Y15/100,Trigger)</f>
-        <v>1.7749999999999919E-3</v>
+        <v>-1.1999999999999927E-3</v>
       </c>
       <c r="AA15" s="90"/>
       <c r="AB15" s="3"/>
@@ -8439,10 +8439,10 @@
         <v>AUDSM6AB8Y=ICAA</v>
       </c>
       <c r="Q16" s="101">
-        <v>3.78</v>
+        <v>3.6549999999999998</v>
       </c>
       <c r="R16" s="101">
-        <v>3.84</v>
+        <v>3.7149999999999999</v>
       </c>
       <c r="S16" s="101">
         <v>0</v>
@@ -8452,7 +8452,7 @@
       </c>
       <c r="U16" s="104">
         <f>_xll.qlMidEquivalent($Q16,$R16,$S16,$T16)</f>
-        <v>3.8099999999999996</v>
+        <v>3.6849999999999996</v>
       </c>
       <c r="V16" s="102"/>
       <c r="W16" s="103">
@@ -8460,11 +8460,11 @@
       </c>
       <c r="X16" s="102"/>
       <c r="Y16" s="154">
-        <v>3.8099999999999996</v>
+        <v>3.6849999999999996</v>
       </c>
       <c r="Z16" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F16,Y16/100,Trigger)</f>
-        <v>1.799999999999996E-3</v>
+        <v>-1.2500000000000011E-3</v>
       </c>
       <c r="AA16" s="90"/>
       <c r="AB16" s="3"/>
@@ -8516,10 +8516,10 @@
         <v>AUDSM6AB9Y=ICAA</v>
       </c>
       <c r="Q17" s="101">
-        <v>3.875</v>
+        <v>3.74</v>
       </c>
       <c r="R17" s="101">
-        <v>3.9350000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="S17" s="101">
         <v>0</v>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="U17" s="104">
         <f>_xll.qlMidEquivalent($Q17,$R17,$S17,$T17)</f>
-        <v>3.9050000000000002</v>
+        <v>3.77</v>
       </c>
       <c r="V17" s="102"/>
       <c r="W17" s="103">
@@ -8537,11 +8537,11 @@
       </c>
       <c r="X17" s="102"/>
       <c r="Y17" s="154">
-        <v>3.9050000000000002</v>
+        <v>3.77</v>
       </c>
       <c r="Z17" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F17,Y17/100,Trigger)</f>
-        <v>1.8750000000000017E-3</v>
+        <v>-1.350000000000004E-3</v>
       </c>
       <c r="AA17" s="90"/>
       <c r="AB17" s="3"/>
@@ -8593,10 +8593,10 @@
         <v>AUDSM6AB10Y=ICAA</v>
       </c>
       <c r="Q18" s="101">
-        <v>3.9624999999999999</v>
+        <v>3.82</v>
       </c>
       <c r="R18" s="101">
-        <v>4.0225</v>
+        <v>3.88</v>
       </c>
       <c r="S18" s="101">
         <v>0</v>
@@ -8606,7 +8606,7 @@
       </c>
       <c r="U18" s="104">
         <f>_xll.qlMidEquivalent($Q18,$R18,$S18,$T18)</f>
-        <v>3.9924999999999997</v>
+        <v>3.8499999999999996</v>
       </c>
       <c r="V18" s="102"/>
       <c r="W18" s="103">
@@ -8614,11 +8614,11 @@
       </c>
       <c r="X18" s="102"/>
       <c r="Y18" s="154">
-        <v>3.9924999999999997</v>
+        <v>3.8499999999999996</v>
       </c>
       <c r="Z18" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F18,Y18/100,Trigger)</f>
-        <v>1.9249999999999962E-3</v>
+        <v>-1.4249999999999957E-3</v>
       </c>
       <c r="AA18" s="90"/>
       <c r="AB18" s="3"/>
@@ -8747,10 +8747,10 @@
         <v>AUDSM6AB12Y=ICAA</v>
       </c>
       <c r="Q20" s="101">
-        <v>4.1124999999999998</v>
+        <v>3.9550000000000001</v>
       </c>
       <c r="R20" s="101">
-        <v>4.1725000000000003</v>
+        <v>4.0149999999999997</v>
       </c>
       <c r="S20" s="101">
         <v>0</v>
@@ -8760,7 +8760,7 @@
       </c>
       <c r="U20" s="104">
         <f>_xll.qlMidEquivalent($Q20,$R20,$S20,$T20)</f>
-        <v>4.1425000000000001</v>
+        <v>3.9849999999999999</v>
       </c>
       <c r="V20" s="102"/>
       <c r="W20" s="103">
@@ -8768,11 +8768,11 @@
       </c>
       <c r="X20" s="102"/>
       <c r="Y20" s="154">
-        <v>4.1425000000000001</v>
+        <v>3.9849999999999999</v>
       </c>
       <c r="Z20" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F20,Y20/100,Trigger)</f>
-        <v>2.024999999999999E-3</v>
+        <v>-1.5750000000000069E-3</v>
       </c>
       <c r="AA20" s="90"/>
       <c r="AB20" s="3"/>
@@ -8978,10 +8978,10 @@
         <v>AUDSM6AB15Y=ICAA</v>
       </c>
       <c r="Q23" s="101">
-        <v>4.2575000000000003</v>
+        <v>4.0949999999999998</v>
       </c>
       <c r="R23" s="101">
-        <v>4.3375000000000004</v>
+        <v>4.1749999999999998</v>
       </c>
       <c r="S23" s="101">
         <v>0</v>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="U23" s="104">
         <f>_xll.qlMidEquivalent($Q23,$R23,$S23,$T23)</f>
-        <v>4.2975000000000003</v>
+        <v>4.1349999999999998</v>
       </c>
       <c r="V23" s="102"/>
       <c r="W23" s="103">
@@ -8999,11 +8999,11 @@
       </c>
       <c r="X23" s="102"/>
       <c r="Y23" s="154">
-        <v>4.2975000000000003</v>
+        <v>4.1349999999999998</v>
       </c>
       <c r="Z23" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F23,Y23/100,Trigger)</f>
-        <v>2.1000000000000046E-3</v>
+        <v>-1.6250000000000084E-3</v>
       </c>
       <c r="AA23" s="90"/>
       <c r="AB23" s="3"/>
@@ -9363,10 +9363,10 @@
         <v>AUDSM6AB20Y=ICAA</v>
       </c>
       <c r="Q28" s="101">
-        <v>4.42</v>
+        <v>4.2625000000000002</v>
       </c>
       <c r="R28" s="101">
-        <v>4.5</v>
+        <v>4.3425000000000002</v>
       </c>
       <c r="S28" s="101">
         <v>0</v>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="U28" s="104">
         <f>_xll.qlMidEquivalent($Q28,$R28,$S28,$T28)</f>
-        <v>4.46</v>
+        <v>4.3025000000000002</v>
       </c>
       <c r="V28" s="102"/>
       <c r="W28" s="103">
@@ -9384,11 +9384,11 @@
       </c>
       <c r="X28" s="102"/>
       <c r="Y28" s="154">
-        <v>4.46</v>
+        <v>4.3025000000000002</v>
       </c>
       <c r="Z28" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F28,Y28/100,Trigger)</f>
-        <v>2.2499999999999951E-3</v>
+        <v>-1.575E-3</v>
       </c>
       <c r="AA28" s="90"/>
       <c r="AB28" s="3"/>
@@ -9748,10 +9748,10 @@
         <v>AUDSM6AB25Y=ICAA</v>
       </c>
       <c r="Q33" s="101">
-        <v>4.4725000000000001</v>
+        <v>4.3150000000000004</v>
       </c>
       <c r="R33" s="101">
-        <v>4.5525000000000002</v>
+        <v>4.3949999999999996</v>
       </c>
       <c r="S33" s="101">
         <v>0</v>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="U33" s="104">
         <f>_xll.qlMidEquivalent($Q33,$R33,$S33,$T33)</f>
-        <v>4.5125000000000002</v>
+        <v>4.3550000000000004</v>
       </c>
       <c r="V33" s="102"/>
       <c r="W33" s="103">
@@ -9769,11 +9769,11 @@
       </c>
       <c r="X33" s="102"/>
       <c r="Y33" s="154">
-        <v>4.5125000000000002</v>
+        <v>4.3550000000000004</v>
       </c>
       <c r="Z33" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F33,Y33/100,Trigger)</f>
-        <v>2.2499999999999951E-3</v>
+        <v>-1.5749999999999931E-3</v>
       </c>
       <c r="AA33" s="90"/>
       <c r="AB33" s="3"/>
@@ -10133,10 +10133,10 @@
         <v>AUDSM6AB30Y=ICAA</v>
       </c>
       <c r="Q38" s="101">
-        <v>4.4924999999999997</v>
+        <v>4.335</v>
       </c>
       <c r="R38" s="101">
-        <v>4.5724999999999998</v>
+        <v>4.415</v>
       </c>
       <c r="S38" s="101">
         <v>0</v>
@@ -10146,7 +10146,7 @@
       </c>
       <c r="U38" s="104">
         <f>_xll.qlMidEquivalent($Q38,$R38,$S38,$T38)</f>
-        <v>4.5324999999999998</v>
+        <v>4.375</v>
       </c>
       <c r="V38" s="102"/>
       <c r="W38" s="103">
@@ -10154,11 +10154,11 @@
       </c>
       <c r="X38" s="102"/>
       <c r="Y38" s="154">
-        <v>4.5324999999999998</v>
+        <v>4.375</v>
       </c>
       <c r="Z38" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F38,Y38/100,Trigger)</f>
-        <v>2.2499999999999951E-3</v>
+        <v>-1.575E-3</v>
       </c>
       <c r="AA38" s="90"/>
       <c r="AB38" s="3"/>
@@ -10287,10 +10287,10 @@
         <v>AUDSM6AB40Y=ICAA</v>
       </c>
       <c r="Q40" s="101">
-        <v>4.4524999999999997</v>
+        <v>4.2949999999999999</v>
       </c>
       <c r="R40" s="101">
-        <v>4.5324999999999998</v>
+        <v>4.375</v>
       </c>
       <c r="S40" s="101">
         <v>0</v>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="U40" s="104">
         <f>_xll.qlMidEquivalent($Q40,$R40,$S40,$T40)</f>
-        <v>4.4924999999999997</v>
+        <v>4.335</v>
       </c>
       <c r="V40" s="102"/>
       <c r="W40" s="103">
@@ -10308,11 +10308,11 @@
       </c>
       <c r="X40" s="102"/>
       <c r="Y40" s="154">
-        <v>4.4924999999999997</v>
+        <v>4.335</v>
       </c>
       <c r="Z40" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F40,Y40/100,Trigger)</f>
-        <v>2.250000000000002E-3</v>
+        <v>-1.575E-3</v>
       </c>
       <c r="AA40" s="90"/>
       <c r="AB40" s="3"/>
@@ -10639,7 +10639,7 @@
       <c r="W3" s="51"/>
       <c r="X3" s="123">
         <f>_xll.ohTrigger(X6:X44)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="90"/>
     </row>
@@ -10670,7 +10670,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="98" t="str">
         <f t="array" ref="P4">_xll.RData(P5:P44,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:36:41</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -10737,25 +10737,25 @@
         <v>AUBR3AB3M=ICAA</v>
       </c>
       <c r="Q5" s="200">
-        <v>2.875</v>
+        <v>4.625</v>
       </c>
       <c r="R5" s="200">
-        <v>4.875</v>
+        <v>6.625</v>
       </c>
       <c r="S5" s="332">
         <f>_xll.qlMidEquivalent(Q5,R5)</f>
-        <v>3.875</v>
+        <v>5.625</v>
       </c>
       <c r="T5" s="102"/>
       <c r="U5" s="199"/>
       <c r="V5" s="102"/>
       <c r="W5" s="208">
         <f t="array" ref="W5:W44">QuoteLive</f>
-        <v>3.875</v>
+        <v>5.625</v>
       </c>
       <c r="X5" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F5,W5/10000,Trigger)</f>
-        <v>0</v>
+        <v>1.7499999999999997E-4</v>
       </c>
       <c r="Y5" s="90"/>
     </row>
@@ -10802,24 +10802,24 @@
         <v>AUBR3AB6M=ICAA</v>
       </c>
       <c r="Q6" s="200">
-        <v>4.125</v>
+        <v>5.875</v>
       </c>
       <c r="R6" s="200">
-        <v>6.125</v>
+        <v>7.875</v>
       </c>
       <c r="S6" s="191">
         <f>_xll.qlMidEquivalent(Q6,R6)</f>
-        <v>5.125</v>
+        <v>6.875</v>
       </c>
       <c r="T6" s="102"/>
       <c r="U6" s="199"/>
       <c r="V6" s="102"/>
       <c r="W6" s="208">
-        <v>5.125</v>
+        <v>6.875</v>
       </c>
       <c r="X6" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/10000,Trigger)</f>
-        <v>5.0000000000000023E-5</v>
+        <v>1.7499999999999992E-4</v>
       </c>
       <c r="Y6" s="90"/>
       <c r="Z6" s="3"/>
@@ -10870,20 +10870,20 @@
         <v>AUBR3AB9M=ICAA</v>
       </c>
       <c r="Q7" s="200">
-        <v>5.25</v>
+        <v>6.375</v>
       </c>
       <c r="R7" s="200">
-        <v>7.25</v>
+        <v>8.375</v>
       </c>
       <c r="S7" s="191">
         <f>_xll.qlMidEquivalent(Q7,R7)</f>
-        <v>6.25</v>
+        <v>7.375</v>
       </c>
       <c r="T7" s="102"/>
       <c r="U7" s="199"/>
       <c r="V7" s="102"/>
       <c r="W7" s="208">
-        <v>6.25</v>
+        <v>7.375</v>
       </c>
       <c r="X7" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F7,W7/10000,Trigger)</f>
@@ -10940,24 +10940,24 @@
         <v>AUBR3AB1Y=ICAA</v>
       </c>
       <c r="Q8" s="200">
-        <v>5.875</v>
+        <v>6.625</v>
       </c>
       <c r="R8" s="200">
-        <v>7.875</v>
+        <v>8.625</v>
       </c>
       <c r="S8" s="191">
         <f>_xll.qlMidEquivalent(Q8,R8)</f>
-        <v>6.875</v>
+        <v>7.625</v>
       </c>
       <c r="T8" s="102"/>
       <c r="U8" s="199"/>
       <c r="V8" s="102"/>
       <c r="W8" s="208">
-        <v>6.875</v>
+        <v>7.625</v>
       </c>
       <c r="X8" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F8,W8/10000,Trigger)</f>
-        <v>1.25E-4</v>
+        <v>7.5000000000000088E-5</v>
       </c>
       <c r="Y8" s="90"/>
       <c r="Z8" s="3"/>
@@ -11210,24 +11210,24 @@
         <v>AUBR3AB2Y=ICAA</v>
       </c>
       <c r="Q12" s="200">
-        <v>7.125</v>
+        <v>7.375</v>
       </c>
       <c r="R12" s="200">
-        <v>9.125</v>
+        <v>9.375</v>
       </c>
       <c r="S12" s="191">
         <f>_xll.qlMidEquivalent(Q12,R12)</f>
-        <v>8.125</v>
+        <v>8.375</v>
       </c>
       <c r="T12" s="102"/>
       <c r="U12" s="199"/>
       <c r="V12" s="102"/>
       <c r="W12" s="208">
-        <v>8.125</v>
+        <v>8.375</v>
       </c>
       <c r="X12" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
-        <v>1.3749999999999993E-4</v>
+        <v>2.5000000000000066E-5</v>
       </c>
       <c r="Y12" s="90"/>
     </row>
@@ -11275,24 +11275,24 @@
         <v>AUBR3AB3Y=ICAA</v>
       </c>
       <c r="Q13" s="200">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="R13" s="200">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="S13" s="191">
         <f>_xll.qlMidEquivalent(Q13,R13)</f>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="T13" s="102"/>
       <c r="U13" s="199"/>
       <c r="V13" s="102"/>
       <c r="W13" s="208">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X13" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/10000,Trigger)</f>
-        <v>1.6249999999999999E-4</v>
+        <v>-5.0000000000000023E-5</v>
       </c>
       <c r="Y13" s="90"/>
     </row>
@@ -11340,24 +11340,24 @@
         <v>AUBR3AB4Y=ICAA</v>
       </c>
       <c r="Q14" s="200">
-        <v>8.625</v>
+        <v>8</v>
       </c>
       <c r="R14" s="200">
-        <v>10.625</v>
+        <v>10</v>
       </c>
       <c r="S14" s="191">
         <f>_xll.qlMidEquivalent(Q14,R14)</f>
-        <v>9.625</v>
+        <v>9</v>
       </c>
       <c r="T14" s="102"/>
       <c r="U14" s="199"/>
       <c r="V14" s="102"/>
       <c r="W14" s="208">
-        <v>9.625</v>
+        <v>9</v>
       </c>
       <c r="X14" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F14,W14/10000,Trigger)</f>
-        <v>1.9999999999999998E-4</v>
+        <v>-6.2500000000000056E-5</v>
       </c>
       <c r="Y14" s="90"/>
     </row>
@@ -11405,24 +11405,24 @@
         <v>AUBR3AB5Y=ICAA</v>
       </c>
       <c r="Q15" s="200">
-        <v>8.875</v>
+        <v>8.25</v>
       </c>
       <c r="R15" s="200">
-        <v>10.875</v>
+        <v>10.25</v>
       </c>
       <c r="S15" s="191">
         <f>_xll.qlMidEquivalent(Q15,R15)</f>
-        <v>9.875</v>
+        <v>9.25</v>
       </c>
       <c r="T15" s="102"/>
       <c r="U15" s="199"/>
       <c r="V15" s="102"/>
       <c r="W15" s="208">
-        <v>9.875</v>
+        <v>9.25</v>
       </c>
       <c r="X15" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/10000,Trigger)</f>
-        <v>2.0000000000000009E-4</v>
+        <v>-6.2500000000000056E-5</v>
       </c>
       <c r="Y15" s="90"/>
     </row>
@@ -11535,24 +11535,24 @@
         <v>AUBR3AB7Y=ICAA</v>
       </c>
       <c r="Q17" s="200">
-        <v>9.125</v>
+        <v>8.5</v>
       </c>
       <c r="R17" s="200">
-        <v>11.125</v>
+        <v>10.5</v>
       </c>
       <c r="S17" s="191">
         <f>_xll.qlMidEquivalent(Q17,R17)</f>
-        <v>10.125</v>
+        <v>9.5</v>
       </c>
       <c r="T17" s="102"/>
       <c r="U17" s="199"/>
       <c r="V17" s="102"/>
       <c r="W17" s="208">
-        <v>10.125</v>
+        <v>9.5</v>
       </c>
       <c r="X17" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F17,W17/10000,Trigger)</f>
-        <v>1.8749999999999995E-4</v>
+        <v>-6.2499999999999947E-5</v>
       </c>
       <c r="Y17" s="90"/>
     </row>
@@ -11730,24 +11730,24 @@
         <v>AUBR3AB10Y=ICAA</v>
       </c>
       <c r="Q20" s="200">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="R20" s="200">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="S20" s="191">
         <f>_xll.qlMidEquivalent(Q20,R20)</f>
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="T20" s="102"/>
       <c r="U20" s="199"/>
       <c r="V20" s="102"/>
       <c r="W20" s="208">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="X20" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/10000,Trigger)</f>
-        <v>1.7500000000000013E-4</v>
+        <v>-5.0000000000000131E-5</v>
       </c>
       <c r="Y20" s="90"/>
       <c r="AC20"/>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="X22" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F22,W22/10000,Trigger)</f>
-        <v>1.8750000000000006E-4</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="90"/>
     </row>
@@ -12056,24 +12056,24 @@
         <v>AUBR3AB15Y=ICAA</v>
       </c>
       <c r="Q25" s="200">
-        <v>8.75</v>
+        <v>8.625</v>
       </c>
       <c r="R25" s="200">
-        <v>11.75</v>
+        <v>11.625</v>
       </c>
       <c r="S25" s="191">
         <f>_xll.qlMidEquivalent(Q25,R25)</f>
-        <v>10.25</v>
+        <v>10.125</v>
       </c>
       <c r="T25" s="102"/>
       <c r="U25" s="199"/>
       <c r="V25" s="102"/>
       <c r="W25" s="208">
-        <v>10.25</v>
+        <v>10.125</v>
       </c>
       <c r="X25" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F25,W25/10000,Trigger)</f>
-        <v>1.8750000000000006E-4</v>
+        <v>-1.2500000000000141E-5</v>
       </c>
       <c r="Y25" s="90"/>
     </row>
@@ -12398,7 +12398,7 @@
       </c>
       <c r="X30" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F30,W30/10000,Trigger)</f>
-        <v>2.5000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="90"/>
     </row>
@@ -12723,7 +12723,7 @@
       </c>
       <c r="X35" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F35,W35/10000,Trigger)</f>
-        <v>3.749999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="90"/>
     </row>
@@ -13048,7 +13048,7 @@
       </c>
       <c r="X40" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F40,W40/10000,Trigger)</f>
-        <v>3.8750000000000004E-4</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="90"/>
     </row>
@@ -13372,7 +13372,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -13491,7 +13491,7 @@
       <c r="W3" s="51"/>
       <c r="X3" s="123">
         <f>_xll.ohTrigger(X5:X42)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="90"/>
       <c r="Z3" s="3"/>
@@ -13528,7 +13528,7 @@
       <c r="O4" s="79"/>
       <c r="P4" s="98" t="str">
         <f>_xll.RData(P5:P42,Q4:R4,"RTFEED:IDN",ReutersRtMode,,Q5)</f>
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:36:41</v>
       </c>
       <c r="Q4" s="143" t="s">
         <v>130</v>
@@ -13601,14 +13601,14 @@
         <v>AUBR6AB6M=ICAA</v>
       </c>
       <c r="Q5" s="200">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="R5" s="200">
-        <v>4.625</v>
+        <v>7.5</v>
       </c>
       <c r="S5" s="191">
         <f>_xll.qlMidEquivalent(Q5,R5)</f>
-        <v>3.625</v>
+        <v>6.5</v>
       </c>
       <c r="T5" s="102"/>
       <c r="U5" s="199">
@@ -13617,11 +13617,11 @@
       <c r="V5" s="102"/>
       <c r="W5" s="208">
         <f t="array" ref="W5:W42">QuoteLive</f>
-        <v>3.625</v>
+        <v>6.5</v>
       </c>
       <c r="X5" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F5,W5/10000,Trigger)</f>
-        <v>-1.2500000000000033E-5</v>
+        <v>2.875E-4</v>
       </c>
       <c r="Y5" s="90"/>
       <c r="Z5" s="3"/>
@@ -13673,14 +13673,14 @@
         <v>AUBR6AB1Y=ICAA</v>
       </c>
       <c r="Q6" s="200">
-        <v>4</v>
+        <v>6.75</v>
       </c>
       <c r="R6" s="200">
-        <v>6</v>
+        <v>8.75</v>
       </c>
       <c r="S6" s="191">
         <f>_xll.qlMidEquivalent(Q6,R6)</f>
-        <v>5</v>
+        <v>7.75</v>
       </c>
       <c r="T6" s="102"/>
       <c r="U6" s="199">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="V6" s="102"/>
       <c r="W6" s="208">
-        <v>5</v>
+        <v>7.75</v>
       </c>
       <c r="X6" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F6,W6/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.7499999999999996E-4</v>
       </c>
       <c r="Y6" s="90"/>
       <c r="Z6" s="3"/>
@@ -13957,14 +13957,14 @@
         <v>AUBR6AB2Y=ICAA</v>
       </c>
       <c r="Q10" s="200">
-        <v>5.25</v>
+        <v>8.125</v>
       </c>
       <c r="R10" s="200">
-        <v>7.25</v>
+        <v>10.125</v>
       </c>
       <c r="S10" s="191">
         <f>_xll.qlMidEquivalent(Q10,R10)</f>
-        <v>6.25</v>
+        <v>9.125</v>
       </c>
       <c r="T10" s="102"/>
       <c r="U10" s="199">
@@ -13972,11 +13972,11 @@
       </c>
       <c r="V10" s="102"/>
       <c r="W10" s="208">
-        <v>6.25</v>
+        <v>9.125</v>
       </c>
       <c r="X10" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F10,W10/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.875E-4</v>
       </c>
       <c r="Y10" s="90"/>
       <c r="Z10" s="3"/>
@@ -14028,14 +14028,14 @@
         <v>AUBR6AB3Y=ICAA</v>
       </c>
       <c r="Q11" s="200">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R11" s="200">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S11" s="191">
         <f>_xll.qlMidEquivalent(Q11,R11)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T11" s="102"/>
       <c r="U11" s="199">
@@ -14043,11 +14043,11 @@
       </c>
       <c r="V11" s="102"/>
       <c r="W11" s="208">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X11" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F11,W11/10000,Trigger)</f>
-        <v>1.2500000000000033E-5</v>
+        <v>3.0000000000000003E-4</v>
       </c>
       <c r="Y11" s="90"/>
       <c r="Z11" s="3"/>
@@ -14099,14 +14099,14 @@
         <v>AUBR6AB4Y=ICAA</v>
       </c>
       <c r="Q12" s="200">
-        <v>6.375</v>
+        <v>9.25</v>
       </c>
       <c r="R12" s="200">
-        <v>8.375</v>
+        <v>11.25</v>
       </c>
       <c r="S12" s="191">
         <f>_xll.qlMidEquivalent(Q12,R12)</f>
-        <v>7.375</v>
+        <v>10.25</v>
       </c>
       <c r="T12" s="102"/>
       <c r="U12" s="199">
@@ -14114,11 +14114,11 @@
       </c>
       <c r="V12" s="102"/>
       <c r="W12" s="208">
-        <v>7.375</v>
+        <v>10.25</v>
       </c>
       <c r="X12" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F12,W12/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.875000000000001E-4</v>
       </c>
       <c r="Y12" s="90"/>
       <c r="Z12" s="3"/>
@@ -14170,14 +14170,14 @@
         <v>AUBR6AB5Y=ICAA</v>
       </c>
       <c r="Q13" s="200">
-        <v>6.75</v>
+        <v>9.625</v>
       </c>
       <c r="R13" s="200">
-        <v>8.75</v>
+        <v>11.625</v>
       </c>
       <c r="S13" s="191">
         <f>_xll.qlMidEquivalent(Q13,R13)</f>
-        <v>7.75</v>
+        <v>10.625</v>
       </c>
       <c r="T13" s="102"/>
       <c r="U13" s="199">
@@ -14185,11 +14185,11 @@
       </c>
       <c r="V13" s="102"/>
       <c r="W13" s="208">
-        <v>7.75</v>
+        <v>10.625</v>
       </c>
       <c r="X13" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F13,W13/10000,Trigger)</f>
-        <v>0</v>
+        <v>2.875000000000001E-4</v>
       </c>
       <c r="Y13" s="90"/>
       <c r="Z13" s="3"/>
@@ -14312,14 +14312,14 @@
         <v>AUBR6AB7Y=ICAA</v>
       </c>
       <c r="Q15" s="200">
-        <v>6.875</v>
+        <v>9.25</v>
       </c>
       <c r="R15" s="200">
-        <v>8.875</v>
+        <v>11.25</v>
       </c>
       <c r="S15" s="191">
         <f>_xll.qlMidEquivalent(Q15,R15)</f>
-        <v>7.875</v>
+        <v>10.25</v>
       </c>
       <c r="T15" s="102"/>
       <c r="U15" s="199">
@@ -14327,11 +14327,11 @@
       </c>
       <c r="V15" s="102"/>
       <c r="W15" s="208">
-        <v>7.875</v>
+        <v>10.25</v>
       </c>
       <c r="X15" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F15,W15/10000,Trigger)</f>
-        <v>1.2500000000000033E-5</v>
+        <v>2.3750000000000008E-4</v>
       </c>
       <c r="Y15" s="90"/>
       <c r="Z15" s="3"/>
@@ -14525,14 +14525,14 @@
         <v>AUBR6AB10Y=ICAA</v>
       </c>
       <c r="Q18" s="200">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R18" s="200">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S18" s="191">
         <f>_xll.qlMidEquivalent(Q18,R18)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T18" s="102"/>
       <c r="U18" s="199">
@@ -14540,11 +14540,11 @@
       </c>
       <c r="V18" s="102"/>
       <c r="W18" s="208">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X18" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F18,W18/10000,Trigger)</f>
-        <v>1.2500000000000033E-5</v>
+        <v>1.9999999999999998E-4</v>
       </c>
       <c r="Y18" s="90"/>
       <c r="Z18" s="3"/>
@@ -14667,14 +14667,14 @@
         <v>AUBR6AB12Y=ICAA</v>
       </c>
       <c r="Q20" s="200">
-        <v>6.25</v>
+        <v>7.875</v>
       </c>
       <c r="R20" s="200">
-        <v>9.25</v>
+        <v>10.875</v>
       </c>
       <c r="S20" s="191">
         <f>_xll.qlMidEquivalent(Q20,R20)</f>
-        <v>7.75</v>
+        <v>9.375</v>
       </c>
       <c r="T20" s="102"/>
       <c r="U20" s="199">
@@ -14682,11 +14682,11 @@
       </c>
       <c r="V20" s="102"/>
       <c r="W20" s="208">
-        <v>7.75</v>
+        <v>9.375</v>
       </c>
       <c r="X20" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F20,W20/10000,Trigger)</f>
-        <v>1.2499999999999924E-5</v>
+        <v>1.6249999999999999E-4</v>
       </c>
       <c r="Y20" s="90"/>
       <c r="Z20" s="3"/>
@@ -14880,14 +14880,14 @@
         <v>AUBR6AB15Y=ICAA</v>
       </c>
       <c r="Q23" s="200">
-        <v>5.5</v>
+        <v>6.75</v>
       </c>
       <c r="R23" s="200">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="S23" s="191">
         <f>_xll.qlMidEquivalent(Q23,R23)</f>
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="T23" s="102"/>
       <c r="U23" s="199">
@@ -14895,11 +14895,11 @@
       </c>
       <c r="V23" s="102"/>
       <c r="W23" s="208">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="X23" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F23,W23/10000,Trigger)</f>
-        <v>1.2500000000000033E-5</v>
+        <v>1.25E-4</v>
       </c>
       <c r="Y23" s="90"/>
       <c r="Z23" s="3"/>
@@ -15235,14 +15235,14 @@
         <v>AUBR6AB20Y=ICAA</v>
       </c>
       <c r="Q28" s="200">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="R28" s="200">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="S28" s="191">
         <f>_xll.qlMidEquivalent(Q28,R28)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T28" s="102"/>
       <c r="U28" s="199">
@@ -15250,11 +15250,11 @@
       </c>
       <c r="V28" s="102"/>
       <c r="W28" s="208">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X28" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F28,W28/10000,Trigger)</f>
-        <v>3.749999999999999E-5</v>
+        <v>1.0000000000000005E-4</v>
       </c>
       <c r="Y28" s="90"/>
       <c r="Z28" s="3"/>
@@ -15590,14 +15590,14 @@
         <v>AUBR6AB25Y=ICAA</v>
       </c>
       <c r="Q33" s="200">
-        <v>3.375</v>
+        <v>4.5</v>
       </c>
       <c r="R33" s="200">
-        <v>6.375</v>
+        <v>7.5</v>
       </c>
       <c r="S33" s="191">
         <f>_xll.qlMidEquivalent(Q33,R33)</f>
-        <v>4.875</v>
+        <v>6</v>
       </c>
       <c r="T33" s="102"/>
       <c r="U33" s="199">
@@ -15605,11 +15605,11 @@
       </c>
       <c r="V33" s="102"/>
       <c r="W33" s="208">
-        <v>4.875</v>
+        <v>6</v>
       </c>
       <c r="X33" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F33,W33/10000,Trigger)</f>
-        <v>3.749999999999999E-5</v>
+        <v>1.1249999999999997E-4</v>
       </c>
       <c r="Y33" s="90"/>
       <c r="Z33" s="3"/>
@@ -15945,14 +15945,14 @@
         <v>AUBR6AB30Y=ICAA</v>
       </c>
       <c r="Q38" s="200">
-        <v>2.375</v>
+        <v>3.625</v>
       </c>
       <c r="R38" s="200">
-        <v>5.375</v>
+        <v>6.625</v>
       </c>
       <c r="S38" s="191">
         <f>_xll.qlMidEquivalent(Q38,R38)</f>
-        <v>3.875</v>
+        <v>5.125</v>
       </c>
       <c r="T38" s="102"/>
       <c r="U38" s="199">
@@ -15960,11 +15960,11 @@
       </c>
       <c r="V38" s="102"/>
       <c r="W38" s="208">
-        <v>3.875</v>
+        <v>5.125</v>
       </c>
       <c r="X38" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F38,W38/10000,Trigger)</f>
-        <v>2.5000000000000011E-5</v>
+        <v>1.2500000000000006E-4</v>
       </c>
       <c r="Y38" s="90"/>
       <c r="Z38" s="3"/>
@@ -16491,7 +16491,7 @@
       </c>
       <c r="Q5" s="233" t="str">
         <f>_xll.RData(Q6:Q12,R5:T5,"RTFEED:IDN",,,R6)</f>
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:36:41</v>
       </c>
       <c r="R5" s="233" t="s">
         <v>175</v>
@@ -16567,7 +16567,7 @@
         <v>AUCASH=RBAA</v>
       </c>
       <c r="R6" s="273">
-        <v>41897</v>
+        <v>41911</v>
       </c>
       <c r="S6" s="295">
         <v>2.5</v>
@@ -18372,7 +18372,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:Z96"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -18476,8 +18476,8 @@
       <c r="U3" s="102"/>
       <c r="V3" s="51"/>
       <c r="W3" s="123">
-        <f>_xll.ohTrigger(W5:W24)</f>
-        <v>2</v>
+        <f>_xll.ohTrigger(W5:W58)</f>
+        <v>3</v>
       </c>
       <c r="X3" s="90"/>
     </row>
@@ -18506,7 +18506,7 @@
       <c r="L4" s="50"/>
       <c r="M4" s="174" t="str">
         <f>_xll.RData(M5:M58,N4:Q4,"RTFEED:IDN",ReutersRtMode,,N5)</f>
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:36:41</v>
       </c>
       <c r="N4" s="171" t="s">
         <v>130</v>
@@ -18769,10 +18769,10 @@
         <v>AUD1MOIS=ICAA</v>
       </c>
       <c r="N8" s="101">
-        <v>2.4969999999999999</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="O8" s="101">
-        <v>2.508</v>
+        <v>2.5049999999999999</v>
       </c>
       <c r="P8" s="101">
         <v>0</v>
@@ -18782,7 +18782,7 @@
       </c>
       <c r="R8" s="104">
         <f>_xll.qlMidEquivalent($N8,$O8,$P8,$Q8)</f>
-        <v>2.5024999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="S8" s="102"/>
       <c r="T8" s="103">
@@ -18790,11 +18790,11 @@
       </c>
       <c r="U8" s="102"/>
       <c r="V8" s="154">
-        <v>2.5024999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="W8" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E8,V8/100,Trigger)</f>
-        <v>6.4999999999999086E-5</v>
+        <v>-2.4999999999997247E-5</v>
       </c>
       <c r="X8" s="90"/>
       <c r="Z8"/>
@@ -18835,10 +18835,10 @@
         <v>AUD2MOIS=ICAA</v>
       </c>
       <c r="N9" s="101">
-        <v>2.4969999999999999</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="O9" s="101">
-        <v>2.508</v>
+        <v>2.5049999999999999</v>
       </c>
       <c r="P9" s="101">
         <v>0</v>
@@ -18848,7 +18848,7 @@
       </c>
       <c r="R9" s="104">
         <f>_xll.qlMidEquivalent($N9,$O9,$P9,$Q9)</f>
-        <v>2.5024999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="S9" s="102"/>
       <c r="T9" s="103">
@@ -18856,11 +18856,11 @@
       </c>
       <c r="U9" s="102"/>
       <c r="V9" s="154">
-        <v>2.5024999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="W9" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E9,V9/100,Trigger)</f>
-        <v>8.4999999999994802E-5</v>
+        <v>-2.4999999999997247E-5</v>
       </c>
       <c r="X9" s="90"/>
     </row>
@@ -18903,7 +18903,7 @@
         <v>2.4969999999999999</v>
       </c>
       <c r="O10" s="101">
-        <v>2.508</v>
+        <v>2.5030000000000001</v>
       </c>
       <c r="P10" s="101">
         <v>0</v>
@@ -18913,7 +18913,7 @@
       </c>
       <c r="R10" s="104">
         <f>_xll.qlMidEquivalent($N10,$O10,$P10,$Q10)</f>
-        <v>2.5024999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="S10" s="102"/>
       <c r="T10" s="103">
@@ -18921,11 +18921,11 @@
       </c>
       <c r="U10" s="102"/>
       <c r="V10" s="154">
-        <v>2.5024999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="W10" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E10,V10/100,Trigger)</f>
-        <v>1.2499999999999664E-4</v>
+        <v>-2.4999999999997247E-5</v>
       </c>
       <c r="X10" s="90"/>
     </row>
@@ -18965,10 +18965,10 @@
         <v>AUD4MOIS=ICAA</v>
       </c>
       <c r="N11" s="101">
-        <v>2.4950000000000001</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="O11" s="101">
-        <v>2.5049999999999999</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="P11" s="101">
         <v>0</v>
@@ -18990,7 +18990,7 @@
       </c>
       <c r="W11" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E11,V11/100,Trigger)</f>
-        <v>1.4999999999999736E-4</v>
+        <v>0</v>
       </c>
       <c r="X11" s="90"/>
     </row>
@@ -19030,10 +19030,10 @@
         <v>AUD5MOIS=ICAA</v>
       </c>
       <c r="N12" s="101">
-        <v>2.4950000000000001</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="O12" s="101">
-        <v>2.5030000000000001</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="P12" s="101">
         <v>0</v>
@@ -19043,7 +19043,7 @@
       </c>
       <c r="R12" s="104">
         <f>_xll.qlMidEquivalent($N12,$O12,$P12,$Q12)</f>
-        <v>2.4990000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="S12" s="102"/>
       <c r="T12" s="103">
@@ -19051,11 +19051,11 @@
       </c>
       <c r="U12" s="102"/>
       <c r="V12" s="154">
-        <v>2.4990000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="W12" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E12,V12/100,Trigger)</f>
-        <v>1.6500000000000195E-4</v>
+        <v>9.9999999999995925E-6</v>
       </c>
       <c r="X12" s="90"/>
     </row>
@@ -19098,7 +19098,7 @@
         <v>2.4950000000000001</v>
       </c>
       <c r="O13" s="101">
-        <v>2.5049999999999999</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="P13" s="101">
         <v>0</v>
@@ -19108,7 +19108,7 @@
       </c>
       <c r="R13" s="104">
         <f>_xll.qlMidEquivalent($N13,$O13,$P13,$Q13)</f>
-        <v>2.5</v>
+        <v>2.5049999999999999</v>
       </c>
       <c r="S13" s="102"/>
       <c r="T13" s="103">
@@ -19116,11 +19116,11 @@
       </c>
       <c r="U13" s="102"/>
       <c r="V13" s="154">
-        <v>2.5</v>
+        <v>2.5049999999999999</v>
       </c>
       <c r="W13" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E13,V13/100,Trigger)</f>
-        <v>2.0000000000000226E-4</v>
+        <v>4.9999999999997963E-5</v>
       </c>
       <c r="X13" s="90"/>
     </row>
@@ -19290,10 +19290,10 @@
         <v>AUD9MOIS=ICAA</v>
       </c>
       <c r="N16" s="101">
-        <v>2.5049999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="O16" s="101">
-        <v>2.5129999999999999</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="P16" s="101">
         <v>0</v>
@@ -19303,7 +19303,7 @@
       </c>
       <c r="R16" s="104">
         <f>_xll.qlMidEquivalent($N16,$O16,$P16,$Q16)</f>
-        <v>2.5089999999999999</v>
+        <v>2.5149999999999997</v>
       </c>
       <c r="S16" s="102"/>
       <c r="T16" s="103">
@@ -19311,11 +19311,11 @@
       </c>
       <c r="U16" s="102"/>
       <c r="V16" s="154">
-        <v>2.5089999999999999</v>
+        <v>2.5149999999999997</v>
       </c>
       <c r="W16" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E16,V16/100,Trigger)</f>
-        <v>3.1499999999999584E-4</v>
+        <v>5.9999999999997555E-5</v>
       </c>
       <c r="X16" s="90"/>
     </row>
@@ -19485,7 +19485,7 @@
         <v>AUD12MOIS=ICAA</v>
       </c>
       <c r="N19" s="101">
-        <v>2.5299999999999998</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="O19" s="101">
         <v>2.54</v>
@@ -19498,7 +19498,7 @@
       </c>
       <c r="R19" s="104">
         <f>_xll.qlMidEquivalent($N19,$O19,$P19,$Q19)</f>
-        <v>2.5350000000000001</v>
+        <v>2.5249999999999999</v>
       </c>
       <c r="S19" s="102"/>
       <c r="T19" s="103">
@@ -19506,11 +19506,11 @@
       </c>
       <c r="U19" s="102"/>
       <c r="V19" s="154">
-        <v>2.5350000000000001</v>
+        <v>2.5249999999999999</v>
       </c>
       <c r="W19" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E19,V19/100,Trigger)</f>
-        <v>4.750000000000032E-4</v>
+        <v>-1.0000000000000286E-4</v>
       </c>
       <c r="X19" s="90"/>
     </row>
@@ -19875,10 +19875,10 @@
         <v>AUD18MOIS=ICAA</v>
       </c>
       <c r="N25" s="101">
-        <v>2.6</v>
+        <v>2.5449999999999999</v>
       </c>
       <c r="O25" s="101">
-        <v>2.65</v>
+        <v>2.5950000000000002</v>
       </c>
       <c r="P25" s="101">
         <v>0</v>
@@ -19888,7 +19888,7 @@
       </c>
       <c r="R25" s="104">
         <f>_xll.qlMidEquivalent($N25,$O25,$P25,$Q25)</f>
-        <v>2.625</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="S25" s="102"/>
       <c r="T25" s="103">
@@ -19896,11 +19896,11 @@
       </c>
       <c r="U25" s="102"/>
       <c r="V25" s="154">
-        <v>2.625</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="W25" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E25,V25/100,Trigger)</f>
-        <v>8.2499999999999588E-4</v>
+        <v>-5.4999999999999494E-4</v>
       </c>
       <c r="X25" s="90"/>
     </row>
@@ -20265,10 +20265,10 @@
         <v>AUD2YOIS=ICAA</v>
       </c>
       <c r="N31" s="101">
-        <v>2.7</v>
+        <v>2.605</v>
       </c>
       <c r="O31" s="101">
-        <v>2.72</v>
+        <v>2.6549999999999998</v>
       </c>
       <c r="P31" s="101">
         <v>0</v>
@@ -20278,7 +20278,7 @@
       </c>
       <c r="R31" s="104">
         <f>_xll.qlMidEquivalent($N31,$O31,$P31,$Q31)</f>
-        <v>2.71</v>
+        <v>2.63</v>
       </c>
       <c r="S31" s="102"/>
       <c r="T31" s="103">
@@ -20286,11 +20286,11 @@
       </c>
       <c r="U31" s="102"/>
       <c r="V31" s="154">
-        <v>2.71</v>
+        <v>2.63</v>
       </c>
       <c r="W31" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E31,V31/100,Trigger)</f>
-        <v>8.9999999999999802E-4</v>
+        <v>-7.9999999999999863E-4</v>
       </c>
       <c r="X31" s="90"/>
     </row>
@@ -20525,10 +20525,10 @@
         <v>AUD3YOIS=ICAA</v>
       </c>
       <c r="N35" s="101">
-        <v>2.9249999999999998</v>
+        <v>2.78</v>
       </c>
       <c r="O35" s="101">
-        <v>2.9750000000000001</v>
+        <v>2.83</v>
       </c>
       <c r="P35" s="101">
         <v>0</v>
@@ -20538,7 +20538,7 @@
       </c>
       <c r="R35" s="104">
         <f>_xll.qlMidEquivalent($N35,$O35,$P35,$Q35)</f>
-        <v>2.95</v>
+        <v>2.8049999999999997</v>
       </c>
       <c r="S35" s="102"/>
       <c r="T35" s="103">
@@ -20546,11 +20546,11 @@
       </c>
       <c r="U35" s="102"/>
       <c r="V35" s="154">
-        <v>2.95</v>
+        <v>2.8049999999999997</v>
       </c>
       <c r="W35" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E35,V35/100,Trigger)</f>
-        <v>1.1999999999999997E-3</v>
+        <v>-1.4500000000000034E-3</v>
       </c>
       <c r="X35" s="90"/>
     </row>
@@ -22210,7 +22210,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Z96"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -22322,8 +22322,8 @@
       <c r="W3" s="102"/>
       <c r="X3" s="51"/>
       <c r="Y3" s="123">
-        <f>_xll.ohTrigger(Y5:Y24)</f>
-        <v>2</v>
+        <f>_xll.ohTrigger(Y5:Y58)</f>
+        <v>3</v>
       </c>
       <c r="Z3" s="90"/>
     </row>
@@ -22352,7 +22352,7 @@
       <c r="N4" s="50"/>
       <c r="O4" s="174" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:36:41</v>
       </c>
       <c r="P4" s="171" t="s">
         <v>130</v>
@@ -23420,20 +23420,20 @@
         <v>AUD1YMTOIS=ICAA</v>
       </c>
       <c r="P19" s="101">
-        <v>2.5099999999999998</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="Q19" s="101">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="R19" s="101">
         <v>0</v>
       </c>
       <c r="S19" s="101">
-        <v>2.5350000000000001</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="T19" s="104">
         <f>_xll.qlMidEquivalent($P19,$Q19,$R19,$S19)</f>
-        <v>2.5350000000000001</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="U19" s="102"/>
       <c r="V19" s="103">
@@ -23441,11 +23441,11 @@
       </c>
       <c r="W19" s="102"/>
       <c r="X19" s="154">
-        <v>2.5350000000000001</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="Y19" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F19,X19/100,Trigger)</f>
-        <v>4.7000000000000167E-4</v>
+        <v>-1.9999999999999879E-4</v>
       </c>
       <c r="Z19" s="90"/>
     </row>
@@ -23846,20 +23846,20 @@
         <v>AUD18MMTOIS=ICAA</v>
       </c>
       <c r="P25" s="101">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="Q25" s="101">
         <v>2.5649999999999999</v>
-      </c>
-      <c r="Q25" s="101">
-        <v>2.6150000000000002</v>
       </c>
       <c r="R25" s="101">
         <v>0</v>
       </c>
       <c r="S25" s="101">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="T25" s="104">
         <f>_xll.qlMidEquivalent($P25,$Q25,$R25,$S25)</f>
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="U25" s="102"/>
       <c r="V25" s="103">
@@ -23867,11 +23867,11 @@
       </c>
       <c r="W25" s="102"/>
       <c r="X25" s="154">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="Y25" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F25,X25/100,Trigger)</f>
-        <v>7.499999999999972E-4</v>
+        <v>-5.0000000000000044E-4</v>
       </c>
       <c r="Z25" s="90"/>
     </row>
@@ -24272,20 +24272,20 @@
         <v>AUD2YMTOIS=ICAA</v>
       </c>
       <c r="P31" s="101">
-        <v>2.645</v>
+        <v>2.5649999999999999</v>
       </c>
       <c r="Q31" s="101">
-        <v>2.6949999999999998</v>
+        <v>2.6150000000000002</v>
       </c>
       <c r="R31" s="101">
         <v>0</v>
       </c>
       <c r="S31" s="101">
-        <v>2.67</v>
+        <v>2.59</v>
       </c>
       <c r="T31" s="104">
         <f>_xll.qlMidEquivalent($P31,$Q31,$R31,$S31)</f>
-        <v>2.67</v>
+        <v>2.59</v>
       </c>
       <c r="U31" s="102"/>
       <c r="V31" s="103">
@@ -24293,11 +24293,11 @@
       </c>
       <c r="W31" s="102"/>
       <c r="X31" s="154">
-        <v>2.67</v>
+        <v>2.59</v>
       </c>
       <c r="Y31" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F31,X31/100,Trigger)</f>
-        <v>8.9999999999999802E-4</v>
+        <v>-7.9999999999999863E-4</v>
       </c>
       <c r="Z31" s="90"/>
     </row>
@@ -24556,20 +24556,20 @@
         <v>AUD3YMTOIS=ICAA</v>
       </c>
       <c r="P35" s="101">
-        <v>2.82</v>
+        <v>2.7149999999999999</v>
       </c>
       <c r="Q35" s="101">
-        <v>2.87</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="R35" s="101">
         <v>0</v>
       </c>
       <c r="S35" s="101">
-        <v>2.8450000000000002</v>
+        <v>2.74</v>
       </c>
       <c r="T35" s="104">
         <f>_xll.qlMidEquivalent($P35,$Q35,$R35,$S35)</f>
-        <v>2.8449999999999998</v>
+        <v>2.74</v>
       </c>
       <c r="U35" s="102"/>
       <c r="V35" s="103">
@@ -24577,11 +24577,11 @@
       </c>
       <c r="W35" s="102"/>
       <c r="X35" s="154">
-        <v>2.8449999999999998</v>
+        <v>2.74</v>
       </c>
       <c r="Y35" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F35,X35/100,Trigger)</f>
-        <v>1.1999999999999962E-3</v>
+        <v>-1.0499999999999954E-3</v>
       </c>
       <c r="Z35" s="90"/>
     </row>
@@ -24840,20 +24840,20 @@
         <v>AUD4YMTOIS=ICAA</v>
       </c>
       <c r="P39" s="101">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="Q39" s="101">
-        <v>3.04</v>
+        <v>2.9</v>
       </c>
       <c r="R39" s="101">
         <v>0</v>
       </c>
       <c r="S39" s="101">
-        <v>3.0150000000000001</v>
+        <v>2.875</v>
       </c>
       <c r="T39" s="104">
         <f>_xll.qlMidEquivalent($P39,$Q39,$R39,$S39)</f>
-        <v>3.0150000000000001</v>
+        <v>2.875</v>
       </c>
       <c r="U39" s="102"/>
       <c r="V39" s="103">
@@ -24861,11 +24861,11 @@
       </c>
       <c r="W39" s="102"/>
       <c r="X39" s="154">
-        <v>3.0150000000000001</v>
+        <v>2.875</v>
       </c>
       <c r="Y39" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F39,X39/100,Trigger)</f>
-        <v>1.5499999999999958E-3</v>
+        <v>-1.3999999999999985E-3</v>
       </c>
       <c r="Z39" s="90"/>
     </row>
@@ -25124,20 +25124,20 @@
         <v>AUD5YMTOIS=ICAA</v>
       </c>
       <c r="P43" s="101">
-        <v>3.1579999999999999</v>
+        <v>2.9849999999999999</v>
       </c>
       <c r="Q43" s="101">
-        <v>3.2080000000000002</v>
+        <v>3.0350000000000001</v>
       </c>
       <c r="R43" s="101">
         <v>0</v>
       </c>
       <c r="S43" s="101">
-        <v>3.1829999999999998</v>
+        <v>3.01</v>
       </c>
       <c r="T43" s="104">
         <f>_xll.qlMidEquivalent($P43,$Q43,$R43,$S43)</f>
-        <v>3.1829999999999998</v>
+        <v>3.01</v>
       </c>
       <c r="U43" s="102"/>
       <c r="V43" s="103">
@@ -25145,11 +25145,11 @@
       </c>
       <c r="W43" s="102"/>
       <c r="X43" s="154">
-        <v>3.1829999999999998</v>
+        <v>3.01</v>
       </c>
       <c r="Y43" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F43,X43/100,Trigger)</f>
-        <v>1.8799999999999963E-3</v>
+        <v>-1.7299999999999989E-3</v>
       </c>
       <c r="Z43" s="90"/>
     </row>
@@ -25195,20 +25195,20 @@
         <v>AUD6YMTOIS=ICAA</v>
       </c>
       <c r="P44" s="101">
-        <v>3.2879999999999998</v>
+        <v>3.1150000000000002</v>
       </c>
       <c r="Q44" s="101">
-        <v>3.3380000000000001</v>
+        <v>3.165</v>
       </c>
       <c r="R44" s="101">
         <v>0</v>
       </c>
       <c r="S44" s="101">
-        <v>3.3130000000000002</v>
+        <v>3.14</v>
       </c>
       <c r="T44" s="104">
         <f>_xll.qlMidEquivalent($P44,$Q44,$R44,$S44)</f>
-        <v>3.3129999999999997</v>
+        <v>3.14</v>
       </c>
       <c r="U44" s="102"/>
       <c r="V44" s="103">
@@ -25216,11 +25216,11 @@
       </c>
       <c r="W44" s="102"/>
       <c r="X44" s="154">
-        <v>3.3129999999999997</v>
+        <v>3.14</v>
       </c>
       <c r="Y44" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F44,X44/100,Trigger)</f>
-        <v>1.9499999999999969E-3</v>
+        <v>-1.7299999999999954E-3</v>
       </c>
       <c r="Z44" s="90"/>
     </row>
@@ -25266,20 +25266,20 @@
         <v>AUD7YMTOIS=ICAA</v>
       </c>
       <c r="P45" s="101">
-        <v>3.415</v>
+        <v>3.2429999999999999</v>
       </c>
       <c r="Q45" s="101">
-        <v>3.4649999999999999</v>
+        <v>3.2930000000000001</v>
       </c>
       <c r="R45" s="101">
         <v>0</v>
       </c>
       <c r="S45" s="101">
-        <v>3.44</v>
+        <v>3.2679999999999998</v>
       </c>
       <c r="T45" s="104">
         <f>_xll.qlMidEquivalent($P45,$Q45,$R45,$S45)</f>
-        <v>3.44</v>
+        <v>3.2679999999999998</v>
       </c>
       <c r="U45" s="102"/>
       <c r="V45" s="103">
@@ -25287,11 +25287,11 @@
       </c>
       <c r="W45" s="102"/>
       <c r="X45" s="154">
-        <v>3.44</v>
+        <v>3.2679999999999998</v>
       </c>
       <c r="Y45" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F45,X45/100,Trigger)</f>
-        <v>1.9999999999999948E-3</v>
+        <v>-1.7199999999999993E-3</v>
       </c>
       <c r="Z45" s="90"/>
     </row>
@@ -25337,20 +25337,20 @@
         <v>AUD8YMTOIS=ICAA</v>
       </c>
       <c r="P46" s="101">
-        <v>3.5049999999999999</v>
+        <v>3.3279999999999998</v>
       </c>
       <c r="Q46" s="101">
-        <v>3.5550000000000002</v>
+        <v>3.3780000000000001</v>
       </c>
       <c r="R46" s="101">
         <v>0</v>
       </c>
       <c r="S46" s="101">
-        <v>3.53</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="T46" s="104">
         <f>_xll.qlMidEquivalent($P46,$Q46,$R46,$S46)</f>
-        <v>3.5300000000000002</v>
+        <v>3.3529999999999998</v>
       </c>
       <c r="U46" s="102"/>
       <c r="V46" s="103">
@@ -25358,11 +25358,11 @@
       </c>
       <c r="W46" s="102"/>
       <c r="X46" s="154">
-        <v>3.5300000000000002</v>
+        <v>3.3529999999999998</v>
       </c>
       <c r="Y46" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F46,X46/100,Trigger)</f>
-        <v>2.0700000000000024E-3</v>
+        <v>-1.7700000000000077E-3</v>
       </c>
       <c r="Z46" s="90"/>
     </row>
@@ -25408,20 +25408,20 @@
         <v>AUD9YMTOIS=ICAA</v>
       </c>
       <c r="P47" s="101">
-        <v>3.5979999999999999</v>
+        <v>3.41</v>
       </c>
       <c r="Q47" s="101">
-        <v>3.6480000000000001</v>
+        <v>3.46</v>
       </c>
       <c r="R47" s="101">
         <v>0</v>
       </c>
       <c r="S47" s="101">
-        <v>3.6230000000000002</v>
+        <v>3.4350000000000001</v>
       </c>
       <c r="T47" s="104">
         <f>_xll.qlMidEquivalent($P47,$Q47,$R47,$S47)</f>
-        <v>3.6230000000000002</v>
+        <v>3.4350000000000001</v>
       </c>
       <c r="U47" s="102"/>
       <c r="V47" s="103">
@@ -25429,11 +25429,11 @@
       </c>
       <c r="W47" s="102"/>
       <c r="X47" s="154">
-        <v>3.6230000000000002</v>
+        <v>3.4350000000000001</v>
       </c>
       <c r="Y47" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F47,X47/100,Trigger)</f>
-        <v>2.2000000000000075E-3</v>
+        <v>-1.8800000000000067E-3</v>
       </c>
       <c r="Z47" s="90"/>
     </row>
@@ -25479,20 +25479,20 @@
         <v>AUD10YMTOIS=ICAA</v>
       </c>
       <c r="P48" s="101">
-        <v>3.6880000000000002</v>
+        <v>3.4950000000000001</v>
       </c>
       <c r="Q48" s="101">
-        <v>3.738</v>
+        <v>3.5449999999999999</v>
       </c>
       <c r="R48" s="101">
         <v>0</v>
       </c>
       <c r="S48" s="101">
-        <v>3.7130000000000001</v>
+        <v>3.52</v>
       </c>
       <c r="T48" s="104">
         <f>_xll.qlMidEquivalent($P48,$Q48,$R48,$S48)</f>
-        <v>3.7130000000000001</v>
+        <v>3.52</v>
       </c>
       <c r="U48" s="102"/>
       <c r="V48" s="103">
@@ -25500,11 +25500,11 @@
       </c>
       <c r="W48" s="102"/>
       <c r="X48" s="154">
-        <v>3.7130000000000001</v>
+        <v>3.52</v>
       </c>
       <c r="Y48" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F48,X48/100,Trigger)</f>
-        <v>2.2799999999999973E-3</v>
+        <v>-1.9300000000000012E-3</v>
       </c>
       <c r="Z48" s="90"/>
     </row>
@@ -25550,20 +25550,20 @@
         <v>AUD12YMTOIS=ICAA</v>
       </c>
       <c r="P49" s="101">
-        <v>3.8330000000000002</v>
+        <v>3.6280000000000001</v>
       </c>
       <c r="Q49" s="101">
-        <v>3.883</v>
+        <v>3.6779999999999999</v>
       </c>
       <c r="R49" s="101">
         <v>0</v>
       </c>
       <c r="S49" s="101">
-        <v>3.8580000000000001</v>
+        <v>3.653</v>
       </c>
       <c r="T49" s="104">
         <f>_xll.qlMidEquivalent($P49,$Q49,$R49,$S49)</f>
-        <v>3.8580000000000001</v>
+        <v>3.653</v>
       </c>
       <c r="U49" s="102"/>
       <c r="V49" s="103">
@@ -25571,11 +25571,11 @@
       </c>
       <c r="W49" s="102"/>
       <c r="X49" s="154">
-        <v>3.8580000000000001</v>
+        <v>3.653</v>
       </c>
       <c r="Y49" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F49,X49/100,Trigger)</f>
-        <v>2.4500000000000008E-3</v>
+        <v>-2.0500000000000032E-3</v>
       </c>
       <c r="Z49" s="90"/>
     </row>
@@ -25621,20 +25621,20 @@
         <v>AUD15YMTOIS=ICAA</v>
       </c>
       <c r="P50" s="101">
-        <v>3.99</v>
+        <v>3.7850000000000001</v>
       </c>
       <c r="Q50" s="101">
-        <v>4.04</v>
+        <v>3.835</v>
       </c>
       <c r="R50" s="101">
         <v>0</v>
       </c>
       <c r="S50" s="101">
-        <v>4.0149999999999997</v>
+        <v>3.81</v>
       </c>
       <c r="T50" s="104">
         <f>_xll.qlMidEquivalent($P50,$Q50,$R50,$S50)</f>
-        <v>4.0150000000000006</v>
+        <v>3.81</v>
       </c>
       <c r="U50" s="102"/>
       <c r="V50" s="103">
@@ -25642,11 +25642,11 @@
       </c>
       <c r="W50" s="102"/>
       <c r="X50" s="154">
-        <v>4.0150000000000006</v>
+        <v>3.81</v>
       </c>
       <c r="Y50" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F50,X50/100,Trigger)</f>
-        <v>2.5500000000000106E-3</v>
+        <v>-2.0500000000000032E-3</v>
       </c>
       <c r="Z50" s="90"/>
     </row>
@@ -25692,20 +25692,20 @@
         <v>AUD20YMTOIS=ICAA</v>
       </c>
       <c r="P51" s="101">
-        <v>4.16</v>
+        <v>3.96</v>
       </c>
       <c r="Q51" s="101">
-        <v>4.21</v>
+        <v>4.01</v>
       </c>
       <c r="R51" s="101">
         <v>0</v>
       </c>
       <c r="S51" s="101">
-        <v>4.1849999999999996</v>
+        <v>3.9849999999999999</v>
       </c>
       <c r="T51" s="104">
         <f>_xll.qlMidEquivalent($P51,$Q51,$R51,$S51)</f>
-        <v>4.1850000000000005</v>
+        <v>3.9849999999999999</v>
       </c>
       <c r="U51" s="102"/>
       <c r="V51" s="103">
@@ -25713,11 +25713,11 @@
       </c>
       <c r="W51" s="102"/>
       <c r="X51" s="154">
-        <v>4.1850000000000005</v>
+        <v>3.9849999999999999</v>
       </c>
       <c r="Y51" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F51,X51/100,Trigger)</f>
-        <v>2.6700000000000057E-3</v>
+        <v>-2.0000000000000087E-3</v>
       </c>
       <c r="Z51" s="90"/>
     </row>
@@ -25763,20 +25763,20 @@
         <v>AUD25YMTOIS=ICAA</v>
       </c>
       <c r="P52" s="101">
-        <v>4.2229999999999999</v>
+        <v>4.0179999999999998</v>
       </c>
       <c r="Q52" s="101">
-        <v>4.2729999999999997</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="R52" s="101">
         <v>0</v>
       </c>
       <c r="S52" s="101">
-        <v>4.2480000000000002</v>
+        <v>4.0430000000000001</v>
       </c>
       <c r="T52" s="104">
         <f>_xll.qlMidEquivalent($P52,$Q52,$R52,$S52)</f>
-        <v>4.2479999999999993</v>
+        <v>4.0429999999999993</v>
       </c>
       <c r="U52" s="102"/>
       <c r="V52" s="103">
@@ -25784,11 +25784,11 @@
       </c>
       <c r="W52" s="102"/>
       <c r="X52" s="154">
-        <v>4.2479999999999993</v>
+        <v>4.0429999999999993</v>
       </c>
       <c r="Y52" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F52,X52/100,Trigger)</f>
-        <v>2.6799999999999879E-3</v>
+        <v>-2.0499999999999963E-3</v>
       </c>
       <c r="Z52" s="90"/>
     </row>
@@ -25905,20 +25905,20 @@
         <v>AUD30YMTOIS=ICAA</v>
       </c>
       <c r="P54" s="101">
-        <v>4.258</v>
+        <v>4.048</v>
       </c>
       <c r="Q54" s="101">
-        <v>4.3079999999999998</v>
+        <v>4.0979999999999999</v>
       </c>
       <c r="R54" s="101">
         <v>0</v>
       </c>
       <c r="S54" s="101">
-        <v>4.2830000000000004</v>
+        <v>4.0730000000000004</v>
       </c>
       <c r="T54" s="104">
         <f>_xll.qlMidEquivalent($P54,$Q54,$R54,$S54)</f>
-        <v>4.2829999999999995</v>
+        <v>4.0730000000000004</v>
       </c>
       <c r="U54" s="102"/>
       <c r="V54" s="103">
@@ -25926,11 +25926,11 @@
       </c>
       <c r="W54" s="102"/>
       <c r="X54" s="154">
-        <v>4.2829999999999995</v>
+        <v>4.0730000000000004</v>
       </c>
       <c r="Y54" s="100">
         <f>_xll.qlSimpleQuoteSetValue(F54,X54/100,Trigger)</f>
-        <v>2.6799999999999879E-3</v>
+        <v>-2.0999999999999908E-3</v>
       </c>
       <c r="Z54" s="90"/>
     </row>
@@ -26482,8 +26482,8 @@
       <c r="P3" s="102"/>
       <c r="Q3" s="124"/>
       <c r="R3" s="123">
-        <f>_xll.ohTrigger(R5:R18)</f>
-        <v>2</v>
+        <f>_xll.ohTrigger(R5:R22)</f>
+        <v>3</v>
       </c>
       <c r="S3" s="90"/>
       <c r="T3" s="3"/>
@@ -26513,7 +26513,7 @@
       <c r="I4" s="120"/>
       <c r="J4" s="98" t="str">
         <f>_xll.RData(J6:J22,K4:L4,,ReutersRtMode,,K6)</f>
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:36:41</v>
       </c>
       <c r="K4" s="98" t="s">
         <v>130</v>
@@ -27032,7 +27032,7 @@
       </c>
       <c r="R13" s="100">
         <f>_xll.qlSimpleQuoteSetValue(D13,Q13/100,Trigger)</f>
-        <v>-3.4694469519536142E-18</v>
+        <v>0</v>
       </c>
       <c r="S13" s="90"/>
       <c r="T13" s="3"/>
@@ -27472,7 +27472,7 @@
       </c>
       <c r="R21" s="100">
         <f>_xll.qlSimpleQuoteSetValue(D21,Q21/100,Trigger)</f>
-        <v>-3.4694469519536142E-18</v>
+        <v>0</v>
       </c>
       <c r="S21" s="90"/>
       <c r="T21" s="3"/>
@@ -27671,7 +27671,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -27785,7 +27785,7 @@
       <c r="W3" s="51"/>
       <c r="X3" s="123">
         <f>_xll.ohTrigger(X5:X19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="90"/>
       <c r="Z3" s="3"/>
@@ -27812,7 +27812,7 @@
       <c r="M4" s="29"/>
       <c r="N4" s="307" t="str">
         <f>_xll.RData(N5:N19,O4:R4,"RTFEED:IDN",ReutersRtMode,,O5)</f>
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:36:41</v>
       </c>
       <c r="O4" s="121" t="s">
         <v>130</v>
@@ -27886,20 +27886,20 @@
         <v>AUD1X4F=</v>
       </c>
       <c r="O5" s="136">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="P5" s="136">
-        <v>2.65</v>
+        <v>2.71</v>
       </c>
       <c r="Q5" s="105">
         <v>0</v>
       </c>
       <c r="R5" s="136">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="S5" s="313">
         <f>_xll.qlMidSafe($O5,$P5)</f>
-        <v>2.6349999999999998</v>
+        <v>2.6950000000000003</v>
       </c>
       <c r="T5" s="102"/>
       <c r="U5" s="138">
@@ -27908,11 +27908,11 @@
       <c r="V5" s="102"/>
       <c r="W5" s="161">
         <f t="array" ref="W5:W19">QuoteLive</f>
-        <v>2.6349999999999998</v>
+        <v>2.6950000000000003</v>
       </c>
       <c r="X5" s="113">
         <f>_xll.qlSimpleQuoteSetValue(E5,W5/100,Trigger)</f>
-        <v>1.4999999999999736E-4</v>
+        <v>6.0000000000000331E-4</v>
       </c>
       <c r="Y5" s="90"/>
       <c r="Z5" s="3"/>
@@ -27959,20 +27959,20 @@
         <v>AUD2X5F=</v>
       </c>
       <c r="O6" s="136">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="P6" s="136">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="Q6" s="105">
         <v>0</v>
       </c>
       <c r="R6" s="136">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="S6" s="313">
         <f>_xll.qlMidSafe($O6,$P6)</f>
-        <v>2.6349999999999998</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="T6" s="102"/>
       <c r="U6" s="134">
@@ -27980,11 +27980,11 @@
       </c>
       <c r="V6" s="102"/>
       <c r="W6" s="154">
-        <v>2.6349999999999998</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="X6" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E6,W6/100,Trigger)</f>
-        <v>2.5000000000000022E-4</v>
+        <v>4.0000000000000105E-4</v>
       </c>
       <c r="Y6" s="90"/>
       <c r="Z6" s="3"/>
@@ -28031,20 +28031,20 @@
         <v>AUD3X6F=</v>
       </c>
       <c r="O7" s="136">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="P7" s="136">
-        <v>2.66</v>
+        <v>2.69</v>
       </c>
       <c r="Q7" s="105">
         <v>0</v>
       </c>
       <c r="R7" s="136">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="S7" s="313">
         <f>_xll.qlMidSafe($O7,$P7)</f>
-        <v>2.645</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="T7" s="102"/>
       <c r="U7" s="134">
@@ -28052,11 +28052,11 @@
       </c>
       <c r="V7" s="102"/>
       <c r="W7" s="154">
-        <v>2.645</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="X7" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E7,W7/100,Trigger)</f>
-        <v>3.5000000000000309E-4</v>
+        <v>2.9999999999999818E-4</v>
       </c>
       <c r="Y7" s="90"/>
       <c r="Z7" s="3"/>
@@ -28103,20 +28103,20 @@
         <v>AUD4X7F=</v>
       </c>
       <c r="O8" s="136">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="P8" s="136">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="Q8" s="105">
         <v>0</v>
       </c>
       <c r="R8" s="136">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="S8" s="313">
         <f>_xll.qlMidSafe($O8,$P8)</f>
-        <v>2.6550000000000002</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="T8" s="102"/>
       <c r="U8" s="134">
@@ -28124,11 +28124,11 @@
       </c>
       <c r="V8" s="102"/>
       <c r="W8" s="154">
-        <v>2.6550000000000002</v>
+        <v>2.6749999999999998</v>
       </c>
       <c r="X8" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E8,W8/100,Trigger)</f>
-        <v>4.5000000000000595E-4</v>
+        <v>1.9999999999999532E-4</v>
       </c>
       <c r="Y8" s="90"/>
       <c r="Z8" s="3"/>
@@ -28175,20 +28175,20 @@
         <v>AUD5X8F=</v>
       </c>
       <c r="O9" s="136">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="P9" s="136">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q9" s="105">
         <v>0</v>
       </c>
       <c r="R9" s="136">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="S9" s="313">
         <f>_xll.qlMidSafe($O9,$P9)</f>
-        <v>2.665</v>
+        <v>2.6850000000000001</v>
       </c>
       <c r="T9" s="102"/>
       <c r="U9" s="134">
@@ -28196,11 +28196,11 @@
       </c>
       <c r="V9" s="102"/>
       <c r="W9" s="154">
-        <v>2.665</v>
+        <v>2.6850000000000001</v>
       </c>
       <c r="X9" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E9,W9/100,Trigger)</f>
-        <v>5.5000000000000188E-4</v>
+        <v>1.9999999999999879E-4</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="3"/>
@@ -28247,20 +28247,20 @@
         <v>AUD6X9F=</v>
       </c>
       <c r="O10" s="136">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="P10" s="136">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="Q10" s="105">
         <v>0</v>
       </c>
       <c r="R10" s="136">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="S10" s="313">
         <f>_xll.qlMidSafe($O10,$P10)</f>
-        <v>2.6850000000000001</v>
+        <v>2.6950000000000003</v>
       </c>
       <c r="T10" s="102"/>
       <c r="U10" s="134">
@@ -28268,11 +28268,11 @@
       </c>
       <c r="V10" s="102"/>
       <c r="W10" s="154">
-        <v>2.6850000000000001</v>
+        <v>2.6950000000000003</v>
       </c>
       <c r="X10" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E10,W10/100,Trigger)</f>
-        <v>7.5000000000000067E-4</v>
+        <v>1.0000000000000286E-4</v>
       </c>
       <c r="Y10" s="90"/>
       <c r="Z10" s="3"/>
@@ -28320,20 +28320,20 @@
         <v>AUD1X7F=</v>
       </c>
       <c r="O11" s="318">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="P11" s="318">
-        <v>2.68</v>
+        <v>2.73</v>
       </c>
       <c r="Q11" s="315">
         <v>0</v>
       </c>
       <c r="R11" s="318">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="S11" s="319">
         <f>_xll.qlMidSafe($O11,$P11)</f>
-        <v>2.66</v>
+        <v>2.71</v>
       </c>
       <c r="T11" s="102"/>
       <c r="U11" s="309">
@@ -28341,11 +28341,11 @@
       </c>
       <c r="V11" s="102"/>
       <c r="W11" s="310">
-        <v>2.66</v>
+        <v>2.71</v>
       </c>
       <c r="X11" s="311">
         <f>_xll.qlSimpleQuoteSetValue(E11,W11/100,Trigger)</f>
-        <v>4.0000000000000105E-4</v>
+        <v>4.9999999999999697E-4</v>
       </c>
       <c r="Y11" s="90"/>
       <c r="Z11" s="3"/>
@@ -28393,20 +28393,20 @@
         <v>AUD2X8F=</v>
       </c>
       <c r="O12" s="136">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="P12" s="136">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="Q12" s="105">
         <v>0</v>
       </c>
       <c r="R12" s="136">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="S12" s="313">
         <f>_xll.qlMidSafe($O12,$P12)</f>
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="T12" s="102"/>
       <c r="U12" s="134">
@@ -28414,11 +28414,11 @@
       </c>
       <c r="V12" s="102"/>
       <c r="W12" s="154">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="X12" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E12,W12/100,Trigger)</f>
-        <v>4.9999999999999697E-4</v>
+        <v>3.0000000000000512E-4</v>
       </c>
       <c r="Y12" s="90"/>
       <c r="Z12" s="3"/>
@@ -28466,20 +28466,20 @@
         <v>AUD3X9F=</v>
       </c>
       <c r="O13" s="136">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="P13" s="136">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="Q13" s="105">
         <v>0</v>
       </c>
       <c r="R13" s="136">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="S13" s="313">
         <f>_xll.qlMidSafe($O13,$P13)</f>
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="T13" s="102"/>
       <c r="U13" s="134">
@@ -28487,11 +28487,11 @@
       </c>
       <c r="V13" s="102"/>
       <c r="W13" s="154">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="X13" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E13,W13/100,Trigger)</f>
-        <v>4.9999999999999697E-4</v>
+        <v>3.0000000000000512E-4</v>
       </c>
       <c r="Y13" s="90"/>
       <c r="Z13" s="3"/>
@@ -28539,20 +28539,20 @@
         <v>AUD4X10F=</v>
       </c>
       <c r="O14" s="136">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="P14" s="136">
-        <v>2.71</v>
+        <v>2.74</v>
       </c>
       <c r="Q14" s="105">
         <v>0</v>
       </c>
       <c r="R14" s="136">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="S14" s="313">
         <f>_xll.qlMidSafe($O14,$P14)</f>
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="T14" s="102"/>
       <c r="U14" s="134">
@@ -28560,11 +28560,11 @@
       </c>
       <c r="V14" s="102"/>
       <c r="W14" s="154">
-        <v>2.69</v>
+        <v>2.72</v>
       </c>
       <c r="X14" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E14,W14/100,Trigger)</f>
-        <v>6.9999999999999923E-4</v>
+        <v>3.0000000000000165E-4</v>
       </c>
       <c r="Y14" s="90"/>
       <c r="Z14" s="3"/>
@@ -28612,20 +28612,20 @@
         <v>AUD5X11F=</v>
       </c>
       <c r="O15" s="136">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="P15" s="136">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q15" s="105">
         <v>0</v>
       </c>
       <c r="R15" s="136">
-        <v>2.68</v>
+        <v>2.71</v>
       </c>
       <c r="S15" s="313">
         <f>_xll.qlMidSafe($O15,$P15)</f>
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T15" s="102"/>
       <c r="U15" s="134">
@@ -28633,11 +28633,11 @@
       </c>
       <c r="V15" s="102"/>
       <c r="W15" s="154">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="X15" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E15,W15/100,Trigger)</f>
-        <v>7.000000000000027E-4</v>
+        <v>1.9999999999999879E-4</v>
       </c>
       <c r="Y15" s="90"/>
       <c r="Z15" s="3"/>
@@ -28685,20 +28685,20 @@
         <v>AUD6X12F=</v>
       </c>
       <c r="O16" s="136">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="P16" s="136">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q16" s="105">
         <v>0</v>
       </c>
       <c r="R16" s="136">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="S16" s="313">
         <f>_xll.qlMidSafe($O16,$P16)</f>
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T16" s="102"/>
       <c r="U16" s="134">
@@ -28706,11 +28706,11 @@
       </c>
       <c r="V16" s="102"/>
       <c r="W16" s="154">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X16" s="100">
         <f>_xll.qlSimpleQuoteSetValue(E16,W16/100,Trigger)</f>
-        <v>8.000000000000021E-4</v>
+        <v>1.9999999999999879E-4</v>
       </c>
       <c r="Y16" s="90"/>
       <c r="Z16" s="3"/>
@@ -29057,7 +29057,7 @@
       <c r="Y1" s="51"/>
       <c r="Z1" s="123">
         <f>_xll.ohTrigger(Z3:Z14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA1" s="168"/>
       <c r="AB1" s="3"/>
@@ -29117,7 +29117,7 @@
       </c>
       <c r="O2" s="98" t="str">
         <f>_xll.RData(O3:O14,P2:T2,"RTFEED:IDN",ReutersRtMode,,P3)</f>
-        <v>Updated at 10:16:04</v>
+        <v>Updated at 09:36:41</v>
       </c>
       <c r="P2" s="143" t="s">
         <v>150</v>
@@ -29167,15 +29167,15 @@
       </c>
       <c r="D3" s="64" t="str">
         <f t="array" ref="D3:D14">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C14)</f>
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E3" s="57" t="str">
         <f t="shared" ref="E3:E14" si="0">Currency&amp;$D$1&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>AUDFUT1MU4_Quote</v>
+        <v>AUDFUT1MV4_Quote</v>
       </c>
       <c r="F3" s="63" t="str">
         <f>_xll.qlSimpleQuote(E3,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MU4_Quote#0000</v>
+        <v>AUDFUT1MV4_Quote#0000</v>
       </c>
       <c r="G3" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -29191,11 +29191,11 @@
       </c>
       <c r="M3" s="114" t="str">
         <f t="array" ref="M3:M14">_xll.qlIMMcode(FuturesDates)</f>
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="N3" s="164">
         <f t="array" ref="N3:N14">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,$L3:$L14)</f>
-        <v>41899</v>
+        <v>41927</v>
       </c>
       <c r="O3" s="114" t="e">
         <f t="array" ref="O3:O14">VLOOKUP(Currency,LiffeCodes,2)&amp;FuturesCodes</f>
@@ -29275,15 +29275,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="58" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E4" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MV4_Quote</v>
+        <v>AUDFUT1MX4_Quote</v>
       </c>
       <c r="F4" s="56" t="str">
         <f>_xll.qlSimpleQuote(E4,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MV4_Quote#0000</v>
+        <v>AUDFUT1MX4_Quote#0000</v>
       </c>
       <c r="G4" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -29298,10 +29298,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="101" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="N4" s="157">
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="O4" s="101" t="e">
         <v>#NAME?</v>
@@ -29352,15 +29352,15 @@
       </c>
       <c r="AK4" s="64" t="str">
         <f t="array" ref="AK4:AK15">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$AJ4:$AJ123)</f>
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="AL4" s="93" t="str">
         <f t="shared" ref="AL4:AL15" si="1">Currency&amp;"FUT"&amp;$AN$1&amp;$AK4&amp;QuoteSuffix</f>
-        <v>AUDFUT1MU4_Quote</v>
+        <v>AUDFUT1MV4_Quote</v>
       </c>
       <c r="AM4" s="94" t="str">
         <f t="shared" ref="AM4:AM15" si="2">Currency&amp;"FUT"&amp;$AN$1&amp;$AK4&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>AUDFUT1MU4ConvAdj_Quote</v>
+        <v>AUDFUT1MV4ConvAdj_Quote</v>
       </c>
       <c r="AN4" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM4,IborIndex,$AK4,$AL4,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -29368,7 +29368,7 @@
       </c>
       <c r="AO4" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN4)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MU4_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MV4_Quote'</v>
       </c>
       <c r="AP4" s="168"/>
     </row>
@@ -29381,15 +29381,15 @@
         <v>0</v>
       </c>
       <c r="D5" s="58" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E5" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MX4_Quote</v>
+        <v>AUDFUT1MZ4_Quote</v>
       </c>
       <c r="F5" s="56" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MX4_Quote#0000</v>
+        <v>AUDFUT1MZ4_Quote#0000</v>
       </c>
       <c r="G5" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -29404,10 +29404,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="101" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="N5" s="157">
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="O5" s="101" t="e">
         <v>#NAME?</v>
@@ -29457,15 +29457,15 @@
         <v>0</v>
       </c>
       <c r="AK5" s="58" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="AL5" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MV4_Quote</v>
+        <v>AUDFUT1MX4_Quote</v>
       </c>
       <c r="AM5" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MV4ConvAdj_Quote</v>
+        <v>AUDFUT1MX4ConvAdj_Quote</v>
       </c>
       <c r="AN5" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM5,IborIndex,$AK5,$AL5,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -29473,7 +29473,7 @@
       </c>
       <c r="AO5" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN5)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MV4_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MX4_Quote'</v>
       </c>
       <c r="AP5" s="168"/>
     </row>
@@ -29486,15 +29486,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="58" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E6" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MZ4_Quote</v>
+        <v>AUDFUT1MF5_Quote</v>
       </c>
       <c r="F6" s="56" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MZ4_Quote#0000</v>
+        <v>AUDFUT1MF5_Quote#0000</v>
       </c>
       <c r="G6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -29509,10 +29509,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="101" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="N6" s="157">
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="O6" s="101" t="e">
         <v>#NAME?</v>
@@ -29562,15 +29562,15 @@
         <v>0</v>
       </c>
       <c r="AK6" s="58" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="AL6" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MX4_Quote</v>
+        <v>AUDFUT1MZ4_Quote</v>
       </c>
       <c r="AM6" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MX4ConvAdj_Quote</v>
+        <v>AUDFUT1MZ4ConvAdj_Quote</v>
       </c>
       <c r="AN6" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM6,IborIndex,$AK6,$AL6,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -29578,7 +29578,7 @@
       </c>
       <c r="AO6" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN6)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MX4_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MZ4_Quote'</v>
       </c>
       <c r="AP6" s="168"/>
       <c r="AQ6" s="210"/>
@@ -29592,15 +29592,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="58" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E7" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MF5_Quote</v>
+        <v>AUDFUT1MG5_Quote</v>
       </c>
       <c r="F7" s="56" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MF5_Quote#0000</v>
+        <v>AUDFUT1MG5_Quote#0000</v>
       </c>
       <c r="G7" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -29615,10 +29615,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="101" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="N7" s="157">
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="O7" s="101" t="e">
         <v>#NAME?</v>
@@ -29668,15 +29668,15 @@
         <v>0</v>
       </c>
       <c r="AK7" s="58" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="AL7" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MZ4_Quote</v>
+        <v>AUDFUT1MF5_Quote</v>
       </c>
       <c r="AM7" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MZ4ConvAdj_Quote</v>
+        <v>AUDFUT1MF5ConvAdj_Quote</v>
       </c>
       <c r="AN7" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM7,IborIndex,$AK7,$AL7,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -29684,7 +29684,7 @@
       </c>
       <c r="AO7" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN7)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MZ4_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MF5_Quote'</v>
       </c>
       <c r="AP7" s="168"/>
     </row>
@@ -29697,15 +29697,15 @@
         <v>0</v>
       </c>
       <c r="D8" s="58" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E8" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MG5_Quote</v>
+        <v>AUDFUT1MH5_Quote</v>
       </c>
       <c r="F8" s="56" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MG5_Quote#0000</v>
+        <v>AUDFUT1MH5_Quote#0000</v>
       </c>
       <c r="G8" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -29720,10 +29720,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="101" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="N8" s="157">
-        <v>42053</v>
+        <v>42081</v>
       </c>
       <c r="O8" s="101" t="e">
         <v>#NAME?</v>
@@ -29773,15 +29773,15 @@
         <v>0</v>
       </c>
       <c r="AK8" s="58" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="AL8" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MF5_Quote</v>
+        <v>AUDFUT1MG5_Quote</v>
       </c>
       <c r="AM8" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MF5ConvAdj_Quote</v>
+        <v>AUDFUT1MG5ConvAdj_Quote</v>
       </c>
       <c r="AN8" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM8,IborIndex,$AK8,$AL8,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -29789,7 +29789,7 @@
       </c>
       <c r="AO8" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN8)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MF5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MG5_Quote'</v>
       </c>
       <c r="AP8" s="168"/>
     </row>
@@ -29802,15 +29802,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="58" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E9" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MH5_Quote</v>
+        <v>AUDFUT1MJ5_Quote</v>
       </c>
       <c r="F9" s="56" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MH5_Quote#0000</v>
+        <v>AUDFUT1MJ5_Quote#0000</v>
       </c>
       <c r="G9" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -29825,10 +29825,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="101" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="N9" s="157">
-        <v>42081</v>
+        <v>42109</v>
       </c>
       <c r="O9" s="101" t="e">
         <v>#NAME?</v>
@@ -29878,15 +29878,15 @@
         <v>0</v>
       </c>
       <c r="AK9" s="58" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="AL9" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MG5_Quote</v>
+        <v>AUDFUT1MH5_Quote</v>
       </c>
       <c r="AM9" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MG5ConvAdj_Quote</v>
+        <v>AUDFUT1MH5ConvAdj_Quote</v>
       </c>
       <c r="AN9" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM9,IborIndex,$AK9,$AL9,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -29894,7 +29894,7 @@
       </c>
       <c r="AO9" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN9)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MG5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MH5_Quote'</v>
       </c>
       <c r="AP9" s="168"/>
     </row>
@@ -29907,15 +29907,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="58" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="E10" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MJ5_Quote</v>
+        <v>AUDFUT1MK5_Quote</v>
       </c>
       <c r="F10" s="56" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MJ5_Quote#0000</v>
+        <v>AUDFUT1MK5_Quote#0000</v>
       </c>
       <c r="G10" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -29930,10 +29930,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="101" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="N10" s="157">
-        <v>42109</v>
+        <v>42144</v>
       </c>
       <c r="O10" s="101" t="e">
         <v>#NAME?</v>
@@ -29983,15 +29983,15 @@
         <v>0</v>
       </c>
       <c r="AK10" s="58" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="AL10" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MH5_Quote</v>
+        <v>AUDFUT1MJ5_Quote</v>
       </c>
       <c r="AM10" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MH5ConvAdj_Quote</v>
+        <v>AUDFUT1MJ5ConvAdj_Quote</v>
       </c>
       <c r="AN10" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM10,IborIndex,$AK10,$AL10,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -29999,7 +29999,7 @@
       </c>
       <c r="AO10" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN10)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MH5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MJ5_Quote'</v>
       </c>
       <c r="AP10" s="168"/>
     </row>
@@ -30012,15 +30012,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="58" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="E11" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MK5_Quote</v>
+        <v>AUDFUT1MM5_Quote</v>
       </c>
       <c r="F11" s="56" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MK5_Quote#0000</v>
+        <v>AUDFUT1MM5_Quote#0000</v>
       </c>
       <c r="G11" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -30035,10 +30035,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="101" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="N11" s="157">
-        <v>42144</v>
+        <v>42172</v>
       </c>
       <c r="O11" s="101" t="e">
         <v>#NAME?</v>
@@ -30088,15 +30088,15 @@
         <v>0</v>
       </c>
       <c r="AK11" s="58" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="AL11" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MJ5_Quote</v>
+        <v>AUDFUT1MK5_Quote</v>
       </c>
       <c r="AM11" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MJ5ConvAdj_Quote</v>
+        <v>AUDFUT1MK5ConvAdj_Quote</v>
       </c>
       <c r="AN11" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM11,IborIndex,$AK11,$AL11,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -30104,7 +30104,7 @@
       </c>
       <c r="AO11" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN11)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MJ5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MK5_Quote'</v>
       </c>
       <c r="AP11" s="168"/>
     </row>
@@ -30117,15 +30117,15 @@
         <v>0</v>
       </c>
       <c r="D12" s="58" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="E12" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MM5_Quote</v>
+        <v>AUDFUT1MN5_Quote</v>
       </c>
       <c r="F12" s="56" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MM5_Quote#0000</v>
+        <v>AUDFUT1MN5_Quote#0000</v>
       </c>
       <c r="G12" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -30140,10 +30140,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="101" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="N12" s="157">
-        <v>42172</v>
+        <v>42200</v>
       </c>
       <c r="O12" s="101" t="e">
         <v>#NAME?</v>
@@ -30193,15 +30193,15 @@
         <v>0</v>
       </c>
       <c r="AK12" s="58" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="AL12" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MK5_Quote</v>
+        <v>AUDFUT1MM5_Quote</v>
       </c>
       <c r="AM12" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MK5ConvAdj_Quote</v>
+        <v>AUDFUT1MM5ConvAdj_Quote</v>
       </c>
       <c r="AN12" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM12,IborIndex,$AK12,$AL12,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -30209,7 +30209,7 @@
       </c>
       <c r="AO12" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN12)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MK5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MM5_Quote'</v>
       </c>
       <c r="AP12" s="168"/>
     </row>
@@ -30222,15 +30222,15 @@
         <v>0</v>
       </c>
       <c r="D13" s="58" t="str">
-        <v>N5</v>
+        <v>Q5</v>
       </c>
       <c r="E13" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MN5_Quote</v>
+        <v>AUDFUT1MQ5_Quote</v>
       </c>
       <c r="F13" s="56" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MN5_Quote#0000</v>
+        <v>AUDFUT1MQ5_Quote#0000</v>
       </c>
       <c r="G13" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -30245,10 +30245,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="101" t="str">
-        <v>N5</v>
+        <v>Q5</v>
       </c>
       <c r="N13" s="157">
-        <v>42200</v>
+        <v>42235</v>
       </c>
       <c r="O13" s="101" t="e">
         <v>#NAME?</v>
@@ -30298,15 +30298,15 @@
         <v>0</v>
       </c>
       <c r="AK13" s="58" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="AL13" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MM5_Quote</v>
+        <v>AUDFUT1MN5_Quote</v>
       </c>
       <c r="AM13" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MM5ConvAdj_Quote</v>
+        <v>AUDFUT1MN5ConvAdj_Quote</v>
       </c>
       <c r="AN13" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM13,IborIndex,$AK13,$AL13,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -30314,7 +30314,7 @@
       </c>
       <c r="AO13" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN13)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MM5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MN5_Quote'</v>
       </c>
       <c r="AP13" s="168"/>
     </row>
@@ -30327,15 +30327,15 @@
         <v>0</v>
       </c>
       <c r="D14" s="58" t="str">
-        <v>Q5</v>
+        <v>U5</v>
       </c>
       <c r="E14" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT1MQ5_Quote</v>
+        <v>AUDFUT1MU5_Quote</v>
       </c>
       <c r="F14" s="56" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT1MQ5_Quote#0000</v>
+        <v>AUDFUT1MU5_Quote#0000</v>
       </c>
       <c r="G14" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -30350,10 +30350,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="108" t="str">
-        <v>Q5</v>
+        <v>U5</v>
       </c>
       <c r="N14" s="150">
-        <v>42235</v>
+        <v>42263</v>
       </c>
       <c r="O14" s="108" t="e">
         <v>#NAME?</v>
@@ -30403,15 +30403,15 @@
         <v>0</v>
       </c>
       <c r="AK14" s="58" t="str">
-        <v>N5</v>
+        <v>Q5</v>
       </c>
       <c r="AL14" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MN5_Quote</v>
+        <v>AUDFUT1MQ5_Quote</v>
       </c>
       <c r="AM14" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MN5ConvAdj_Quote</v>
+        <v>AUDFUT1MQ5ConvAdj_Quote</v>
       </c>
       <c r="AN14" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM14,IborIndex,$AK14,$AL14,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -30419,7 +30419,7 @@
       </c>
       <c r="AO14" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN14)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MN5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MQ5_Quote'</v>
       </c>
       <c r="AP14" s="168"/>
     </row>
@@ -30463,15 +30463,15 @@
         <v>0</v>
       </c>
       <c r="AK15" s="58" t="str">
-        <v>Q5</v>
+        <v>U5</v>
       </c>
       <c r="AL15" s="93" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT1MQ5_Quote</v>
+        <v>AUDFUT1MU5_Quote</v>
       </c>
       <c r="AM15" s="94" t="str">
         <f t="shared" si="2"/>
-        <v>AUDFUT1MQ5ConvAdj_Quote</v>
+        <v>AUDFUT1MU5ConvAdj_Quote</v>
       </c>
       <c r="AN15" s="93" t="e">
         <f>_xll.qlFuturesConvAdjustmentQuote($AM15,IborIndex,$AK15,$AL15,Volatility,MeanReversion,Permanent,Trigger,ObjectOverwrite)</f>
@@ -30479,7 +30479,7 @@
       </c>
       <c r="AO15" s="17" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(AN15)</f>
-        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MQ5_Quote'</v>
+        <v>qlFuturesConvAdjustmentQuote - Error converting parameter 'FuturesQuote' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'AUDFUT1MU5_Quote'</v>
       </c>
       <c r="AP15" s="168"/>
     </row>
@@ -30517,8 +30517,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:AL47"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -30539,7 +30539,7 @@
     <col min="16" max="19" width="9.140625" style="34"/>
     <col min="20" max="20" width="10.140625" style="34" customWidth="1"/>
     <col min="21" max="21" width="9.140625" style="34"/>
-    <col min="22" max="22" width="6.28515625" style="374" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" style="372" customWidth="1"/>
     <col min="23" max="23" width="7.140625" style="95" customWidth="1"/>
     <col min="24" max="24" width="3.5703125" style="34" customWidth="1"/>
     <col min="25" max="25" width="9.42578125" style="34" customWidth="1"/>
@@ -30578,7 +30578,7 @@
       <c r="S1"/>
       <c r="T1" s="51"/>
       <c r="U1" s="51"/>
-      <c r="V1" s="371"/>
+      <c r="V1" s="369"/>
       <c r="W1" s="102"/>
       <c r="X1" s="102"/>
       <c r="Y1" s="102"/>
@@ -30622,7 +30622,7 @@
       <c r="S2" s="51"/>
       <c r="T2" s="51"/>
       <c r="U2" s="51"/>
-      <c r="V2" s="371"/>
+      <c r="V2" s="369"/>
       <c r="W2" s="102"/>
       <c r="X2" s="102"/>
       <c r="Y2" s="102"/>
@@ -30669,7 +30669,7 @@
       <c r="S3" s="51"/>
       <c r="T3" s="51"/>
       <c r="U3" s="51"/>
-      <c r="V3" s="371"/>
+      <c r="V3" s="369"/>
       <c r="W3" s="102"/>
       <c r="X3" s="102"/>
       <c r="Y3" s="102"/>
@@ -30677,7 +30677,7 @@
       <c r="AA3" s="51"/>
       <c r="AB3" s="123">
         <f>_xll.ohTrigger(AB5:AB46)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC3" s="168"/>
       <c r="AD3" s="3"/>
@@ -30736,7 +30736,7 @@
       </c>
       <c r="O4" s="174" t="str">
         <f>_xll.RData(O5:O46,P4:T4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 10:38:09</v>
+        <v>Updated at 09:39:01</v>
       </c>
       <c r="P4" s="171" t="s">
         <v>150</v>
@@ -30753,7 +30753,7 @@
       <c r="T4" s="171" t="s">
         <v>149</v>
       </c>
-      <c r="U4" s="376" t="s">
+      <c r="U4" s="374" t="s">
         <v>148</v>
       </c>
       <c r="V4" s="143" t="s">
@@ -30809,15 +30809,15 @@
       </c>
       <c r="D5" s="64" t="str">
         <f t="array" ref="D5:D46">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C5:$C46)</f>
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="E5" s="57" t="str">
         <f t="shared" ref="E5:E46" si="0">Currency&amp;$C$3&amp;$D$3&amp;$D5&amp;QuoteSuffix</f>
-        <v>AUDFUT3MU4_Quote</v>
+        <v>AUDFUT3MV4_Quote</v>
       </c>
       <c r="F5" s="63" t="str">
         <f>_xll.qlSimpleQuote(E5,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU4_Quote#0002</v>
+        <v>AUDFUT3MV4_Quote#0000</v>
       </c>
       <c r="G5" s="62" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -30833,42 +30833,42 @@
       </c>
       <c r="M5" s="114" t="str">
         <f t="array" ref="M5:M46">_xll.qlIMMcode(FuturesDates)</f>
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="N5" s="164">
         <f t="array" ref="N5:N46">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,$L5:$L46)</f>
-        <v>41899</v>
+        <v>41927</v>
       </c>
       <c r="O5" s="114" t="str">
         <f t="array" ref="O5:O46">"YBA"&amp;FuturesCodes</f>
-        <v>YBAU4</v>
-      </c>
-      <c r="P5" s="163">
-        <v>41893</v>
-      </c>
-      <c r="Q5" s="114">
-        <v>97.31</v>
-      </c>
-      <c r="R5" s="114">
-        <v>97.36</v>
-      </c>
-      <c r="S5" s="114">
-        <v>97.37</v>
-      </c>
-      <c r="T5" s="114">
-        <v>97.37</v>
-      </c>
-      <c r="U5" s="114">
+        <v>YBAV4</v>
+      </c>
+      <c r="P5" s="163" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q5" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="R5" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="S5" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="T5" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="U5" s="114" t="e">
         <f>_xll.qlMidSafe($Q5,$R5)</f>
-        <v>97.335000000000008</v>
-      </c>
-      <c r="V5" s="372">
+        <v>#NUM!</v>
+      </c>
+      <c r="V5" s="370" t="str">
         <f>_xll.RtGet("IDN",O5,"TRDVOL_1")</f>
-        <v>47</v>
-      </c>
-      <c r="W5" s="377">
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W5" s="375" t="str">
         <f>_xll.RtGet("IDN",O5,"OPINT_1")</f>
-        <v>2976</v>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X5" s="102" t="s">
         <v>224</v>
@@ -30877,13 +30877,13 @@
         <v>97.335000000000008</v>
       </c>
       <c r="Z5" s="102"/>
-      <c r="AA5" s="161">
+      <c r="AA5" s="161" t="e">
         <f t="array" ref="AA5:AA46">QuoteLive</f>
-        <v>97.335000000000008</v>
-      </c>
-      <c r="AB5" s="116">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB5" s="116" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F5,AA5,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC5" s="9"/>
       <c r="AD5" s="3"/>
@@ -30896,15 +30896,15 @@
       </c>
       <c r="AH5" s="64" t="str">
         <f t="array" ref="AH5:AH46">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$AG5:$AG46)</f>
-        <v>U4</v>
+        <v>V4</v>
       </c>
       <c r="AI5" s="94" t="str">
         <f t="shared" ref="AI5:AI46" si="1">Currency&amp;"FUT"&amp;$AK$3&amp;$AH5&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>AUDFUT3MU4ConvAdj_Quote</v>
+        <v>AUDFUT3MV4ConvAdj_Quote</v>
       </c>
       <c r="AJ5" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI5,IborIndex,AH5,F5,Volatility,MeanReversion,Permanent,AND(ISERROR(AB5),ISERROR(FuturesHWConvAdj!Q5:Q6)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU4ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MV4ConvAdj_Quote#0006</v>
       </c>
       <c r="AK5" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ5)</f>
@@ -30921,15 +30921,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="58" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="E6" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MV4_Quote</v>
+        <v>AUDFUT3MX4_Quote</v>
       </c>
       <c r="F6" s="56" t="str">
         <f>_xll.qlSimpleQuote(E6,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MV4_Quote#0002</v>
+        <v>AUDFUT3MX4_Quote#0000</v>
       </c>
       <c r="G6" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -30944,13 +30944,13 @@
         <v>0</v>
       </c>
       <c r="M6" s="101" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="N6" s="157">
-        <v>41927</v>
+        <v>41962</v>
       </c>
       <c r="O6" s="101" t="str">
-        <v>YBAV4</v>
+        <v>YBAX4</v>
       </c>
       <c r="P6" s="156" t="s">
         <v>221</v>
@@ -30971,11 +30971,11 @@
         <f>_xll.qlMidSafe($Q6,$R6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V6" s="372" t="str">
+      <c r="V6" s="370" t="str">
         <f>_xll.RtGet("IDN",O6,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W6" s="377" t="str">
+      <c r="W6" s="375" t="str">
         <f>_xll.RtGet("IDN",O6,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -31003,15 +31003,15 @@
         <v>0</v>
       </c>
       <c r="AH6" s="58" t="str">
-        <v>V4</v>
+        <v>X4</v>
       </c>
       <c r="AI6" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MV4ConvAdj_Quote</v>
+        <v>AUDFUT3MX4ConvAdj_Quote</v>
       </c>
       <c r="AJ6" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI6,IborIndex,AH6,F6,Volatility,MeanReversion,Permanent,AND(ISERROR(AB6),ISERROR(FuturesHWConvAdj!Q6:Q7)),ObjectOverwrite)</f>
-        <v>AUDFUT3MV4ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MX4ConvAdj_Quote#0006</v>
       </c>
       <c r="AK6" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ6)</f>
@@ -31028,15 +31028,15 @@
         <v>0</v>
       </c>
       <c r="D7" s="58" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="E7" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MX4_Quote</v>
+        <v>AUDFUT3MZ4_Quote</v>
       </c>
       <c r="F7" s="56" t="str">
         <f>_xll.qlSimpleQuote(E7,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MX4_Quote#0002</v>
+        <v>AUDFUT3MZ4_Quote#0000</v>
       </c>
       <c r="G7" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -31051,40 +31051,40 @@
         <v>0</v>
       </c>
       <c r="M7" s="101" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="N7" s="157">
-        <v>41962</v>
+        <v>41990</v>
       </c>
       <c r="O7" s="101" t="str">
-        <v>YBAX4</v>
-      </c>
-      <c r="P7" s="156" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q7" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="R7" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="S7" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="T7" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="U7" s="101" t="e">
+        <v>YBAZ4</v>
+      </c>
+      <c r="P7" s="156">
+        <v>41984</v>
+      </c>
+      <c r="Q7" s="101">
+        <v>97.32</v>
+      </c>
+      <c r="R7" s="101">
+        <v>97.33</v>
+      </c>
+      <c r="S7" s="101">
+        <v>0</v>
+      </c>
+      <c r="T7" s="101">
+        <v>97.32</v>
+      </c>
+      <c r="U7" s="101">
         <f>_xll.qlMidSafe($Q7,$R7)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="V7" s="372" t="str">
+        <v>97.324999999999989</v>
+      </c>
+      <c r="V7" s="370">
         <f>_xll.RtGet("IDN",O7,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W7" s="377" t="str">
+        <v>0</v>
+      </c>
+      <c r="W7" s="375">
         <f>_xll.RtGet("IDN",O7,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+        <v>199556</v>
       </c>
       <c r="X7" s="102" t="s">
         <v>224</v>
@@ -31093,12 +31093,12 @@
         <v>#NUM!</v>
       </c>
       <c r="Z7" s="102"/>
-      <c r="AA7" s="154" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AB7" s="104" t="e">
+      <c r="AA7" s="154">
+        <v>97.324999999999989</v>
+      </c>
+      <c r="AB7" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F7,AA7,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="9"/>
       <c r="AD7" s="3"/>
@@ -31110,15 +31110,15 @@
         <v>0</v>
       </c>
       <c r="AH7" s="58" t="str">
-        <v>X4</v>
+        <v>Z4</v>
       </c>
       <c r="AI7" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MX4ConvAdj_Quote</v>
+        <v>AUDFUT3MZ4ConvAdj_Quote</v>
       </c>
       <c r="AJ7" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI7,IborIndex,AH7,F7,Volatility,MeanReversion,Permanent,AND(ISERROR(AB7),ISERROR(FuturesHWConvAdj!Q7:Q8)),ObjectOverwrite)</f>
-        <v>AUDFUT3MX4ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MZ4ConvAdj_Quote#0006</v>
       </c>
       <c r="AK7" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ7)</f>
@@ -31135,15 +31135,15 @@
         <v>0</v>
       </c>
       <c r="D8" s="58" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="E8" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ4_Quote</v>
+        <v>AUDFUT3MF5_Quote</v>
       </c>
       <c r="F8" s="56" t="str">
         <f>_xll.qlSimpleQuote(E8,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ4_Quote#0002</v>
+        <v>AUDFUT3MF5_Quote#0000</v>
       </c>
       <c r="G8" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -31158,40 +31158,40 @@
         <v>0</v>
       </c>
       <c r="M8" s="101" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="N8" s="157">
-        <v>41990</v>
+        <v>42025</v>
       </c>
       <c r="O8" s="101" t="str">
-        <v>YBAZ4</v>
-      </c>
-      <c r="P8" s="156">
-        <v>41984</v>
-      </c>
-      <c r="Q8" s="101">
-        <v>97.35</v>
-      </c>
-      <c r="R8" s="101">
-        <v>97.36</v>
-      </c>
-      <c r="S8" s="101">
-        <v>0</v>
-      </c>
-      <c r="T8" s="101">
-        <v>97.35</v>
-      </c>
-      <c r="U8" s="101">
+        <v>YBAF5</v>
+      </c>
+      <c r="P8" s="156" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q8" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="R8" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="S8" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="T8" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="U8" s="101" t="e">
         <f>_xll.qlMidSafe($Q8,$R8)</f>
-        <v>97.35499999999999</v>
-      </c>
-      <c r="V8" s="372">
+        <v>#NUM!</v>
+      </c>
+      <c r="V8" s="370" t="str">
         <f>_xll.RtGet("IDN",O8,"TRDVOL_1")</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="377">
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W8" s="375" t="str">
         <f>_xll.RtGet("IDN",O8,"OPINT_1")</f>
-        <v>215781</v>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X8" s="102" t="s">
         <v>224</v>
@@ -31200,12 +31200,12 @@
         <v>97.35499999999999</v>
       </c>
       <c r="Z8" s="102"/>
-      <c r="AA8" s="154">
-        <v>97.35499999999999</v>
-      </c>
-      <c r="AB8" s="104">
+      <c r="AA8" s="154" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB8" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F8,AA8,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC8" s="9"/>
       <c r="AD8" s="3"/>
@@ -31217,15 +31217,15 @@
         <v>0</v>
       </c>
       <c r="AH8" s="58" t="str">
-        <v>Z4</v>
+        <v>F5</v>
       </c>
       <c r="AI8" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ4ConvAdj_Quote</v>
+        <v>AUDFUT3MF5ConvAdj_Quote</v>
       </c>
       <c r="AJ8" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI8,IborIndex,AH8,F8,Volatility,MeanReversion,Permanent,AND(ISERROR(AB8),ISERROR(FuturesHWConvAdj!Q8:Q9)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ4ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MF5ConvAdj_Quote#0006</v>
       </c>
       <c r="AK8" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ8)</f>
@@ -31242,15 +31242,15 @@
         <v>0</v>
       </c>
       <c r="D9" s="58" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="E9" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MF5_Quote</v>
+        <v>AUDFUT3MG5_Quote</v>
       </c>
       <c r="F9" s="56" t="str">
         <f>_xll.qlSimpleQuote(E9,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MF5_Quote#0002</v>
+        <v>AUDFUT3MG5_Quote#0000</v>
       </c>
       <c r="G9" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -31266,13 +31266,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="101" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="N9" s="157">
-        <v>42025</v>
+        <v>42053</v>
       </c>
       <c r="O9" s="101" t="str">
-        <v>YBAF5</v>
+        <v>YBAG5</v>
       </c>
       <c r="P9" s="156" t="s">
         <v>221</v>
@@ -31293,11 +31293,11 @@
         <f>_xll.qlMidSafe($Q9,$R9)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V9" s="372" t="str">
+      <c r="V9" s="370" t="str">
         <f>_xll.RtGet("IDN",O9,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W9" s="377" t="str">
+      <c r="W9" s="375" t="str">
         <f>_xll.RtGet("IDN",O9,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -31325,15 +31325,15 @@
         <v>0</v>
       </c>
       <c r="AH9" s="58" t="str">
-        <v>F5</v>
+        <v>G5</v>
       </c>
       <c r="AI9" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MF5ConvAdj_Quote</v>
+        <v>AUDFUT3MG5ConvAdj_Quote</v>
       </c>
       <c r="AJ9" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI9,IborIndex,AH9,F9,Volatility,MeanReversion,Permanent,AND(ISERROR(AB9),ISERROR(FuturesHWConvAdj!Q9:Q10)),ObjectOverwrite)</f>
-        <v>AUDFUT3MF5ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MG5ConvAdj_Quote#0006</v>
       </c>
       <c r="AK9" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ9)</f>
@@ -31350,15 +31350,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="58" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E10" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MG5_Quote</v>
+        <v>AUDFUT3MH5_Quote</v>
       </c>
       <c r="F10" s="56" t="str">
         <f>_xll.qlSimpleQuote(E10,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MG5_Quote#0002</v>
+        <v>AUDFUT3MH5_Quote#0000</v>
       </c>
       <c r="G10" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -31373,40 +31373,40 @@
         <v>0</v>
       </c>
       <c r="M10" s="101" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="N10" s="157">
-        <v>42053</v>
+        <v>42081</v>
       </c>
       <c r="O10" s="101" t="str">
-        <v>YBAG5</v>
-      </c>
-      <c r="P10" s="156" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q10" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="R10" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="S10" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="T10" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="U10" s="101" t="e">
+        <v>YBAH5</v>
+      </c>
+      <c r="P10" s="156">
+        <v>42075</v>
+      </c>
+      <c r="Q10" s="101">
+        <v>97.3</v>
+      </c>
+      <c r="R10" s="101">
+        <v>97.31</v>
+      </c>
+      <c r="S10" s="101">
+        <v>97.3</v>
+      </c>
+      <c r="T10" s="101">
+        <v>97.31</v>
+      </c>
+      <c r="U10" s="101">
         <f>_xll.qlMidSafe($Q10,$R10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="V10" s="372" t="str">
+        <v>97.305000000000007</v>
+      </c>
+      <c r="V10" s="370">
         <f>_xll.RtGet("IDN",O10,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W10" s="377" t="str">
+        <v>29</v>
+      </c>
+      <c r="W10" s="375">
         <f>_xll.RtGet("IDN",O10,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+        <v>182753</v>
       </c>
       <c r="X10" s="102" t="s">
         <v>224</v>
@@ -31415,12 +31415,12 @@
         <v>#NUM!</v>
       </c>
       <c r="Z10" s="102"/>
-      <c r="AA10" s="154" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AB10" s="104" t="e">
+      <c r="AA10" s="154">
+        <v>97.305000000000007</v>
+      </c>
+      <c r="AB10" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F10,AA10,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="9"/>
       <c r="AD10" s="3"/>
@@ -31432,15 +31432,15 @@
         <v>0</v>
       </c>
       <c r="AH10" s="58" t="str">
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="AI10" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MG5ConvAdj_Quote</v>
+        <v>AUDFUT3MH5ConvAdj_Quote</v>
       </c>
       <c r="AJ10" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI10,IborIndex,AH10,F10,Volatility,MeanReversion,Permanent,AND(ISERROR(AB10),ISERROR(FuturesHWConvAdj!Q10:Q11)),ObjectOverwrite)</f>
-        <v>AUDFUT3MG5ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MH5ConvAdj_Quote#0006</v>
       </c>
       <c r="AK10" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ10)</f>
@@ -31457,15 +31457,15 @@
         <v>0</v>
       </c>
       <c r="D11" s="58" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E11" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH5_Quote</v>
+        <v>AUDFUT3MJ5_Quote</v>
       </c>
       <c r="F11" s="56" t="str">
         <f>_xll.qlSimpleQuote(E11,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH5_Quote#0002</v>
+        <v>AUDFUT3MJ5_Quote#0000</v>
       </c>
       <c r="G11" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -31480,40 +31480,40 @@
         <v>0</v>
       </c>
       <c r="M11" s="101" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="N11" s="157">
-        <v>42081</v>
+        <v>42109</v>
       </c>
       <c r="O11" s="101" t="str">
-        <v>YBAH5</v>
-      </c>
-      <c r="P11" s="156">
-        <v>42075</v>
-      </c>
-      <c r="Q11" s="101">
-        <v>97.31</v>
-      </c>
-      <c r="R11" s="101">
-        <v>97.32</v>
-      </c>
-      <c r="S11" s="101">
-        <v>97.32</v>
-      </c>
-      <c r="T11" s="101">
-        <v>97.32</v>
-      </c>
-      <c r="U11" s="101">
+        <v>YBAJ5</v>
+      </c>
+      <c r="P11" s="156" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q11" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="R11" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="S11" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="T11" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="U11" s="101" t="e">
         <f>_xll.qlMidSafe($Q11,$R11)</f>
-        <v>97.314999999999998</v>
-      </c>
-      <c r="V11" s="372">
+        <v>#NUM!</v>
+      </c>
+      <c r="V11" s="370" t="str">
         <f>_xll.RtGet("IDN",O11,"TRDVOL_1")</f>
-        <v>3</v>
-      </c>
-      <c r="W11" s="377">
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W11" s="375" t="str">
         <f>_xll.RtGet("IDN",O11,"OPINT_1")</f>
-        <v>215123</v>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X11" s="102" t="s">
         <v>224</v>
@@ -31522,12 +31522,12 @@
         <v>97.314999999999998</v>
       </c>
       <c r="Z11" s="102"/>
-      <c r="AA11" s="154">
-        <v>97.314999999999998</v>
-      </c>
-      <c r="AB11" s="104">
+      <c r="AA11" s="154" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB11" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F11,AA11,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC11" s="9"/>
       <c r="AD11" s="3"/>
@@ -31539,15 +31539,15 @@
         <v>0</v>
       </c>
       <c r="AH11" s="58" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="AI11" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH5ConvAdj_Quote</v>
+        <v>AUDFUT3MJ5ConvAdj_Quote</v>
       </c>
       <c r="AJ11" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI11,IborIndex,AH11,F11,Volatility,MeanReversion,Permanent,AND(ISERROR(AB11),ISERROR(FuturesHWConvAdj!Q11:Q12)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH5ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MJ5ConvAdj_Quote#0006</v>
       </c>
       <c r="AK11" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ11)</f>
@@ -31564,15 +31564,15 @@
         <v>0</v>
       </c>
       <c r="D12" s="58" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="E12" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MJ5_Quote</v>
+        <v>AUDFUT3MK5_Quote</v>
       </c>
       <c r="F12" s="56" t="str">
         <f>_xll.qlSimpleQuote(E12,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MJ5_Quote#0002</v>
+        <v>AUDFUT3MK5_Quote#0000</v>
       </c>
       <c r="G12" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -31587,13 +31587,13 @@
         <v>0</v>
       </c>
       <c r="M12" s="101" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="N12" s="157">
-        <v>42109</v>
+        <v>42144</v>
       </c>
       <c r="O12" s="101" t="str">
-        <v>YBAJ5</v>
+        <v>YBAK5</v>
       </c>
       <c r="P12" s="156" t="s">
         <v>221</v>
@@ -31614,11 +31614,11 @@
         <f>_xll.qlMidSafe($Q12,$R12)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V12" s="372" t="str">
+      <c r="V12" s="370" t="str">
         <f>_xll.RtGet("IDN",O12,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W12" s="377" t="str">
+      <c r="W12" s="375" t="str">
         <f>_xll.RtGet("IDN",O12,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -31646,15 +31646,15 @@
         <v>0</v>
       </c>
       <c r="AH12" s="58" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="AI12" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MJ5ConvAdj_Quote</v>
+        <v>AUDFUT3MK5ConvAdj_Quote</v>
       </c>
       <c r="AJ12" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI12,IborIndex,AH12,F12,Volatility,MeanReversion,Permanent,AND(ISERROR(AB12),ISERROR(FuturesHWConvAdj!Q12:Q13)),ObjectOverwrite)</f>
-        <v>AUDFUT3MJ5ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MK5ConvAdj_Quote#0006</v>
       </c>
       <c r="AK12" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ12)</f>
@@ -31671,15 +31671,15 @@
         <v>0</v>
       </c>
       <c r="D13" s="58" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="E13" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MK5_Quote</v>
+        <v>AUDFUT3MM5_Quote</v>
       </c>
       <c r="F13" s="56" t="str">
         <f>_xll.qlSimpleQuote(E13,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MK5_Quote#0002</v>
+        <v>AUDFUT3MM5_Quote#0000</v>
       </c>
       <c r="G13" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -31694,40 +31694,40 @@
         <v>0</v>
       </c>
       <c r="M13" s="101" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="N13" s="157">
-        <v>42144</v>
+        <v>42172</v>
       </c>
       <c r="O13" s="101" t="str">
-        <v>YBAK5</v>
-      </c>
-      <c r="P13" s="156" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q13" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="R13" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="S13" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="T13" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="U13" s="101" t="e">
+        <v>YBAM5</v>
+      </c>
+      <c r="P13" s="156">
+        <v>42166</v>
+      </c>
+      <c r="Q13" s="101">
+        <v>97.27</v>
+      </c>
+      <c r="R13" s="101">
+        <v>97.28</v>
+      </c>
+      <c r="S13" s="101">
+        <v>97.27</v>
+      </c>
+      <c r="T13" s="101">
+        <v>97.27</v>
+      </c>
+      <c r="U13" s="101">
         <f>_xll.qlMidSafe($Q13,$R13)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="V13" s="372" t="str">
+        <v>97.275000000000006</v>
+      </c>
+      <c r="V13" s="370">
         <f>_xll.RtGet("IDN",O13,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W13" s="377" t="str">
+        <v>1</v>
+      </c>
+      <c r="W13" s="375">
         <f>_xll.RtGet("IDN",O13,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+        <v>182260</v>
       </c>
       <c r="X13" s="102" t="s">
         <v>224</v>
@@ -31736,12 +31736,12 @@
         <v>#NUM!</v>
       </c>
       <c r="Z13" s="102"/>
-      <c r="AA13" s="154" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AB13" s="104" t="e">
+      <c r="AA13" s="154">
+        <v>97.275000000000006</v>
+      </c>
+      <c r="AB13" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F13,AA13,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="9"/>
       <c r="AD13" s="3"/>
@@ -31753,15 +31753,15 @@
         <v>0</v>
       </c>
       <c r="AH13" s="58" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="AI13" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MK5ConvAdj_Quote</v>
+        <v>AUDFUT3MM5ConvAdj_Quote</v>
       </c>
       <c r="AJ13" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI13,IborIndex,AH13,F13,Volatility,MeanReversion,Permanent,AND(ISERROR(AB13),ISERROR(FuturesHWConvAdj!Q13:Q14)),ObjectOverwrite)</f>
-        <v>AUDFUT3MK5ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MM5ConvAdj_Quote#0006</v>
       </c>
       <c r="AK13" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ13)</f>
@@ -31778,15 +31778,15 @@
         <v>0</v>
       </c>
       <c r="D14" s="58" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="E14" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM5_Quote</v>
+        <v>AUDFUT3MN5_Quote</v>
       </c>
       <c r="F14" s="56" t="str">
         <f>_xll.qlSimpleQuote(E14,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM5_Quote#0002</v>
+        <v>AUDFUT3MN5_Quote#0000</v>
       </c>
       <c r="G14" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -31801,40 +31801,40 @@
         <v>0</v>
       </c>
       <c r="M14" s="101" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="N14" s="157">
-        <v>42172</v>
+        <v>42200</v>
       </c>
       <c r="O14" s="101" t="str">
-        <v>YBAM5</v>
-      </c>
-      <c r="P14" s="156">
-        <v>42166</v>
-      </c>
-      <c r="Q14" s="101">
-        <v>97.25</v>
-      </c>
-      <c r="R14" s="101">
-        <v>97.26</v>
-      </c>
-      <c r="S14" s="101">
-        <v>97.26</v>
-      </c>
-      <c r="T14" s="101">
-        <v>97.26</v>
-      </c>
-      <c r="U14" s="101">
+        <v>YBAN5</v>
+      </c>
+      <c r="P14" s="156" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q14" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="R14" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="S14" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="T14" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="U14" s="101" t="e">
         <f>_xll.qlMidSafe($Q14,$R14)</f>
-        <v>97.254999999999995</v>
-      </c>
-      <c r="V14" s="372">
+        <v>#NUM!</v>
+      </c>
+      <c r="V14" s="370" t="str">
         <f>_xll.RtGet("IDN",O14,"TRDVOL_1")</f>
-        <v>6</v>
-      </c>
-      <c r="W14" s="377">
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W14" s="375" t="str">
         <f>_xll.RtGet("IDN",O14,"OPINT_1")</f>
-        <v>177482</v>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X14" s="102" t="s">
         <v>224</v>
@@ -31843,12 +31843,12 @@
         <v>97.265000000000001</v>
       </c>
       <c r="Z14" s="102"/>
-      <c r="AA14" s="154">
-        <v>97.254999999999995</v>
-      </c>
-      <c r="AB14" s="104">
+      <c r="AA14" s="154" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="AB14" s="104" t="e">
         <f>_xll.qlSimpleQuoteSetValue(F14,AA14,Trigger)</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC14" s="9"/>
       <c r="AD14" s="3"/>
@@ -31860,15 +31860,15 @@
         <v>0</v>
       </c>
       <c r="AH14" s="58" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="AI14" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM5ConvAdj_Quote</v>
+        <v>AUDFUT3MN5ConvAdj_Quote</v>
       </c>
       <c r="AJ14" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI14,IborIndex,AH14,F14,Volatility,MeanReversion,Permanent,AND(ISERROR(AB14),ISERROR(FuturesHWConvAdj!Q14:Q15)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM5ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MN5ConvAdj_Quote#0006</v>
       </c>
       <c r="AK14" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ14)</f>
@@ -31885,15 +31885,15 @@
         <v>0</v>
       </c>
       <c r="D15" s="58" t="str">
-        <v>N5</v>
+        <v>Q5</v>
       </c>
       <c r="E15" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MN5_Quote</v>
+        <v>AUDFUT3MQ5_Quote</v>
       </c>
       <c r="F15" s="56" t="str">
         <f>_xll.qlSimpleQuote(E15,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MN5_Quote#0002</v>
+        <v>AUDFUT3MQ5_Quote#0000</v>
       </c>
       <c r="G15" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="M15" s="101" t="str">
-        <v>N5</v>
+        <v>Q5</v>
       </c>
       <c r="N15" s="157">
-        <v>42200</v>
+        <v>42235</v>
       </c>
       <c r="O15" s="101" t="str">
-        <v>YBAN5</v>
+        <v>YBAQ5</v>
       </c>
       <c r="P15" s="156" t="s">
         <v>221</v>
@@ -31935,11 +31935,11 @@
         <f>_xll.qlMidSafe($Q15,$R15)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V15" s="372" t="str">
+      <c r="V15" s="370" t="str">
         <f>_xll.RtGet("IDN",O15,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W15" s="377" t="str">
+      <c r="W15" s="375" t="str">
         <f>_xll.RtGet("IDN",O15,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -31967,15 +31967,15 @@
         <v>0</v>
       </c>
       <c r="AH15" s="58" t="str">
-        <v>N5</v>
+        <v>Q5</v>
       </c>
       <c r="AI15" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MN5ConvAdj_Quote</v>
+        <v>AUDFUT3MQ5ConvAdj_Quote</v>
       </c>
       <c r="AJ15" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI15,IborIndex,AH15,F15,Volatility,MeanReversion,Permanent,AND(ISERROR(AB15),ISERROR(FuturesHWConvAdj!Q15:Q16)),ObjectOverwrite)</f>
-        <v>AUDFUT3MN5ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MQ5ConvAdj_Quote#0006</v>
       </c>
       <c r="AK15" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ15)</f>
@@ -31992,15 +31992,15 @@
         <v>0</v>
       </c>
       <c r="D16" s="58" t="str">
-        <v>Q5</v>
+        <v>U5</v>
       </c>
       <c r="E16" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MQ5_Quote</v>
+        <v>AUDFUT3MU5_Quote</v>
       </c>
       <c r="F16" s="56" t="str">
         <f>_xll.qlSimpleQuote(E16,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MQ5_Quote#0002</v>
+        <v>AUDFUT3MU5_Quote#0000</v>
       </c>
       <c r="G16" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -32015,40 +32015,40 @@
         <v>0</v>
       </c>
       <c r="M16" s="101" t="str">
-        <v>Q5</v>
+        <v>U5</v>
       </c>
       <c r="N16" s="157">
-        <v>42235</v>
+        <v>42263</v>
       </c>
       <c r="O16" s="101" t="str">
-        <v>YBAQ5</v>
-      </c>
-      <c r="P16" s="156" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q16" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="R16" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="S16" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="T16" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="U16" s="101" t="e">
+        <v>YBAU5</v>
+      </c>
+      <c r="P16" s="156">
+        <v>42257</v>
+      </c>
+      <c r="Q16" s="101">
+        <v>97.23</v>
+      </c>
+      <c r="R16" s="101">
+        <v>97.24</v>
+      </c>
+      <c r="S16" s="101">
+        <v>97.23</v>
+      </c>
+      <c r="T16" s="101">
+        <v>97.24</v>
+      </c>
+      <c r="U16" s="101">
         <f>_xll.qlMidSafe($Q16,$R16)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="V16" s="372" t="str">
+        <v>97.234999999999999</v>
+      </c>
+      <c r="V16" s="370">
         <f>_xll.RtGet("IDN",O16,"TRDVOL_1")</f>
-        <v>#N/A The record could not be found</v>
-      </c>
-      <c r="W16" s="377" t="str">
+        <v>3</v>
+      </c>
+      <c r="W16" s="375">
         <f>_xll.RtGet("IDN",O16,"OPINT_1")</f>
-        <v>#N/A The record could not be found</v>
+        <v>137551</v>
       </c>
       <c r="X16" s="102" t="s">
         <v>224</v>
@@ -32057,12 +32057,12 @@
         <v>#NUM!</v>
       </c>
       <c r="Z16" s="102"/>
-      <c r="AA16" s="154" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AB16" s="104" t="e">
+      <c r="AA16" s="154">
+        <v>97.234999999999999</v>
+      </c>
+      <c r="AB16" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F16,AA16,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="9"/>
       <c r="AD16" s="3"/>
@@ -32074,15 +32074,15 @@
         <v>0</v>
       </c>
       <c r="AH16" s="58" t="str">
-        <v>Q5</v>
+        <v>U5</v>
       </c>
       <c r="AI16" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MQ5ConvAdj_Quote</v>
+        <v>AUDFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="AJ16" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI16,IborIndex,AH16,F16,Volatility,MeanReversion,Permanent,AND(ISERROR(AB16),ISERROR(FuturesHWConvAdj!Q16:Q17)),ObjectOverwrite)</f>
-        <v>AUDFUT3MQ5ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MU5ConvAdj_Quote#0006</v>
       </c>
       <c r="AK16" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ16)</f>
@@ -32099,15 +32099,15 @@
         <v>1</v>
       </c>
       <c r="D17" s="58" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="E17" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU5_Quote</v>
+        <v>AUDFUT3MZ5_Quote</v>
       </c>
       <c r="F17" s="56" t="str">
         <f>_xll.qlSimpleQuote(E17,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU5_Quote#0002</v>
+        <v>AUDFUT3MZ5_Quote#0000</v>
       </c>
       <c r="G17" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -32122,40 +32122,40 @@
         <v>1</v>
       </c>
       <c r="M17" s="101" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="N17" s="157">
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="O17" s="101" t="str">
-        <v>YBAU5</v>
+        <v>YBAZ5</v>
       </c>
       <c r="P17" s="156">
-        <v>42257</v>
+        <v>42348</v>
       </c>
       <c r="Q17" s="101">
-        <v>97.16</v>
+        <v>97.17</v>
       </c>
       <c r="R17" s="101">
-        <v>97.17</v>
+        <v>97.19</v>
       </c>
       <c r="S17" s="101">
-        <v>97.16</v>
+        <v>97.18</v>
       </c>
       <c r="T17" s="101">
-        <v>97.16</v>
+        <v>97.18</v>
       </c>
       <c r="U17" s="101">
         <f>_xll.qlMidSafe($Q17,$R17)</f>
-        <v>97.164999999999992</v>
-      </c>
-      <c r="V17" s="372">
+        <v>97.18</v>
+      </c>
+      <c r="V17" s="370">
         <f>_xll.RtGet("IDN",O17,"TRDVOL_1")</f>
-        <v>5</v>
-      </c>
-      <c r="W17" s="377">
+        <v>8</v>
+      </c>
+      <c r="W17" s="375">
         <f>_xll.RtGet("IDN",O17,"OPINT_1")</f>
-        <v>128656</v>
+        <v>76025</v>
       </c>
       <c r="X17" s="102" t="s">
         <v>224</v>
@@ -32165,7 +32165,7 @@
       </c>
       <c r="Z17" s="102"/>
       <c r="AA17" s="154">
-        <v>97.164999999999992</v>
+        <v>97.18</v>
       </c>
       <c r="AB17" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F17,AA17,Trigger)</f>
@@ -32181,15 +32181,15 @@
         <v>1</v>
       </c>
       <c r="AH17" s="58" t="str">
-        <v>U5</v>
+        <v>Z5</v>
       </c>
       <c r="AI17" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU5ConvAdj_Quote</v>
+        <v>AUDFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="AJ17" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI17,IborIndex,AH17,F17,Volatility,MeanReversion,Permanent,AND(ISERROR(AB17),ISERROR(FuturesHWConvAdj!Q17:Q18)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU5ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MZ5ConvAdj_Quote#0006</v>
       </c>
       <c r="AK17" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ17)</f>
@@ -32206,15 +32206,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="58" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="E18" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ5_Quote</v>
+        <v>AUDFUT3MH6_Quote</v>
       </c>
       <c r="F18" s="56" t="str">
         <f>_xll.qlSimpleQuote(E18,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ5_Quote#0002</v>
+        <v>AUDFUT3MH6_Quote#0000</v>
       </c>
       <c r="G18" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -32229,40 +32229,40 @@
         <v>1</v>
       </c>
       <c r="M18" s="101" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="N18" s="157">
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="O18" s="101" t="str">
-        <v>YBAZ5</v>
+        <v>YBAH6</v>
       </c>
       <c r="P18" s="156">
-        <v>42348</v>
+        <v>42439</v>
       </c>
       <c r="Q18" s="101">
-        <v>97.05</v>
+        <v>97.1</v>
       </c>
       <c r="R18" s="101">
-        <v>97.06</v>
+        <v>97.11</v>
       </c>
       <c r="S18" s="101">
-        <v>97.05</v>
+        <v>97.1</v>
       </c>
       <c r="T18" s="101">
-        <v>97.06</v>
+        <v>97.11</v>
       </c>
       <c r="U18" s="101">
         <f>_xll.qlMidSafe($Q18,$R18)</f>
-        <v>97.055000000000007</v>
-      </c>
-      <c r="V18" s="372">
+        <v>97.10499999999999</v>
+      </c>
+      <c r="V18" s="370">
         <f>_xll.RtGet("IDN",O18,"TRDVOL_1")</f>
-        <v>20</v>
-      </c>
-      <c r="W18" s="377">
+        <v>10</v>
+      </c>
+      <c r="W18" s="375">
         <f>_xll.RtGet("IDN",O18,"OPINT_1")</f>
-        <v>71991</v>
+        <v>55131</v>
       </c>
       <c r="X18" s="102" t="s">
         <v>224</v>
@@ -32272,7 +32272,7 @@
       </c>
       <c r="Z18" s="102"/>
       <c r="AA18" s="154">
-        <v>97.055000000000007</v>
+        <v>97.10499999999999</v>
       </c>
       <c r="AB18" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F18,AA18,Trigger)</f>
@@ -32288,15 +32288,15 @@
         <v>1</v>
       </c>
       <c r="AH18" s="58" t="str">
-        <v>Z5</v>
+        <v>H6</v>
       </c>
       <c r="AI18" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ5ConvAdj_Quote</v>
+        <v>AUDFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="AJ18" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI18,IborIndex,AH18,F18,Volatility,MeanReversion,Permanent,AND(ISERROR(AB18),ISERROR(FuturesHWConvAdj!Q18:Q19)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ5ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MH6ConvAdj_Quote#0006</v>
       </c>
       <c r="AK18" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ18)</f>
@@ -32313,15 +32313,15 @@
         <v>1</v>
       </c>
       <c r="D19" s="58" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="E19" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH6_Quote</v>
+        <v>AUDFUT3MM6_Quote</v>
       </c>
       <c r="F19" s="56" t="str">
         <f>_xll.qlSimpleQuote(E19,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH6_Quote#0002</v>
+        <v>AUDFUT3MM6_Quote#0000</v>
       </c>
       <c r="G19" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -32336,40 +32336,40 @@
         <v>1</v>
       </c>
       <c r="M19" s="101" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="N19" s="157">
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="O19" s="101" t="str">
-        <v>YBAH6</v>
+        <v>YBAM6</v>
       </c>
       <c r="P19" s="156">
-        <v>42439</v>
+        <v>42530</v>
       </c>
       <c r="Q19" s="101">
-        <v>96.94</v>
+        <v>97.01</v>
       </c>
       <c r="R19" s="101">
-        <v>96.96</v>
+        <v>97.03</v>
       </c>
       <c r="S19" s="101">
         <v>0</v>
       </c>
       <c r="T19" s="101">
-        <v>96.96</v>
+        <v>97.02</v>
       </c>
       <c r="U19" s="101">
         <f>_xll.qlMidSafe($Q19,$R19)</f>
-        <v>96.949999999999989</v>
-      </c>
-      <c r="V19" s="372">
+        <v>97.02000000000001</v>
+      </c>
+      <c r="V19" s="370">
         <f>_xll.RtGet("IDN",O19,"TRDVOL_1")</f>
         <v>0</v>
       </c>
-      <c r="W19" s="377">
+      <c r="W19" s="375">
         <f>_xll.RtGet("IDN",O19,"OPINT_1")</f>
-        <v>45424</v>
+        <v>30256</v>
       </c>
       <c r="X19" s="102" t="s">
         <v>224</v>
@@ -32379,7 +32379,7 @@
       </c>
       <c r="Z19" s="102"/>
       <c r="AA19" s="154">
-        <v>96.949999999999989</v>
+        <v>97.02000000000001</v>
       </c>
       <c r="AB19" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F19,AA19,Trigger)</f>
@@ -32395,15 +32395,15 @@
         <v>1</v>
       </c>
       <c r="AH19" s="58" t="str">
-        <v>H6</v>
+        <v>M6</v>
       </c>
       <c r="AI19" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH6ConvAdj_Quote</v>
+        <v>AUDFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="AJ19" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI19,IborIndex,AH19,F19,Volatility,MeanReversion,Permanent,AND(ISERROR(AB19),ISERROR(FuturesHWConvAdj!Q19:Q20)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH6ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MM6ConvAdj_Quote#0006</v>
       </c>
       <c r="AK19" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ19)</f>
@@ -32420,15 +32420,15 @@
         <v>1</v>
       </c>
       <c r="D20" s="58" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="E20" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM6_Quote</v>
+        <v>AUDFUT3MU6_Quote</v>
       </c>
       <c r="F20" s="56" t="str">
         <f>_xll.qlSimpleQuote(E20,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM6_Quote#0002</v>
+        <v>AUDFUT3MU6_Quote#0000</v>
       </c>
       <c r="G20" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -32443,40 +32443,40 @@
         <v>1</v>
       </c>
       <c r="M20" s="101" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="N20" s="157">
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="O20" s="101" t="str">
-        <v>YBAM6</v>
+        <v>YBAU6</v>
       </c>
       <c r="P20" s="156">
-        <v>42530</v>
+        <v>42621</v>
       </c>
       <c r="Q20" s="101">
-        <v>96.84</v>
+        <v>96.92</v>
       </c>
       <c r="R20" s="101">
-        <v>96.86</v>
+        <v>96.94</v>
       </c>
       <c r="S20" s="101">
         <v>0</v>
       </c>
       <c r="T20" s="101">
-        <v>96.86</v>
+        <v>96.94</v>
       </c>
       <c r="U20" s="101">
         <f>_xll.qlMidSafe($Q20,$R20)</f>
-        <v>96.85</v>
-      </c>
-      <c r="V20" s="372">
+        <v>96.93</v>
+      </c>
+      <c r="V20" s="370">
         <f>_xll.RtGet("IDN",O20,"TRDVOL_1")</f>
         <v>0</v>
       </c>
-      <c r="W20" s="377">
+      <c r="W20" s="375">
         <f>_xll.RtGet("IDN",O20,"OPINT_1")</f>
-        <v>28579</v>
+        <v>18199</v>
       </c>
       <c r="X20" s="102" t="s">
         <v>224</v>
@@ -32486,7 +32486,7 @@
       </c>
       <c r="Z20" s="102"/>
       <c r="AA20" s="154">
-        <v>96.85</v>
+        <v>96.93</v>
       </c>
       <c r="AB20" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F20,AA20,Trigger)</f>
@@ -32502,15 +32502,15 @@
         <v>1</v>
       </c>
       <c r="AH20" s="58" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="AI20" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM6ConvAdj_Quote</v>
+        <v>AUDFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="AJ20" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI20,IborIndex,AH20,F20,Volatility,MeanReversion,Permanent,AND(ISERROR(AB20),ISERROR(FuturesHWConvAdj!Q20:Q21)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM6ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MU6ConvAdj_Quote#0006</v>
       </c>
       <c r="AK20" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ20)</f>
@@ -32527,15 +32527,15 @@
         <v>1</v>
       </c>
       <c r="D21" s="58" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="E21" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU6_Quote</v>
+        <v>AUDFUT3MZ6_Quote</v>
       </c>
       <c r="F21" s="56" t="str">
         <f>_xll.qlSimpleQuote(E21,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU6_Quote#0002</v>
+        <v>AUDFUT3MZ6_Quote#0000</v>
       </c>
       <c r="G21" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -32550,40 +32550,40 @@
         <v>1</v>
       </c>
       <c r="M21" s="101" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="N21" s="157">
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="O21" s="101" t="str">
-        <v>YBAU6</v>
+        <v>YBAZ6</v>
       </c>
       <c r="P21" s="156">
-        <v>42621</v>
+        <v>42712</v>
       </c>
       <c r="Q21" s="101">
-        <v>96.75</v>
+        <v>96.83</v>
       </c>
       <c r="R21" s="101">
-        <v>96.77</v>
+        <v>96.86</v>
       </c>
       <c r="S21" s="101">
         <v>0</v>
       </c>
       <c r="T21" s="101">
-        <v>96.75</v>
+        <v>96.82</v>
       </c>
       <c r="U21" s="101">
         <f>_xll.qlMidSafe($Q21,$R21)</f>
-        <v>96.759999999999991</v>
-      </c>
-      <c r="V21" s="372">
+        <v>96.844999999999999</v>
+      </c>
+      <c r="V21" s="370">
         <f>_xll.RtGet("IDN",O21,"TRDVOL_1")</f>
         <v>0</v>
       </c>
-      <c r="W21" s="377">
+      <c r="W21" s="375">
         <f>_xll.RtGet("IDN",O21,"OPINT_1")</f>
-        <v>11442</v>
+        <v>1313</v>
       </c>
       <c r="X21" s="102" t="s">
         <v>224</v>
@@ -32593,11 +32593,11 @@
       </c>
       <c r="Z21" s="102"/>
       <c r="AA21" s="154">
-        <v>96.759999999999991</v>
+        <v>96.844999999999999</v>
       </c>
       <c r="AB21" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F21,AA21,Trigger)</f>
-        <v>4.9999999999954525E-3</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="9"/>
       <c r="AD21" s="3"/>
@@ -32609,15 +32609,15 @@
         <v>1</v>
       </c>
       <c r="AH21" s="58" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="AI21" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU6ConvAdj_Quote</v>
+        <v>AUDFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="AJ21" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI21,IborIndex,AH21,F21,Volatility,MeanReversion,Permanent,AND(ISERROR(AB21),ISERROR(FuturesHWConvAdj!Q21:Q22)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU6ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MZ6ConvAdj_Quote#0006</v>
       </c>
       <c r="AK21" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ21)</f>
@@ -32634,15 +32634,15 @@
         <v>1</v>
       </c>
       <c r="D22" s="58" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="E22" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ6_Quote</v>
+        <v>AUDFUT3MH7_Quote</v>
       </c>
       <c r="F22" s="56" t="str">
         <f>_xll.qlSimpleQuote(E22,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ6_Quote#0002</v>
+        <v>AUDFUT3MH7_Quote#0000</v>
       </c>
       <c r="G22" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -32657,40 +32657,40 @@
         <v>1</v>
       </c>
       <c r="M22" s="101" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="N22" s="157">
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="O22" s="101" t="str">
-        <v>YBAZ6</v>
+        <v>YBAH7</v>
       </c>
       <c r="P22" s="156">
-        <v>42712</v>
+        <v>42803</v>
       </c>
       <c r="Q22" s="101">
-        <v>96.66</v>
+        <v>96.74</v>
       </c>
       <c r="R22" s="101">
-        <v>96.68</v>
+        <v>96.77</v>
       </c>
       <c r="S22" s="101">
         <v>0</v>
       </c>
       <c r="T22" s="101">
-        <v>96.66</v>
+        <v>96.79</v>
       </c>
       <c r="U22" s="101">
         <f>_xll.qlMidSafe($Q22,$R22)</f>
-        <v>96.67</v>
-      </c>
-      <c r="V22" s="372">
+        <v>96.754999999999995</v>
+      </c>
+      <c r="V22" s="370">
         <f>_xll.RtGet("IDN",O22,"TRDVOL_1")</f>
         <v>0</v>
       </c>
-      <c r="W22" s="377">
+      <c r="W22" s="375">
         <f>_xll.RtGet("IDN",O22,"OPINT_1")</f>
-        <v>468</v>
+        <v>689</v>
       </c>
       <c r="X22" s="102" t="s">
         <v>224</v>
@@ -32700,7 +32700,7 @@
       </c>
       <c r="Z22" s="102"/>
       <c r="AA22" s="154">
-        <v>96.67</v>
+        <v>96.754999999999995</v>
       </c>
       <c r="AB22" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F22,AA22,Trigger)</f>
@@ -32716,15 +32716,15 @@
         <v>1</v>
       </c>
       <c r="AH22" s="58" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="AI22" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ6ConvAdj_Quote</v>
+        <v>AUDFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="AJ22" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI22,IborIndex,AH22,F22,Volatility,MeanReversion,Permanent,AND(ISERROR(AB22),ISERROR(FuturesHWConvAdj!Q22:Q23)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ6ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MH7ConvAdj_Quote#0006</v>
       </c>
       <c r="AK22" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ22)</f>
@@ -32741,15 +32741,15 @@
         <v>1</v>
       </c>
       <c r="D23" s="58" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="E23" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH7_Quote</v>
+        <v>AUDFUT3MM7_Quote</v>
       </c>
       <c r="F23" s="56" t="str">
         <f>_xll.qlSimpleQuote(E23,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH7_Quote#0002</v>
+        <v>AUDFUT3MM7_Quote#0000</v>
       </c>
       <c r="G23" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -32764,40 +32764,40 @@
         <v>1</v>
       </c>
       <c r="M23" s="101" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="N23" s="157">
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="O23" s="101" t="str">
-        <v>YBAH7</v>
+        <v>YBAM7</v>
       </c>
       <c r="P23" s="156">
-        <v>42803</v>
+        <v>42894</v>
       </c>
       <c r="Q23" s="101">
-        <v>96.56</v>
+        <v>96.64</v>
       </c>
       <c r="R23" s="101">
-        <v>96.58</v>
+        <v>96.67</v>
       </c>
       <c r="S23" s="101">
         <v>0</v>
       </c>
       <c r="T23" s="101">
-        <v>96.57</v>
+        <v>96.67</v>
       </c>
       <c r="U23" s="101">
         <f>_xll.qlMidSafe($Q23,$R23)</f>
-        <v>96.57</v>
-      </c>
-      <c r="V23" s="372">
+        <v>96.655000000000001</v>
+      </c>
+      <c r="V23" s="370">
         <f>_xll.RtGet("IDN",O23,"TRDVOL_1")</f>
         <v>0</v>
       </c>
-      <c r="W23" s="377">
+      <c r="W23" s="375">
         <f>_xll.RtGet("IDN",O23,"OPINT_1")</f>
-        <v>298</v>
+        <v>409</v>
       </c>
       <c r="X23" s="102" t="s">
         <v>224</v>
@@ -32807,7 +32807,7 @@
       </c>
       <c r="Z23" s="102"/>
       <c r="AA23" s="154">
-        <v>96.57</v>
+        <v>96.655000000000001</v>
       </c>
       <c r="AB23" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F23,AA23,Trigger)</f>
@@ -32823,15 +32823,15 @@
         <v>1</v>
       </c>
       <c r="AH23" s="58" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="AI23" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH7ConvAdj_Quote</v>
+        <v>AUDFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="AJ23" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI23,IborIndex,AH23,F23,Volatility,MeanReversion,Permanent,AND(ISERROR(AB23),ISERROR(FuturesHWConvAdj!Q23:Q24)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH7ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MM7ConvAdj_Quote#0006</v>
       </c>
       <c r="AK23" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ23)</f>
@@ -32848,15 +32848,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="58" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="E24" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM7_Quote</v>
+        <v>AUDFUT3MU7_Quote</v>
       </c>
       <c r="F24" s="56" t="str">
         <f>_xll.qlSimpleQuote(E24,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM7_Quote#0002</v>
+        <v>AUDFUT3MU7_Quote#0000</v>
       </c>
       <c r="G24" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -32871,40 +32871,40 @@
         <v>1</v>
       </c>
       <c r="M24" s="101" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="N24" s="157">
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="O24" s="101" t="str">
-        <v>YBAM7</v>
+        <v>YBAU7</v>
       </c>
       <c r="P24" s="156">
-        <v>42894</v>
+        <v>42985</v>
       </c>
       <c r="Q24" s="101">
-        <v>96.46</v>
+        <v>96.55</v>
       </c>
       <c r="R24" s="101">
-        <v>96.48</v>
+        <v>96.58</v>
       </c>
       <c r="S24" s="101">
         <v>0</v>
       </c>
       <c r="T24" s="101">
-        <v>96.47</v>
+        <v>96.57</v>
       </c>
       <c r="U24" s="101">
         <f>_xll.qlMidSafe($Q24,$R24)</f>
-        <v>96.47</v>
-      </c>
-      <c r="V24" s="372">
+        <v>96.564999999999998</v>
+      </c>
+      <c r="V24" s="370">
         <f>_xll.RtGet("IDN",O24,"TRDVOL_1")</f>
         <v>0</v>
       </c>
-      <c r="W24" s="377">
+      <c r="W24" s="375">
         <f>_xll.RtGet("IDN",O24,"OPINT_1")</f>
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="X24" s="102" t="s">
         <v>224</v>
@@ -32914,7 +32914,7 @@
       </c>
       <c r="Z24" s="102"/>
       <c r="AA24" s="154">
-        <v>96.47</v>
+        <v>96.564999999999998</v>
       </c>
       <c r="AB24" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F24,AA24,Trigger)</f>
@@ -32930,15 +32930,15 @@
         <v>1</v>
       </c>
       <c r="AH24" s="58" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="AI24" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM7ConvAdj_Quote</v>
+        <v>AUDFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="AJ24" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI24,IborIndex,AH24,F24,Volatility,MeanReversion,Permanent,AND(ISERROR(AB24),ISERROR(FuturesHWConvAdj!Q24:Q25)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM7ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MU7ConvAdj_Quote#0006</v>
       </c>
       <c r="AK24" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ24)</f>
@@ -32955,15 +32955,15 @@
         <v>1</v>
       </c>
       <c r="D25" s="58" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="E25" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU7_Quote</v>
+        <v>AUDFUT3MZ7_Quote</v>
       </c>
       <c r="F25" s="56" t="str">
         <f>_xll.qlSimpleQuote(E25,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU7_Quote#0002</v>
+        <v>AUDFUT3MZ7_Quote#0000</v>
       </c>
       <c r="G25" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -32978,38 +32978,38 @@
         <v>1</v>
       </c>
       <c r="M25" s="101" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="N25" s="157">
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="O25" s="101" t="str">
-        <v>YBAU7</v>
+        <v>YBAZ7</v>
       </c>
       <c r="P25" s="156">
-        <v>42985</v>
+        <v>43076</v>
       </c>
       <c r="Q25" s="101">
-        <v>96.37</v>
+        <v>96.44</v>
       </c>
       <c r="R25" s="101">
-        <v>96.4</v>
+        <v>96.49</v>
       </c>
       <c r="S25" s="101">
         <v>0</v>
       </c>
       <c r="T25" s="101">
-        <v>96.38</v>
+        <v>95.76</v>
       </c>
       <c r="U25" s="101">
         <f>_xll.qlMidSafe($Q25,$R25)</f>
-        <v>96.385000000000005</v>
-      </c>
-      <c r="V25" s="372">
+        <v>96.465000000000003</v>
+      </c>
+      <c r="V25" s="370">
         <f>_xll.RtGet("IDN",O25,"TRDVOL_1")</f>
         <v>0</v>
       </c>
-      <c r="W25" s="377">
+      <c r="W25" s="375">
         <f>_xll.RtGet("IDN",O25,"OPINT_1")</f>
         <v>0</v>
       </c>
@@ -33021,11 +33021,11 @@
       </c>
       <c r="Z25" s="102"/>
       <c r="AA25" s="154">
-        <v>96.385000000000005</v>
+        <v>96.465000000000003</v>
       </c>
       <c r="AB25" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F25,AA25,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999909051E-3</v>
       </c>
       <c r="AC25" s="9"/>
       <c r="AD25" s="3"/>
@@ -33037,15 +33037,15 @@
         <v>1</v>
       </c>
       <c r="AH25" s="58" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="AI25" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU7ConvAdj_Quote</v>
+        <v>AUDFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="AJ25" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI25,IborIndex,AH25,F25,Volatility,MeanReversion,Permanent,AND(ISERROR(AB25),ISERROR(FuturesHWConvAdj!Q25:Q26)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU7ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MZ7ConvAdj_Quote#0006</v>
       </c>
       <c r="AK25" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ25)</f>
@@ -33062,15 +33062,15 @@
         <v>1</v>
       </c>
       <c r="D26" s="58" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="E26" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ7_Quote</v>
+        <v>AUDFUT3MH8_Quote</v>
       </c>
       <c r="F26" s="56" t="str">
         <f>_xll.qlSimpleQuote(E26,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ7_Quote#0002</v>
+        <v>AUDFUT3MH8_Quote#0000</v>
       </c>
       <c r="G26" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -33085,22 +33085,22 @@
         <v>1</v>
       </c>
       <c r="M26" s="101" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="N26" s="157">
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="O26" s="101" t="str">
-        <v>YBAZ7</v>
+        <v>YBAH8</v>
       </c>
       <c r="P26" s="156">
-        <v>43076</v>
+        <v>43167</v>
       </c>
       <c r="Q26" s="101">
-        <v>96.27</v>
+        <v>96.34</v>
       </c>
       <c r="R26" s="101">
-        <v>96.33</v>
+        <v>96.39</v>
       </c>
       <c r="S26" s="101">
         <v>0</v>
@@ -33110,13 +33110,13 @@
       </c>
       <c r="U26" s="101">
         <f>_xll.qlMidSafe($Q26,$R26)</f>
-        <v>96.3</v>
-      </c>
-      <c r="V26" s="372">
+        <v>96.365000000000009</v>
+      </c>
+      <c r="V26" s="370">
         <f>_xll.RtGet("IDN",O26,"TRDVOL_1")</f>
         <v>0</v>
       </c>
-      <c r="W26" s="377">
+      <c r="W26" s="375">
         <f>_xll.RtGet("IDN",O26,"OPINT_1")</f>
         <v>0</v>
       </c>
@@ -33128,11 +33128,11 @@
       </c>
       <c r="Z26" s="102"/>
       <c r="AA26" s="154">
-        <v>96.3</v>
+        <v>96.365000000000009</v>
       </c>
       <c r="AB26" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F26,AA26,Trigger)</f>
-        <v>0</v>
+        <v>-9.9999999999909051E-3</v>
       </c>
       <c r="AC26" s="9"/>
       <c r="AD26" s="3"/>
@@ -33144,15 +33144,15 @@
         <v>1</v>
       </c>
       <c r="AH26" s="58" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="AI26" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ7ConvAdj_Quote</v>
+        <v>AUDFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="AJ26" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI26,IborIndex,AH26,F26,Volatility,MeanReversion,Permanent,AND(ISERROR(AB26),ISERROR(FuturesHWConvAdj!Q26:Q27)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ7ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MH8ConvAdj_Quote#0006</v>
       </c>
       <c r="AK26" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ26)</f>
@@ -33169,15 +33169,15 @@
         <v>1</v>
       </c>
       <c r="D27" s="58" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="E27" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH8_Quote</v>
+        <v>AUDFUT3MM8_Quote</v>
       </c>
       <c r="F27" s="56" t="str">
         <f>_xll.qlSimpleQuote(E27,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH8_Quote#0002</v>
+        <v>AUDFUT3MM8_Quote#0000</v>
       </c>
       <c r="G27" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -33192,22 +33192,22 @@
         <v>1</v>
       </c>
       <c r="M27" s="101" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="N27" s="157">
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="O27" s="101" t="str">
-        <v>YBAH8</v>
+        <v>YBAM8</v>
       </c>
       <c r="P27" s="156">
-        <v>43167</v>
+        <v>43258</v>
       </c>
       <c r="Q27" s="101">
-        <v>0</v>
+        <v>96.24</v>
       </c>
       <c r="R27" s="101">
-        <v>0</v>
+        <v>96.29</v>
       </c>
       <c r="S27" s="101">
         <v>0</v>
@@ -33215,15 +33215,15 @@
       <c r="T27" s="101">
         <v>95.76</v>
       </c>
-      <c r="U27" s="101" t="e">
+      <c r="U27" s="101">
         <f>_xll.qlMidSafe($Q27,$R27)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="V27" s="372">
+        <v>96.265000000000001</v>
+      </c>
+      <c r="V27" s="370">
         <f>_xll.RtGet("IDN",O27,"TRDVOL_1")</f>
         <v>0</v>
       </c>
-      <c r="W27" s="377">
+      <c r="W27" s="375">
         <f>_xll.RtGet("IDN",O27,"OPINT_1")</f>
         <v>0</v>
       </c>
@@ -33234,12 +33234,12 @@
         <v>#NUM!</v>
       </c>
       <c r="Z27" s="102"/>
-      <c r="AA27" s="154" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AB27" s="104" t="e">
+      <c r="AA27" s="154">
+        <v>96.265000000000001</v>
+      </c>
+      <c r="AB27" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F27,AA27,Trigger)</f>
-        <v>#NUM!</v>
+        <v>-1.0000000000005116E-2</v>
       </c>
       <c r="AC27" s="9"/>
       <c r="AD27" s="3"/>
@@ -33251,15 +33251,15 @@
         <v>1</v>
       </c>
       <c r="AH27" s="58" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="AI27" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH8ConvAdj_Quote</v>
+        <v>AUDFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="AJ27" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI27,IborIndex,AH27,F27,Volatility,MeanReversion,Permanent,AND(ISERROR(AB27),ISERROR(FuturesHWConvAdj!Q27:Q28)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH8ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MM8ConvAdj_Quote#0006</v>
       </c>
       <c r="AK27" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ27)</f>
@@ -33276,15 +33276,15 @@
         <v>1</v>
       </c>
       <c r="D28" s="58" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="E28" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM8_Quote</v>
+        <v>AUDFUT3MU8_Quote</v>
       </c>
       <c r="F28" s="56" t="str">
         <f>_xll.qlSimpleQuote(E28,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM8_Quote#0002</v>
+        <v>AUDFUT3MU8_Quote#0000</v>
       </c>
       <c r="G28" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -33299,22 +33299,22 @@
         <v>1</v>
       </c>
       <c r="M28" s="101" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="N28" s="157">
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="O28" s="101" t="str">
-        <v>YBAM8</v>
+        <v>YBAU8</v>
       </c>
       <c r="P28" s="156">
-        <v>43258</v>
+        <v>43356</v>
       </c>
       <c r="Q28" s="101">
-        <v>0</v>
+        <v>96.14</v>
       </c>
       <c r="R28" s="101">
-        <v>0</v>
+        <v>96.19</v>
       </c>
       <c r="S28" s="101">
         <v>0</v>
@@ -33322,15 +33322,15 @@
       <c r="T28" s="101">
         <v>95.76</v>
       </c>
-      <c r="U28" s="101" t="e">
+      <c r="U28" s="101">
         <f>_xll.qlMidSafe($Q28,$R28)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="V28" s="372">
+        <v>96.164999999999992</v>
+      </c>
+      <c r="V28" s="370">
         <f>_xll.RtGet("IDN",O28,"TRDVOL_1")</f>
         <v>0</v>
       </c>
-      <c r="W28" s="377">
+      <c r="W28" s="375">
         <f>_xll.RtGet("IDN",O28,"OPINT_1")</f>
         <v>0</v>
       </c>
@@ -33341,12 +33341,12 @@
         <v>#NUM!</v>
       </c>
       <c r="Z28" s="102"/>
-      <c r="AA28" s="154" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AB28" s="104" t="e">
+      <c r="AA28" s="154">
+        <v>96.164999999999992</v>
+      </c>
+      <c r="AB28" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F28,AA28,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="9"/>
       <c r="AD28" s="3"/>
@@ -33358,15 +33358,15 @@
         <v>1</v>
       </c>
       <c r="AH28" s="58" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="AI28" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM8ConvAdj_Quote</v>
+        <v>AUDFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="AJ28" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI28,IborIndex,AH28,F28,Volatility,MeanReversion,Permanent,AND(ISERROR(AB28),ISERROR(FuturesHWConvAdj!Q28:Q29)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM8ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MU8ConvAdj_Quote#0006</v>
       </c>
       <c r="AK28" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ28)</f>
@@ -33383,15 +33383,15 @@
         <v>1</v>
       </c>
       <c r="D29" s="58" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="E29" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU8_Quote</v>
+        <v>AUDFUT3MZ8_Quote</v>
       </c>
       <c r="F29" s="56" t="str">
         <f>_xll.qlSimpleQuote(E29,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU8_Quote#0002</v>
+        <v>AUDFUT3MZ8_Quote#0000</v>
       </c>
       <c r="G29" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -33406,22 +33406,22 @@
         <v>1</v>
       </c>
       <c r="M29" s="101" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="N29" s="157">
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="O29" s="101" t="str">
-        <v>YBAU8</v>
+        <v>YBAZ8</v>
       </c>
       <c r="P29" s="156">
-        <v>43356</v>
+        <v>43447</v>
       </c>
       <c r="Q29" s="101">
-        <v>0</v>
+        <v>95.97</v>
       </c>
       <c r="R29" s="101">
-        <v>0</v>
+        <v>96.16</v>
       </c>
       <c r="S29" s="101">
         <v>0</v>
@@ -33429,15 +33429,15 @@
       <c r="T29" s="101">
         <v>95.76</v>
       </c>
-      <c r="U29" s="101" t="e">
+      <c r="U29" s="101">
         <f>_xll.qlMidSafe($Q29,$R29)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="V29" s="372">
+        <v>96.064999999999998</v>
+      </c>
+      <c r="V29" s="370">
         <f>_xll.RtGet("IDN",O29,"TRDVOL_1")</f>
         <v>0</v>
       </c>
-      <c r="W29" s="377">
+      <c r="W29" s="375">
         <f>_xll.RtGet("IDN",O29,"OPINT_1")</f>
         <v>0</v>
       </c>
@@ -33448,12 +33448,12 @@
         <v>#NUM!</v>
       </c>
       <c r="Z29" s="102"/>
-      <c r="AA29" s="154" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="AB29" s="104" t="e">
+      <c r="AA29" s="154">
+        <v>96.064999999999998</v>
+      </c>
+      <c r="AB29" s="104">
         <f>_xll.qlSimpleQuoteSetValue(F29,AA29,Trigger)</f>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="9"/>
       <c r="AD29" s="3"/>
@@ -33465,15 +33465,15 @@
         <v>1</v>
       </c>
       <c r="AH29" s="58" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="AI29" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU8ConvAdj_Quote</v>
+        <v>AUDFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="AJ29" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI29,IborIndex,AH29,F29,Volatility,MeanReversion,Permanent,AND(ISERROR(AB29),ISERROR(FuturesHWConvAdj!Q29:Q30)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU8ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MZ8ConvAdj_Quote#0006</v>
       </c>
       <c r="AK29" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ29)</f>
@@ -33490,15 +33490,15 @@
         <v>1</v>
       </c>
       <c r="D30" s="58" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="E30" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ8_Quote</v>
+        <v>AUDFUT3MH9_Quote</v>
       </c>
       <c r="F30" s="56" t="str">
         <f>_xll.qlSimpleQuote(E30,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ8_Quote#0002</v>
+        <v>AUDFUT3MH9_Quote#0000</v>
       </c>
       <c r="G30" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -33513,16 +33513,16 @@
         <v>1</v>
       </c>
       <c r="M30" s="101" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="N30" s="157">
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="O30" s="101" t="str">
-        <v>YBAZ8</v>
+        <v>YBAH9</v>
       </c>
       <c r="P30" s="156">
-        <v>43447</v>
+        <v>43531</v>
       </c>
       <c r="Q30" s="101">
         <v>0</v>
@@ -33534,17 +33534,17 @@
         <v>0</v>
       </c>
       <c r="T30" s="101">
-        <v>95.76</v>
+        <v>0</v>
       </c>
       <c r="U30" s="101" t="e">
         <f>_xll.qlMidSafe($Q30,$R30)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V30" s="372">
+      <c r="V30" s="370">
         <f>_xll.RtGet("IDN",O30,"TRDVOL_1")</f>
         <v>0</v>
       </c>
-      <c r="W30" s="377">
+      <c r="W30" s="375">
         <f>_xll.RtGet("IDN",O30,"OPINT_1")</f>
         <v>0</v>
       </c>
@@ -33572,15 +33572,15 @@
         <v>1</v>
       </c>
       <c r="AH30" s="58" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="AI30" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ8ConvAdj_Quote</v>
+        <v>AUDFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="AJ30" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI30,IborIndex,AH30,F30,Volatility,MeanReversion,Permanent,AND(ISERROR(AB30),ISERROR(FuturesHWConvAdj!Q30:Q31)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ8ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MH9ConvAdj_Quote#0006</v>
       </c>
       <c r="AK30" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ30)</f>
@@ -33597,15 +33597,15 @@
         <v>1</v>
       </c>
       <c r="D31" s="58" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="E31" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH9_Quote</v>
+        <v>AUDFUT3MM9_Quote</v>
       </c>
       <c r="F31" s="56" t="str">
         <f>_xll.qlSimpleQuote(E31,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH9_Quote#0002</v>
+        <v>AUDFUT3MM9_Quote#0000</v>
       </c>
       <c r="G31" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -33620,16 +33620,16 @@
         <v>1</v>
       </c>
       <c r="M31" s="101" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="N31" s="157">
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="O31" s="101" t="str">
-        <v>YBAH9</v>
+        <v>YBAM9</v>
       </c>
       <c r="P31" s="156">
-        <v>43531</v>
+        <v>43629</v>
       </c>
       <c r="Q31" s="101">
         <v>0</v>
@@ -33647,11 +33647,11 @@
         <f>_xll.qlMidSafe($Q31,$R31)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V31" s="372">
+      <c r="V31" s="370">
         <f>_xll.RtGet("IDN",O31,"TRDVOL_1")</f>
         <v>0</v>
       </c>
-      <c r="W31" s="377">
+      <c r="W31" s="375">
         <f>_xll.RtGet("IDN",O31,"OPINT_1")</f>
         <v>0</v>
       </c>
@@ -33679,15 +33679,15 @@
         <v>1</v>
       </c>
       <c r="AH31" s="58" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="AI31" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH9ConvAdj_Quote</v>
+        <v>AUDFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="AJ31" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI31,IborIndex,AH31,F31,Volatility,MeanReversion,Permanent,AND(ISERROR(AB31),ISERROR(FuturesHWConvAdj!Q31:Q32)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH9ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MM9ConvAdj_Quote#0006</v>
       </c>
       <c r="AK31" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ31)</f>
@@ -33704,15 +33704,15 @@
         <v>1</v>
       </c>
       <c r="D32" s="58" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="E32" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM9_Quote</v>
+        <v>AUDFUT3MU9_Quote</v>
       </c>
       <c r="F32" s="56" t="str">
         <f>_xll.qlSimpleQuote(E32,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM9_Quote#0002</v>
+        <v>AUDFUT3MU9_Quote#0000</v>
       </c>
       <c r="G32" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -33727,16 +33727,16 @@
         <v>1</v>
       </c>
       <c r="M32" s="101" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="N32" s="157">
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="O32" s="101" t="str">
-        <v>YBAM9</v>
+        <v>YBAU9</v>
       </c>
       <c r="P32" s="156">
-        <v>43629</v>
+        <v>43720</v>
       </c>
       <c r="Q32" s="101">
         <v>0</v>
@@ -33754,11 +33754,11 @@
         <f>_xll.qlMidSafe($Q32,$R32)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V32" s="372">
+      <c r="V32" s="370">
         <f>_xll.RtGet("IDN",O32,"TRDVOL_1")</f>
         <v>0</v>
       </c>
-      <c r="W32" s="377">
+      <c r="W32" s="375">
         <f>_xll.RtGet("IDN",O32,"OPINT_1")</f>
         <v>0</v>
       </c>
@@ -33786,15 +33786,15 @@
         <v>1</v>
       </c>
       <c r="AH32" s="58" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="AI32" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM9ConvAdj_Quote</v>
+        <v>AUDFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="AJ32" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI32,IborIndex,AH32,F32,Volatility,MeanReversion,Permanent,AND(ISERROR(AB32),ISERROR(FuturesHWConvAdj!Q32:Q33)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM9ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MU9ConvAdj_Quote#0006</v>
       </c>
       <c r="AK32" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ32)</f>
@@ -33811,15 +33811,15 @@
         <v>1</v>
       </c>
       <c r="D33" s="58" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="E33" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU9_Quote</v>
+        <v>AUDFUT3MZ9_Quote</v>
       </c>
       <c r="F33" s="56" t="str">
         <f>_xll.qlSimpleQuote(E33,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU9_Quote#0002</v>
+        <v>AUDFUT3MZ9_Quote#0000</v>
       </c>
       <c r="G33" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -33834,40 +33834,40 @@
         <v>1</v>
       </c>
       <c r="M33" s="101" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="N33" s="157">
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="O33" s="101" t="str">
-        <v>YBAU9</v>
-      </c>
-      <c r="P33" s="156">
-        <v>43720</v>
-      </c>
-      <c r="Q33" s="101">
-        <v>0</v>
-      </c>
-      <c r="R33" s="101">
-        <v>0</v>
-      </c>
-      <c r="S33" s="101">
-        <v>0</v>
-      </c>
-      <c r="T33" s="101">
-        <v>0</v>
+        <v>YBAZ9</v>
+      </c>
+      <c r="P33" s="156" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q33" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="R33" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="S33" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="T33" s="101" t="s">
+        <v>221</v>
       </c>
       <c r="U33" s="101" t="e">
         <f>_xll.qlMidSafe($Q33,$R33)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V33" s="372">
+      <c r="V33" s="370" t="str">
         <f>_xll.RtGet("IDN",O33,"TRDVOL_1")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="377">
+        <v>#N/A The record could not be found</v>
+      </c>
+      <c r="W33" s="375" t="str">
         <f>_xll.RtGet("IDN",O33,"OPINT_1")</f>
-        <v>0</v>
+        <v>#N/A The record could not be found</v>
       </c>
       <c r="X33" s="102"/>
       <c r="Y33" s="155" t="e">
@@ -33891,15 +33891,15 @@
         <v>1</v>
       </c>
       <c r="AH33" s="58" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="AI33" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU9ConvAdj_Quote</v>
+        <v>AUDFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="AJ33" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI33,IborIndex,AH33,F33,Volatility,MeanReversion,Permanent,AND(ISERROR(AB33),ISERROR(FuturesHWConvAdj!Q33:Q34)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU9ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MZ9ConvAdj_Quote#0006</v>
       </c>
       <c r="AK33" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ33)</f>
@@ -33916,15 +33916,15 @@
         <v>1</v>
       </c>
       <c r="D34" s="58" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="E34" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ9_Quote</v>
+        <v>AUDFUT3MH0_Quote</v>
       </c>
       <c r="F34" s="56" t="str">
         <f>_xll.qlSimpleQuote(E34,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ9_Quote#0002</v>
+        <v>AUDFUT3MH0_Quote#0000</v>
       </c>
       <c r="G34" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -33939,13 +33939,13 @@
         <v>1</v>
       </c>
       <c r="M34" s="101" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="N34" s="157">
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="O34" s="101" t="str">
-        <v>YBAZ9</v>
+        <v>YBAH0</v>
       </c>
       <c r="P34" s="156" t="s">
         <v>221</v>
@@ -33966,11 +33966,11 @@
         <f>_xll.qlMidSafe($Q34,$R34)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V34" s="372" t="str">
+      <c r="V34" s="370" t="str">
         <f>_xll.RtGet("IDN",O34,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W34" s="377" t="str">
+      <c r="W34" s="375" t="str">
         <f>_xll.RtGet("IDN",O34,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -33998,15 +33998,15 @@
         <v>1</v>
       </c>
       <c r="AH34" s="58" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="AI34" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ9ConvAdj_Quote</v>
+        <v>AUDFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="AJ34" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI34,IborIndex,AH34,F34,Volatility,MeanReversion,Permanent,AND(ISERROR(AB34),ISERROR(FuturesHWConvAdj!Q34:Q35)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ9ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MH0ConvAdj_Quote#0006</v>
       </c>
       <c r="AK34" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ34)</f>
@@ -34023,15 +34023,15 @@
         <v>1</v>
       </c>
       <c r="D35" s="58" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="E35" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH0_Quote</v>
+        <v>AUDFUT3MM0_Quote</v>
       </c>
       <c r="F35" s="56" t="str">
         <f>_xll.qlSimpleQuote(E35,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH0_Quote#0002</v>
+        <v>AUDFUT3MM0_Quote#0000</v>
       </c>
       <c r="G35" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -34046,13 +34046,13 @@
         <v>1</v>
       </c>
       <c r="M35" s="101" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="N35" s="157">
-        <v>43908</v>
+        <v>43999</v>
       </c>
       <c r="O35" s="101" t="str">
-        <v>YBAH0</v>
+        <v>YBAM0</v>
       </c>
       <c r="P35" s="156" t="s">
         <v>221</v>
@@ -34073,11 +34073,11 @@
         <f>_xll.qlMidSafe($Q35,$R35)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V35" s="372" t="str">
+      <c r="V35" s="370" t="str">
         <f>_xll.RtGet("IDN",O35,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W35" s="377" t="str">
+      <c r="W35" s="375" t="str">
         <f>_xll.RtGet("IDN",O35,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -34105,15 +34105,15 @@
         <v>1</v>
       </c>
       <c r="AH35" s="58" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="AI35" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH0ConvAdj_Quote</v>
+        <v>AUDFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="AJ35" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI35,IborIndex,AH35,F35,Volatility,MeanReversion,Permanent,AND(ISERROR(AB35),ISERROR(FuturesHWConvAdj!Q35:Q36)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH0ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MM0ConvAdj_Quote#0006</v>
       </c>
       <c r="AK35" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ35)</f>
@@ -34130,15 +34130,15 @@
         <v>1</v>
       </c>
       <c r="D36" s="58" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="E36" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM0_Quote</v>
+        <v>AUDFUT3MU0_Quote</v>
       </c>
       <c r="F36" s="56" t="str">
         <f>_xll.qlSimpleQuote(E36,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM0_Quote#0002</v>
+        <v>AUDFUT3MU0_Quote#0000</v>
       </c>
       <c r="G36" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -34153,13 +34153,13 @@
         <v>1</v>
       </c>
       <c r="M36" s="101" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="N36" s="157">
-        <v>43999</v>
+        <v>44090</v>
       </c>
       <c r="O36" s="101" t="str">
-        <v>YBAM0</v>
+        <v>YBAU0</v>
       </c>
       <c r="P36" s="156" t="s">
         <v>221</v>
@@ -34180,11 +34180,11 @@
         <f>_xll.qlMidSafe($Q36,$R36)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V36" s="372" t="str">
+      <c r="V36" s="370" t="str">
         <f>_xll.RtGet("IDN",O36,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W36" s="377" t="str">
+      <c r="W36" s="375" t="str">
         <f>_xll.RtGet("IDN",O36,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -34212,15 +34212,15 @@
         <v>1</v>
       </c>
       <c r="AH36" s="58" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="AI36" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM0ConvAdj_Quote</v>
+        <v>AUDFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="AJ36" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI36,IborIndex,AH36,F36,Volatility,MeanReversion,Permanent,AND(ISERROR(AB36),ISERROR(FuturesHWConvAdj!Q36:Q37)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM0ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MU0ConvAdj_Quote#0006</v>
       </c>
       <c r="AK36" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ36)</f>
@@ -34237,15 +34237,15 @@
         <v>1</v>
       </c>
       <c r="D37" s="58" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="E37" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU0_Quote</v>
+        <v>AUDFUT3MZ0_Quote</v>
       </c>
       <c r="F37" s="56" t="str">
         <f>_xll.qlSimpleQuote(E37,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU0_Quote#0002</v>
+        <v>AUDFUT3MZ0_Quote#0000</v>
       </c>
       <c r="G37" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -34260,13 +34260,13 @@
         <v>1</v>
       </c>
       <c r="M37" s="101" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="N37" s="157">
-        <v>44090</v>
+        <v>44181</v>
       </c>
       <c r="O37" s="101" t="str">
-        <v>YBAU0</v>
+        <v>YBAZ0</v>
       </c>
       <c r="P37" s="156" t="s">
         <v>221</v>
@@ -34287,11 +34287,11 @@
         <f>_xll.qlMidSafe($Q37,$R37)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V37" s="372" t="str">
+      <c r="V37" s="370" t="str">
         <f>_xll.RtGet("IDN",O37,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W37" s="377" t="str">
+      <c r="W37" s="375" t="str">
         <f>_xll.RtGet("IDN",O37,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -34319,15 +34319,15 @@
         <v>1</v>
       </c>
       <c r="AH37" s="58" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="AI37" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU0ConvAdj_Quote</v>
+        <v>AUDFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="AJ37" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI37,IborIndex,AH37,F37,Volatility,MeanReversion,Permanent,AND(ISERROR(AB37),ISERROR(FuturesHWConvAdj!Q37:Q38)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU0ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MZ0ConvAdj_Quote#0006</v>
       </c>
       <c r="AK37" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ37)</f>
@@ -34344,15 +34344,15 @@
         <v>1</v>
       </c>
       <c r="D38" s="58" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="E38" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ0_Quote</v>
+        <v>AUDFUT3MH1_Quote</v>
       </c>
       <c r="F38" s="56" t="str">
         <f>_xll.qlSimpleQuote(E38,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ0_Quote#0002</v>
+        <v>AUDFUT3MH1_Quote#0000</v>
       </c>
       <c r="G38" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -34367,13 +34367,13 @@
         <v>1</v>
       </c>
       <c r="M38" s="101" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="N38" s="157">
-        <v>44181</v>
+        <v>44272</v>
       </c>
       <c r="O38" s="101" t="str">
-        <v>YBAZ0</v>
+        <v>YBAH1</v>
       </c>
       <c r="P38" s="156" t="s">
         <v>221</v>
@@ -34394,11 +34394,11 @@
         <f>_xll.qlMidSafe($Q38,$R38)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V38" s="372" t="str">
+      <c r="V38" s="370" t="str">
         <f>_xll.RtGet("IDN",O38,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W38" s="377" t="str">
+      <c r="W38" s="375" t="str">
         <f>_xll.RtGet("IDN",O38,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -34426,15 +34426,15 @@
         <v>1</v>
       </c>
       <c r="AH38" s="58" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="AI38" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ0ConvAdj_Quote</v>
+        <v>AUDFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="AJ38" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI38,IborIndex,AH38,F38,Volatility,MeanReversion,Permanent,AND(ISERROR(AB38),ISERROR(FuturesHWConvAdj!Q38:Q39)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ0ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MH1ConvAdj_Quote#0006</v>
       </c>
       <c r="AK38" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ38)</f>
@@ -34451,15 +34451,15 @@
         <v>1</v>
       </c>
       <c r="D39" s="58" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="E39" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH1_Quote</v>
+        <v>AUDFUT3MM1_Quote</v>
       </c>
       <c r="F39" s="56" t="str">
         <f>_xll.qlSimpleQuote(E39,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH1_Quote#0002</v>
+        <v>AUDFUT3MM1_Quote#0000</v>
       </c>
       <c r="G39" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -34474,13 +34474,13 @@
         <v>1</v>
       </c>
       <c r="M39" s="101" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="N39" s="157">
-        <v>44272</v>
+        <v>44363</v>
       </c>
       <c r="O39" s="101" t="str">
-        <v>YBAH1</v>
+        <v>YBAM1</v>
       </c>
       <c r="P39" s="156" t="s">
         <v>221</v>
@@ -34501,11 +34501,11 @@
         <f>_xll.qlMidSafe($Q39,$R39)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V39" s="372" t="str">
+      <c r="V39" s="370" t="str">
         <f>_xll.RtGet("IDN",O39,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W39" s="377" t="str">
+      <c r="W39" s="375" t="str">
         <f>_xll.RtGet("IDN",O39,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -34533,15 +34533,15 @@
         <v>1</v>
       </c>
       <c r="AH39" s="58" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="AI39" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH1ConvAdj_Quote</v>
+        <v>AUDFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="AJ39" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI39,IborIndex,AH39,F39,Volatility,MeanReversion,Permanent,AND(ISERROR(AB39),ISERROR(FuturesHWConvAdj!Q39:Q40)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH1ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MM1ConvAdj_Quote#0006</v>
       </c>
       <c r="AK39" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ39)</f>
@@ -34558,15 +34558,15 @@
         <v>1</v>
       </c>
       <c r="D40" s="58" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="E40" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM1_Quote</v>
+        <v>AUDFUT3MU1_Quote</v>
       </c>
       <c r="F40" s="56" t="str">
         <f>_xll.qlSimpleQuote(E40,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM1_Quote#0002</v>
+        <v>AUDFUT3MU1_Quote#0000</v>
       </c>
       <c r="G40" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -34581,13 +34581,13 @@
         <v>1</v>
       </c>
       <c r="M40" s="101" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="N40" s="157">
-        <v>44363</v>
+        <v>44454</v>
       </c>
       <c r="O40" s="101" t="str">
-        <v>YBAM1</v>
+        <v>YBAU1</v>
       </c>
       <c r="P40" s="156" t="s">
         <v>221</v>
@@ -34608,11 +34608,11 @@
         <f>_xll.qlMidSafe($Q40,$R40)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V40" s="372" t="str">
+      <c r="V40" s="370" t="str">
         <f>_xll.RtGet("IDN",O40,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W40" s="377" t="str">
+      <c r="W40" s="375" t="str">
         <f>_xll.RtGet("IDN",O40,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -34640,15 +34640,15 @@
         <v>1</v>
       </c>
       <c r="AH40" s="58" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="AI40" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM1ConvAdj_Quote</v>
+        <v>AUDFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="AJ40" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI40,IborIndex,AH40,F40,Volatility,MeanReversion,Permanent,AND(ISERROR(AB40),ISERROR(FuturesHWConvAdj!Q40:Q41)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM1ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MU1ConvAdj_Quote#0006</v>
       </c>
       <c r="AK40" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ40)</f>
@@ -34665,15 +34665,15 @@
         <v>1</v>
       </c>
       <c r="D41" s="58" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="E41" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU1_Quote</v>
+        <v>AUDFUT3MZ1_Quote</v>
       </c>
       <c r="F41" s="56" t="str">
         <f>_xll.qlSimpleQuote(E41,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU1_Quote#0002</v>
+        <v>AUDFUT3MZ1_Quote#0000</v>
       </c>
       <c r="G41" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -34688,13 +34688,13 @@
         <v>1</v>
       </c>
       <c r="M41" s="101" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="N41" s="157">
-        <v>44454</v>
+        <v>44545</v>
       </c>
       <c r="O41" s="101" t="str">
-        <v>YBAU1</v>
+        <v>YBAZ1</v>
       </c>
       <c r="P41" s="156" t="s">
         <v>221</v>
@@ -34715,11 +34715,11 @@
         <f>_xll.qlMidSafe($Q41,$R41)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V41" s="372" t="str">
+      <c r="V41" s="370" t="str">
         <f>_xll.RtGet("IDN",O41,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W41" s="377" t="str">
+      <c r="W41" s="375" t="str">
         <f>_xll.RtGet("IDN",O41,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -34747,15 +34747,15 @@
         <v>1</v>
       </c>
       <c r="AH41" s="58" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="AI41" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU1ConvAdj_Quote</v>
+        <v>AUDFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="AJ41" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI41,IborIndex,AH41,F41,Volatility,MeanReversion,Permanent,AND(ISERROR(AB41),ISERROR(FuturesHWConvAdj!Q41:Q42)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU1ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MZ1ConvAdj_Quote#0006</v>
       </c>
       <c r="AK41" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ41)</f>
@@ -34772,15 +34772,15 @@
         <v>1</v>
       </c>
       <c r="D42" s="58" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="E42" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ1_Quote</v>
+        <v>AUDFUT3MH2_Quote</v>
       </c>
       <c r="F42" s="56" t="str">
         <f>_xll.qlSimpleQuote(E42,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ1_Quote#0002</v>
+        <v>AUDFUT3MH2_Quote#0000</v>
       </c>
       <c r="G42" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -34795,13 +34795,13 @@
         <v>1</v>
       </c>
       <c r="M42" s="101" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="N42" s="157">
-        <v>44545</v>
+        <v>44636</v>
       </c>
       <c r="O42" s="101" t="str">
-        <v>YBAZ1</v>
+        <v>YBAH2</v>
       </c>
       <c r="P42" s="156" t="s">
         <v>221</v>
@@ -34822,11 +34822,11 @@
         <f>_xll.qlMidSafe($Q42,$R42)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V42" s="372" t="str">
+      <c r="V42" s="370" t="str">
         <f>_xll.RtGet("IDN",O42,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W42" s="377" t="str">
+      <c r="W42" s="375" t="str">
         <f>_xll.RtGet("IDN",O42,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -34854,15 +34854,15 @@
         <v>1</v>
       </c>
       <c r="AH42" s="58" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="AI42" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ1ConvAdj_Quote</v>
+        <v>AUDFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="AJ42" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI42,IborIndex,AH42,F42,Volatility,MeanReversion,Permanent,AND(ISERROR(AB42),ISERROR(FuturesHWConvAdj!Q42:Q43)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ1ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MH2ConvAdj_Quote#0006</v>
       </c>
       <c r="AK42" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ42)</f>
@@ -34879,15 +34879,15 @@
         <v>1</v>
       </c>
       <c r="D43" s="58" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="E43" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MH2_Quote</v>
+        <v>AUDFUT3MM2_Quote</v>
       </c>
       <c r="F43" s="56" t="str">
         <f>_xll.qlSimpleQuote(E43,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MH2_Quote#0002</v>
+        <v>AUDFUT3MM2_Quote#0000</v>
       </c>
       <c r="G43" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -34902,13 +34902,13 @@
         <v>1</v>
       </c>
       <c r="M43" s="101" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="N43" s="157">
-        <v>44636</v>
+        <v>44727</v>
       </c>
       <c r="O43" s="101" t="str">
-        <v>YBAH2</v>
+        <v>YBAM2</v>
       </c>
       <c r="P43" s="156" t="s">
         <v>221</v>
@@ -34929,11 +34929,11 @@
         <f>_xll.qlMidSafe($Q43,$R43)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V43" s="372" t="str">
+      <c r="V43" s="370" t="str">
         <f>_xll.RtGet("IDN",O43,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W43" s="377" t="str">
+      <c r="W43" s="375" t="str">
         <f>_xll.RtGet("IDN",O43,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -34961,15 +34961,15 @@
         <v>1</v>
       </c>
       <c r="AH43" s="58" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="AI43" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MH2ConvAdj_Quote</v>
+        <v>AUDFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="AJ43" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI43,IborIndex,AH43,F43,Volatility,MeanReversion,Permanent,AND(ISERROR(AB43),ISERROR(FuturesHWConvAdj!Q43:Q44)),ObjectOverwrite)</f>
-        <v>AUDFUT3MH2ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MM2ConvAdj_Quote#0006</v>
       </c>
       <c r="AK43" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ43)</f>
@@ -34986,15 +34986,15 @@
         <v>1</v>
       </c>
       <c r="D44" s="58" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="E44" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MM2_Quote</v>
+        <v>AUDFUT3MU2_Quote</v>
       </c>
       <c r="F44" s="56" t="str">
         <f>_xll.qlSimpleQuote(E44,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MM2_Quote#0002</v>
+        <v>AUDFUT3MU2_Quote#0000</v>
       </c>
       <c r="G44" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -35009,13 +35009,13 @@
         <v>1</v>
       </c>
       <c r="M44" s="101" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="N44" s="157">
-        <v>44727</v>
+        <v>44825</v>
       </c>
       <c r="O44" s="101" t="str">
-        <v>YBAM2</v>
+        <v>YBAU2</v>
       </c>
       <c r="P44" s="156" t="s">
         <v>221</v>
@@ -35036,11 +35036,11 @@
         <f>_xll.qlMidSafe($Q44,$R44)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V44" s="372" t="str">
+      <c r="V44" s="370" t="str">
         <f>_xll.RtGet("IDN",O44,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W44" s="377" t="str">
+      <c r="W44" s="375" t="str">
         <f>_xll.RtGet("IDN",O44,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -35068,15 +35068,15 @@
         <v>1</v>
       </c>
       <c r="AH44" s="58" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="AI44" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MM2ConvAdj_Quote</v>
+        <v>AUDFUT3MU2ConvAdj_Quote</v>
       </c>
       <c r="AJ44" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI44,IborIndex,AH44,F44,Volatility,MeanReversion,Permanent,AND(ISERROR(AB44),ISERROR(FuturesHWConvAdj!Q44:Q45)),ObjectOverwrite)</f>
-        <v>AUDFUT3MM2ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MU2ConvAdj_Quote#0006</v>
       </c>
       <c r="AK44" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ44)</f>
@@ -35093,15 +35093,15 @@
         <v>1</v>
       </c>
       <c r="D45" s="58" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="E45" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MU2_Quote</v>
+        <v>AUDFUT3MZ2_Quote</v>
       </c>
       <c r="F45" s="56" t="str">
         <f>_xll.qlSimpleQuote(E45,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MU2_Quote#0002</v>
+        <v>AUDFUT3MZ2_Quote#0000</v>
       </c>
       <c r="G45" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -35116,13 +35116,13 @@
         <v>1</v>
       </c>
       <c r="M45" s="101" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="N45" s="157">
-        <v>44825</v>
+        <v>44916</v>
       </c>
       <c r="O45" s="101" t="str">
-        <v>YBAU2</v>
+        <v>YBAZ2</v>
       </c>
       <c r="P45" s="156" t="s">
         <v>221</v>
@@ -35143,11 +35143,11 @@
         <f>_xll.qlMidSafe($Q45,$R45)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V45" s="372" t="str">
+      <c r="V45" s="370" t="str">
         <f>_xll.RtGet("IDN",O45,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W45" s="377" t="str">
+      <c r="W45" s="375" t="str">
         <f>_xll.RtGet("IDN",O45,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -35175,15 +35175,15 @@
         <v>1</v>
       </c>
       <c r="AH45" s="58" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="AI45" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MU2ConvAdj_Quote</v>
+        <v>AUDFUT3MZ2ConvAdj_Quote</v>
       </c>
       <c r="AJ45" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI45,IborIndex,AH45,F45,Volatility,MeanReversion,Permanent,AND(ISERROR(AB45),ISERROR(FuturesHWConvAdj!Q45:Q46)),ObjectOverwrite)</f>
-        <v>AUDFUT3MU2ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MZ2ConvAdj_Quote#0006</v>
       </c>
       <c r="AK45" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ45)</f>
@@ -35200,15 +35200,15 @@
         <v>1</v>
       </c>
       <c r="D46" s="58" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="E46" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>AUDFUT3MZ2_Quote</v>
+        <v>AUDFUT3MH3_Quote</v>
       </c>
       <c r="F46" s="56" t="str">
         <f>_xll.qlSimpleQuote(E46,,PriceTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>AUDFUT3MZ2_Quote#0002</v>
+        <v>AUDFUT3MH3_Quote#0000</v>
       </c>
       <c r="G46" s="35" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -35223,13 +35223,13 @@
         <v>1</v>
       </c>
       <c r="M46" s="108" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="N46" s="150">
-        <v>44916</v>
+        <v>45000</v>
       </c>
       <c r="O46" s="108" t="str">
-        <v>YBAZ2</v>
+        <v>YBAH3</v>
       </c>
       <c r="P46" s="149" t="s">
         <v>221</v>
@@ -35250,11 +35250,11 @@
         <f>_xll.qlMidSafe($Q46,$R46)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V46" s="375" t="str">
+      <c r="V46" s="373" t="str">
         <f>_xll.RtGet("IDN",O46,"TRDVOL_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
-      <c r="W46" s="378" t="str">
+      <c r="W46" s="376" t="str">
         <f>_xll.RtGet("IDN",O46,"OPINT_1")</f>
         <v>#N/A The record could not be found</v>
       </c>
@@ -35282,15 +35282,15 @@
         <v>1</v>
       </c>
       <c r="AH46" s="58" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="AI46" s="94" t="str">
         <f t="shared" si="1"/>
-        <v>AUDFUT3MZ2ConvAdj_Quote</v>
+        <v>AUDFUT3MH3ConvAdj_Quote</v>
       </c>
       <c r="AJ46" s="93" t="str">
         <f>_xll.qlFuturesConvAdjustmentQuote(AI46,IborIndex,AH46,F46,Volatility,MeanReversion,Permanent,AND(ISERROR(AB46),ISERROR(FuturesHWConvAdj!Q46:Q47)),ObjectOverwrite)</f>
-        <v>AUDFUT3MZ2ConvAdj_Quote#0015</v>
+        <v>AUDFUT3MH3ConvAdj_Quote#0006</v>
       </c>
       <c r="AK46" s="17" t="str">
         <f>_xll.ohRangeRetrieveError(AJ46)</f>
@@ -35319,7 +35319,7 @@
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
-      <c r="V47" s="373"/>
+      <c r="V47" s="371"/>
       <c r="W47" s="85"/>
       <c r="X47" s="7" t="s">
         <v>224</v>
